--- a/data/02_intermediate/cleaned_Lord_Esperanza_songs.xlsx
+++ b/data/02_intermediate/cleaned_Lord_Esperanza_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts, se tordent, le temps n'efface mes remords Debout sous l'un de ces ébats solaires J'me sens déboussolé J'ai passé des nuits à chercher qui j'étais Un homme le devient quand on lui dit Je t'aime Dans l'escalier, je vois les étoiles qui restent alignées Malgré l'échec de nos destins liés, le reste m'a piégé La nuit, j'danse avec les ombres, fasciné par le mépris des hommes Nos âmes se perdent parfois dans des zones Dans lesquelles résonne le désordre Les mains ternies par le temps, je t'aimais tant que Je passe mes nuits à t'écrire des estampes Seul dans la tempête, mains sur les tempes Le froid me tempère, mon âme est en paix J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts se tordent, le temps n'efface mes remords Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes You might also like Conscience altérée par l'alter égo Pendant qu'mon cur se rétablira Demain dès l'aube, je t'oublierai Comme a su le faire Victor Hugo J'me demande pourquoi t'en pleures, pourquoi t'en pleures ? J'ai patienté mais c'est mon heure Je t'écris des fables émouvantes On s'enlise dans les sables mouvants Cette rancur venait de nous-même Notre histoire est sans dénouement J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts se tordent, le temps n'efface mes remords Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts, se tordent, le temps n'efface mes remords8</t>
+          <t>J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts, se tordent, le temps n'efface mes remords Debout sous l'un de ces ébats solaires J'me sens déboussolé J'ai passé des nuits à chercher qui j'étais Un homme le devient quand on lui dit Je t'aime Dans l'escalier, je vois les étoiles qui restent alignées Malgré l'échec de nos destins liés, le reste m'a piégé La nuit, j'danse avec les ombres, fasciné par le mépris des hommes Nos âmes se perdent parfois dans des zones Dans lesquelles résonne le désordre Les mains ternies par le temps, je t'aimais tant que Je passe mes nuits à t'écrire des estampes Seul dans la tempête, mains sur les tempes Le froid me tempère, mon âme est en paix J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts se tordent, le temps n'efface mes remords Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes Conscience altérée par l'alter égo Pendant qu'mon cur se rétablira Demain dès l'aube, je t'oublierai Comme a su le faire Victor Hugo J'me demande pourquoi t'en pleures, pourquoi t'en pleures ? J'ai patienté mais c'est mon heure Je t'écris des fables émouvantes On s'enlise dans les sables mouvants Cette rancur venait de nous-même Notre histoire est sans dénouement J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts se tordent, le temps n'efface mes remords Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui trahissent, j'sais qu'ils souffrent d'eux-mêmes Non, j'en veux pas à ceux qui m'haïssent, j'sais qu'ils souffrent d'eux-mêmes J'vois nos étreintes gravées sur le drapeau noir de la mort Nos torts, se tordent, le temps n'efface mes remords8</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La vérité n'est qu'un miroir brisé qui éclate tôt ou tard Nos reflets ne sont guère que des conséquences J'me sens comme Truman, le système nous intègre dans son plan séquence J'prends la couronne dans mes mains ensanglantées Je t'ai quitté quand le ciel sanglotait Le vice est venu s'implanter, sku L'être humain s'auto-détruit et trouve le temps de s'en vanter La trahison n'est qu'une tâche ternissant le linge en dentelle Comment quitter ensemble l'antenne si nos égos ne s'assemblent en paix Consulte mon étoile pour l'itinéraire Surveille celui qui te tend la main Il se pourrait qu'il ne soit plus l'même Si l'erreur est humaine Peut-on affirmer que l'être humain est une erreur Le leader de la pègre est Nobel de la paix Dis-moi qui sont les tiens, j'te dirai qui tu es J'en vois trop statuer, personne sait d'où l'Homme vient Tel un fils de prostituée J'pense à mes frères d'Afrique, à ces destins tués J'vois que le système s'acharne à les destituer Le chagrin se recèle, c'est chacun sa recette Les médias s'indignent mais s'accaparent en scred Tout ce putain de buzz, prennent les pa-parts en scred Comme les Qatar en Suède Tout ça s'apparente presque au cri dévastateur d'un AK47 You might also like Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Les étoiles pleurent et témoignent impuissantes Devant la déforestation, la bêtise humaine atteint son épicentre Et cet énième courtier rêve de défendre ses actions Quand la masse proteste toute l'élite s'enrichit Tandis qu'on pose plus l'oeil sur d'énormes exactions Toutes les normes sont rigides, ces enfoirés stationnent Dans la partie dorée Bien sûr qu'ils restent ensemble dans les différentes stations Ton soda préféré pompe les nappes phréatiques Assoiffe des villages, crée de la mortalité J'suis la peur frénétique des philosophes antiques Qui s'insère dans les cauchemars de Martin Luther Futur terroriste sans nationalité Tandis qu'on m'voue un culte de personnalité, hein La trêve est méritée, nos mères aimeraient qu'on blâme la désillusion du rêve américain Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Je suis la crainte de Marx, le désespoir des astres J'suis l'absence de conscience devant c'putain désastre J'suis le regard des autres, j'suis la détresse d'un jeune Qui s'éteint dans l'désordre J'suis l'clochard qu'a pas d'hôte J'suis l'salaire d'un sportif, l'influence dans les villes La haine sans motif et cette énième notif Je suis l'industrie, j'suis l'botox dans le string J'suis cette ménagère dont l'horoscope est strict J'suis ce système inégal, j'suis la faim sur le continent maudit J'suis ce moine qui s'immole, ce jeune dans l'illégal J'suis cette énième comptine Qu'on me dit qu'j'suis l'alcool au volant, j'suis l'virus Ebola J'ai beau lire sur le monde j'comprends pas sa violence J'suis cette âme insensible, j'suis ce tireur sans cible J'suis la déception d'un amour impossible J'suis l'sentiment d'rejet le plus exacerbé J'suis cette blonde sous cocaïne qui s'en va gerber Je suis les larmes d'une étoile, l'Homme pollue son air J'suis l'espoir d'un choix révolutionnaire J'suis la montée du nationalisme, je suis l'sensationnalisme Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran J'suis Idriss Aberkane, j'suis l'vulgarisateur J'suis l'taux d'THC dans l'vaporisateur J'suis le conservateur, j'suis la présidence noire J'suis le manque de respect de ceux qui s'servent à tord Je suis l'inquisition et le refus d'autorité Je suis l'acquisition de ma notoriété, la volonté de changement J'suis la force de l'esprit J'suis la pointe du fleuret, l'élégance de l'escrime J'suis la rigidité poussiéreuse des musées J'suis l'besoin d's'amuser sous lumière tamisée J'suis la démence du sage et la sagesse du fou J'suis la prise de sang, j'suis l'défi le plus fourbe J'suis l'overdose finale, la mort de Morrison Le suicide du fils et j'suis la mère seule Je suis l'immunité, je n'peux être autrement Donc je suis l'être humain dans sa globalité J'suis le rêve d'être aimé, j'l'avais dis dans d'entrée mais Je suis les 8 lettres du mot humanité11</t>
+          <t>La vérité n'est qu'un miroir brisé qui éclate tôt ou tard Nos reflets ne sont guère que des conséquences J'me sens comme Truman, le système nous intègre dans son plan séquence J'prends la couronne dans mes mains ensanglantées Je t'ai quitté quand le ciel sanglotait Le vice est venu s'implanter, sku L'être humain s'auto-détruit et trouve le temps de s'en vanter La trahison n'est qu'une tâche ternissant le linge en dentelle Comment quitter ensemble l'antenne si nos égos ne s'assemblent en paix Consulte mon étoile pour l'itinéraire Surveille celui qui te tend la main Il se pourrait qu'il ne soit plus l'même Si l'erreur est humaine Peut-on affirmer que l'être humain est une erreur Le leader de la pègre est Nobel de la paix Dis-moi qui sont les tiens, j'te dirai qui tu es J'en vois trop statuer, personne sait d'où l'Homme vient Tel un fils de prostituée J'pense à mes frères d'Afrique, à ces destins tués J'vois que le système s'acharne à les destituer Le chagrin se recèle, c'est chacun sa recette Les médias s'indignent mais s'accaparent en scred Tout ce putain de buzz, prennent les pa-parts en scred Comme les Qatar en Suède Tout ça s'apparente presque au cri dévastateur d'un AK47 Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Les étoiles pleurent et témoignent impuissantes Devant la déforestation, la bêtise humaine atteint son épicentre Et cet énième courtier rêve de défendre ses actions Quand la masse proteste toute l'élite s'enrichit Tandis qu'on pose plus l'oeil sur d'énormes exactions Toutes les normes sont rigides, ces enfoirés stationnent Dans la partie dorée Bien sûr qu'ils restent ensemble dans les différentes stations Ton soda préféré pompe les nappes phréatiques Assoiffe des villages, crée de la mortalité J'suis la peur frénétique des philosophes antiques Qui s'insère dans les cauchemars de Martin Luther Futur terroriste sans nationalité Tandis qu'on m'voue un culte de personnalité, hein La trêve est méritée, nos mères aimeraient qu'on blâme la désillusion du rêve américain Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Je suis la crainte de Marx, le désespoir des astres J'suis l'absence de conscience devant c'putain désastre J'suis le regard des autres, j'suis la détresse d'un jeune Qui s'éteint dans l'désordre J'suis l'clochard qu'a pas d'hôte J'suis l'salaire d'un sportif, l'influence dans les villes La haine sans motif et cette énième notif Je suis l'industrie, j'suis l'botox dans le string J'suis cette ménagère dont l'horoscope est strict J'suis ce système inégal, j'suis la faim sur le continent maudit J'suis ce moine qui s'immole, ce jeune dans l'illégal J'suis cette énième comptine Qu'on me dit qu'j'suis l'alcool au volant, j'suis l'virus Ebola J'ai beau lire sur le monde j'comprends pas sa violence J'suis cette âme insensible, j'suis ce tireur sans cible J'suis la déception d'un amour impossible J'suis l'sentiment d'rejet le plus exacerbé J'suis cette blonde sous cocaïne qui s'en va gerber Je suis les larmes d'une étoile, l'Homme pollue son air J'suis l'espoir d'un choix révolutionnaire J'suis la montée du nationalisme, je suis l'sensationnalisme Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Plus d'envie, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran J'suis Idriss Aberkane, j'suis l'vulgarisateur J'suis l'taux d'THC dans l'vaporisateur J'suis le conservateur, j'suis la présidence noire J'suis le manque de respect de ceux qui s'servent à tord Je suis l'inquisition et le refus d'autorité Je suis l'acquisition de ma notoriété, la volonté de changement J'suis la force de l'esprit J'suis la pointe du fleuret, l'élégance de l'escrime J'suis la rigidité poussiéreuse des musées J'suis l'besoin d's'amuser sous lumière tamisée J'suis la démence du sage et la sagesse du fou J'suis la prise de sang, j'suis l'défi le plus fourbe J'suis l'overdose finale, la mort de Morrison Le suicide du fils et j'suis la mère seule Je suis l'immunité, je n'peux être autrement Donc je suis l'être humain dans sa globalité J'suis le rêve d'être aimé, j'l'avais dis dans d'entrée mais Je suis les 8 lettres du mot humanité11</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sku jusqu'au jugement dernier, killcam Saiyans ou mutants guerriers, killcam Je suis dans la trap, oui je suis dans le piège L'élite de Paname est là 300 kmh et ma tête sur le siège Ma bitch dans un Panamera, killcam Des larmes et du sang versé, killcam Nique faire un tube sans percer Influencé par Shakespeare comme l'est toute sa vie Orson J'suis trop à l'aise en HP, j'donne des cours à Nicholson Le diable se trouve dans les détails comme Sasori qui fractionne J'suis incompris comme Ricky Jackson Certains parlent de moi je fais le tour, tu ne m'aimes pas Mais sache que ta racli m'observe Mon gava tu sais qu't'as fait le con, mauvais karma J'vais surement dab à tes obsèques Mon ami t'es hors-jeu, Billy c'est McCarthy Souvent tout de noir vêtu, la frappe à Dan Carter Roro sur le poignet, ne fait pas d'quartier Tes mc's sont bien nourris j'les graille en quatre quart d'heure Comme Yagami j'suis Light J'parle qu'en binaire t'es matrixé Shogo Makishima, tu m'as braqué t'es pas fixé J'ai croisé tous les ratpis sac à dos sur un fixie Oui mon langage est codé, c'est le nom de mon élixir You might also like Django Lord Eden dans la killcam, qu'ils cannent Protège tes arrières à la Kim K Django Lord Eden dans la killcam Django Lord Eden dans la killcam C'est super, j'observe vos mc's lutter Trop de cirque, en manque d'oxygène je respire avec des bulles d'air Je tue les gladiateurs dans mon crop circle Passage de la bible avant d'achever comme dans Pulp Fiction Connard, la vision d'Legolas Pas d'go dégueulasse, dans le Graal j'ai mis du cognac J'dois cogner Les phases fusent, rapide comme Raikkonen La chanson je la connais Vos mc's préférés me sont inconnus mais si la fille est mignonne je la connais Pas d'joint d'pollen, pas d'meuf siliconée, ils vont canner L'enterrement se fera sur Double Poney J'dépose une goutte de sang sur l'drapeau blanc comme les japonais Oui j'te kill, c'est au sniper que j'vise le titre Moi j'suis l'fils du king, toi t'es l'fils de qui ? Plus violent qu'One Punch Man en fist fucking Les mc's que j'feat touchent une prime de risque Django Lord Eden dans la killcam, qu'ils cannent Protège tes arrières à la Kim K Django Lord Eden dans la killcam Django Lord Eden dans la killcam Ils parleront de Lord comme celui qui racontera l'histoire On fera couler l'encre et le sang Ça paraît contradictoire, faut perdre beaucoup d'amis pour faire beaucoup d'argent J'ai vu des aînés désunis par le poids des années Tous désarmés face au désarroi Je me sens comme le prince qui se voit déjà roi J'suis signé depuis mes 18 piges bitch J'carotte normal Dom Pe' dans l'verre en cristal 23 carats sur ma chaîne en or pâle Oui je me distingue, j'y vais par instinct en un instant Quand j'suis instable j'm'installe dans les instances On passe un stade distinct Et pendant c'temps, je mets des distances à mon destin Sku jusqu'au jugement dernier, killcam Saiyens ou mutants guerriers, killcam Je suis dans la trap, oui je suis dans le piège L'élite de Paname est là 300 kmh et ma tête sur le siège Ma bitch dans un Panamera, killcam Des larmes et du sang versé, killcam Nique faire un tube sans percer23</t>
+          <t>Sku jusqu'au jugement dernier, killcam Saiyans ou mutants guerriers, killcam Je suis dans la trap, oui je suis dans le piège L'élite de Paname est là 300 kmh et ma tête sur le siège Ma bitch dans un Panamera, killcam Des larmes et du sang versé, killcam Nique faire un tube sans percer Influencé par Shakespeare comme l'est toute sa vie Orson J'suis trop à l'aise en HP, j'donne des cours à Nicholson Le diable se trouve dans les détails comme Sasori qui fractionne J'suis incompris comme Ricky Jackson Certains parlent de moi je fais le tour, tu ne m'aimes pas Mais sache que ta racli m'observe Mon gava tu sais qu't'as fait le con, mauvais karma J'vais surement dab à tes obsèques Mon ami t'es hors-jeu, Billy c'est McCarthy Souvent tout de noir vêtu, la frappe à Dan Carter Roro sur le poignet, ne fait pas d'quartier Tes mc's sont bien nourris j'les graille en quatre quart d'heure Comme Yagami j'suis Light J'parle qu'en binaire t'es matrixé Shogo Makishima, tu m'as braqué t'es pas fixé J'ai croisé tous les ratpis sac à dos sur un fixie Oui mon langage est codé, c'est le nom de mon élixir Django Lord Eden dans la killcam, qu'ils cannent Protège tes arrières à la Kim K Django Lord Eden dans la killcam Django Lord Eden dans la killcam C'est super, j'observe vos mc's lutter Trop de cirque, en manque d'oxygène je respire avec des bulles d'air Je tue les gladiateurs dans mon crop circle Passage de la bible avant d'achever comme dans Pulp Fiction Connard, la vision d'Legolas Pas d'go dégueulasse, dans le Graal j'ai mis du cognac J'dois cogner Les phases fusent, rapide comme Raikkonen La chanson je la connais Vos mc's préférés me sont inconnus mais si la fille est mignonne je la connais Pas d'joint d'pollen, pas d'meuf siliconée, ils vont canner L'enterrement se fera sur Double Poney J'dépose une goutte de sang sur l'drapeau blanc comme les japonais Oui j'te kill, c'est au sniper que j'vise le titre Moi j'suis l'fils du king, toi t'es l'fils de qui ? Plus violent qu'One Punch Man en fist fucking Les mc's que j'feat touchent une prime de risque Django Lord Eden dans la killcam, qu'ils cannent Protège tes arrières à la Kim K Django Lord Eden dans la killcam Django Lord Eden dans la killcam Ils parleront de Lord comme celui qui racontera l'histoire On fera couler l'encre et le sang Ça paraît contradictoire, faut perdre beaucoup d'amis pour faire beaucoup d'argent J'ai vu des aînés désunis par le poids des années Tous désarmés face au désarroi Je me sens comme le prince qui se voit déjà roi J'suis signé depuis mes 18 piges bitch J'carotte normal Dom Pe' dans l'verre en cristal 23 carats sur ma chaîne en or pâle Oui je me distingue, j'y vais par instinct en un instant Quand j'suis instable j'm'installe dans les instances On passe un stade distinct Et pendant c'temps, je mets des distances à mon destin Sku jusqu'au jugement dernier, killcam Saiyens ou mutants guerriers, killcam Je suis dans la trap, oui je suis dans le piège L'élite de Paname est là 300 kmh et ma tête sur le siège Ma bitch dans un Panamera, killcam Des larmes et du sang versé, killcam Nique faire un tube sans percer23</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Quelque part dans la tour de Lavanville Tu es frustré, j'lâche un couplet Coupe les détecteurs de fumée Ils commencent leur texte et ça y'est j'baille Ceux qui parlent derrière moi sont derrière moi J'suis le petit d'personne Pas de première partie, ni d'figu dans ton clip Je ne ferai pas non plus la queue à ton Planète Rap Ils peuvent tout faire Je vois que des clones comme des Stormtroopers Denzel Curry dans le subwoofer J'ai acquis des rêves, eux des dépressions quand je mets des pressions J'ai le haki des rois ça parle caribéen Ils font moins les malins comme un keuf, tout seul J'ai les dents longues comme un labrador 45 scientifiques dans mon laboratoire J'obéis à l'oseille, biff Satan parle de moi donc mes oreilles sifflent Meurtre sur prod, j'ouvre les 9 portes Ton cur saute j'ai le gun t'as le cumshot De la haine dans ma boussole J'arrive en booster, baisse tes phares Demande à Benoit Poelvoorde Le crime va arriver près de chez toi Personne ne s'en mêle j'ai le sang mêlé comme Wesley Snipes J'attends l'euro qui rentre, t'es qu'un merdeux qui rame Sous lean ils pensent avoir l'air cainri Mes requins rient You might also like Fils de pute reste à terre après c'qu'on va laisser Bien meilleur avec devine c'qu'on valait sans Nouveau combat naissant, certains tombent à l'essai J'repars quand je m'assure de leur convalescence T'y gagnerais à t'crédibiliser Pour mieux régner faut savoir diviser Yeah, Lord comme je disais J'féconde leurs daronnes pour me civiliser Y'a plus d'putain, plus d'putains hein Sur ces rappeurs je me vide la vessie Concu' fait la vaisselle, j'suis dans l'T-U-R-F L-O-R-D tu connais l'URL T'es bon qu'en 2005 comme le foot milanais C'est l'enfant du siècle face au rookie de l'année Mets l'futur sur track motherfucker sur truck J'suis le prince de la trap mo'fucker J'descends du ciel, devant paires d'yeux écarquillés J'laisse lécart crier, l'orgueil séparpiller Le rap français finit par se faire piller Yeah Marianne se plaint quand elle prend dans l'cul Comme cette France indépendantiste Fils de pute on est 136 J'rappe mieux que toi d'ailleurs j't'entends plus Car c'était tentant tu veux savoir ce que j'en pense miskina toi t'es mort dans l'film J'suis condescendant depuis l'enfance, fuis la sentence Ta grand-mère embrasse son pendentif J'fais mieux en ayant pire On est empire j'suis dans l'néant J'tire ce rap anéanti pour des années entières L-O, L-O, L-O-R-D J'vis d'argent et d'orgueil J'ai pas besoin des autres Ma bestialité vient de ma sexualité J'manque de repères mon père me manque J'la baise je jouis dans la mauvaise cavité Tantôt j'ressasse, tantôt je me drogue Fuck des cours de chant, j'préfère lauto-tune Autant d'thune pour un seul homme Sa mère, combien d'amis ai-je perdu ? J'm'endors sale, j'me réveille sobre J'sombre, les souvenirs manquent j'souffre de maux d'tête L'matin m'déprime, mes cernes s'effacent pas Baraude au stud' s'exerce sur face A Cours après l'euro, son vice Vulgaire servus assure le room service Depuis l'départ j'dépasse les bornes J'trouve pas les mots, j'bois mon foie déborde Fils de bohémiens so l'comédien On est sec à force de pleurer nos défunts A notre vue faut que ta nuque protège bien T'as parlé au médecin il t'a même porté plainte Comme un vampire dans son cercueil Maudit tah les trèfles à 13 feuilles J'ai les bonnes combinaisons comme au loto Bientôt j'explose comme un cocktail molotov Tellement de noms dans mon Death Note On fait des jongles et des headshot Fait des dégâts comme Hiroshima kho Les expériences scientifiques d'Orochimaru Fume la strawberry, dur comme John Terry J'suis tombé dans la potion comme Obélix Si j't'offre une rose, fais gaffe aux épines La force m'obéit, j'suis l'enfant de la prophétie Commet assassinat microphonique Fume de la sativa, d'l'hydroponique Tengo shoot vite, so Dukie Mes flows explosent tes proses poussives On vient mettre fin à leur hégémonie Les écraser comme une météorite Ça tire comme en Bosnie-Herzégovine Tous mes sons, mes projets sont bien hétéroclites Dans le labyrinthe de Carcosa Tape des siestes dans l'sarcophage Surement l'plus fort de ma génération Faut qu'ils l'sachent avant qu'ce soit ma consécration J'leur mets passement de jambes, accélération Puis j'fais un salto arrière comme célébration Mafia comme Three Six Badass comme Schillinger Khabat dans piscine, avec le Dillinger Très souvent ta copine me fait des bisous Fagget, tu fais quoi, me parles pas j'suis busy Super saiyan moi j'te baise à DBZ J'ai plus de vice et de violence qu'Adebisi Flingue une violente incantation Kho dans ton cerveau commence l'implantation J'te garantis plein de sensations Comme quand elle avait mis sa main dans l'caleçon Moi je n'ai pas de peine pour ces bâtards de traître J'passe à l'attaque, j'baise tous les avatars de Pain Sais qu'j'ai la classe de Wayne et l'armada secrète J'te jette un sort Avada Kedavra, j'te baise On m'appelle le Kaiser connasse Planant dans la froideur Gotham Damn J'me sens comme Walter Kovacs J'avance dans la noirceur totale Serein comme un Saiyan, je m'aligne avec les Aztèques J'crame comme ton majeur dans l'allume-cigare Saignant comme un steak frites gras Je ne steak pas mes rette-ciga, je les finis dans le bus L'ambition sournoise comme un soûlard dans une embuscade Mets mes dollars dans la suite Tu veux connaître la source du succès girl salées sont mes boules dans ta bouche Crade recouche-toi, déboule de plus bas que terre Salopes finissent flinguées comme des subalternes Ca sera la main sur des boules chaudes comme Sepp Blatter Je les saigne c'est nécessaire j'ai cessé de les laisser faire mothafucker J'ai analysé le sommet Tu peux point éviter ça Nan nan nan, tu peux point éviter ça On va régner sur ta putain d'planète PALA, j'veux des milliers dans des mallettes Les humains sont pas nets, les humais sont pas prêts On détient les manettes Car nous venons d'en dessous Je vais pas laver les tass' Leur conscience restera salie, sale Mec, il m'faut les sous La vie de gros enculé que je mérite, mérite Bitch Mon homme intérieur est comme le Mur de Berlin Il est béton sous la pression Manifeste la pestilence et l'abstinence de retenue du chagrin La raison l'emportera malgré ce parfum Détourné de la confiance je retrouve mon chemin J'entends chuchoter l'esprit qui noircit mon parchemin C'est l'endormissement de l'esclavage des émotions Si le score ne change pas la fin du match aura qu'a patienter Parce que c'est rare De ressusciter d'entre les morts Sans que personne ne frappe à la porte Mon vécu qui me parle de la sorte Comme ce n'est pas fini j'ai mal Faut qu'j'arrête de regarder les autres De peur qu'un jour aussi si je me vautre J'dois rester concentré sur les nôtres Mais en c'moment j'pige que dalle, nan nan J'étais galvanisé par la conjoncture des choses Mes ambitions dévoraient les caresses de mes proses Quand les amis trahissent les étrangers sont les premiers à être là Ceux qui pleurent avec toi dans ton désarroi Ne sont pas toujours ceux qui veulent t'aider à porter ta croix Faut changer mon intérieur pour que les choses autour de moi changent comme si j'étais le point de départ Les choses qui m'arrivent vu que ma vie A pénétré le destin que Dieu a placé au fond de moi Mon entendement n'est pas fermé comme l'état d'esprit d'une pute Qui s'fait baiser dans une étable Et qui n'a pas dit non quand le mec a ramené son cheval Mais qui a fait ... t'inquiètes pas chéri j'avale On est àl, on s'régale J'suis là pour ce soir rien d'illégal Mon corps d'adolescent quand à cheval me palpe Par contre pour l'animal pas de posture anale J'pourrais déféquer en te relaxant et niquer tout le bal Jolly Jumper n'a pas écouté les consignes oh shit De la matière fécale sur le trou de la cousine Maintenant les bails sont dits Maintenant les bails sont dits Jespère avoir l'espoir d'aller au paradis En utilisant des ignominies comme celle-ci J'prends l'selfie De ma vie en sursis Frère j'ai bien trop d'soucis Oh mon dieu c'est dur prends ma vie Ou laisse-moi réussir avant que ton fils asphyxie Qu'on soit fixés Biatch J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit Mais j'lui ferais cons' la L.A confidential Ouais mec on vit en squad C'est vrai qu'on fait du sale On tire dans l'tas On t'arrose, tu fuis L'humiliation est comprise dans l'taro du feat Ish-ish, j'boxe le mic comme Mike, Tyson K-O sur K-O J'apprends à générer l'chaos Là-haut chez Maître Kaio Un seule droite au sternum sectionne l'aorte J'suis maitre en Chi Sao, toi expert en Tsingtao La vie c'est pas rose, nos ennemis sont paro La vie c'est pas rose, nos ennemis sont paro Pour eux le week-end c'est para Pour nous, moi et mon squad On jump dans cette bitch comme un commando de paras Merde le choke j'emmerde le choke Blue Manchino dans cette pute j'emmerde le choke C'est super, j'observe vos mc's lutter Trop de cirque, en manque d'oxygène Je respire avec des bulles d'air Je tue les gladiateurs dans mon crop circle Passage de la Bible avant d'achever comme dans Pulp Fiction Connard, la vision d'Legolas Pas d'go dégueulasse, dans le Graal j'ai mis du cognac J'dois cogner Les phases fusent, rapide comme Raikkonen La chanson je la connais Vos mc's préférés me sont inconnus Mais si la fille est mignonne je la connais Pas d'joint d'pollen, pas d'meuf siliconée, ils vont caner L'enterrement se fera sur Double Poney J'dépose une goutte de sang sur l'drapeau blanc comme les japonais Oui j'te kill, c'est au sniper que j'vise le titre Moi j'suis l'fils du king, toi t'es l'fils de qui ? Plus violent qu'One Punch Man en fist fucking Les mc's que j'feat touchent une prime de risque J'suis dans le piège hey J'suis dans le piège oui j'suis dans la trap Sache qu'on va s'en aller, seuls sur une île Qu'après avoir assouvi l'ambition internationale Hmm Lord Sku sku sku c'est pas rationnel J'repars ovationné mo'fucker 23ème, l'âge de franc-maçonnerie Les portes du succès s'ouvrent depuis qu'on a sonné mo'fucker Mo'fucker yeah Ils parleront de Lord comme celui qui racontera l'histoire On fera couler l'encre et le sang Ça paraît contradictoire, faut perdre beaucoup d'amis pour faire beaucoup d'argent J'ai vu des aînés désunis par le poids des années Tous désarmés face au désarroi Je me sens comme le prince qui se voit déjà roi J'suis signé depuis mes 18 piges bitch J'carotte normal Dom Pe' dans l'verre en cristal, 23 carats sur ma chaîne en or pâle Oui je me distingue, j'y vais par instinct en un instant Quand j'suis instable j'm'installe dans les instances On passe un stade distinct Et pendant c'temps, je mets des distances à mon destin Échoué en bas du bat' pour combattre chaque fin du mois On a grandi sans billets, l'avenir dans l'cendrier Papa tape maman, j'l'entends crier A 25 khabat dans un F2 Les voisins craignent un débordement En même temps j'les comprends J'me lève j'ai l'mors d'la veille Le cur vaillant, d'un feuj qui sait qu'il va s'faire déporter Tu crois qu't'es bon parce que tes potes te mentent Si tu m'ressembles, tant mieux pour nous Beaucoup de péchés c'est encombrant J'travaille la nuit j'ai deux portables Ma vie sexuelle c'est un porno En état léthargique nos yeux interagissent mon réseau s'élargit Le nerf d'la guerre c'est l'argent L'amour dure 3 automnes J'bousille mon foie c'est monotone Mon frère s'casse le dos, c'est pas normal J'bicrave tes organes pour un orgasme T'as rien d'spécifique singulier t'es lambda J'crochète ta grand mère tah Youness Belhanda Tu demandes comme j'fais, coeur meurtri comme Orphée 23 carats chaîne en or fin Yung Sid Mais dans la solitude j'ai mes pensées Je me demande à quoi ça rime d'avoir une famille Généralement c'est eux qui vont venir manigancer Dans ton dos en te laissant des blessures Dans le temps s'essouffle avant de pouvoir bien les panser De ma confiance ces bâtards seront dispensés Y'a mes défaites mais n'auront pas le droit d'y penser Ma force n'est pas périssable du coup je gratte des versets Une intelligence surnaturelle sortie déversée L'important pour que dans la difficulté tu ne sois pas dispersé Merde, j'laisse tomber mes complexes J'me sens plus léger que Kim Kardashian sans fesses Dans mon imaginaire toute ma famille s'engraisse Au sens figuré pas dans la vie, sans stress Il y en a qui voudraient que ma puissance baisse Beaucoup dans la street XXX luisant lisant l'isolement Depuis mes exploits... XXX que dans la vie j'encaisse Bien plus de coups que, bien plus debout que... XXX J'viens pour tout baiser dans mon époque Pour donner un salaire de bâtard à tous ces footeux Les pauvres s'entraident et les riches pratiquent l'avarice Escarpé est le chemin si tu veux me rejoindre sur la montagne Où ton existence même est un risque Vouloir m'arrêter c'est comme vouloir se cacher de Dieu Autant se le dire Je recherche le but de la vie avant de voir les cieux Non j'avoue je l'ai trouvé à genoux pleurant dans ses yeux Toujours incompris des negros qui ne sont pas ambitieux À mes résolutions répond le succès Et j'ai résolu de faire les plus grandes scènes Donc on n'est pas là pour toujours essayer Et pour arriver sans bégayer À dominer la fin du monde pour étayer L'argumentaire qui rend le bon sens éveillé C'est normal Si un jour négro je perds la tête Car on n'est pas là pour toujours essayer Et pour arriver sans bégayer À dominer la fin du monde pour étayer L'argumentaire qui rend le bon sens éveillé Négro c'est pas la peine de com' pour m'effrayer Car je t'ai vu le soir avant de bien me réveiller Glisse ton corps dans le coffre-fort que je décore Les morts au premier abord sortent du désordre Tu les pousses sans même l'aimer Ça ce n'est pas le partage où sont les zélés Ou sont les moyens lésinés? La peur s'oppose à la foi, la taciturnité à ma voix Pour certains l'essentiel c'est le ciel, d'autres c'est les sous Moi c'est les deux à la fois Distendu fils, tant je le suis sans cesse Distant, obligé sinon le vice j'encaisse Listant sous insistance dans l'assistance du ciel À la poursuite de l'essentiel J'vois tout en minuté et tout est monotone Moi ? Mon horloger c'est Docteur Manhattan Dans ce monde d'atomes je n'dois pas renier ma nature J'me sens comme menotté dans l'labyrinthe du minotaure Si sur ma route frappe la foudre j'en ai rien foutre J'ressens le trouble de mes doutes quand j'ai les pensées pourpres Pendant qu'le temps s'écoule, et que mes plans s'échouent Toujours l'impression qu'j'parle dans l'vide Ou à des rangées d'sourds On m'appelle El Flaco , le squelette à l'air pâlot Sous une paire de Air Max, il est temps que j'me jette à l'eau ... Roosevelt Mais on n'est qu'poussière et un jour ou l'autre tout s'paye J'attends l'apocalypse et le dernier jugement Profitant des rares moments que le temps suspend Ca d'vient urgent ! Prince au pur sang Semblable à un cure-dent qui pourrait te surprendre Rouler en Mustang, écouter du Wu-Tang N'avoir plus l'temps d'écouler des bouteilles Le système est verrouillé, ça sera virulent J'veux voir ma vie rouler avant que ça ne vire aux larmes Parmi les timp's et les bandits, les flingues et les gentils Je feins d'être mesquin, mais le Prince ressort grandi Oscillant et essayant d'faire vaciller mes assaillants J'suis comme Ulysse, face à l'eau cyan de l'océan Bravant la discorde des moyens dont je dispose J'suis comme un cyborg aux frontières de l'hypnose Il m'reste que six clopes et l'fantôme de leurs diplômes Fuck le cyclope, j'suis dans l'il du cyclone Quand j'pe-ra, tu péris Je mérite d'être payé, enterrez mes billets Vous priez pour mieux vous tirer Moi j'ai besoin que de briller, laissez nous briller Ah laissez nous briller Laissez nous briller, laissez nous briller Grande est l'ambition l'audition est finie Je ne vis pas pour le rap Mais disons que dans 10 ans ma mission sera finie On va régner sur ta putain d'planète PALA, j'veux des milliers dans des mallettes Les humains sont pas nets, les humains sont pas clairs Les humains sont pas clairs J'vis chaque jour comme l'avant-dernier j'me dis que j'ferai tout demain Jévite d'entreprendre J'hésite entre l'prendre ou m'jeter sous le train J'écris quand je sens qu'j'déprime J'ai peur qu'ma vie m'file entre les doigts J'ai toujours pas trouvé c'qui allait pas Mais, miskine j'pense que c'est moi J'crois qu'résoudre des problèmes ça m'dépasse Mes parents m'ont laissé seul et un grand appartement Vide Si j'me plains j'suis qu'un sale garnement Rien n'passe à part le temps, j'suis vide Ça m'glace le sang, j'suis vide Rien n'a de sens, vide Pensées grossières et idées fines J'évite les filles j'ai peur de paraître débile et vil Après l'fils du commissaire, voici l'fils du patron Fils du patron, fi-fi-fils du patron L'existence un job de figuration J'stimule à fond et c'est par pure politesse A toutes mes exs qui me croyaient instable L'amour dure 3 minutes dans les toilettes d'un bar J'ai vu l'soleil disparaître derrière les nuages un jour d'automne de trop Le calme après la tempête, mes couilles au bord de l'eau J'suis complètement bourré j'ajoute des meufs au hasard sur Facebook J'débarque en volant comme dans la pub Redbull Jespère que j'finirai avec une belle rousse Drogue, la drogue la putain d'sa mère J'en vendais à la mienne, j'avais pas l'âge d'en consommer J'ai grandi dans l'noir, j'écris dans l'noir J'avais qu'mes yeux pour pleurer, mes larmes pour m'consoler J'ai connu jeune cash on l'appellait Don Noar On prendra tout c'que Dieu nous donneras Fils de stups' j'suis un sex pistols Il m'reste un phone pisté et un fond d'pastis Fumée anthracite j'ai les poumons encrassés Talent intrinsèque, j'suis drogué j'entre en scène Soir-ce j'ai l'mors, j'ai l'mors J'finis la 'teille seul la putain d'sa mère Ça fait désormais des années que la mienne désarmée Me regarde grandir avec désarroi Yung Sin mo'fucka Des souvenirs effacés dans l'cendrier Papa tape maman j'l'entends crier J'ferme les yeux j'ai des flashs qui m'reviennent Combien de bouteilles vais-je devoir m'enquiller ? 24 carats chaîne en or fin J'avais pas la majorité J'ai fais des montants, j'ai pas perdu mon temps Le mépris des miens, l'amour des vôtres On trouvera toujours l'énergie pour s'investir On juge par le respect, j'me méfie des tiens Nos curs meurtris par le temps vagabondent mais ne respirent plus J'pense aux grandeurs et leur disparition qui nous laisse des vestiges Lorsque notre espoir transparaissait je contemplais ton nom J'ai vu que son arc-en-ciel périssait Oui ta danse parait sombre j'vois c'que les cieux m'infligent On avance par l'essai on apprend par lexcès Le plafond des ténèbres éblouit c'que l'destin fige On en a des vertiges, oui le temps nous afflige Ça nous rend paresseux, lorgueil enterré sous quelques brumes de sommeil L'orage gronde et m'oblige à Pleurer sur des tombes oui je sais qu'la route est longue Traverse seul sur des lacs de sel dans le blizzard Seul sous un nuage noir face aux pluies diluviennes Son âme éclate dans le miroir comme ses pulsions qui lui viennent Tes baisers sont trompeurs, mystère sur deux lèvres tièdes Lespoir emplit ton cur, tas notre histoire dans les veines Jai pas su laimer passionnément, jai pansé les maux Pensant vraiment que ses démons puissent lemmener Poussant vainement son puissant venin Jattends lavènement du tout-puissant demain Je t'ai promis monts et merveilles, princesse des Cyclades C'est déjà pour toi que j'ai crevé le seul il du cyclope Souvent le destin ça claque lorsque ton chemin s'éclaire Est-ce que l'amour est cyclique ? Je t'écris ça à six o'clock Faut que je retrouve le soleil, faut que je trouve le sommeil Mais je tourne en rond et je repense à tes boucles d'oreilles 22 janvier, rien ne semblait nous faire trembler Et pourtant le temps nous a étranglé Je t'ai aimé d'emblée, je venais pour te contempler Jamais je n'aurais pensé qu'on deviendrait des étrangers L'un pour l'autre, en vrai de parfaits inconnus Moi qui me disais que la formule était insoluble Je t'ai jeté mon dévolu mais les relations évoluent J'ai fait ce que t'as voulu, et désormais c'est révolu Venir à ne plus se fréquenter, je t'assure que ça m'a changé Mes joues se creusent lorsque je constate que nos liens sont tranchés Il pleut dehors mais j'aperçois ta silhouette D'une main j'aimerais la saluer mais ta présence est si loin Me souhaites-tu un avenir aussi radieux Que celui que je t'ai pris, et sans dire adieu ? Xristina, entre désire et désillusion Dans un désert ou le désordre décime l'union De tappeler j'étais tenté quand ton absence me hantait Malgré nos différences la distance nous avait démantelés Oui j'suis tourmenté J'écris des prophéties j'ai paniqué parce que le doute m'hantait Bien que tenté, frère je ne peux tomber J'écris de façon miraculeuse Ma voix ramène la vie détruit les maladies tueuses Parfois j'ai l'impression de me tromper A l'heure où je te parle j'ai peut-être plus de problème que de cheveux sur la tête Mais la défaite me déteste sur ce point j'ai fait des tests Parce que j'ai baisé une grosse depuis de la pire espèce Quand j'étais bourré, je venais pas la capote j'ai tèj Merde, mais qu'ai-je fait Je me suis peut être foutu dans un putain d'piège seigneur Aie pitié de ma personne, épargne-moi de la maladie Que les gens redoutent plus que la mort Et que personne ne veut affronter parce qu'elle va compter Des corps et des corps et des corps et des corps parce que je suis l'enfant divin Oh my gad, oh my gad Je ne suis pas un faux malade, j'ai un fauve malade Je ne fais pas confiance aux nanas même si on en a sincèrement Face à moi les rageux préparent déjà eux-mêmes leur enterrement me délivre entièrement La crainte de Dieu, est assise devant mes Yeux quand se préparent les cieux et Ma vie est dépourvue d'inquiétude et ma seule quiétude est celle d'être sur la voie qui nous a sauvés Oui on a fait d'la merde à en faire pleurer nos mères Du rhum 3 rivières Le matin pas d'café au lait Guéri le mal par le mal pour le mal Fait hurler les douleurs qui sempilent Faut que j'énumère l'nombre de fils de pute dans la ciudad C'est comme si j'me bats contre ombres et lumières Parano à chaque pas, je crois qu'on m'observe Éteins la lumière, le grand méchant loup te guette Comme un colon je te fouette Je pé-ta ce blanc de préférence avec XX J'veux plus être rappeur, j'vais devenir proxénète Avec ces salopes je me dois d'être sévère Gifle de mac sur ta joue pour t'éclairer fils J'veux le même palmarès qu'Iceberg Slim J'suis pétard comme un mec du Tenessee J'veux qu'tu me parles d'argent, parle de bénéfices Non tu me connais pas, tu ne sais pas d'où j'arrive Dans ton angle mort je m'insère et te paralyse Tu vois j'analyse Guette moi l'effet, guette moi le 16 On se reverra à ton enterrement Tu vois j'étais rapide comme têtard Depuis ma latence augmente et maintenant je suis fêtard Alcoolique et fou j'pourrais t'ajouter des liquides létales Authentique, enterrez-moi dans mon village natal Y'a trop de pétasses qui veulent brasser mon oseille En espérant j'garde le sourire comme Faudel J'ai peur pour mon p'tit frère, j'suis pas un modèle Tes parents sont racistes j'te baise à l'hôtel Depuis j'ai dépassé des Esprit controversé rêvant de voir l'envers du décor On me jugera pour c'que je dis et ce que je rétorque silence, pute Fuck les écorchés vifs, t'es pas forcé d'vivre J'te facilite la tâche, bang bang j'amorce et tire La mort c'est pire cent ans Si y'a l'silence des morts, c'est que le diable veut t'entendre T'entends c'est bandant mais maintenant tu bandes mou Tu parles de money money mais t'assures pas les fins d'mois Dans l'enfance innocence monsieur est vraiment partout Maintenant j'connais les soirées olé olé et les partouzes Quelque part entre les terres du milieux et kingdom hearts Kimbo Slice dans corps de Ringo Starr Camouflé l'ombre comme chien de Baskerville J'te nargue en un couplet disparait comme le chat d'Chester Les connaisseurs nous connaissent pas dans blindtest d'accord Y'a des lames de rasoir dans mes paroles J'suis un Peaky Blinders Nique rentrer par la grande porte je rentre par la Stargate Il reste des bouts du rap français sur mon bas d'caisse Ma pierre est précieuse, ta pierre est tombale Je crache sur les marches de ton bat', c'est tout bon Regarde la poudre sort pas de m'narines mais d'mes canons J'aligne ligne sur ligne c'est mécanique J'ai plus l'temps mais je reste prudent J'ai toujours un cure-dent pour nettoyer la chair des MC coincée dans mes canines Écraser mes adversaire m'ennuie comme Saitama Quand j'gratte le papier explose comme Deidara T'as vraiment aucune raison d'me craindre A moins qu't'ai décidé d'me nuire A moins qu't'ai décidé d'me suivre Ni un leader, ni un suiveur j'ai le front qui suinte S'il faut j'userais d'mes deux poings pour m'frayer un chemin J'les crosserais comme Curry crossa Chris Paul J'leur briserais les deux chevilles comme si c'était des Krisprolls Cainri comme une Chrystler mais j'ai pas l'mis-per Y'a qu'mes dents qui crissent Phenergan dans le blister et shit glissé dans le dickies Vu qu'on meurt seul on vit seul, si on s'tue pour se sentir vivre Ni un leader, ni un suiveur J'avance seul ou avec des coéquipiers Tous vos rappeurs flingués j'vais les boxer vite fait Tu veux un feat frère c'est dead j'aime trop l'équité Tu veux un hit avec Eden, en deux tours de hall c'est plié Mais fuck j'vais pas t'donner c'qui plait À la bande de putes mainstream que vous êtes J'fais même pas rimer cette merde Ton pote wack MC veut des conseils Dit à ce pédé qu'il s'démerde J'te mytho si j'te dis que toute la nuit j'écris des textes J'en écris qu'un tout les deux mois J'enregistre que des démos, j'bois du Gin avec mes démons J'taffe mes skills dans la pénombre Si j'ai mis un headshot j'ai mis un péno Je vais finir cile-fa mais bon Même quand j'brille pas j'fais d'l'ombre J'ai vu le jour un soir de pleine lune L'enfant du siècle s'illumine dans ce ciel si lumineux Un grand art qui se fait savoir réside au curs des gènes Et l'une de mes seules problématiques C'est de devenir emblématique 200kmh sur la banquette arrière d'une Mercedes blanc mâte plaquée diplomatique J'laisse pas les autres faire, passe chez mon notaire Pour tenir j'vais appartenir aux hautes sphères Mes partenaires enflamment lappartement Particules de flow coincées dans la carte-mère Ils m'ont négligé vont me RT demain Mon avenir est à portée de main J'ai les cartes les gens oui j'écarte le jeu Claque des doigts et mon cartel agit Y'a beaucoup de magma dans mes artères coronaires Avant d'être nouveau-né, j'étais déjà couronné J'revois mes honoraires à la hausse pour une heure Je me montre assidu même dans leurs mondanités Entre les Cartier je ne compte pas Bollinger Pour chaque contrat signé, j'ai la montre assignée Devant les lingots j'ai pas l'air écuré Chez moi l'argent, le thème est récurent Rien à carrer d'vivre en curé ou bien celle que voudrait le coran Incurable est ma soif Faut des rivières d'or dans des carafes Dans les yeux de ma mère, japerçois des carats Sans cagnotte, nos espoirs s'effondrent comme en 40 Ils sont assassinés comme Thomas Sankara Sur les rivières du Styx poto c'est moi qui rame Je connais personne qui a les mains immaculés J'veux pas être locataire je veux l'or au Qatar J'entends les rats qui rient quand je dors en gardav' Tellement malsain que l'air est corrosif De la peur c'est tout ce qui sort de mon échographie Si j'ai l'air égaré quand je les regarde C'est qu'ils jettent l'auréole pour se faire couronner Donc poto les chiottes je vais pas les récurer Je développe ma pupille, ma cataracte Pour vous infliger des supplices tah Madara Tellement puissant,même sans fusil je passe à l'attaque Je kill vite ces padawans, surine au katana, hey hey Dans mon équipe, pas de dress-code On juge personne, on a des règles et on performe Vous feriez mieux de me féliciter au lieu de médire et d'écrire des débilités Je vais vous réduire, détruire votre crédibilité Bientôt hermite et je divise les divinités, t'es déficitaire Je compte plus les villes et les pays qu'j'ai visité J'contrôle l'eau, le vent... J'contrôle l'eau, le vent, le feu, lélectricité Sans oublier le mokuton, je convoite vos sous Comme Boo, je suis dans mon sous-sol Je gratte, j'ouvre Pro-tools et puis je me record tout seul Tengo John, j'suis le métronome Tu sais qu'j'prends plus l'métro boy Je vais faire de la trap pour montrer qu'évidemment le Nelick sait faire Je vais brûler les putes qui me disent que jamais de la vie je cé-per je vais planter leur mères Surtout que wallah c'est faux wallah c'est faux Mec ils m'disent que j'suis chaud Mais je vous baise je serai chaud quand mes couilles seront bien sur la braise Au pelo j'y vais mollo, j'suis dosé comme au vélo J'suis solo c'est des barres, j'ai hâte qu'on les baise XXX A la quête du très haut alors qu'il est en bas J'amène l'eau sur le polo Bendo dans la Polo tu pues sa mère dans tes solos Prêt à pour le pollen, tu vas finir dans la vallée sous le soleil Ils sont fauchés pour un téléphone Donnez moi le trône et les clés du coffre J'ai pas quitté l'école, j'les étonne Je veux remplir mes poches mais pour ça faut l'étoffe Oui pour ça faut le taff et le talent dans l'étalon Le talent dans l'étalon Nelick, NY, Pala J'écoute Denzel Curry, j'écoute Charles Trenet J'te viole sur un feat, ça fait cher le training J'dirige leur meute comme chien de traîneau Toi, toi, toi t'es une chienne de traînée J'veux pas être maillon faible mais une légende c'est dit J'veux être dans sky en jet, sur mer en jet ski UGK pour son booty groove Juicy J dans son pussy juice On peut t'faire la guerre pour des bouts de pain dur Le sang gicle sur l'bitume comme des gouttes de peinture J'vois mon futur dans ces flaques de sang J'suis avec David Lynch, j'bois une bière au Fouquet's J'suis avec Vladimir, j'mange une viande au Touquet T'as un pet' au bec, j'ai un pet' au casque Folie, j'souris comme Ectoplasma Fais pas le mariole Chaque nuit j'm'enfonce au fond des abysses comme Jacques Mayol J'écoute R.O.O.K.I.E, j'écoute Chat De Chester J'me bats contre mes fantômes comme un shadow boxer Dans le château d'Bowser, décollage au mirage Pour un jour espérer se mettre à notre hauteur, ils ont pas notre rage Je l'acère à lagneau, j'donne pas cher de ta peau J'ai l'karcher de Sarko, j'suis caché dans l'sarcophage OLAF Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-seller God damn Dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Mes mercenaires rêveraient d'inverser l'ère Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure j'persévère , Nasa gang interstellaire De Paris même jusquà New Delhi J'les élimine, ils veulent délimiter des lignes L'enfant du siècle s'illumine comme l'enluminure dans l'alinéa Un soir de pleine lune ou les astres s'alignent Mon ambition est planétaire telle le cartel de Médeline J'étale mon art sur triptyque fils j'ai l'équipe type Qui kick ? Speranza naturellement c'est sismique Ce genre de 2 mesures de démesure Paris ça coûte au moins 6 smics mo'fucker Nelick, Spe, tu connais le procédé Le prince est dans la ville faut s'entraider pour devenir monarque Je n'ai rien à concéder Frère j'en vois trop céder Ces débiles sur le trône prônent la pauvreté de mon art Merde ils sont possédés T'as raison perpétuer le silence doré dans nos vers Dorénavant sur une aut' sphère on les obsède, on les observe Placés dans les hautes sphères, parisiennes hein Contempler les cieux prend des heures Je n'écoute pas les ordres L'or est-il à l'horizon ? Les reptiles avaient raison ? Lord ? Oui ? Évitons la pendaison Faut leur ôter la peau des os Et prendre l'impôt des autres Je me vois briller dans vos cataractes, il n'y a plus rien qui m'étonne Je dors comme un qatari, guette comme on conquit Paris Parait qu'y a pas de cons qui parient Sur nous, Pala est incomparable 23 carats seront gravés dans le CAC 40, j'ai pas d'carences mec Ce qu'on sait c'est, que la grâce se concède Faut apprécier ce concept Faut récolter ce qu'on sème Elle me suce après ce concert J'sais qu'ils se concertent frère Je vois des lumières dans ces séquences C'est comme si j'étais concentré Sur le coup tu sais qu'on s'entête On sait qu'on s'entête souvent Sur des Mercedes-Benz blanc cassé Quand j'contemplais ses fesses Lors du 5 à 7, je ne pouvais m'en contenter Fais la fellation quand je fais la sieste Caviar dans l'assiette je dois remplir mes comptes en XXX Et du bon côté l'investisseur Veut nous contacter Je suis sur l'A7 Caviar sur le</t>
+          <t xml:space="preserve">Quelque part dans la tour de Lavanville Tu es frustré, j'lâche un couplet Coupe les détecteurs de fumée Ils commencent leur texte et ça y'est j'baille Ceux qui parlent derrière moi sont derrière moi J'suis le petit d'personne Pas de première partie, ni d'figu dans ton clip Je ne ferai pas non plus la queue à ton Planète Rap Ils peuvent tout faire Je vois que des clones comme des Stormtroopers Denzel Curry dans le subwoofer J'ai acquis des rêves, eux des dépressions quand je mets des pressions J'ai le haki des rois ça parle caribéen Ils font moins les malins comme un keuf, tout seul J'ai les dents longues comme un labrador 45 scientifiques dans mon laboratoire J'obéis à l'oseille, biff Satan parle de moi donc mes oreilles sifflent Meurtre sur prod, j'ouvre les 9 portes Ton cur saute j'ai le gun t'as le cumshot De la haine dans ma boussole J'arrive en booster, baisse tes phares Demande à Benoit Poelvoorde Le crime va arriver près de chez toi Personne ne s'en mêle j'ai le sang mêlé comme Wesley Snipes J'attends l'euro qui rentre, t'es qu'un merdeux qui rame Sous lean ils pensent avoir l'air cainri Mes requins rient Fils de pute reste à terre après c'qu'on va laisser Bien meilleur avec devine c'qu'on valait sans Nouveau combat naissant, certains tombent à l'essai J'repars quand je m'assure de leur convalescence T'y gagnerais à t'crédibiliser Pour mieux régner faut savoir diviser Yeah, Lord comme je disais J'féconde leurs daronnes pour me civiliser Y'a plus d'putain, plus d'putains hein Sur ces rappeurs je me vide la vessie Concu' fait la vaisselle, j'suis dans l'T-U-R-F L-O-R-D tu connais l'URL T'es bon qu'en 2005 comme le foot milanais C'est l'enfant du siècle face au rookie de l'année Mets l'futur sur track motherfucker sur truck J'suis le prince de la trap mo'fucker J'descends du ciel, devant paires d'yeux écarquillés J'laisse lécart crier, l'orgueil séparpiller Le rap français finit par se faire piller Yeah Marianne se plaint quand elle prend dans l'cul Comme cette France indépendantiste Fils de pute on est 136 J'rappe mieux que toi d'ailleurs j't'entends plus Car c'était tentant tu veux savoir ce que j'en pense miskina toi t'es mort dans l'film J'suis condescendant depuis l'enfance, fuis la sentence Ta grand-mère embrasse son pendentif J'fais mieux en ayant pire On est empire j'suis dans l'néant J'tire ce rap anéanti pour des années entières L-O, L-O, L-O-R-D J'vis d'argent et d'orgueil J'ai pas besoin des autres Ma bestialité vient de ma sexualité J'manque de repères mon père me manque J'la baise je jouis dans la mauvaise cavité Tantôt j'ressasse, tantôt je me drogue Fuck des cours de chant, j'préfère lauto-tune Autant d'thune pour un seul homme Sa mère, combien d'amis ai-je perdu ? J'm'endors sale, j'me réveille sobre J'sombre, les souvenirs manquent j'souffre de maux d'tête L'matin m'déprime, mes cernes s'effacent pas Baraude au stud' s'exerce sur face A Cours après l'euro, son vice Vulgaire servus assure le room service Depuis l'départ j'dépasse les bornes J'trouve pas les mots, j'bois mon foie déborde Fils de bohémiens so l'comédien On est sec à force de pleurer nos défunts A notre vue faut que ta nuque protège bien T'as parlé au médecin il t'a même porté plainte Comme un vampire dans son cercueil Maudit tah les trèfles à 13 feuilles J'ai les bonnes combinaisons comme au loto Bientôt j'explose comme un cocktail molotov Tellement de noms dans mon Death Note On fait des jongles et des headshot Fait des dégâts comme Hiroshima kho Les expériences scientifiques d'Orochimaru Fume la strawberry, dur comme John Terry J'suis tombé dans la potion comme Obélix Si j't'offre une rose, fais gaffe aux épines La force m'obéit, j'suis l'enfant de la prophétie Commet assassinat microphonique Fume de la sativa, d'l'hydroponique Tengo shoot vite, so Dukie Mes flows explosent tes proses poussives On vient mettre fin à leur hégémonie Les écraser comme une météorite Ça tire comme en Bosnie-Herzégovine Tous mes sons, mes projets sont bien hétéroclites Dans le labyrinthe de Carcosa Tape des siestes dans l'sarcophage Surement l'plus fort de ma génération Faut qu'ils l'sachent avant qu'ce soit ma consécration J'leur mets passement de jambes, accélération Puis j'fais un salto arrière comme célébration Mafia comme Three Six Badass comme Schillinger Khabat dans piscine, avec le Dillinger Très souvent ta copine me fait des bisous Fagget, tu fais quoi, me parles pas j'suis busy Super saiyan moi j'te baise à DBZ J'ai plus de vice et de violence qu'Adebisi Flingue une violente incantation Kho dans ton cerveau commence l'implantation J'te garantis plein de sensations Comme quand elle avait mis sa main dans l'caleçon Moi je n'ai pas de peine pour ces bâtards de traître J'passe à l'attaque, j'baise tous les avatars de Pain Sais qu'j'ai la classe de Wayne et l'armada secrète J'te jette un sort Avada Kedavra, j'te baise On m'appelle le Kaiser connasse Planant dans la froideur Gotham Damn J'me sens comme Walter Kovacs J'avance dans la noirceur totale Serein comme un Saiyan, je m'aligne avec les Aztèques J'crame comme ton majeur dans l'allume-cigare Saignant comme un steak frites gras Je ne steak pas mes rette-ciga, je les finis dans le bus L'ambition sournoise comme un soûlard dans une embuscade Mets mes dollars dans la suite Tu veux connaître la source du succès girl salées sont mes boules dans ta bouche Crade recouche-toi, déboule de plus bas que terre Salopes finissent flinguées comme des subalternes Ca sera la main sur des boules chaudes comme Sepp Blatter Je les saigne c'est nécessaire j'ai cessé de les laisser faire mothafucker J'ai analysé le sommet Tu peux point éviter ça Nan nan nan, tu peux point éviter ça On va régner sur ta putain d'planète PALA, j'veux des milliers dans des mallettes Les humains sont pas nets, les humais sont pas prêts On détient les manettes Car nous venons d'en dessous Je vais pas laver les tass' Leur conscience restera salie, sale Mec, il m'faut les sous La vie de gros enculé que je mérite, mérite Bitch Mon homme intérieur est comme le Mur de Berlin Il est béton sous la pression Manifeste la pestilence et l'abstinence de retenue du chagrin La raison l'emportera malgré ce parfum Détourné de la confiance je retrouve mon chemin J'entends chuchoter l'esprit qui noircit mon parchemin C'est l'endormissement de l'esclavage des émotions Si le score ne change pas la fin du match aura qu'a patienter Parce que c'est rare De ressusciter d'entre les morts Sans que personne ne frappe à la porte Mon vécu qui me parle de la sorte Comme ce n'est pas fini j'ai mal Faut qu'j'arrête de regarder les autres De peur qu'un jour aussi si je me vautre J'dois rester concentré sur les nôtres Mais en c'moment j'pige que dalle, nan nan J'étais galvanisé par la conjoncture des choses Mes ambitions dévoraient les caresses de mes proses Quand les amis trahissent les étrangers sont les premiers à être là Ceux qui pleurent avec toi dans ton désarroi Ne sont pas toujours ceux qui veulent t'aider à porter ta croix Faut changer mon intérieur pour que les choses autour de moi changent comme si j'étais le point de départ Les choses qui m'arrivent vu que ma vie A pénétré le destin que Dieu a placé au fond de moi Mon entendement n'est pas fermé comme l'état d'esprit d'une pute Qui s'fait baiser dans une étable Et qui n'a pas dit non quand le mec a ramené son cheval Mais qui a fait ... t'inquiètes pas chéri j'avale On est àl, on s'régale J'suis là pour ce soir rien d'illégal Mon corps d'adolescent quand à cheval me palpe Par contre pour l'animal pas de posture anale J'pourrais déféquer en te relaxant et niquer tout le bal Jolly Jumper n'a pas écouté les consignes oh shit De la matière fécale sur le trou de la cousine Maintenant les bails sont dits Maintenant les bails sont dits Jespère avoir l'espoir d'aller au paradis En utilisant des ignominies comme celle-ci J'prends l'selfie De ma vie en sursis Frère j'ai bien trop d'soucis Oh mon dieu c'est dur prends ma vie Ou laisse-moi réussir avant que ton fils asphyxie Qu'on soit fixés Biatch J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit J'serai fier de mon fils si il switch des three comme Tracy McGrady Et s'il évite de cramé l'shit Mais j'lui ferais cons' la L.A confidential Ouais mec on vit en squad C'est vrai qu'on fait du sale On tire dans l'tas On t'arrose, tu fuis L'humiliation est comprise dans l'taro du feat Ish-ish, j'boxe le mic comme Mike, Tyson K-O sur K-O J'apprends à générer l'chaos Là-haut chez Maître Kaio Un seule droite au sternum sectionne l'aorte J'suis maitre en Chi Sao, toi expert en Tsingtao La vie c'est pas rose, nos ennemis sont paro La vie c'est pas rose, nos ennemis sont paro Pour eux le week-end c'est para Pour nous, moi et mon squad On jump dans cette bitch comme un commando de paras Merde le choke j'emmerde le choke Blue Manchino dans cette pute j'emmerde le choke C'est super, j'observe vos mc's lutter Trop de cirque, en manque d'oxygène Je respire avec des bulles d'air Je tue les gladiateurs dans mon crop circle Passage de la Bible avant d'achever comme dans Pulp Fiction Connard, la vision d'Legolas Pas d'go dégueulasse, dans le Graal j'ai mis du cognac J'dois cogner Les phases fusent, rapide comme Raikkonen La chanson je la connais Vos mc's préférés me sont inconnus Mais si la fille est mignonne je la connais Pas d'joint d'pollen, pas d'meuf siliconée, ils vont caner L'enterrement se fera sur Double Poney J'dépose une goutte de sang sur l'drapeau blanc comme les japonais Oui j'te kill, c'est au sniper que j'vise le titre Moi j'suis l'fils du king, toi t'es l'fils de qui ? Plus violent qu'One Punch Man en fist fucking Les mc's que j'feat touchent une prime de risque J'suis dans le piège hey J'suis dans le piège oui j'suis dans la trap Sache qu'on va s'en aller, seuls sur une île Qu'après avoir assouvi l'ambition internationale Hmm Lord Sku sku sku c'est pas rationnel J'repars ovationné mo'fucker 23ème, l'âge de franc-maçonnerie Les portes du succès s'ouvrent depuis qu'on a sonné mo'fucker Mo'fucker yeah Ils parleront de Lord comme celui qui racontera l'histoire On fera couler l'encre et le sang Ça paraît contradictoire, faut perdre beaucoup d'amis pour faire beaucoup d'argent J'ai vu des aînés désunis par le poids des années Tous désarmés face au désarroi Je me sens comme le prince qui se voit déjà roi J'suis signé depuis mes 18 piges bitch J'carotte normal Dom Pe' dans l'verre en cristal, 23 carats sur ma chaîne en or pâle Oui je me distingue, j'y vais par instinct en un instant Quand j'suis instable j'm'installe dans les instances On passe un stade distinct Et pendant c'temps, je mets des distances à mon destin Échoué en bas du bat' pour combattre chaque fin du mois On a grandi sans billets, l'avenir dans l'cendrier Papa tape maman, j'l'entends crier A 25 khabat dans un F2 Les voisins craignent un débordement En même temps j'les comprends J'me lève j'ai l'mors d'la veille Le cur vaillant, d'un feuj qui sait qu'il va s'faire déporter Tu crois qu't'es bon parce que tes potes te mentent Si tu m'ressembles, tant mieux pour nous Beaucoup de péchés c'est encombrant J'travaille la nuit j'ai deux portables Ma vie sexuelle c'est un porno En état léthargique nos yeux interagissent mon réseau s'élargit Le nerf d'la guerre c'est l'argent L'amour dure 3 automnes J'bousille mon foie c'est monotone Mon frère s'casse le dos, c'est pas normal J'bicrave tes organes pour un orgasme T'as rien d'spécifique singulier t'es lambda J'crochète ta grand mère tah Youness Belhanda Tu demandes comme j'fais, coeur meurtri comme Orphée 23 carats chaîne en or fin Yung Sid Mais dans la solitude j'ai mes pensées Je me demande à quoi ça rime d'avoir une famille Généralement c'est eux qui vont venir manigancer Dans ton dos en te laissant des blessures Dans le temps s'essouffle avant de pouvoir bien les panser De ma confiance ces bâtards seront dispensés Y'a mes défaites mais n'auront pas le droit d'y penser Ma force n'est pas périssable du coup je gratte des versets Une intelligence surnaturelle sortie déversée L'important pour que dans la difficulté tu ne sois pas dispersé Merde, j'laisse tomber mes complexes J'me sens plus léger que Kim Kardashian sans fesses Dans mon imaginaire toute ma famille s'engraisse Au sens figuré pas dans la vie, sans stress Il y en a qui voudraient que ma puissance baisse Beaucoup dans la street XXX luisant lisant l'isolement Depuis mes exploits... XXX que dans la vie j'encaisse Bien plus de coups que, bien plus debout que... XXX J'viens pour tout baiser dans mon époque Pour donner un salaire de bâtard à tous ces footeux Les pauvres s'entraident et les riches pratiquent l'avarice Escarpé est le chemin si tu veux me rejoindre sur la montagne Où ton existence même est un risque Vouloir m'arrêter c'est comme vouloir se cacher de Dieu Autant se le dire Je recherche le but de la vie avant de voir les cieux Non j'avoue je l'ai trouvé à genoux pleurant dans ses yeux Toujours incompris des negros qui ne sont pas ambitieux À mes résolutions répond le succès Et j'ai résolu de faire les plus grandes scènes Donc on n'est pas là pour toujours essayer Et pour arriver sans bégayer À dominer la fin du monde pour étayer L'argumentaire qui rend le bon sens éveillé C'est normal Si un jour négro je perds la tête Car on n'est pas là pour toujours essayer Et pour arriver sans bégayer À dominer la fin du monde pour étayer L'argumentaire qui rend le bon sens éveillé Négro c'est pas la peine de com' pour m'effrayer Car je t'ai vu le soir avant de bien me réveiller Glisse ton corps dans le coffre-fort que je décore Les morts au premier abord sortent du désordre Tu les pousses sans même l'aimer Ça ce n'est pas le partage où sont les zélés Ou sont les moyens lésinés? La peur s'oppose à la foi, la taciturnité à ma voix Pour certains l'essentiel c'est le ciel, d'autres c'est les sous Moi c'est les deux à la fois Distendu fils, tant je le suis sans cesse Distant, obligé sinon le vice j'encaisse Listant sous insistance dans l'assistance du ciel À la poursuite de l'essentiel J'vois tout en minuté et tout est monotone Moi ? Mon horloger c'est Docteur Manhattan Dans ce monde d'atomes je n'dois pas renier ma nature J'me sens comme menotté dans l'labyrinthe du minotaure Si sur ma route frappe la foudre j'en ai rien foutre J'ressens le trouble de mes doutes quand j'ai les pensées pourpres Pendant qu'le temps s'écoule, et que mes plans s'échouent Toujours l'impression qu'j'parle dans l'vide Ou à des rangées d'sourds On m'appelle El Flaco , le squelette à l'air pâlot Sous une paire de Air Max, il est temps que j'me jette à l'eau ... Roosevelt Mais on n'est qu'poussière et un jour ou l'autre tout s'paye J'attends l'apocalypse et le dernier jugement Profitant des rares moments que le temps suspend Ca d'vient urgent ! Prince au pur sang Semblable à un cure-dent qui pourrait te surprendre Rouler en Mustang, écouter du Wu-Tang N'avoir plus l'temps d'écouler des bouteilles Le système est verrouillé, ça sera virulent J'veux voir ma vie rouler avant que ça ne vire aux larmes Parmi les timp's et les bandits, les flingues et les gentils Je feins d'être mesquin, mais le Prince ressort grandi Oscillant et essayant d'faire vaciller mes assaillants J'suis comme Ulysse, face à l'eau cyan de l'océan Bravant la discorde des moyens dont je dispose J'suis comme un cyborg aux frontières de l'hypnose Il m'reste que six clopes et l'fantôme de leurs diplômes Fuck le cyclope, j'suis dans l'il du cyclone Quand j'pe-ra, tu péris Je mérite d'être payé, enterrez mes billets Vous priez pour mieux vous tirer Moi j'ai besoin que de briller, laissez nous briller Ah laissez nous briller Laissez nous briller, laissez nous briller Grande est l'ambition l'audition est finie Je ne vis pas pour le rap Mais disons que dans 10 ans ma mission sera finie On va régner sur ta putain d'planète PALA, j'veux des milliers dans des mallettes Les humains sont pas nets, les humains sont pas clairs Les humains sont pas clairs J'vis chaque jour comme l'avant-dernier j'me dis que j'ferai tout demain Jévite d'entreprendre J'hésite entre l'prendre ou m'jeter sous le train J'écris quand je sens qu'j'déprime J'ai peur qu'ma vie m'file entre les doigts J'ai toujours pas trouvé c'qui allait pas Mais, miskine j'pense que c'est moi J'crois qu'résoudre des problèmes ça m'dépasse Mes parents m'ont laissé seul et un grand appartement Vide Si j'me plains j'suis qu'un sale garnement Rien n'passe à part le temps, j'suis vide Ça m'glace le sang, j'suis vide Rien n'a de sens, vide Pensées grossières et idées fines J'évite les filles j'ai peur de paraître débile et vil Après l'fils du commissaire, voici l'fils du patron Fils du patron, fi-fi-fils du patron L'existence un job de figuration J'stimule à fond et c'est par pure politesse A toutes mes exs qui me croyaient instable L'amour dure 3 minutes dans les toilettes d'un bar J'ai vu l'soleil disparaître derrière les nuages un jour d'automne de trop Le calme après la tempête, mes couilles au bord de l'eau J'suis complètement bourré j'ajoute des meufs au hasard sur Facebook J'débarque en volant comme dans la pub Redbull Jespère que j'finirai avec une belle rousse Drogue, la drogue la putain d'sa mère J'en vendais à la mienne, j'avais pas l'âge d'en consommer J'ai grandi dans l'noir, j'écris dans l'noir J'avais qu'mes yeux pour pleurer, mes larmes pour m'consoler J'ai connu jeune cash on l'appellait Don Noar On prendra tout c'que Dieu nous donneras Fils de stups' j'suis un sex pistols Il m'reste un phone pisté et un fond d'pastis Fumée anthracite j'ai les poumons encrassés Talent intrinsèque, j'suis drogué j'entre en scène Soir-ce j'ai l'mors, j'ai l'mors J'finis la 'teille seul la putain d'sa mère Ça fait désormais des années que la mienne désarmée Me regarde grandir avec désarroi Yung Sin mo'fucka Des souvenirs effacés dans l'cendrier Papa tape maman j'l'entends crier J'ferme les yeux j'ai des flashs qui m'reviennent Combien de bouteilles vais-je devoir m'enquiller ? 24 carats chaîne en or fin J'avais pas la majorité J'ai fais des montants, j'ai pas perdu mon temps Le mépris des miens, l'amour des vôtres On trouvera toujours l'énergie pour s'investir On juge par le respect, j'me méfie des tiens Nos curs meurtris par le temps vagabondent mais ne respirent plus J'pense aux grandeurs et leur disparition qui nous laisse des vestiges Lorsque notre espoir transparaissait je contemplais ton nom J'ai vu que son arc-en-ciel périssait Oui ta danse parait sombre j'vois c'que les cieux m'infligent On avance par l'essai on apprend par lexcès Le plafond des ténèbres éblouit c'que l'destin fige On en a des vertiges, oui le temps nous afflige Ça nous rend paresseux, lorgueil enterré sous quelques brumes de sommeil L'orage gronde et m'oblige à Pleurer sur des tombes oui je sais qu'la route est longue Traverse seul sur des lacs de sel dans le blizzard Seul sous un nuage noir face aux pluies diluviennes Son âme éclate dans le miroir comme ses pulsions qui lui viennent Tes baisers sont trompeurs, mystère sur deux lèvres tièdes Lespoir emplit ton cur, tas notre histoire dans les veines Jai pas su laimer passionnément, jai pansé les maux Pensant vraiment que ses démons puissent lemmener Poussant vainement son puissant venin Jattends lavènement du tout-puissant demain Je t'ai promis monts et merveilles, princesse des Cyclades C'est déjà pour toi que j'ai crevé le seul il du cyclope Souvent le destin ça claque lorsque ton chemin s'éclaire Est-ce que l'amour est cyclique ? Je t'écris ça à six o'clock Faut que je retrouve le soleil, faut que je trouve le sommeil Mais je tourne en rond et je repense à tes boucles d'oreilles 22 janvier, rien ne semblait nous faire trembler Et pourtant le temps nous a étranglé Je t'ai aimé d'emblée, je venais pour te contempler Jamais je n'aurais pensé qu'on deviendrait des étrangers L'un pour l'autre, en vrai de parfaits inconnus Moi qui me disais que la formule était insoluble Je t'ai jeté mon dévolu mais les relations évoluent J'ai fait ce que t'as voulu, et désormais c'est révolu Venir à ne plus se fréquenter, je t'assure que ça m'a changé Mes joues se creusent lorsque je constate que nos liens sont tranchés Il pleut dehors mais j'aperçois ta silhouette D'une main j'aimerais la saluer mais ta présence est si loin Me souhaites-tu un avenir aussi radieux Que celui que je t'ai pris, et sans dire adieu ? Xristina, entre désire et désillusion Dans un désert ou le désordre décime l'union De tappeler j'étais tenté quand ton absence me hantait Malgré nos différences la distance nous avait démantelés Oui j'suis tourmenté J'écris des prophéties j'ai paniqué parce que le doute m'hantait Bien que tenté, frère je ne peux tomber J'écris de façon miraculeuse Ma voix ramène la vie détruit les maladies tueuses Parfois j'ai l'impression de me tromper A l'heure où je te parle j'ai peut-être plus de problème que de cheveux sur la tête Mais la défaite me déteste sur ce point j'ai fait des tests Parce que j'ai baisé une grosse depuis de la pire espèce Quand j'étais bourré, je venais pas la capote j'ai tèj Merde, mais qu'ai-je fait Je me suis peut être foutu dans un putain d'piège seigneur Aie pitié de ma personne, épargne-moi de la maladie Que les gens redoutent plus que la mort Et que personne ne veut affronter parce qu'elle va compter Des corps et des corps et des corps et des corps parce que je suis l'enfant divin Oh my gad, oh my gad Je ne suis pas un faux malade, j'ai un fauve malade Je ne fais pas confiance aux nanas même si on en a sincèrement Face à moi les rageux préparent déjà eux-mêmes leur enterrement me délivre entièrement La crainte de Dieu, est assise devant mes Yeux quand se préparent les cieux et Ma vie est dépourvue d'inquiétude et ma seule quiétude est celle d'être sur la voie qui nous a sauvés Oui on a fait d'la merde à en faire pleurer nos mères Du rhum 3 rivières Le matin pas d'café au lait Guéri le mal par le mal pour le mal Fait hurler les douleurs qui sempilent Faut que j'énumère l'nombre de fils de pute dans la ciudad C'est comme si j'me bats contre ombres et lumières Parano à chaque pas, je crois qu'on m'observe Éteins la lumière, le grand méchant loup te guette Comme un colon je te fouette Je pé-ta ce blanc de préférence avec XX J'veux plus être rappeur, j'vais devenir proxénète Avec ces salopes je me dois d'être sévère Gifle de mac sur ta joue pour t'éclairer fils J'veux le même palmarès qu'Iceberg Slim J'suis pétard comme un mec du Tenessee J'veux qu'tu me parles d'argent, parle de bénéfices Non tu me connais pas, tu ne sais pas d'où j'arrive Dans ton angle mort je m'insère et te paralyse Tu vois j'analyse Guette moi l'effet, guette moi le 16 On se reverra à ton enterrement Tu vois j'étais rapide comme têtard Depuis ma latence augmente et maintenant je suis fêtard Alcoolique et fou j'pourrais t'ajouter des liquides létales Authentique, enterrez-moi dans mon village natal Y'a trop de pétasses qui veulent brasser mon oseille En espérant j'garde le sourire comme Faudel J'ai peur pour mon p'tit frère, j'suis pas un modèle Tes parents sont racistes j'te baise à l'hôtel Depuis j'ai dépassé des Esprit controversé rêvant de voir l'envers du décor On me jugera pour c'que je dis et ce que je rétorque silence, pute Fuck les écorchés vifs, t'es pas forcé d'vivre J'te facilite la tâche, bang bang j'amorce et tire La mort c'est pire cent ans Si y'a l'silence des morts, c'est que le diable veut t'entendre T'entends c'est bandant mais maintenant tu bandes mou Tu parles de money money mais t'assures pas les fins d'mois Dans l'enfance innocence monsieur est vraiment partout Maintenant j'connais les soirées olé olé et les partouzes Quelque part entre les terres du milieux et kingdom hearts Kimbo Slice dans corps de Ringo Starr Camouflé l'ombre comme chien de Baskerville J'te nargue en un couplet disparait comme le chat d'Chester Les connaisseurs nous connaissent pas dans blindtest d'accord Y'a des lames de rasoir dans mes paroles J'suis un Peaky Blinders Nique rentrer par la grande porte je rentre par la Stargate Il reste des bouts du rap français sur mon bas d'caisse Ma pierre est précieuse, ta pierre est tombale Je crache sur les marches de ton bat', c'est tout bon Regarde la poudre sort pas de m'narines mais d'mes canons J'aligne ligne sur ligne c'est mécanique J'ai plus l'temps mais je reste prudent J'ai toujours un cure-dent pour nettoyer la chair des MC coincée dans mes canines Écraser mes adversaire m'ennuie comme Saitama Quand j'gratte le papier explose comme Deidara T'as vraiment aucune raison d'me craindre A moins qu't'ai décidé d'me nuire A moins qu't'ai décidé d'me suivre Ni un leader, ni un suiveur j'ai le front qui suinte S'il faut j'userais d'mes deux poings pour m'frayer un chemin J'les crosserais comme Curry crossa Chris Paul J'leur briserais les deux chevilles comme si c'était des Krisprolls Cainri comme une Chrystler mais j'ai pas l'mis-per Y'a qu'mes dents qui crissent Phenergan dans le blister et shit glissé dans le dickies Vu qu'on meurt seul on vit seul, si on s'tue pour se sentir vivre Ni un leader, ni un suiveur J'avance seul ou avec des coéquipiers Tous vos rappeurs flingués j'vais les boxer vite fait Tu veux un feat frère c'est dead j'aime trop l'équité Tu veux un hit avec Eden, en deux tours de hall c'est plié Mais fuck j'vais pas t'donner c'qui plait À la bande de putes mainstream que vous êtes J'fais même pas rimer cette merde Ton pote wack MC veut des conseils Dit à ce pédé qu'il s'démerde J'te mytho si j'te dis que toute la nuit j'écris des textes J'en écris qu'un tout les deux mois J'enregistre que des démos, j'bois du Gin avec mes démons J'taffe mes skills dans la pénombre Si j'ai mis un headshot j'ai mis un péno Je vais finir cile-fa mais bon Même quand j'brille pas j'fais d'l'ombre J'ai vu le jour un soir de pleine lune L'enfant du siècle s'illumine dans ce ciel si lumineux Un grand art qui se fait savoir réside au curs des gènes Et l'une de mes seules problématiques C'est de devenir emblématique 200kmh sur la banquette arrière d'une Mercedes blanc mâte plaquée diplomatique J'laisse pas les autres faire, passe chez mon notaire Pour tenir j'vais appartenir aux hautes sphères Mes partenaires enflamment lappartement Particules de flow coincées dans la carte-mère Ils m'ont négligé vont me RT demain Mon avenir est à portée de main J'ai les cartes les gens oui j'écarte le jeu Claque des doigts et mon cartel agit Y'a beaucoup de magma dans mes artères coronaires Avant d'être nouveau-né, j'étais déjà couronné J'revois mes honoraires à la hausse pour une heure Je me montre assidu même dans leurs mondanités Entre les Cartier je ne compte pas Bollinger Pour chaque contrat signé, j'ai la montre assignée Devant les lingots j'ai pas l'air écuré Chez moi l'argent, le thème est récurent Rien à carrer d'vivre en curé ou bien celle que voudrait le coran Incurable est ma soif Faut des rivières d'or dans des carafes Dans les yeux de ma mère, japerçois des carats Sans cagnotte, nos espoirs s'effondrent comme en 40 Ils sont assassinés comme Thomas Sankara Sur les rivières du Styx poto c'est moi qui rame Je connais personne qui a les mains immaculés J'veux pas être locataire je veux l'or au Qatar J'entends les rats qui rient quand je dors en gardav' Tellement malsain que l'air est corrosif De la peur c'est tout ce qui sort de mon échographie Si j'ai l'air égaré quand je les regarde C'est qu'ils jettent l'auréole pour se faire couronner Donc poto les chiottes je vais pas les récurer Je développe ma pupille, ma cataracte Pour vous infliger des supplices tah Madara Tellement puissant,même sans fusil je passe à l'attaque Je kill vite ces padawans, surine au katana, hey hey Dans mon équipe, pas de dress-code On juge personne, on a des règles et on performe Vous feriez mieux de me féliciter au lieu de médire et d'écrire des débilités Je vais vous réduire, détruire votre crédibilité Bientôt hermite et je divise les divinités, t'es déficitaire Je compte plus les villes et les pays qu'j'ai visité J'contrôle l'eau, le vent... J'contrôle l'eau, le vent, le feu, lélectricité Sans oublier le mokuton, je convoite vos sous Comme Boo, je suis dans mon sous-sol Je gratte, j'ouvre Pro-tools et puis je me record tout seul Tengo John, j'suis le métronome Tu sais qu'j'prends plus l'métro boy Je vais faire de la trap pour montrer qu'évidemment le Nelick sait faire Je vais brûler les putes qui me disent que jamais de la vie je cé-per je vais planter leur mères Surtout que wallah c'est faux wallah c'est faux Mec ils m'disent que j'suis chaud Mais je vous baise je serai chaud quand mes couilles seront bien sur la braise Au pelo j'y vais mollo, j'suis dosé comme au vélo J'suis solo c'est des barres, j'ai hâte qu'on les baise XXX A la quête du très haut alors qu'il est en bas J'amène l'eau sur le polo Bendo dans la Polo tu pues sa mère dans tes solos Prêt à pour le pollen, tu vas finir dans la vallée sous le soleil Ils sont fauchés pour un téléphone Donnez moi le trône et les clés du coffre J'ai pas quitté l'école, j'les étonne Je veux remplir mes poches mais pour ça faut l'étoffe Oui pour ça faut le taff et le talent dans l'étalon Le talent dans l'étalon Nelick, NY, Pala J'écoute Denzel Curry, j'écoute Charles Trenet J'te viole sur un feat, ça fait cher le training J'dirige leur meute comme chien de traîneau Toi, toi, toi t'es une chienne de traînée J'veux pas être maillon faible mais une légende c'est dit J'veux être dans sky en jet, sur mer en jet ski UGK pour son booty groove Juicy J dans son pussy juice On peut t'faire la guerre pour des bouts de pain dur Le sang gicle sur l'bitume comme des gouttes de peinture J'vois mon futur dans ces flaques de sang J'suis avec David Lynch, j'bois une bière au Fouquet's J'suis avec Vladimir, j'mange une viande au Touquet T'as un pet' au bec, j'ai un pet' au casque Folie, j'souris comme Ectoplasma Fais pas le mariole Chaque nuit j'm'enfonce au fond des abysses comme Jacques Mayol J'écoute R.O.O.K.I.E, j'écoute Chat De Chester J'me bats contre mes fantômes comme un shadow boxer Dans le château d'Bowser, décollage au mirage Pour un jour espérer se mettre à notre hauteur, ils ont pas notre rage Je l'acère à lagneau, j'donne pas cher de ta peau J'ai l'karcher de Sarko, j'suis caché dans l'sarcophage OLAF Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-seller God damn Dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Mes mercenaires rêveraient d'inverser l'ère Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure j'persévère , Nasa gang interstellaire De Paris même jusquà New Delhi J'les élimine, ils veulent délimiter des lignes L'enfant du siècle s'illumine comme l'enluminure dans l'alinéa Un soir de pleine lune ou les astres s'alignent Mon ambition est planétaire telle le cartel de Médeline J'étale mon art sur triptyque fils j'ai l'équipe type Qui kick ? Speranza naturellement c'est sismique Ce genre de 2 mesures de démesure Paris ça coûte au moins 6 smics mo'fucker Nelick, Spe, tu connais le procédé Le prince est dans la ville faut s'entraider pour devenir monarque Je n'ai rien à concéder Frère j'en vois trop céder Ces débiles sur le trône prônent la pauvreté de mon art Merde ils sont possédés T'as raison perpétuer le silence doré dans nos vers Dorénavant sur une aut' sphère on les obsède, on les observe Placés dans les hautes sphères, parisiennes hein Contempler les cieux prend des heures Je n'écoute pas les ordres L'or est-il à l'horizon ? Les reptiles avaient raison ? Lord ? Oui ? Évitons la pendaison Faut leur ôter la peau des os Et prendre l'impôt des autres Je me vois briller dans vos cataractes, il n'y a plus rien qui m'étonne Je dors comme un qatari, guette comme on conquit Paris Parait qu'y a pas de cons qui parient Sur nous, Pala est incomparable 23 carats seront gravés dans le CAC 40, j'ai pas d'carences mec Ce qu'on sait c'est, que la grâce se concède Faut apprécier ce concept Faut récolter ce qu'on sème Elle me suce après ce concert J'sais qu'ils se concertent frère Je vois des lumières dans ces séquences C'est comme si j'étais concentré Sur le coup tu sais qu'on s'entête On sait qu'on s'entête souvent Sur des Mercedes-Benz blanc cassé Quand j'contemplais ses fesses Lors du 5 à 7, je ne pouvais m'en contenter Fais la fellation quand je fais la sieste Caviar dans l'assiette je dois remplir mes comptes en XXX Et du bon côté l'investisseur Veut nous contacter Je suis sur l'A7 Caviar sur le siège ... concocté </t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Je lai croisée, croisée, croisée dans un rêve Je lai croisée, croisée, croisée dans un rêve Jsuis comme tous les autres Jsuis comme tous les autres Jai pleuré jai montré mes faiblesses On en apprend toujours autant de la clémence du temps Jai des rêves qui sexportent et des craintes qui régressent Grandis dans la démence, on sen sort visiblement Jsuis comme tous les hommes, jai besoin dvoir lamour Embraser son regard, jen ai marre, marre, marre Bien sûr ma belle jen suis capable On se lève tôt, on rentre tard, tard, tard Jsuis comme tous les hommes Oui jsuis comme tous les hommes Jsuis comme tous les hommes Ici les curs sont irrécupérables Jai compris que nos efforts négalent le prix quon paiera Je pourrais te chanter notre amour, notre amour, notre amour Comme dans les grands opéras, yeah You might also like Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Seul sous un nuage noir face aux pluies diluviennes Son âme éclate dans le miroir comme ses pulsions qui lui viennent Tes baisers sont trompeurs, mystères sur deux lèvres tièdes Lespoir emplit ton cur, tas notre histoire dans les veines Jai pas su laimer passionnément, jai pansé les maux Pensant vraiment que ses démons puissent lemmener Poussant vainement son puissant venin Jattends lavènement du tout puissant demain On aime donc jamais personne mais des qualités Je lai croisée dans un rêve jai vu briller ses deux iris Contre lesquels je ne pouvais en aucun cas lutter Parfois la peur ternit tes rêves Sous le plafond des ténèbres si tard lété Jai lindex tendu vers léternité Puisque de battre mon cur, cur, cur, sest arrêté Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Je lai croisée, croisée, croisée dans un rêve Je lai croisée, croisée, croisée dans un rêve Jsuis comme tous les autres Jsuis comme touts les autres6</t>
+          <t>Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Je lai croisée, croisée, croisée dans un rêve Je lai croisée, croisée, croisée dans un rêve Jsuis comme tous les autres Jsuis comme tous les autres Jai pleuré jai montré mes faiblesses On en apprend toujours autant de la clémence du temps Jai des rêves qui sexportent et des craintes qui régressent Grandis dans la démence, on sen sort visiblement Jsuis comme tous les hommes, jai besoin dvoir lamour Embraser son regard, jen ai marre, marre, marre Bien sûr ma belle jen suis capable On se lève tôt, on rentre tard, tard, tard Jsuis comme tous les hommes Oui jsuis comme tous les hommes Jsuis comme tous les hommes Ici les curs sont irrécupérables Jai compris que nos efforts négalent le prix quon paiera Je pourrais te chanter notre amour, notre amour, notre amour Comme dans les grands opéras, yeah Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Seul sous un nuage noir face aux pluies diluviennes Son âme éclate dans le miroir comme ses pulsions qui lui viennent Tes baisers sont trompeurs, mystères sur deux lèvres tièdes Lespoir emplit ton cur, tas notre histoire dans les veines Jai pas su laimer passionnément, jai pansé les maux Pensant vraiment que ses démons puissent lemmener Poussant vainement son puissant venin Jattends lavènement du tout puissant demain On aime donc jamais personne mais des qualités Je lai croisée dans un rêve jai vu briller ses deux iris Contre lesquels je ne pouvais en aucun cas lutter Parfois la peur ternit tes rêves Sous le plafond des ténèbres si tard lété Jai lindex tendu vers léternité Puisque de battre mon cur, cur, cur, sest arrêté Je lai croisée, croisée, croisée dans un rêve Croisée, croisée, croisée dans un rêve Jsuis comme tous les autres, jsuis comme tous les autres Jsuis comme tous les autres, jsuis comme tous les autres Je lai croisée, croisée, croisée dans un rêve Je lai croisée, croisée, croisée dans un rêve Jsuis comme tous les autres Jsuis comme touts les autres6</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yo, L.O Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet Reste dans ta chambre, contemple c'que j'accomplis Mon génie n'est plus incompris Leur espoir de succès comprimé dans un tupperware Rien n'a changé, j'suis supérieur J'pense à ce que ces connards m'ont pris Tandis qu'une autre octagénère perd la raison dans c'comprimé Je contenterai pas d'être premier voyant c'que mes propos génèrent Scruté par les yeux d'Orwell La concurrence porte des sarouels J'vais t'aimer dans les toilettes, why not ? Incontournable, comme le Roi Heenok L.O.R.D c'est le futur sur track Crache sur vos sépultures crades J'suis le rappeur préféré du rappeur préféré d'ton rappeur préféré Effrayé t'as fleuré qu'j't'éfleure et je finirai chez les Enfoirés L'enfant du siècle c'est le seul Encore un destin scellé La vengeance se mange salée J'bénéficie des armes célestes Cotois que des âmes qui s'élèvent J'vais rendre tous les miens célèbres C'est l'équipe que t'as selectionné On va les sectionner Encore une carrière sur la sellette Une seule roue sur la concu' comme un benzer sur la seleçao C'est les scélérats j'compte accélérer Je regarde derrière, j'me dis que c'est lège, c'est lège, j'vois que t'as baissé les bras Encore un fils de pute qui s'est trompé J'les couvre de sperme et de Dom Pé' Laisse compter, laisse compter, laisse compter Ma musique raconte l'effet escompté, escompté, escompté Est-ce que t'es bonne ? Si c'est pas le cas, sache qu'on va s'quitter Tu sors d'la discothèque, tu souhaiterais discuter Mais vois tu, y'a qu'entre deux voitures que je te montre ma promiscuité J'viens pas d'la tess mais j't'étonne Elle remue toute sa graisse sur du reggaeton You might also like J'suis la rappeur préféré du rappeur préféré d'ton rappeur préféré Effrayé t'as fleuré qu'j't'éfleure et je finirai chez les Enfoirés J'suis dans cette shit tout comme le double M Parle en rouble, yen ou en bitcoin Laisse parler ton silence quand le beat cogne J'suis dans ta télé, j'suis dans la tête de ces p'tites connes Flash news Internet tue des émos On écrasera ton ego sur le boulevard de la mort Toute volonté est aplatie sous nos dix tonnes T'entends mes mots qui cognent Leur avenir se résume à poster des émoticones Qu'est ce que tu ferais pas pour des likes ? Provoque lens flare, l'objectif s'embrase ou je t'ai tué ton Leika Je me sens comme Michael J, leurs curs implosent quand j'prends l'mic Ton dernier souvenir de moi reste la semelle de ma Nike On a copulé ta femelle, on va copuler ta femen Parle dans ta barbe en thaïlandais sache qu'on va te faire bouffer tes nems Le prix du featuring, c'est trois fois le P.I.B du Yémen Dis-moi qu'est ce qui se passe ? J'casse ta tête dans l'plexiglas L.O.R.D, ton texte il claque J'envoie qu'un texto, j'finis dans ta pute dans un textile classe Ya, L.O Sku, sku Majeur-Mineur On veut tutoyer le ciel pas les flammes de l'enfer, sku J'suis fucked up, sais-tu c'que mes mains fermes renferment ? Sku, sku, sku Tutoyer le ciel pas les flammes de l'enfer, L.O Tutoyer le ciel Fuck ton fairy tail Drapeau noir, c'était l'brouillon parmi l'brouillon le moins brillant d'mon embryon Tu m'vois brailler, ouais j'suis brillant L'Église sort d'la bouche des enfants, reniez pas cette vérité Écoute Keep your mojo, j'suis le bug dans ta prise péritel Manipule l'audience comme rédacteur de séries télés Elle connait mon appellation, pétasse fait la fellation Qui peut me dire que mon succès n'est pas mérité ? Descends la piste noire j't'attache aux skis Je lui fais l'amour sur du Tchaikovsky Sache qu'on rentre dans l'histoire comme dans Emily Ratajkowski L.O, L.O, L.O Une étoile sur le maillot, deux dans l'ciel si elle veut trois sur sa bouche et quatre sur Uber Cinq dans l'tel-hô, tel-hô, tel-hô Bip mon tel', tel', tel' Pouvoir d'achat condensé dans le cello', cello', cello' J'vais raviver Bercy La jeunesse perd ses neurones dans une arrivée d'air J'suis à Milan, le vendeur assimile toutes mes demandes J'réponds grazie mille puis arrivederci Majeur-Mineur On veut tutoyer le ciel pas les flammes de l'enfer, sku J'suis fucked up, sais-tu c'que mes mains fermes renferment ? Sku, sku, sku Tutoyer le ciel pas les flammes de l'enfer, L.O Tutoyer le ciel6</t>
+          <t>Yo, L.O Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet Reste dans ta chambre, contemple c'que j'accomplis Mon génie n'est plus incompris Leur espoir de succès comprimé dans un tupperware Rien n'a changé, j'suis supérieur J'pense à ce que ces connards m'ont pris Tandis qu'une autre octagénère perd la raison dans c'comprimé Je contenterai pas d'être premier voyant c'que mes propos génèrent Scruté par les yeux d'Orwell La concurrence porte des sarouels J'vais t'aimer dans les toilettes, why not ? Incontournable, comme le Roi Heenok L.O.R.D c'est le futur sur track Crache sur vos sépultures crades J'suis le rappeur préféré du rappeur préféré d'ton rappeur préféré Effrayé t'as fleuré qu'j't'éfleure et je finirai chez les Enfoirés L'enfant du siècle c'est le seul Encore un destin scellé La vengeance se mange salée J'bénéficie des armes célestes Cotois que des âmes qui s'élèvent J'vais rendre tous les miens célèbres C'est l'équipe que t'as selectionné On va les sectionner Encore une carrière sur la sellette Une seule roue sur la concu' comme un benzer sur la seleçao C'est les scélérats j'compte accélérer Je regarde derrière, j'me dis que c'est lège, c'est lège, j'vois que t'as baissé les bras Encore un fils de pute qui s'est trompé J'les couvre de sperme et de Dom Pé' Laisse compter, laisse compter, laisse compter Ma musique raconte l'effet escompté, escompté, escompté Est-ce que t'es bonne ? Si c'est pas le cas, sache qu'on va s'quitter Tu sors d'la discothèque, tu souhaiterais discuter Mais vois tu, y'a qu'entre deux voitures que je te montre ma promiscuité J'viens pas d'la tess mais j't'étonne Elle remue toute sa graisse sur du reggaeton J'suis la rappeur préféré du rappeur préféré d'ton rappeur préféré Effrayé t'as fleuré qu'j't'éfleure et je finirai chez les Enfoirés J'suis dans cette shit tout comme le double M Parle en rouble, yen ou en bitcoin Laisse parler ton silence quand le beat cogne J'suis dans ta télé, j'suis dans la tête de ces p'tites connes Flash news Internet tue des émos On écrasera ton ego sur le boulevard de la mort Toute volonté est aplatie sous nos dix tonnes T'entends mes mots qui cognent Leur avenir se résume à poster des émoticones Qu'est ce que tu ferais pas pour des likes ? Provoque lens flare, l'objectif s'embrase ou je t'ai tué ton Leika Je me sens comme Michael J, leurs curs implosent quand j'prends l'mic Ton dernier souvenir de moi reste la semelle de ma Nike On a copulé ta femelle, on va copuler ta femen Parle dans ta barbe en thaïlandais sache qu'on va te faire bouffer tes nems Le prix du featuring, c'est trois fois le P.I.B du Yémen Dis-moi qu'est ce qui se passe ? J'casse ta tête dans l'plexiglas L.O.R.D, ton texte il claque J'envoie qu'un texto, j'finis dans ta pute dans un textile classe Ya, L.O Sku, sku Majeur-Mineur On veut tutoyer le ciel pas les flammes de l'enfer, sku J'suis fucked up, sais-tu c'que mes mains fermes renferment ? Sku, sku, sku Tutoyer le ciel pas les flammes de l'enfer, L.O Tutoyer le ciel Fuck ton fairy tail Drapeau noir, c'était l'brouillon parmi l'brouillon le moins brillant d'mon embryon Tu m'vois brailler, ouais j'suis brillant L'Église sort d'la bouche des enfants, reniez pas cette vérité Écoute Keep your mojo, j'suis le bug dans ta prise péritel Manipule l'audience comme rédacteur de séries télés Elle connait mon appellation, pétasse fait la fellation Qui peut me dire que mon succès n'est pas mérité ? Descends la piste noire j't'attache aux skis Je lui fais l'amour sur du Tchaikovsky Sache qu'on rentre dans l'histoire comme dans Emily Ratajkowski L.O, L.O, L.O Une étoile sur le maillot, deux dans l'ciel si elle veut trois sur sa bouche et quatre sur Uber Cinq dans l'tel-hô, tel-hô, tel-hô Bip mon tel', tel', tel' Pouvoir d'achat condensé dans le cello', cello', cello' J'vais raviver Bercy La jeunesse perd ses neurones dans une arrivée d'air J'suis à Milan, le vendeur assimile toutes mes demandes J'réponds grazie mille puis arrivederci Majeur-Mineur On veut tutoyer le ciel pas les flammes de l'enfer, sku J'suis fucked up, sais-tu c'que mes mains fermes renferment ? Sku, sku, sku Tutoyer le ciel pas les flammes de l'enfer, L.O Tutoyer le ciel6</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hein, skah skah Majeur-Mineur Les racistes sont des gens qui se trompent de colère Le ciel nous pointe du doigt à travers le tonnerre Enfant du siècle de droit divin régit monarchie solaire Du mal à concevoir ce que le fond de mon âme tolère La plupart d'mes schémas tendent vers une clarté bipolaire Regard sombre sur photos scolaires Respecte aucune formalité protocolaire L.O, L.O.R Je ne connais pas la parité Les egos se brisent sur courbe de popularité J'apparais comme une évidence Oui, le Devil danse Certains regrettent leur négligence voyant qu'on ne peut plus m'arrêter, L.O Je suis dans toutes ses cavités Donc la maman de la maman de ta maman n'était qu'une seule femme enceinte en 45 dénuée de capillarité J'ai plus d'idole, j'ai que des concurrents Tout est, noir Tout est, noir J'ai plus d'idole, j'ai que des concurrents Tout est, noir You might also like Je relis le message d'un fan qui se reconnait dans mes textes Je me lève à 8, certains de mes reufs sont déjà cognés sous jack honey Cache ma peine sur l'analogue On perd des amis sans dialogues L'ego n'est qu'un prétexte On s'tue un peu plus chaque jour De noir vêtu pour l'enterrement Les âmes en peine en vêtements chics se déshabillent entièrement Lumière tamisée mempêche pas de voir misère dans le Tiers Monde Glitch sur la tête, je suis dans ton internet Le corps vide, la matière brûle Les boîtes noires pleines de matière grise Je doutais donc j'ai tiré sur ses cornes Pour en avoir le cur net Yeah, dis-moi qui était là quand je me produisais ? L'espoir éclate le pare-brise Je vois le passé dans le rétroviseur Destin apprivoisé Il n'y avait pas grand monde quand je traversais Paris toute la nuit Sous Marie Jeanne, je passais des heures à improviser Je suis dans la base de données référentielles Enfance rue de l'Atlas, au fond de la classe J'étais ce mauvais garnement préférant le ciel J'avais des projections... Concernant tous ceux que j'aime Je n'ai jamais perçu ce monde dans cet état si saccagé Chaque jour un peu plus fort je le ressens tout au fond de moi Je laisse pas les doutes effondrés mais je vois mère qui lutte chaque fin de mois Force au rappeurs que j'côtoie Mais je me dois d'être honnête Certains le savent dentrée Nos prises de risques amènent d'autres haineux Comment me détrôner ? N'oubliez jamais que je suis le meilleur d'entre nous J'ai plus d'idole, j'ai que des concurrents Tout est, noir Tout est, noir J'ai plus d'idole, j'ai que des concurrents Tout est, noir Bah ouais, je croyais en nous comme je crois en moi J'finirai pas sur une croix en bois L'amour d'une âme sur m'a tendu la main Puis m'a fait promettre de le perpétuer Chaque jour que Dieu fait, je façonne demain N'oublie jamais, jamais que la peur peut tuer Les rêves ne peuvent aller à toi Je n'en vois aucun à la hauteur Mon cerveau active L'Humiliation aléatoire J'écoute Oh Lord, j'écoute Encore Elle Faux espoirs, vraies querelles Le fond de l'homme est si laid qu'il m'a écuré Je préférais peindre mon ignorance avec aquarelles Révolutionnaire comme Arcimboldo On se voit dans trois ans dans Bercy sold out3</t>
+          <t>Hein, skah skah Majeur-Mineur Les racistes sont des gens qui se trompent de colère Le ciel nous pointe du doigt à travers le tonnerre Enfant du siècle de droit divin régit monarchie solaire Du mal à concevoir ce que le fond de mon âme tolère La plupart d'mes schémas tendent vers une clarté bipolaire Regard sombre sur photos scolaires Respecte aucune formalité protocolaire L.O, L.O.R Je ne connais pas la parité Les egos se brisent sur courbe de popularité J'apparais comme une évidence Oui, le Devil danse Certains regrettent leur négligence voyant qu'on ne peut plus m'arrêter, L.O Je suis dans toutes ses cavités Donc la maman de la maman de ta maman n'était qu'une seule femme enceinte en 45 dénuée de capillarité J'ai plus d'idole, j'ai que des concurrents Tout est, noir Tout est, noir J'ai plus d'idole, j'ai que des concurrents Tout est, noir Je relis le message d'un fan qui se reconnait dans mes textes Je me lève à 8, certains de mes reufs sont déjà cognés sous jack honey Cache ma peine sur l'analogue On perd des amis sans dialogues L'ego n'est qu'un prétexte On s'tue un peu plus chaque jour De noir vêtu pour l'enterrement Les âmes en peine en vêtements chics se déshabillent entièrement Lumière tamisée mempêche pas de voir misère dans le Tiers Monde Glitch sur la tête, je suis dans ton internet Le corps vide, la matière brûle Les boîtes noires pleines de matière grise Je doutais donc j'ai tiré sur ses cornes Pour en avoir le cur net Yeah, dis-moi qui était là quand je me produisais ? L'espoir éclate le pare-brise Je vois le passé dans le rétroviseur Destin apprivoisé Il n'y avait pas grand monde quand je traversais Paris toute la nuit Sous Marie Jeanne, je passais des heures à improviser Je suis dans la base de données référentielles Enfance rue de l'Atlas, au fond de la classe J'étais ce mauvais garnement préférant le ciel J'avais des projections... Concernant tous ceux que j'aime Je n'ai jamais perçu ce monde dans cet état si saccagé Chaque jour un peu plus fort je le ressens tout au fond de moi Je laisse pas les doutes effondrés mais je vois mère qui lutte chaque fin de mois Force au rappeurs que j'côtoie Mais je me dois d'être honnête Certains le savent dentrée Nos prises de risques amènent d'autres haineux Comment me détrôner ? N'oubliez jamais que je suis le meilleur d'entre nous J'ai plus d'idole, j'ai que des concurrents Tout est, noir Tout est, noir J'ai plus d'idole, j'ai que des concurrents Tout est, noir Bah ouais, je croyais en nous comme je crois en moi J'finirai pas sur une croix en bois L'amour d'une âme sur m'a tendu la main Puis m'a fait promettre de le perpétuer Chaque jour que Dieu fait, je façonne demain N'oublie jamais, jamais que la peur peut tuer Les rêves ne peuvent aller à toi Je n'en vois aucun à la hauteur Mon cerveau active L'Humiliation aléatoire J'écoute Oh Lord, j'écoute Encore Elle Faux espoirs, vraies querelles Le fond de l'homme est si laid qu'il m'a écuré Je préférais peindre mon ignorance avec aquarelles Révolutionnaire comme Arcimboldo On se voit dans trois ans dans Bercy sold out3</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nos rêves s'engouffrent dans la tempête J'pars à la recherche du temps perdu Nos regrets en pierre perdurent, mais nos deux curs s'entêtent Le pouvoir de l'amour n'est rien face à l'amour du pouvoir Nos ombres dansent dans les couloirs du temps Comment as-tu fais pour m'en vouloir autant ? Ton regard adressait des trous noirs Ton regard adressait des trous noirs Ton regard adressait des trous noirs Ton regard adressait des trous noirs Sunset is on the ground I wanna give you, give you my heart Sunset is on the ground I wanna give you, give you my heart Je renie ce rêve où tu m'as jeté Je sais qui j'étais, je sais qui j'serai Ton regard est témoin du temps qui s'arrête J'apprends chaque jour à lui dire je t'aime Je n'ai qu'une main en or dans un gant de bitume L'illusion du vide a pris de l'altitude Sur un sol d'étoiles nos deux reflets titubent A quoi bon s'aimer si c'est par habitude ? You might also like Ton regard adressait des trous noirs Ton regard adressait des trous noirs x2 Sunset is on the ground I wanna give you, give you my heart Sunset is on the ground I wanna give you, give you my heart2</t>
+          <t>Nos rêves s'engouffrent dans la tempête J'pars à la recherche du temps perdu Nos regrets en pierre perdurent, mais nos deux curs s'entêtent Le pouvoir de l'amour n'est rien face à l'amour du pouvoir Nos ombres dansent dans les couloirs du temps Comment as-tu fais pour m'en vouloir autant ? Ton regard adressait des trous noirs Ton regard adressait des trous noirs Ton regard adressait des trous noirs Ton regard adressait des trous noirs Sunset is on the ground I wanna give you, give you my heart Sunset is on the ground I wanna give you, give you my heart Je renie ce rêve où tu m'as jeté Je sais qui j'étais, je sais qui j'serai Ton regard est témoin du temps qui s'arrête J'apprends chaque jour à lui dire je t'aime Je n'ai qu'une main en or dans un gant de bitume L'illusion du vide a pris de l'altitude Sur un sol d'étoiles nos deux reflets titubent A quoi bon s'aimer si c'est par habitude ? Ton regard adressait des trous noirs Ton regard adressait des trous noirs x2 Sunset is on the ground I wanna give you, give you my heart Sunset is on the ground I wanna give you, give you my heart2</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci On m'a dit tu veux faire quoi quand tu s'ras grand ? J'ai répondu je veux tout niquer Tout niquer, tout niquer, tout niquer Mon pied droit sur ta tête dans le tourniquet Mon pied gauche prend appui sur le sol Horrifié d'voir c'que les gens gobent La nature est morte comme Van Gogh et ses tournesols Sache que j'vais revenir pour mieux tout r'niquer Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc You might also like J'vide mes assonances sur l'terrain, j'vise le but Donne-moi mon cash et j'vais rien faire d'ta parole J'fais un saut dans l'passé, j'vais baiser leurs daronnes Dire qu'tous ces fils de pute sortent quand j'vide ma semence L'insolence s'élance de Marseille à Marly Mon succès résonne dans une curly au cur libre Tandis que BFM s'demande qui est Charlie T'es resté en 2000, t'es comme Loana Mojo contractuel, ne me dis pas qu'tu es l'un des miens Carrière sans lendemain comme espèce en voie d'extinction Tu m'intéresses pas comme un cousin éloigné En constante progression comme le taux d'abstention J'les vois s'entretuer, je reste aussi passif que l'ONU Prince de la trap devenu prince des Ténèbres Petit enfant raciste, ton grand-père était nègre Faut croire en ses rêves, rester sincère pour pouvoir s'insérer J'te l'ai d'jà dis, Marianne a ses règles Mais ça m'empêchera pas d'finir par la serrer, je l'ai pour la soirée J'demande plus comment ni pourquoi, j'demande combien L'enfant du siècle n'est qu'un demi-dieu J'vais t'faire beaucoup de mal, c'est pour ton bien J'baisse les yeux du ciel, je n'vois qu'des moldus, j'suis l'plus fort Comment veux-tu qu'ils m'aiment dans le milieu ? Le même soir dans deux villes Depuis que je perce plus vite que l'hymen d'une 2002 J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci4</t>
+          <t>J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci On m'a dit tu veux faire quoi quand tu s'ras grand ? J'ai répondu je veux tout niquer Tout niquer, tout niquer, tout niquer Mon pied droit sur ta tête dans le tourniquet Mon pied gauche prend appui sur le sol Horrifié d'voir c'que les gens gobent La nature est morte comme Van Gogh et ses tournesols Sache que j'vais revenir pour mieux tout r'niquer Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc J'vide mes assonances sur l'terrain, j'vise le but Donne-moi mon cash et j'vais rien faire d'ta parole J'fais un saut dans l'passé, j'vais baiser leurs daronnes Dire qu'tous ces fils de pute sortent quand j'vide ma semence L'insolence s'élance de Marseille à Marly Mon succès résonne dans une curly au cur libre Tandis que BFM s'demande qui est Charlie T'es resté en 2000, t'es comme Loana Mojo contractuel, ne me dis pas qu'tu es l'un des miens Carrière sans lendemain comme espèce en voie d'extinction Tu m'intéresses pas comme un cousin éloigné En constante progression comme le taux d'abstention J'les vois s'entretuer, je reste aussi passif que l'ONU Prince de la trap devenu prince des Ténèbres Petit enfant raciste, ton grand-père était nègre Faut croire en ses rêves, rester sincère pour pouvoir s'insérer J'te l'ai d'jà dis, Marianne a ses règles Mais ça m'empêchera pas d'finir par la serrer, je l'ai pour la soirée J'demande plus comment ni pourquoi, j'demande combien L'enfant du siècle n'est qu'un demi-dieu J'vais t'faire beaucoup de mal, c'est pour ton bien J'baisse les yeux du ciel, je n'vois qu'des moldus, j'suis l'plus fort Comment veux-tu qu'ils m'aiment dans le milieu ? Le même soir dans deux villes Depuis que je perce plus vite que l'hymen d'une 2002 J'regarde le ciel, je dis merci Oh Lord Je me dois de voir en grand Chaque jour que Dieu fait, j'entreprends Je n'te perçois qu'en noir et blanc Oh Lord J'regarde le ciel, je dis merci Oh Lord J'regarde le ciel, je dis merci4</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La mort fane les fleurs L'amour est morphine Mon cur meurtri se morfond dans des limbes d'endorphine Je n'ai pas encore fini Mon âme se consume puisque le vice l'éffleure Je repense à ma mère en pleurs Elle n'a plus de douleurs Voit ses espoirs en couleurs Le sentiment défile sur des diapositives Ton ombre se déshabille Je pense à nos heures perdues Tant qu'le déshonneur perdure Tu n'seras pas positive Tu veux, un péché, un billet Tu veux, m'empêcher de briller Mais c'était écrit dans mes larmes cognitives Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh man, oh man Jeune prince devient phénomène ay Laisse parler tes phéromones ay Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène You might also like Il ne faut pas faire pleurer sa mère, j'ai compris ça plus récemment Faut savoir implorer ses morts, j'le revois déclarer ces mots Mon oncle savait qu'l'heure a sonné, qu'la raison n'est qu'enracinée Plus profond mon corps a saigné, malgré ça mon cur est si net Car ici même pour ainsi dire l'amour meurt et t'es renseigné T'aurais signé pour un pacte quand tard le Seigneur t'a résigné Comprenez bien qu'la race humaine change pas sans déclarations L'éclat rationnel de nos songes vont terrasser nos narrations Mais nos parties sont clairs et semblent enterrer sous des plaies récentes Faut plaire aux siens, le temps rassure La partition m'intéresse J'atterris sans y renoncer le vent souffle sur torrent sec J'ai les yeux vers la terre sainte qui m'annonce que j'peux me lancer Y'a pas qu'l'amour qu'on veut semer Je pars plus riche qu'ovationné J'ai déjà su couver ces mots la lumière n'éclaire assez Mais j'rêve toujours d'éclore au sommet Je te promets qu'on va s'aimer Maintenant vous comprenez comment je fais pour clore un sonnet Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh meyn, oh meyn Jeune prince devient phénomène ay Laisse parler tes phéromones ay Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène Lumière au bout du tunnel J'te fais du mal mais tu m'aimes nature humaine Mes craintes sont soudaines S'appliquent à nous fuir pour fleurir sur de vieux nénuphars Mais je ne peux rien en faire Au-delà de nos rêves dans les neiges éternelles J'vois qu'un ange est terni par les flammes de l'enfer Oh wow, oh no J'photographie nos songes Bafoué dans l'innocence Pris dans l'orage de l'ignorance La pluie tambourine sur nos mains sales Mais c'est pas vraiment ça On reproche aux autres c'qu'on veut pas voir en soi Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh man, oh man Jeune prince devient phénomène Laisse parler tes phéromones Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène2</t>
+          <t>La mort fane les fleurs L'amour est morphine Mon cur meurtri se morfond dans des limbes d'endorphine Je n'ai pas encore fini Mon âme se consume puisque le vice l'éffleure Je repense à ma mère en pleurs Elle n'a plus de douleurs Voit ses espoirs en couleurs Le sentiment défile sur des diapositives Ton ombre se déshabille Je pense à nos heures perdues Tant qu'le déshonneur perdure Tu n'seras pas positive Tu veux, un péché, un billet Tu veux, m'empêcher de briller Mais c'était écrit dans mes larmes cognitives Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh man, oh man Jeune prince devient phénomène ay Laisse parler tes phéromones ay Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène Il ne faut pas faire pleurer sa mère, j'ai compris ça plus récemment Faut savoir implorer ses morts, j'le revois déclarer ces mots Mon oncle savait qu'l'heure a sonné, qu'la raison n'est qu'enracinée Plus profond mon corps a saigné, malgré ça mon cur est si net Car ici même pour ainsi dire l'amour meurt et t'es renseigné T'aurais signé pour un pacte quand tard le Seigneur t'a résigné Comprenez bien qu'la race humaine change pas sans déclarations L'éclat rationnel de nos songes vont terrasser nos narrations Mais nos parties sont clairs et semblent enterrer sous des plaies récentes Faut plaire aux siens, le temps rassure La partition m'intéresse J'atterris sans y renoncer le vent souffle sur torrent sec J'ai les yeux vers la terre sainte qui m'annonce que j'peux me lancer Y'a pas qu'l'amour qu'on veut semer Je pars plus riche qu'ovationné J'ai déjà su couver ces mots la lumière n'éclaire assez Mais j'rêve toujours d'éclore au sommet Je te promets qu'on va s'aimer Maintenant vous comprenez comment je fais pour clore un sonnet Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh meyn, oh meyn Jeune prince devient phénomène ay Laisse parler tes phéromones ay Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène Lumière au bout du tunnel J'te fais du mal mais tu m'aimes nature humaine Mes craintes sont soudaines S'appliquent à nous fuir pour fleurir sur de vieux nénuphars Mais je ne peux rien en faire Au-delà de nos rêves dans les neiges éternelles J'vois qu'un ange est terni par les flammes de l'enfer Oh wow, oh no J'photographie nos songes Bafoué dans l'innocence Pris dans l'orage de l'ignorance La pluie tambourine sur nos mains sales Mais c'est pas vraiment ça On reproche aux autres c'qu'on veut pas voir en soi Oh, addictions sur Polaroïd sur Polaroïd Oh, addictions sur Polaroïd sur Polaroïd Ils veulent nous enlever ce qu'on a fait nous même Oh man, oh man Jeune prince devient phénomène Laisse parler tes phéromones Mais j'n'ai pas de regrets concernant notre histoire J'ai trouvé de l'espoir pendant toutes ces nuits noires Je te suivrai peu importe où ça mène2</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Je ne peux quantifier l'ambition que renferment mes mains J'étais bête de penser que mon succès rendrait fier les miens Encore un cur de pierre dans un corps vide Les destins dansent sur les routes hors du firmament Le ciel pleure pour effacer nos déformements Mais nous défend formellement d'approcher les âmes sordides Je ne sais pas où je vais je sais juste où l'effort me mène Dans Paris la nuit je l'ai vu, enfiler sa robe J'n'aurai pas pu penser que le diable prenait forme humaine L'amour est mort dans une rue sans lanterne Pourquoi marquer l'histoire sans le faire à long terme ? On veut l'eau sur Mars On sait pas c'que nos cerveaux renferment La mélancolie me rend ferme J'me sentais si bien à l'idée de te faire mal Peu importe le fond, peu importe la forme Tout le monde s'en fout, y'a pas qu'la réforme Rien n'est clarifié Tandis que nos dignités s'estompent dans un mouchoir plein de chloroforme Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide You might also like L'espoir ou le prestige ? Hein ? Dieu est un artiste patient Dans ce monde gris mon reflet s'fige comme Dorian Gray Vestiges des premiers regrets sans second degré J'me fais pas sans l'admiration dans le regard des passants Le passé nous nargue en s'effaçant J'ai passé des nuits mais j'ai pas cédé J'me sentais possédé Des ailes noires me surplombent J'ressens le souffle du sht dans ma nuque J'ai vu ses yeux rougis d'sang dans la nuit Sans pour autant signer le contrat caduc Quand on a, on perd Quand on perd, on pleure Les étoiles se noient dans le sang du viaduc Mon hip-hop grésille J'ai grandi dans cette époque risible Et j'suis qu'un symbole qu'il incarne L'histoire s'écrit dans l'écorce Mais n'est pas crédible J'avais pas prédit que l'hypocrisie C'est le sheitan sans les cornes J'suis qu'un gosse non voulu j'suis pas miraculé T'es né à minuit mais tu meurs à quelle heure ? On aura qu'à les laisser s'entre-tuer sur un ciel rouge immaculé L'ombre qui me suit ne cesse de s'agrandir À l'image de mon ambition J'avais des envies sombres, des frontières à franchir J'ai vu le vide abyssal reflet d'ma condition Anneau gastrique dépérit sur l'auriculaire du Président Mon cerveau fume, la vapeur s'échappe du laboratoire comme cuisine moléculaire J'manie l'art oratoire, ils m'regardent hésitants Jalouse mon labeur à tort Rêve d'une vie d'opulence, finira populaire Les corbeaux mangent des vers dans leurs globes oculaires Donc je tape un selfie puisque c'est évident Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide Un corps vide, un cur de pierre sous un rempart de pleurs Je n'ai pas peur de perdre ce qui sépare mes plaies Je finirai par déplaire comme le départ d'un père éduqué dans l'erreur Je suis là pour les sommes et ces zones érogènes Ouvre ma poitrine s'tu veux mi corazon Sentiment corrosif, comment cautériser ? J'ai grandi sur l'tarmac dans vapeurs d'kérosène Ça lui a plus assis sache qu'on est plus à ça Puis on s'est retrouvé sous une pluie acide J'avais poumons noircis comme fond d'la Rue Etex Tes critiques seront valables quand t'auras lu mes textes Proche des dieux d'la nature comme un aborigène La fierté n'est qu'un prétexte Public abasourdi devant mes tessitures Le monde n'est pas si terne mais broie nos ossatures J'suis d'humeur taciturne, ton reflet s'éternise J'me sens comme Copernic devant l'anneau d'Saturne Laisse les dans la merde avec glock dans la trachée J'ravale pas paroles je préférerais cracher Nos reflets s'estompent comme des anciens pochoirs Et je ne suis qu'un pêcheur aux péchés empêcheurs J'devrai juger nos choix mais le ciel sen charge Encore un énième soir où les ténèbres m'écharnent Si la Bible t'enseigne l'humilité, pourquoi cries-tu ta présence à l'église ? Mon ambition fait la taille d'son désir j'étais seul dans l'désert au fond d'ma matière grise Je n'étais qu'une âme en rotation Mes sentiments sont défenestrés Perdu dans des craintes que ma jeunesse crée Y'a très peu d'témoins de mes balbutiements Le cur transpercé par deux balles de ciment T'oublies qu'j'descends du ciel L.O.R, juste un témoignage divin de l'enfant du siècle Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide L.O, L.O Encore un cur de pierre dans un corps vide Eh, eh ,eh</t>
+          <t>Je ne peux quantifier l'ambition que renferment mes mains J'étais bête de penser que mon succès rendrait fier les miens Encore un cur de pierre dans un corps vide Les destins dansent sur les routes hors du firmament Le ciel pleure pour effacer nos déformements Mais nous défend formellement d'approcher les âmes sordides Je ne sais pas où je vais je sais juste où l'effort me mène Dans Paris la nuit je l'ai vu, enfiler sa robe J'n'aurai pas pu penser que le diable prenait forme humaine L'amour est mort dans une rue sans lanterne Pourquoi marquer l'histoire sans le faire à long terme ? On veut l'eau sur Mars On sait pas c'que nos cerveaux renferment La mélancolie me rend ferme J'me sentais si bien à l'idée de te faire mal Peu importe le fond, peu importe la forme Tout le monde s'en fout, y'a pas qu'la réforme Rien n'est clarifié Tandis que nos dignités s'estompent dans un mouchoir plein de chloroforme Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide L'espoir ou le prestige ? Hein ? Dieu est un artiste patient Dans ce monde gris mon reflet s'fige comme Dorian Gray Vestiges des premiers regrets sans second degré J'me fais pas sans l'admiration dans le regard des passants Le passé nous nargue en s'effaçant J'ai passé des nuits mais j'ai pas cédé J'me sentais possédé Des ailes noires me surplombent J'ressens le souffle du sht dans ma nuque J'ai vu ses yeux rougis d'sang dans la nuit Sans pour autant signer le contrat caduc Quand on a, on perd Quand on perd, on pleure Les étoiles se noient dans le sang du viaduc Mon hip-hop grésille J'ai grandi dans cette époque risible Et j'suis qu'un symbole qu'il incarne L'histoire s'écrit dans l'écorce Mais n'est pas crédible J'avais pas prédit que l'hypocrisie C'est le sheitan sans les cornes J'suis qu'un gosse non voulu j'suis pas miraculé T'es né à minuit mais tu meurs à quelle heure ? On aura qu'à les laisser s'entre-tuer sur un ciel rouge immaculé L'ombre qui me suit ne cesse de s'agrandir À l'image de mon ambition J'avais des envies sombres, des frontières à franchir J'ai vu le vide abyssal reflet d'ma condition Anneau gastrique dépérit sur l'auriculaire du Président Mon cerveau fume, la vapeur s'échappe du laboratoire comme cuisine moléculaire J'manie l'art oratoire, ils m'regardent hésitants Jalouse mon labeur à tort Rêve d'une vie d'opulence, finira populaire Les corbeaux mangent des vers dans leurs globes oculaires Donc je tape un selfie puisque c'est évident Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide Un corps vide, un cur de pierre sous un rempart de pleurs Je n'ai pas peur de perdre ce qui sépare mes plaies Je finirai par déplaire comme le départ d'un père éduqué dans l'erreur Je suis là pour les sommes et ces zones érogènes Ouvre ma poitrine s'tu veux mi corazon Sentiment corrosif, comment cautériser ? J'ai grandi sur l'tarmac dans vapeurs d'kérosène Ça lui a plus assis sache qu'on est plus à ça Puis on s'est retrouvé sous une pluie acide J'avais poumons noircis comme fond d'la Rue Etex Tes critiques seront valables quand t'auras lu mes textes Proche des dieux d'la nature comme un aborigène La fierté n'est qu'un prétexte Public abasourdi devant mes tessitures Le monde n'est pas si terne mais broie nos ossatures J'suis d'humeur taciturne, ton reflet s'éternise J'me sens comme Copernic devant l'anneau d'Saturne Laisse les dans la merde avec glock dans la trachée J'ravale pas paroles je préférerais cracher Nos reflets s'estompent comme des anciens pochoirs Et je ne suis qu'un pêcheur aux péchés empêcheurs J'devrai juger nos choix mais le ciel sen charge Encore un énième soir où les ténèbres m'écharnent Si la Bible t'enseigne l'humilité, pourquoi cries-tu ta présence à l'église ? Mon ambition fait la taille d'son désir j'étais seul dans l'désert au fond d'ma matière grise Je n'étais qu'une âme en rotation Mes sentiments sont défenestrés Perdu dans des craintes que ma jeunesse crée Y'a très peu d'témoins de mes balbutiements Le cur transpercé par deux balles de ciment T'oublies qu'j'descends du ciel L.O.R, juste un témoignage divin de l'enfant du siècle Encore un cur de pierre dans un corps vide Encore un cur de pierre dans un corps vide L.O, L.O Encore un cur de pierre dans un corps vide Eh, eh ,eh</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yo, Nelick Kiwibunnytape Encore un foutu banger J'fais des tests ADN dans mon bunker Plus l'temps d'm'embêter pour ton bout d'coeur La voix d'la raison dans l'écouteur J'sais qu'on s'verra de l'autre côté Ecoute bien, c'est plus des open mics gars c'est des goûters J'vais pas tirer sur ton doobie J'suis pas là pour ton booty Quand tu fais brr c'est qu't'appelles la police J'mets les euros dans ma polaire J'passe des heures dans son colon quand je-ha J'essaie de téma toutes les couleurs Hey, yah, j'espère vraiment que t'es solide Car la façon dont tu me rassures est cheum Salope sait la fermer et s'rassoit sur la chaise J'vois que le salaire sous les chèques Seul et sous le ship J'secoue ton échelle et j'pull up ton échec Rien à guette à part le vide T'essaies de tuer ça mais la gachette est raide Tes valeurs s'brisent plus vite que tes reins Rien à prendre à part le seum Car ainsi vont tes regrets T'achètes des vues pour vendre du rêve Car ainsi va ta reum La concu resssemble à Sylvain Durif, ha Tu sais pas comment durer C'est que t'es si loin du ring T'apprendras par le goût du sang J'respecte encore l'image de la femme Et l'hymen de mes fans L.O.R.D téléphone You might also like Allo Nelick ? vlà les rappeurs font les folles Bouillant comme tes phallanges dans le toaster Invité pour un gala j'arrive en stunt, brrrrrr Stop, à mon avis vont s'tairent sku sku Tu veux faire révolution pendant qu'tu fais les soldes J'te félicite et puis j'te sollicite à sauter sur le sol Le saké dans le bide La haine floquée sur mon sexe J'baise avec la rage que la raison dissipe Kiwibunny dans le piège Pala sur le siège J'essaye d'apercevoir une ombre dans le ciel Pendant qu'ta pétasse fais des siennes J'préfère croire en toi J'préfère avoir Karembeu que quarante doigts Tu craches ta colère sans la connaître, connard Fils de prolifèrent pendant qu'les dollys fument Toi t'en dis quoi ? Il en faut plus pour me casser les ieps J'suis dans Le Règlement, j'provoque saignement Avant d'ramasser les ieb</t>
+          <t>Yo, Nelick Kiwibunnytape Encore un foutu banger J'fais des tests ADN dans mon bunker Plus l'temps d'm'embêter pour ton bout d'coeur La voix d'la raison dans l'écouteur J'sais qu'on s'verra de l'autre côté Ecoute bien, c'est plus des open mics gars c'est des goûters J'vais pas tirer sur ton doobie J'suis pas là pour ton booty Quand tu fais brr c'est qu't'appelles la police J'mets les euros dans ma polaire J'passe des heures dans son colon quand je-ha J'essaie de téma toutes les couleurs Hey, yah, j'espère vraiment que t'es solide Car la façon dont tu me rassures est cheum Salope sait la fermer et s'rassoit sur la chaise J'vois que le salaire sous les chèques Seul et sous le ship J'secoue ton échelle et j'pull up ton échec Rien à guette à part le vide T'essaies de tuer ça mais la gachette est raide Tes valeurs s'brisent plus vite que tes reins Rien à prendre à part le seum Car ainsi vont tes regrets T'achètes des vues pour vendre du rêve Car ainsi va ta reum La concu resssemble à Sylvain Durif, ha Tu sais pas comment durer C'est que t'es si loin du ring T'apprendras par le goût du sang J'respecte encore l'image de la femme Et l'hymen de mes fans L.O.R.D téléphone Allo Nelick ? vlà les rappeurs font les folles Bouillant comme tes phallanges dans le toaster Invité pour un gala j'arrive en stunt, brrrrrr Stop, à mon avis vont s'tairent sku sku Tu veux faire révolution pendant qu'tu fais les soldes J'te félicite et puis j'te sollicite à sauter sur le sol Le saké dans le bide La haine floquée sur mon sexe J'baise avec la rage que la raison dissipe Kiwibunny dans le piège Pala sur le siège J'essaye d'apercevoir une ombre dans le ciel Pendant qu'ta pétasse fais des siennes J'préfère croire en toi J'préfère avoir Karembeu que quarante doigts Tu craches ta colère sans la connaître, connard Fils de prolifèrent pendant qu'les dollys fument Toi t'en dis quoi ? Il en faut plus pour me casser les ieps J'suis dans Le Règlement, j'provoque saignement Avant d'ramasser les ieb</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Je traversais cette mégalopole ressassant de vieux songes et d'longues nuits d'été J'étais loin d'me douter qu'j'allai croiser cet ange sur le chemin qui menait à l'automne Un enfant des rues portait c'bidon d'essence au détour d'un bas-fond, j'ai perçu tes yeux verts transperçants Comme la pluie sur un plafond de verre Manathan pleure mais ton bidonville danse Tout nous sépare oh, oh, oh, Maria, Maria Ta silhouette me semblait si loin que je n't'ai salué Dieu soit loué oh, oh, oh, Maria, Maria Je ne sais pas pourquoi, j'baisse les armes Maria tout nous sépare Y'a des gouttes de lumière sur nos désillusions J'te r'vois quitter la chambre d'un air désabusé oh, oh, oh, pour toi, j'aurai mis ma tête à miser Je sais qu'tu m'en voudras si j'fais des allusions Maria, j'aime ton peuple car il sait s'amuser Jt'aime autant confiant que tétanisé Un roi n'est pas roi s'il assouvi son règne sans reine Je suis désireux envers celle que j'ai croisé dans un rêve Notre amour s'est éteint dans l'euphorie d'un fou-rire Dans l'euphorie d'un fou-rire You might also like Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria J'voulais qu'tu m'suives par amour, tu voulais même pas qu'on se voit oh, oh, oh, Maria, Maria Dis-moi pourquoi c'était inconcevable Ton sourire s'évapore et se fige sur toutes mes peines inconsolables oh, oh, oh, Maria, Maria Tu craignais qu'on se lâche, j'ai préféré rentrer, laissant tous mes espoirs balayés dans les couloirs de ton consulat oh, oh, oh, Maria, Maria Maria était si belle, ce soir de pleine lune mais je suis déçu d'elle Je la revois encore pleurer des décibels oh, oh, oh, Maria, Maria Malgré le succès, les autres femmes sont fades et le temps efface toutes les fleurs qui fanent J'ai vu briller la flamme dans ton reflet sans faille Où meurent toutes nos fables lors d'un face à face J'suis l'enfant d'une mère triste et d'un père minable père minable Heureusement nos peines sont pas interminables interminables Il m'arrive encore de rejoindre Roissy rêvant d'te croiser dans un terminal terminal Un roi n'est pas roi s'il assouvi son règne sans reine Je suis désireux envers celle que j'ai croisé dans un rêve Notre amour s'est éteint dans l'euphorie d'un fou-rire Dans l'euphorie d'un fou-rire Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria3</t>
+          <t>Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Oh, oh, oh, Maria, Maria Je traversais cette mégalopole ressassant de vieux songes et d'longues nuits d'été J'étais loin d'me douter qu'j'allai croiser cet ange sur le chemin qui menait à l'automne Un enfant des rues portait c'bidon d'essence au détour d'un bas-fond, j'ai perçu tes yeux verts transperçants Comme la pluie sur un plafond de verre Manathan pleure mais ton bidonville danse Tout nous sépare oh, oh, oh, Maria, Maria Ta silhouette me semblait si loin que je n't'ai salué Dieu soit loué oh, oh, oh, Maria, Maria Je ne sais pas pourquoi, j'baisse les armes Maria tout nous sépare Y'a des gouttes de lumière sur nos désillusions J'te r'vois quitter la chambre d'un air désabusé oh, oh, oh, pour toi, j'aurai mis ma tête à miser Je sais qu'tu m'en voudras si j'fais des allusions Maria, j'aime ton peuple car il sait s'amuser Jt'aime autant confiant que tétanisé Un roi n'est pas roi s'il assouvi son règne sans reine Je suis désireux envers celle que j'ai croisé dans un rêve Notre amour s'est éteint dans l'euphorie d'un fou-rire Dans l'euphorie d'un fou-rire Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria J'voulais qu'tu m'suives par amour, tu voulais même pas qu'on se voit oh, oh, oh, Maria, Maria Dis-moi pourquoi c'était inconcevable Ton sourire s'évapore et se fige sur toutes mes peines inconsolables oh, oh, oh, Maria, Maria Tu craignais qu'on se lâche, j'ai préféré rentrer, laissant tous mes espoirs balayés dans les couloirs de ton consulat oh, oh, oh, Maria, Maria Maria était si belle, ce soir de pleine lune mais je suis déçu d'elle Je la revois encore pleurer des décibels oh, oh, oh, Maria, Maria Malgré le succès, les autres femmes sont fades et le temps efface toutes les fleurs qui fanent J'ai vu briller la flamme dans ton reflet sans faille Où meurent toutes nos fables lors d'un face à face J'suis l'enfant d'une mère triste et d'un père minable père minable Heureusement nos peines sont pas interminables interminables Il m'arrive encore de rejoindre Roissy rêvant d'te croiser dans un terminal terminal Un roi n'est pas roi s'il assouvi son règne sans reine Je suis désireux envers celle que j'ai croisé dans un rêve Notre amour s'est éteint dans l'euphorie d'un fou-rire Dans l'euphorie d'un fou-rire Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria Oh, oh, Maria, Maria3</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Regards, voir dans son coloris Rouge comme le ciel, bleu comme les plaies Vide comme mon cur, bien plus qu'endolori Tous tes désirs éphémères collent au rythme Roses noires, roses noires Doigt, sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, roses noires Jchante ma détresse sous pronom autotuné Si tu vois pas mes faiblesses, tu ne m'es d'aucune aide J't'oublierai sans l'vouloir comme ces visages qui m'hantent le soir Sur nos photos funestes, on meurt d'amour, on vit d'espoir Dis-moi comment devenir ce que tu n'es pas J'assume le poids de nos erreurs, je n'veux pas qu'on s'y méprenne Nos reflets se contemplent et cherchent la symétrie Ça fait des années que ton nom suit mes pas Plus d'ultime épreuve, déraciné par mes ambitions J'étais naïf de croire que malgré ma chute et mes envies sombres Le ciel me donnerait l'impression que la cime est proche Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, ton cur Tes yeux désireux Doigt sur ses lèvres rosées, tête pleine de rêves osées Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux You might also like J'en connais beaucoup qui ne s'autorisent pas J'en connais trop qui s'excusent d'exister Combien finiront par se désister ? Délaissant leurs souvenirs sur des photos grises pâles Nos vertus se noient dans des valeurs décimales Je brille que si tu brilles Ton cur a crié mais je t'entendais si mal J'peux pas, les âmes en paix rêvent de s'émanciper Ceux qui n'cherchent que le sommeil s'y perdent Le temps passe, les rêves s'entassent Et mon ambition ne s'amincit pas Je me demande si tu comprends pourquoi ça m'insupporte j'peux pas Comment faisions-nous pour partager autant tout en s'aimant si peu ? Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux Regards, voir dans son coloris Rouge comme le ciel, bleu comme les plaies Vide comme mon cur, même jusqu'endolori Tous tes désirs éphémères collent au rythme Roses noires, roses noires Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux3</t>
+          <t>Regards, voir dans son coloris Rouge comme le ciel, bleu comme les plaies Vide comme mon cur, bien plus qu'endolori Tous tes désirs éphémères collent au rythme Roses noires, roses noires Doigt, sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, roses noires Jchante ma détresse sous pronom autotuné Si tu vois pas mes faiblesses, tu ne m'es d'aucune aide J't'oublierai sans l'vouloir comme ces visages qui m'hantent le soir Sur nos photos funestes, on meurt d'amour, on vit d'espoir Dis-moi comment devenir ce que tu n'es pas J'assume le poids de nos erreurs, je n'veux pas qu'on s'y méprenne Nos reflets se contemplent et cherchent la symétrie Ça fait des années que ton nom suit mes pas Plus d'ultime épreuve, déraciné par mes ambitions J'étais naïf de croire que malgré ma chute et mes envies sombres Le ciel me donnerait l'impression que la cime est proche Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, ton cur Tes yeux désireux Doigt sur ses lèvres rosées, tête pleine de rêves osées Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux J'en connais beaucoup qui ne s'autorisent pas J'en connais trop qui s'excusent d'exister Combien finiront par se désister ? Délaissant leurs souvenirs sur des photos grises pâles Nos vertus se noient dans des valeurs décimales Je brille que si tu brilles Ton cur a crié mais je t'entendais si mal J'peux pas, les âmes en paix rêvent de s'émanciper Ceux qui n'cherchent que le sommeil s'y perdent Le temps passe, les rêves s'entassent Et mon ambition ne s'amincit pas Je me demande si tu comprends pourquoi ça m'insupporte j'peux pas Comment faisions-nous pour partager autant tout en s'aimant si peu ? Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux Regards, voir dans son coloris Rouge comme le ciel, bleu comme les plaies Vide comme mon cur, même jusqu'endolori Tous tes désirs éphémères collent au rythme Roses noires, roses noires Doigt sur ses lèvres rosées, tête pleine de rêves osés Je me demande, je me demande pourquoi t'es névrosée Roses noires, sur tes bas résilles, roses noires, fais qu'ton cur grésille Roses noires, brûle dans tes deux yeux, roses noires, tes yeux désireux3</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mélancolie des rues sur un air de piano Pour te raconter mon histoire J'n'ai qu'un vague souvenir de toutes ces années ternes Où mon âme se promenait tard Ma haine sur prémoniteur Du sang sur mes rêves prémonitoires Mon étoile m'a d'mandé Que veux-tu ? J'ai répondu Je veux l'monde et toi ? Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais J'suis ton concubin, ton Kurt Cobain Ah bah ouais Tu sais très bien que mon cur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais J'ai vu des rides sur l'visage des gens qui savent Des cernes sur les joues d'une mère exténuée Le ciel se vexe mais je sais que c'est voué A ne pas durer, peu importe ce que t'en diras Perçois-tu ce que j'endurais dans mes textes enoués ? Cracher haine, caché peine Ciel n'est qu'une tâche ébène Ah, le désert s'étend Je me dois de conserver nos trésors d'antan J'revois l'enfant que j'étais qui s'exerçait tant Des âmes se vendent même à des prix exorbitants Ah bah ouais Notre ennemi c'est l'temps Ah bah ouais Mais y'a rien d'insultant Ah bah ouais, ah bah ouais Encore une âme tournée vers elle-même Sur laquelle on met pas d'étiquette Encore une larme que seul le ciel sème Qui te demande si t'es pathétique Encore une arme, encore une arme Qui tue et n'a pas d'éthique Parfois ma rage s'ouvre et t'écris Rêvons d'arroser les dunes À quoi bon te proposer la lune Puisque l'orage couvre tes cris ? You might also like Chaque jour Chaque jour, je Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais Mélancolie des rues sur un air de piano Pour te raconter mon histoire J'n'ai qu'un vague souvenir de toutes ces années ternes Où mon âme se promenait tard Ma haine sur prémoniteur Du sang sur mes rêves prémonitoires Mon étoile m'a d'mandé Que veux-tu ? J'ai répondu Je veux l'monde et toi ? Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais J'suis ton concubin, ton Kurt Cobain Ah bah ouais Tu sais très bien que mon coeur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais4</t>
+          <t>Mélancolie des rues sur un air de piano Pour te raconter mon histoire J'n'ai qu'un vague souvenir de toutes ces années ternes Où mon âme se promenait tard Ma haine sur prémoniteur Du sang sur mes rêves prémonitoires Mon étoile m'a d'mandé Que veux-tu ? J'ai répondu Je veux l'monde et toi ? Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais J'suis ton concubin, ton Kurt Cobain Ah bah ouais Tu sais très bien que mon cur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais J'ai vu des rides sur l'visage des gens qui savent Des cernes sur les joues d'une mère exténuée Le ciel se vexe mais je sais que c'est voué A ne pas durer, peu importe ce que t'en diras Perçois-tu ce que j'endurais dans mes textes enoués ? Cracher haine, caché peine Ciel n'est qu'une tâche ébène Ah, le désert s'étend Je me dois de conserver nos trésors d'antan J'revois l'enfant que j'étais qui s'exerçait tant Des âmes se vendent même à des prix exorbitants Ah bah ouais Notre ennemi c'est l'temps Ah bah ouais Mais y'a rien d'insultant Ah bah ouais, ah bah ouais Encore une âme tournée vers elle-même Sur laquelle on met pas d'étiquette Encore une larme que seul le ciel sème Qui te demande si t'es pathétique Encore une arme, encore une arme Qui tue et n'a pas d'éthique Parfois ma rage s'ouvre et t'écris Rêvons d'arroser les dunes À quoi bon te proposer la lune Puisque l'orage couvre tes cris ? Chaque jour Chaque jour, je Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais Mélancolie des rues sur un air de piano Pour te raconter mon histoire J'n'ai qu'un vague souvenir de toutes ces années ternes Où mon âme se promenait tard Ma haine sur prémoniteur Du sang sur mes rêves prémonitoires Mon étoile m'a d'mandé Que veux-tu ? J'ai répondu Je veux l'monde et toi ? Chaque jour, je meurs, le cowbell m'heurte J'suis ton concubin, ton Kurt Cobain J'te chante ma peine sur des nouvelles notes Tu sais très bien que mon cur t'obéis Ah bah ouais J'suis ton concubin, ton Kurt Cobain Ah bah ouais Tu sais très bien que mon coeur t'obéis Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais, bah ouais Ah bah ouais4</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Je n'ai jamais su, où le diable irait mais C'est irrémédiable Comment grandir sans se sentir aimé ? Enfant soldat voit son reflet dans flaque de pétrole Le ciel a des incontinences sur c'maudit continent Quand à nous On préfère pleurer sur tous les génocides qu'on finance Multi-nationale à la traque des soldes J'calcule toujours pas fils de pute empêtré Fuck un terroriste et cette lutte orchestrée J'ai des restes de conscience mais les plaques s'étiolent Regard froid sur un cur indolore Que ferais-tu pour un dollar ? Y'a des vagins payants, y'a des virus gratuits Elle a gratté sinus si fort qu'ils sont saignants Jolie gueule, vilain garçon Vilain garçon, doit rester noir oy Jolie gueule, vilain garçon Demande à Nelick quand on performait devant 7 personnes Bien sûr que le malaise était perceptible Seul face au ciel, hyper septique Le mal être de l'homme change t-il sous lunettes persol ? Y'a qu'des vendeurs de morts et des cervelles autour Donc les vautours survolent nos villes en carton pâte Ils décident ton sort au jeu d'la courte paille J'ai pansé mes parties qui saignent Plus facile que se plaindre quand t'as touché le chèque L'offre et la demande descendent, coupe du monde en décembre Nuage artificiel pour mieux toucher le Tchèque Rien d'plus qu'un vulgaire spécimen Quand j'vois qu'l'espèce humaine sacrifie l'ciel Le bon Dieu est parti pisser Dis-moi qui tire les ficelles Dis-moi si l'diable renvoie les filles saines Dis-moi si j'divague quand j'dis à mère nature Que son couple est mort, qu'y'a plus personne qui s'aime J'nourris mes adorateurs trop d'personnalité J'entends mes tonalités Sans moralité dans la bouche de ces ados rappeurs You might also like Jolie gueule, vilain garçon Vilain garçon, doit rester noir oy Jolie gueule, vilain garçon L'avenir s'reflète dans mon regard sombre Y'a des hommes obèses, y'a des ours polaires squelettiques Demande aux miens sku sku Si tu veux savoir c'qu'est l'éthique Mère a ses défaut mais mère est c'qu'elle est Destin devient funeste dans une didascalie J'laisse couler, l'encre et le sang D'entrée je sentais que c'était l'début d'une très longue escalade Malgré tout dans c'cas là quand mère venait s'caler J'voyais les lions roder dans leur cage d'escaliers Hum L-O-R-D j'rêvais d'percer dans le RER D Souvenir cé-per spectre fantomatique Dans ma tête on est 6 comme sur l'Photomaton Pardonne moi, j'ai fauté mon père Et c'est symptomatique , les fauts-dé monta Des photomontage et des faux témoins pff La vérité surgit toujours dans une rafale d'automatique Pourquoi patienter quand on veut tout tout d'suite ? Petit pays s'éclaire à la bougie Oui leur terre est rougie pour Hutu, Tutsi Mais l'Homme évolue selon Darwin Ça peut dégénérer comme tes plus jeunes rêves Soit pas trop généreux, tu sais qu'ça ruine L-O-R-D c'est l'Enfant du Siècle Le projet d'l'année c'est Polaroid4</t>
+          <t>Je n'ai jamais su, où le diable irait mais C'est irrémédiable Comment grandir sans se sentir aimé ? Enfant soldat voit son reflet dans flaque de pétrole Le ciel a des incontinences sur c'maudit continent Quand à nous On préfère pleurer sur tous les génocides qu'on finance Multi-nationale à la traque des soldes J'calcule toujours pas fils de pute empêtré Fuck un terroriste et cette lutte orchestrée J'ai des restes de conscience mais les plaques s'étiolent Regard froid sur un cur indolore Que ferais-tu pour un dollar ? Y'a des vagins payants, y'a des virus gratuits Elle a gratté sinus si fort qu'ils sont saignants Jolie gueule, vilain garçon Vilain garçon, doit rester noir oy Jolie gueule, vilain garçon Demande à Nelick quand on performait devant 7 personnes Bien sûr que le malaise était perceptible Seul face au ciel, hyper septique Le mal être de l'homme change t-il sous lunettes persol ? Y'a qu'des vendeurs de morts et des cervelles autour Donc les vautours survolent nos villes en carton pâte Ils décident ton sort au jeu d'la courte paille J'ai pansé mes parties qui saignent Plus facile que se plaindre quand t'as touché le chèque L'offre et la demande descendent, coupe du monde en décembre Nuage artificiel pour mieux toucher le Tchèque Rien d'plus qu'un vulgaire spécimen Quand j'vois qu'l'espèce humaine sacrifie l'ciel Le bon Dieu est parti pisser Dis-moi qui tire les ficelles Dis-moi si l'diable renvoie les filles saines Dis-moi si j'divague quand j'dis à mère nature Que son couple est mort, qu'y'a plus personne qui s'aime J'nourris mes adorateurs trop d'personnalité J'entends mes tonalités Sans moralité dans la bouche de ces ados rappeurs Jolie gueule, vilain garçon Vilain garçon, doit rester noir oy Jolie gueule, vilain garçon L'avenir s'reflète dans mon regard sombre Y'a des hommes obèses, y'a des ours polaires squelettiques Demande aux miens sku sku Si tu veux savoir c'qu'est l'éthique Mère a ses défaut mais mère est c'qu'elle est Destin devient funeste dans une didascalie J'laisse couler, l'encre et le sang D'entrée je sentais que c'était l'début d'une très longue escalade Malgré tout dans c'cas là quand mère venait s'caler J'voyais les lions roder dans leur cage d'escaliers Hum L-O-R-D j'rêvais d'percer dans le RER D Souvenir cé-per spectre fantomatique Dans ma tête on est 6 comme sur l'Photomaton Pardonne moi, j'ai fauté mon père Et c'est symptomatique , les fauts-dé monta Des photomontage et des faux témoins pff La vérité surgit toujours dans une rafale d'automatique Pourquoi patienter quand on veut tout tout d'suite ? Petit pays s'éclaire à la bougie Oui leur terre est rougie pour Hutu, Tutsi Mais l'Homme évolue selon Darwin Ça peut dégénérer comme tes plus jeunes rêves Soit pas trop généreux, tu sais qu'ça ruine L-O-R-D c'est l'Enfant du Siècle Le projet d'l'année c'est Polaroid4</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ah ouais y a l'autotune sa mère On est bête et méchant Est ce que les groupies Vont répeter mes chants ? On est bête et méchant Est ce que les groupies Vous êtes là mes putes ? L-O-R, L-O-R, j'suis là pour niquer vos mères Je crois que j'ai assez zoné J'les baise de manière saisonnière Pour mieux régner faut s'isoler Toutes mes plaies sont ciselées Ce que je laisse dans ses ovaires Lui laisse un goût assaisonné J'arrive cigare au bec Figurez-vous qu'y aura ma tête En couverture du Figaro Hahah J'te méprise car tu fuis du ring Tellement stressé par l'featuring Au studio, t'allumes six garos On t'fait la guerre j'ai pas d'havre Attend attend Si le rap est mort sache que je baise un cadavre Pourquoi veux-tu qu'j'décélère Trouve moi dans le dictionnaire Tu sais bien qu'on est solaire L-O-R est visionnaire J't'ai pas dit d'aimer son art Pute veut plus de missionnaire Ici tout les Démons sont noirs Je fais la diff' sur chaque ceau-mor Comme je fais l'tube du summer Toute forme d'ennemi se meurt La concurrence démissionnaire s'enterre tout seule dans mon scénar You might also like Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Est-ce que j'suis un enculé ou est ce qu'on abuse de moi ? Aucune des deux réponses ne me rassure Cest quand même plus confortable dêtre une raclure je crois Jfais passer mes sentiments pour des lapsus On veut tous les deux faire ce qu'on veut faire Qui est le plus égoïste d'entre nous ? Jessaye de m'persuader que jmen branle de tout Afin d'justifier ma présence dans le ventre mou Vis ma vie, petit j'suis tombé dans la cheminée mais j'ai pas d'cadeau, j'ai une cicatrice Vis ma vie, une fenêtre ouverte sans vis-à-vis Vis ma vie, un voyage sans visa, vis ma vie, vis ma vie Cest pour les bipolaires en split screen mod Cest lretour des dirty Beastie Boys Toute la journée d'vant un écran dehors j'me sens comme dans GTA, pim pim, blitzkrieg bop Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Team j'me ridiculise pour faire marrer les autres Team j'me ridiculise pour réparer mes fautes Team charismatique sans ce que t'appelles Ego Team j'arrive à vivre donc rejoignez les notres Crève la bouche ouverte ou bien serre les dents J'vois pas les mauvais moments comme des putains d'expériences Et je sais qu'c'est chiant mais va falloir l'admettre Contempler ma tristesse peut-être qu'au fond ça m'plaît J'veux juste devenir humain un peu comme C-18 Mais j'me sens toujours vide un peu comme l'Hémicycle J'me perds ici et là en cherchant mes limites hey Soit elles m'illuminent, soit elles m'éliminent hey Mais le mieux c'est peut être me sentir seul Écouter des musiques tristes en jouant à Candy Crush Et peut-être écrire en attendant qu'Satan m'appelle Si l'enfer existe poto j'suis pas dans la merde Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Déviance Règne, la lumière se rend double Épris dans cette mise en scène, crime Je vois les roses en trouble, et j'ai inversé nos verres, les mots, à en voir l'or en boucle, un torrent pourpre Tête bêche émettant du canapé l'appel d'un son bête et méchant Seul face à l'horreur dans la pièce comme Bynie Course avec le mal dans l'hémoglobine en sequette Moment d'absence, repense à tous ceux qui sont bannis de l'antre, et que l'espoir en soi décime en secret L'objet de nos jours c'est l'image, habité, l'homme fixe un cadre vide ajusté, droit, face au mirage Comme les miroirs ne brisent à l'évidence guère c'que cette comédie masque son démon est vil et il danse comme une immense keh Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Plus je fais des vues plus mes anciens potes deviennent nostalgiques, hein Ils diront qu'on était frères quand j'serai au Costa Rica Ils vivent tous à travers des clichés comme dans Memento Plus les coups d'putes s'abattent moins j'ai un cur qui bat sous mon manteau La misère n'fait bander que ceux qui ne la connaissent pas Ma mère piégée par l'RSA rêve du ciel de l'Espagne Moins 6 degrés dehors, donc 40 dans ma flasque d'alcool J'recommencerai mes conneries si jamais Dieu me pardonne Chez nous il n'y a pas de magouilles, passe le magot ici Le partage va dans les deux sens comme le sabre de Darth Maul Hey hey On est bête et méchant, j'reste méfiant car peu voudraient me laisser mes chances Bête et méchant pourtant je ne veux pas blesser les gens Mais quand ils te voient courir ils aimeraient te péter les jambes Bête et méchant pourtant je ne veux pas blesser les gens Mais quand ils te voient courir ils aimeraient te péter les jambes Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Turn-up bête et méchant Turn-up bête et méchant Turn-up bête et méchant High Five, LORD Turn-up bête et méchant5</t>
+          <t>Ah ouais y a l'autotune sa mère On est bête et méchant Est ce que les groupies Vont répeter mes chants ? On est bête et méchant Est ce que les groupies Vous êtes là mes putes ? L-O-R, L-O-R, j'suis là pour niquer vos mères Je crois que j'ai assez zoné J'les baise de manière saisonnière Pour mieux régner faut s'isoler Toutes mes plaies sont ciselées Ce que je laisse dans ses ovaires Lui laisse un goût assaisonné J'arrive cigare au bec Figurez-vous qu'y aura ma tête En couverture du Figaro Hahah J'te méprise car tu fuis du ring Tellement stressé par l'featuring Au studio, t'allumes six garos On t'fait la guerre j'ai pas d'havre Attend attend Si le rap est mort sache que je baise un cadavre Pourquoi veux-tu qu'j'décélère Trouve moi dans le dictionnaire Tu sais bien qu'on est solaire L-O-R est visionnaire J't'ai pas dit d'aimer son art Pute veut plus de missionnaire Ici tout les Démons sont noirs Je fais la diff' sur chaque ceau-mor Comme je fais l'tube du summer Toute forme d'ennemi se meurt La concurrence démissionnaire s'enterre tout seule dans mon scénar Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Est-ce que j'suis un enculé ou est ce qu'on abuse de moi ? Aucune des deux réponses ne me rassure Cest quand même plus confortable dêtre une raclure je crois Jfais passer mes sentiments pour des lapsus On veut tous les deux faire ce qu'on veut faire Qui est le plus égoïste d'entre nous ? Jessaye de m'persuader que jmen branle de tout Afin d'justifier ma présence dans le ventre mou Vis ma vie, petit j'suis tombé dans la cheminée mais j'ai pas d'cadeau, j'ai une cicatrice Vis ma vie, une fenêtre ouverte sans vis-à-vis Vis ma vie, un voyage sans visa, vis ma vie, vis ma vie Cest pour les bipolaires en split screen mod Cest lretour des dirty Beastie Boys Toute la journée d'vant un écran dehors j'me sens comme dans GTA, pim pim, blitzkrieg bop Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Team j'me ridiculise pour faire marrer les autres Team j'me ridiculise pour réparer mes fautes Team charismatique sans ce que t'appelles Ego Team j'arrive à vivre donc rejoignez les notres Crève la bouche ouverte ou bien serre les dents J'vois pas les mauvais moments comme des putains d'expériences Et je sais qu'c'est chiant mais va falloir l'admettre Contempler ma tristesse peut-être qu'au fond ça m'plaît J'veux juste devenir humain un peu comme C-18 Mais j'me sens toujours vide un peu comme l'Hémicycle J'me perds ici et là en cherchant mes limites hey Soit elles m'illuminent, soit elles m'éliminent hey Mais le mieux c'est peut être me sentir seul Écouter des musiques tristes en jouant à Candy Crush Et peut-être écrire en attendant qu'Satan m'appelle Si l'enfer existe poto j'suis pas dans la merde Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Déviance Règne, la lumière se rend double Épris dans cette mise en scène, crime Je vois les roses en trouble, et j'ai inversé nos verres, les mots, à en voir l'or en boucle, un torrent pourpre Tête bêche émettant du canapé l'appel d'un son bête et méchant Seul face à l'horreur dans la pièce comme Bynie Course avec le mal dans l'hémoglobine en sequette Moment d'absence, repense à tous ceux qui sont bannis de l'antre, et que l'espoir en soi décime en secret L'objet de nos jours c'est l'image, habité, l'homme fixe un cadre vide ajusté, droit, face au mirage Comme les miroirs ne brisent à l'évidence guère c'que cette comédie masque son démon est vil et il danse comme une immense keh Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Plus je fais des vues plus mes anciens potes deviennent nostalgiques, hein Ils diront qu'on était frères quand j'serai au Costa Rica Ils vivent tous à travers des clichés comme dans Memento Plus les coups d'putes s'abattent moins j'ai un cur qui bat sous mon manteau La misère n'fait bander que ceux qui ne la connaissent pas Ma mère piégée par l'RSA rêve du ciel de l'Espagne Moins 6 degrés dehors, donc 40 dans ma flasque d'alcool J'recommencerai mes conneries si jamais Dieu me pardonne Chez nous il n'y a pas de magouilles, passe le magot ici Le partage va dans les deux sens comme le sabre de Darth Maul Hey hey On est bête et méchant, j'reste méfiant car peu voudraient me laisser mes chances Bête et méchant pourtant je ne veux pas blesser les gens Mais quand ils te voient courir ils aimeraient te péter les jambes Bête et méchant pourtant je ne veux pas blesser les gens Mais quand ils te voient courir ils aimeraient te péter les jambes Est-ce que les groupies vont répéter mes chants ? Personne na pris le prêche donc leur baptême est chiant Bouscule tes potes éméchés Le Pogo décolle dans le bateau mouche High Five, LORD Turn-up bête et méchant Turn-up bête et méchant Turn-up bête et méchant Turn-up bête et méchant High Five, LORD Turn-up bête et méchant5</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Elle ride sans cesse La cocaïne énerve Anna Elle ingurgite d'un air banal S'éloignant plus du nirvana Les nerfs à vif, elle éradique De n'importe quelle manière anale Elle est prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Peu m'importe, Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui On aurait pu s'aimer le temps d'une chanson Si seulement j'avais pu panser mes plaies Ce que tu consommes t'as possédée Méfies-toi de ce que les gens sont J'revois ton ombre danser Mais rien ne dure intensément Et j'entends ces mots qui résonnent en toi Plus étincelants sur un sol d'étoiles Les promesses que tu prodigues sont produites par le mal Joues tenaillées par le manque, creusées par la fatigue Mon Anna parle-moi, ton amour disparate disparaît Je ne cesse d'espérer, mon cur est transparent N'a connu danse pareille You might also like Depuis que le temps sépare l'émoi J'ai peur de rien, t'avais peur du vide Quand les ténèbres s'emparent des cieux Mes souvenirs se raffermissent Ta beauté s'éternise, le vice rend pas service Tous nos rêves ternis sont décelés Nos curs s'effritent sur des rambardes d'acier Mais nos larmes sont salées J'avais ta permission Je descellais nos âmes sur le sentier de la perdition Oh Anna Oh Anna Oh Anna Oh Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Nos espoirs volent au gré du vent Au creux de mes mains, érodé par le temps J'osais t'croire, j'osais t'croire Mais ton lendemain disparaît dans le sang J'ai plus d'amour à donner J'ai ma tristesse à revendre Pendant qu'on court vers nos rêves, le diable prend sa revanche Est-ce une distraction, l'autodestruction ? Oui, j'ai d'autres questions sur ton instruction Rêve-tu d'une tombe encore plus spacieuse ? Aucune discrétion, ça t'rend disgracieuse Mais ton âme réfute qu'elle a cessé de lutter Qu'à force de chuter, finalement, la mort te scrute Que veut t'elle voir ? Que veut t'elle voir ? Ton décor se consumait quand il pleuvait l'soir Que veut t'elle voir ? Que veut t'elle voir ? Un ange nous quitte en déployant ses deux ailes noires J'ai peur de rien, t'avais peur du vide Quand les ténèbres s'emparent des cieux Mes souvenirs se raffermissent Ta beauté s'éternise, le vice rend pas service Tous nos rêves ternis sont décelés Nos curs s'effritent sur des rambardes d'acier Mais nos larmes sont salées J'avais ta permission Je descellais nos âmes sur le sentier de la perdition Oh Anna Oh Anna Oh Anna Oh Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui5</t>
+          <t>Elle ride sans cesse La cocaïne énerve Anna Elle ingurgite d'un air banal S'éloignant plus du nirvana Les nerfs à vif, elle éradique De n'importe quelle manière anale Elle est prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Peu m'importe, Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui On aurait pu s'aimer le temps d'une chanson Si seulement j'avais pu panser mes plaies Ce que tu consommes t'as possédée Méfies-toi de ce que les gens sont J'revois ton ombre danser Mais rien ne dure intensément Et j'entends ces mots qui résonnent en toi Plus étincelants sur un sol d'étoiles Les promesses que tu prodigues sont produites par le mal Joues tenaillées par le manque, creusées par la fatigue Mon Anna parle-moi, ton amour disparate disparaît Je ne cesse d'espérer, mon cur est transparent N'a connu danse pareille Depuis que le temps sépare l'émoi J'ai peur de rien, t'avais peur du vide Quand les ténèbres s'emparent des cieux Mes souvenirs se raffermissent Ta beauté s'éternise, le vice rend pas service Tous nos rêves ternis sont décelés Nos curs s'effritent sur des rambardes d'acier Mais nos larmes sont salées J'avais ta permission Je descellais nos âmes sur le sentier de la perdition Oh Anna Oh Anna Oh Anna Oh Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Nos espoirs volent au gré du vent Au creux de mes mains, érodé par le temps J'osais t'croire, j'osais t'croire Mais ton lendemain disparaît dans le sang J'ai plus d'amour à donner J'ai ma tristesse à revendre Pendant qu'on court vers nos rêves, le diable prend sa revanche Est-ce une distraction, l'autodestruction ? Oui, j'ai d'autres questions sur ton instruction Rêve-tu d'une tombe encore plus spacieuse ? Aucune discrétion, ça t'rend disgracieuse Mais ton âme réfute qu'elle a cessé de lutter Qu'à force de chuter, finalement, la mort te scrute Que veut t'elle voir ? Que veut t'elle voir ? Ton décor se consumait quand il pleuvait l'soir Que veut t'elle voir ? Que veut t'elle voir ? Un ange nous quitte en déployant ses deux ailes noires J'ai peur de rien, t'avais peur du vide Quand les ténèbres s'emparent des cieux Mes souvenirs se raffermissent Ta beauté s'éternise, le vice rend pas service Tous nos rêves ternis sont décelés Nos curs s'effritent sur des rambardes d'acier Mais nos larmes sont salées J'avais ta permission Je descellais nos âmes sur le sentier de la perdition Oh Anna Oh Anna Oh Anna Oh Anna Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui Prête à tout pour deux-trois grammes Elle finirait par plaire à n'importe qui5</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hein, L.O., skuh skuh Majeur-Mineur, tout est noir Les racistes sont des gens qui se trompent de colère Le ciel nous pointe du doigt à travers le tonnerre On n'échoue pas si on est passionné Leurs carrières qui durent 6 mois que des contrats pas rentables C'est pas parce que tu parles fort qu'on t'écoute davantage Wow, le shh nous charme avec ses jolies courbes Boy, tu m'fatigues comme Julien Courbet Jarrive dans le game comme Jean-Luc Lahaye Jtapporte des souvenirs aussi sombres que ton prof dans les vestiaires, kiwi Puissant comme la C-C dans ton zen Jai les génies pour générer plein doseille, wouh Mais quest-ce tas mis dans ton zen ? Ça ma lair dêtre excellent Jattends de rentrer sur ma nète-pla, que les têtes soient coupées sous mes airmax saignantes Quand ils voient un couple je ne vois qudes yeux qui flirtent Quand ils voient la pluie je ne vois que dieu qui pleure Quand ils parlent dun nouveau rappeur qui flingue Moi je ne vois quun cosplay de rappeur ricain Tout est... RK1 J'dépeins le monde sur un banger tandis Que ton rappeur standard lambda Ne fait que scomparer aux héros de mangas RK1 RK1 YA You might also like Jai plus didoles, jai qudes concurrents Tout est noir Tout est noir Jai plus didoles, jai qudes concurrents Tout est noir Tout est noir Droite ou gauche, sur pépé, jvais pas voter Cest inutile comme faire la paix avec la cité dà coté Jai oublié dme présenter Lasco, jeune blanc, issu des quartiers mal fréquentés Fuck avoir une villa si y a mes charos dehors J'passe devant toi, baby, fais un vu Chacun de mes seizes fait monter ltaro de lor Mon cur est tout noir on dirait ldrapeau de Lord Jeune enfant a peur de finir dans le ravin, skuh Jeune enfant pourtant poursuit le bout de ses rêves La vie est une chienne, je lai senti au bout de ses lèvres Pour que ldiable séteigne suffirait que tout séclaire Pour faire mes affaires, jai les outils oui Cest quune question d'biff, demande au gouvernement Si jai quelque chose à dire, jle dis ouvertement Jsais qucest dur de manger quand les couverts te manquent J'insulte mon passé, donne des ordres à mon futur Jamais respecté vos règles, mon frérot, jai vu juste Puis-je parler dsodomie quand ces trous du cul msucent ? Fini lobotomie mon frérot je nprend plus dstups Ma baby-sitter était actrice porno Mes couilles ont un air de Jean-Louis Borloo Jvois la vie comme un ftus dans du formol Pourquoi tout est noir ? Demande au frérot Lord, ola Jai plus didoles, jai qudes concurrents, olala Tout est noir Tout est noir Jai pas didoles, jai pas dconcurrents Tout est noir Tout est noir Besoin dmenfermer dans le dark quand cette lumière me fait de lombre Jmassagis mais jlaisse des traces, jencaisse le cash, en scred lunaire, jme fais du songe Tout est noir comme mes poumons après neuf ans dfume, hey Jsais qutu mattends, y a du neuf en stud, wow La concurrence fait des heures en plus Jtiens la pendule jdors plus, car jsuis solo dans ctruc Jreprésente la nouvelle géné, jdeviens plus fort qutous mes aînés Jarrive ça sembrase, vous arrêtez vous êtes khene Dans la cabine, devant lmic', tu sais on est tous déchaînés Gros jpréfère le sombre quand cest à moi la lumière vous éteignez Parce que tout est noir Les gars, vous pouvez mcroire Beaucoup décart entre vous et moi Ceux qui connaissent L-U savent, jfais du sale Chérie, ce soir, jpeux pas si tu voulais mvoir Les gens me demandent pourquoi je baisse constamment la tête devant mon ennemi Je leur réponds que cest pour le regarder droit dans les yeux La couleur de mon encre est obscure comme un cur vide, comme une nuit sans étoiles Donne-moi une feuille vierge que je ten fasse une arme blanche et que cet ennemi perde espoir Jai plus didoles, jai que des concurrents Tout est noir Tout est noir Jai plus didoles, jai que des concurrents, yah Tout est noir5</t>
+          <t>Hein, L.O., skuh skuh Majeur-Mineur, tout est noir Les racistes sont des gens qui se trompent de colère Le ciel nous pointe du doigt à travers le tonnerre On n'échoue pas si on est passionné Leurs carrières qui durent 6 mois que des contrats pas rentables C'est pas parce que tu parles fort qu'on t'écoute davantage Wow, le shh nous charme avec ses jolies courbes Boy, tu m'fatigues comme Julien Courbet Jarrive dans le game comme Jean-Luc Lahaye Jtapporte des souvenirs aussi sombres que ton prof dans les vestiaires, kiwi Puissant comme la C-C dans ton zen Jai les génies pour générer plein doseille, wouh Mais quest-ce tas mis dans ton zen ? Ça ma lair dêtre excellent Jattends de rentrer sur ma nète-pla, que les têtes soient coupées sous mes airmax saignantes Quand ils voient un couple je ne vois qudes yeux qui flirtent Quand ils voient la pluie je ne vois que dieu qui pleure Quand ils parlent dun nouveau rappeur qui flingue Moi je ne vois quun cosplay de rappeur ricain Tout est... RK1 J'dépeins le monde sur un banger tandis Que ton rappeur standard lambda Ne fait que scomparer aux héros de mangas RK1 RK1 YA Jai plus didoles, jai qudes concurrents Tout est noir Tout est noir Jai plus didoles, jai qudes concurrents Tout est noir Tout est noir Droite ou gauche, sur pépé, jvais pas voter Cest inutile comme faire la paix avec la cité dà coté Jai oublié dme présenter Lasco, jeune blanc, issu des quartiers mal fréquentés Fuck avoir une villa si y a mes charos dehors J'passe devant toi, baby, fais un vu Chacun de mes seizes fait monter ltaro de lor Mon cur est tout noir on dirait ldrapeau de Lord Jeune enfant a peur de finir dans le ravin, skuh Jeune enfant pourtant poursuit le bout de ses rêves La vie est une chienne, je lai senti au bout de ses lèvres Pour que ldiable séteigne suffirait que tout séclaire Pour faire mes affaires, jai les outils oui Cest quune question d'biff, demande au gouvernement Si jai quelque chose à dire, jle dis ouvertement Jsais qucest dur de manger quand les couverts te manquent J'insulte mon passé, donne des ordres à mon futur Jamais respecté vos règles, mon frérot, jai vu juste Puis-je parler dsodomie quand ces trous du cul msucent ? Fini lobotomie mon frérot je nprend plus dstups Ma baby-sitter était actrice porno Mes couilles ont un air de Jean-Louis Borloo Jvois la vie comme un ftus dans du formol Pourquoi tout est noir ? Demande au frérot Lord, ola Jai plus didoles, jai qudes concurrents, olala Tout est noir Tout est noir Jai pas didoles, jai pas dconcurrents Tout est noir Tout est noir Besoin dmenfermer dans le dark quand cette lumière me fait de lombre Jmassagis mais jlaisse des traces, jencaisse le cash, en scred lunaire, jme fais du songe Tout est noir comme mes poumons après neuf ans dfume, hey Jsais qutu mattends, y a du neuf en stud, wow La concurrence fait des heures en plus Jtiens la pendule jdors plus, car jsuis solo dans ctruc Jreprésente la nouvelle géné, jdeviens plus fort qutous mes aînés Jarrive ça sembrase, vous arrêtez vous êtes khene Dans la cabine, devant lmic', tu sais on est tous déchaînés Gros jpréfère le sombre quand cest à moi la lumière vous éteignez Parce que tout est noir Les gars, vous pouvez mcroire Beaucoup décart entre vous et moi Ceux qui connaissent L-U savent, jfais du sale Chérie, ce soir, jpeux pas si tu voulais mvoir Les gens me demandent pourquoi je baisse constamment la tête devant mon ennemi Je leur réponds que cest pour le regarder droit dans les yeux La couleur de mon encre est obscure comme un cur vide, comme une nuit sans étoiles Donne-moi une feuille vierge que je ten fasse une arme blanche et que cet ennemi perde espoir Jai plus didoles, jai que des concurrents Tout est noir Tout est noir Jai plus didoles, jai que des concurrents, yah Tout est noir5</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fort est l'apport de la peur, j'élabore mes repères Plus d'erreur à refaire, je sais que je ne sais rien Suis-je le seul qui s'taira ? J'entends plus tout ceux que cela consterna Cerné par le temps, j'pense même plus à faire l'homme Vu le prix qu'on paiera Mon empire s'ra bâti dans la pierre et la sueur Donc qui vivra verra L'orgueil a pris racine dans le centre du sternum Moins de vices et vertus, sentiment perverti L'impression de tomber dans le vide depuis que t'es partie J'regardais les étoiles ne sachant pas que j'contemplais tes yeux Tes yeux, tes yeux, tes yeux désireux J'ai fais les cent pas, nos péchés s'entassent On ne dure qu'un temps puis le destin nous remplace J'repense à cette femme qui a pu me mentir en face On s'efforce d'oublier, la nostalgie prend place Nos souvenirs s'encrassent, plus rien dans l'sablier J'ai tendance à mieux voir tout ce que le vent trace J'suis pas le seul à mûrir, tout finit par mourir, tu sais que le temps passe Peu importe ce que l'on gâche, hein J'ai des valeurs intrinsèques, gravées dans l'anthracite Nos curs sont tous très secs, yeah Aura grandissant qui dépasse la foi Descendant du ciel où s'efface le poids des mois Les étoiles en témoignent mais ne t'éloigneront pas de moi On chante l'ambition, on se casse la voix You might also like Les deux paumes vers le ciel sous une pluie de cendres Récit des psaumes, c'était essentiel, ça n'a plus de sens J'éblouis les dômes, j'pense à c'que j'ai perdu Pose ma mère sur le trône, j'ai compris qu'rien ne perdure L'âme en peine se perd dans des colonnes de feu Tes victoires sont plus belles si t'as connu la défaite Aucun défaut que l'homme nie, quand l'ombre nous Calomnie, qu'allons nous faire ? Une colombe nait mais l'argent tue la paix L'orage nous promet tout, tu penses qu'elle compte beaucoup Puis un jour tu la perds Partisan d'une vie où mon rêve est l'acteur Ma peur disparait, le travail paie, c'était révélateur-lateur</t>
+          <t>Fort est l'apport de la peur, j'élabore mes repères Plus d'erreur à refaire, je sais que je ne sais rien Suis-je le seul qui s'taira ? J'entends plus tout ceux que cela consterna Cerné par le temps, j'pense même plus à faire l'homme Vu le prix qu'on paiera Mon empire s'ra bâti dans la pierre et la sueur Donc qui vivra verra L'orgueil a pris racine dans le centre du sternum Moins de vices et vertus, sentiment perverti L'impression de tomber dans le vide depuis que t'es partie J'regardais les étoiles ne sachant pas que j'contemplais tes yeux Tes yeux, tes yeux, tes yeux désireux J'ai fais les cent pas, nos péchés s'entassent On ne dure qu'un temps puis le destin nous remplace J'repense à cette femme qui a pu me mentir en face On s'efforce d'oublier, la nostalgie prend place Nos souvenirs s'encrassent, plus rien dans l'sablier J'ai tendance à mieux voir tout ce que le vent trace J'suis pas le seul à mûrir, tout finit par mourir, tu sais que le temps passe Peu importe ce que l'on gâche, hein J'ai des valeurs intrinsèques, gravées dans l'anthracite Nos curs sont tous très secs, yeah Aura grandissant qui dépasse la foi Descendant du ciel où s'efface le poids des mois Les étoiles en témoignent mais ne t'éloigneront pas de moi On chante l'ambition, on se casse la voix Les deux paumes vers le ciel sous une pluie de cendres Récit des psaumes, c'était essentiel, ça n'a plus de sens J'éblouis les dômes, j'pense à c'que j'ai perdu Pose ma mère sur le trône, j'ai compris qu'rien ne perdure L'âme en peine se perd dans des colonnes de feu Tes victoires sont plus belles si t'as connu la défaite Aucun défaut que l'homme nie, quand l'ombre nous Calomnie, qu'allons nous faire ? Une colombe nait mais l'argent tue la paix L'orage nous promet tout, tu penses qu'elle compte beaucoup Puis un jour tu la perds Partisan d'une vie où mon rêve est l'acteur Ma peur disparait, le travail paie, c'était révélateur-lateur</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yeah, holy shit, damn Hey yo, Esperanza, comment vas-tu ? Ça roule, ça roule, comme en voiture Flow tonique, fume lhydroponique Je suis venu, j'ai vu et j'suis reparti pour tout niquer Aujourd'hui, tes rappeurs oublient les chromes J'vis ma vie, mes apparts, tout nikel chrome Sur moi, t'as misé, la musique, c'est pour m'amuser Après ta muse sur la Tamise, la lumière sera tamisée J'ai fumé tant de kilos d'zeub que j'suis ankylosé Y'a pas que le but de faire, tranquille l'oseille Et puis comme tant de philosophes, j'ai eu l'envie d'oser Y'a pas que le but de faire, tranquille l'oseille Donc, j'pars sur une île paradisiaque, pour sa fiscalité Ouais tout le monde a vu every bodys out, vous êtes disqualifiés Comme tous les traits de Mona Lisa, on est d'bonne qualité Évitez, je lévite et j'ai capté les bails en tant que pâle visage Donc par fatalité, on finit tous alités Ouais, tout l'été, j'ai haleté mais arrêtez de m'allaiter Pour deux-cinq mondanités, sinon que des indemnités J'ai attelé ma tâche tant j'ai rappé, j'sais pas, j'ai changé Monter des étages sans déraper sont des preuves tangibles Y'a pas d'épreuve sans danger donc la vengeance froide se mange Bientôt j'prends la tangente, pourquoi pas partir vers Tanger ? You might also like On verra là-bas sur commande Quand j'kicke les types se demandent Si la dynastie ça r'commence Dans ce jeu-là, j'ai les commandes Je les commande et s'est comme àç T'es dans le coma, j'suis hors du commun Qui a dit qu'un petit babtou ne pourrait pas percer ? Ne courrez pas, perso, j'aime j'suis bourré, pas pressé Mais il parait que japparais, j'ai tant pé-ra qu'ils sont paros Le tempérament pas réglé, comme la température d'Paris Parait les gars faut obtempérer, ça tourne pas rond dans les paperasses Qui fait bien les intempéries, c'est pas pratique quand les papes brassent Comme par hasard, dans les parage,s ça prend des paras Trop de parasites parisiens qui font ça par habitude Passe à Saint-Lazare comme des peau-rouges, ça fait peur, hein ? Ces types pas rasés paraissent paresseux Mais tard, la nuit tue, tard, la nuit tue Ouais ouais ouais, tard, la nuit tue J'annonce la fin comme les Mayas donc faut mailler par tout moyen Mais y'a des ien-cli, trop d'maillons pas besoin de mouiller l'maillot J'annonce la fin comme les Mayas donc faut mailler par tout moyen Mais y'a des ients-cli, trop d'maillons pas besoin de mouiller l'maillot Mais dans c'cas-là Mon ascension sociale, une escalade Est-ce qu'elle a une escale à faire ? Mais dans c'cas-là Mon ascension sociale, une escalade Est-ce qu'elle a une escale à faire ? Des fois, des fous m'ont fait des faux mais font des faux bonds dans les faubourgs Dans les bas-fonds la fonte est fondée, j'finis à Beaubourg Pas le temps pour les mythos qui veulent parlementer Pas le temps pour les mythos qui veulent parlementer Ouais, je ride seul, pas besoin de boussole Reste tranquille, je resplendis, un peu comme le soleil Y'a que des clés de sol, salut, c'est les soldes Mais pour l'underground, j'finirais pas sous le sol Qu'ils gardent chez eux leurs ravisseurs Car à coup sûr, les avis surfent T'es ravissante, j'suis ravie, sur La varice varie, se ressert Quand mes rats d'Paris font recel La varice varie, se ressert Quand mes rats d'Paris font recel Qu'ils gardent chez eux leurs ravisseurs Car à coup sûr, les avis surfent T'es ravissante, j'suis ravie, sur La varice varie, se ressert Quand mes rats d'Paris font recel Varice se ressert Quand mes rats d'Paris font recel Varice se ressert2</t>
+          <t>Yeah, holy shit, damn Hey yo, Esperanza, comment vas-tu ? Ça roule, ça roule, comme en voiture Flow tonique, fume lhydroponique Je suis venu, j'ai vu et j'suis reparti pour tout niquer Aujourd'hui, tes rappeurs oublient les chromes J'vis ma vie, mes apparts, tout nikel chrome Sur moi, t'as misé, la musique, c'est pour m'amuser Après ta muse sur la Tamise, la lumière sera tamisée J'ai fumé tant de kilos d'zeub que j'suis ankylosé Y'a pas que le but de faire, tranquille l'oseille Et puis comme tant de philosophes, j'ai eu l'envie d'oser Y'a pas que le but de faire, tranquille l'oseille Donc, j'pars sur une île paradisiaque, pour sa fiscalité Ouais tout le monde a vu every bodys out, vous êtes disqualifiés Comme tous les traits de Mona Lisa, on est d'bonne qualité Évitez, je lévite et j'ai capté les bails en tant que pâle visage Donc par fatalité, on finit tous alités Ouais, tout l'été, j'ai haleté mais arrêtez de m'allaiter Pour deux-cinq mondanités, sinon que des indemnités J'ai attelé ma tâche tant j'ai rappé, j'sais pas, j'ai changé Monter des étages sans déraper sont des preuves tangibles Y'a pas d'épreuve sans danger donc la vengeance froide se mange Bientôt j'prends la tangente, pourquoi pas partir vers Tanger ? On verra là-bas sur commande Quand j'kicke les types se demandent Si la dynastie ça r'commence Dans ce jeu-là, j'ai les commandes Je les commande et s'est comme àç T'es dans le coma, j'suis hors du commun Qui a dit qu'un petit babtou ne pourrait pas percer ? Ne courrez pas, perso, j'aime j'suis bourré, pas pressé Mais il parait que japparais, j'ai tant pé-ra qu'ils sont paros Le tempérament pas réglé, comme la température d'Paris Parait les gars faut obtempérer, ça tourne pas rond dans les paperasses Qui fait bien les intempéries, c'est pas pratique quand les papes brassent Comme par hasard, dans les parage,s ça prend des paras Trop de parasites parisiens qui font ça par habitude Passe à Saint-Lazare comme des peau-rouges, ça fait peur, hein ? Ces types pas rasés paraissent paresseux Mais tard, la nuit tue, tard, la nuit tue Ouais ouais ouais, tard, la nuit tue J'annonce la fin comme les Mayas donc faut mailler par tout moyen Mais y'a des ien-cli, trop d'maillons pas besoin de mouiller l'maillot J'annonce la fin comme les Mayas donc faut mailler par tout moyen Mais y'a des ients-cli, trop d'maillons pas besoin de mouiller l'maillot Mais dans c'cas-là Mon ascension sociale, une escalade Est-ce qu'elle a une escale à faire ? Mais dans c'cas-là Mon ascension sociale, une escalade Est-ce qu'elle a une escale à faire ? Des fois, des fous m'ont fait des faux mais font des faux bonds dans les faubourgs Dans les bas-fonds la fonte est fondée, j'finis à Beaubourg Pas le temps pour les mythos qui veulent parlementer Pas le temps pour les mythos qui veulent parlementer Ouais, je ride seul, pas besoin de boussole Reste tranquille, je resplendis, un peu comme le soleil Y'a que des clés de sol, salut, c'est les soldes Mais pour l'underground, j'finirais pas sous le sol Qu'ils gardent chez eux leurs ravisseurs Car à coup sûr, les avis surfent T'es ravissante, j'suis ravie, sur La varice varie, se ressert Quand mes rats d'Paris font recel La varice varie, se ressert Quand mes rats d'Paris font recel Qu'ils gardent chez eux leurs ravisseurs Car à coup sûr, les avis surfent T'es ravissante, j'suis ravie, sur La varice varie, se ressert Quand mes rats d'Paris font recel Varice se ressert Quand mes rats d'Paris font recel Varice se ressert2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ému aux larmes quand j'écris ça J'pense déjà plus au refrain Mais je referai des erreurs fades Comme le goût d'la déception Faut savoir mettre en lumière Acteur de l'ombre et choix de femmes qui donnent naissance à la flamme derrière un grand homme d'exception J'ressens d'la douleur, même sans t'aimer Pas d'traces énormes juste un énième peintre sonore Sur le sonar qui n'connaîtra jamais la couleur des sentiments Le bonheur n'est qu'un leurre qui rend pressé J'aime embrasser le temps qui rétréci J'irai tracer un trait précis sur toutes mes peurs irréprésibles J'ai fait en sorte d'me contrôler Certains voudraient qu'on t'relais seul face au ciel ci bleu Mère est dépressive, père est pervers narcissique Tu sais à quoi on s'prédestine Y'en a plein qu'ont les bonnes cartes ici Loin du cur mais près d'l'estime Si t'écoutes, tu participes À la fois maître de mon art et perdu dans ses artifices J'suis dans le rap en charentaise J't'ai laissé qu'entre parenthèses Les carences de la paresse apparaissent quand l'apparence de l'espérance te caressent puis disparaît quand le soir reste You might also like Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Je ne t'aime pas Je n'aime que l'image que j'ai de nous-mêmes Comment aider nos mères quand on ne peut s'aider nous-même Dis moi quel est le dénouement car ombragé ciel orageux Laissez les rager, destins scellés rangés Parfois la nuit m'anime Le parfum de l'ennui me nuit Parfois la nuit m'anime Le parfum de l'ennui me nuit J'marche dans la ville aux décors post-apocalyptiques Encore un énième soir où j'observe Paris qui pleure T'as voulu devenir femme mais tu t'es salie p'tit cur Je m'évade derrière une focale optique On voudrait s'aider, vit sous les récifs d'hiver Ici l'alcool est plus froid que nos coeurs Et ton corps est encore l'objet de récits divers Si t'aimer c'est souffrir je ne cesse d'récidiver Derrière la sagesse d'un homme Se cachent les pleurs d'un enfant Regard naïf dans la fleur d'mes vingt ans Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Mes crânes sont anthracites, en principe on suit ces valeurs intrinsèques Le track est rouge quand j'entre en scène Ma fierté luit suivant les courbes de ma clé de sol Seul devant le tombeau des lucioles, puisqu'on évolue qu'entre insectes Et ma colère étincelante, est insolente Tous guidés par nos parts d'ombres On s'détruit mais on apprend d'autrui que lorsqu'on accorde notre pardon Le monde porte notre fardeau Même si l'chemin n'est pas tracé j'avance dessus sans jalousie C'est pour mon frère d'une autre mère, j'te l'dirai peut-être assez Mais j'pense à toi quand j'm'endors, j'te dois ma grandeur Après le froid des grands Nord vient le sommeil d'Andalousie Parfois nos rêves nous enferment On change juste de paradigmes Certains chemins du paradis Mènent aux portes des enfers J'pense à ce frère dans la salle d'attente Qui attend une place vacante Il te le dira mieux que moi les plus déter' prennent pas d'vacances Le manque de confiance est pourpre Dis moi si nos consciences s'étouffent Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Grandi dans nos failles sombres Remets en perspective c'que tu considères comme trahison Y'a pas d'perception perspicace Seul l'amour des nôtres compte Le reste n'est pas perceptible Frustré j'voyais mère qui s'casse Le temps nous érode, hein J'finirai forcément figé Comme le penseur de Rodin Les enfants du sourire n'ont pas grand chose Mais la joie de vivre ça ils ont Orange comme le regard d'un téméraire Tu viens encore hanter mes rêves J'suis aussi bleu que mon ego Aussi jaune que ton aura Des désillusions t'en auras car il n'y a rien qu'le temps ne rate Ils me disent sur l'Eldorado bloqué sur l'radeau d'la méduse Faudra le dire à d'autres ceux qui m'admirent, m'adorent En haut du mirador j'vois que l'avenir radote Et j'me rappelle que j'veux percer depuis mes dix ans Mon cur est noir d'amour Quant à nous, on ne peut quitter nos continents La haine tourne en continue Bonheur blanc Comme un nuage cotonneux</t>
+          <t>Ému aux larmes quand j'écris ça J'pense déjà plus au refrain Mais je referai des erreurs fades Comme le goût d'la déception Faut savoir mettre en lumière Acteur de l'ombre et choix de femmes qui donnent naissance à la flamme derrière un grand homme d'exception J'ressens d'la douleur, même sans t'aimer Pas d'traces énormes juste un énième peintre sonore Sur le sonar qui n'connaîtra jamais la couleur des sentiments Le bonheur n'est qu'un leurre qui rend pressé J'aime embrasser le temps qui rétréci J'irai tracer un trait précis sur toutes mes peurs irréprésibles J'ai fait en sorte d'me contrôler Certains voudraient qu'on t'relais seul face au ciel ci bleu Mère est dépressive, père est pervers narcissique Tu sais à quoi on s'prédestine Y'en a plein qu'ont les bonnes cartes ici Loin du cur mais près d'l'estime Si t'écoutes, tu participes À la fois maître de mon art et perdu dans ses artifices J'suis dans le rap en charentaise J't'ai laissé qu'entre parenthèses Les carences de la paresse apparaissent quand l'apparence de l'espérance te caressent puis disparaît quand le soir reste Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Je ne t'aime pas Je n'aime que l'image que j'ai de nous-mêmes Comment aider nos mères quand on ne peut s'aider nous-même Dis moi quel est le dénouement car ombragé ciel orageux Laissez les rager, destins scellés rangés Parfois la nuit m'anime Le parfum de l'ennui me nuit Parfois la nuit m'anime Le parfum de l'ennui me nuit J'marche dans la ville aux décors post-apocalyptiques Encore un énième soir où j'observe Paris qui pleure T'as voulu devenir femme mais tu t'es salie p'tit cur Je m'évade derrière une focale optique On voudrait s'aider, vit sous les récifs d'hiver Ici l'alcool est plus froid que nos coeurs Et ton corps est encore l'objet de récits divers Si t'aimer c'est souffrir je ne cesse d'récidiver Derrière la sagesse d'un homme Se cachent les pleurs d'un enfant Regard naïf dans la fleur d'mes vingt ans Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Mes crânes sont anthracites, en principe on suit ces valeurs intrinsèques Le track est rouge quand j'entre en scène Ma fierté luit suivant les courbes de ma clé de sol Seul devant le tombeau des lucioles, puisqu'on évolue qu'entre insectes Et ma colère étincelante, est insolente Tous guidés par nos parts d'ombres On s'détruit mais on apprend d'autrui que lorsqu'on accorde notre pardon Le monde porte notre fardeau Même si l'chemin n'est pas tracé j'avance dessus sans jalousie C'est pour mon frère d'une autre mère, j'te l'dirai peut-être assez Mais j'pense à toi quand j'm'endors, j'te dois ma grandeur Après le froid des grands Nord vient le sommeil d'Andalousie Parfois nos rêves nous enferment On change juste de paradigmes Certains chemins du paradis Mènent aux portes des enfers J'pense à ce frère dans la salle d'attente Qui attend une place vacante Il te le dira mieux que moi les plus déter' prennent pas d'vacances Le manque de confiance est pourpre Dis moi si nos consciences s'étouffent Pourquoi veux-tu nous comparer ? T'es bloqué dans l'paraître T'es bloqué dans l'paraître Pourquoi veux-tu nous comparer ? Grandi dans nos failles sombres Remets en perspective c'que tu considères comme trahison Y'a pas d'perception perspicace Seul l'amour des nôtres compte Le reste n'est pas perceptible Frustré j'voyais mère qui s'casse Le temps nous érode, hein J'finirai forcément figé Comme le penseur de Rodin Les enfants du sourire n'ont pas grand chose Mais la joie de vivre ça ils ont Orange comme le regard d'un téméraire Tu viens encore hanter mes rêves J'suis aussi bleu que mon ego Aussi jaune que ton aura Des désillusions t'en auras car il n'y a rien qu'le temps ne rate Ils me disent sur l'Eldorado bloqué sur l'radeau d'la méduse Faudra le dire à d'autres ceux qui m'admirent, m'adorent En haut du mirador j'vois que l'avenir radote Et j'me rappelle que j'veux percer depuis mes dix ans Mon cur est noir d'amour Quant à nous, on ne peut quitter nos continents La haine tourne en continue Bonheur blanc Comme un nuage cotonneux</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sur le boulevard, j'vois des solitaires, des curs brisés Des lampadaires alcoolisés, des miroirs sous somnifères et des cadavres de conifères Qui dansent ensemble, synchronisés J'vois cet amour éphémère dans une cage d'escalier Et tous ces boulevards qui m'font croire qu'on est presque alliés Des bateaux en papier dans l'caniveau Des cris, des craintes, des verres qui trinquent, des existences dénuées de sens sur le passage à niveau Se rappelant que, finalement, tout cela n'est même pas nouveau Des rues qui s'écoutent parler, des aveugles à terre Des empires faits d'immeubles en verre, des gens déjà loins des leurs Tous témoins du temps et qui répondent comment savoir ? quand on vient leur demander l'heure Des espoirs qui s'érodent et tournoient dans une spirale sans fin Des âmes sur guitare saturée, sûres que ça va durer, qui peinent toutes à s'aventurer Entre les pourquoi ?, les comment ? et les enfin Sur le boulevard, j'entends des efforts d'antan Des rires d'enfants, des souvenirs Des désirs tentants, j'entends des monuments si fiers qu'ils ne voient plus le coup venir Des cris de lâme si séduisants qu'ils font criser Des quitte-moi méprisants non-maitrisés Bâtis sur des ruines de sable, où l'amour est une prison très prisée J'te parle de ces corps à cur ouvert qu'avancent tous seuls, la peur au ventre Des mains tendues qui veulent le monde devant des sols de fleurs en vente Des années, désarmées, face aux changements inaltérables, là où seul le désarroi peut désormais te désarmer J'entends les deux mondes qui se répondent, et des demandes qui se répandent Ceux qui vibrent au rythme de nos soleils disparus Les mêmes hommes perdus dans ta rue, criant leur désespoir sur les toits de la ville Des étrangers qui mettent les voiles et naviguent donc quand l'écume blanchit Les uns s'assoient sous le saule pleureur et les autres regrettent ce qu'ils ont franchi, en oubliant que les photos meurent J'entends des bruits de boulevards Des bouge, connard, des vents d'Étretat Des génies nés sur des bouts d'trottoir Mais relève-toi, c'est jamais trop tard J'entends des manques de confiance et des trous noirs qui conversent Des allées qui s'esclaffent devant les lames dressées qu'on verse Des échos qui s'répondent, des âmes élevées où la douleur est polie Ici, on n't'écoute pas car t'es coupable pour ta couleur de peau Des sentiments d'inachevés, des vengeances qui s'enchevêtrent Un quart de lune, lampe de chevet, des miroirs brisés Des sentiments perdus dans un grand silence aseptisé Des problèmes d'autres qui marchent, des gens qui dansent dans toutes ces forêts en ciment Parmi tous ces vestiges qui se sentent immenses, trop épuisés Sur le boulevard, les cris résonnent, les émotions nous emprisonnent, les plaies ne se résorbent Bien sûr qu'au final, le problème des hommes, c'est qu'ils se complaisent tous dans le désordreYou might also like6</t>
+          <t>Sur le boulevard, j'vois des solitaires, des curs brisés Des lampadaires alcoolisés, des miroirs sous somnifères et des cadavres de conifères Qui dansent ensemble, synchronisés J'vois cet amour éphémère dans une cage d'escalier Et tous ces boulevards qui m'font croire qu'on est presque alliés Des bateaux en papier dans l'caniveau Des cris, des craintes, des verres qui trinquent, des existences dénuées de sens sur le passage à niveau Se rappelant que, finalement, tout cela n'est même pas nouveau Des rues qui s'écoutent parler, des aveugles à terre Des empires faits d'immeubles en verre, des gens déjà loins des leurs Tous témoins du temps et qui répondent comment savoir ? quand on vient leur demander l'heure Des espoirs qui s'érodent et tournoient dans une spirale sans fin Des âmes sur guitare saturée, sûres que ça va durer, qui peinent toutes à s'aventurer Entre les pourquoi ?, les comment ? et les enfin Sur le boulevard, j'entends des efforts d'antan Des rires d'enfants, des souvenirs Des désirs tentants, j'entends des monuments si fiers qu'ils ne voient plus le coup venir Des cris de lâme si séduisants qu'ils font criser Des quitte-moi méprisants non-maitrisés Bâtis sur des ruines de sable, où l'amour est une prison très prisée J'te parle de ces corps à cur ouvert qu'avancent tous seuls, la peur au ventre Des mains tendues qui veulent le monde devant des sols de fleurs en vente Des années, désarmées, face aux changements inaltérables, là où seul le désarroi peut désormais te désarmer J'entends les deux mondes qui se répondent, et des demandes qui se répandent Ceux qui vibrent au rythme de nos soleils disparus Les mêmes hommes perdus dans ta rue, criant leur désespoir sur les toits de la ville Des étrangers qui mettent les voiles et naviguent donc quand l'écume blanchit Les uns s'assoient sous le saule pleureur et les autres regrettent ce qu'ils ont franchi, en oubliant que les photos meurent J'entends des bruits de boulevards Des bouge, connard, des vents d'Étretat Des génies nés sur des bouts d'trottoir Mais relève-toi, c'est jamais trop tard J'entends des manques de confiance et des trous noirs qui conversent Des allées qui s'esclaffent devant les lames dressées qu'on verse Des échos qui s'répondent, des âmes élevées où la douleur est polie Ici, on n't'écoute pas car t'es coupable pour ta couleur de peau Des sentiments d'inachevés, des vengeances qui s'enchevêtrent Un quart de lune, lampe de chevet, des miroirs brisés Des sentiments perdus dans un grand silence aseptisé Des problèmes d'autres qui marchent, des gens qui dansent dans toutes ces forêts en ciment Parmi tous ces vestiges qui se sentent immenses, trop épuisés Sur le boulevard, les cris résonnent, les émotions nous emprisonnent, les plaies ne se résorbent Bien sûr qu'au final, le problème des hommes, c'est qu'ils se complaisent tous dans le désordre6</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les, danse avec les, danse avec les ombres Je t'aime pour c'que t'es, pas pour c'que tu représentes On a su capturer l'présent lorsque nos deux corps discutaient Faudra s'méfier des représailles, loyauté plus représage Mon ciel est noir, j'ai l'visage froid quand j'vois c'que l'avenir nous présage Une occasion n'se présente pas, elle se créée, tel est l'secret J'récupère dans l'réconfort d'nos rêves en fleur et d'c'qu'ils sécrètent Ton frère te tue, Abel et Caïn, j'n'en garde qu'un, j'sais pas lequel J'la revois verser une larme sur nos anciennes pellicules Je n'voyais qu'elle J'suis ni naïf, ni belliqueux Elle était si délicate sous effet psychédélique Plus tu t'fais petit et plus t'es grand Et pendant c'temps, l'Homme s'abrutit derrière l'écran Le dernier des Mohicans subit les séquelles d'ogive J'obtiens pas d'réponse des astres sur le désastre écologique Dans un système défectueux on n'peut pas tout effectuer Mais les chiffres sont factuels, pleure pour c'que l'Homme n'a fait qu'tuer N'oublie jamais qu'ils te programment depuis Canal J et la marelle À la maternelle t'es possédé par tes propres biens matériels Fume pas trop ça peut t'interner Même la Terre mère devient ternie Donc j'éternue ma peine, j'la place dans un carnet J'me sens charmé, j'finis par naitre dans la tornade Les cieux m'permettent d'fuir les corneilles J'vois leurs sornettes, j'finis par mettre mon âme charnelle Dans les partiels de mon cur net, l'ongle incarné Les yeux cernés, mon ombre tourné devant l'éternité J'ai permuté pour t'faire lutter sans le vivre par Internet You might also like Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les, danse avec les, danse avec les ombres2</t>
+          <t>Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les, danse avec les, danse avec les ombres Je t'aime pour c'que t'es, pas pour c'que tu représentes On a su capturer l'présent lorsque nos deux corps discutaient Faudra s'méfier des représailles, loyauté plus représage Mon ciel est noir, j'ai l'visage froid quand j'vois c'que l'avenir nous présage Une occasion n'se présente pas, elle se créée, tel est l'secret J'récupère dans l'réconfort d'nos rêves en fleur et d'c'qu'ils sécrètent Ton frère te tue, Abel et Caïn, j'n'en garde qu'un, j'sais pas lequel J'la revois verser une larme sur nos anciennes pellicules Je n'voyais qu'elle J'suis ni naïf, ni belliqueux Elle était si délicate sous effet psychédélique Plus tu t'fais petit et plus t'es grand Et pendant c'temps, l'Homme s'abrutit derrière l'écran Le dernier des Mohicans subit les séquelles d'ogive J'obtiens pas d'réponse des astres sur le désastre écologique Dans un système défectueux on n'peut pas tout effectuer Mais les chiffres sont factuels, pleure pour c'que l'Homme n'a fait qu'tuer N'oublie jamais qu'ils te programment depuis Canal J et la marelle À la maternelle t'es possédé par tes propres biens matériels Fume pas trop ça peut t'interner Même la Terre mère devient ternie Donc j'éternue ma peine, j'la place dans un carnet J'me sens charmé, j'finis par naitre dans la tornade Les cieux m'permettent d'fuir les corneilles J'vois leurs sornettes, j'finis par mettre mon âme charnelle Dans les partiels de mon cur net, l'ongle incarné Les yeux cernés, mon ombre tourné devant l'éternité J'ai permuté pour t'faire lutter sans le vivre par Internet Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les ombres, la nuit je danse avec les ombres Danse avec les, danse avec les, danse avec les ombres2</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'ai bossé sans gants, si j'les préfère en rythme, penche-toi Tout cela me fera rire dans la Ferrari blanche, ah Le ciel parle, l'avenir se lit dans ses desseins yah, le temps qu'j'ai vu passer s'ressent yah J'suis plus efficace dans ce son, j'ai ressassé ces samples, leurs faiblesses dans une mini-salle J'fête mon anniversaire avec Universal, on vient tout casser, c'est simple, laisse mes initiales dédicacer ses seins J'écoute Daniel Caesar, j'écoute Secteur Ä, j'avance main droite sur le pectoral Rien à foutre de satisfaire leur lectorat, le shit finance toutes les campagnes électorales, ah Tout niquer, tout niquer, tout niquer, yah, pieds joints sur ta tête dans le tourniquet Yah, meilleur d'ma géné', je n'suis pas enquillé, j'démontre mon amour sur une table Ikea L.O, L.O.R, je n't'apprécie pas, je te T.O.L.E.R.E Pull up, yah, Marie-Antoinette, skah, j'arrive full options Pour m'endormir, j'compte mes victoires sous un ciel étoilé L'amour dure le temps qu'elle me suive dans les toilettes Sa maman dit que nos sonorités sont plus belles selon Nel' Ça fait deux ans que j'affirme ma supériorité sur un ton solennel, L.O Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Poto, j'suis Kalachnikov, ouais, j'louperai pas ma cirrhose, nan nan, nan On veut v'là la ciroc, ils veulent boire ma pisse chaude J'ai dit poto, j'suis kalachnikov, ouais, j'louperai pas ma cirrhose, nan nan, nan On veut v'là la ciroc, ils veulent boire ma pisse chaude Tsar veut un fusil, sortir, s'amuser Même sans cagoule, à bout portant, y a même pas besoin d'lunette De la violence, c'est l'escalade, j'baise mon espèce, je baise ma race Crois pas qu'la plaie d'ce monde, c'est Daech, les médias, c'est des salades Au quartier nois-ch', le Glock, c'est pas reuch au quartier rouge, la pipe, c'est pareil ouais, c'est pareil J'baise ton éthique, ta morale et tes manières Y a des gosses armés, y a des gosses dans l'armée Nique la violence, est-ce marrant ? Normal que coulent tes larmes Petit, écoute tes parents, petit, écoute tes darons L'humain a fait qu'la vie, c'est d'la merde J'ai dit y a des gosses armés, y a des gosses dans l'armée Donc la violence, est-ce marrant ? Normal que coulent tes larmes Petit, écoute tes parents, petit, écoute tes darons L'humain a fait qu'la vie, c'est d'la merde J'suis tout défoncé comme un militaire, j'ai la tête qui lévite comme un dirigeable Fuck un ministère, j'veux médicinale, enculer l'veau-cer, c'est rédhibitoire Ce soir, j'finis mal, j's'rai inutilisable, elle va m'critiquer, elle s'ra irritable Elle va m'critiquer, elle s'ra irritable comme quand j'finis lors des préliminaires, sah You might also like Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Qui veut leur clip ? C'est du caca, j'ressors du 4x4, qualité 4K, yeah J'ken, j'm'endors dans une cracra à papa, l'disque d'or, j'en suis capable, yeah En gros, on a fait crac-crac, elle a crié, comme d'hab' Violent comme un carjack' sous Jack Daniel, yah Kiwibunny dans le juice, bouh, j'te réponds pas comme le Crous, boy Tous les labels à mes trousses, zoo, veulent que j'finisse dans leur rooster Mais j'suis chez Gouzou pour un couscous, j'suis dans cette shit depuis tout c'temps, j'fais tomber des rimes et ton crew s'penche J'arrive en fake Supreme avec une vraie beauté, j'pense à toutes ces fesses qui vont s'faire botter Boy, jexplique mes ambitions en deux coups d'fil, j'attends qu'ces cons m'pigent mais c'est compliqué Ils ont b'soin de décodeur ou de cotons-tiges, nan, j'ai pas envie d'être à tes côtés À part si tu m'dis, toi, quand c'est qu'on perce, sans rien, impossible de prendre la mort à contre-pied Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Rien n'a changé, je me sens supérieur, restes de rappeurs dans tupperware J'vois le Papa Noël avec AK dans trou d'serrure Tu crois, c'est rude ? Pour en arriver là, j'impose terreur Aucune erreur, maman nous dit souvent Kiwi, L.O, concu' sont supérieurs</t>
+          <t>J'ai bossé sans gants, si j'les préfère en rythme, penche-toi Tout cela me fera rire dans la Ferrari blanche, ah Le ciel parle, l'avenir se lit dans ses desseins yah, le temps qu'j'ai vu passer s'ressent yah J'suis plus efficace dans ce son, j'ai ressassé ces samples, leurs faiblesses dans une mini-salle J'fête mon anniversaire avec Universal, on vient tout casser, c'est simple, laisse mes initiales dédicacer ses seins J'écoute Daniel Caesar, j'écoute Secteur Ä, j'avance main droite sur le pectoral Rien à foutre de satisfaire leur lectorat, le shit finance toutes les campagnes électorales, ah Tout niquer, tout niquer, tout niquer, yah, pieds joints sur ta tête dans le tourniquet Yah, meilleur d'ma géné', je n'suis pas enquillé, j'démontre mon amour sur une table Ikea L.O, L.O.R, je n't'apprécie pas, je te T.O.L.E.R.E Pull up, yah, Marie-Antoinette, skah, j'arrive full options Pour m'endormir, j'compte mes victoires sous un ciel étoilé L'amour dure le temps qu'elle me suive dans les toilettes Sa maman dit que nos sonorités sont plus belles selon Nel' Ça fait deux ans que j'affirme ma supériorité sur un ton solennel, L.O Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Poto, j'suis Kalachnikov, ouais, j'louperai pas ma cirrhose, nan nan, nan On veut v'là la ciroc, ils veulent boire ma pisse chaude J'ai dit poto, j'suis kalachnikov, ouais, j'louperai pas ma cirrhose, nan nan, nan On veut v'là la ciroc, ils veulent boire ma pisse chaude Tsar veut un fusil, sortir, s'amuser Même sans cagoule, à bout portant, y a même pas besoin d'lunette De la violence, c'est l'escalade, j'baise mon espèce, je baise ma race Crois pas qu'la plaie d'ce monde, c'est Daech, les médias, c'est des salades Au quartier nois-ch', le Glock, c'est pas reuch au quartier rouge, la pipe, c'est pareil ouais, c'est pareil J'baise ton éthique, ta morale et tes manières Y a des gosses armés, y a des gosses dans l'armée Nique la violence, est-ce marrant ? Normal que coulent tes larmes Petit, écoute tes parents, petit, écoute tes darons L'humain a fait qu'la vie, c'est d'la merde J'ai dit y a des gosses armés, y a des gosses dans l'armée Donc la violence, est-ce marrant ? Normal que coulent tes larmes Petit, écoute tes parents, petit, écoute tes darons L'humain a fait qu'la vie, c'est d'la merde J'suis tout défoncé comme un militaire, j'ai la tête qui lévite comme un dirigeable Fuck un ministère, j'veux médicinale, enculer l'veau-cer, c'est rédhibitoire Ce soir, j'finis mal, j's'rai inutilisable, elle va m'critiquer, elle s'ra irritable Elle va m'critiquer, elle s'ra irritable comme quand j'finis lors des préliminaires, sah Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Qui veut leur clip ? C'est du caca, j'ressors du 4x4, qualité 4K, yeah J'ken, j'm'endors dans une cracra à papa, l'disque d'or, j'en suis capable, yeah En gros, on a fait crac-crac, elle a crié, comme d'hab' Violent comme un carjack' sous Jack Daniel, yah Kiwibunny dans le juice, bouh, j'te réponds pas comme le Crous, boy Tous les labels à mes trousses, zoo, veulent que j'finisse dans leur rooster Mais j'suis chez Gouzou pour un couscous, j'suis dans cette shit depuis tout c'temps, j'fais tomber des rimes et ton crew s'penche J'arrive en fake Supreme avec une vraie beauté, j'pense à toutes ces fesses qui vont s'faire botter Boy, jexplique mes ambitions en deux coups d'fil, j'attends qu'ces cons m'pigent mais c'est compliqué Ils ont b'soin de décodeur ou de cotons-tiges, nan, j'ai pas envie d'être à tes côtés À part si tu m'dis, toi, quand c'est qu'on perce, sans rien, impossible de prendre la mort à contre-pied Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Papa Noël, j'veux un AK-47, nique ton flow à l'ancienne, j'suis AK-47 Rien n'a changé, je me sens supérieur, restes de rappeurs dans tupperware J'vois le Papa Noël avec AK dans trou d'serrure Tu crois, c'est rude ? Pour en arriver là, j'impose terreur Aucune erreur, maman nous dit souvent Kiwi, L.O, concu' sont supérieurs</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'la baise pendant l'cinq à sept Un casse-tête car on m'interdit chez Sept à huit Putain d'rockstar, j'ai vingt ans, je n'en ai plus qu'sept à vivre J'me marrais d'jà en voyant pute entachée Je commence intouchable, finit Maharajah Fils de péripatéticienne, je récolte c'que j'sème Grâce à la bonté du ciel Objectif effectué, il faut qu'tu aies ma semence sur tes seins J'n'ai pas trouvé l'temps pour être affectueux Effectivement j'n'ai fait qu'tuer la concurrence défectueuse défectueuse J'ai grandi dans l'obscurité, j'affaiblis ton autorité Âme en peine et non puritaine J'ai retiré ton string, j'gagne en maturité J'suis dans cette shit tout comme Majeur Mineur J'suis en terrain connu, t'es en terre inconnue La marge est énorme, j'lève mon majeur, j'innove J'fais paisiblement c'qu'ils font péniblement L.O.R.D E.S.P.E.R.A.N.Z.A, j'baise le P.E.R.A L.O.R.D. motherfucker, j'commence J'en ai déjà fini avec ce que t'appelles cette saleté d'rap J'te fais du sale ma salope, faut qu'tu nettoies tes draps Aide-toi toi-même puis tu verras le ciel t'aidera Prince de ma ville, c'est le sang qui honore J'avance seul dans la braise, sur le sentier nord Fils de, arg, t'es né par terre J'suis pas fier d'ma patrie qui a tant pillé d'or 300kmh au volant de la Centenario Elle m'a vu en concert, a fantasmé sur cent scénarios J'remercie la configuration stellaire C'est l'heure, conflit de vibrations célestes J'suis dans cette shit, comme dans Emily Ratajkowski Tire en plein cur, je les traîne en vainqueur J'descends la pente, j't'attache au skiYou might also like3</t>
+          <t>J'la baise pendant l'cinq à sept Un casse-tête car on m'interdit chez Sept à huit Putain d'rockstar, j'ai vingt ans, je n'en ai plus qu'sept à vivre J'me marrais d'jà en voyant pute entachée Je commence intouchable, finit Maharajah Fils de péripatéticienne, je récolte c'que j'sème Grâce à la bonté du ciel Objectif effectué, il faut qu'tu aies ma semence sur tes seins J'n'ai pas trouvé l'temps pour être affectueux Effectivement j'n'ai fait qu'tuer la concurrence défectueuse défectueuse J'ai grandi dans l'obscurité, j'affaiblis ton autorité Âme en peine et non puritaine J'ai retiré ton string, j'gagne en maturité J'suis dans cette shit tout comme Majeur Mineur J'suis en terrain connu, t'es en terre inconnue La marge est énorme, j'lève mon majeur, j'innove J'fais paisiblement c'qu'ils font péniblement L.O.R.D E.S.P.E.R.A.N.Z.A, j'baise le P.E.R.A L.O.R.D. motherfucker, j'commence J'en ai déjà fini avec ce que t'appelles cette saleté d'rap J'te fais du sale ma salope, faut qu'tu nettoies tes draps Aide-toi toi-même puis tu verras le ciel t'aidera Prince de ma ville, c'est le sang qui honore J'avance seul dans la braise, sur le sentier nord Fils de, arg, t'es né par terre J'suis pas fier d'ma patrie qui a tant pillé d'or 300kmh au volant de la Centenario Elle m'a vu en concert, a fantasmé sur cent scénarios J'remercie la configuration stellaire C'est l'heure, conflit de vibrations célestes J'suis dans cette shit, comme dans Emily Ratajkowski Tire en plein cur, je les traîne en vainqueur J'descends la pente, j't'attache au ski3</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sheesh Sku-sku, sku-sku PALA, PALA Sheesh sheesh sheesh J'suis dans le piège oui j'suis dans la trap Sache qu'on va s'en aller, seuls sur une île Qu'après avoir assouvi l'ambition internationale Hmm Lord sku sku sku c'est pas rationnel J'repars ovationné mo'fucker 23ème, loge de franc-maçonnerie Les portes du succès s'ouvrent depuis qu'on a sonné mo'fucker Mon silence et mon ignorance sont mes plus grands mépris Plus grands mépris Bollinger pour chaque contrat signé, j'ai la montre assignée Les astres sont alignés, depuis que je brille quand j'écris J'suis né où tombe la foudre, j'ai vu mon avenir dans les débris Depuis que j'leur fais du sale mon nom c'est brut Je suis très fier de poursuivre celui que je décris La concu' lean j'suis sous champagne Viens donc faire un tour dans mon break J'suis dans c'thème oui j'suis dans c'thème Appelle moi Lord, appelle moi Spe' Toi et moi c'est pas la même mamène, mamène J'transforme tout en or, je fais pas exprès Verse l'alcool pour nos morts, j'impose le respect J'connais mon sort, et tinquiète pas j'm'en sors J'suis le même qu'avant, j'suis juste dix fois plus fort Je ne fais même plus d'effort mais l'âme est restée J'leur ai causé du tort, et c'n'est qu'un extrait D'un commun accord, j'vise pas le même tas d'or Le jeune couronné veut son Aventador You might also like On fait nos choses en silence Jeune entrepreneur en freelance Laissez place à l'enfant du siècle J'écoute plus depuis que j'entends le ciel On fait nos choses en silence Jeune entrepreneur en freelance Sache qu'il faut beaucoup de chaos dans la tête Pour accoucher d'une étoile qui danse Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel J'suis dans l'entertainment, on va les faire taire tellement chut Parlons peu, donc parlons très certainement J'dépose des roses pour honorer l'enterrement On rentre dans leur game mains dans les poches Pour s'en mettre plein les Japerçois qu'elle porte un collier Cartier Hôtel particulier sur l'Avenue Foch On bâtit l'empire tout comme Bolloré Vous l'aurez compris mon avenir est coloré Merci pour la ce-for j'en suis honoré Je n'ai pas demandé vos horaires J'ai imposé nos honoraires, on ride dans la DeLore' Sinus endoloris Je n'vois que de l'or et les cieux font déjà tout corroborer On dira d'mon succès qu'il était mérité J'ai médité sur c'que j'aime éditer Oui le trône m'attire, j'suis l'plus jeune héritier Tuer le rap, c'était prémédité Le Lord remet de l'ordre J'ai des milices lunaires et des milices terriennes J'ai défini c'terrain jusqu'au Finistère, hein Mon emploi du temps devient ministériel On fait nos choses en silence Jeune entrepreneur en freelance Laissez place à l'enfant du siècle J'écoute plus depuis que j'entends le ciel On fait nos choses en silence Jeune entrepreneur en freelance Sache qu'il faut beaucoup de chaos dans la tête Pour accoucher d'une étoile qui danse Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel2</t>
+          <t>Sheesh Sku-sku, sku-sku PALA, PALA Sheesh sheesh sheesh J'suis dans le piège oui j'suis dans la trap Sache qu'on va s'en aller, seuls sur une île Qu'après avoir assouvi l'ambition internationale Hmm Lord sku sku sku c'est pas rationnel J'repars ovationné mo'fucker 23ème, loge de franc-maçonnerie Les portes du succès s'ouvrent depuis qu'on a sonné mo'fucker Mon silence et mon ignorance sont mes plus grands mépris Plus grands mépris Bollinger pour chaque contrat signé, j'ai la montre assignée Les astres sont alignés, depuis que je brille quand j'écris J'suis né où tombe la foudre, j'ai vu mon avenir dans les débris Depuis que j'leur fais du sale mon nom c'est brut Je suis très fier de poursuivre celui que je décris La concu' lean j'suis sous champagne Viens donc faire un tour dans mon break J'suis dans c'thème oui j'suis dans c'thème Appelle moi Lord, appelle moi Spe' Toi et moi c'est pas la même mamène, mamène J'transforme tout en or, je fais pas exprès Verse l'alcool pour nos morts, j'impose le respect J'connais mon sort, et tinquiète pas j'm'en sors J'suis le même qu'avant, j'suis juste dix fois plus fort Je ne fais même plus d'effort mais l'âme est restée J'leur ai causé du tort, et c'n'est qu'un extrait D'un commun accord, j'vise pas le même tas d'or Le jeune couronné veut son Aventador On fait nos choses en silence Jeune entrepreneur en freelance Laissez place à l'enfant du siècle J'écoute plus depuis que j'entends le ciel On fait nos choses en silence Jeune entrepreneur en freelance Sache qu'il faut beaucoup de chaos dans la tête Pour accoucher d'une étoile qui danse Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel J'suis dans l'entertainment, on va les faire taire tellement chut Parlons peu, donc parlons très certainement J'dépose des roses pour honorer l'enterrement On rentre dans leur game mains dans les poches Pour s'en mettre plein les Japerçois qu'elle porte un collier Cartier Hôtel particulier sur l'Avenue Foch On bâtit l'empire tout comme Bolloré Vous l'aurez compris mon avenir est coloré Merci pour la ce-for j'en suis honoré Je n'ai pas demandé vos horaires J'ai imposé nos honoraires, on ride dans la DeLore' Sinus endoloris Je n'vois que de l'or et les cieux font déjà tout corroborer On dira d'mon succès qu'il était mérité J'ai médité sur c'que j'aime éditer Oui le trône m'attire, j'suis l'plus jeune héritier Tuer le rap, c'était prémédité Le Lord remet de l'ordre J'ai des milices lunaires et des milices terriennes J'ai défini c'terrain jusqu'au Finistère, hein Mon emploi du temps devient ministériel On fait nos choses en silence Jeune entrepreneur en freelance Laissez place à l'enfant du siècle J'écoute plus depuis que j'entends le ciel On fait nos choses en silence Jeune entrepreneur en freelance Sache qu'il faut beaucoup de chaos dans la tête Pour accoucher d'une étoile qui danse Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel Fils de pute j'suis dans la suite de luxe Laissez place à l'enfant du siècle Laissez place yeah, yeah J'écoute plus depuis que j'entends le ciel2</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L.O, L.O.R Majeur-Mineur Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu péra moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'ai percé plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste Rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature LordYou might also like1</t>
+          <t>L.O, L.O.R Majeur-Mineur Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu péra moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'ai percé plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste Rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature Lord1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Piège maison J'suis vulgaire mais fort, si je meurs J'ignore si quelqu'un tuera le game comme moi J'fais pas du son pour pucelles à la Chill Bump J'regarde les commentaires J'vois qu'ils demandent de faire du vrai rap Mais c'est moi c'vrai rap fils de putain Bientôt j'me lance dans la G-Funk cousin Parce que j'ordonne qu'on fasse de l'or j'donne le maximum Mais j'suis toujours pas un super héros J'suis du-per négro, les soirs d'orage j'enchaîne les flash de Gordon's Tu veux que j'fasse quoi ? Du rap conscient sur une instru violon ? Rapper comme ton rappeur préféré, zappé dans 4 mois Casse-toi, j'espère gagner, j'rappe pas, j'joue au Black-Jack Fantômes d'wack rappeurs me poursuivent comme dans Pacman, euuh Tu m'cherches ? j'suis dans Paris gars Pas si facile de m'afficher, j'mets de l'auto-tune si j'veux D'puis quand l'public sait de quoi il parle, et pourquoi je me justifie ? Face à des enculés qui n'comprennent pas qu'le futur est juste ici J'emmerde tous vos justiciers, j'y crois plus Celui qu'a les bras tendus finira crucifié, tes MC foireux, t'as cru t'y fier ? Mais on a des années d'avance, j'passe mon temps en studio Donc j'reviens moins bronzé d'vacances Ton buzz a fané alors passe ton tour On fait tourner ta tête, on casse ton cou Dillinger braque, on raffle tout Jouer les rappeurs me casse les couilles You might also like Je suis venu, j'ai vu, puis j'évacue J'en rallume-un quand j'ai vaincu Ta pute veut m'inventer un nom J'serai disque d'or pour mes 21 ans Turn Up dans la 'rari J'arrive jeune prince est dans Paris-Paris J'suis dans l'Mercedes blanc cassé Ces bâtards sont tassés, entassés Quant à ces putes, j'les baise une par une pendant le 5 à 7 Tu ne peux pas m'remplacer Oui, la plupart de tous ces connards finissent déçus Le rap français j'lui pisse dessus L.O.R.D, j'ai pêché mon père, je dois prôner la paix Même si j'perds mes repères-pères-pères J'suis pas communautaire, je suis juste là pour faire de la mula Un peu comme mon notaire-taire-taire Sache qu'on va, qu'on va, qu'on va Féconder leurs daronnes de manière systématique La plupart seront décédés dans l'début d'la cinématique-tique Le nerf de la guerre attire mes deux zygomatiques-tiques Berline 4 Matic, plaquée diplomatiques Je kick et dépend des tryptiques, mystiques D'une beauté atypique sur toile polychromatique-tique J'pourrais tout anticiper L'important c'est de gagner et non pas d'participer Que le rap français repose en paix-L-S Que le rap français repose en paix-L-S Que le rap français repose en paix-L-S3</t>
+          <t>Piège maison J'suis vulgaire mais fort, si je meurs J'ignore si quelqu'un tuera le game comme moi J'fais pas du son pour pucelles à la Chill Bump J'regarde les commentaires J'vois qu'ils demandent de faire du vrai rap Mais c'est moi c'vrai rap fils de putain Bientôt j'me lance dans la G-Funk cousin Parce que j'ordonne qu'on fasse de l'or j'donne le maximum Mais j'suis toujours pas un super héros J'suis du-per négro, les soirs d'orage j'enchaîne les flash de Gordon's Tu veux que j'fasse quoi ? Du rap conscient sur une instru violon ? Rapper comme ton rappeur préféré, zappé dans 4 mois Casse-toi, j'espère gagner, j'rappe pas, j'joue au Black-Jack Fantômes d'wack rappeurs me poursuivent comme dans Pacman, euuh Tu m'cherches ? j'suis dans Paris gars Pas si facile de m'afficher, j'mets de l'auto-tune si j'veux D'puis quand l'public sait de quoi il parle, et pourquoi je me justifie ? Face à des enculés qui n'comprennent pas qu'le futur est juste ici J'emmerde tous vos justiciers, j'y crois plus Celui qu'a les bras tendus finira crucifié, tes MC foireux, t'as cru t'y fier ? Mais on a des années d'avance, j'passe mon temps en studio Donc j'reviens moins bronzé d'vacances Ton buzz a fané alors passe ton tour On fait tourner ta tête, on casse ton cou Dillinger braque, on raffle tout Jouer les rappeurs me casse les couilles Je suis venu, j'ai vu, puis j'évacue J'en rallume-un quand j'ai vaincu Ta pute veut m'inventer un nom J'serai disque d'or pour mes 21 ans Turn Up dans la 'rari J'arrive jeune prince est dans Paris-Paris J'suis dans l'Mercedes blanc cassé Ces bâtards sont tassés, entassés Quant à ces putes, j'les baise une par une pendant le 5 à 7 Tu ne peux pas m'remplacer Oui, la plupart de tous ces connards finissent déçus Le rap français j'lui pisse dessus L.O.R.D, j'ai pêché mon père, je dois prôner la paix Même si j'perds mes repères-pères-pères J'suis pas communautaire, je suis juste là pour faire de la mula Un peu comme mon notaire-taire-taire Sache qu'on va, qu'on va, qu'on va Féconder leurs daronnes de manière systématique La plupart seront décédés dans l'début d'la cinématique-tique Le nerf de la guerre attire mes deux zygomatiques-tiques Berline 4 Matic, plaquée diplomatiques Je kick et dépend des tryptiques, mystiques D'une beauté atypique sur toile polychromatique-tique J'pourrais tout anticiper L'important c'est de gagner et non pas d'participer Que le rap français repose en paix-L-S Que le rap français repose en paix-L-S Que le rap français repose en paix-L-S3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J'me lève en roi du monde J'm'endors auprès d'mes craintes Mon ego brille, brille, brille, brille dans vos regards opportunistes Toujours pas de cur, chaque soir, encore une autre, nos deux nouveaux corps s'unissent Pendant c'temps, mère s'inquiète, elle voudrait pas que mes torts m'punissent, putain Laisse pas traîner ton fils aux portes du vice Entre l'enfer et le paradis, j'essaie de trouver le centre du triptyque Les femmes deviennent de plus en plus faciles, mes proches deviennent de plus en plus critiques Les concerts se remplissent mais j'suis toujours seul Bien sûr que ceux qui s'imposent en veulent, woh La chance n'existe pas, la chance n'existe pas, comment veux-tu que j'explose en vol ? Haha Être sage, c'est quoi ? Aider les autres pour s'aider soi-même, woh Pour l'instant, j'me cache derrière des voyelles J'suis pas v'nu au monde pour le consommer, woh L'impression qu'j'm'arrêterai qu'au sommet, woh Mais le sommet, c'est quoi ? Une vision d'ensemble pour pouvoir contempler tout le malheur des hommes J'me lève en roi du monde J'm'endors auprès d'mes craintes J'me lève en roi du monde J'm'endors auprès d'mes You might also like Un grand homme m'a dit Tu veux voir tous les tiens réussir mais un peu moins qu'toi, woh Finalement, j'crois qu'on est tous égaux en marchant sur le chemin d'croix Ma tête sur les Inrocks n'apporte aucun progrès pour l'Humanité Venu pour changer les mentalités, woh Plein d'humilité, plein d'humilité, woh J'me suis fait dans toutes mes dualités On dirait qu'ça tire, canon fumant, j'ouvre mon troisième il Ma vision du bonheur n'est pas de m'écouter parler sur un vieux sample d'Erik Satie, woh Merde, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, haha Prouve-le J'ai croisé cet homme sur le boulevard Bonsoir, ça va ? Raconte-moi ton histoire Il m'a dit À ton avis ? Tu veux savoir comment rater sa vie ? Puis j'l'ai vu courir, j'ai crié Fume pas, cela gâche tout ton sourire Il m'a répondu, dans un fou rire Au moins, j'aurai une raison de mourir Les hommes communiquent mais se confrontent à la réalité et sa finalité Moralité je n'suis qu'un corps habité d'une personnalité, woh J'en ai assez, le passé m'ramène à l'enfance, à toutes ces images que j'peux pas effacer, à cette version d'moi-même dépassée J'ai dit je t'aime puis, j'ai dû jeter Cinq ans qu'j'attends de pouvoir faire l'homme C'est comme si j'étais seul dans ma tête, dix dans mes paroles, cent dans mon sternum, woh Dis-moi pourquoi ces questions m'épuisent et m'animent, woh Je suis bloqué dans la mise en abyme d'une mise en abyme J'me lève en roi du monde J'm'endors auprès d'mes craintes Lève-toi en roi du monde Lève-toi en roi du monde J'revois mon père tracer une courbe et me dire T'y arriveras pas, c'est une statistique Un an plus tard, j'vaux un demi-million d'euros grâce à ma rigueur artistique Alors, crois en tes rêves, va jusqu'au bout pour en avoir le cur net Ceci est pour toi, pour il, pour elle, pour vous, pour nous, et tous les enfants d'Internet J'me lève en roi du monde J'm'endors auprès d'mes craintes ? I don't think hope is just a concept and I don't believe hope is only always about future Maybe it's just an everyday life movement For you can't somehow do without it Hope is what makes life evident, possible Without us even wanting it, it's just there in a way And look how we always hope that The lights and colours would be beautiful That the time will go fine, that love will meet us somehow And that we'll go through these days and our emotions I don't know, I always hope you'll be fine, you</t>
+          <t>J'me lève en roi du monde J'm'endors auprès d'mes craintes Mon ego brille, brille, brille, brille dans vos regards opportunistes Toujours pas de cur, chaque soir, encore une autre, nos deux nouveaux corps s'unissent Pendant c'temps, mère s'inquiète, elle voudrait pas que mes torts m'punissent, putain Laisse pas traîner ton fils aux portes du vice Entre l'enfer et le paradis, j'essaie de trouver le centre du triptyque Les femmes deviennent de plus en plus faciles, mes proches deviennent de plus en plus critiques Les concerts se remplissent mais j'suis toujours seul Bien sûr que ceux qui s'imposent en veulent, woh La chance n'existe pas, la chance n'existe pas, comment veux-tu que j'explose en vol ? Haha Être sage, c'est quoi ? Aider les autres pour s'aider soi-même, woh Pour l'instant, j'me cache derrière des voyelles J'suis pas v'nu au monde pour le consommer, woh L'impression qu'j'm'arrêterai qu'au sommet, woh Mais le sommet, c'est quoi ? Une vision d'ensemble pour pouvoir contempler tout le malheur des hommes J'me lève en roi du monde J'm'endors auprès d'mes craintes J'me lève en roi du monde J'm'endors auprès d'mes Un grand homme m'a dit Tu veux voir tous les tiens réussir mais un peu moins qu'toi, woh Finalement, j'crois qu'on est tous égaux en marchant sur le chemin d'croix Ma tête sur les Inrocks n'apporte aucun progrès pour l'Humanité Venu pour changer les mentalités, woh Plein d'humilité, plein d'humilité, woh J'me suis fait dans toutes mes dualités On dirait qu'ça tire, canon fumant, j'ouvre mon troisième il Ma vision du bonheur n'est pas de m'écouter parler sur un vieux sample d'Erik Satie, woh Merde, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, haha Prouve-le J'ai croisé cet homme sur le boulevard Bonsoir, ça va ? Raconte-moi ton histoire Il m'a dit À ton avis ? Tu veux savoir comment rater sa vie ? Puis j'l'ai vu courir, j'ai crié Fume pas, cela gâche tout ton sourire Il m'a répondu, dans un fou rire Au moins, j'aurai une raison de mourir Les hommes communiquent mais se confrontent à la réalité et sa finalité Moralité je n'suis qu'un corps habité d'une personnalité, woh J'en ai assez, le passé m'ramène à l'enfance, à toutes ces images que j'peux pas effacer, à cette version d'moi-même dépassée J'ai dit je t'aime puis, j'ai dû jeter Cinq ans qu'j'attends de pouvoir faire l'homme C'est comme si j'étais seul dans ma tête, dix dans mes paroles, cent dans mon sternum, woh Dis-moi pourquoi ces questions m'épuisent et m'animent, woh Je suis bloqué dans la mise en abyme d'une mise en abyme J'me lève en roi du monde J'm'endors auprès d'mes craintes Lève-toi en roi du monde Lève-toi en roi du monde J'revois mon père tracer une courbe et me dire T'y arriveras pas, c'est une statistique Un an plus tard, j'vaux un demi-million d'euros grâce à ma rigueur artistique Alors, crois en tes rêves, va jusqu'au bout pour en avoir le cur net Ceci est pour toi, pour il, pour elle, pour vous, pour nous, et tous les enfants d'Internet J'me lève en roi du monde J'm'endors auprès d'mes craintes ? I don't think hope is just a concept and I don't believe hope is only always about future Maybe it's just an everyday life movement For you can't somehow do without it Hope is what makes life evident, possible Without us even wanting it, it's just there in a way And look how we always hope that The lights and colours would be beautiful That the time will go fine, that love will meet us somehow And that we'll go through these days and our emotions I don't know, I always hope you'll be fine, you</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Le mépris des miens, l'amour des vôtres On trouvera toujours l'énergie pour s'investir On juge par le respect, j'me méfie des tiens Nos curs meurtris par le temps vagabondent mais ne respirent plus J'pense aux grandeurs et leur disparition qui nous laissent des vestiges Lorsque notre espoir transparaissait, je contemplais ton ombre J'ai vu que son arc-en-ciel périssait Oui, ta danse parait sombre, j'vois c'que les cieux m'infligent On apprend par l'essai, on avance par lexcès Le plafond des ténèbres éblouit c'que l'destin fige On en a des vertiges, oui le temps nous afflige Ça nous rend paresseux, lorgueil enterré sous Quelques brumes de sommeil L'orage gronde et m'oblige à Pleurer sur les tombes, oui je sais qu'la route est longue Traverse seul des lacs de sels sous des pluies de cendres dans le blizzard You might also like Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Oh, je suis qui j'ai décidé de devenir Mes paroles dirigent les événements J'suis parti pour ne plus jamais revenir En m'épanouissant dans l'air du temps Je suis le vase de miséricorde Dans lequel les os du baptême de Jesus dorment Mes ambitions dépassent limaginaire, mes réussites dépassent mes ambitions Alors ma vu naitre dans le creux de la main du vent Je féconde les éclairs Le taureau passe il faut briser les cornes Sans écorcher lincarnation de la licorne Mais je viens dun peuple où seuls les doutes sont certains La bouche des envieux est avare en compliments cest certain Fabuler devient fabuleux pour ceux qui me détestent hein Les astres me téléportent, jviens péter les portes Dans un monde ou mon ciel abhorre L'époque où ma splendeur nest plus une métaphore Emblématique est lambition que ma team élabore Larpenteur je narpenterai plus les excuses de mes efforts qui simulent laccouchement verbal en ricanant Mon sang dégorge des idéaux qui font scandale Dans un monde où jai pérennisé lâme de ma vie dans lere du temps Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya1</t>
+          <t>Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Le mépris des miens, l'amour des vôtres On trouvera toujours l'énergie pour s'investir On juge par le respect, j'me méfie des tiens Nos curs meurtris par le temps vagabondent mais ne respirent plus J'pense aux grandeurs et leur disparition qui nous laissent des vestiges Lorsque notre espoir transparaissait, je contemplais ton ombre J'ai vu que son arc-en-ciel périssait Oui, ta danse parait sombre, j'vois c'que les cieux m'infligent On apprend par l'essai, on avance par lexcès Le plafond des ténèbres éblouit c'que l'destin fige On en a des vertiges, oui le temps nous afflige Ça nous rend paresseux, lorgueil enterré sous Quelques brumes de sommeil L'orage gronde et m'oblige à Pleurer sur les tombes, oui je sais qu'la route est longue Traverse seul des lacs de sels sous des pluies de cendres dans le blizzard Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Oh, je suis qui j'ai décidé de devenir Mes paroles dirigent les événements J'suis parti pour ne plus jamais revenir En m'épanouissant dans l'air du temps Je suis le vase de miséricorde Dans lequel les os du baptême de Jesus dorment Mes ambitions dépassent limaginaire, mes réussites dépassent mes ambitions Alors ma vu naitre dans le creux de la main du vent Je féconde les éclairs Le taureau passe il faut briser les cornes Sans écorcher lincarnation de la licorne Mais je viens dun peuple où seuls les doutes sont certains La bouche des envieux est avare en compliments cest certain Fabuler devient fabuleux pour ceux qui me détestent hein Les astres me téléportent, jviens péter les portes Dans un monde ou mon ciel abhorre L'époque où ma splendeur nest plus une métaphore Emblématique est lambition que ma team élabore Larpenteur je narpenterai plus les excuses de mes efforts qui simulent laccouchement verbal en ricanant Mon sang dégorge des idéaux qui font scandale Dans un monde où jai pérennisé lâme de ma vie dans lere du temps Dans l'ère du temps, l'ère du temps J'fais preuve de discernement entre le vice et le regard de ceux que j'aime éperdument Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya Dans l'ère du temps, l'ère du temps J'aimerais savoir d'où sort mon âme Qui résonne dans les sphères du temps, sphères du temps Hey ya, hey ya, hey ya Hey ya, hey ya, hey ya1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Parfois l'espoir est vacant Il décolore nos vacances Satan s'habille en satin Satan s'habille en satin Tu peux l'voir et l'entendre Il veut s'asseoir et m'attendre Satan s'habille en satin J'refais l'monde du soir au matin Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh Nous sommes infiniment vôtre Nous sommes infiniment vôtre T'inquiète pas, t'inquiète pas Eh, trois heures de route, c'est pas nécessaire Quand on sait voler, voler, voler Sur des loops, j'fais danser les frères Elle m'atteint le soir pour les aider Un regard comme si de rien n'était Derrière les volets, volets, volets Elle m'atteint le soir pour qu'on fasse dodo J'suis un fan comme les jeunes abonnés j'suis un fan comme les jeunes abonnés You might also like Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh L'amour dure qu'un temps, le temps qu'tu baisses les armes La vengeance est une faiblesse de l'âme Satan s'habille en satin Satan s'habille en satin Y'a ceux qui sont de confiance, ceux qui mentent à autrui À l'époque, y'avait personne mais tu m'attendais toi Oui, les fantômes nettoient quand je m'auto-détruis La nuit endort mes craintes dans son manteau d'étoiles Bruxelles arrive sur mon CD Comment écouter les autres quand on ne peut même pas s'aider ? Tes qualités m'font défauts, difficile de ne pas céder Nous sommes infiniment vôtre J't'ai laissé que des souvenirs sépias Les destins s'étiolent comme nos rêves en papiers On fait semblant pour mieux revenir s'épier Elvis, dis-leur que c'est plié Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh Nous sommes infiniment vôtre Nous sommes infiniment vôtre T'inquiète pas, t'inquiète pas Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh</t>
+          <t>Parfois l'espoir est vacant Il décolore nos vacances Satan s'habille en satin Satan s'habille en satin Tu peux l'voir et l'entendre Il veut s'asseoir et m'attendre Satan s'habille en satin J'refais l'monde du soir au matin Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh Nous sommes infiniment vôtre Nous sommes infiniment vôtre T'inquiète pas, t'inquiète pas Eh, trois heures de route, c'est pas nécessaire Quand on sait voler, voler, voler Sur des loops, j'fais danser les frères Elle m'atteint le soir pour les aider Un regard comme si de rien n'était Derrière les volets, volets, volets Elle m'atteint le soir pour qu'on fasse dodo J'suis un fan comme les jeunes abonnés j'suis un fan comme les jeunes abonnés Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh L'amour dure qu'un temps, le temps qu'tu baisses les armes La vengeance est une faiblesse de l'âme Satan s'habille en satin Satan s'habille en satin Y'a ceux qui sont de confiance, ceux qui mentent à autrui À l'époque, y'avait personne mais tu m'attendais toi Oui, les fantômes nettoient quand je m'auto-détruis La nuit endort mes craintes dans son manteau d'étoiles Bruxelles arrive sur mon CD Comment écouter les autres quand on ne peut même pas s'aider ? Tes qualités m'font défauts, difficile de ne pas céder Nous sommes infiniment vôtre J't'ai laissé que des souvenirs sépias Les destins s'étiolent comme nos rêves en papiers On fait semblant pour mieux revenir s'épier Elvis, dis-leur que c'est plié Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh Nous sommes infiniment vôtre Nous sommes infiniment vôtre T'inquiète pas, t'inquiète pas Elle m'atteint le soir, eh, eh Elle m'atteint le soir, eh, eh</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Oy, oy L-O, L-O,L-O, L-O-R L'histoire s'écrit dans les pages du préambule Je trempe ma plume dans l'océan lunaire J'refaisais l'monde pendant qu'les mêmes têtes déambulaient Mon avenir prend des formes triangulaires J'perpétue la beauté des étoiles mortes On traverse tous les pôles L'ange est sur mon épaule, j'ai pas l'poids d'nos péchés Mais sache que les états l'porte La valeur d'un homme se trouve dans ses souffrances L'excrément du diable traverse tout nos pipelines Je me sens révolté tout comme ce jeune qui matte La Haine Charlie s'demande ce qu'est devenue sa France T'appelle ça du génie, j'appelle ça du travail Tu veux juger mon art, attends mon état trans' Que un génie s'endort, mannequin consomme 3 rails Oy je m'applique à ne pas mettre mes neurones en veille Dépose des roses ensanglantées pour célébrer le deuil L'ange de la mort t'accueille Le paradis te ferme ses portes quand Cerbère se réveille My nigga pray, no pain no gain J'ai laissé comprendre j'étais le seul fils du soleil J'ai vu mon destin s'engouffrer dans la profondeur d'un sonnet Sache que mes combats personnels me font souvent perdre le sommeil Tutoie le ciel, questionne le sur ce qu'il n'a pas trié Dire qu'j'n'avais pas d'lumière Sous un éclat lunaire Je pense aux sinistrés rapatriés J'vois ce jeune désuvré s'illustrer Quand gardien de la paix va patrouiller Encore un délit de faciès mais j'suis béni J'vois l'pouvoir en place dans le déni sous boule à facette Telle merde, tel fric Le temps ne laisse pas les troubles effacer J'vois la misère du monde dans une FS7 Les sourcils du système sont toujours froncés Sache qu'on s'enfonçait dans des rêves faussés Comme une BM volée qui fonce dans l'fossé Enfant du siècle, fils unique de deux ébats lunaires J'te vois comme fils de pute qu'attend qu'ça dégénère Anneau gastrique dépérit sur ton annulaire Ta salope se cambre comme rappeur quadragénaire La concurrence applaudit par les fesses L-O-R-D provoque des maléfices Aucun regret lorsque le mal est fait Adam mange la pomme, ces filles sont pas matures Malgré son armature, j'vois la nature de l'Homme Comme lil d'un délateur en temps de guerre Le fond d'mon regard reste révélateur J'suis dans l'building, j'suis dans l'elevator J'me rappelle qu'à l'époque on ne m'entendais guère You might also like Pour réussir, faut se lever tôt On sirote ton cerveau lorsque c'est le 20H Il est temps qu'l'audimat gobe toutes leurs mises en scène Enfant soldat ne sait plus sur quel pied danser J'me recueil sur sa tombe non fleurie d'chrysanthèmes On pleure des génocides que l'on a financé En excès d'confiance comme esprit protecteur Poings tendus vers le ciel comme à Mexico Le poumon de la Terre est intoxiqué Tandis quintellectuel sort sous les projecteurs J'me rappelle qu'on voit l'dur dans les pleurs Chaque jour j'le comprends mieux Tristesse condensée dans un comprimé Dans mes yeux, les cartouches ne font pas qu'imprimer Si je franchis la ligne, ce n'est qu'en premier Aucune malédiction, j'suis qu'un morceau d'histoire J'pensais trouver refuge en chantant l'addiction J'ai laissé mes démons du passé dans un square Désillusion sur une marche d'espoir Maman me voit à la télévision Ce qui m'arrive, j'en ai rêvé 10 ans L-O-R Aujourd'hui j'réalise que j'avais des visions Je n'fais qu'prophétiser oy Le rapport à ton dieu n'est pas monétisé Autant t'y fier, A Paris qui pourra dire que je ne suis pas authentifié J'ai vu la perdition chez une âme intégriste C'est bien plus facile d'honorer l'antichrist Dis-moi pourquoi négliger les colonies L'économie c'est l'bien d'consolation Tans de consommation vaut pas l'écologie Même ta chatte pollue moins J'suis qu'un triste orateur J'méprise tes rappeurs Comme Ruquier méprise Natacha Polony Des fleurs dans l'ravin, des lendemains de rancur J'ai la main sur le cur et le cur sur la main Lord4</t>
+          <t>Oy, oy L-O, L-O,L-O, L-O-R L'histoire s'écrit dans les pages du préambule Je trempe ma plume dans l'océan lunaire J'refaisais l'monde pendant qu'les mêmes têtes déambulaient Mon avenir prend des formes triangulaires J'perpétue la beauté des étoiles mortes On traverse tous les pôles L'ange est sur mon épaule, j'ai pas l'poids d'nos péchés Mais sache que les états l'porte La valeur d'un homme se trouve dans ses souffrances L'excrément du diable traverse tout nos pipelines Je me sens révolté tout comme ce jeune qui matte La Haine Charlie s'demande ce qu'est devenue sa France T'appelle ça du génie, j'appelle ça du travail Tu veux juger mon art, attends mon état trans' Que un génie s'endort, mannequin consomme 3 rails Oy je m'applique à ne pas mettre mes neurones en veille Dépose des roses ensanglantées pour célébrer le deuil L'ange de la mort t'accueille Le paradis te ferme ses portes quand Cerbère se réveille My nigga pray, no pain no gain J'ai laissé comprendre j'étais le seul fils du soleil J'ai vu mon destin s'engouffrer dans la profondeur d'un sonnet Sache que mes combats personnels me font souvent perdre le sommeil Tutoie le ciel, questionne le sur ce qu'il n'a pas trié Dire qu'j'n'avais pas d'lumière Sous un éclat lunaire Je pense aux sinistrés rapatriés J'vois ce jeune désuvré s'illustrer Quand gardien de la paix va patrouiller Encore un délit de faciès mais j'suis béni J'vois l'pouvoir en place dans le déni sous boule à facette Telle merde, tel fric Le temps ne laisse pas les troubles effacer J'vois la misère du monde dans une FS7 Les sourcils du système sont toujours froncés Sache qu'on s'enfonçait dans des rêves faussés Comme une BM volée qui fonce dans l'fossé Enfant du siècle, fils unique de deux ébats lunaires J'te vois comme fils de pute qu'attend qu'ça dégénère Anneau gastrique dépérit sur ton annulaire Ta salope se cambre comme rappeur quadragénaire La concurrence applaudit par les fesses L-O-R-D provoque des maléfices Aucun regret lorsque le mal est fait Adam mange la pomme, ces filles sont pas matures Malgré son armature, j'vois la nature de l'Homme Comme lil d'un délateur en temps de guerre Le fond d'mon regard reste révélateur J'suis dans l'building, j'suis dans l'elevator J'me rappelle qu'à l'époque on ne m'entendais guère Pour réussir, faut se lever tôt On sirote ton cerveau lorsque c'est le 20H Il est temps qu'l'audimat gobe toutes leurs mises en scène Enfant soldat ne sait plus sur quel pied danser J'me recueil sur sa tombe non fleurie d'chrysanthèmes On pleure des génocides que l'on a financé En excès d'confiance comme esprit protecteur Poings tendus vers le ciel comme à Mexico Le poumon de la Terre est intoxiqué Tandis quintellectuel sort sous les projecteurs J'me rappelle qu'on voit l'dur dans les pleurs Chaque jour j'le comprends mieux Tristesse condensée dans un comprimé Dans mes yeux, les cartouches ne font pas qu'imprimer Si je franchis la ligne, ce n'est qu'en premier Aucune malédiction, j'suis qu'un morceau d'histoire J'pensais trouver refuge en chantant l'addiction J'ai laissé mes démons du passé dans un square Désillusion sur une marche d'espoir Maman me voit à la télévision Ce qui m'arrive, j'en ai rêvé 10 ans L-O-R Aujourd'hui j'réalise que j'avais des visions Je n'fais qu'prophétiser oy Le rapport à ton dieu n'est pas monétisé Autant t'y fier, A Paris qui pourra dire que je ne suis pas authentifié J'ai vu la perdition chez une âme intégriste C'est bien plus facile d'honorer l'antichrist Dis-moi pourquoi négliger les colonies L'économie c'est l'bien d'consolation Tans de consommation vaut pas l'écologie Même ta chatte pollue moins J'suis qu'un triste orateur J'méprise tes rappeurs Comme Ruquier méprise Natacha Polony Des fleurs dans l'ravin, des lendemains de rancur J'ai la main sur le cur et le cur sur la main Lord4</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Eh, les rappeurs, désolé, je reviens foutre la merde Jvous casse la tête pour que la tienne soit fêlée Thallucines pas, sur ton crâne, cest ma gerbe Jai chopé l'vertige, trop au-dessus d'la mêlée Mêlée, viens pas bomber le torse par ici car t'es guez Oublie, man, ou on téradique Viens pas bomber le torse, calvitie marseillaise Jsuis Zidane, tes Materazzi Du coin de lil, je regarde les cons qui me pensaient Peu doué, peut-être, jvais les écarteler, les harceler Marteler mes couplets jusqu'à leur clouer le bec Au volant de mon flow, jvais te coller au siège Moteur AMG dans la mâchoire Jai planté des clous dans les appuie-têtes Et, à la place du mort, tu vas tasseoir On est pris de court, cet pour ça quon bug Quon essaie de transformer le pire en mieux Les dialogues de sourds mènent aux violences aveugles Quand la parole est prise par les silencieux Cest la même chez toi comme chez moi Tous essaient de sen sortir par les ruses En cas dembrouille, ne jamais parler chinois Sinon Kalach' en main vont te parler russe Si le rap était mieux avant Que celui d'aujourd'hui te fait si mal Prends ta Delorean et barre-toi, dégage Et pas fais-nous chier timal Tu pensais vraiment que timpressionnes ? Ah, tu pensais vraiment faire de la tuerie ? Résultat des courses tas choqué personne Tes quun strip-tease dans un camp de naturistes Tuerie sur tuerie mais jsuis pas sur la Selecta À leurs yeux, je ne suis pas sélectionnable, jsuis R.E.D.Karim Anelka Si, depuis le début, tu n'y as jamais cru Toi non plus, ne la ramène pas Jai feinté larrivée en force pour rentrer en finesse Et puis... Panenka You might also like Imprimez L-O-R-D sur leur visage à coup de clavier AZERTY De ceux qui agissent, pas de ceux qui envisagent Le grand public en vaut dix avertis Jsuis dans le tour-bus, tes dans la tourmente, woh Leur carrière prise dans une tournante Jfais danser leur fille dans le ventre de leur mère Eux donneraient leur mère pour faire gonfler leur ventre, woh Petit prince de la trap chez les Enfoirés Jsuis le rappeur préféré du rappeur préféré du rappeur préféré dton rappeur préféré Aucun schéma complexe Leur daronne, les femmes enceintes qui boivent de la Contrex Tellement ils gesticulent ils attrapent des rhumes par les testicules Jveux pas savoir ce quils en pensent, drr Jserai ni celui trop présent ni celui dont on va moquer labsence, drr Allô Fianso jsuis venu choquer la France Jvais mourir en légende, yah, pas au fond de la rue Legendre Marianne nous prête allégeance Qui sera le premier qui lui pètera les jambes Fidèle à Mexico même avec les poings liés Trop de jeunes récessifs leur mère non éloignée Dans ma tête c'est Le Cri d'Munch, c'est la nuit étoilée Jdessine une carrière dun geste du poigné Woh, jrentre pas dans lcercle je rentre dans lhistoire Tu veux percer ? Organise-toi Jinnove tellement que mon public sy perd Très proche de mes ennemis avec lucidité Comment quantifier leur stupidité ? Leurs idoles cest les premiers rôles dans les spots publicitaires, rah Ils applaudissent par les fesses, rah Pendant qulEtat perd la face Lenfant du siècle dans ta ville Tapis rouge déroulé Ta grand-mère en sarouel Qui fume que des roulés Les hommes naissent libres et égaux en nique ta mère Mes couilles sur leur front, mes pieds sur la table Jsuis un des modèles indémodables Dans léquipe aucun mec minable Tout niquer tout niquer tout niquer Tu le ressens dans le check final LORD Rrah rrah rrah, silencieux Gang gang, eh eh Tu touches à ma madre ma queue te verra plus On a la méthode si tes trapu Jprends les décisions quand il faut cest la capi Tu retournes ta veste parce que ten as quune, clochard On sait qutes un bataradé Une balle dans lchargeur bah tas qu'à pas rater Viens faire la bagarre si on est bon quà rapper Si tu cours faut pas déraper, jte rappelle Vlà les idées malsaines poto pas d'mise en scène Les bacqueux galèrent ils nous pistent en cercle Déter' comme Oumaga Eh Ibraka calme-toi, là tu les effraies On tattrape, on te kidnappe On te met dans un cul-de-sac Le choix est crucial Tes tout nu, tas aucune sape En plus de ça tes quune salope sans courage Eh, Fianso jsuis là Mais tu sais que Clara voulait que jrentre dans son cercle Elle, sen fout de lendroit Du coup jpeux lui mettre dans sa baraque ou dans sa caisse Bref on soccupe des caméras Ça va exploser personne pourra éteindre la mèche Les deux frères ont vous oublie pas Qu'ici gros les keus-mou à Villepinte c'est pas la hess Gang gang On est les bests de cette villa On les a bus, le gobelet est vide, là Eh, on est les bests de cette villa Q.E Favelas cette année cest nous, gars Bang Tengo John j'suis l'best comme Georges boy Ouais ouais Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Jrentre dans lcercle jfais une croix dessus Tes rappeurs sont pas carrés ils seront pas quatre dessus Dans deux ans jsuis au sommet selon mes calculs Wesh on tentend pas mon gars pourquoi tu parles plus ? Alors jtraîne comme un fantôme Que dla haine dans la Phantom Jveux lchiffre daffaire de Lancôme Et que lciel soit clément comme Chantôme Ils voulaient ma peau, monter sur le bateau Déloger le capo, quon appelle El Flaco Mais cest pas possible boy On sera bien quavec le biff de LOréal Ma froideur pourrait faire apparaître des aurores boréales Wesh on est àl, tsais qujaffole les compteurs Ils sont sur répondeur, Tengo John les buts de poker Viens mtrouver dans Grinderland comme Gon Freecss ils mcréent des polémiques Jmen bats les couilles jmange des cornflakes Jsuis dans lfond du binks avec mes gars ça fait les bails Elle sdemande si cest ma queue ou lsabre laser dun Jedi Jrentre dans la mêlée gros, jsuis surentraîné pour flairer les bénéfices Complètement fêlé, mon esprit trop zélé, jvais baiser des belles métisses Jmexporte avec des escortes Fuck un dresscode gros cest QueLaNight Jperforme, jsuis en pleine forme On les baise fort, tsais quon veut la maille Marion Marion, avant qucette raciste de merde Se retrouve avec un nazillon Vas-y on flex dans son pavillon On lui fait bouffer tahj et puis prendre lavion Jaccumule tellement dforce, jallume une très grande clope, jabuse sur les plans sports Salle lugubre étrange force XXX dans lposte Moi jveux voir des bisous partout Qules djihadistes aiment les babtous Viens voir en concert on casse tout Et dtoute la planète on fera le tour Boy Tengo John j'suis l'best comme Georges Comme Georges Toc toc, y a plus quà ouvrir la porte que jentre pour tout gâter Jtransporte, le poids du déracinement Larbre est dans mon dos, god damn Jai lintention dle planter, au milieu du cercle Solide comme pyramide de Gizeh Y a que du Love, no hate Dans la lumière même au charbon, no pain no gain They be like whos that girl ? KiTa, Zion City, Suisse ma gueule Eternelle rêveuse en quête dailleurs Ma musique un vaisseau spatial, Im a moonwalker like J'flotte dans les airs à chaque note Sortes de portes par lesquelles jéchappe Aux codes, aux crades, société me dégrade Y a quun sens à la vie aller tout droit, mais elle, veut que jrétrograde Impossible que jredevienne une esclave Sous nimporte quelle forme, quitte à vivre dans une épave Jmen tape dêtre riche, jveux quon arrête de me voler Jveux plus quune justice, jveux quon arrête de mvioler ah Mémoire africaine dans les veines Jsuis une guerrière comme Okoyé sauf que jporte des dreads eh Mémoire européenne dans le veines Jsuis une reine comme Daenerys y a des flammes dans mes seizes han Gunshot, jle fais pour mexprimer, mon rap est légitime Le fait que jsois une femme na rien à faire ici Chaque syllabe transpire le taf la rage et lamour que je transcris Pégase sest envolé pour ramener une comète sur Terre 225 dans le noyeau On lappelle KT Gorique Plus dun quart de siècle au compteur, le moustique libère le gorille eh Thats how we do, Fianso Rentre, rentre dans le cercle Thats how we do KT Gorique Rentre, rentre dans le cercle Thats how we do, Africa Rentre, rentre dans le cercle Thats how we do, Switzerland Rentre, rentre dans le cercle La balle est partie, deux dans lbarillet Tout assumer gros, faut pas nier Pas comme ce mec qui trompe sa femme Et qui dit deux jours après se dit marié Choisir ses potes et ses alliés Incomprise gros, comme une alien Jai fait des fautes, jles ai avouées Humaine est lerreur à pas oublier Jvais lâcher les hyènes Jveux du bifton dloseille Jattendrai pas que ça pète Ouais jen ai plein dans la tête Jai assez ramassé, amassé tout cque jveux cest coffrer des billets Y a des mecs biens, des mecs XXX, des rillers et des bières Trop debout jmarche sur les pointes Ils mont entendu dire cest tous des pointeurs XXX ils me pointent, ils me portent lil Ils voudraient me voir morte dans mon cercueil Peut-être que dans ma tête je nsuis pas seule Peut-être que dans la rue vaut mieux marcher seul Faut pas se laisser faire coup de laïeul Et si ça continue coup de coude dans la gueule Elle nest pas normale, me regarde bizarre Alors jdisparais, dans le blizzard Jai fait des trucs sales, jai tout donné sah Ils ont tout mangé, même pas laissé lquart Jai fait des trucs sales, jai tout donné sah Ils ont tout mangé Oh mon ami comment tu tes sali Auprès de tes amis Ils te feront la peau, à vie Tout ça pour du khalis, ouais, tout ça pour dla monnaie, ouais Tout ça pour du wali, ouais, tout ça pour des lovés, ouais Oh mon ami comment tu tes sali Auprès de tes amis Ils te feront la peau, à vie Tout ça pour du khalis, ouais, tout ça pour dla monnaie, ouais Tout ça pour du wali, ouais, tout ça pour des lovés, ouais Hood boy, hood boy, ta vie se résume à un coup d'bol Ou pas Ousmane coupable Haussmann aux stars Ou jdors ou j'taffe au chtar, bouge pas ou j't'arrose la Bouche à coups dmatraque cours pas ou jtattrape Linge sale en famille, et savon pour que ça glisse, nous savons Pour oublier, jmets lson à fond mais, pour le reste, jsuis pas con On veut la justice pour Théo pour la police, cest la 'te-hon' Tu risques de tomber très bas, donc implore la justice du Très-Haut La guerre et la paix comme jdéfais mes lacets la prochaine étape, cest sûrement lbukkake Au clair de ta lune, en vrai, on tallume, cest l'nouvel hymne du keuf dans ton quartier Jme rends compte que ma plume, maintenant, slaisse aller je fais le serrement dune addition salée Cest plus des couplets, cest des Bruce Wayne, wow pour tout le peuple, il faut qu'tout baigne Mais jmen bats les cou-couilles, demande à Keukeu ou même à Ku-Kus On nest pas teuteu, on éclate ce jeu, on nest pas dce monde, en état second, oh On étale les faits, on nest pas sectaires, vos débats précaires mont lair pas très frais Mais je laccepte à nos cerveaux, tu voudrais laccès, sinon jcrois qutu serais pas sur Insta Guette lécurie si tu mises sur un cheval aucun souci, on na pas les mains sales Gros, tes déter, jte laisse tes pilules intactes, tes tellement déchiré comme le tissu dun sac Remballe tes idées, tes bordels issus dun cul moi, jveux juste que tu mfiles une indu' Sinon jrisque de devenir instable elle a le regard qui tue, nicotine Faire en sorte de pas être pâle copie pas dPadawan, moi pas la dalle Garde ta nana, elle squatte à la table, elle tanne et elle donne, on nest pas des Elton John On prend la tangente, elle nous rattrape vu quelle a de grandes jambes A force de taxer des clopes, jai envie de la passer à tabac, donc fais-lui un câlin avant qujlui en colle une, bang Besoin de vacances, au Panam il caille sa mère On fait des vues, Dieu merci tout va bien La concu de long, on lui caillasse ses morts Nos jours heureux, on vient prendre tous les gains Jsuis Camerounais, donc indomptable Evidemment qujsuis un félin pour lhomme Mais ma chérie, sûr et certain Que toi et moi nous sommes faits lun pour lautre B-NØM est né gros dune pluie récente Mais jpeux te jurer frangin quon sera là aussi à la dernière Le talent est inné mais bellek à la XX Je travaille mes appuis on protège mes arrières Cest le moment que léquipe fasse ses preuves Aucune erreur et pas de marche arrière Rien quon sen branle des nouvelles baskets neuves Le plus important reste le bien de nos mères Jarrive en avance comme liquide séminal Pute remballe ta chatte tes pas Nicki Minaj Pas la vingtaine et je nique les méninges Jsuis toujours opé paré pour ldéminage On a des tas dlyrics, qui peuvent vous mettre tous par terre Frangin cest bien dle dire Mais mon négro faut lfaire B-NØM enfoiré1</t>
+          <t>Eh, les rappeurs, désolé, je reviens foutre la merde Jvous casse la tête pour que la tienne soit fêlée Thallucines pas, sur ton crâne, cest ma gerbe Jai chopé l'vertige, trop au-dessus d'la mêlée Mêlée, viens pas bomber le torse par ici car t'es guez Oublie, man, ou on téradique Viens pas bomber le torse, calvitie marseillaise Jsuis Zidane, tes Materazzi Du coin de lil, je regarde les cons qui me pensaient Peu doué, peut-être, jvais les écarteler, les harceler Marteler mes couplets jusqu'à leur clouer le bec Au volant de mon flow, jvais te coller au siège Moteur AMG dans la mâchoire Jai planté des clous dans les appuie-têtes Et, à la place du mort, tu vas tasseoir On est pris de court, cet pour ça quon bug Quon essaie de transformer le pire en mieux Les dialogues de sourds mènent aux violences aveugles Quand la parole est prise par les silencieux Cest la même chez toi comme chez moi Tous essaient de sen sortir par les ruses En cas dembrouille, ne jamais parler chinois Sinon Kalach' en main vont te parler russe Si le rap était mieux avant Que celui d'aujourd'hui te fait si mal Prends ta Delorean et barre-toi, dégage Et pas fais-nous chier timal Tu pensais vraiment que timpressionnes ? Ah, tu pensais vraiment faire de la tuerie ? Résultat des courses tas choqué personne Tes quun strip-tease dans un camp de naturistes Tuerie sur tuerie mais jsuis pas sur la Selecta À leurs yeux, je ne suis pas sélectionnable, jsuis R.E.D.Karim Anelka Si, depuis le début, tu n'y as jamais cru Toi non plus, ne la ramène pas Jai feinté larrivée en force pour rentrer en finesse Et puis... Panenka Imprimez L-O-R-D sur leur visage à coup de clavier AZERTY De ceux qui agissent, pas de ceux qui envisagent Le grand public en vaut dix avertis Jsuis dans le tour-bus, tes dans la tourmente, woh Leur carrière prise dans une tournante Jfais danser leur fille dans le ventre de leur mère Eux donneraient leur mère pour faire gonfler leur ventre, woh Petit prince de la trap chez les Enfoirés Jsuis le rappeur préféré du rappeur préféré du rappeur préféré dton rappeur préféré Aucun schéma complexe Leur daronne, les femmes enceintes qui boivent de la Contrex Tellement ils gesticulent ils attrapent des rhumes par les testicules Jveux pas savoir ce quils en pensent, drr Jserai ni celui trop présent ni celui dont on va moquer labsence, drr Allô Fianso jsuis venu choquer la France Jvais mourir en légende, yah, pas au fond de la rue Legendre Marianne nous prête allégeance Qui sera le premier qui lui pètera les jambes Fidèle à Mexico même avec les poings liés Trop de jeunes récessifs leur mère non éloignée Dans ma tête c'est Le Cri d'Munch, c'est la nuit étoilée Jdessine une carrière dun geste du poigné Woh, jrentre pas dans lcercle je rentre dans lhistoire Tu veux percer ? Organise-toi Jinnove tellement que mon public sy perd Très proche de mes ennemis avec lucidité Comment quantifier leur stupidité ? Leurs idoles cest les premiers rôles dans les spots publicitaires, rah Ils applaudissent par les fesses, rah Pendant qulEtat perd la face Lenfant du siècle dans ta ville Tapis rouge déroulé Ta grand-mère en sarouel Qui fume que des roulés Les hommes naissent libres et égaux en nique ta mère Mes couilles sur leur front, mes pieds sur la table Jsuis un des modèles indémodables Dans léquipe aucun mec minable Tout niquer tout niquer tout niquer Tu le ressens dans le check final LORD Rrah rrah rrah, silencieux Gang gang, eh eh Tu touches à ma madre ma queue te verra plus On a la méthode si tes trapu Jprends les décisions quand il faut cest la capi Tu retournes ta veste parce que ten as quune, clochard On sait qutes un bataradé Une balle dans lchargeur bah tas qu'à pas rater Viens faire la bagarre si on est bon quà rapper Si tu cours faut pas déraper, jte rappelle Vlà les idées malsaines poto pas d'mise en scène Les bacqueux galèrent ils nous pistent en cercle Déter' comme Oumaga Eh Ibraka calme-toi, là tu les effraies On tattrape, on te kidnappe On te met dans un cul-de-sac Le choix est crucial Tes tout nu, tas aucune sape En plus de ça tes quune salope sans courage Eh, Fianso jsuis là Mais tu sais que Clara voulait que jrentre dans son cercle Elle, sen fout de lendroit Du coup jpeux lui mettre dans sa baraque ou dans sa caisse Bref on soccupe des caméras Ça va exploser personne pourra éteindre la mèche Les deux frères ont vous oublie pas Qu'ici gros les keus-mou à Villepinte c'est pas la hess Gang gang On est les bests de cette villa On les a bus, le gobelet est vide, là Eh, on est les bests de cette villa Q.E Favelas cette année cest nous, gars Bang Tengo John j'suis l'best comme Georges boy Ouais ouais Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Ouais tu peux mcroiser dans l'périmètre Pas dans tes vieux films de série Z Jrentre dans lcercle jfais une croix dessus Tes rappeurs sont pas carrés ils seront pas quatre dessus Dans deux ans jsuis au sommet selon mes calculs Wesh on tentend pas mon gars pourquoi tu parles plus ? Alors jtraîne comme un fantôme Que dla haine dans la Phantom Jveux lchiffre daffaire de Lancôme Et que lciel soit clément comme Chantôme Ils voulaient ma peau, monter sur le bateau Déloger le capo, quon appelle El Flaco Mais cest pas possible boy On sera bien quavec le biff de LOréal Ma froideur pourrait faire apparaître des aurores boréales Wesh on est àl, tsais qujaffole les compteurs Ils sont sur répondeur, Tengo John les buts de poker Viens mtrouver dans Grinderland comme Gon Freecss ils mcréent des polémiques Jmen bats les couilles jmange des cornflakes Jsuis dans lfond du binks avec mes gars ça fait les bails Elle sdemande si cest ma queue ou lsabre laser dun Jedi Jrentre dans la mêlée gros, jsuis surentraîné pour flairer les bénéfices Complètement fêlé, mon esprit trop zélé, jvais baiser des belles métisses Jmexporte avec des escortes Fuck un dresscode gros cest QueLaNight Jperforme, jsuis en pleine forme On les baise fort, tsais quon veut la maille Marion Marion, avant qucette raciste de merde Se retrouve avec un nazillon Vas-y on flex dans son pavillon On lui fait bouffer tahj et puis prendre lavion Jaccumule tellement dforce, jallume une très grande clope, jabuse sur les plans sports Salle lugubre étrange force XXX dans lposte Moi jveux voir des bisous partout Qules djihadistes aiment les babtous Viens voir en concert on casse tout Et dtoute la planète on fera le tour Boy Tengo John j'suis l'best comme Georges Comme Georges Toc toc, y a plus quà ouvrir la porte que jentre pour tout gâter Jtransporte, le poids du déracinement Larbre est dans mon dos, god damn Jai lintention dle planter, au milieu du cercle Solide comme pyramide de Gizeh Y a que du Love, no hate Dans la lumière même au charbon, no pain no gain They be like whos that girl ? KiTa, Zion City, Suisse ma gueule Eternelle rêveuse en quête dailleurs Ma musique un vaisseau spatial, Im a moonwalker like J'flotte dans les airs à chaque note Sortes de portes par lesquelles jéchappe Aux codes, aux crades, société me dégrade Y a quun sens à la vie aller tout droit, mais elle, veut que jrétrograde Impossible que jredevienne une esclave Sous nimporte quelle forme, quitte à vivre dans une épave Jmen tape dêtre riche, jveux quon arrête de me voler Jveux plus quune justice, jveux quon arrête de mvioler ah Mémoire africaine dans les veines Jsuis une guerrière comme Okoyé sauf que jporte des dreads eh Mémoire européenne dans le veines Jsuis une reine comme Daenerys y a des flammes dans mes seizes han Gunshot, jle fais pour mexprimer, mon rap est légitime Le fait que jsois une femme na rien à faire ici Chaque syllabe transpire le taf la rage et lamour que je transcris Pégase sest envolé pour ramener une comète sur Terre 225 dans le noyeau On lappelle KT Gorique Plus dun quart de siècle au compteur, le moustique libère le gorille eh Thats how we do, Fianso Rentre, rentre dans le cercle Thats how we do KT Gorique Rentre, rentre dans le cercle Thats how we do, Africa Rentre, rentre dans le cercle Thats how we do, Switzerland Rentre, rentre dans le cercle La balle est partie, deux dans lbarillet Tout assumer gros, faut pas nier Pas comme ce mec qui trompe sa femme Et qui dit deux jours après se dit marié Choisir ses potes et ses alliés Incomprise gros, comme une alien Jai fait des fautes, jles ai avouées Humaine est lerreur à pas oublier Jvais lâcher les hyènes Jveux du bifton dloseille Jattendrai pas que ça pète Ouais jen ai plein dans la tête Jai assez ramassé, amassé tout cque jveux cest coffrer des billets Y a des mecs biens, des mecs XXX, des rillers et des bières Trop debout jmarche sur les pointes Ils mont entendu dire cest tous des pointeurs XXX ils me pointent, ils me portent lil Ils voudraient me voir morte dans mon cercueil Peut-être que dans ma tête je nsuis pas seule Peut-être que dans la rue vaut mieux marcher seul Faut pas se laisser faire coup de laïeul Et si ça continue coup de coude dans la gueule Elle nest pas normale, me regarde bizarre Alors jdisparais, dans le blizzard Jai fait des trucs sales, jai tout donné sah Ils ont tout mangé, même pas laissé lquart Jai fait des trucs sales, jai tout donné sah Ils ont tout mangé Oh mon ami comment tu tes sali Auprès de tes amis Ils te feront la peau, à vie Tout ça pour du khalis, ouais, tout ça pour dla monnaie, ouais Tout ça pour du wali, ouais, tout ça pour des lovés, ouais Oh mon ami comment tu tes sali Auprès de tes amis Ils te feront la peau, à vie Tout ça pour du khalis, ouais, tout ça pour dla monnaie, ouais Tout ça pour du wali, ouais, tout ça pour des lovés, ouais Hood boy, hood boy, ta vie se résume à un coup d'bol Ou pas Ousmane coupable Haussmann aux stars Ou jdors ou j'taffe au chtar, bouge pas ou j't'arrose la Bouche à coups dmatraque cours pas ou jtattrape Linge sale en famille, et savon pour que ça glisse, nous savons Pour oublier, jmets lson à fond mais, pour le reste, jsuis pas con On veut la justice pour Théo pour la police, cest la 'te-hon' Tu risques de tomber très bas, donc implore la justice du Très-Haut La guerre et la paix comme jdéfais mes lacets la prochaine étape, cest sûrement lbukkake Au clair de ta lune, en vrai, on tallume, cest l'nouvel hymne du keuf dans ton quartier Jme rends compte que ma plume, maintenant, slaisse aller je fais le serrement dune addition salée Cest plus des couplets, cest des Bruce Wayne, wow pour tout le peuple, il faut qu'tout baigne Mais jmen bats les cou-couilles, demande à Keukeu ou même à Ku-Kus On nest pas teuteu, on éclate ce jeu, on nest pas dce monde, en état second, oh On étale les faits, on nest pas sectaires, vos débats précaires mont lair pas très frais Mais je laccepte à nos cerveaux, tu voudrais laccès, sinon jcrois qutu serais pas sur Insta Guette lécurie si tu mises sur un cheval aucun souci, on na pas les mains sales Gros, tes déter, jte laisse tes pilules intactes, tes tellement déchiré comme le tissu dun sac Remballe tes idées, tes bordels issus dun cul moi, jveux juste que tu mfiles une indu' Sinon jrisque de devenir instable elle a le regard qui tue, nicotine Faire en sorte de pas être pâle copie pas dPadawan, moi pas la dalle Garde ta nana, elle squatte à la table, elle tanne et elle donne, on nest pas des Elton John On prend la tangente, elle nous rattrape vu quelle a de grandes jambes A force de taxer des clopes, jai envie de la passer à tabac, donc fais-lui un câlin avant qujlui en colle une, bang Besoin de vacances, au Panam il caille sa mère On fait des vues, Dieu merci tout va bien La concu de long, on lui caillasse ses morts Nos jours heureux, on vient prendre tous les gains Jsuis Camerounais, donc indomptable Evidemment qujsuis un félin pour lhomme Mais ma chérie, sûr et certain Que toi et moi nous sommes faits lun pour lautre B-NØM est né gros dune pluie récente Mais jpeux te jurer frangin quon sera là aussi à la dernière Le talent est inné mais bellek à la XX Je travaille mes appuis on protège mes arrières Cest le moment que léquipe fasse ses preuves Aucune erreur et pas de marche arrière Rien quon sen branle des nouvelles baskets neuves Le plus important reste le bien de nos mères Jarrive en avance comme liquide séminal Pute remballe ta chatte tes pas Nicki Minaj Pas la vingtaine et je nique les méninges Jsuis toujours opé paré pour ldéminage On a des tas dlyrics, qui peuvent vous mettre tous par terre Frangin cest bien dle dire Mais mon négro faut lfaire B-NØM enfoiré1</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lord Laissez place à l'enfant du siècle Check Onlynasa sera céleste Laissez place à l'enfant du siècle C'est tentant je sais j'bois du Taittinger seul J'sais même plus quoi répondre lorsque j'entends le ciel En moi, j'éteins le seum aura bleu nuit, durablement Y'a rien ni personne qui ne pourra me nuire On va les amenuir, car c'est nous l'avenir Sur la toile le talent s'étale, mental en métal J'suis entre la Lune et la Terre Dépose mon âme dans des fragments d'étoiles J'ai rien à perdre, tout à prouver Ils finiront tous par nous approuver Je demande qu'on couvre d'or Puisant toute ma confiance dans les doutes éprouvés Je remercie les cieux du pouvoir qu'ils me confèrent Y'a du génie dans les gènes Ils n'assimilent même pas la puissance De frappe de tout ce que mes confrères Comptent faire On attire les contraires, deux cent sur le compteur Ma suprématie les gêne Romanée-conti posé sur le comptoir Le goût du risque a des aspects trompeurs Demain n'est pas pire qu'hier Les planètes guident l'itinéraire On ressort du passé comme les preuves Qu'ils dissimulèrent, les neurones stimulés Bientôt les dix milles heures, on est pas similaire Faudra l'assimiler, passe quelques milliards Dans les bonnes filières Le contrat l'a stipulé, ils ne me comprendront Que dans six millénaires You might also like Va, vis, deviens je suis le maître de mon destin Deux femmes à moitié nues cuisinent de la Cocaïne dans un laboratoire clandestin L'ange sur mon épaule peut s'avérer mesquin Y'a trop d'arrogance même quand j'suis modeste 2 3 4 5, les prémices de leurs carrières s'esquintent J'ai foi en moi, j'ai foi en moi J'vois la gloire dans mes rêves prémonitoires Je livre ma vie sur disque pour charmer l'auditoire J'ai foi en moi, j'ai foi en moi Depuis qu'j'ai compris j'écrivais mon histoire Deux mains gantées sur l'volant d'l'Audi noire Pragmatique comme Palpatine J'm'arrête pas tant qu'j'ai pas le platine De l'or sur deux trois canines L'argent dort chez Palatine Je suis dans la suite yeah yeah Dans les draps d'une biélorusse J'lèverai mon verre lorsque j'aurai réussi Les deux yeux rivés vers le lustre J'attends l'appel des cieux Jeune entrepreneur ambitieux Perdu entre celui que je vois dans le miroir Et l'autre qui a pris place dans mes songes prétentieux Maître jedi en mission, fais des choix judicieux Mes rêves de grandeur voient le jour dans un cercle vicieux J'écris mon histoire et je n'suis qu'au sommaire Faut vider le Saint Graal si t'as soif de pouvoir Compose toujours plus dans le centre du trou noir Complète l'objectif, complote dans le vaisseau mère Que des célébrations dès qu'on génère un son L'auréole brille sous l'aurore boréal De retour dans le futur dans la DeLorean Je suis le meilleur de ma génération Voué à la gloire depuis l'état ftal Dans l'épicentre de lil pyramidal Onlynasa, les plus talentueux de toute la capitale Lamborghini gris métallisé La concurrence est tétanisée Back to the trap house Où le cannabis est légalisé La lumière est tamisée Et m'aide à viser mes rêves cristallisés Qui me mènent à miser, plus Ma confiance en moi est là pour m'aviser On a conscientisé que nos vies Pourraient vite être idéalisées Pragmatique comme Palpatine J'm'arrête pas tant qu'j'ai pas le platine Ma musique les réanime, la force et l'adrénaline Va, vis, deviens je suis le maître de mon destin Deux femmes à moitié nues cuisinent de la Cocaïne dans un laboratoire clandestin L'ange sur mon épaule peut s'avérer mesquin Y'a trop d'arrogance même quand j'suis modeste 2 3 4 5, les prémices de leurs carrières s'esquintent J'ai foi en moi, j'ai foi en moi J'vois la gloire dans mes rêves prémonitoires Je livre ma vie sur disque pour charmer l'auditoire J'ai foi en moi, j'ai foi en moi Depuis qu'j'ai compris j'écrivais mon histoire Deux mains gantées sur l'volant d'l'Audi noire</t>
+          <t>Lord Laissez place à l'enfant du siècle Check Onlynasa sera céleste Laissez place à l'enfant du siècle C'est tentant je sais j'bois du Taittinger seul J'sais même plus quoi répondre lorsque j'entends le ciel En moi, j'éteins le seum aura bleu nuit, durablement Y'a rien ni personne qui ne pourra me nuire On va les amenuir, car c'est nous l'avenir Sur la toile le talent s'étale, mental en métal J'suis entre la Lune et la Terre Dépose mon âme dans des fragments d'étoiles J'ai rien à perdre, tout à prouver Ils finiront tous par nous approuver Je demande qu'on couvre d'or Puisant toute ma confiance dans les doutes éprouvés Je remercie les cieux du pouvoir qu'ils me confèrent Y'a du génie dans les gènes Ils n'assimilent même pas la puissance De frappe de tout ce que mes confrères Comptent faire On attire les contraires, deux cent sur le compteur Ma suprématie les gêne Romanée-conti posé sur le comptoir Le goût du risque a des aspects trompeurs Demain n'est pas pire qu'hier Les planètes guident l'itinéraire On ressort du passé comme les preuves Qu'ils dissimulèrent, les neurones stimulés Bientôt les dix milles heures, on est pas similaire Faudra l'assimiler, passe quelques milliards Dans les bonnes filières Le contrat l'a stipulé, ils ne me comprendront Que dans six millénaires Va, vis, deviens je suis le maître de mon destin Deux femmes à moitié nues cuisinent de la Cocaïne dans un laboratoire clandestin L'ange sur mon épaule peut s'avérer mesquin Y'a trop d'arrogance même quand j'suis modeste 2 3 4 5, les prémices de leurs carrières s'esquintent J'ai foi en moi, j'ai foi en moi J'vois la gloire dans mes rêves prémonitoires Je livre ma vie sur disque pour charmer l'auditoire J'ai foi en moi, j'ai foi en moi Depuis qu'j'ai compris j'écrivais mon histoire Deux mains gantées sur l'volant d'l'Audi noire Pragmatique comme Palpatine J'm'arrête pas tant qu'j'ai pas le platine De l'or sur deux trois canines L'argent dort chez Palatine Je suis dans la suite yeah yeah Dans les draps d'une biélorusse J'lèverai mon verre lorsque j'aurai réussi Les deux yeux rivés vers le lustre J'attends l'appel des cieux Jeune entrepreneur ambitieux Perdu entre celui que je vois dans le miroir Et l'autre qui a pris place dans mes songes prétentieux Maître jedi en mission, fais des choix judicieux Mes rêves de grandeur voient le jour dans un cercle vicieux J'écris mon histoire et je n'suis qu'au sommaire Faut vider le Saint Graal si t'as soif de pouvoir Compose toujours plus dans le centre du trou noir Complète l'objectif, complote dans le vaisseau mère Que des célébrations dès qu'on génère un son L'auréole brille sous l'aurore boréal De retour dans le futur dans la DeLorean Je suis le meilleur de ma génération Voué à la gloire depuis l'état ftal Dans l'épicentre de lil pyramidal Onlynasa, les plus talentueux de toute la capitale Lamborghini gris métallisé La concurrence est tétanisée Back to the trap house Où le cannabis est légalisé La lumière est tamisée Et m'aide à viser mes rêves cristallisés Qui me mènent à miser, plus Ma confiance en moi est là pour m'aviser On a conscientisé que nos vies Pourraient vite être idéalisées Pragmatique comme Palpatine J'm'arrête pas tant qu'j'ai pas le platine Ma musique les réanime, la force et l'adrénaline Va, vis, deviens je suis le maître de mon destin Deux femmes à moitié nues cuisinent de la Cocaïne dans un laboratoire clandestin L'ange sur mon épaule peut s'avérer mesquin Y'a trop d'arrogance même quand j'suis modeste 2 3 4 5, les prémices de leurs carrières s'esquintent J'ai foi en moi, j'ai foi en moi J'vois la gloire dans mes rêves prémonitoires Je livre ma vie sur disque pour charmer l'auditoire J'ai foi en moi, j'ai foi en moi Depuis qu'j'ai compris j'écrivais mon histoire Deux mains gantées sur l'volant d'l'Audi noire</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L.O.R, L.O.R, j'suis là pour niquer vos mères À vos marques, reflets lunaires dans construction cellulaire Quand je marche, dans ma ville, ils me font des haies d'honneur Elle n'apprécie pas le goût amer que je laisse dans ses ovaires Fiston, laisse aérer le blunt, laisse une forte odeur Aqua dans l'Aventador, on vise pas le même tas d'or J'lance mon SARL, hangover dans l'Range Rover Tomb Rider me suce dans ma propriété saisonnière On m'a dit Lord toi t'es plus c'que t'étais Je suis dans l'Audi TT L.O.R.D sur OKLM, Booska-p tarabiscoté Pour l'instant je suis sous-côté Bientôt, j'dépenserai sans compter, j'suis titulaire indiscuté J'les revois qui titubèrent, j'ramène la plus bonne dans l'Uber Alors que j'connais pas cette discothèque Fuck une demande, fuck y'a des liasses dans les miennes Y'a des Pokemon dans ta pocket Si seul face au ciel Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu paieras moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'Histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque You might also like Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'vais percer plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste, rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature Lord1</t>
+          <t>L.O.R, L.O.R, j'suis là pour niquer vos mères À vos marques, reflets lunaires dans construction cellulaire Quand je marche, dans ma ville, ils me font des haies d'honneur Elle n'apprécie pas le goût amer que je laisse dans ses ovaires Fiston, laisse aérer le blunt, laisse une forte odeur Aqua dans l'Aventador, on vise pas le même tas d'or J'lance mon SARL, hangover dans l'Range Rover Tomb Rider me suce dans ma propriété saisonnière On m'a dit Lord toi t'es plus c'que t'étais Je suis dans l'Audi TT L.O.R.D sur OKLM, Booska-p tarabiscoté Pour l'instant je suis sous-côté Bientôt, j'dépenserai sans compter, j'suis titulaire indiscuté J'les revois qui titubèrent, j'ramène la plus bonne dans l'Uber Alors que j'connais pas cette discothèque Fuck une demande, fuck y'a des liasses dans les miennes Y'a des Pokemon dans ta pocket Si seul face au ciel Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu paieras moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'Histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'vais percer plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste, rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature Lord1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Les anges pleurent en silence lorsque les fleurs fanent Au sein de cette orchidée, je cueillerai l'or qui dort Dans ta rétine qui danse, j'ai vu briller cette flamme Des sentiments inodores qui traversent ton corps Éclatante, intarissable, dans l'azur méditéranéen Les regrets demeurent impérissables. Tes esquisses méditèrent En ayant que le néant comme méandre enivrant Hmm, sirène, sirène Hmm, sirène, sirène Hey, oh Oh, sirène, sirène Oh Elle était si belle ce soir de pleine lune Je verse des larmes noires elle pleure des décibels Nos espoirs font languir Oh J'te laisse croire, j'te laisse croire Les chagrins font grandir On avance à deux mais je me méfie d'elle Tu m'as trahi, comment rester fidèle ? Oh J'te laisse croire, j'te laisse croire Tes fautes te poursuivent Comme tous les rêves que l'on a pris pour cible Oh J'accomplis l'impossible Sèche ces diamants dressés sous tes sourcils On marche sur des partiels que le temps raccourcit Écoute la volonté du Ciel Et si elle veut l'ôter, rappelle-lui qu'il te guide même s'il est clair qu'il ne te fait pas toujours signe Oh Mère s'inquiète, visage marqué par le temps Pensant qu'le pire l'attend pour l'instant tous nos rêves sont portés par le vent Oh L'océan fait naître le Soleil levant Songe à tes lacunes-cunes-cunes Ici, le ciel est si rose Se reflète même dans l'écume Oh Tout en trouvant refuge dans la lumière glacée de la Lune Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Oh J'y mets toute mon âme, les veines apparentes J'rends pas fier mes parents si les cieux me condamnent Regard froid, j'te nargue pas Oh J'ressens de l'amertume quand j'vois c'que l'temps nous donne L'anxiété m'accompagne, j'ai pêché mon Père, mais la madone pardonne Neige éternelle sur les cimes des montagnes Oh Guide mon ego quand l'ange de droite l'ordonne Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Oh J'vois ton cur qui s'éparpille Je sais juste que je ne sais pas J'finirai par piller L'amertume dans tes yeux quand il s'fait tard Regard écarquillé comme un fêtard Oh J'm'écarte, j'm'écarte On a eu l'silence et t'as r'crié Elle a fait souffrir un homme, j'irai chercher le monde Oh You might also like J'me construis dans mes tares Seul depuis le départ Oh Je t'aime que si je t'en fais part Hmm, sirène, sirène Hmm, sirène, sirène Hey, oh Oh, sirène, sirène Oh4</t>
+          <t>Les anges pleurent en silence lorsque les fleurs fanent Au sein de cette orchidée, je cueillerai l'or qui dort Dans ta rétine qui danse, j'ai vu briller cette flamme Des sentiments inodores qui traversent ton corps Éclatante, intarissable, dans l'azur méditéranéen Les regrets demeurent impérissables. Tes esquisses méditèrent En ayant que le néant comme méandre enivrant Hmm, sirène, sirène Hmm, sirène, sirène Hey, oh Oh, sirène, sirène Oh Elle était si belle ce soir de pleine lune Je verse des larmes noires elle pleure des décibels Nos espoirs font languir Oh J'te laisse croire, j'te laisse croire Les chagrins font grandir On avance à deux mais je me méfie d'elle Tu m'as trahi, comment rester fidèle ? Oh J'te laisse croire, j'te laisse croire Tes fautes te poursuivent Comme tous les rêves que l'on a pris pour cible Oh J'accomplis l'impossible Sèche ces diamants dressés sous tes sourcils On marche sur des partiels que le temps raccourcit Écoute la volonté du Ciel Et si elle veut l'ôter, rappelle-lui qu'il te guide même s'il est clair qu'il ne te fait pas toujours signe Oh Mère s'inquiète, visage marqué par le temps Pensant qu'le pire l'attend pour l'instant tous nos rêves sont portés par le vent Oh L'océan fait naître le Soleil levant Songe à tes lacunes-cunes-cunes Ici, le ciel est si rose Se reflète même dans l'écume Oh Tout en trouvant refuge dans la lumière glacée de la Lune Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Oh J'y mets toute mon âme, les veines apparentes J'rends pas fier mes parents si les cieux me condamnent Regard froid, j'te nargue pas Oh J'ressens de l'amertume quand j'vois c'que l'temps nous donne L'anxiété m'accompagne, j'ai pêché mon Père, mais la madone pardonne Neige éternelle sur les cimes des montagnes Oh Guide mon ego quand l'ange de droite l'ordonne Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Oh J'vois ton cur qui s'éparpille Je sais juste que je ne sais pas J'finirai par piller L'amertume dans tes yeux quand il s'fait tard Regard écarquillé comme un fêtard Oh J'm'écarte, j'm'écarte On a eu l'silence et t'as r'crié Elle a fait souffrir un homme, j'irai chercher le monde Oh J'me construis dans mes tares Seul depuis le départ Oh Je t'aime que si je t'en fais part Hmm, sirène, sirène Hmm, sirène, sirène Hey, oh Oh, sirène, sirène Oh4</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tous les sens Mais malgré tout, tu te sens seul Dans locéan de tes connaissances Des poussières laissées sur nos lacets défaits Des manques de rigueur tout au fond de la classe Là où seuls les plus forts prennent lespace Des désolé, tu ne me fais pas assez deffet Monsieur le professeur en a marre de nos bavardages J'comprends pas pourquoi ce qui nous sépare se partage Rêve dinverser le sablier, yeah Cétait le temps des graviers Qui dit humilité, dira gloire qui succède Jrentrais de lécole, j'rêvais de connaître le succès Javais cur mort comme un pixel Maintenant, jrentre avec des rêves à mixer Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tout les sens Mais malgré tout tu te sens seul Dans locéan de tes connaissances You might also like x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers Rouge à lèvre de maman sur le verre à vin Jai poussé mes faux amis dans des vrais ravins La colère de papa raisonnait dans la cour dimmeuble Mon troisième il est ouvert si lamour me rend aveugle J't'aime un peu beaucoup le temps dun flirt sous les gargouilles Ma génération préfère levrette avant papouilles Jm'endors dans un rêve, jme réveille en sursaut Jrepense à ces années dans la tourmente Mère a mis au monde génie par césarienne Jregarde devant, je protège ses arrières Qui a dit quun petit babtou ne pouvait pas percer ? Tfacon si tu veux percer, faut savoir toucher les curs Pour pouvoir toucher les curs Faut dabord rester sincère Puis mettre un genou à terre Et ne pas tout inverser x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tous les sens Mais malgré tout tu te sens seul Dans locéan de tes connaissances x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers1</t>
+          <t>Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tous les sens Mais malgré tout, tu te sens seul Dans locéan de tes connaissances Des poussières laissées sur nos lacets défaits Des manques de rigueur tout au fond de la classe Là où seuls les plus forts prennent lespace Des désolé, tu ne me fais pas assez deffet Monsieur le professeur en a marre de nos bavardages J'comprends pas pourquoi ce qui nous sépare se partage Rêve dinverser le sablier, yeah Cétait le temps des graviers Qui dit humilité, dira gloire qui succède Jrentrais de lécole, j'rêvais de connaître le succès Javais cur mort comme un pixel Maintenant, jrentre avec des rêves à mixer Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tout les sens Mais malgré tout tu te sens seul Dans locéan de tes connaissances x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers Rouge à lèvre de maman sur le verre à vin Jai poussé mes faux amis dans des vrais ravins La colère de papa raisonnait dans la cour dimmeuble Mon troisième il est ouvert si lamour me rend aveugle J't'aime un peu beaucoup le temps dun flirt sous les gargouilles Ma génération préfère levrette avant papouilles Jm'endors dans un rêve, jme réveille en sursaut Jrepense à ces années dans la tourmente Mère a mis au monde génie par césarienne Jregarde devant, je protège ses arrières Qui a dit quun petit babtou ne pouvait pas percer ? Tfacon si tu veux percer, faut savoir toucher les curs Pour pouvoir toucher les curs Faut dabord rester sincère Puis mettre un genou à terre Et ne pas tout inverser x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers Cest lingratitude de ladolescence Quand le cur, cur, cur part dans tous les sens Mais malgré tout tu te sens seul Dans locéan de tes connaissances x2 Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Oh, oh, oh ,oh, yeah, yeah, yeah Le temps des graviers1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci Quand jlaisse mes soucis dans le motel Déjà longtemps que jai plus dcur, jrejoins les étoiles sur le rooftop Hey, jnai pas que toi dans la tête, babe Le succès va retourner ta veste, mec Jpréfère rester sur ma way Jte lai dit, ça fait longtemps qujai pas vu ma mère, hey Que jai pas fumé la verte, hey Jreste honnête, en attendant jferai jamais defforts pour être dans la tendance Je veux juste que les gens sambiancent sur ma wave Que de largent tombe du ciel, ah ouais Jamais le temps ne le fera, ouais Jamais le temps ne le fera, ouais Je sais que tu ferais tout pour quje sois le meilleur, baby Mais jreste tout le day devant la play, jattends quarrive la pay day You might also like Je saute comme Kobe si mes kho s'tapent Jai plus le temps de regarder les autres têtes sur les posters Jattends quça soit nous les re-sta Jégare les pensées sur le Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci Quand jlaisse mes soucis dans le motel Déjà longtemps que jai plus dcur, jrejoins les étoiles sur le rooftop Juste un cool kid qui tutoie les étoiles sur le toit de la ville Un cool kid, un cool kid qui attend quon étale toutes ses craintes dans le vide Hey, je ne peux pas patienter là Hey, les souvenirs coulent sur tes lèvres Hey, je npartirai pas sans tes larmes, maman me voit à la télé Jenchaine les femmes que pour l'estime, le monde est si mal mais il est cquil est Le temps change les gens mais je reste digne, cest peut-être le poids de ma destinée Désormais, javancerai sans cur, seul dans une ruelle noire Oui, jai crée lmanque, jlai pas fait cruellement Allô Nelick, Acid Rose a bien plu jcrois quon en refait une Tinquiètes LOR cest notre heure Jvois le monde, jvois la mort mais ya pas de morphine dans les mains dMorpheus Jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, menvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci, jégare les pensées sur le rooftop Et jlaisse mes soucis dans le motel, yeah Oh yeah, jégare les pensées sur le rooftop</t>
+          <t>Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci Quand jlaisse mes soucis dans le motel Déjà longtemps que jai plus dcur, jrejoins les étoiles sur le rooftop Hey, jnai pas que toi dans la tête, babe Le succès va retourner ta veste, mec Jpréfère rester sur ma way Jte lai dit, ça fait longtemps qujai pas vu ma mère, hey Que jai pas fumé la verte, hey Jreste honnête, en attendant jferai jamais defforts pour être dans la tendance Je veux juste que les gens sambiancent sur ma wave Que de largent tombe du ciel, ah ouais Jamais le temps ne le fera, ouais Jamais le temps ne le fera, ouais Je sais que tu ferais tout pour quje sois le meilleur, baby Mais jreste tout le day devant la play, jattends quarrive la pay day Je saute comme Kobe si mes kho s'tapent Jai plus le temps de regarder les autres têtes sur les posters Jattends quça soit nous les re-sta Jégare les pensées sur le Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci Quand jlaisse mes soucis dans le motel Déjà longtemps que jai plus dcur, jrejoins les étoiles sur le rooftop Juste un cool kid qui tutoie les étoiles sur le toit de la ville Un cool kid, un cool kid qui attend quon étale toutes ses craintes dans le vide Hey, je ne peux pas patienter là Hey, les souvenirs coulent sur tes lèvres Hey, je npartirai pas sans tes larmes, maman me voit à la télé Jenchaine les femmes que pour l'estime, le monde est si mal mais il est cquil est Le temps change les gens mais je reste digne, cest peut-être le poids de ma destinée Désormais, javancerai sans cur, seul dans une ruelle noire Oui, jai crée lmanque, jlai pas fait cruellement Allô Nelick, Acid Rose a bien plu jcrois quon en refait une Tinquiètes LOR cest notre heure Jvois le monde, jvois la mort mais ya pas de morphine dans les mains dMorpheus Jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, menvie de franchir un stade jsais pas si je serai à la hauteur Les pensées sur le rooftop, les soucis dans lEristoff On veut que jdevienne une star jsais pas si je serai à la hauteur Jme fais chier dans le hood, boy Jme fais chier dans lEurostar, lenvie de franchir un stade jsais pas si je serai à la hauteur Bébé, jte vois comme un souci, jégare les pensées sur le rooftop Et jlaisse mes soucis dans le motel, yeah Oh yeah, jégare les pensées sur le rooftop</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Les idéalistes pensent que leur système na pas dcarence Réveillez-vous ! Le pape raffalera à l'AK47 tous les grands patrons du CAC40 À l'autre bout du monde certains sont déjà parents J'essaye de voir plus loin qu'le rideau d'l'apparence J'me sens surveillé mais j'me censure pas Quitte à donner que des concerts vides Trop d'homme sans cervelle sont serviles Mieux vaut agiter le peuple avant de s'en servir J'tente d'repentir vite Le rideau s'ouvre sur un drame À l'heure où je parle un dictateur viole des jeunes pour se sentir vivre Laissant leurs innocences sur un drap Les immigrés ont reconstruit la France, De Gaulle fit des banlieues pour qu'on les coupe du monde Soixante ans plus tard c'est les mêmes banlieues qui ont ramené la deuxième coupe du monde Le monde court à sa perte comme l'état gabonais Premier réflexe, tu vas t'abonner si le pape agonise Mon cerveau surchauffe comme la Patagonie Ou le Cloud Google qui revend toutes nos data-données Pas de consolation La Terre meurt dans trente ans de sa propre insolation Mais ils nous poussent quand même à la consommation Dis-moi quand on verra cette folie s'arrêter Pour l'instant j'donne de mon âme à chaque prestation Les banderoles en cortège des manifestations suffisent plus pour montrer notre solidarité Y'a des hommes obèses, y'a des ours polaires squelettiques Rares sont les grands dirigeants qui savent c'qu'est l'éthique Ils s'observent séduire les foules puis reprennent les tics Plus j'grandis, moins j'comprends ce système frénétique You might also like Plus d'envies, c'est nos pubs qui te les créent Visage crispé peut plus quitter l'écran Plus d'envies, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Le vice me laisse des appels Beaucoup trop d'enfants soldats qui naissent déjà prêts Ne connaissent pas la paix Les banques américaines financèrent Hitler et son NSDAP vérité Image en noir et blanc sur musique dramatique au journal télévisé vérité Génération qui veut juste savoir si Papa Kardashian s'est déguisé vérité Superstar américaine au Louvre n'affronte même pas le regard d'Mona Lisa vérité Système qui s'auto-détruit ne pourra jamais se pérenniser vérité Ça fait 30 ans qu'on sait soigner l'cancer mais ils t'endorment tous devant Meredith Bien sur qu'ignorance n'est pas héréditaire, à quoi sert d'être érudit si j'agis pas je médite Plus d'envies, c'est nos pubs qui te les créent Visage crispé peut plus quitter l'écran Plus d'envies, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran J'recharge mon auréole dans la DeLorean Je réalise que l'futur n'est pas très coloré Que Vincent Bolloré ne fait qu'honorer l'mal Qu'L'Oréal rachète pas les aurores boréales Qu'on respecte pas la mémoire des amérindiens Qu'la deception te laisse un gout amer en bouche Qu'la plupart des humains s'contentent d'on verra bien Qu'on rigole de tout ça comme ta mère en babouches Qu'on roule en Ferrari en plein Monte-Carlo Qu'la prochaine guerre mondiale sera causée par l'eau Qu'encourager la haine, c'est l'égaler J'peux pas compter la peine, qui n'fait qu's'étaler Qu'on oublie même les tirailleurs sénégalais Qu'ont libéré le Nord-Pas-De-Calais, qui vote Front National C'est pas rationnel Si le peuple tue Marianne, parlerons nous d'un crime passionnel?2</t>
+          <t>Les idéalistes pensent que leur système na pas dcarence Réveillez-vous ! Le pape raffalera à l'AK47 tous les grands patrons du CAC40 À l'autre bout du monde certains sont déjà parents J'essaye de voir plus loin qu'le rideau d'l'apparence J'me sens surveillé mais j'me censure pas Quitte à donner que des concerts vides Trop d'homme sans cervelle sont serviles Mieux vaut agiter le peuple avant de s'en servir J'tente d'repentir vite Le rideau s'ouvre sur un drame À l'heure où je parle un dictateur viole des jeunes pour se sentir vivre Laissant leurs innocences sur un drap Les immigrés ont reconstruit la France, De Gaulle fit des banlieues pour qu'on les coupe du monde Soixante ans plus tard c'est les mêmes banlieues qui ont ramené la deuxième coupe du monde Le monde court à sa perte comme l'état gabonais Premier réflexe, tu vas t'abonner si le pape agonise Mon cerveau surchauffe comme la Patagonie Ou le Cloud Google qui revend toutes nos data-données Pas de consolation La Terre meurt dans trente ans de sa propre insolation Mais ils nous poussent quand même à la consommation Dis-moi quand on verra cette folie s'arrêter Pour l'instant j'donne de mon âme à chaque prestation Les banderoles en cortège des manifestations suffisent plus pour montrer notre solidarité Y'a des hommes obèses, y'a des ours polaires squelettiques Rares sont les grands dirigeants qui savent c'qu'est l'éthique Ils s'observent séduire les foules puis reprennent les tics Plus j'grandis, moins j'comprends ce système frénétique Plus d'envies, c'est nos pubs qui te les créent Visage crispé peut plus quitter l'écran Plus d'envies, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran Le vice me laisse des appels Beaucoup trop d'enfants soldats qui naissent déjà prêts Ne connaissent pas la paix Les banques américaines financèrent Hitler et son NSDAP vérité Image en noir et blanc sur musique dramatique au journal télévisé vérité Génération qui veut juste savoir si Papa Kardashian s'est déguisé vérité Superstar américaine au Louvre n'affronte même pas le regard d'Mona Lisa vérité Système qui s'auto-détruit ne pourra jamais se pérenniser vérité Ça fait 30 ans qu'on sait soigner l'cancer mais ils t'endorment tous devant Meredith Bien sur qu'ignorance n'est pas héréditaire, à quoi sert d'être érudit si j'agis pas je médite Plus d'envies, c'est nos pubs qui te les créent Visage crispé peut plus quitter l'écran Plus d'envies, c'est la pub qui te les crée Visage crispé peut plus quitter l'écran J'recharge mon auréole dans la DeLorean Je réalise que l'futur n'est pas très coloré Que Vincent Bolloré ne fait qu'honorer l'mal Qu'L'Oréal rachète pas les aurores boréales Qu'on respecte pas la mémoire des amérindiens Qu'la deception te laisse un gout amer en bouche Qu'la plupart des humains s'contentent d'on verra bien Qu'on rigole de tout ça comme ta mère en babouches Qu'on roule en Ferrari en plein Monte-Carlo Qu'la prochaine guerre mondiale sera causée par l'eau Qu'encourager la haine, c'est l'égaler J'peux pas compter la peine, qui n'fait qu's'étaler Qu'on oublie même les tirailleurs sénégalais Qu'ont libéré le Nord-Pas-De-Calais, qui vote Front National C'est pas rationnel Si le peuple tue Marianne, parlerons nous d'un crime passionnel?2</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Je n'ai jamais eu besoin d'acheter des vues sur Internet jamais Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître sku sku Jamais, jamais sommeil, yah Jamais, jamais sommeil, yah Parle à mon cur, parle à mon manager J'fais turn-up la ménagère, ah yah Maman m'a dit Faut pas acheter des vues jeune phénomèneyah Les labels appellent, j'leur ai lâché des vu, jamais déçu J'suis tellement fort, j'en dors mal yah J'veux 300k, c'est normal ouh Tout dirigé par leur hormone yah Prince de la trap, toujours hors norme ouh J'suis tellement fort, j'en dors mal J'ai fait la une de ton journal Leur avenir dans du formol J'suis le meilleur et c'est formel Jamais eu besoin d'acheter des vues sur Internet jamais Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître You might also like J'suis le meilleur, j'en ai le cur net La crainte que j'ai en moi m'appelle et veut renaître Je me sens comme Turner, je suis là pour turn-up J'représente ce que la jeunesse veux incarner J'vais brûler leur net, là, je suis dans burn-up J'ai fini par prendre taureau par les cornes Dans fond et forme, ils font les forts Mais j'ai toujours plus de jus à la fin du porno J'arrive premier sur la piste yah Y a que mes frères sur la liste ouh Beaucoup dorment et d'autres insistent yah J'suis pas rappeur, j'suis artiste ouh À chaque feat qui sort, j'entends des Lord, t'as tué ça sku La seule erreur d'ma carrière pas être né aux USA Je n'ai jamais eu besoin d'acheter des vues sur Internet Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître Jamais, jamais sommeil, level up, level up, level up Tout mon benef' dans une enveloppe Oui, mon réseau se développe Jamais, jamais sommeil ya Jamais, jamais sommeil ya Parle à mon cur, parle à mon manager J'fais turn-up la ménagère Je n'ai jamais eu besoin d'acheter des vues sur Internet Maman me disait Fais ton argent sans intermède Bien sûr, pour réussir, faut savoir se le permettre Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître1</t>
+          <t>Je n'ai jamais eu besoin d'acheter des vues sur Internet jamais Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître sku sku Jamais, jamais sommeil, yah Jamais, jamais sommeil, yah Parle à mon cur, parle à mon manager J'fais turn-up la ménagère, ah yah Maman m'a dit Faut pas acheter des vues jeune phénomèneyah Les labels appellent, j'leur ai lâché des vu, jamais déçu J'suis tellement fort, j'en dors mal yah J'veux 300k, c'est normal ouh Tout dirigé par leur hormone yah Prince de la trap, toujours hors norme ouh J'suis tellement fort, j'en dors mal J'ai fait la une de ton journal Leur avenir dans du formol J'suis le meilleur et c'est formel Jamais eu besoin d'acheter des vues sur Internet jamais Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître J'suis le meilleur, j'en ai le cur net La crainte que j'ai en moi m'appelle et veut renaître Je me sens comme Turner, je suis là pour turn-up J'représente ce que la jeunesse veux incarner J'vais brûler leur net, là, je suis dans burn-up J'ai fini par prendre taureau par les cornes Dans fond et forme, ils font les forts Mais j'ai toujours plus de jus à la fin du porno J'arrive premier sur la piste yah Y a que mes frères sur la liste ouh Beaucoup dorment et d'autres insistent yah J'suis pas rappeur, j'suis artiste ouh À chaque feat qui sort, j'entends des Lord, t'as tué ça sku La seule erreur d'ma carrière pas être né aux USA Je n'ai jamais eu besoin d'acheter des vues sur Internet Maman me disait Fais ton argent sans intermède fais-le Bien sûr, pour réussir, faut savoir se le permettre oui Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître Jamais, jamais sommeil, level up, level up, level up Tout mon benef' dans une enveloppe Oui, mon réseau se développe Jamais, jamais sommeil ya Jamais, jamais sommeil ya Parle à mon cur, parle à mon manager J'fais turn-up la ménagère Je n'ai jamais eu besoin d'acheter des vues sur Internet Maman me disait Fais ton argent sans intermède Bien sûr, pour réussir, faut savoir se le permettre Aucune concurrence, j'm'ennuie tellement que j'vais la faire naître1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yeah L-O L-O Sku sku Yah Ils sont dans le déni quand ils disent que je dors Sur le rap FR je ne pisse que fort Re-fré j'te la referai, j'verrai l'reflet de mon reflet dans le triple disque d'or Maman me voit sur l'écran télévisé Rien n'a changé mon art s'est pérrenisé En un claquement de doigts je les ai vu sursauter Laisse ton rappeur surcoté sur l'coté T'es R comme Etats-Unis sans puissance militaire J'suis avec Dillinger, j'efface ta dignité J'soulève ta pute et mes responsabilités-bilités J'fais l'unanimité Concurrence trime, oy Tu donnerais ton cul pour des streams, oy Ni dans la street, nie l'industrie Ta pétasse s'écarte comme les deux bras du Christ Comment veux-tu qu'on feate t'as pas d'habilité-bilité ? Tout niquer, tout niquer comme probabilité-bilité Je rentre dans une femen, j'attends les bras croisés Je vois son syndicat militer, militer Les miens fument ton sh que s'il vient du Rif Tu me fais doucement rigoler comme Sylvain Durif, L-O You might also like Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait Tous nos pogos sont savage, hey Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars J'vois tous tes gars dans la te-per yah Ils voudraient m'fermer des tes-por ouh Maintenant j'vois des fuckboys tout-par yah Youv Dee premier toute la tie-par slay J'suis dans mon délire dans mon trip ouh J'fais pas d'la trap, j'suis un rockeur ouh Zéro retard sur les ricains ah gars Tu veux un feat tu vas racker ah gars J'suis toujours sous lin, toujours sous taga Essaie pas de foutre mon briquet chacal Tous les bails sont très compliqués yah Faire des billets les dupliquer yah J'suis obligé d'mailler mailler slay La concurrence n'est pas de taille J'suis un Super Saiyan Kaïô-Ken J'ai les cheveux blancs comme Kaneki Toi tu fais du son mais qui nnait-co ? J'pense aux vieux rappeurs que j'ai niqué Ta musique n'a ni queue ni tête slay Elle approche sa tête de ma queue Slay, Youv Uzumaki J'roule que des bozos ma gueule J'suis dans sa foufoune magique Sur mon son ta pétasse s'agite Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait, hey Tous nos pogos sont savage Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage, hey Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars J'fais pas dans la dentelle j'fais pas de crari J'me balade en gang, fais pas la miss J'vais pas l'inventer, j'té-cla un grand zder J'me pavane en tête j'ai pas la trique J'écrase pas l'enfer mais j'bédave vite Des grammes avant d'dead au paradis J'lérave avant de ken, j'dérape à l'envers J'passe à lantenne, j'sais que t'analyses J'pare la tempête mais pas la pluie Je doigte ma santé, les salafistes Je froisse ta bande et les cadavrent filent J'dois m'absenter les balles arrivent T'as du mal à planter comme Cavani, mec Ça fume lafghane en clair j'ai pas d'envie Ta chute fatale en clair c'est maintenant fils Ça fume pas mal dengrais chez ma loni'zer T'as du mal à bander sur ta copine Y'a du pain à manger c'est pas joli, ouais, ouais, ouais La thune samasse en vrai j'sais pas trop qui t'es Y'a plus rien à mendier j't'ai déjà trop visser Ça pue l'taga dans l'tieks, dans la Rollie Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait, hey Tous nos pogos sont savage Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars1</t>
+          <t>Yeah L-O L-O Sku sku Yah Ils sont dans le déni quand ils disent que je dors Sur le rap FR je ne pisse que fort Re-fré j'te la referai, j'verrai l'reflet de mon reflet dans le triple disque d'or Maman me voit sur l'écran télévisé Rien n'a changé mon art s'est pérrenisé En un claquement de doigts je les ai vu sursauter Laisse ton rappeur surcoté sur l'coté T'es R comme Etats-Unis sans puissance militaire J'suis avec Dillinger, j'efface ta dignité J'soulève ta pute et mes responsabilités-bilités J'fais l'unanimité Concurrence trime, oy Tu donnerais ton cul pour des streams, oy Ni dans la street, nie l'industrie Ta pétasse s'écarte comme les deux bras du Christ Comment veux-tu qu'on feate t'as pas d'habilité-bilité ? Tout niquer, tout niquer comme probabilité-bilité Je rentre dans une femen, j'attends les bras croisés Je vois son syndicat militer, militer Les miens fument ton sh que s'il vient du Rif Tu me fais doucement rigoler comme Sylvain Durif, L-O Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait Tous nos pogos sont savage, hey Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars J'vois tous tes gars dans la te-per yah Ils voudraient m'fermer des tes-por ouh Maintenant j'vois des fuckboys tout-par yah Youv Dee premier toute la tie-par slay J'suis dans mon délire dans mon trip ouh J'fais pas d'la trap, j'suis un rockeur ouh Zéro retard sur les ricains ah gars Tu veux un feat tu vas racker ah gars J'suis toujours sous lin, toujours sous taga Essaie pas de foutre mon briquet chacal Tous les bails sont très compliqués yah Faire des billets les dupliquer yah J'suis obligé d'mailler mailler slay La concurrence n'est pas de taille J'suis un Super Saiyan Kaïô-Ken J'ai les cheveux blancs comme Kaneki Toi tu fais du son mais qui nnait-co ? J'pense aux vieux rappeurs que j'ai niqué Ta musique n'a ni queue ni tête slay Elle approche sa tête de ma queue Slay, Youv Uzumaki J'roule que des bozos ma gueule J'suis dans sa foufoune magique Sur mon son ta pétasse s'agite Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait, hey Tous nos pogos sont savage Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage, hey Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars J'fais pas dans la dentelle j'fais pas de crari J'me balade en gang, fais pas la miss J'vais pas l'inventer, j'té-cla un grand zder J'me pavane en tête j'ai pas la trique J'écrase pas l'enfer mais j'bédave vite Des grammes avant d'dead au paradis J'lérave avant de ken, j'dérape à l'envers J'passe à lantenne, j'sais que t'analyses J'pare la tempête mais pas la pluie Je doigte ma santé, les salafistes Je froisse ta bande et les cadavrent filent J'dois m'absenter les balles arrivent T'as du mal à planter comme Cavani, mec Ça fume lafghane en clair j'ai pas d'envie Ta chute fatale en clair c'est maintenant fils Ça fume pas mal dengrais chez ma loni'zer T'as du mal à bander sur ta copine Y'a du pain à manger c'est pas joli, ouais, ouais, ouais La thune samasse en vrai j'sais pas trop qui t'es Y'a plus rien à mendier j't'ai déjà trop visser Ça pue l'taga dans l'tieks, dans la Rollie Le feu noir s'éteint jamais slay Eux et nous c'est pas la même slay Futurs élus on savait, hey Tous nos pogos sont savage Le feu noir s'éteint jamais Eux et nous c'est pas la même Futurs élus on savait, hey Tous nos pogos sont savage Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium Vitesse lumière dans l'millénium, vitesse lumière dans l'millénium ah gars1</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tous dirigés pas nos choix, rien n'compte à part la transmission La ville dérobe les ambitions, la solitude nourrira les envies sombres Régis par le temps qui passe, nos peurs éraflées nous arment Nos yeux sont les reflets de nos âmes, eh Engloutis par le nouveau monde, qu'est-c'que l'histoire sans clairvoyance ? Qu'est-c'que l'humain sans sa croyance ? La nuit enneige nos héritages T'aimer qu'une seule nuit d'un amour véritable On m'a dit Méfie-toi, le paradis n'est pas inévitable Eh, ma jeunesse a la couleur de ses rêves, d'une lueur acérée Elle nourrit le monde de sa sueur en soirée Souvent peu rationnelle comme le crime passionnel d'un tueur en série Noyée dans son ombre, à quoi bon être seul face à la force du nombre ? Régis par le temps qui passe, manque d'espace La ville épie nos messes basses, alors on s'entasse Souvenirs perdus sur des vielles pellicules, bête à dire mais nous sommes guère belliqueux L'espoir m'a l'air délicat comme de vouloir guérir un cur bordélique Faudra l'rafistoler, faire grandir les âmes, un poing serré fera deux pistolets Pas si sûr qu'on trouve des réponses si les plus fous veulent brandir les armes Seras-tu là pendant la révolte car ça n'saurait tarder ? Unis dans la rébellion pour franchir la frontière de leur forêts gardées, Believe Tous les problèmes ont des solutions, la seule réponse, c'est l'évolution, pourquoi tu doutes ? Chaque forêt n'était qu'un gros buisson, les rêves font naître les révolutions, faut qu'tu t'écoutes Comprends quya pas de limite à ta grandeur, oy, le mal est en fleur Déterminé comme Black Panthers, de ta propre histoire, tu es le détenteur Priez le, priez le, priez le ciel, sueur, sang, monnaies universelles Va plus loin, faut contourner tous les pièges à loup que Lucifer scelle Si on nous épuise, nous restons, oy, les peurs s'aiguisent et s'estompent, oy Tout rêve qui se brise encaisse ton mal-être et le transforme en remise en question Change le décor de ton existence Quand ton propre destin te met des distances, fais le taire par la force, par la foi Tu n'es ni homme ni dieu, tu es les deux à la foisYou might also like3</t>
+          <t>Tous dirigés pas nos choix, rien n'compte à part la transmission La ville dérobe les ambitions, la solitude nourrira les envies sombres Régis par le temps qui passe, nos peurs éraflées nous arment Nos yeux sont les reflets de nos âmes, eh Engloutis par le nouveau monde, qu'est-c'que l'histoire sans clairvoyance ? Qu'est-c'que l'humain sans sa croyance ? La nuit enneige nos héritages T'aimer qu'une seule nuit d'un amour véritable On m'a dit Méfie-toi, le paradis n'est pas inévitable Eh, ma jeunesse a la couleur de ses rêves, d'une lueur acérée Elle nourrit le monde de sa sueur en soirée Souvent peu rationnelle comme le crime passionnel d'un tueur en série Noyée dans son ombre, à quoi bon être seul face à la force du nombre ? Régis par le temps qui passe, manque d'espace La ville épie nos messes basses, alors on s'entasse Souvenirs perdus sur des vielles pellicules, bête à dire mais nous sommes guère belliqueux L'espoir m'a l'air délicat comme de vouloir guérir un cur bordélique Faudra l'rafistoler, faire grandir les âmes, un poing serré fera deux pistolets Pas si sûr qu'on trouve des réponses si les plus fous veulent brandir les armes Seras-tu là pendant la révolte car ça n'saurait tarder ? Unis dans la rébellion pour franchir la frontière de leur forêts gardées, Believe Tous les problèmes ont des solutions, la seule réponse, c'est l'évolution, pourquoi tu doutes ? Chaque forêt n'était qu'un gros buisson, les rêves font naître les révolutions, faut qu'tu t'écoutes Comprends quya pas de limite à ta grandeur, oy, le mal est en fleur Déterminé comme Black Panthers, de ta propre histoire, tu es le détenteur Priez le, priez le, priez le ciel, sueur, sang, monnaies universelles Va plus loin, faut contourner tous les pièges à loup que Lucifer scelle Si on nous épuise, nous restons, oy, les peurs s'aiguisent et s'estompent, oy Tout rêve qui se brise encaisse ton mal-être et le transforme en remise en question Change le décor de ton existence Quand ton propre destin te met des distances, fais le taire par la force, par la foi Tu n'es ni homme ni dieu, tu es les deux à la fois3</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J'vis c'que j'rappe j'vis c'que j'rappe, j'rappe c'que j'vis j'rappe c'que j'vis J'vis c'que j'rappe j'vis c'que j'rappe, j'rappe c'que j'vis j'rappe c'que j'vis Jeune arrogant et doué, j'me sens comme Basquiat Trois fois plus fort qu'avant, jeune Lord et jeune phénomène ouh Mais je suis resté le même ouh, sauf que dorénavant, je suis fait d'or et d'argent Chérie, l'alcool réchauffera pas ton cur D'abord, on s'aime, on parle, on se quitte, puis, on pleure J'trouve pas l'bonheur dans groupie accroupie Dis-moi que faire si l'enfer, c'est les autres Triste à dire, mais j'dois faire c'fric à tout prix pour qu'on ne me regarde plus comme les autres Là, j'ai la cote, mais j'compte mes fautes J'ai pas confiance en l'homme, il peut me trahir comme le douzième apôtre Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord J'vis c'que j'rappe, j'rappe c'que j'vis J'vis c'que j'rappe, j'rappe c'que j'vis You might also like Que veux-tu que j'fasse de toi ? J'crois même pas en mon prochain yah Noir désir dans sa trachée, toi, t'es jolie comme un rêve exaucé Lord -ça va? -Yo lo sé!, avenir dans un fossé Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord Dans un concept car sur la côte, oh yeah J'bosse pour garder ma cote, oh yeah J'f'rai jamais partie d'la haute, oh yeah Le succès fait perdre des potes J'aurais pu mourir clope au bec, dans une Mercedes Jolie gueule sait faire ses dièses, hé Ils m'avaient déjà dans leur collimateur Prêt à tout pour sortir de l'anonymat J'cours après des médias qui mangeront dans ma main, fils de pute Et chaque jour que Dieu fait, j'façonne mon lendemain, j'vise le but Picasso m'aurait fait trois oreilles-eilles J'préfère être le Roi Soleil-eil J'suis dans peignoir en soie croire en soi, c'est comme changer bidonville en une suite deluxe Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres x2 Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord J'vis c'que j'rappe, j'rappe c'que j'vis J'vis c'que j'rappe, j'rappe c'que j'vis2</t>
+          <t>J'vis c'que j'rappe j'vis c'que j'rappe, j'rappe c'que j'vis j'rappe c'que j'vis J'vis c'que j'rappe j'vis c'que j'rappe, j'rappe c'que j'vis j'rappe c'que j'vis Jeune arrogant et doué, j'me sens comme Basquiat Trois fois plus fort qu'avant, jeune Lord et jeune phénomène ouh Mais je suis resté le même ouh, sauf que dorénavant, je suis fait d'or et d'argent Chérie, l'alcool réchauffera pas ton cur D'abord, on s'aime, on parle, on se quitte, puis, on pleure J'trouve pas l'bonheur dans groupie accroupie Dis-moi que faire si l'enfer, c'est les autres Triste à dire, mais j'dois faire c'fric à tout prix pour qu'on ne me regarde plus comme les autres Là, j'ai la cote, mais j'compte mes fautes J'ai pas confiance en l'homme, il peut me trahir comme le douzième apôtre Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord J'vis c'que j'rappe, j'rappe c'que j'vis J'vis c'que j'rappe, j'rappe c'que j'vis Que veux-tu que j'fasse de toi ? J'crois même pas en mon prochain yah Noir désir dans sa trachée, toi, t'es jolie comme un rêve exaucé Lord -ça va? -Yo lo sé!, avenir dans un fossé Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord Dans un concept car sur la côte, oh yeah J'bosse pour garder ma cote, oh yeah J'f'rai jamais partie d'la haute, oh yeah Le succès fait perdre des potes J'aurais pu mourir clope au bec, dans une Mercedes Jolie gueule sait faire ses dièses, hé Ils m'avaient déjà dans leur collimateur Prêt à tout pour sortir de l'anonymat J'cours après des médias qui mangeront dans ma main, fils de pute Et chaque jour que Dieu fait, j'façonne mon lendemain, j'vise le but Picasso m'aurait fait trois oreilles-eilles J'préfère être le Roi Soleil-eil J'suis dans peignoir en soie croire en soi, c'est comme changer bidonville en une suite deluxe Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres Un ange sur l'épaule de droite, yah, dix sur l'épaule de gauche On s'aime dans des rues étroites et les murs font tous partie des nôtres x2 Je veux de l'or et alors ? Lord, Lord, Lord, Lord Je veux de l'or et alors ? Lord, Lord, Lord, Lord J'vis c'que j'rappe, j'rappe c'que j'vis J'vis c'que j'rappe, j'rappe c'que j'vis2</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Oui j'me sens petit, j'me sens seul face à la taille de mes rêves Je me suis fait d'erreurs, la victoire est brave, la défaite est brève J'connais des âmes en peine que je dois fédérer Qu'importe le temps, qu'emporte le vent J'oublie l'amertume que les mois font durer Mes péchés valent peu cher, éliminez-les tous Surtout aimez les vôtres Oui j'ai mes défauts mais j'attendais juste que tu pardonnes mes fautes T'en as vu un autre puis un autre Puis tu m'as trahi comme le douzième apôtre Empêchez-la d'le faire, empêchez-la d'le faire Auuuujourd'hui encore Auuuujourd'hui encore On aurait dû rester des étrangers Le Diable rêve d'être ange Je n'vois pas d'autres enjeux, ici y'a plus d'respect On rêve de naître en joie, j'comptais pas mettre en jeu Tout c'que j'ai engrangé En moi j'entends l'enfant qui pleure, la peur fane les fleurs Ta rancoeur flâne et meurt, ton regard enflamme mon coeur J'vois des destins gâchés qui s'insèrent sur l'bitume Tu n'es qu'une incertitude dont on ressort titubant J'te laisse pas t'conforter dans ta servitude You might also like Ouuuuh, j'en ris encore Auuuujourd'hui encore</t>
+          <t>Oui j'me sens petit, j'me sens seul face à la taille de mes rêves Je me suis fait d'erreurs, la victoire est brave, la défaite est brève J'connais des âmes en peine que je dois fédérer Qu'importe le temps, qu'emporte le vent J'oublie l'amertume que les mois font durer Mes péchés valent peu cher, éliminez-les tous Surtout aimez les vôtres Oui j'ai mes défauts mais j'attendais juste que tu pardonnes mes fautes T'en as vu un autre puis un autre Puis tu m'as trahi comme le douzième apôtre Empêchez-la d'le faire, empêchez-la d'le faire Auuuujourd'hui encore Auuuujourd'hui encore On aurait dû rester des étrangers Le Diable rêve d'être ange Je n'vois pas d'autres enjeux, ici y'a plus d'respect On rêve de naître en joie, j'comptais pas mettre en jeu Tout c'que j'ai engrangé En moi j'entends l'enfant qui pleure, la peur fane les fleurs Ta rancoeur flâne et meurt, ton regard enflamme mon coeur J'vois des destins gâchés qui s'insèrent sur l'bitume Tu n'es qu'une incertitude dont on ressort titubant J'te laisse pas t'conforter dans ta servitude Ouuuuh, j'en ris encore Auuuujourd'hui encore</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Marche le cur serré, deux larmes de peine dans les globes oculaires Un désespoir tentaculaire comme pour tous ceux incarcérés Les portes se brisent, le port se lève, la voile n'est pas resserrée Jeune en perte guidé par ses rêves, fuit son destin de porcelaine Les curs sont froids, les egos cloisonnés, j'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc y a plus de pleurs que de balles, j'vais pas m'empêcher d'tout donner On passe des cernes aux rides, les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir comme une éclipse dans un ciel de cendres noires On s'envenime, ça, c'est nos vies, rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies mais ma peine s'est déversée J'me surprendrai quand je dirai merci, sisage éteint, valeur irréversible J'ai l'âme en paix mais j'fais la guerre pour m'divertir, j'allais par là, tu m'as tiré vers ci J'atteindrai diverses cibles via divers tirs, ma lune est rouge étant donné qu'j'ai tant donné Déjà tant d'années qu'j'suis condamné, ça m'pend au nez, j'envisage pas d'abandonner Cur endurci mais plein de lésions, entamé par l'poids d'mes liaisons Toutes les plaies s'adoucissent lorsqu'on laisse plus place à la raison Décisif dans mes décisions, j'ai trouvé l'bonheur dans ses yeux J'ai ressaisi mon âme embrasée dans l'tourbillon des saisons L'injustice est imbattable dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter, méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tout leur conseils, demande toi qui t'es, on s'canalise Place peu d'espoirs dans la psychanalyse Ici, c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père, demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs, j'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir, pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain, laisse concurrence en convalescence, c'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser, pas les essais condescendants, j'compte pas r'descendre J'dépeins des cendres ciel de décembre, je donnerais acte de ton décès, nature morte, toile incandescente You might also likeLord Majeur Mineur Y a pas d'perception perspicace si t'as qu'une seule perspective Seul l'amour des nôtres compte, le reste n'est pas perceptible Ma peur persiste y a trop d'épreuves que j'ai su surmonter Les anges me susurrent d'monter Les mains gantées j'ai grandi fier car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées L'argent c'est l'excrément du diable pour qui j'n'ai pas d'miséricorde L'égalité des chances provient de ce que la misère accorde L'amour est plus fort que la haine, que la colère, que la peine Faut qu'on tolère qu'nos curs polaires entacheront le ciel ébène Nos armes se taisent nos âmes se fanent, les souvenirs s'confondent et s'effacent Comme un mensonge dans l'il d'une femme quand nos visages sont face à face Les étoiles peuvent témoigner du silence entre les voyelles Le sang qui coule était royal un ange nous quitte ailes déployées Sentiments pris dans la noyade nos curs impurs sont nettoyés Mon nom gravé sur tes poignets s'demande pourquoi t'es déloyale5</t>
+          <t>Marche le cur serré, deux larmes de peine dans les globes oculaires Un désespoir tentaculaire comme pour tous ceux incarcérés Les portes se brisent, le port se lève, la voile n'est pas resserrée Jeune en perte guidé par ses rêves, fuit son destin de porcelaine Les curs sont froids, les egos cloisonnés, j'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc y a plus de pleurs que de balles, j'vais pas m'empêcher d'tout donner On passe des cernes aux rides, les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir comme une éclipse dans un ciel de cendres noires On s'envenime, ça, c'est nos vies, rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies mais ma peine s'est déversée J'me surprendrai quand je dirai merci, sisage éteint, valeur irréversible J'ai l'âme en paix mais j'fais la guerre pour m'divertir, j'allais par là, tu m'as tiré vers ci J'atteindrai diverses cibles via divers tirs, ma lune est rouge étant donné qu'j'ai tant donné Déjà tant d'années qu'j'suis condamné, ça m'pend au nez, j'envisage pas d'abandonner Cur endurci mais plein de lésions, entamé par l'poids d'mes liaisons Toutes les plaies s'adoucissent lorsqu'on laisse plus place à la raison Décisif dans mes décisions, j'ai trouvé l'bonheur dans ses yeux J'ai ressaisi mon âme embrasée dans l'tourbillon des saisons L'injustice est imbattable dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter, méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tout leur conseils, demande toi qui t'es, on s'canalise Place peu d'espoirs dans la psychanalyse Ici, c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père, demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs, j'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir, pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain, laisse concurrence en convalescence, c'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser, pas les essais condescendants, j'compte pas r'descendre J'dépeins des cendres ciel de décembre, je donnerais acte de ton décès, nature morte, toile incandescente Lord Majeur Mineur Y a pas d'perception perspicace si t'as qu'une seule perspective Seul l'amour des nôtres compte, le reste n'est pas perceptible Ma peur persiste y a trop d'épreuves que j'ai su surmonter Les anges me susurrent d'monter Les mains gantées j'ai grandi fier car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées L'argent c'est l'excrément du diable pour qui j'n'ai pas d'miséricorde L'égalité des chances provient de ce que la misère accorde L'amour est plus fort que la haine, que la colère, que la peine Faut qu'on tolère qu'nos curs polaires entacheront le ciel ébène Nos armes se taisent nos âmes se fanent, les souvenirs s'confondent et s'effacent Comme un mensonge dans l'il d'une femme quand nos visages sont face à face Les étoiles peuvent témoigner du silence entre les voyelles Le sang qui coule était royal un ange nous quitte ailes déployées Sentiments pris dans la noyade nos curs impurs sont nettoyés Mon nom gravé sur tes poignets s'demande pourquoi t'es déloyale5</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah On perd des amis par manque de dialogue On s'aime, on passe d'une vie à l'autre Mélancolie des rues sur un piano Je pense aux tiens, puis aux nôtres Le ciel est souvent noir on grandit quand laissant venir la plupart de nos souvenirs qui nous lient à l'autre Seul l'orgueil et l'espoir ruinent un homme Rêves de grandeur laissés sur la table basse Se perdent dans les nébuleuses de la calebasse Mais la fente est si fine que seul le sable passe Car le temps est esclave de l'escale des étoiles qui sesclaffent Et de ce qu'elles nous laissent voir J'me revois tenter d'te ressembler J'ai fumé mes espoirs, laissent de coté mon cur en-cendré Je regarde c'que j'accomplis et j'en suis fier Sous un soleil rougeâtre dAndalousie Nos échanges incompris s'intensifièrent, Satan c'est fait J't'ai laissé frère, j'ai souffert de ta jalousie You might also like Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu ne crois pas en moi Ouh ah, je sais que tu ne crois pas en moi Ah, je sais que tu ne crois pas en moi Ouh ah, yeah, yeah, yeah Je m'accompli si t'es Là pour faire parler ta complicité T'as ma confiance aveugle J'pourrai guider un borgne ou camoufler ses cornes pour que nos consciences passent aux aveux Peu importe le confort de la cécité On s'remémore les nécessités Conforme sur les coins des meubles On s'conforme dans l'adversité T'as su m'donner raison Grâce à toi j'comprends mieux le couple et Jatteins la floraison, pourquoi mourir naïf ? Des nuées d'horizons comme faux-frère du premier couplet Les demandes se répandent, nos deux mondes se répondent La plafond céleste nous sert de toit Je dois pousser mes rêves éclaboussés de poussières d'étoile J'regarde c'que j'accomplis et j'en suis fier Sous un éclat lunaire du Pacifique Nos deux âmes complices fuient Lucifer, comment t'laisser faire ? J'peux pas t'délaisser frère, seuls les autres disent que l'ont n'peut pas s'y fier Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu ne crois pas en moi Ouh ah, je sais que tu ne crois pas en moi Ah, je sais que tu ne crois pas en moi Ouh ah, yeah, yeah, yeah Plus envie de voir, plus envie d'savoir C'que ces âmes vont prendre A quoi bon faire tout ce chemin ? Puisqu'on ne va pas pas plus loin qu'les sourires narquois et les choix qu'on veut pas comprendre Ah, frère miroir, j'ai compris qu'il n'y a que toi pour refaire l'histoire L'âme dans une tour de fer, j'ai beau faire le tour Je ne trouvais pas mon cur dans ces sphères d'ivoire Je dois laisser l'amour agir mais l'avenir est orageux Je pleure des larmes de sang Sans stopper l'hémorragie, du mal à voir la mort agile A croire que tous les rêves se brisent les murs du décor d'argile J'me demande qui j'vois dans les yeux de ceux qui m'admirent J'me demande qui j'vois dans les fonds des cieux J'regarde c'que j'accomplis et j'en suis fier Dans les dunes quand le désert s'étend Les deux moi sont conquis, se sentent si frères qu'ils se rappellent mutuellement Que l'on a tué le manque pour l'enfant en moi qui s'exerçait tant Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu crois comme moi Ouh ah, je sais que tu crois comme moi Ah, je sais que tu crois comme moi3</t>
+          <t>Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah On perd des amis par manque de dialogue On s'aime, on passe d'une vie à l'autre Mélancolie des rues sur un piano Je pense aux tiens, puis aux nôtres Le ciel est souvent noir on grandit quand laissant venir la plupart de nos souvenirs qui nous lient à l'autre Seul l'orgueil et l'espoir ruinent un homme Rêves de grandeur laissés sur la table basse Se perdent dans les nébuleuses de la calebasse Mais la fente est si fine que seul le sable passe Car le temps est esclave de l'escale des étoiles qui sesclaffent Et de ce qu'elles nous laissent voir J'me revois tenter d'te ressembler J'ai fumé mes espoirs, laissent de coté mon cur en-cendré Je regarde c'que j'accomplis et j'en suis fier Sous un soleil rougeâtre dAndalousie Nos échanges incompris s'intensifièrent, Satan c'est fait J't'ai laissé frère, j'ai souffert de ta jalousie Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu ne crois pas en moi Ouh ah, je sais que tu ne crois pas en moi Ah, je sais que tu ne crois pas en moi Ouh ah, yeah, yeah, yeah Je m'accompli si t'es Là pour faire parler ta complicité T'as ma confiance aveugle J'pourrai guider un borgne ou camoufler ses cornes pour que nos consciences passent aux aveux Peu importe le confort de la cécité On s'remémore les nécessités Conforme sur les coins des meubles On s'conforme dans l'adversité T'as su m'donner raison Grâce à toi j'comprends mieux le couple et Jatteins la floraison, pourquoi mourir naïf ? Des nuées d'horizons comme faux-frère du premier couplet Les demandes se répandent, nos deux mondes se répondent La plafond céleste nous sert de toit Je dois pousser mes rêves éclaboussés de poussières d'étoile J'regarde c'que j'accomplis et j'en suis fier Sous un éclat lunaire du Pacifique Nos deux âmes complices fuient Lucifer, comment t'laisser faire ? J'peux pas t'délaisser frère, seuls les autres disent que l'ont n'peut pas s'y fier Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu ne crois pas en moi Ouh ah, je sais que tu ne crois pas en moi Ah, je sais que tu ne crois pas en moi Ouh ah, yeah, yeah, yeah Plus envie de voir, plus envie d'savoir C'que ces âmes vont prendre A quoi bon faire tout ce chemin ? Puisqu'on ne va pas pas plus loin qu'les sourires narquois et les choix qu'on veut pas comprendre Ah, frère miroir, j'ai compris qu'il n'y a que toi pour refaire l'histoire L'âme dans une tour de fer, j'ai beau faire le tour Je ne trouvais pas mon cur dans ces sphères d'ivoire Je dois laisser l'amour agir mais l'avenir est orageux Je pleure des larmes de sang Sans stopper l'hémorragie, du mal à voir la mort agile A croire que tous les rêves se brisent les murs du décor d'argile J'me demande qui j'vois dans les yeux de ceux qui m'admirent J'me demande qui j'vois dans les fonds des cieux J'regarde c'que j'accomplis et j'en suis fier Dans les dunes quand le désert s'étend Les deux moi sont conquis, se sentent si frères qu'ils se rappellent mutuellement Que l'on a tué le manque pour l'enfant en moi qui s'exerçait tant Oh, oh J'me suis reconnu en toi frère miroir, oh oh, yeah yeah yeah Oh oh J'aurais pu tuer pour toi frère miroir, oh, oh, yeah, yeah, yeah Ah, je sais que tu crois comme moi Ouh ah, je sais que tu crois comme moi Ah, je sais que tu crois comme moi3</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16'art urbain Parallèle Record Lord Esperanza Marche le cur serré Deux larmes de peine dans les globes oculaires Un désespoir tentaculaire Comme pour tous ceux incarcérés Les portes se brisent, le port se lève La voile n'est pas resserrée Jeune en perte guidé par ses rêves Vit son destin de porcelaine Les curs sont froids, les égos cloisonnés J'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils m'proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc il y a plus de pleurs que de balles J'vais pas m'empêcher d'tout donner On passe des cernes aux rides Les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir Comme une éclipse dans un ciel de cendres noires On s'envenime, ça c'est nos vies Rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître Mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies Mais ma peine s'est déversée J'me surprendrais quand je dirai merci Visage éteint, valeur irréversible J'ai l'âme en paix mais j'fais la guerre pour m'divertir J'allais par là, tu m'as tiré vers ci J'attendrais divers cibles via divers tirs Ma lune est rouge étant donné qu'j'ai tant donné Déjà tant d'années qu'j'suis condamné Ça m'pend au nez, j'envisage pas d'abandonner Cur endurci mais plein de lésions Entamé par l'poids d'mes liaisons Toutes les plaies s'adoucissent lorsqu'on laisse plus place à la raison Décisif dans mes décisions J'ai trouvé l'bonheur dans ses yeux J'ai ressaisi mon âme embrasée dans l'tourbillon des saisons L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'ai grandi fier, car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées LordYou might also like</t>
+          <t>16'art urbain Parallèle Record Lord Esperanza Marche le cur serré Deux larmes de peine dans les globes oculaires Un désespoir tentaculaire Comme pour tous ceux incarcérés Les portes se brisent, le port se lève La voile n'est pas resserrée Jeune en perte guidé par ses rêves Vit son destin de porcelaine Les curs sont froids, les égos cloisonnés J'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils m'proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc il y a plus de pleurs que de balles J'vais pas m'empêcher d'tout donner On passe des cernes aux rides Les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir Comme une éclipse dans un ciel de cendres noires On s'envenime, ça c'est nos vies Rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître Mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies Mais ma peine s'est déversée J'me surprendrais quand je dirai merci Visage éteint, valeur irréversible J'ai l'âme en paix mais j'fais la guerre pour m'divertir J'allais par là, tu m'as tiré vers ci J'attendrais divers cibles via divers tirs Ma lune est rouge étant donné qu'j'ai tant donné Déjà tant d'années qu'j'suis condamné Ça m'pend au nez, j'envisage pas d'abandonner Cur endurci mais plein de lésions Entamé par l'poids d'mes liaisons Toutes les plaies s'adoucissent lorsqu'on laisse plus place à la raison Décisif dans mes décisions J'ai trouvé l'bonheur dans ses yeux J'ai ressaisi mon âme embrasée dans l'tourbillon des saisons L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'ai grandi fier, car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées Lord</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-sceller God damn, dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Oui, mes mercenaires reverraient d'inverser l'aire Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure, j'persévère, Nasa gang interstellaire De Paris même jusqu'à New Delhi J'les élimine ah, ils veulent délimiter des lignes Mais l'enfant du siècle s'illumine comme lenluminure dans l'alinéa Un soir de pleine lune, où les astres s'alignent Mon ambition est planétaire tel le cartel de Medellín, ah J'étale mon art sur triptyque, fils j'ai l'équipe-type Qui kick ? Speranza, naturellement c'est sismique Ce genre de 2 mesures de démesure Haha, parait qu'ça coûte au moins 6 SMICs Les constats mentent, c'qui compte c'est l'dépassement J'ai des placements constamment en déplacement J'suis en-haut du classement, je perçois leur entassement Yeah, vêtu d'un accoutrement mystique A la fois maître de mon art et perdu dans ses artifices Un génie triste t'apporte une pierre en plus pour bâtir l'édifice Si t'écoutes tu participes, yeah Les lettres d'or du Lord s'accorde à merveille avec l'incipit Athéna ma génitrice, j'assouvis mes pensées cupides En décuplant mes bénéfices, yeah J'vois quelques étoiles dans le ciel qui nous laissent briller Ce qui m'importe c'est qu'les miens s'extirpent Tout mon talent s'exprime, où ça ? Dépeint sur les fresques intemporelles qui plafonnent la chapelle Sixtine Esquisse sur esquisse Parfait comme le maintien cyclique des astres lors d'une année bissextile Est-c'que j'surestime ? Nan J'rencontre celui qu'j'ai envie d'être en délaissant l'autre homme qui s'exile Une once de génie s'exhibe, j'exige la Présence des miens dans la Salle du Temps et de l'Esprit Je vois la Grande Ours dans le ciel donc je me laisse guider Lord Esperanza J'suis juste le babtou le plus fort de la plupart de tes négros Attiré par l'argent sale, tout c'que j'dois faire c'est d'le blanchir Oui le Lord est ténébreux, pourrait dénigrer tes négros Venu pour enclencher les enchères, il m'reste que l'Everest à franchir Ouvrir plus d'un compte en Suisse, 2-3 au Monténégro Dis-toi qu'mes parents savent même pas que je vais bâtir un empire M'écouter c'est m'adopter, c'est l'même effet que quand t'as su C'que ça faisait d's'enfumer sous bonne weed pendant qu'elle te suce Défoncé dans la piscine, sous 30 degrés Celsius On parle peu, on crache ce feu, si t'en doutes j'vais t'montrer négroYou might also like</t>
+          <t>Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-sceller God damn, dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Oui, mes mercenaires reverraient d'inverser l'aire Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure, j'persévère, Nasa gang interstellaire De Paris même jusqu'à New Delhi J'les élimine ah, ils veulent délimiter des lignes Mais l'enfant du siècle s'illumine comme lenluminure dans l'alinéa Un soir de pleine lune, où les astres s'alignent Mon ambition est planétaire tel le cartel de Medellín, ah J'étale mon art sur triptyque, fils j'ai l'équipe-type Qui kick ? Speranza, naturellement c'est sismique Ce genre de 2 mesures de démesure Haha, parait qu'ça coûte au moins 6 SMICs Les constats mentent, c'qui compte c'est l'dépassement J'ai des placements constamment en déplacement J'suis en-haut du classement, je perçois leur entassement Yeah, vêtu d'un accoutrement mystique A la fois maître de mon art et perdu dans ses artifices Un génie triste t'apporte une pierre en plus pour bâtir l'édifice Si t'écoutes tu participes, yeah Les lettres d'or du Lord s'accorde à merveille avec l'incipit Athéna ma génitrice, j'assouvis mes pensées cupides En décuplant mes bénéfices, yeah J'vois quelques étoiles dans le ciel qui nous laissent briller Ce qui m'importe c'est qu'les miens s'extirpent Tout mon talent s'exprime, où ça ? Dépeint sur les fresques intemporelles qui plafonnent la chapelle Sixtine Esquisse sur esquisse Parfait comme le maintien cyclique des astres lors d'une année bissextile Est-c'que j'surestime ? Nan J'rencontre celui qu'j'ai envie d'être en délaissant l'autre homme qui s'exile Une once de génie s'exhibe, j'exige la Présence des miens dans la Salle du Temps et de l'Esprit Je vois la Grande Ours dans le ciel donc je me laisse guider Lord Esperanza J'suis juste le babtou le plus fort de la plupart de tes négros Attiré par l'argent sale, tout c'que j'dois faire c'est d'le blanchir Oui le Lord est ténébreux, pourrait dénigrer tes négros Venu pour enclencher les enchères, il m'reste que l'Everest à franchir Ouvrir plus d'un compte en Suisse, 2-3 au Monténégro Dis-toi qu'mes parents savent même pas que je vais bâtir un empire M'écouter c'est m'adopter, c'est l'même effet que quand t'as su C'que ça faisait d's'enfumer sous bonne weed pendant qu'elle te suce Défoncé dans la piscine, sous 30 degrés Celsius On parle peu, on crache ce feu, si t'en doutes j'vais t'montrer négro</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2-3 carats sur le cadran de la Jaeger-LeCoultre Fais ton choix, crois en ça, personne ne le fera pour toi Car c'est la loi, tu vis qu'une fois donc aucune fin en soi J'suis bientôt roi et j'fais en sorte que la gloire m'ouvre ses 2 bras Hein, écris depuis le centre du trou noir On se prépare bien pour vous émouvoir J'veux voir à quoi ressemble le pouvoir Puisque pouvoir ça ressemble vouloir On inverse la tendance pour pouvoir désunir les pôles Et éblouir les comme le poids du monde sur nos épaules Le succès n'est qu'un précipice dans lequel on se précipite Déploie le plus beau saut de l'ange même si le ciel est insipide Pour ainsi dire, j'assouvis mes pensées cupides Recherche encore mes limites, le Lord est dans l'incipit Mes récits divers divergent donc j'prends le temps de récidiver Yeah, que des décisions décisives J'suis de retour vers le futur On manie l'art oratoire, vise la vie de luxure Donc dès qu'on vide lélixir, que des nouvelles mixtures Préparées avec soin dans les recoins de notre laboratoire J'm'accroche à mes rêves, j'veux graver mon nom dans l'écorce Hérité d'un patrimoine digne du crime organisé corse J'ai la force, Medusa brillera bientôt sur mon torse 200 dans le V12 donc mon désarroi s'désamorce La réussite nous scrute, qu veut-elle voir ? Un ange déchu nous guide en déployant ses 2 ailes noires Blunt de critical Prodige avant la coupure du cordon ombilical On s'est forgés dans le magma, là d'ma fenêtre J'vois qu'mon karma pénètre les rayons gamma qu'j'fais naître Et tout c'qu'il pourront dire c'est que j'ressemble au Fenek On se doit de passer maître, j'deviens celui qu'j'ai envie d'être Car l'autre ne peut pas s'aimer, le but c'est d'amasser net Avant que mama sénerve, yeah Fortune de Paulo Castellano, c'est pour mes hustlers J'crois qu'c'est l'heure hein, toile signée Pablo chez mon receleur C'est pour ça que j'persévère, Nasa gang interstellaire La musique apaise mes nerfs Lamborghini Murciélago, sache qu'on fuck un SLR J'veux pas de ta classe affaire, pas là pour sympathiser Troisième il est activé, bientôt dans mon jet privé Au pire dans une classe affaire Il était temps, j'apprends des erreurs de tous les précédents Excellence en excédent, mes mercenaires sont assidus Assis dans la Salle du Temps, placements insidieux A 16 ans j'connaissais mon art et ses antécédents La clé de sol console donc j'perds ma peur dans les consonnes En soi même les portes du succès s'ouvrent à nous dès lors qu'on y sonne Pour pouvoir toucher le soleil, faut d'abord ramper sur le sol Du Madison Square Garden à la plus petite salle de l'Essonne J'suis dans la lignée ah, de mes prédécesseurs Les signes ont déjà scellé mon sort, j'me dois de faire c'qui est nécessaire Aider mes surs, mes démons sortent animés par des idées claires Enseveli dans l'épaisseur des midichlores qui me préservent Longue traversée du désert, j'apprends à n'plus compter les heures La plume d'Aimé Césaire, les mêmes désirs que Jules César Sache que l'étau se resserre et qu'mon succès s'met en exergue Parfois la vie nous dessert mais c'est c'que le astres me réservent, ah Trop grand pour ce monde, 10 nouveaux flows par semaine Des parcelles de mon âme parcellées dans quelques étoiles Sur la toile, le talent s'étale, lumière zénithale C'est vital, un peu comme tout ce que l'chakra dévoile Plus de valeurs décimales, j'inhale la médicinale Sache que j'suis pas d'ici man, ahah Le prix d'un amour génital, cela m'est inévitable 3 carats dans l'récital donc tais-toi quand l'génie parle, chhtYou might also like</t>
+          <t>2-3 carats sur le cadran de la Jaeger-LeCoultre Fais ton choix, crois en ça, personne ne le fera pour toi Car c'est la loi, tu vis qu'une fois donc aucune fin en soi J'suis bientôt roi et j'fais en sorte que la gloire m'ouvre ses 2 bras Hein, écris depuis le centre du trou noir On se prépare bien pour vous émouvoir J'veux voir à quoi ressemble le pouvoir Puisque pouvoir ça ressemble vouloir On inverse la tendance pour pouvoir désunir les pôles Et éblouir les comme le poids du monde sur nos épaules Le succès n'est qu'un précipice dans lequel on se précipite Déploie le plus beau saut de l'ange même si le ciel est insipide Pour ainsi dire, j'assouvis mes pensées cupides Recherche encore mes limites, le Lord est dans l'incipit Mes récits divers divergent donc j'prends le temps de récidiver Yeah, que des décisions décisives J'suis de retour vers le futur On manie l'art oratoire, vise la vie de luxure Donc dès qu'on vide lélixir, que des nouvelles mixtures Préparées avec soin dans les recoins de notre laboratoire J'm'accroche à mes rêves, j'veux graver mon nom dans l'écorce Hérité d'un patrimoine digne du crime organisé corse J'ai la force, Medusa brillera bientôt sur mon torse 200 dans le V12 donc mon désarroi s'désamorce La réussite nous scrute, qu veut-elle voir ? Un ange déchu nous guide en déployant ses 2 ailes noires Blunt de critical Prodige avant la coupure du cordon ombilical On s'est forgés dans le magma, là d'ma fenêtre J'vois qu'mon karma pénètre les rayons gamma qu'j'fais naître Et tout c'qu'il pourront dire c'est que j'ressemble au Fenek On se doit de passer maître, j'deviens celui qu'j'ai envie d'être Car l'autre ne peut pas s'aimer, le but c'est d'amasser net Avant que mama sénerve, yeah Fortune de Paulo Castellano, c'est pour mes hustlers J'crois qu'c'est l'heure hein, toile signée Pablo chez mon receleur C'est pour ça que j'persévère, Nasa gang interstellaire La musique apaise mes nerfs Lamborghini Murciélago, sache qu'on fuck un SLR J'veux pas de ta classe affaire, pas là pour sympathiser Troisième il est activé, bientôt dans mon jet privé Au pire dans une classe affaire Il était temps, j'apprends des erreurs de tous les précédents Excellence en excédent, mes mercenaires sont assidus Assis dans la Salle du Temps, placements insidieux A 16 ans j'connaissais mon art et ses antécédents La clé de sol console donc j'perds ma peur dans les consonnes En soi même les portes du succès s'ouvrent à nous dès lors qu'on y sonne Pour pouvoir toucher le soleil, faut d'abord ramper sur le sol Du Madison Square Garden à la plus petite salle de l'Essonne J'suis dans la lignée ah, de mes prédécesseurs Les signes ont déjà scellé mon sort, j'me dois de faire c'qui est nécessaire Aider mes surs, mes démons sortent animés par des idées claires Enseveli dans l'épaisseur des midichlores qui me préservent Longue traversée du désert, j'apprends à n'plus compter les heures La plume d'Aimé Césaire, les mêmes désirs que Jules César Sache que l'étau se resserre et qu'mon succès s'met en exergue Parfois la vie nous dessert mais c'est c'que le astres me réservent, ah Trop grand pour ce monde, 10 nouveaux flows par semaine Des parcelles de mon âme parcellées dans quelques étoiles Sur la toile, le talent s'étale, lumière zénithale C'est vital, un peu comme tout ce que l'chakra dévoile Plus de valeurs décimales, j'inhale la médicinale Sache que j'suis pas d'ici man, ahah Le prix d'un amour génital, cela m'est inévitable 3 carats dans l'récital donc tais-toi quand l'génie parle, chht</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yeah, Lord Only Nasa mo'fucka uh Tu reconnais leur méthode Oui oui Leur méthode ? Tu la reconnais C'est dêtre des pros J'trouve des réponses à mes questions dans les tréfonds de mon âme Je sais qu'y'a qu'au succès qu'mon armée céleste se condamne Passe voir c'que les puissants font, un astre me regarde Esseulé au sommet mes sonnets proviennent tous d'un puits sans fond J'suis l'acteur de ma destinée On maintient lhégémonie, vrai maître de cérémonie L'avenir m'appartient donc il est très facile à dessiner J'dépeints des toiles complexes à estimer J'ai 2-3 théories sur la météorite Les yeux rivés vers le trône donc j'décris sans thématique J'n'ai qu'une seule problématique, devenir emblématique Prédestiné depuis Destiné Toile contemporaine intemporelle, peu tempérée Je n'ai même plus le temps pour eux car ils ne font qu'obtempérer Enjoliveurs sur l'Audi noire, mes désirs s'enjolivèrent Depuis qu'veux charmer l'auditoire, j'deviens même autoritaire Mes confrères vont t'enterrer, c'est pour toutes les âmes solitaires contemplez les Apparemment une part en moi s'est emparée des paramètres Rêve de grandeur désir primaire pas là pour être intérimaire Donc faudra rendre fier père et mère En devenant maître du périmètre Là pour y mettre ce que j'fais naître Et pour émettre ce qu'on mérite d'être yo Blunt de Jack Herer J'ignorais mes points forts maintenant j'apprends de chaque erreurs Très longue traversée du désert j'apprends à n'plus compter les heures Pour magnifier chacune d'mes uvres et leur imposer la terreur L'ascension suit sont court programmatique J'suis pragmatique Guidé par l'vent catabatique, élevé dans des sphères magmatiques Cur taillé dans un stalactite J'veux pas qu'l'avenir soit dramatique Nan nan nan, mon Naga Gang est galactique Encore un classique à mon actif, fume le chanvre indien C'est dans l'instinct qu'on voit l'instant J'me suis formé sans maintient Recueil sur la montagne magique où j'théorise tout ma pratique En isolant même la tactique Viens voir j'te montre qu'ici ça kicke La face à S-P-E-R, face à S-P-E-R 23 Carats 3, j'crois qu't'es maladroit Techniquement ce sont des professionnels Des professionnels qui ne reculent devant rien A la première fausse note, ils balancent la purée ces cons Ce qu'on fait on l'fait négro, on est professionnels ...hip hop I'm a professional J'ai pas le temps parce que j'fais mon job à plein temps ... professional style... professionnelYou might also like1</t>
+          <t>Yeah, Lord Only Nasa mo'fucka uh Tu reconnais leur méthode Oui oui Leur méthode ? Tu la reconnais C'est dêtre des pros J'trouve des réponses à mes questions dans les tréfonds de mon âme Je sais qu'y'a qu'au succès qu'mon armée céleste se condamne Passe voir c'que les puissants font, un astre me regarde Esseulé au sommet mes sonnets proviennent tous d'un puits sans fond J'suis l'acteur de ma destinée On maintient lhégémonie, vrai maître de cérémonie L'avenir m'appartient donc il est très facile à dessiner J'dépeints des toiles complexes à estimer J'ai 2-3 théories sur la météorite Les yeux rivés vers le trône donc j'décris sans thématique J'n'ai qu'une seule problématique, devenir emblématique Prédestiné depuis Destiné Toile contemporaine intemporelle, peu tempérée Je n'ai même plus le temps pour eux car ils ne font qu'obtempérer Enjoliveurs sur l'Audi noire, mes désirs s'enjolivèrent Depuis qu'veux charmer l'auditoire, j'deviens même autoritaire Mes confrères vont t'enterrer, c'est pour toutes les âmes solitaires contemplez les Apparemment une part en moi s'est emparée des paramètres Rêve de grandeur désir primaire pas là pour être intérimaire Donc faudra rendre fier père et mère En devenant maître du périmètre Là pour y mettre ce que j'fais naître Et pour émettre ce qu'on mérite d'être yo Blunt de Jack Herer J'ignorais mes points forts maintenant j'apprends de chaque erreurs Très longue traversée du désert j'apprends à n'plus compter les heures Pour magnifier chacune d'mes uvres et leur imposer la terreur L'ascension suit sont court programmatique J'suis pragmatique Guidé par l'vent catabatique, élevé dans des sphères magmatiques Cur taillé dans un stalactite J'veux pas qu'l'avenir soit dramatique Nan nan nan, mon Naga Gang est galactique Encore un classique à mon actif, fume le chanvre indien C'est dans l'instinct qu'on voit l'instant J'me suis formé sans maintient Recueil sur la montagne magique où j'théorise tout ma pratique En isolant même la tactique Viens voir j'te montre qu'ici ça kicke La face à S-P-E-R, face à S-P-E-R 23 Carats 3, j'crois qu't'es maladroit Techniquement ce sont des professionnels Des professionnels qui ne reculent devant rien A la première fausse note, ils balancent la purée ces cons Ce qu'on fait on l'fait négro, on est professionnels ...hip hop I'm a professional J'ai pas le temps parce que j'fais mon job à plein temps ... professional style... professionnel1</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gros blunt d'amnésia, mon âme hésite, amnésique J'conquis mes terres comme à Alésia et façonne ma musique Allez-y, trouvez-moi n'importe lequel qui peut rivaliser On rentre dans leur jeu pour le dévali' Leur médiocrité reflète leur manque de précision Je ne fais que des décisions décisives, han J'écoute l'oracle et ses prévisions, mojo corrosif Manteau en vison, lexcès d'confiance n'est pas encore nocif Yeah, on les rend tous unanimes et je n'compte plus Les étoiles filantes si lentes qui dansent tout en silence Dans l'immense ciel inanimé, on m'a dit Spe' élimine-les, han Yeah, j'ai fini par m'illuminer 2-3 putes de Bulgarie dans ma Bugatti mal garée Lunettes Cartier 23 carats, veau-cer dans une sphère carrée Nasa gang interstellaire, de Tokyo jusqu'à Sarcelles J'm'en sors seul, en somme c'est la musique qui m'ensorcelle Ah, des écailles sous mon épine dorsale J'ai déjà su faire briller leur ciel Yeah yeah, Onlynasa mohofuckah, han Les anges me disent, ah, qu'on va rayonner La couleur d'mes sentiments est parfois bariolée Pouvoir d'achat violet Pour posséder les clés du cheval cabré cabriolet J'aimerais mourir sur scène, pas pour m'donner en spectacle Très respectable, comme Vegeta j'suis détestable Ah, on veut des hectares et des hectares Yeah, y'a d'l'orgueil dans mon réceptacle 5 zéros sur le chèque, faut sabrer le Taittinger Jeune entrepreneur audacieux veut plus de montant 6 zéros sur le chèque, faut sabrer le Bollinger Jeune entrepreneur audacieux venu marquer son temps 9 zéros sur le chèque, j'me sens enfin soulagé J'pense à tous ces gens présents qui sont là pour m'encourager J'contrôle plus vos sentiments, j'peux pas stopper l'hémorragie J'vois tout l'amour que vous m'portez quand vous ragez, merci Soudainement, j'vois mon âme, ma vie, mes rêves et son dénouement Si dès demain, on est tous soudés devant le poids d'ma haine Ça ira mieux, en attendant j'fais du son dignement Pour qu'ils ressentent notre soulèvement J'veux savoir d'où sort mon âme et trouver l'bon discernement Décernez-moi l'honneur des heures durant J'vous prouve qu'l'écart ne ment pas, tu devrais viser la lumière Car l'enfermement de l'enfer te ment très fortement J'suis qu'à 1 d'mon chargement, au-dessus largement Inlassablement, si je dis que je n'vise pas l'or je mens J'pars en quête de ma carrière Bollinger sur la banquette arrière Frère c'qui compte c'est l'acharnement, écoute c'que mon art propage Cahier noirci page après page, enterrez l'roi dans l'sarcophage Énormément d'étoiles m'inspirent sur les routes noires du firmament Et pour l'moment, mon armurerie j'efface tous les déformements Trop d'ornements, dans la villa en bord de mer, deux bandes m'demandent Ces filles ont un corps de rêve, elles en redemandent encore demain Posé sur leur fessier, toutes mes angoisses sont effacées Sous 30 degrés, j'suis défoncé dans la piscine à débordement J'suis fait déthique, y'a du talent assaisonné Sur mon cur de glace hermétique Haha, ouais j'crois avoir assez zoné Cerveau éclectique, neurones électriques Yo, 2016, on établit la priorité, mohofuckah Han, c'est la supériorité génétique Dans ce monde tout se vend, même les âmes décimées, doucement Pour ceux qui croient pas en moi, on s'revoit dans 6 mois Mon génie sort en éclaboussements, on les couvre de semence J'reçois des applaudissements frénétiques J'me suis promis de finir riche Donc j'imagine la couleur d'l'élastique qui tiendra mes liasses Merde, 600 barils pour du plastique Millionnaire avant qu'mon fils naisse, so Élias J'ai laissé parler vu que c'était risible Lord, mon succès est prévisibleYou might also like</t>
+          <t>Gros blunt d'amnésia, mon âme hésite, amnésique J'conquis mes terres comme à Alésia et façonne ma musique Allez-y, trouvez-moi n'importe lequel qui peut rivaliser On rentre dans leur jeu pour le dévali' Leur médiocrité reflète leur manque de précision Je ne fais que des décisions décisives, han J'écoute l'oracle et ses prévisions, mojo corrosif Manteau en vison, lexcès d'confiance n'est pas encore nocif Yeah, on les rend tous unanimes et je n'compte plus Les étoiles filantes si lentes qui dansent tout en silence Dans l'immense ciel inanimé, on m'a dit Spe' élimine-les, han Yeah, j'ai fini par m'illuminer 2-3 putes de Bulgarie dans ma Bugatti mal garée Lunettes Cartier 23 carats, veau-cer dans une sphère carrée Nasa gang interstellaire, de Tokyo jusqu'à Sarcelles J'm'en sors seul, en somme c'est la musique qui m'ensorcelle Ah, des écailles sous mon épine dorsale J'ai déjà su faire briller leur ciel Yeah yeah, Onlynasa mohofuckah, han Les anges me disent, ah, qu'on va rayonner La couleur d'mes sentiments est parfois bariolée Pouvoir d'achat violet Pour posséder les clés du cheval cabré cabriolet J'aimerais mourir sur scène, pas pour m'donner en spectacle Très respectable, comme Vegeta j'suis détestable Ah, on veut des hectares et des hectares Yeah, y'a d'l'orgueil dans mon réceptacle 5 zéros sur le chèque, faut sabrer le Taittinger Jeune entrepreneur audacieux veut plus de montant 6 zéros sur le chèque, faut sabrer le Bollinger Jeune entrepreneur audacieux venu marquer son temps 9 zéros sur le chèque, j'me sens enfin soulagé J'pense à tous ces gens présents qui sont là pour m'encourager J'contrôle plus vos sentiments, j'peux pas stopper l'hémorragie J'vois tout l'amour que vous m'portez quand vous ragez, merci Soudainement, j'vois mon âme, ma vie, mes rêves et son dénouement Si dès demain, on est tous soudés devant le poids d'ma haine Ça ira mieux, en attendant j'fais du son dignement Pour qu'ils ressentent notre soulèvement J'veux savoir d'où sort mon âme et trouver l'bon discernement Décernez-moi l'honneur des heures durant J'vous prouve qu'l'écart ne ment pas, tu devrais viser la lumière Car l'enfermement de l'enfer te ment très fortement J'suis qu'à 1 d'mon chargement, au-dessus largement Inlassablement, si je dis que je n'vise pas l'or je mens J'pars en quête de ma carrière Bollinger sur la banquette arrière Frère c'qui compte c'est l'acharnement, écoute c'que mon art propage Cahier noirci page après page, enterrez l'roi dans l'sarcophage Énormément d'étoiles m'inspirent sur les routes noires du firmament Et pour l'moment, mon armurerie j'efface tous les déformements Trop d'ornements, dans la villa en bord de mer, deux bandes m'demandent Ces filles ont un corps de rêve, elles en redemandent encore demain Posé sur leur fessier, toutes mes angoisses sont effacées Sous 30 degrés, j'suis défoncé dans la piscine à débordement J'suis fait déthique, y'a du talent assaisonné Sur mon cur de glace hermétique Haha, ouais j'crois avoir assez zoné Cerveau éclectique, neurones électriques Yo, 2016, on établit la priorité, mohofuckah Han, c'est la supériorité génétique Dans ce monde tout se vend, même les âmes décimées, doucement Pour ceux qui croient pas en moi, on s'revoit dans 6 mois Mon génie sort en éclaboussements, on les couvre de semence J'reçois des applaudissements frénétiques J'me suis promis de finir riche Donc j'imagine la couleur d'l'élastique qui tiendra mes liasses Merde, 600 barils pour du plastique Millionnaire avant qu'mon fils naisse, so Élias J'ai laissé parler vu que c'était risible Lord, mon succès est prévisible</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pas de tact, toujours carte sur table Ils me connaissent, frérot, wah, demande à mes shab T'es pas de taille, sahbi, t'es qu'un détail Du haut d'la falaise, wah, khoya, j'te vois grain de sable Homie, I'm so stoned, j'vois la vie en rose J'dépends de personne, hamdullah, c'est Dieu qui donne J'crois pas en la chance, j'me relève et je fonce Middle, middle, middle finger to them hoes On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Je vois l'vigile à bout, répand le chaos d'une ville à l'autre Toujours nous pousser à consommer plus, j'emmerde la vision de Virgil Abloh J'suis bloqué dans un Lars Von Trier, l'excès d'confiance n'apporte rien J'le fais pour mes enfants tristes, le bonheur est sélectif, l'argent trie Nouvelle année, nouvel album, nouveau concert dans une salle comble Fêter ensemble sur le magnum, du mal à voir les gens dans les balcons Toute l'équipe dans l'Falcon, j'ressors du Zénith et le sol tremble En avance comme Malcolm, on investit le game et les codes changent Les acheteurs compulsifs deviennent des clients qu'ont pris l'seum La pisse du diable s'répand partout et prend la couleur Capri Sun Les visages changent devant le S aux doubles barres Crash test à toute vitesse sur l'boulevard You might also like On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Lachite 3awtani un seize, concu' en total stress Y a pas d'soucis si ça blesse, assez sombre sans complexe Techi f jibi quand ça presse, finesse quand je flex 9bel manssali faut que j'les baise B jibi full espèce Ouenza L3a9a au maximum Derhem ou leuro ghanmatchi mhoum Rap endi bhal chi quizz Dkheltou bla mangoule namasté hein Dmaghi ra masterpiece F les affaires kanmasqué les sentiments F sommet d s7ab kanvizi Kanblowi 3la 7abhoum gentiment Igo hna makinche lwa9te fuck dik Rolex I got money on my mind im going all in 7yati koulha wana mtayef il being honnest For my city for my bro's I did all this On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Il y a fort longtemps, dans les dunes éternelles du Sahara Un vieil homme touareg explique à son petit-fils que chacun de nous a en lui deux loups qui se livrent bataille. Le premier loup incarne la sérénité, l'amour et la gentillesse. Le second loup incarne l'avidité, la haine, la peur de la vieillesse. Lequel des deux loups gagne ?, demande l'enfant. Ne sont-ils pas complémentaires ? Celui que l'on nourrit, répondit le grand-père Ce monde est malade, comment veux-tu que ma folie gêne ? Les plus forts ont les os rigides, ils verront rouge pour te corriger Si tu questionnes nos origines, faut désapprendre ce qu'on nous enseigne Moi, j'porte la souffrance de mes ancêtres donc je me sens proche des aborigènes Enterrez-nous, main sur l'cur dans nos sarcophages Si t'as pas la bonne couleur, ils t'embarquent au poste Soit ils te marquent au fer, soit ils te narguent et postent Oui, on prend d'la hauteur sur les toits de la ville, toi, tu comprends quoi d'la vie ? On est tous seul face au poids d'l'avenir On pourra jamais abandonner J'suis plus dans l'rap, j'suis dans la recherche J'suis plus dans l'rap, j'suis dans la recherche</t>
+          <t>Pas de tact, toujours carte sur table Ils me connaissent, frérot, wah, demande à mes shab T'es pas de taille, sahbi, t'es qu'un détail Du haut d'la falaise, wah, khoya, j'te vois grain de sable Homie, I'm so stoned, j'vois la vie en rose J'dépends de personne, hamdullah, c'est Dieu qui donne J'crois pas en la chance, j'me relève et je fonce Middle, middle, middle finger to them hoes On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Je vois l'vigile à bout, répand le chaos d'une ville à l'autre Toujours nous pousser à consommer plus, j'emmerde la vision de Virgil Abloh J'suis bloqué dans un Lars Von Trier, l'excès d'confiance n'apporte rien J'le fais pour mes enfants tristes, le bonheur est sélectif, l'argent trie Nouvelle année, nouvel album, nouveau concert dans une salle comble Fêter ensemble sur le magnum, du mal à voir les gens dans les balcons Toute l'équipe dans l'Falcon, j'ressors du Zénith et le sol tremble En avance comme Malcolm, on investit le game et les codes changent Les acheteurs compulsifs deviennent des clients qu'ont pris l'seum La pisse du diable s'répand partout et prend la couleur Capri Sun Les visages changent devant le S aux doubles barres Crash test à toute vitesse sur l'boulevard On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Lachite 3awtani un seize, concu' en total stress Y a pas d'soucis si ça blesse, assez sombre sans complexe Techi f jibi quand ça presse, finesse quand je flex 9bel manssali faut que j'les baise B jibi full espèce Ouenza L3a9a au maximum Derhem ou leuro ghanmatchi mhoum Rap endi bhal chi quizz Dkheltou bla mangoule namasté hein Dmaghi ra masterpiece F les affaires kanmasqué les sentiments F sommet d s7ab kanvizi Kanblowi 3la 7abhoum gentiment Igo hna makinche lwa9te fuck dik Rolex I got money on my mind im going all in 7yati koulha wana mtayef il being honnest For my city for my bro's I did all this On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés On pourra jamais abandonner Plutôt mourir que de vivre plein d'regrets On pourra jamais abandonner Retraite à trente ans sous trente degrés Il y a fort longtemps, dans les dunes éternelles du Sahara Un vieil homme touareg explique à son petit-fils que chacun de nous a en lui deux loups qui se livrent bataille. Le premier loup incarne la sérénité, l'amour et la gentillesse. Le second loup incarne l'avidité, la haine, la peur de la vieillesse. Lequel des deux loups gagne ?, demande l'enfant. Ne sont-ils pas complémentaires ? Celui que l'on nourrit, répondit le grand-père Ce monde est malade, comment veux-tu que ma folie gêne ? Les plus forts ont les os rigides, ils verront rouge pour te corriger Si tu questionnes nos origines, faut désapprendre ce qu'on nous enseigne Moi, j'porte la souffrance de mes ancêtres donc je me sens proche des aborigènes Enterrez-nous, main sur l'cur dans nos sarcophages Si t'as pas la bonne couleur, ils t'embarquent au poste Soit ils te marquent au fer, soit ils te narguent et postent Oui, on prend d'la hauteur sur les toits de la ville, toi, tu comprends quoi d'la vie ? On est tous seul face au poids d'l'avenir On pourra jamais abandonner J'suis plus dans l'rap, j'suis dans la recherche J'suis plus dans l'rap, j'suis dans la recherche</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dans c'truc, on s'implique ouh J'suis dans fille de flic yeah Ouais, ouais, ouais, j'm'applique ouh Boy, ils sont tous weak yeah Je rentre dans le piège, ah J'ressors de sa ch..., ah Comment te dire que j'urine sur la plupart de leur debat LOR Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah LOR, Gucci Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah Ça fait dix ans que je rappe, yeah Je ressors d'une jeune de l'EFAP, ouh Je crache ma haine avec de l'autotune Sur vos classiques de merde de boombap, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah You might also like Ouh Verse une larme de whisky pour nos defunts Whipping whipping Zéro défaut Whipping, whipping Zéro défaite, yeah Là, j'suis dans banks, ouh Là, j'suis dans banks, yeah Là, j'suis dans banks J'arrive comme aristocrate Grosse claque sur sa fesse toute flasque Joue pas ma carrière aux cartes T'écoutes le master au casque, ouh Maitre guilloux à l'appareil Allo, Allo LOR Multiplie les droits d'auteur Disque d'or dans le RER Lord Esperanza dans ta ville, ça va fermer des culs Ouvrir des bouches, faire applaudir des pieds On m'a dit Lord toi, t'es plus ce que t'étais J'ai répondu j'suis dans l'Audi TT On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah</t>
+          <t>Dans c'truc, on s'implique ouh J'suis dans fille de flic yeah Ouais, ouais, ouais, j'm'applique ouh Boy, ils sont tous weak yeah Je rentre dans le piège, ah J'ressors de sa ch..., ah Comment te dire que j'urine sur la plupart de leur debat LOR Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah LOR, Gucci Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah Ça fait dix ans que je rappe, yeah Je ressors d'une jeune de l'EFAP, ouh Je crache ma haine avec de l'autotune Sur vos classiques de merde de boombap, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah Ouh Verse une larme de whisky pour nos defunts Whipping whipping Zéro défaut Whipping, whipping Zéro défaite, yeah Là, j'suis dans banks, ouh Là, j'suis dans banks, yeah Là, j'suis dans banks J'arrive comme aristocrate Grosse claque sur sa fesse toute flasque Joue pas ma carrière aux cartes T'écoutes le master au casque, ouh Maitre guilloux à l'appareil Allo, Allo LOR Multiplie les droits d'auteur Disque d'or dans le RER Lord Esperanza dans ta ville, ça va fermer des culs Ouvrir des bouches, faire applaudir des pieds On m'a dit Lord toi, t'es plus ce que t'étais J'ai répondu j'suis dans l'Audi TT On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tout va bien, alles klar Tout va bien, alles klar Y a rien qui passe avant l'honneur, rien qui passe avant la loyauté En haut, tu n'me verras pas fayoter Alles klar, alles klar Ah bon, l'argent fait pas l'bonheur ? J'suis amoureux de mes royautés Vie de bohème sur la Canopée Homards, olives dénoyautées Si on t'redemande, dis-leur que j'suis entre deux mondes Et que mon égo ne veut pas s'fixer Ange gardien sous masque à gaz, ma rage est morte sous asphyxie On veut s'étendre oubliant que l'espace fait qu'ça L'histoire s'écrit mieux quand l'Homme ne connaît pas l'succès Oui, mon cur s'emballe, tu sais, j'n'suis qu'un exemple de plus du Mal du siècle On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts You might also like Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ich bin mehr als sehr viel Passe deshalb nicht in deine Schublade Bin am Corner mit gen Gs, droppe ein Part alle wolln eine Zugabe Keiner Glaub bis ers sieht, Money Fame in jeder Stadt wartet Punani Von wer zur Hölle is chieff zu heute brauch ich meinen Namen nich sagen Kleinger Junge, große Träume, von gar nichts zu etwas zu heute Hunderttausend falsche Freunde gewinne damit sie enttäuscht sind Taschen sind vol wie bei Floyd, Sie hört meine Texte verbeugt sich Die Demos gepumpt in nem Gold, yeah Heute im Benz richtung Gold On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien wenn ich immer weiter mach Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien, je vais bien wenn ich immer weiter mach Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Tout va bien, alles klar, tout va bien, alles klar Tout va bien, alles klar, tout va bien, alles klar</t>
+          <t>Tout va bien, alles klar Tout va bien, alles klar Y a rien qui passe avant l'honneur, rien qui passe avant la loyauté En haut, tu n'me verras pas fayoter Alles klar, alles klar Ah bon, l'argent fait pas l'bonheur ? J'suis amoureux de mes royautés Vie de bohème sur la Canopée Homards, olives dénoyautées Si on t'redemande, dis-leur que j'suis entre deux mondes Et que mon égo ne veut pas s'fixer Ange gardien sous masque à gaz, ma rage est morte sous asphyxie On veut s'étendre oubliant que l'espace fait qu'ça L'histoire s'écrit mieux quand l'Homme ne connaît pas l'succès Oui, mon cur s'emballe, tu sais, j'n'suis qu'un exemple de plus du Mal du siècle On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ich bin mehr als sehr viel Passe deshalb nicht in deine Schublade Bin am Corner mit gen Gs, droppe ein Part alle wolln eine Zugabe Keiner Glaub bis ers sieht, Money Fame in jeder Stadt wartet Punani Von wer zur Hölle is chieff zu heute brauch ich meinen Namen nich sagen Kleinger Junge, große Träume, von gar nichts zu etwas zu heute Hunderttausend falsche Freunde gewinne damit sie enttäuscht sind Taschen sind vol wie bei Floyd, Sie hört meine Texte verbeugt sich Die Demos gepumpt in nem Gold, yeah Heute im Benz richtung Gold On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien wenn ich immer weiter mach Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien, je vais bien wenn ich immer weiter mach Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Tout va bien, alles klar, tout va bien, alles klar Tout va bien, alles klar, tout va bien, alles klar</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>'Tone, yeah, L.O Quand je monte sur scène, j'ai le cur qui s'emballe J'oublie toute la peine Nan, j'étais perdu sans toi Ghost Killer Track, mec Pourquoi compter les gouttes lors d'un jour de pluie Parle à mon chttt, mon cur est malade J'pourrais t'voir comme un amour de plus Malgré tout, j'y pense toujours depuis Joli gueule, vilain garçon, l'avenir dans mon regard sombre Sourire moqueur, on s'détruit comme des rockeurs J'suis solo, emmène-moi peu importe où ton étoile mène Apprend d'abord à t'aimer toi-même Ciel couleur ébène, douleur et peine Les hommes s'entretuent sous leur Eden Saut de l'ange pour que leur foule me retienne Les lumières s'éteignent Jette leur un regard dédaigneux Pas d'ceux qui disent que c'était mieux Seul dans le trou noir de l'amour Dis-moi si le ciel est d'accord Si ce soir est un grand jour, comment être patient dans l'couloir de la mort ? You might also like Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychiatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade Ta présence est vitale, jamais on s'abandonnera Jamais on s'abandonnera mais si je t'ai fait du mal, j'espère que tu me pardonneras J'espère que tu me pardonneras Désolé, je sais oui s'en est navrant Dorénavant, nous deux ça s'ra plus jamais comme avant Quand tu pleures en scred, j'ai le cur en miettes Quand j'entends ta voix, j'veux plus rien savoir Je sais pas l'expliquer M'offrir aux autres m'a toujours fait peur J'ai beaucoup trop de peine J'ai beaucoup trop de bobos sur le cur Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade1</t>
+          <t>'Tone, yeah, L.O Quand je monte sur scène, j'ai le cur qui s'emballe J'oublie toute la peine Nan, j'étais perdu sans toi Ghost Killer Track, mec Pourquoi compter les gouttes lors d'un jour de pluie Parle à mon chttt, mon cur est malade J'pourrais t'voir comme un amour de plus Malgré tout, j'y pense toujours depuis Joli gueule, vilain garçon, l'avenir dans mon regard sombre Sourire moqueur, on s'détruit comme des rockeurs J'suis solo, emmène-moi peu importe où ton étoile mène Apprend d'abord à t'aimer toi-même Ciel couleur ébène, douleur et peine Les hommes s'entretuent sous leur Eden Saut de l'ange pour que leur foule me retienne Les lumières s'éteignent Jette leur un regard dédaigneux Pas d'ceux qui disent que c'était mieux Seul dans le trou noir de l'amour Dis-moi si le ciel est d'accord Si ce soir est un grand jour, comment être patient dans l'couloir de la mort ? Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychiatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade Ta présence est vitale, jamais on s'abandonnera Jamais on s'abandonnera mais si je t'ai fait du mal, j'espère que tu me pardonneras J'espère que tu me pardonneras Désolé, je sais oui s'en est navrant Dorénavant, nous deux ça s'ra plus jamais comme avant Quand tu pleures en scred, j'ai le cur en miettes Quand j'entends ta voix, j'veux plus rien savoir Je sais pas l'expliquer M'offrir aux autres m'a toujours fait peur J'ai beaucoup trop de peine J'ai beaucoup trop de bobos sur le cur Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Allez, suis-nous sur la scène, faut qu'tu rejoignes le mouvement Transforme tes problèmes en rêves et regarde droit tout devant Maman m'a dit Y a des gens à éviter absolument Pour que les tempêtes de sable deviennent de simples coups de vent La vie n'est pas très câline, Instagram te pousse à garder la ligne L'horizon vient toujours après la cime, chaque jour un peu plus d'adrénaline Tout paraît simple pour l'instant Mais pour un simple regard, on te juge, tôt ou tard Ouais, tu sais, cest la jungle Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, jrends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala You might also like Miro su vacío y pienso todo me va bien Hace mucho tiempo que el rencor ya lo dejé Agradezco a mi gente y a mi vida también Cada vez más dura como tú hay más de cien Cuando estás abajo a esos fekas no les importas na Ahora que estoy escalando chico no te quiero ya El disfraz te lo puedes quitar Toda conectada esto tenía que pasar Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'rends fier les gens J'ai rien trop vu venir, on m'dit qu'c'est suffisant J'pense avoir fait le pire car c'est plus comme avant Mais on n'se plaint plus de moi comme si j'étais géant, maintenant Hasta tù, tù me dices Te gusta mas lo mío que lo que tu haces Que vendrías tu alma por un chance Bebe te tengo en la mano no menaces Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Toy corriendo atrá del money dime aver Me van a juzgar igual yo ya lo see Ahora solo busco Los billetes de cien Solo quiera que mami viva bien eh Y dime quien eres tu, y que te importa a ti Con una mami gringa viene de Miami Beach Me pongo a prender le digo keloke Conmigo no te sientes sola tu te sientes bien</t>
+          <t>Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Allez, suis-nous sur la scène, faut qu'tu rejoignes le mouvement Transforme tes problèmes en rêves et regarde droit tout devant Maman m'a dit Y a des gens à éviter absolument Pour que les tempêtes de sable deviennent de simples coups de vent La vie n'est pas très câline, Instagram te pousse à garder la ligne L'horizon vient toujours après la cime, chaque jour un peu plus d'adrénaline Tout paraît simple pour l'instant Mais pour un simple regard, on te juge, tôt ou tard Ouais, tu sais, cest la jungle Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, jrends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Miro su vacío y pienso todo me va bien Hace mucho tiempo que el rencor ya lo dejé Agradezco a mi gente y a mi vida también Cada vez más dura como tú hay más de cien Cuando estás abajo a esos fekas no les importas na Ahora que estoy escalando chico no te quiero ya El disfraz te lo puedes quitar Toda conectada esto tenía que pasar Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'rends fier les gens J'ai rien trop vu venir, on m'dit qu'c'est suffisant J'pense avoir fait le pire car c'est plus comme avant Mais on n'se plaint plus de moi comme si j'étais géant, maintenant Hasta tù, tù me dices Te gusta mas lo mío que lo que tu haces Que vendrías tu alma por un chance Bebe te tengo en la mano no menaces Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Toy corriendo atrá del money dime aver Me van a juzgar igual yo ya lo see Ahora solo busco Los billetes de cien Solo quiera que mami viva bien eh Y dime quien eres tu, y que te importa a ti Con una mami gringa viene de Miami Beach Me pongo a prender le digo keloke Conmigo no te sientes sola tu te sientes bien</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage Syndrome de l'imposteur, pourtant c'que j'ai, c'est mérité, avant les critiques, ça m'irritait J'ai passé trop d'temps à m'demander si j'allais rater, maint'nant, j'avance sans m'arrêter Pour oublier le manque qui s'install au fond des curs, on grandit avec l'égo incorporé On a fait couler d l'encre et on verse notre sueur, on donne les larmes qu'on n'a pas encore pleurées J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne-lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page tourner la page Après l'orage You might also like On a jamais succombler, ouais Concert complet, tout le vide est comblé, même si le torse est bombé, ouais Les plus grands sont ceux qu'ont déjà su tomber, ils t'regarderont ramper, ouais Profondeurs abyssales, le diable porte un costume, la plume surpasse l'épée, ouais Mais l'épée décide seule de qui tiendra la plume J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage après l'orage Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu après l'orage, ouais, ouais, ouais Après l'orage, ouais, ouais, ouais J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits Femme âgée Ah, ça je me l'demande hein, on trouve pas le mot, on trouve pas le, euh, l'histoire qui peut y avoir après. Et bah écoute, euh, y a jamais personne qui est, qui est r'venue sur Terre dire comment qu'ça se passe hein Lord Esperanza Ça c'est vrai Femme âgée C'est vrai, hein. Hum</t>
+          <t>Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage Syndrome de l'imposteur, pourtant c'que j'ai, c'est mérité, avant les critiques, ça m'irritait J'ai passé trop d'temps à m'demander si j'allais rater, maint'nant, j'avance sans m'arrêter Pour oublier le manque qui s'install au fond des curs, on grandit avec l'égo incorporé On a fait couler d l'encre et on verse notre sueur, on donne les larmes qu'on n'a pas encore pleurées J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne-lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page tourner la page Après l'orage On a jamais succombler, ouais Concert complet, tout le vide est comblé, même si le torse est bombé, ouais Les plus grands sont ceux qu'ont déjà su tomber, ils t'regarderont ramper, ouais Profondeurs abyssales, le diable porte un costume, la plume surpasse l'épée, ouais Mais l'épée décide seule de qui tiendra la plume J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage après l'orage Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu après l'orage, ouais, ouais, ouais Après l'orage, ouais, ouais, ouais J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits Femme âgée Ah, ça je me l'demande hein, on trouve pas le mot, on trouve pas le, euh, l'histoire qui peut y avoir après. Et bah écoute, euh, y a jamais personne qui est, qui est r'venue sur Terre dire comment qu'ça se passe hein Lord Esperanza Ça c'est vrai Femme âgée C'est vrai, hein. Hum</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Transcription... Au coin d'la rime, Monsieur Wish à la prod Yeah check ça yeah Tu sais les kickeurs d'aujourd'hui s'ressemblent tous On parle que de concurrence putain on est même pas foutu d'se donner un coup d'pouce Ça m'fou l'blues, y'a plus d'originalité Ouais gars t'as pas idée Moi-même mon rap est copyrighté bah ouais T'as capté la rythmique Tu veux faire un tour dans l'tur-fu En 2017 les bobos débattent de balistique On s'est tous mis à la trap alors pourquoi tu clames Que t'es pas né dans la tendance, t'attends l'retour de flamme Nan, alors casse pas les couilles et casse toi Écartez-vous j'suis à l'aise, donnez moi une phase A Que j'en fasse un classique ou bien une merde de plus A vrai dire dans la sique-mu ouais y'a pas mal de gus Donc, y'a pas d'autres choix que celui d'faire la diff' Sinon on restera en bas d'l'échelle à faire du rap pour le kiff Puis, dans le fond les deux m'conviennent Quoi qu'il advienne, j'ferais jamais la reusta Nan j'ai pas l'temps j'vis sous Carpe diem Check, j'veux pas d'une vie cadavérique En Amérique ça kick depuis des décennies donc tcheck la kass-dedi Big Up à mes frères blancs, beurs, métissés Noich' et blacko qui s'approvisionnent chez l'épicier Puis, j'en place une pour mon 7-5 Et puis peut être qu'on s'tirera, faut voir avec le destin Mais j'reste un petit con, le soir profitons du festin Si mon soce ramène un teh marocain, direct j'le test hein Ça fait gauche-droite-middle dans ta face On a... ma gueule j'cache pas qu'y'a pas d'palace On charbonne nuits et jours donc on a des cernes sur la face Samedi soir on va tiser l'mélange pourtant j'ai pas très soif On arpente les rues, on attend le bus Et gros c'est frappant même marquant ça fréquente l'instru Ouais ouais Satan c'est l'argent et les femmes quand t'as bu Attends détaillant rentrant là t'abuse gros You might also like I like your style boy, I like the way you move I like your style boy, I like the way you move, you move Jveux embarqué sur le radeau Vers un avenir radieux Monter tout droit vers les cieux Puis trouver mon eldorado Jai mis un paquet de rimes dans mon sac à dos Les astres saccadés de saké, bref Tout ce quil faut pour survivre Tout en restant un peu ivre Je ne mintéresse plus au livres Depuis que je dois écrire ma propre histoire Le rap est mon échappatoire Jpense pas finir au paradis Au pire Jdébarque au purgatoire Cest pas trop mal à ce quon ma dit Jkikerais devant léternel Mon flow est sempiternel Du haut de ma tour de Babel Je débite des décibels Bébé tu est si belle viens faire un tour a la casa du Kazam Lherbe y est plus verte qua dame Tu seras ma cathédrale madame Regarde moi tout ces rageux, je pourrais les traiter de sombres merdes Mais laisse les avec leur haine, ils sont en guerre contre eux même Ton plus grand ennemie c'est toi, comme dirait mon vieux maitre Je mimprègne du poison pour fabriquer l'bon remède J'aide toujours les gens mais, je flaire toujours les dangers J'serais toujours dérangé si c'est dans l'rang qu'on veut m'mettre J'ai des rêves, nombreux m'aident et mes frères font de même Souvent déchiré mais j'irai où le son me mène Même près des sirènes, j'roule ça mon refré j'te laisserai tirer J'ai pas l'bras long je sais j'peux qu'les étirer Mais tout ça monte, me fait de l'effet direct, tout sa monte et fait Renaitre des petits rêves, donc j'affronte ce rêve et c'est décidé, J'fais mes prières Ou que j'aille l'ombre me cerne, j'essai d'briller, mais c'est griller Tout ce que l'monde veut faire gros c'est des billets et des billets Tout s'que l'on peut faire nous c'est les piller, donc tout s'que l'on va faire nous c'est les piller, et c'est plié L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père Demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs J'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir Pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain laisse concurrence en convalescence C'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser Pas les essais condescendants, j'compte pas r'descendre J'depeins des cendres ciel de décembre Je donnerais acte de ton décès Nature morte, toile incandescente I like your style boy, I like the way you move</t>
+          <t>Transcription... Au coin d'la rime, Monsieur Wish à la prod Yeah check ça yeah Tu sais les kickeurs d'aujourd'hui s'ressemblent tous On parle que de concurrence putain on est même pas foutu d'se donner un coup d'pouce Ça m'fou l'blues, y'a plus d'originalité Ouais gars t'as pas idée Moi-même mon rap est copyrighté bah ouais T'as capté la rythmique Tu veux faire un tour dans l'tur-fu En 2017 les bobos débattent de balistique On s'est tous mis à la trap alors pourquoi tu clames Que t'es pas né dans la tendance, t'attends l'retour de flamme Nan, alors casse pas les couilles et casse toi Écartez-vous j'suis à l'aise, donnez moi une phase A Que j'en fasse un classique ou bien une merde de plus A vrai dire dans la sique-mu ouais y'a pas mal de gus Donc, y'a pas d'autres choix que celui d'faire la diff' Sinon on restera en bas d'l'échelle à faire du rap pour le kiff Puis, dans le fond les deux m'conviennent Quoi qu'il advienne, j'ferais jamais la reusta Nan j'ai pas l'temps j'vis sous Carpe diem Check, j'veux pas d'une vie cadavérique En Amérique ça kick depuis des décennies donc tcheck la kass-dedi Big Up à mes frères blancs, beurs, métissés Noich' et blacko qui s'approvisionnent chez l'épicier Puis, j'en place une pour mon 7-5 Et puis peut être qu'on s'tirera, faut voir avec le destin Mais j'reste un petit con, le soir profitons du festin Si mon soce ramène un teh marocain, direct j'le test hein Ça fait gauche-droite-middle dans ta face On a... ma gueule j'cache pas qu'y'a pas d'palace On charbonne nuits et jours donc on a des cernes sur la face Samedi soir on va tiser l'mélange pourtant j'ai pas très soif On arpente les rues, on attend le bus Et gros c'est frappant même marquant ça fréquente l'instru Ouais ouais Satan c'est l'argent et les femmes quand t'as bu Attends détaillant rentrant là t'abuse gros I like your style boy, I like the way you move I like your style boy, I like the way you move, you move Jveux embarqué sur le radeau Vers un avenir radieux Monter tout droit vers les cieux Puis trouver mon eldorado Jai mis un paquet de rimes dans mon sac à dos Les astres saccadés de saké, bref Tout ce quil faut pour survivre Tout en restant un peu ivre Je ne mintéresse plus au livres Depuis que je dois écrire ma propre histoire Le rap est mon échappatoire Jpense pas finir au paradis Au pire Jdébarque au purgatoire Cest pas trop mal à ce quon ma dit Jkikerais devant léternel Mon flow est sempiternel Du haut de ma tour de Babel Je débite des décibels Bébé tu est si belle viens faire un tour a la casa du Kazam Lherbe y est plus verte qua dame Tu seras ma cathédrale madame Regarde moi tout ces rageux, je pourrais les traiter de sombres merdes Mais laisse les avec leur haine, ils sont en guerre contre eux même Ton plus grand ennemie c'est toi, comme dirait mon vieux maitre Je mimprègne du poison pour fabriquer l'bon remède J'aide toujours les gens mais, je flaire toujours les dangers J'serais toujours dérangé si c'est dans l'rang qu'on veut m'mettre J'ai des rêves, nombreux m'aident et mes frères font de même Souvent déchiré mais j'irai où le son me mène Même près des sirènes, j'roule ça mon refré j'te laisserai tirer J'ai pas l'bras long je sais j'peux qu'les étirer Mais tout ça monte, me fait de l'effet direct, tout sa monte et fait Renaitre des petits rêves, donc j'affronte ce rêve et c'est décidé, J'fais mes prières Ou que j'aille l'ombre me cerne, j'essai d'briller, mais c'est griller Tout ce que l'monde veut faire gros c'est des billets et des billets Tout s'que l'on peut faire nous c'est les piller, donc tout s'que l'on va faire nous c'est les piller, et c'est plié L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père Demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs J'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir Pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain laisse concurrence en convalescence C'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser Pas les essais condescendants, j'compte pas r'descendre J'depeins des cendres ciel de décembre Je donnerais acte de ton décès Nature morte, toile incandescente I like your style boy, I like the way you move</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Han, Lord, mohofuckah Yo yo, au départ Yo, dans cette shit pour 2-3 millénaires Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'ai des rêves, j'les façonne, j'me donne raison d'y croire J'suis meilleur que la veille, yeah Le but c'est d'encrer son nom dans l'histoire Je me lève pour pouvoir impressionner l'miroir J'les vois tous échouer J'suis jeune, arrogant et doué Mais Dieu soit loué J'demande aux Cieux d'exaucer mes souhaits Tout c'que j'ai touché s'est transformé en or Y'a trop de mystères que je n'peux déceler Je pense à mon oncle, à son cur esseulé J't'assure qu'j'vais réussir pour honorer ta mort J'suis dans la salle des lords J'sais pas si j'construis mon futur ou si j'cours à ma perte Parfois le ciel m'attriste J'oublie mes cicatrices et songe aux âmes en peine Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être On fera couler l'encre et le sang Le temps sera témoin d'nos actes Perdu dans la tempête de sable Seul face à moi-même, je suis autodidacte Respectueux donc respectable J'vois la lumière ancestrale qui guide mes pas Mon âme est devenue spectrale Le cur meurtrit par l'amour en piteux état Mohofuckah, j'suis dans c'game Mon reflet dans l'miroir d'la suite présidentielle Hey, c'est écrit dans l'ciel Je vais marquer l'histoire tout comme l'Egypte ancienne Ok-k-k, j'suis dans c'thème L.O.R.D ou l'évidence même Et oui j'ai jugé inutile d'apporter D'l'importance à toute leur mise en scène Parlez-moi d'argent ou bien ne parlez pas J'attends toujours d'faire la fierté de mes parents Ça m'parait navrant Car la moula, ça sort et ça rentre Je veux ton or et ta rente Chacune des larmes versées parait charmante Faut pas faire pleurer sa mère Malheureusement j'ai compris ça plus récemment Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Don retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'entends tes mots Si tu veux pas mon bien, j'le ressens dans ton comportement J'm'inquiète plus des jugements qu'on porte sur moi Oui j'ai très bien compris qu'mon réconfort te manque J'ai haï relire, j'ai jeté, désormais Je suis fier de celui que je vais façonner Mais c'est pas rationnel, j'repars ovationné Ils n'sont pas si honnêtes, je suis passionné J'dois faire c'qui est nécessaire Rendre fiers mes prédécesseurs Je n'peux pas me laisser faire Le cur enfoui dans lépaisseur Lord, enfant d'la trap Léchec n'est qu'une mince hypothèse Personne ne m'incite autant Que celle que je façonne dans ma principauté 23 carats sur ma nuque Flûte de champagne dans ces beaux draps en soie Faut rester sincère pour pouvoir s'insérer Et donner vie à ses rêves, han Quitte à finir comme le Fils des Cieux Sur une croix en bois, au moins j'crois en moi Fils, ma dynastie règne Et n'se laisse pas bercer par le chant des sirènes Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être Au départ, au départ Au départ, au départ Au départ, au départ Au départ... L.O.R.D, mohofuckah Yeah, au départ L.O.R.D, une AudemarsYou might also like</t>
+          <t>Han, Lord, mohofuckah Yo yo, au départ Yo, dans cette shit pour 2-3 millénaires Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'ai des rêves, j'les façonne, j'me donne raison d'y croire J'suis meilleur que la veille, yeah Le but c'est d'encrer son nom dans l'histoire Je me lève pour pouvoir impressionner l'miroir J'les vois tous échouer J'suis jeune, arrogant et doué Mais Dieu soit loué J'demande aux Cieux d'exaucer mes souhaits Tout c'que j'ai touché s'est transformé en or Y'a trop de mystères que je n'peux déceler Je pense à mon oncle, à son cur esseulé J't'assure qu'j'vais réussir pour honorer ta mort J'suis dans la salle des lords J'sais pas si j'construis mon futur ou si j'cours à ma perte Parfois le ciel m'attriste J'oublie mes cicatrices et songe aux âmes en peine Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être On fera couler l'encre et le sang Le temps sera témoin d'nos actes Perdu dans la tempête de sable Seul face à moi-même, je suis autodidacte Respectueux donc respectable J'vois la lumière ancestrale qui guide mes pas Mon âme est devenue spectrale Le cur meurtrit par l'amour en piteux état Mohofuckah, j'suis dans c'game Mon reflet dans l'miroir d'la suite présidentielle Hey, c'est écrit dans l'ciel Je vais marquer l'histoire tout comme l'Egypte ancienne Ok-k-k, j'suis dans c'thème L.O.R.D ou l'évidence même Et oui j'ai jugé inutile d'apporter D'l'importance à toute leur mise en scène Parlez-moi d'argent ou bien ne parlez pas J'attends toujours d'faire la fierté de mes parents Ça m'parait navrant Car la moula, ça sort et ça rentre Je veux ton or et ta rente Chacune des larmes versées parait charmante Faut pas faire pleurer sa mère Malheureusement j'ai compris ça plus récemment Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Don retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'entends tes mots Si tu veux pas mon bien, j'le ressens dans ton comportement J'm'inquiète plus des jugements qu'on porte sur moi Oui j'ai très bien compris qu'mon réconfort te manque J'ai haï relire, j'ai jeté, désormais Je suis fier de celui que je vais façonner Mais c'est pas rationnel, j'repars ovationné Ils n'sont pas si honnêtes, je suis passionné J'dois faire c'qui est nécessaire Rendre fiers mes prédécesseurs Je n'peux pas me laisser faire Le cur enfoui dans lépaisseur Lord, enfant d'la trap Léchec n'est qu'une mince hypothèse Personne ne m'incite autant Que celle que je façonne dans ma principauté 23 carats sur ma nuque Flûte de champagne dans ces beaux draps en soie Faut rester sincère pour pouvoir s'insérer Et donner vie à ses rêves, han Quitte à finir comme le Fils des Cieux Sur une croix en bois, au moins j'crois en moi Fils, ma dynastie règne Et n'se laisse pas bercer par le chant des sirènes Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être Au départ, au départ Au départ, au départ Au départ, au départ Au départ... L.O.R.D, mohofuckah Yeah, au départ L.O.R.D, une Audemars</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Et qu'est-ce que ça signifie précisement Tabarnak ? Oooh Tabarnak ça veut dire ça va très bien ! Skulabanks, skulabanks Skulabanks, sha,sha,sha Moi, j'pars de rien comme Audigier, jeune lord et jeune prodige, yeah Flex, j'arrive en chaussons, fion, j'dépense chèque de caution Ils ne pourront que me haïr, tout pour mon, tout pour mon, tout pour mon gang gang J'suis dans carré, j'suis dans Shengen, ouh, chiah, olup, bang bang, skula J'ai mis ma ville sur la carte, oh yeah, j'suis dans très grand appart, woin Ancien rappeur frustré devenu chroniqueur me critique, j'en rigole quand j'me rends compte que ce soir c'est mon chauffeur Uber Sauve la France comme Umtiti, sur la concu', j'fais pipi Le monde appartient à tous les petits fils de Youtubers Jamais le boss comme le plancton, sont connus qu'au fond de leur canton Nous récoltons c'que nous plantons, je n't'aime ni toi, ni ton double menton, woh J'rentre sur Paname, j'appelle famé, drrrrrrrr, trois ans qu'c'est mon année Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks You might also like Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Je mets Québec, Montréal sur le globe, yeah, avec ma clique on level up Mixe mon sirop d'érable avec du love, mixe ta playlist française avec mon boze God damn, j'suis comme Batman, je vis la nuit dans mon penthouse Tu veux le show, c'est ten thousand, Céline Dion sur ma terrasse Cendrillon se trouve à Vegas, on s'exporte comme Audigier Yeah, si je die c'est à L.A Les haters aiment pas que je parle à ma manière, appropriation culturelle sur ma tchass Non ils veulent pas que je détruise toutes les barrières mais sont pas capables de le faire à ma place On m'a dit Dans la vie, bats-toi, Munga Zayzay, c'est le patois Pleine vitesse, tu nous rattrapes pas, 300 sur l'autoroute A3 Skula Cash, l'argent est propre, le beat est sale, Skula Banks Où sont les haters, où ? I'm on another level Tu veux que j't'appelle, J'suis au 7ème ciel, faut que tu call mon label Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Jump dans ta bitch comme sur Doodle, j'graille concu' comme noodle Tu sers à pas grand chose comme taper Google dans Google Condescendant pour m'amuser, seul dans l'garage, construis fusée Leur descendance visitera ma maison d'enfance comme un musée Poison du diable dans la bouteille, j'ai main de dieu comme Maradona J'accepte de les pardonner après les avoir marabouter Jamais eu besoin d'acheter ma notoriété, j'suis avec mes soces Maliens qui connaissent pas sobriété Maman m'a dit Faut briller, t'es fait pour appart' haussmanien Golden Globe, ils veulent Gangnam style Désolé les gars mais on fait pas l'même bail Tu parles sur moi, continue, merci On s'est connus, j'avais r' en poche Si t'étais vif, tu serais rester proche pour faire la première partie de mon Bercy Je suis avec Mims au Mexique dans une Lexus Chaîne Paramour sur le plexus Brûle ton nexus, le vice mexcite Tous ces pédés sont dyslexiques Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Ça sera quand l'été indien à peu près ? Selon vous ? Comâ ?! Quand tu te cognes sur le pouce avec un marteau Au lieu de crier Maman, tu dis Tabarnak ! Que ça fait mal !</t>
+          <t>Et qu'est-ce que ça signifie précisement Tabarnak ? Oooh Tabarnak ça veut dire ça va très bien ! Skulabanks, skulabanks Skulabanks, sha,sha,sha Moi, j'pars de rien comme Audigier, jeune lord et jeune prodige, yeah Flex, j'arrive en chaussons, fion, j'dépense chèque de caution Ils ne pourront que me haïr, tout pour mon, tout pour mon, tout pour mon gang gang J'suis dans carré, j'suis dans Shengen, ouh, chiah, olup, bang bang, skula J'ai mis ma ville sur la carte, oh yeah, j'suis dans très grand appart, woin Ancien rappeur frustré devenu chroniqueur me critique, j'en rigole quand j'me rends compte que ce soir c'est mon chauffeur Uber Sauve la France comme Umtiti, sur la concu', j'fais pipi Le monde appartient à tous les petits fils de Youtubers Jamais le boss comme le plancton, sont connus qu'au fond de leur canton Nous récoltons c'que nous plantons, je n't'aime ni toi, ni ton double menton, woh J'rentre sur Paname, j'appelle famé, drrrrrrrr, trois ans qu'c'est mon année Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Je mets Québec, Montréal sur le globe, yeah, avec ma clique on level up Mixe mon sirop d'érable avec du love, mixe ta playlist française avec mon boze God damn, j'suis comme Batman, je vis la nuit dans mon penthouse Tu veux le show, c'est ten thousand, Céline Dion sur ma terrasse Cendrillon se trouve à Vegas, on s'exporte comme Audigier Yeah, si je die c'est à L.A Les haters aiment pas que je parle à ma manière, appropriation culturelle sur ma tchass Non ils veulent pas que je détruise toutes les barrières mais sont pas capables de le faire à ma place On m'a dit Dans la vie, bats-toi, Munga Zayzay, c'est le patois Pleine vitesse, tu nous rattrapes pas, 300 sur l'autoroute A3 Skula Cash, l'argent est propre, le beat est sale, Skula Banks Où sont les haters, où ? I'm on another level Tu veux que j't'appelle, J'suis au 7ème ciel, faut que tu call mon label Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Jump dans ta bitch comme sur Doodle, j'graille concu' comme noodle Tu sers à pas grand chose comme taper Google dans Google Condescendant pour m'amuser, seul dans l'garage, construis fusée Leur descendance visitera ma maison d'enfance comme un musée Poison du diable dans la bouteille, j'ai main de dieu comme Maradona J'accepte de les pardonner après les avoir marabouter Jamais eu besoin d'acheter ma notoriété, j'suis avec mes soces Maliens qui connaissent pas sobriété Maman m'a dit Faut briller, t'es fait pour appart' haussmanien Golden Globe, ils veulent Gangnam style Désolé les gars mais on fait pas l'même bail Tu parles sur moi, continue, merci On s'est connus, j'avais r' en poche Si t'étais vif, tu serais rester proche pour faire la première partie de mon Bercy Je suis avec Mims au Mexique dans une Lexus Chaîne Paramour sur le plexus Brûle ton nexus, le vice mexcite Tous ces pédés sont dyslexiques Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Ça sera quand l'été indien à peu près ? Selon vous ? Comâ ?! Quand tu te cognes sur le pouce avec un marteau Au lieu de crier Maman, tu dis Tabarnak ! Que ça fait mal !</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Le roi est mort, vive le prince J'pourrais pas trahir mes principes J'sais pas quand on m'posera l'linceul Mais j'sais qu'j'ai choisi d'naître ainsi J'm'arrêterais pas avant d'être assis Sur le fauteuil d'El Atrassi ou de Laurent Ruquier Tu serais surpris de voir que pour de l'or en lingot même des tétraplégiques deviennent forts en lutte, yeah J'ai valeur humaine j'ai valeur pécuniaire moi je mens qu'aux mien comme Erico Mancunien ? Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vent plus rien Le but c'est d'passer du contrôle d'identité au contrôle fiscal Plus didole, la seule drogue qui m'calme C'est mes rêves que j'copie-colle Dieu est grand, Dieu est grand, Dieu est grand J'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma Mourir jeune comme dans les années 70 Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Poser de l'or sur le cou de la génitrice J'peux pas l'faire tout seul j'remercie les reufs A quoi bon être imbécile heureux Le temps dira si j'suis un génie triste 300 k-m-h sur l'avenue Montaigne j'suis en siège éjectable Le paradoxe c'est que même sur du vingt ans d'âge le bouchon d'liège est jetable Les amis jaloux deviennent sourds et muets Pourquoi leur donner ma confiance aveuglément Les nerfs en acier quand j'parle avec les morts J'veux que de la feuille d'or pour mon ameublement Moi j'suis bon qu'à t'aimer dans une suite royale J'arrive comme président dans une Citroën Sans arme, ni violence, ni trop d'haine J'ai tué la traîtrise dans l'équipe loyale J'fais R, à part ter-mon L-O-R au parthénon Charbonne pour qu'mes enfants finissent par se perdre dans l'appartement haha Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouaisYou might also like</t>
+          <t>Le roi est mort, vive le prince J'pourrais pas trahir mes principes J'sais pas quand on m'posera l'linceul Mais j'sais qu'j'ai choisi d'naître ainsi J'm'arrêterais pas avant d'être assis Sur le fauteuil d'El Atrassi ou de Laurent Ruquier Tu serais surpris de voir que pour de l'or en lingot même des tétraplégiques deviennent forts en lutte, yeah J'ai valeur humaine j'ai valeur pécuniaire moi je mens qu'aux mien comme Erico Mancunien ? Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vent plus rien Le but c'est d'passer du contrôle d'identité au contrôle fiscal Plus didole, la seule drogue qui m'calme C'est mes rêves que j'copie-colle Dieu est grand, Dieu est grand, Dieu est grand J'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma Mourir jeune comme dans les années 70 Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Poser de l'or sur le cou de la génitrice J'peux pas l'faire tout seul j'remercie les reufs A quoi bon être imbécile heureux Le temps dira si j'suis un génie triste 300 k-m-h sur l'avenue Montaigne j'suis en siège éjectable Le paradoxe c'est que même sur du vingt ans d'âge le bouchon d'liège est jetable Les amis jaloux deviennent sourds et muets Pourquoi leur donner ma confiance aveuglément Les nerfs en acier quand j'parle avec les morts J'veux que de la feuille d'or pour mon ameublement Moi j'suis bon qu'à t'aimer dans une suite royale J'arrive comme président dans une Citroën Sans arme, ni violence, ni trop d'haine J'ai tué la traîtrise dans l'équipe loyale J'fais R, à part ter-mon L-O-R au parthénon Charbonne pour qu'mes enfants finissent par se perdre dans l'appartement haha Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>La nuit, même mon ombre veut m'éviter, quand tous les égaux viennent s'inviter On finit par s'appliquer à devenir des hommes et c'est compliqué Depuis que je connais la vie de vitesse, quelques mois et j's'rai le roi de Lutèce Mon équipe est soudée on partage toutes nos joies, nos peurs et nos tristesses Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Le temps révèle toujours la vérité, pensais-tu vraiment l'éviter ? Trouve-moi juste accoudé, fuyant ce qui me reste de réalité You might also like Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre, ressers-moi un autre verre Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver1</t>
+          <t>La nuit, même mon ombre veut m'éviter, quand tous les égaux viennent s'inviter On finit par s'appliquer à devenir des hommes et c'est compliqué Depuis que je connais la vie de vitesse, quelques mois et j's'rai le roi de Lutèce Mon équipe est soudée on partage toutes nos joies, nos peurs et nos tristesses Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Le temps révèle toujours la vérité, pensais-tu vraiment l'éviter ? Trouve-moi juste accoudé, fuyant ce qui me reste de réalité Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre, ressers-moi un autre verre Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J'vois l'avenir dans l'cristal qui m'dit qu'j'ai passé l'stade d'être prometteur Dans ma meute fils, on s'reconnait entre meneurs Que des jeunes entrepreneurs entremetteurs XXX nos peurs en avançant entre nos tords et notre honneur On pleure des génocides que l'on a financé Comment rester silencieux face à ces mises en scène ? Avec le temps, je n'sais plus sur quel pied danser Je sais jusque quelles tombes j'dois fleurir avec mes chrysanthèmes Donc j'me demande comment faire Faudrait-il qu'on m'enterre pour qu'ils approuvent mes commentaires ? J'pense à ces âmes qu'on enferme A toutes celles qui mentèrent ne sachant pas c'qu'elles commettairent Oui j'ai vu le silence s'acheter Les âmes vendues par lâcheté L'excès d'fierté de l'Homme quand il oublie d'se racheter Honneur à ceux qui ont tenté N'ayant pas l'temps d'se contenter Les politiques seront couverts de bouquet de fleurs ensanglantées L-O-R-D J'ai gratté un truc, pour l'occas' Avec un jus d'pomme Poliakov En rentrant d'une manif armé car moi j'aime pas les keufs J'suis pas flemmard car j'fume la kush J'ai plus d'un tour dans mon keuss' Moi ? J'ai jamais poucave même si j'étais souvent l'plus keuss Les autres durs, ils adhèrent XXX demande à Nasser Et moi si l'rap c'est ma corde ouais inchallah qu'jamais ça sert XXX les pêchés sinsèrent car quand ça sort, c'est sûr XXX c'est sincère je n'veux plus de tristes blessures Mais j'veux bien doubler ça En liquide dans une petite mallette Me barrer vers Kinshasa Pour évacuer l'mal-être L'humain n'est rien sans son reflet, donc je réfléchis Comment préserver sans rafler ce qui me fais fléchir ? J'connais pas l'innocence et j'en ai toujours voulu Jamais pécho d'litres d'essence, j'crois j'ai toujours couru Vers la réussite avec mes propres moyens Tout ce que cela suscite c'est d'être un drôle de doyenYou might also like</t>
+          <t>J'vois l'avenir dans l'cristal qui m'dit qu'j'ai passé l'stade d'être prometteur Dans ma meute fils, on s'reconnait entre meneurs Que des jeunes entrepreneurs entremetteurs XXX nos peurs en avançant entre nos tords et notre honneur On pleure des génocides que l'on a financé Comment rester silencieux face à ces mises en scène ? Avec le temps, je n'sais plus sur quel pied danser Je sais jusque quelles tombes j'dois fleurir avec mes chrysanthèmes Donc j'me demande comment faire Faudrait-il qu'on m'enterre pour qu'ils approuvent mes commentaires ? J'pense à ces âmes qu'on enferme A toutes celles qui mentèrent ne sachant pas c'qu'elles commettairent Oui j'ai vu le silence s'acheter Les âmes vendues par lâcheté L'excès d'fierté de l'Homme quand il oublie d'se racheter Honneur à ceux qui ont tenté N'ayant pas l'temps d'se contenter Les politiques seront couverts de bouquet de fleurs ensanglantées L-O-R-D J'ai gratté un truc, pour l'occas' Avec un jus d'pomme Poliakov En rentrant d'une manif armé car moi j'aime pas les keufs J'suis pas flemmard car j'fume la kush J'ai plus d'un tour dans mon keuss' Moi ? J'ai jamais poucave même si j'étais souvent l'plus keuss Les autres durs, ils adhèrent XXX demande à Nasser Et moi si l'rap c'est ma corde ouais inchallah qu'jamais ça sert XXX les pêchés sinsèrent car quand ça sort, c'est sûr XXX c'est sincère je n'veux plus de tristes blessures Mais j'veux bien doubler ça En liquide dans une petite mallette Me barrer vers Kinshasa Pour évacuer l'mal-être L'humain n'est rien sans son reflet, donc je réfléchis Comment préserver sans rafler ce qui me fais fléchir ? J'connais pas l'innocence et j'en ai toujours voulu Jamais pécho d'litres d'essence, j'crois j'ai toujours couru Vers la réussite avec mes propres moyens Tout ce que cela suscite c'est d'être un drôle de doyen</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah Rapp'lons les bases j'suis blanc, j'suis privilégié mais ne pas parler revient à fermer les yeux Le cur est lourd, c'pas un sujet léger, plus j'vois l'monde, plus j'ai de mal à cerner les cieux J'ai honte de cette France qu'accepte les immigrés que pour refaire nos villes nos villes Cinq décennies plus tard, ils leur ferment les frontières, pensant qu'ils vont s'arrêter comme le nuage de Tchernobyl Anges cagoulés face aux puissances du mal, le rêveur est seul dans les nuits sans étoiles Il se rappelle qu'il n'y a pas d'différence car tous les hommes commencent en position ftale Quand les couleurs sont des maux, la douleur s'endimanche, en deux mots Justice Adama, la justesse a du mal et r'met à plus tard J'vois d'la violence partout, j'vois d'la justice nulle part J'ai mal à l'Homme, j'suis gilet jaune, j'suis panthère noire Ma peau est blanche et tu sais qu'on slalome entre les Salam aleyk' qui riment pas mal avec tous les Shabbat shalom Bienv'nue dans l'monde où les sourds et muets se sont arrêtés d'voir voir, voir Après ça, les racistes se taisent comme si Mozart était noir Black Amadeus Cinq siècles d'histoire coloniale, dix-huit ans quand je sors de l'école, je déconstruis 'construis, 'construis L'homme est comme les fonds marins marins peuplé de monstres Peu importe où ça mène, ils oublient leurs racines La conscience qui sommeille et les s'amènent Le mensonge assumé du racisme c'est voir en l'autre le dégoût qu'on a d'soi-même Plafond de verre sans, ni porte, ni couloir I had a dream, Marianne seins nus porte le foulard Le bruit des odeurs, c'est qu'leurs sens sont niqués L'échelle sociale est à sens unique En plein dans le mille mille, le mal ne rate plus sa cible cible Jouons aux bons français comparons nos familles pour savoir qui a la plus raciste You might also like Black Amadeus Classez-moi monument historique, j'ai des polémiques, j'en fais des stories J'viens couper l'herbe sous le pied des racistes, la grand-mère d'Edith Piaf était Kabyle Paraîtrait qu'elle s'appelait Aïcha, qu'elle portait l'même hijab que Mona Lisa Ma grand-mère maternelle s'app'lait Marcelle, le deuxième prénom d'Darmanin, c'est Moussa J'mets du sens dans mes phrases sans faire exprès, comme quand j'fais tomber l'paquet d'pâtes alphabet Ces bâtards racontent des craques à mes gosses, j'suis sur leur plateau comme dans Among Us Après tout ça, les cistes-ra se taisent, après tout ça, les fils de pute tachycardent Comme si DJ Snake était un DZ, c'est pas d'la Taki-Taki-Taki-ah</t>
+          <t>Yeah Rapp'lons les bases j'suis blanc, j'suis privilégié mais ne pas parler revient à fermer les yeux Le cur est lourd, c'pas un sujet léger, plus j'vois l'monde, plus j'ai de mal à cerner les cieux J'ai honte de cette France qu'accepte les immigrés que pour refaire nos villes nos villes Cinq décennies plus tard, ils leur ferment les frontières, pensant qu'ils vont s'arrêter comme le nuage de Tchernobyl Anges cagoulés face aux puissances du mal, le rêveur est seul dans les nuits sans étoiles Il se rappelle qu'il n'y a pas d'différence car tous les hommes commencent en position ftale Quand les couleurs sont des maux, la douleur s'endimanche, en deux mots Justice Adama, la justesse a du mal et r'met à plus tard J'vois d'la violence partout, j'vois d'la justice nulle part J'ai mal à l'Homme, j'suis gilet jaune, j'suis panthère noire Ma peau est blanche et tu sais qu'on slalome entre les Salam aleyk' qui riment pas mal avec tous les Shabbat shalom Bienv'nue dans l'monde où les sourds et muets se sont arrêtés d'voir voir, voir Après ça, les racistes se taisent comme si Mozart était noir Black Amadeus Cinq siècles d'histoire coloniale, dix-huit ans quand je sors de l'école, je déconstruis 'construis, 'construis L'homme est comme les fonds marins marins peuplé de monstres Peu importe où ça mène, ils oublient leurs racines La conscience qui sommeille et les s'amènent Le mensonge assumé du racisme c'est voir en l'autre le dégoût qu'on a d'soi-même Plafond de verre sans, ni porte, ni couloir I had a dream, Marianne seins nus porte le foulard Le bruit des odeurs, c'est qu'leurs sens sont niqués L'échelle sociale est à sens unique En plein dans le mille mille, le mal ne rate plus sa cible cible Jouons aux bons français comparons nos familles pour savoir qui a la plus raciste Black Amadeus Classez-moi monument historique, j'ai des polémiques, j'en fais des stories J'viens couper l'herbe sous le pied des racistes, la grand-mère d'Edith Piaf était Kabyle Paraîtrait qu'elle s'appelait Aïcha, qu'elle portait l'même hijab que Mona Lisa Ma grand-mère maternelle s'app'lait Marcelle, le deuxième prénom d'Darmanin, c'est Moussa J'mets du sens dans mes phrases sans faire exprès, comme quand j'fais tomber l'paquet d'pâtes alphabet Ces bâtards racontent des craques à mes gosses, j'suis sur leur plateau comme dans Among Us Après tout ça, les cistes-ra se taisent, après tout ça, les fils de pute tachycardent Comme si DJ Snake était un DZ, c'est pas d'la Taki-Taki-Taki-ah</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me Si seulement c'était toi Seulement que de toi Me réveille sans soleil Dans le froid d'une matinée Un jour d'été sans pareil Au bord d'un lit tout abimé I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me J'ai pensé à toi toute la journée Tu m'as suivi jusqu'en tournée Te rappelles-tu ma belle à l'époque ? T'as fait de mon cur une fournaise Dans lequel t'es seule à gouverner A cause de toi j'crois que j'ai des TOC Toi tu m'as fait des Grâce à toi je ouh J'suis un peu ja-loux Mais je n'ai jamais ragé yeah yeah On s'est promis de ne pas faire même erreur que les autres qui s'aimaient avant nous Toi tu me vois comme un frère mais tes notes m'accompagnent depuis la vie a bon goût You might also like I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you Nos curs sont menottés Nos vies sont monotones J'pensais pas t'aimer autant Si j'ai un cur comme à l'hôtel Tu m'fais tourner en rond comme les cross dans ma tess T'es sans arrêt dans ma tête Encore un soir où j'attends Mais regarde moi Tu m'fais me mettre dans des états que j'imaginais pas babe Si j'étais un peintre tu serais l'origine de mes toiles J'aime quand je sens tes doigts contre les miens Quand je m'en vais voyager au-dessus des étoiles J'sais qu'il est tard mais je te veux toi I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you1</t>
+          <t>I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me Si seulement c'était toi Seulement que de toi Me réveille sans soleil Dans le froid d'une matinée Un jour d'été sans pareil Au bord d'un lit tout abimé I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me J'ai pensé à toi toute la journée Tu m'as suivi jusqu'en tournée Te rappelles-tu ma belle à l'époque ? T'as fait de mon cur une fournaise Dans lequel t'es seule à gouverner A cause de toi j'crois que j'ai des TOC Toi tu m'as fait des Grâce à toi je ouh J'suis un peu ja-loux Mais je n'ai jamais ragé yeah yeah On s'est promis de ne pas faire même erreur que les autres qui s'aimaient avant nous Toi tu me vois comme un frère mais tes notes m'accompagnent depuis la vie a bon goût I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you Nos curs sont menottés Nos vies sont monotones J'pensais pas t'aimer autant Si j'ai un cur comme à l'hôtel Tu m'fais tourner en rond comme les cross dans ma tess T'es sans arrêt dans ma tête Encore un soir où j'attends Mais regarde moi Tu m'fais me mettre dans des états que j'imaginais pas babe Si j'étais un peintre tu serais l'origine de mes toiles J'aime quand je sens tes doigts contre les miens Quand je m'en vais voyager au-dessus des étoiles J'sais qu'il est tard mais je te veux toi I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Au dernier étage, de nos tours de verre La drogue prend tout quand tes à court de rêve Les âmes perdues ont baissé leurs glaives Sous les néons des grandes ambitions Le lot de consolation Cest dans le néant de leurs addictions Pris dans le tourbillon de la dépendance Plus de consommation, plus de performance Le diable fait des avances Puis vient la spirale de la décadence Quand les qualités deviennent des défaillances Alors cest là que les démons dansent Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons You might also like Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Labandon se camoufle dans les abondances Et la vie a bon goût quand la fumée compense Comment combler le manque de confiance ? Encore enlisé dans les sables mouvants Oubliant la vie davant Mais les dernières angoisses reviendront au Soleil levant En décalage total avec le quotidien Sans trop savoir comment la vie se maintient Regard noir vers lavenir Comment se souvenir de ses souvenirs ? Jeunesse éternelle ne pourra pas rev'nir Quand loverdose décide den finir Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons La nuit les masques tombent et se métamorphosent comme des caméléons1</t>
+          <t>Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Au dernier étage, de nos tours de verre La drogue prend tout quand tes à court de rêve Les âmes perdues ont baissé leurs glaives Sous les néons des grandes ambitions Le lot de consolation Cest dans le néant de leurs addictions Pris dans le tourbillon de la dépendance Plus de consommation, plus de performance Le diable fait des avances Puis vient la spirale de la décadence Quand les qualités deviennent des défaillances Alors cest là que les démons dansent Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Labandon se camoufle dans les abondances Et la vie a bon goût quand la fumée compense Comment combler le manque de confiance ? Encore enlisé dans les sables mouvants Oubliant la vie davant Mais les dernières angoisses reviendront au Soleil levant En décalage total avec le quotidien Sans trop savoir comment la vie se maintient Regard noir vers lavenir Comment se souvenir de ses souvenirs ? Jeunesse éternelle ne pourra pas rev'nir Quand loverdose décide den finir Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons La nuit les masques tombent et se métamorphosent comme des caméléons1</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Le monde est si vaste mais on se l'accapare J'ai du décréter qu'ça m'étonne pas d'ta part Elle m'a jeté de chez elle avec un Sale bâtard ! Je me réveille aux aurores, j'suis rentré tard tard tard J'suis qu'un jeune entrepreneur avec des rêves en têtes Surveille ton avenir sinon les trêves t'enterrent On prépare le calme avant la tempête Ce soir seul, le ciel me tempère T'es pas ma compagne mais j'te raccompagne si t'es trop pompette T'es pas ma compagne mais j'te raccompagne si t'es trop pompette Le disque d'or j'en suis capable Le double platine j'en suis capable Le triple diamant j'en suis capable Capable, capable You might also like J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Au début on voulait plus s'quitter Avec le temps on sait plus qui s'aime, nan Ça fait combien d'temps qu'on a plus dix-sept ans ? J'crois que l'amour on sait plus qui c'est A chaque dispute la fin s'anticipe On essaie de construire mais y'a tout qui cède On se connait plus trop d'choses nous séparent On en revient à s'dire qu'on est pas fait pour ça J'ai peur qu'on y arrive pas Si tu pars j'm'en mordrai les doigts On s'aime que sous Marie-Jeanne Sous Marie-Jeanne, mais on se marrait jamais Je ne bouge plus mon cul pour te récupérer Les larmes coulent sur ton cou mais je n'comprends plus rien A partir de maintenant, tu me dis que tu vas partir sur de nouvelles bases Mais bouge babe, fuck le faux-love entre nous J'vais te cogner mon amour, s'aimer encore on a testé Après les beaux jours tu vas me demander de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable1</t>
+          <t>J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Le monde est si vaste mais on se l'accapare J'ai du décréter qu'ça m'étonne pas d'ta part Elle m'a jeté de chez elle avec un Sale bâtard ! Je me réveille aux aurores, j'suis rentré tard tard tard J'suis qu'un jeune entrepreneur avec des rêves en têtes Surveille ton avenir sinon les trêves t'enterrent On prépare le calme avant la tempête Ce soir seul, le ciel me tempère T'es pas ma compagne mais j'te raccompagne si t'es trop pompette T'es pas ma compagne mais j'te raccompagne si t'es trop pompette Le disque d'or j'en suis capable Le double platine j'en suis capable Le triple diamant j'en suis capable Capable, capable J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Au début on voulait plus s'quitter Avec le temps on sait plus qui s'aime, nan Ça fait combien d'temps qu'on a plus dix-sept ans ? J'crois que l'amour on sait plus qui c'est A chaque dispute la fin s'anticipe On essaie de construire mais y'a tout qui cède On se connait plus trop d'choses nous séparent On en revient à s'dire qu'on est pas fait pour ça J'ai peur qu'on y arrive pas Si tu pars j'm'en mordrai les doigts On s'aime que sous Marie-Jeanne Sous Marie-Jeanne, mais on se marrait jamais Je ne bouge plus mon cul pour te récupérer Les larmes coulent sur ton cou mais je n'comprends plus rien A partir de maintenant, tu me dis que tu vas partir sur de nouvelles bases Mais bouge babe, fuck le faux-love entre nous J'vais te cogner mon amour, s'aimer encore on a testé Après les beaux jours tu vas me demander de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable1</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Je me revois te dire Il est si maladroit, ton corps Sache que ton regard enflammé m'alla droit au cur Il est si dur pour moi de s'approprier Notre silence, puisque j'ai trop crié Ça commence par un oui d'un commun accord puis nous formons ensemble une seule unité Avant que l'on comprenne que ce chemin n'apporte plus aucune clé pour communiquer Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas You might also like J'ai des perles de pluie de contrées lointaines Tu ne pleures depuis qu'on est aimantés J'ai fermé la parenthèse mais on rêve de s'y apparenter On s'aime qu'à moitié, on pleure à part entière L'amour est la seule frontière qui sépare l'entraide de la haine Encore un soir où t'es pas rentrée Et même les étoiles en parlent entre elles Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas1</t>
+          <t>Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Je me revois te dire Il est si maladroit, ton corps Sache que ton regard enflammé m'alla droit au cur Il est si dur pour moi de s'approprier Notre silence, puisque j'ai trop crié Ça commence par un oui d'un commun accord puis nous formons ensemble une seule unité Avant que l'on comprenne que ce chemin n'apporte plus aucune clé pour communiquer Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas J'ai des perles de pluie de contrées lointaines Tu ne pleures depuis qu'on est aimantés J'ai fermé la parenthèse mais on rêve de s'y apparenter On s'aime qu'à moitié, on pleure à part entière L'amour est la seule frontière qui sépare l'entraide de la haine Encore un soir où t'es pas rentrée Et même les étoiles en parlent entre elles Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nos deux solitudes sur la plage, l'été a noirci la page Comment te dire qu'à notre âge, c'est normal de faire naufrage Les yeux verts couleur méditerranéen Tu mets le temps sur pause, j'oublie même le néant Faites que les secondes deviennent des années, hein On dit qu'avec l'usure, les âmes peuvent faner, hein Les garçons deviennent des hommes, le cur en Bubble Gum J'oublie mes questions, mes déceptions dans toutes les vapeurs de rhum J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Ouais Arma, c'est Lord, t'es sur messagerie là tu m'rappelles ? You might also like Yeah, mais je n'ai plus l'temps, baby dit que je parle trop Que je ne sais que la charmer, que je n'ai que des belles phases, yeah Elle dit que c'est mon business et des fois, je perds le fil Chaque fois, c'est pour ma faute, je ne pense qu'à bénéfice Et mon cur en suspens Chaque fois qu'elle me fixe, j'tourne la tête Chaque fois qu'elle me regarde Chaque fois que le disque tourne, elle danse le Cha Cha Je la regarde et j'essaie de pas perdre le rythme Elle s'approche, je la laisse venir Elle s'approche, je la laisse venir Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Viens, on oublie Paris et l'goût de l'ennui Dansons tous les deux jusqu'au bout de la nuit C'est ici que les doutes s'enfuient Ouh, ouh, ouh, ouh, ouh Allez, montre-moi ta magie Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi J'aime tout chez toi, ouais</t>
+          <t>Nos deux solitudes sur la plage, l'été a noirci la page Comment te dire qu'à notre âge, c'est normal de faire naufrage Les yeux verts couleur méditerranéen Tu mets le temps sur pause, j'oublie même le néant Faites que les secondes deviennent des années, hein On dit qu'avec l'usure, les âmes peuvent faner, hein Les garçons deviennent des hommes, le cur en Bubble Gum J'oublie mes questions, mes déceptions dans toutes les vapeurs de rhum J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Ouais Arma, c'est Lord, t'es sur messagerie là tu m'rappelles ? Yeah, mais je n'ai plus l'temps, baby dit que je parle trop Que je ne sais que la charmer, que je n'ai que des belles phases, yeah Elle dit que c'est mon business et des fois, je perds le fil Chaque fois, c'est pour ma faute, je ne pense qu'à bénéfice Et mon cur en suspens Chaque fois qu'elle me fixe, j'tourne la tête Chaque fois qu'elle me regarde Chaque fois que le disque tourne, elle danse le Cha Cha Je la regarde et j'essaie de pas perdre le rythme Elle s'approche, je la laisse venir Elle s'approche, je la laisse venir Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Viens, on oublie Paris et l'goût de l'ennui Dansons tous les deux jusqu'au bout de la nuit C'est ici que les doutes s'enfuient Ouh, ouh, ouh, ouh, ouh Allez, montre-moi ta magie Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi J'aime tout chez toi, ouais</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Le temps laisse son empreinte et les cernes deviennent des rides S'il te plait, sois sans crainte sur le chemin que j'emprunte Et je r'vois ces scènes terribles Les enfants deviennent adultes quand plus personne les adule Mais t'es ma fidèle supportrice, j't'ai vue cent fois supr triste Quand mes rêves dantan sont partis On échang les rôles si vite, c'est moi qui te disais prends garde J'ai huit ans quand tu regardes le vide, prête à sauter la rambarde T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Tu es une survivante, une guerrière au cur rebelle Pleine d'ambitions débordantes, mais tes envies sont dévorantes Et elles ont brûlé tes ailes Je m'en veux encore à mon âge, de n'avoir su être que moi Quand t'as vu venir l'orage des traces du temps sur ton visage Maman ma menti je crois Suis-je vraiment désiré ou le fruit d'un accident ? Par miracle, je suis né après deux avortements You might also like T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh</t>
+          <t>Le temps laisse son empreinte et les cernes deviennent des rides S'il te plait, sois sans crainte sur le chemin que j'emprunte Et je r'vois ces scènes terribles Les enfants deviennent adultes quand plus personne les adule Mais t'es ma fidèle supportrice, j't'ai vue cent fois supr triste Quand mes rêves dantan sont partis On échang les rôles si vite, c'est moi qui te disais prends garde J'ai huit ans quand tu regardes le vide, prête à sauter la rambarde T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Tu es une survivante, une guerrière au cur rebelle Pleine d'ambitions débordantes, mais tes envies sont dévorantes Et elles ont brûlé tes ailes Je m'en veux encore à mon âge, de n'avoir su être que moi Quand t'as vu venir l'orage des traces du temps sur ton visage Maman ma menti je crois Suis-je vraiment désiré ou le fruit d'un accident ? Par miracle, je suis né après deux avortements T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Regarder sa vie du haut d'un pont et avoir du mal à y donner sens Certains sautent dautres titubent A l'autre bout du monde, on ne respecte que ceux qui donnent naissance Devenir homme, c'est dabord se perdre dans l'ingratitude de l'adolescence J'repense à mon père, à nos similitudes Plus j'm'en rends compte, plus j'l'ressemble 7 ans, tout petit Lord est méconnaissable Il a encore énervé papa et quand papa est en colère Il écrase les rêves, les châteaux de sable Alors petit Lord ne parle pas, le souffle coupé Il se perd dans lincertitude dun méconnaissant Entre vrai mensonge et faux message pendant c'temps La psychologue dit quil faut accepter Moi, je n'ai jamais rien accepté à part mon besoin de reconnaissance Petit Lord n'est bien qu'en étant seul Quand il ségare sur le quai de la gare en remerciant la vie Pour son don de sens Il aimerait prendre cette étincelle qui dort dans son regard quand l'ciel est tout noire et tuer ses envies Sur le bidon d'essence Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites You might also like La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Château de sable, château de sable, château de sable Petit Lord est triste et rêve d'être artiste Il enchaîne les femmes et brise les curs Jusqu'à ce que ça retourne contre lui et que sa traîtrise l'écure Sa seule faiblesse, au fond, c'est l'âge Encore une nuit blanche, pleine d'idées noires Les cauchemars n'en sont que l'arborescence Et les rêves nous donnent des rides d'espoir Petit Lord grandit, mais se perd dans un fossé large Il dépeint sa peine sur un fond sonore Et décide de se défoncer l'âme, tu m'étonnes Voir ses souvenirs disparaître dans un nuage de fumée blanche Est toujours plus simple que de sécher ses larmes quand les problèmes sont plus étanches J'repense à mon père, à nos similitudes Plus je grandis, plus j'le ressemble Pourtant j'ai du mal à me reconnaître en lui En tout ce qui nous rassemble Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Châteaux de sable, châteaux de sable, châteaux de sable Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les châteaux de sable</t>
+          <t>Regarder sa vie du haut d'un pont et avoir du mal à y donner sens Certains sautent dautres titubent A l'autre bout du monde, on ne respecte que ceux qui donnent naissance Devenir homme, c'est dabord se perdre dans l'ingratitude de l'adolescence J'repense à mon père, à nos similitudes Plus j'm'en rends compte, plus j'l'ressemble 7 ans, tout petit Lord est méconnaissable Il a encore énervé papa et quand papa est en colère Il écrase les rêves, les châteaux de sable Alors petit Lord ne parle pas, le souffle coupé Il se perd dans lincertitude dun méconnaissant Entre vrai mensonge et faux message pendant c'temps La psychologue dit quil faut accepter Moi, je n'ai jamais rien accepté à part mon besoin de reconnaissance Petit Lord n'est bien qu'en étant seul Quand il ségare sur le quai de la gare en remerciant la vie Pour son don de sens Il aimerait prendre cette étincelle qui dort dans son regard quand l'ciel est tout noire et tuer ses envies Sur le bidon d'essence Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Château de sable, château de sable, château de sable Petit Lord est triste et rêve d'être artiste Il enchaîne les femmes et brise les curs Jusqu'à ce que ça retourne contre lui et que sa traîtrise l'écure Sa seule faiblesse, au fond, c'est l'âge Encore une nuit blanche, pleine d'idées noires Les cauchemars n'en sont que l'arborescence Et les rêves nous donnent des rides d'espoir Petit Lord grandit, mais se perd dans un fossé large Il dépeint sa peine sur un fond sonore Et décide de se défoncer l'âme, tu m'étonnes Voir ses souvenirs disparaître dans un nuage de fumée blanche Est toujours plus simple que de sécher ses larmes quand les problèmes sont plus étanches J'repense à mon père, à nos similitudes Plus je grandis, plus j'le ressemble Pourtant j'ai du mal à me reconnaître en lui En tout ce qui nous rassemble Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Châteaux de sable, châteaux de sable, châteaux de sable Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les châteaux de sable</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, bonjour et bienvenue à bord du vol LEDTV épisode 2. La représentation qui va suivre concerne votre sécurité à bord de notre compagne, L.O Airlines lors de ce voyage improvisé aux quatre coins du globe. Les issues d'secours sont situées de chaque côté de la cabine, à l'avant, au centre et à l'arrière. N'essayez en aucun cas de les ouvrir avant d'avoir reçu des indications du personnel de bord. Toute l'équipe Paramour se tient à votre disposition en cas de question Chaque fois que ce signal est allumé, vous devrez attacher votre ceinture. Il est probable que nous soyons confrontés à des zones de turbulence dues à piqûres de basses enflammées, des structures futuristes ou encore des bouts de couplets stridents. Ne paniquez pas. En cas de dépressurisation, un masque à oxygène tombera automatiquement près de vous Mesdames et messieurs, merci pour votre attention. Ce projet est l'aboutissement de deux ans de travail afin de réunir des artistes du monde entier sur le même disque, volonté évoquée par Lord Esperanza et rendue possible grâce à ses nombreux anges gardiens. Il est désormais entre vos mains et nous comptons sur vous pour le défendre comme vous en avez si bien l'habitude. En d'autres mots, streamez ça, chacals Au nom de toute la compagnie L.O Airlines, nous vous souhaitons un excellent vol. L'aventure va commencerYou might also like</t>
+          <t>Mesdames, messieurs, bonjour et bienvenue à bord du vol LEDTV épisode 2. La représentation qui va suivre concerne votre sécurité à bord de notre compagne, L.O Airlines lors de ce voyage improvisé aux quatre coins du globe. Les issues d'secours sont situées de chaque côté de la cabine, à l'avant, au centre et à l'arrière. N'essayez en aucun cas de les ouvrir avant d'avoir reçu des indications du personnel de bord. Toute l'équipe Paramour se tient à votre disposition en cas de question Chaque fois que ce signal est allumé, vous devrez attacher votre ceinture. Il est probable que nous soyons confrontés à des zones de turbulence dues à piqûres de basses enflammées, des structures futuristes ou encore des bouts de couplets stridents. Ne paniquez pas. En cas de dépressurisation, un masque à oxygène tombera automatiquement près de vous Mesdames et messieurs, merci pour votre attention. Ce projet est l'aboutissement de deux ans de travail afin de réunir des artistes du monde entier sur le même disque, volonté évoquée par Lord Esperanza et rendue possible grâce à ses nombreux anges gardiens. Il est désormais entre vos mains et nous comptons sur vous pour le défendre comme vous en avez si bien l'habitude. En d'autres mots, streamez ça, chacals Au nom de toute la compagnie L.O Airlines, nous vous souhaitons un excellent vol. L'aventure va commencer</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Les mauvaises pensées souhaiteraient hanter mes rêves Tant d'erreurs qui rendent humains Au royaume des ombres où l'on se doit d'être téméraires Seules les flammes te tendent une main Le manque de sommeil t'emmènera J'attends le repos qu'un nuage enverra Laisse le reste vociférer le temps m'est rare, on s'y fera Tremper notre madeleine de Proust dans un verre de lait Une nuit étoilée pour éclairer nos cervelets Cette fatigue qu'on finit par aimer finit par régner Sur notre empire comme tous les liens qu'on a tissés sur ces toiles d'araignées Je n'ai pas renié le moi, je suis juste le même en pire Car bloqué entre deux cycles de sommeil, mon regard parait niais Je suis ma route comme le pic du soleil Le marchand de sable n'est qu'un parolier Faisait croire que le corps et l'âme ne sont pas reliés Le temps accule les semestres Ma rancune se défenestre Une vie t'en n'a qu'une alors fais naître tes idées avant de te perdre Décimé dans des tentacules de ténèbre Je pense à la gloire de demain A mes fautes d'hier Je m'endors des galaxies sous les paupières You might also likeL'alchimiste veut comprendre à travers ses étranges formules Mes nuits blanches s'assombrissent comme l'aile d'un ange que l'on brûle Dans le cimetière des rêves où les cauchemars sont somnambulent Il ne reste que des bouts de drapeau d'abandon qui ondulent Qui sommes-nous ? Des esprits centenaires dans des corps d'insomnie Si nos curs ont l'air en paix enterre-les On s'perd la nuit et N a su faire taire les craintes, guidés par nos rêves perlés1</t>
+          <t>Les mauvaises pensées souhaiteraient hanter mes rêves Tant d'erreurs qui rendent humains Au royaume des ombres où l'on se doit d'être téméraires Seules les flammes te tendent une main Le manque de sommeil t'emmènera J'attends le repos qu'un nuage enverra Laisse le reste vociférer le temps m'est rare, on s'y fera Tremper notre madeleine de Proust dans un verre de lait Une nuit étoilée pour éclairer nos cervelets Cette fatigue qu'on finit par aimer finit par régner Sur notre empire comme tous les liens qu'on a tissés sur ces toiles d'araignées Je n'ai pas renié le moi, je suis juste le même en pire Car bloqué entre deux cycles de sommeil, mon regard parait niais Je suis ma route comme le pic du soleil Le marchand de sable n'est qu'un parolier Faisait croire que le corps et l'âme ne sont pas reliés Le temps accule les semestres Ma rancune se défenestre Une vie t'en n'a qu'une alors fais naître tes idées avant de te perdre Décimé dans des tentacules de ténèbre Je pense à la gloire de demain A mes fautes d'hier Je m'endors des galaxies sous les paupières L'alchimiste veut comprendre à travers ses étranges formules Mes nuits blanches s'assombrissent comme l'aile d'un ange que l'on brûle Dans le cimetière des rêves où les cauchemars sont somnambulent Il ne reste que des bouts de drapeau d'abandon qui ondulent Qui sommes-nous ? Des esprits centenaires dans des corps d'insomnie Si nos curs ont l'air en paix enterre-les On s'perd la nuit et N a su faire taire les craintes, guidés par nos rêves perlés1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi, je compte plus les amitiés délaissées, les jugements portés sur tous mes essais Dfaçon, quand jy pense, ce nest pas si récent, comme les regards perfides dintéressés Jvoulais simplement combler chaque seconde de ma vie Pendant que mon cur faisait quelques rondes dans la nuit Toutes ces soirées à refaire le monde dans Paris Jai vu les gens changer autour de moi Dois-je me sentir coupable de réussir ? Mais bon, tout va vite et les vautours le savent Donc trace ta route comme on dirait ici Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça You might also like Jai juste besoin quon m'rappelle que j'suis personne Jai grandi entre père instable et mère seule J'rêve dun reflet symétrique comme les films de Wes Anderson Toujours entre excès et manque de confiance, ici, cest simple de perdre sa conscience Moi, jveux juste toucher les curs comme seule récompense Jai peur du succès, peur de npas être capable, peur de plus mreconnaître Jbois vos compliments cul sec, parfois, j'déconnecte mais mon cur est honnête Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça</t>
+          <t>Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi, je compte plus les amitiés délaissées, les jugements portés sur tous mes essais Dfaçon, quand jy pense, ce nest pas si récent, comme les regards perfides dintéressés Jvoulais simplement combler chaque seconde de ma vie Pendant que mon cur faisait quelques rondes dans la nuit Toutes ces soirées à refaire le monde dans Paris Jai vu les gens changer autour de moi Dois-je me sentir coupable de réussir ? Mais bon, tout va vite et les vautours le savent Donc trace ta route comme on dirait ici Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jai juste besoin quon m'rappelle que j'suis personne Jai grandi entre père instable et mère seule J'rêve dun reflet symétrique comme les films de Wes Anderson Toujours entre excès et manque de confiance, ici, cest simple de perdre sa conscience Moi, jveux juste toucher les curs comme seule récompense Jai peur du succès, peur de npas être capable, peur de plus mreconnaître Jbois vos compliments cul sec, parfois, j'déconnecte mais mon cur est honnête Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Honte davoir honte Comment changer de contexte Tout paraît plus complexe avec tous mes complexes Tous les jours, cest pareil Je me fais mon cinéma Jarrête pas de me comparer, cest normal si jai mal Je me mets dans tous mes états Un jour ça sarrêtera On sest mis dans tous nos états À courir après ce qu'on n'est pas Bien sûr quon fait naufrage Sur les plages du sabotage T'en veux pas, on fait tous ça Alors on devient ce quon ne vut pas A vouloir trouver le mieux n soi Dès que comme une prise d'otage Se laisser sortir des cages Ten veux pas, ça ira Je me mets dans tous mes états Un jour sarrêtera Et je sais que ça ira You might also likeSentiment étranger Jai jamais limpression dêtre rangé Jamais limpression dêtre à ma place Mais cest quoi ma place ? Affronter ma conscience ou créer une carapace Les problèmes du passé, déplacés Qu'on remplace de chaud, tu es le père ou perpétue Faut que javance tout droit Je sais que la peur peut tuer Mais ça ira, ça ira Faut faire taire la petite voix Pourtant cest fou quand on sait comment on saigne Moi, je veux juste qu'on m'enseigne Quon m'enseigne comment on saime</t>
+          <t>Honte davoir honte Comment changer de contexte Tout paraît plus complexe avec tous mes complexes Tous les jours, cest pareil Je me fais mon cinéma Jarrête pas de me comparer, cest normal si jai mal Je me mets dans tous mes états Un jour ça sarrêtera On sest mis dans tous nos états À courir après ce qu'on n'est pas Bien sûr quon fait naufrage Sur les plages du sabotage T'en veux pas, on fait tous ça Alors on devient ce quon ne vut pas A vouloir trouver le mieux n soi Dès que comme une prise d'otage Se laisser sortir des cages Ten veux pas, ça ira Je me mets dans tous mes états Un jour sarrêtera Et je sais que ça ira Sentiment étranger Jai jamais limpression dêtre rangé Jamais limpression dêtre à ma place Mais cest quoi ma place ? Affronter ma conscience ou créer une carapace Les problèmes du passé, déplacés Qu'on remplace de chaud, tu es le père ou perpétue Faut que javance tout droit Je sais que la peur peut tuer Mais ça ira, ça ira Faut faire taire la petite voix Pourtant cest fou quand on sait comment on saigne Moi, je veux juste qu'on m'enseigne Quon m'enseigne comment on saime</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Couronné, frère J'suis dans l'mouvement, flow insoutenable Trouve-moi tout devant, flex à Copenhague, yeah Suffit d'une mesure pour que j'me téléporte, yeah Donne-moi le caviar, j'ai d'jà goûté les pâtes Tous me connaissent et m'appellent L.O Promesses J'arrive déterminé comme un guerrier du Péloponnèse Il tue à peine ce kid sous Fried Kentucky, il me vénère à m'dire Man, can you kick ? Décidément, maman n'est pas déçue de moi Portes d'entrée dans l'cinéma, ma tête partout d'ici deux mois J'dois halluciner, man, chh, tant de style Ils ont tous tendu l'stylo quand j'ai dit signez-moi J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né You might also like J'vous la rentre entièrement, rose noire pour l'enterrement Jeune prodige infernal voit reflet dans flaque du J'ai pas besoin que tu me dises que j'suis le meilleur Après, la vie, ça reste un peu comme colin-maillard Qui se s'rait douté qu'on ferait folies, money cash ? En affaires je n'laisse rien passer comme Neuer J'rentre sur l'beat avec mes couilles, je joue des maracas, eh J'écoute plus leur baratin, je repars à Marrakech voir l'marabout qui m'a rajouté un 10 dans un J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né fresh light, nouveau-né, fresh light, nouveau-né</t>
+          <t>Couronné, frère J'suis dans l'mouvement, flow insoutenable Trouve-moi tout devant, flex à Copenhague, yeah Suffit d'une mesure pour que j'me téléporte, yeah Donne-moi le caviar, j'ai d'jà goûté les pâtes Tous me connaissent et m'appellent L.O Promesses J'arrive déterminé comme un guerrier du Péloponnèse Il tue à peine ce kid sous Fried Kentucky, il me vénère à m'dire Man, can you kick ? Décidément, maman n'est pas déçue de moi Portes d'entrée dans l'cinéma, ma tête partout d'ici deux mois J'dois halluciner, man, chh, tant de style Ils ont tous tendu l'stylo quand j'ai dit signez-moi J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né J'vous la rentre entièrement, rose noire pour l'enterrement Jeune prodige infernal voit reflet dans flaque du J'ai pas besoin que tu me dises que j'suis le meilleur Après, la vie, ça reste un peu comme colin-maillard Qui se s'rait douté qu'on ferait folies, money cash ? En affaires je n'laisse rien passer comme Neuer J'rentre sur l'beat avec mes couilles, je joue des maracas, eh J'écoute plus leur baratin, je repars à Marrakech voir l'marabout qui m'a rajouté un 10 dans un J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né fresh light, nouveau-né, fresh light, nouveau-né</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Deux secondes avant l'crash, je conduis de nuit sous l'orage Le passager roule un joint pendant l'trajet La fumée dans l'habitacle colorait l'cur de l'appui-tête Woop, woop, deux secondes avant l'outrage, monsieur l'agent J'veux être blindé comme la Brink's uh J'veux qu'on parle de moi autant que la crise Aller-retour sous la pluie ah J'aimerais remonter le temps pour éviter toutes les bananes qu'on a pris Me diront que c'est la vie quand j'leur demanderai de l'aide Mais quand ils battront d'l'aile, moi, j's'rai le premier de la liste Fais gaffe à pas trop manquer d'air, c'est des rapaces, il faut être vif Ils auront tous le regard vide quand nos salles seront pleines 'vie de brûler brûler En wheeling, tous les samedis sous la pluie sous la pluie Vitres embuées 'buées quand je claque ton tatouage sur la cuisse Y a plus d'batterie sur le portable, faut encore gratter des textes ouais, ouais J'me sens comme Statham quand il braquait des caisses Crash test, ma génération à fond dans un platane J'avoue, j'ai pu rougir avec un fond d'eau écarlate Nah, j'baisse pas l'son, j'baise ton groupe de garage Répercussion j'ai un groove de cadavre J'bouge que sur des percussions, n'l'ouvre que pour en faire du bon Contre la tentation, j'ai perdu moult bagarres olup Pourquoi qu'ils l'ouvrent, ces bâtards ? Chez nous, on t'nique Ta mère la pute avec un accent grave, eh La rime est pure mais j'te la vendrai pas au gramme tut, tut On crie des sku en bas des baobabs Trop d'putes, trop d'follow, j'en devient mégalomane J'ai des groupies, j'ai du flow au bout du tuyau d'arrosage Croco sur l'polo, quand même, on n'est pas au bagne Alien.VSO, j'ai laissé mon arobase You might also like Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Première vitesse, deuxième vitesse, troisième vitesse, quatrième baw C'est kung-fu PX, microphone check it, VSO, ceinture noire, quatrième dan, woh Je pollue la jeunesse comme le plastique des flashballs, t'es has-been comme la file de droite et les flash mob Bouteille de Ciroc, numéro d'SIRET, entrepreneur et intermittent du spectacle J'mets tellement l'pied au plancher qu'j'finis l'genou dans la cave À l'époque, j'allais pointer en Clio 2 rouge à la CAF Maintenant, Nîmes city, ça brûle, j'suis en zone inhabitable J'peux pas sauver l'Amazonie, j'peux enfumer l'habitacle C'est PEX, bro, j'ai découpé l'ordinateur, j'ai des bouts d'verre sous la peau J'ai des couplets formidables, le pommeau d'vitesse sous la paume J'fonce sur tous les rageux, VSO, Lord Esperanza, y a pas d'erreur d'arbitrage Les industriels gèrent les gouvernements, les gouvernements gèrent les populations L'Homme est destiné à se reproduire donc à chaque nouveau feat', j'suis en copulation J'entends quand même des Mec, en fait, tas mis des femmes, mais ten fais qu'à ta gueule J'suis bloqué dans l'cauchemar d'un Télétubbies sous méthamphétamine Les médias taisent qu'un tel est tué, la prise de pouvoir est bien trop factuelle Multiplie par trois le BPM pour avoir mon quotient intellectuel yeah Prince de la trap, j'ai plus l'temps d'jouer, j'serre la main à des gens plus importants que des gens très importants dans un jean troué, yeah À quoi bon refaire nos villes vu qu'la jeunesse veut se perdre nowhere ? J'dérange comme un potager dans Tchernobyl, comme un Camerounais en Père Noël, olup olup J'ai aucun mal à dire adieu, vous pleurez quand vous dites au revoir L.O.R.D pour le cri radieux, Esperanza pour le guitare-voix La couronne est partout, la plupart d'mes anciens professeurs adhèrent au motif Programmé à m'envoler comme processeur aéronautique, wow L.O, VSO yeah, l'argent pousse leurs zygomatiques, fume le cigare sur un lit pneumatique Mon équipe au Vatican roule en plaque diplomatique</t>
+          <t>Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Deux secondes avant l'crash, je conduis de nuit sous l'orage Le passager roule un joint pendant l'trajet La fumée dans l'habitacle colorait l'cur de l'appui-tête Woop, woop, deux secondes avant l'outrage, monsieur l'agent J'veux être blindé comme la Brink's uh J'veux qu'on parle de moi autant que la crise Aller-retour sous la pluie ah J'aimerais remonter le temps pour éviter toutes les bananes qu'on a pris Me diront que c'est la vie quand j'leur demanderai de l'aide Mais quand ils battront d'l'aile, moi, j's'rai le premier de la liste Fais gaffe à pas trop manquer d'air, c'est des rapaces, il faut être vif Ils auront tous le regard vide quand nos salles seront pleines 'vie de brûler brûler En wheeling, tous les samedis sous la pluie sous la pluie Vitres embuées 'buées quand je claque ton tatouage sur la cuisse Y a plus d'batterie sur le portable, faut encore gratter des textes ouais, ouais J'me sens comme Statham quand il braquait des caisses Crash test, ma génération à fond dans un platane J'avoue, j'ai pu rougir avec un fond d'eau écarlate Nah, j'baisse pas l'son, j'baise ton groupe de garage Répercussion j'ai un groove de cadavre J'bouge que sur des percussions, n'l'ouvre que pour en faire du bon Contre la tentation, j'ai perdu moult bagarres olup Pourquoi qu'ils l'ouvrent, ces bâtards ? Chez nous, on t'nique Ta mère la pute avec un accent grave, eh La rime est pure mais j'te la vendrai pas au gramme tut, tut On crie des sku en bas des baobabs Trop d'putes, trop d'follow, j'en devient mégalomane J'ai des groupies, j'ai du flow au bout du tuyau d'arrosage Croco sur l'polo, quand même, on n'est pas au bagne Alien.VSO, j'ai laissé mon arobase Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Première vitesse, deuxième vitesse, troisième vitesse, quatrième baw C'est kung-fu PX, microphone check it, VSO, ceinture noire, quatrième dan, woh Je pollue la jeunesse comme le plastique des flashballs, t'es has-been comme la file de droite et les flash mob Bouteille de Ciroc, numéro d'SIRET, entrepreneur et intermittent du spectacle J'mets tellement l'pied au plancher qu'j'finis l'genou dans la cave À l'époque, j'allais pointer en Clio 2 rouge à la CAF Maintenant, Nîmes city, ça brûle, j'suis en zone inhabitable J'peux pas sauver l'Amazonie, j'peux enfumer l'habitacle C'est PEX, bro, j'ai découpé l'ordinateur, j'ai des bouts d'verre sous la peau J'ai des couplets formidables, le pommeau d'vitesse sous la paume J'fonce sur tous les rageux, VSO, Lord Esperanza, y a pas d'erreur d'arbitrage Les industriels gèrent les gouvernements, les gouvernements gèrent les populations L'Homme est destiné à se reproduire donc à chaque nouveau feat', j'suis en copulation J'entends quand même des Mec, en fait, tas mis des femmes, mais ten fais qu'à ta gueule J'suis bloqué dans l'cauchemar d'un Télétubbies sous méthamphétamine Les médias taisent qu'un tel est tué, la prise de pouvoir est bien trop factuelle Multiplie par trois le BPM pour avoir mon quotient intellectuel yeah Prince de la trap, j'ai plus l'temps d'jouer, j'serre la main à des gens plus importants que des gens très importants dans un jean troué, yeah À quoi bon refaire nos villes vu qu'la jeunesse veut se perdre nowhere ? J'dérange comme un potager dans Tchernobyl, comme un Camerounais en Père Noël, olup olup J'ai aucun mal à dire adieu, vous pleurez quand vous dites au revoir L.O.R.D pour le cri radieux, Esperanza pour le guitare-voix La couronne est partout, la plupart d'mes anciens professeurs adhèrent au motif Programmé à m'envoler comme processeur aéronautique, wow L.O, VSO yeah, l'argent pousse leurs zygomatiques, fume le cigare sur un lit pneumatique Mon équipe au Vatican roule en plaque diplomatique</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J'suis daltonien mais j'confonds jamais La couleur de la liasse Grandis dans l'noir j'oublie pas la douleur que ça laisse Au fond du puit J'entends encore les chauve-souris Bercé trop près du pot pourri Comme le joker les souris J'crois qu'j'ai des souvenirs du futur J'propose le caillou le plus pur Du côté très obscur de la lumière Il parlèrent mais tous titubèrent J'suis dans le onze titulaire Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glacs fonde Mon ange gardien st cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok You might also like Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok Je reviens des morts, dans ma têtes les confidences La lune écoute mes confidences Trop occupé à façonner mon art J'fais tourner les têtes comme le fils du monarque Le mojo est noir J'arrive dans la pièce, j'cause un silence Aucune bonne étoile peut chasser l'or, le ciel Comment croire les coïncidences Le rap c'est d'la politique Quand la police tire sur les peaux métisses Y a pas d'armistice pour ton orifice Mais les pronostiques m'annoncent trop mystique Tu rentres du goulag, on rentre du boulot On boit la concurrence au goulot Peut importe l'heure, le monde est très noir Parmi les meilleurs produits du terroir Je meurs en teneur, billet tombé noir Jeune entrepreneur, je rentre en peignoir Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glaces fonde Mon ange gardien est cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok</t>
+          <t>J'suis daltonien mais j'confonds jamais La couleur de la liasse Grandis dans l'noir j'oublie pas la douleur que ça laisse Au fond du puit J'entends encore les chauve-souris Bercé trop près du pot pourri Comme le joker les souris J'crois qu'j'ai des souvenirs du futur J'propose le caillou le plus pur Du côté très obscur de la lumière Il parlèrent mais tous titubèrent J'suis dans le onze titulaire Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glacs fonde Mon ange gardien st cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok Je reviens des morts, dans ma têtes les confidences La lune écoute mes confidences Trop occupé à façonner mon art J'fais tourner les têtes comme le fils du monarque Le mojo est noir J'arrive dans la pièce, j'cause un silence Aucune bonne étoile peut chasser l'or, le ciel Comment croire les coïncidences Le rap c'est d'la politique Quand la police tire sur les peaux métisses Y a pas d'armistice pour ton orifice Mais les pronostiques m'annoncent trop mystique Tu rentres du goulag, on rentre du boulot On boit la concurrence au goulot Peut importe l'heure, le monde est très noir Parmi les meilleurs produits du terroir Je meurs en teneur, billet tombé noir Jeune entrepreneur, je rentre en peignoir Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glaces fonde Mon ange gardien est cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Plaire à tout le monde, c'est plaire à des hypocrites, les yeux fermés dans les virages C'est plus des morceaux, c'est des miracles, qui vide son verre, videra son cur Chaque jour de plus, j'suis tiraillé, mais c'est pire ailleurs Grand-mère s'inquiète plus, son p'tit fils vivra son heure J'oublie problèmes dans la foule quand j'ai sauté J'veux voir la ville recouverte de mes photos Le trône n'est qu'un fauteuil, Seigneur, j'ai fauté Les rêves nous rajeunissent, les vrais entre eux se reconnaissent Le temps est tenace, tous les murs jaunissent, c'est plus des menaces mais des promesses Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré J'ai basé mon avenir sur mon audace, j'le fais pour la fierté de mes ancêtres La frontière est large entre la personne que tu es, à qui tu es habitué et celui que tu penses être Prince de la trap devenu roi de la ville, j'ai fini par changer l'décor Tout s'esquinte sauf le destin, tu peux mourir ou enjamber les corps J'ai beau cultiver ma lumière, j'me lève avec un nouveau vice de plus J'me porte bien mieux depuis qu'j'côtoie plus des fils de pute Y'a des risques de pluie, surveille le ciel, regarde les étoiles Prends la plus ancienne et n'oublie jamais que j'existe depuis You might also like Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré Dis-moi pourquoi plus t'encaisses et moins t'es généreux, ma santé mentale a pu dégénérer Nouvelle pop star, j'mange du lobster, Paramour empire, pas d'avocat véreux Trois heures du mat', elle m'demande de rester, désolé ma belle mais l'avenir m'attend C'est plus des morceaux, c'est des manques de respect J'rétablis la monarchie, t'étais où quand j'démarchais toute l'industrie ? Peu de feats sur mon album car les crimes vous laissent trop d'archives J'me sens vénéré, même si les haineux restent, j'avais des craintes et j'en ai fait des rêves Vingt-cinq ans, troisième album, trouve-moi sur l'fauteuil d'Ellen Degeneres</t>
+          <t>Plaire à tout le monde, c'est plaire à des hypocrites, les yeux fermés dans les virages C'est plus des morceaux, c'est des miracles, qui vide son verre, videra son cur Chaque jour de plus, j'suis tiraillé, mais c'est pire ailleurs Grand-mère s'inquiète plus, son p'tit fils vivra son heure J'oublie problèmes dans la foule quand j'ai sauté J'veux voir la ville recouverte de mes photos Le trône n'est qu'un fauteuil, Seigneur, j'ai fauté Les rêves nous rajeunissent, les vrais entre eux se reconnaissent Le temps est tenace, tous les murs jaunissent, c'est plus des menaces mais des promesses Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré J'ai basé mon avenir sur mon audace, j'le fais pour la fierté de mes ancêtres La frontière est large entre la personne que tu es, à qui tu es habitué et celui que tu penses être Prince de la trap devenu roi de la ville, j'ai fini par changer l'décor Tout s'esquinte sauf le destin, tu peux mourir ou enjamber les corps J'ai beau cultiver ma lumière, j'me lève avec un nouveau vice de plus J'me porte bien mieux depuis qu'j'côtoie plus des fils de pute Y'a des risques de pluie, surveille le ciel, regarde les étoiles Prends la plus ancienne et n'oublie jamais que j'existe depuis Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré Dis-moi pourquoi plus t'encaisses et moins t'es généreux, ma santé mentale a pu dégénérer Nouvelle pop star, j'mange du lobster, Paramour empire, pas d'avocat véreux Trois heures du mat', elle m'demande de rester, désolé ma belle mais l'avenir m'attend C'est plus des morceaux, c'est des manques de respect J'rétablis la monarchie, t'étais où quand j'démarchais toute l'industrie ? Peu de feats sur mon album car les crimes vous laissent trop d'archives J'me sens vénéré, même si les haineux restent, j'avais des craintes et j'en ai fait des rêves Vingt-cinq ans, troisième album, trouve-moi sur l'fauteuil d'Ellen Degeneres</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>x2 On verras bien on verras bien J'ai pansé mes parties qui saignent avec le sel de l'eau de la mer L'ange de la mort souhaitera toujours prendre mon âme vers l'au delà mais Tout cela m'est artificiel Tant d'appelés pour si peu d'élus rongés par le froid du déluge La race humaine sacrifie le ciel Grandis dans le désordre Je pleure mes fautes et mes défauts, mes plaies se résorbent Je me construis dans mes blessures et non pas dans le regard des autres mais c'est sûr que je me garde des vôtres Mon égo se perds dans ses césures Et ça fait des heures, que je médite sur ma personne, la lumière pénètre les sous-sols comme ton regard quand tu m'aperçois Mais à part ça je me fais tout seul, faut garder son orgueil pour soi Finit sous le ciel, en rêvant de percer Je vois le monde en rouge sous mes Persol La main tendue, je remercie ceux qui m'attendaient Sois sûr de toi m'a-t-on dit Mais parfois les temps sont durs, après l'orage les tensions durent, ce matin d'hiver qui m'attendrit J'entends le bruit des rivières pourpres quand le ciel s'était étendu On manie la magie des cartes écris l'histoire à l'encre indélébile Intelligent, mais surtout intelligible Devant moi le ciel s'écarte je promets qu'il ne vont pas m'oublier Pars de rien, fais des milliers, dans l'immobilier Pute ma peine est démentielle, laisse place à la rédemption Si les anges pleurent, les démons saignent je suis trop anxieux car les vents sont pas toujours favorables Mais les étoiles filantes qui dansent éclaboussent toutes les reflets de mon ciel Faut savoir prêcher la morale, je revois mes espoirs Empêchant mes pêchés de disparaître pendant l'orage La rage me laisse croire, n'est-ce pas, quand il est trop tard que les larmes versées coulent à même le trottoir A force de trop de proximité, ils finissent même par s'imiter Ma partie noire s'empare de vos égos, vous repartez sans dignité La concurrence est limité, je féconde leur mère, ce sont mes fils Résultat de consanguinitéYou might also like2</t>
+          <t>x2 On verras bien on verras bien J'ai pansé mes parties qui saignent avec le sel de l'eau de la mer L'ange de la mort souhaitera toujours prendre mon âme vers l'au delà mais Tout cela m'est artificiel Tant d'appelés pour si peu d'élus rongés par le froid du déluge La race humaine sacrifie le ciel Grandis dans le désordre Je pleure mes fautes et mes défauts, mes plaies se résorbent Je me construis dans mes blessures et non pas dans le regard des autres mais c'est sûr que je me garde des vôtres Mon égo se perds dans ses césures Et ça fait des heures, que je médite sur ma personne, la lumière pénètre les sous-sols comme ton regard quand tu m'aperçois Mais à part ça je me fais tout seul, faut garder son orgueil pour soi Finit sous le ciel, en rêvant de percer Je vois le monde en rouge sous mes Persol La main tendue, je remercie ceux qui m'attendaient Sois sûr de toi m'a-t-on dit Mais parfois les temps sont durs, après l'orage les tensions durent, ce matin d'hiver qui m'attendrit J'entends le bruit des rivières pourpres quand le ciel s'était étendu On manie la magie des cartes écris l'histoire à l'encre indélébile Intelligent, mais surtout intelligible Devant moi le ciel s'écarte je promets qu'il ne vont pas m'oublier Pars de rien, fais des milliers, dans l'immobilier Pute ma peine est démentielle, laisse place à la rédemption Si les anges pleurent, les démons saignent je suis trop anxieux car les vents sont pas toujours favorables Mais les étoiles filantes qui dansent éclaboussent toutes les reflets de mon ciel Faut savoir prêcher la morale, je revois mes espoirs Empêchant mes pêchés de disparaître pendant l'orage La rage me laisse croire, n'est-ce pas, quand il est trop tard que les larmes versées coulent à même le trottoir A force de trop de proximité, ils finissent même par s'imiter Ma partie noire s'empare de vos égos, vous repartez sans dignité La concurrence est limité, je féconde leur mère, ce sont mes fils Résultat de consanguinité2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Quand jsuis venu au monde, jai dû me tromper dendroit Au moins, jme dis que mon cur est en vie Si tas du mal à te reconnaître en lui Tauras du mal à te reconnaître en moi Ne dis pas à tes rêves que tas des grands problèmes Dis à tes problèmes que tas de très grands rêves Demain, demain nest quun recommencement de toutes nos vies si brèves Je crois que jai toujours fait tache Mes démons jouent à cache-cache En amour, trop dhistoires que je gâche Plus jméloigne, plus elle sattache Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Jsais quon est tous les mêmes devant le sablier Mais jai limpression de lavoir sous contrôle Alors quil n'sera jamais mon allié Pourtant il me fait croire quil a le bon rôle Au final, je préfère des jours remplis de vie Que vivre une longue vie quest juste remplie de jours Avec le temps, même tes souvenirs toublient Jaimerais faire en sorte que maintenant dure toujours Bien sûr que lavenir est lâche Puisque quil nous détruit sans relâche Quand l'éclair du destin se fâche Il ny a quà lespoir que jmattache You might also like Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain1</t>
+          <t>Quand jsuis venu au monde, jai dû me tromper dendroit Au moins, jme dis que mon cur est en vie Si tas du mal à te reconnaître en lui Tauras du mal à te reconnaître en moi Ne dis pas à tes rêves que tas des grands problèmes Dis à tes problèmes que tas de très grands rêves Demain, demain nest quun recommencement de toutes nos vies si brèves Je crois que jai toujours fait tache Mes démons jouent à cache-cache En amour, trop dhistoires que je gâche Plus jméloigne, plus elle sattache Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Jsais quon est tous les mêmes devant le sablier Mais jai limpression de lavoir sous contrôle Alors quil n'sera jamais mon allié Pourtant il me fait croire quil a le bon rôle Au final, je préfère des jours remplis de vie Que vivre une longue vie quest juste remplie de jours Avec le temps, même tes souvenirs toublient Jaimerais faire en sorte que maintenant dure toujours Bien sûr que lavenir est lâche Puisque quil nous détruit sans relâche Quand l'éclair du destin se fâche Il ny a quà lespoir que jmattache Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ouais, j'ai la haine comme Rick Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer Oui j'ai la haine comme Rick Je vous baise comme El Khomri Je m'sens mieux sheitan et comme si je sortais de la salle Je fais toujours mal, mais c'est pas des conneries J'vais finir là-haut tout comme Elie Yaffa Des trucs faux mais t'as pas mieux comme rire J'peux manger une blanquette comme un poulet yassa J'ai pris le son de tes cris comme ma sonnerie Gomme-moi ça, j'dis gomme ma zone J'suis pas un gars maso Chérie, j'ai pas commandé tout ça sur Amazon Moi j'suis là quand l'âme est là, j'fais du sale comme Lamela J'ai cette odeur de fer dans les naseaux J'essaie d'te dire que ma voix transperce la couche d'ozone J'ai sept mercenaires dans la benzo T'as beau dire qu'on est là pour rigoler On a fait danser la meuf que tu voulais gauler, là pour déconner Quand t'as vu qu'j'volais sur la ville vu la villa J'ai trouvé ton corps sur la rive, t'étais plus vert que Piccolo C'est pas dans mes plans de finir plus connu que Nabilla Je peux marquer des buts et picoler Je pense qu'on a pris de la place à la Jarry Que si j'arrive, c'est pour tous les faire décoller Les hommes ont fait des, des dégâts On ne compte plus les balises Tu nous as fait peur, oui Ta meuf a fait ses valises Elle ne compte plus les, les, les gars On ne m'la fait pas, ne fait pas le faux pas J'ai le teint qu'à Bali, Bali, Bali You might also like Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé L'enfant du siècle Démarrer, démarrer, démarrer hé Tu cherches le turf ?, bah c'est ici Je suis venu faire taire leur scepticisme, hein Pendant qu'tu suces moi je té-ma son porte-jarretelles, J'repars les couilles vidées Le cerveau détendu, j'pisse sur leurs dépouilles ridées Tandis qu'le chef de ta secte s'suicide Jarte le J'remplis leur gorge d'insecticide Fumée dense danse dans l'appartement Gère le contrat par tel, très mauvais comportement J'suis le même depuis Hors de portée mais je fais R aparthé non, L.O.R au Parthénon, skrt Elle m'a dit ne pars pas t'es mon boy J'suis comme Gims face à Kenza Farah J'suis dans une séfarade qui taf chez Séphora même si j'suis goy Et l'amour à peine, j'éjacule sur son fard à paupière Pas d'à peu près, non j'suis pas là pour plaire Jump dans ta bitch comme un barrage Parade, commets l'irréparable, pas grave Toute ton équipe part en Poppers J'tombe du ciel comme Marie Poppins Et dans Paris propice Tu n'es qu'un parasite, et ce n'est pas par hasard Doigt d'honneur, j'tire la langue devant le paparazzi Ouais, j'ai la haine comme Rick Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé</t>
+          <t>Ouais, j'ai la haine comme Rick Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer Oui j'ai la haine comme Rick Je vous baise comme El Khomri Je m'sens mieux sheitan et comme si je sortais de la salle Je fais toujours mal, mais c'est pas des conneries J'vais finir là-haut tout comme Elie Yaffa Des trucs faux mais t'as pas mieux comme rire J'peux manger une blanquette comme un poulet yassa J'ai pris le son de tes cris comme ma sonnerie Gomme-moi ça, j'dis gomme ma zone J'suis pas un gars maso Chérie, j'ai pas commandé tout ça sur Amazon Moi j'suis là quand l'âme est là, j'fais du sale comme Lamela J'ai cette odeur de fer dans les naseaux J'essaie d'te dire que ma voix transperce la couche d'ozone J'ai sept mercenaires dans la benzo T'as beau dire qu'on est là pour rigoler On a fait danser la meuf que tu voulais gauler, là pour déconner Quand t'as vu qu'j'volais sur la ville vu la villa J'ai trouvé ton corps sur la rive, t'étais plus vert que Piccolo C'est pas dans mes plans de finir plus connu que Nabilla Je peux marquer des buts et picoler Je pense qu'on a pris de la place à la Jarry Que si j'arrive, c'est pour tous les faire décoller Les hommes ont fait des, des dégâts On ne compte plus les balises Tu nous as fait peur, oui Ta meuf a fait ses valises Elle ne compte plus les, les, les gars On ne m'la fait pas, ne fait pas le faux pas J'ai le teint qu'à Bali, Bali, Bali Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé L'enfant du siècle Démarrer, démarrer, démarrer hé Tu cherches le turf ?, bah c'est ici Je suis venu faire taire leur scepticisme, hein Pendant qu'tu suces moi je té-ma son porte-jarretelles, J'repars les couilles vidées Le cerveau détendu, j'pisse sur leurs dépouilles ridées Tandis qu'le chef de ta secte s'suicide Jarte le J'remplis leur gorge d'insecticide Fumée dense danse dans l'appartement Gère le contrat par tel, très mauvais comportement J'suis le même depuis Hors de portée mais je fais R aparthé non, L.O.R au Parthénon, skrt Elle m'a dit ne pars pas t'es mon boy J'suis comme Gims face à Kenza Farah J'suis dans une séfarade qui taf chez Séphora même si j'suis goy Et l'amour à peine, j'éjacule sur son fard à paupière Pas d'à peu près, non j'suis pas là pour plaire Jump dans ta bitch comme un barrage Parade, commets l'irréparable, pas grave Toute ton équipe part en Poppers J'tombe du ciel comme Marie Poppins Et dans Paris propice Tu n'es qu'un parasite, et ce n'est pas par hasard Doigt d'honneur, j'tire la langue devant le paparazzi Ouais, j'ai la haine comme Rick Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé Démarrer, démarrer, démarrer hé</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>J'ai longtemps cherché à devenir un homme, à courir derrière une quête de sens Soit on fait contre, soit on fait comme, ou on brûle nos rêves dans un bidon dessence Faut pas s'écouter, faut se comprendre m'ont dit les voix qui maccompagnent On dit qu'si l'esprit se concentre, il peut soulever des montagnes Amour et haine enfantent l'équilibre donc je cherche la paix J'ai quitté l'appel, j'raccroche à ma peine, mon cur est sur vibreur Le vent se lève, j'ai plus dexcuse pour abandonner Javais d'jà compris avant de naître quaccepter la mort est le seul moyen qu'on a d'être libre Eh J'fais ltour d'la ville, j'oublie qu'on s'aime, ouais Et puis, j'fais tout c'qu'on m'déconseille Tu sais, moi, j'ai trop patienté mais j'ai plus l'temps d't'aimer Avant qu'on s'aime Laisse-moi t'emmener dans une dernière danse Laisse-moi t'emmener l'temps d'une dernière danse Tu sais, j'm'éternise avant le dernier virage Yeah J'me suis désintégré dans la foule, j'ai fait semblant d'être comme eux L'enfant que j'étais marchait cagoulé pendant que se cherchait l'homme J'l'entends encore souvent crier à l'aide, je le revois se faire emporter par la mer En attendant son retour, je fais feinte, je m'occupe en brûlant des prods à la pelle J'viens de lancer ma tournée 2020, j'me console avec tous ces sold-out à la chaîne J'me dis qu'par l'odeur des rêves, il reviendra, j'le verrai p't-être dans le public de l'Olympia Tous les jours, j'essaie de devenir un homme mais sans devenir adulte J'reste près de l'océan, j'habite au bord, j'attends de voir sa barque ressortir d'la brume Je peux te le jurer sur la vie d'ma mort, je vise la lune En son nom, j'marquerai c'monde avant qu'il n'm'allume En attendant qu'il revienne, j'erre dans la ville, j'oublie qu'on saigne j'oublie qu'on saigne Comme lui, j'fais tout c'qu'on m'déconseille c'qu'on m'déconseille Pourquoi tu restes à patienter ? J'ai même plus l'temps d't'aimer J'attends qu'il revienne Que l'enfant qu'j'étais m'offre une dernière chance Qu'il m'accorde une dernière danse Croiser sa route avant mon dernier virage You might also like Eh J'fais l'tour d'la ville, j'oublie qu'on s'aime, ouais Et puis, j'fais tout c'qu'on m'déconseille Tu sais, moi, j'ai trop patienté mais j'ai plus l'temps d't'aimer Avant qu'on s'aime Laisse-moi t'emmener dans une dernière danse Laisse-moi t'emmener l'temps d'une dernière danse Tu sais, j'm'éternise avant le dernier virage</t>
+          <t>J'ai longtemps cherché à devenir un homme, à courir derrière une quête de sens Soit on fait contre, soit on fait comme, ou on brûle nos rêves dans un bidon dessence Faut pas s'écouter, faut se comprendre m'ont dit les voix qui maccompagnent On dit qu'si l'esprit se concentre, il peut soulever des montagnes Amour et haine enfantent l'équilibre donc je cherche la paix J'ai quitté l'appel, j'raccroche à ma peine, mon cur est sur vibreur Le vent se lève, j'ai plus dexcuse pour abandonner Javais d'jà compris avant de naître quaccepter la mort est le seul moyen qu'on a d'être libre Eh J'fais ltour d'la ville, j'oublie qu'on s'aime, ouais Et puis, j'fais tout c'qu'on m'déconseille Tu sais, moi, j'ai trop patienté mais j'ai plus l'temps d't'aimer Avant qu'on s'aime Laisse-moi t'emmener dans une dernière danse Laisse-moi t'emmener l'temps d'une dernière danse Tu sais, j'm'éternise avant le dernier virage Yeah J'me suis désintégré dans la foule, j'ai fait semblant d'être comme eux L'enfant que j'étais marchait cagoulé pendant que se cherchait l'homme J'l'entends encore souvent crier à l'aide, je le revois se faire emporter par la mer En attendant son retour, je fais feinte, je m'occupe en brûlant des prods à la pelle J'viens de lancer ma tournée 2020, j'me console avec tous ces sold-out à la chaîne J'me dis qu'par l'odeur des rêves, il reviendra, j'le verrai p't-être dans le public de l'Olympia Tous les jours, j'essaie de devenir un homme mais sans devenir adulte J'reste près de l'océan, j'habite au bord, j'attends de voir sa barque ressortir d'la brume Je peux te le jurer sur la vie d'ma mort, je vise la lune En son nom, j'marquerai c'monde avant qu'il n'm'allume En attendant qu'il revienne, j'erre dans la ville, j'oublie qu'on saigne j'oublie qu'on saigne Comme lui, j'fais tout c'qu'on m'déconseille c'qu'on m'déconseille Pourquoi tu restes à patienter ? J'ai même plus l'temps d't'aimer J'attends qu'il revienne Que l'enfant qu'j'étais m'offre une dernière chance Qu'il m'accorde une dernière danse Croiser sa route avant mon dernier virage Eh J'fais l'tour d'la ville, j'oublie qu'on s'aime, ouais Et puis, j'fais tout c'qu'on m'déconseille Tu sais, moi, j'ai trop patienté mais j'ai plus l'temps d't'aimer Avant qu'on s'aime Laisse-moi t'emmener dans une dernière danse Laisse-moi t'emmener l'temps d'une dernière danse Tu sais, j'm'éternise avant le dernier virage</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C'est Speranza enchanté Au moins 20 textes en chantier Espère en moi, souhaite pas ma chute Car j'peux tout faire même chanter C'est Speranza enchanté Au moins 20 textes en chantier Espère en moi, souhaite pas ma chute Car j'peux tout faire même chanter Composer du génie pur bah parfois mec ouais ça rend fou Mais ça renfloue mon écriture comme le labo d'un savant fou Surveillez vos progénitures, quelqu'un pourrait l'faire avant vous Je sais qu'c'est triste mais l'déni dure, ici j'vous donne qu'un avant-goût J'vais disséquer les diques-sa et dès qu'ça kick on m'dit que ça va faire du sale J'ai l'don que ces mecs déconseillent vas-y comme-ça, gars Dès qu'on saigne, on perd du sel On entre en scène fonsdés sous taga Dès qu'on saigne, on perd du sel On entre en scène fonsdés sous taga Merde ces mecs sont inanimés Car j'les rends tous unanimes, et T'inquiète ap' dans l'rap on y met Corps et âme, ce qui nous anime Nétant pas à 10, pour ça j'suis sincèrement puissant J'm'en sers dans ce jeu, prête serment Pour percer l'enceinte en passant J'ai du créer, aimer, crier, ils m'ont grillé ces mécréants Tremper ma plume dans l'encrier que des créas', j'écris l'néant À coup d'crayon j'suis pas Neo mais l'élu de la ville lumière Vu que j'allume tous les néons, j'demeure visible jusquà Laumière À force de trop d'proximité, ils finissent même par s'imiter Ça m'est égal, finissez, j'suis aidé d'mes facilités Donc dès qu'on trinque j'suis décontracté Des contacts et des qu'on tracte, t'aimes pas d'contrainte Que des contrats, j'bois, décontracte L'EP c'est Hors de Portée, ça sort d'ici peu Mes dissidents sont dissipés, sont pas venus participer Mais avant tout anticiper, tandis qu'ils sont partis pisser L'EP c'est Hors de Portée, ça sort d'ici peu Et il en perd ses repères, c'est envisageable de percer Le visage pâle, dévisage pas, mais s'retrouve parfois percé Occulté par ses fans ou parfois même par ses femmes S'il perd son phone c'est pour sa pomme Il purge sa peine comme Perséphone Tandis qu'j'enseigne les érudits J'vois que des mecs qu'ont pas raison Évite les mêmes comparaisons Moi j'suis en scelle pour les rubis Ouais j'étudie et j'ai tout dit hombre J'suis plus vif que mon ombre Les faux MC's, bah... j'en compte un bon nombre Dans tes cahiers que des cailloux Des pépites d'or au bout des doigts J'perds mes écailles et mes caillots Ça n'se tisera qu'au vin de choix Énigmatique comme 23, sur le divan j'demande du vin Pendant qu'ma diva m'fait du vent J'prends les devants, j'deviens devin Y'a plus d'un tour dans l'sac à dos à Marcadet flow saccadé J'marque l'arrêt passe à Max Do' mais finis peut-être à Cadet Abesses ou à Bès-Bar, khouya labess Le volume, nan tu l'baisses pas, ou y'a la pêche J'suis en terrain connu, plus de racines qu'un baobab On m'demande si j'suis pas au max, j'réponds en terre inconnue Parfois trop vaillant, même sans travailler je mélève Le maître perd son latin face à ce qui sort de mes lèvres Je suis la tortue venue pour surpasser tous les lièvres C't'année, tu t'ambiances sur qu'un petit élève Le Lord est insolent, guette ce flow étincelant C'est la loi du plus fort donc bientôt j'règne comme Aslan De l'intérêt j'ai suscité ouais tous mes textes à su citer Personne menterre dans ma city Car j'finis par ressusciter yeah Car j'finis par ressusciter yeah Car j'finis par ressusciter yeahYou might also like1</t>
+          <t>C'est Speranza enchanté Au moins 20 textes en chantier Espère en moi, souhaite pas ma chute Car j'peux tout faire même chanter C'est Speranza enchanté Au moins 20 textes en chantier Espère en moi, souhaite pas ma chute Car j'peux tout faire même chanter Composer du génie pur bah parfois mec ouais ça rend fou Mais ça renfloue mon écriture comme le labo d'un savant fou Surveillez vos progénitures, quelqu'un pourrait l'faire avant vous Je sais qu'c'est triste mais l'déni dure, ici j'vous donne qu'un avant-goût J'vais disséquer les diques-sa et dès qu'ça kick on m'dit que ça va faire du sale J'ai l'don que ces mecs déconseillent vas-y comme-ça, gars Dès qu'on saigne, on perd du sel On entre en scène fonsdés sous taga Dès qu'on saigne, on perd du sel On entre en scène fonsdés sous taga Merde ces mecs sont inanimés Car j'les rends tous unanimes, et T'inquiète ap' dans l'rap on y met Corps et âme, ce qui nous anime Nétant pas à 10, pour ça j'suis sincèrement puissant J'm'en sers dans ce jeu, prête serment Pour percer l'enceinte en passant J'ai du créer, aimer, crier, ils m'ont grillé ces mécréants Tremper ma plume dans l'encrier que des créas', j'écris l'néant À coup d'crayon j'suis pas Neo mais l'élu de la ville lumière Vu que j'allume tous les néons, j'demeure visible jusquà Laumière À force de trop d'proximité, ils finissent même par s'imiter Ça m'est égal, finissez, j'suis aidé d'mes facilités Donc dès qu'on trinque j'suis décontracté Des contacts et des qu'on tracte, t'aimes pas d'contrainte Que des contrats, j'bois, décontracte L'EP c'est Hors de Portée, ça sort d'ici peu Mes dissidents sont dissipés, sont pas venus participer Mais avant tout anticiper, tandis qu'ils sont partis pisser L'EP c'est Hors de Portée, ça sort d'ici peu Et il en perd ses repères, c'est envisageable de percer Le visage pâle, dévisage pas, mais s'retrouve parfois percé Occulté par ses fans ou parfois même par ses femmes S'il perd son phone c'est pour sa pomme Il purge sa peine comme Perséphone Tandis qu'j'enseigne les érudits J'vois que des mecs qu'ont pas raison Évite les mêmes comparaisons Moi j'suis en scelle pour les rubis Ouais j'étudie et j'ai tout dit hombre J'suis plus vif que mon ombre Les faux MC's, bah... j'en compte un bon nombre Dans tes cahiers que des cailloux Des pépites d'or au bout des doigts J'perds mes écailles et mes caillots Ça n'se tisera qu'au vin de choix Énigmatique comme 23, sur le divan j'demande du vin Pendant qu'ma diva m'fait du vent J'prends les devants, j'deviens devin Y'a plus d'un tour dans l'sac à dos à Marcadet flow saccadé J'marque l'arrêt passe à Max Do' mais finis peut-être à Cadet Abesses ou à Bès-Bar, khouya labess Le volume, nan tu l'baisses pas, ou y'a la pêche J'suis en terrain connu, plus de racines qu'un baobab On m'demande si j'suis pas au max, j'réponds en terre inconnue Parfois trop vaillant, même sans travailler je mélève Le maître perd son latin face à ce qui sort de mes lèvres Je suis la tortue venue pour surpasser tous les lièvres C't'année, tu t'ambiances sur qu'un petit élève Le Lord est insolent, guette ce flow étincelant C'est la loi du plus fort donc bientôt j'règne comme Aslan De l'intérêt j'ai suscité ouais tous mes textes à su citer Personne menterre dans ma city Car j'finis par ressusciter yeah Car j'finis par ressusciter yeah Car j'finis par ressusciter yeah1</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ça cest pour les curs Quon peut pas réparer Tous ceux quont peur Plein de pudeur Qui nosent plus parler Tous ceux quont des failles dans lappareil Ceux qui ne se sentent pas de taille Jamais dans les rails Qui ne sont pas pareil Mais je ne vais rien faire, juste pour vous plaire Jen suis fier, et je ne compte pas me taire Compte pas sur moi pour me laisser faire Pour mes adolescents perdus Ceux qui ne voient la vie quen sens interdit Qui vont consommer pour se consoler C'est le seul pansement, quand on se ment Je crois que cest langoisse Du temps qui passe Qui fait quon débat du temps quil fait Donc cest pour ça quon parle Quon se compare Que les rumeurs sont amplifiées You might also likeFaut pas écouter ce quils vont décréter, sont bons quà répéter Pour mes LGBT, mes passionnés quentendent tout le temps tu devrais prendre un vrai métier Ils te disent différent, que tu les déranges Mais en soit, cest pas vraiment ça On reproche aux autres ce quon veut pas voir en soi Je suis Différent Et toi Dis, moi Ce qui dérange On est plein à ne pas rentrer dans le rang Différent Et toi Dis, moi Ce qui dérange Y'a rien détrange Si je suis Différent Tout ça me rend indifférent</t>
+          <t>Ça cest pour les curs Quon peut pas réparer Tous ceux quont peur Plein de pudeur Qui nosent plus parler Tous ceux quont des failles dans lappareil Ceux qui ne se sentent pas de taille Jamais dans les rails Qui ne sont pas pareil Mais je ne vais rien faire, juste pour vous plaire Jen suis fier, et je ne compte pas me taire Compte pas sur moi pour me laisser faire Pour mes adolescents perdus Ceux qui ne voient la vie quen sens interdit Qui vont consommer pour se consoler C'est le seul pansement, quand on se ment Je crois que cest langoisse Du temps qui passe Qui fait quon débat du temps quil fait Donc cest pour ça quon parle Quon se compare Que les rumeurs sont amplifiées Faut pas écouter ce quils vont décréter, sont bons quà répéter Pour mes LGBT, mes passionnés quentendent tout le temps tu devrais prendre un vrai métier Ils te disent différent, que tu les déranges Mais en soit, cest pas vraiment ça On reproche aux autres ce quon veut pas voir en soi Je suis Différent Et toi Dis, moi Ce qui dérange On est plein à ne pas rentrer dans le rang Différent Et toi Dis, moi Ce qui dérange Y'a rien détrange Si je suis Différent Tout ça me rend indifférent</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jpeux pas faire semblant Un par un les regards semblent méfiants Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile Debout sous la voûte céleste, jme sens toujours déboussolé Les plaies sestomperont comme les coups dsoleil Jai consommé pour me consoler Mon cerveau veut plus fonctionner Dis moi donc à quoi bon finir tout seul Marcher des heures et navoir que leau comme frontière Je te parle de demain lorsque les autres racontent hier Si l'instant est un présent, le passé est une prison Dites moi qu'l'avenir sera moins oppressant Comment faire semblant Un par un, les regards semblent méfiants Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc You might also like Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile J'ai d'abord grandi sans repère, puis j'ai vu vieillir tant de cerfs Vivre au point où tout nous semble terni Face à tes plus grandes peurs, mais finalement ce qui fend le cur n'est rien devant le vide de l'éternité Encore un soir où le nous prend trop de place Encore un soir où la ville change de visage Encore un soir où des corps inertes se déplacent Encore un soir où tout s'déforme dans ce paysage J'peux pas faire semblant Un parent les regarde, semble méfiant Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile</t>
+          <t>Jpeux pas faire semblant Un par un les regards semblent méfiants Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile Debout sous la voûte céleste, jme sens toujours déboussolé Les plaies sestomperont comme les coups dsoleil Jai consommé pour me consoler Mon cerveau veut plus fonctionner Dis moi donc à quoi bon finir tout seul Marcher des heures et navoir que leau comme frontière Je te parle de demain lorsque les autres racontent hier Si l'instant est un présent, le passé est une prison Dites moi qu'l'avenir sera moins oppressant Comment faire semblant Un par un, les regards semblent méfiants Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile J'ai d'abord grandi sans repère, puis j'ai vu vieillir tant de cerfs Vivre au point où tout nous semble terni Face à tes plus grandes peurs, mais finalement ce qui fend le cur n'est rien devant le vide de l'éternité Encore un soir où le nous prend trop de place Encore un soir où la ville change de visage Encore un soir où des corps inertes se déplacent Encore un soir où tout s'déforme dans ce paysage J'peux pas faire semblant Un parent les regarde, semble méfiant Maintenant qujy pense, cest pas récent les yeux rouge sang Jen laisse une goutte sur le drapeau blanc Jai camouflé mes défauts sous un manteau noir Tu sais, cest pas facile Mes sentiments acides ont bouché lentonnoir Tu sais, cest pas facile</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>On a tous quelque chose d'exceptionnel Tu sais que j'ai sectionné mon âme en deux Prenant l'temps de réceptionner La mort d'mes émotions quand la déception naît Fils de pute, j'entre dans la légende sans le vouloir Destin funeste dans un couloir Rentre en cabine, crache des flammes orangères On aime pas les cases où l'Etat nous range J'suis dans l'carré, j'leur adresse un regard moqueur L'amour c'est le moteur Je te parle de notre torts Gloire à ceux qui prennent garde à nos curs J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets On s'endort seul face à la lune, hey J'ai la main gauche sur ton front, hey Je vois qu'nos egos se confrontent Mais je me sens Mieux, mieux, mieux, mieux, mieux, mieux Lorsque ton ombre s'allume Je vais bien ne t'en fais pas La victoire est moins belle, si j'y arrive sans faux pas Guidé par le chant des saisons J'ai pris beaucoup de décisions irrévocables J'ai grandi dans le vacarme Je prends conscience du bien lorsque le pire m'accable Vu l'destin macabre-cabre-cabre J'suis en studio, Goldstein Studio Sous l'capot, le cheval s'cabre, s'cabre, s'cabre You might also like J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets Tu sais qu'leur démarche est passable Comment veux-tu qu'j'avance sans l'ciel Tous nos egos sont incassables Fils de pute j'marche sur ta Sacem Yeah, Majeur Mineur, hun, hun J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets3</t>
+          <t>On a tous quelque chose d'exceptionnel Tu sais que j'ai sectionné mon âme en deux Prenant l'temps de réceptionner La mort d'mes émotions quand la déception naît Fils de pute, j'entre dans la légende sans le vouloir Destin funeste dans un couloir Rentre en cabine, crache des flammes orangères On aime pas les cases où l'Etat nous range J'suis dans l'carré, j'leur adresse un regard moqueur L'amour c'est le moteur Je te parle de notre torts Gloire à ceux qui prennent garde à nos curs J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets On s'endort seul face à la lune, hey J'ai la main gauche sur ton front, hey Je vois qu'nos egos se confrontent Mais je me sens Mieux, mieux, mieux, mieux, mieux, mieux Lorsque ton ombre s'allume Je vais bien ne t'en fais pas La victoire est moins belle, si j'y arrive sans faux pas Guidé par le chant des saisons J'ai pris beaucoup de décisions irrévocables J'ai grandi dans le vacarme Je prends conscience du bien lorsque le pire m'accable Vu l'destin macabre-cabre-cabre J'suis en studio, Goldstein Studio Sous l'capot, le cheval s'cabre, s'cabre, s'cabre J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets Tu sais qu'leur démarche est passable Comment veux-tu qu'j'avance sans l'ciel Tous nos egos sont incassables Fils de pute j'marche sur ta Sacem Yeah, Majeur Mineur, hun, hun J'observe ton reflet dans la brume J'fais taire mes regrets Le sable s'accumule sur les dunes Comme nos derniers secrets3</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Et je me sens si seul auprès de toi Oui, je me sens si seul auprès de toi Une silhouette envoûtante C'est l'enfer qui vous tente Ton regard si moqueur Va embraser mon cur Pourquoi tu m'compares en vain ? Je ne suis plus le même quauparavant Tu m'caches ta nudité derrière le mystère de ton paravent Je fuis lorsque le soleil se lève Apparemment, je ne suis pas ton pire amant Des perles d'eau viennent saler ses lèvres Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle L'âme en perte, devant l'univers et son immensité J'me revois chuter, j'm'revois lutter, pour façonner mon identité Je fuis lorsque le soleil se lève Apparemment, je ne suis pas ton pire amant Des perles d'eau viennent saler ses lèvres Apparemment, je ne suis pas ton pire amant Ton ombre est tapie dans le silence Sous les étoiles filantes qui dansent J'reprends tes mots sans te citer On rêve tous de s'émanciper You might also like Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle J'me sens si seul auprès de toi J'me sens si seul auprès de toi</t>
+          <t>Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Et je me sens si seul auprès de toi Oui, je me sens si seul auprès de toi Une silhouette envoûtante C'est l'enfer qui vous tente Ton regard si moqueur Va embraser mon cur Pourquoi tu m'compares en vain ? Je ne suis plus le même quauparavant Tu m'caches ta nudité derrière le mystère de ton paravent Je fuis lorsque le soleil se lève Apparemment, je ne suis pas ton pire amant Des perles d'eau viennent saler ses lèvres Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle L'âme en perte, devant l'univers et son immensité J'me revois chuter, j'm'revois lutter, pour façonner mon identité Je fuis lorsque le soleil se lève Apparemment, je ne suis pas ton pire amant Des perles d'eau viennent saler ses lèvres Apparemment, je ne suis pas ton pire amant Ton ombre est tapie dans le silence Sous les étoiles filantes qui dansent J'reprends tes mots sans te citer On rêve tous de s'émanciper Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle Encore elle, encore elle, encore elle, encore elle J'me sens si seul auprès de toi J'me sens si seul auprès de toi</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nos fous rires, nos danses, nos souvenirs Toutes ces promesses quon n'a pas su tenir Jai retrouvé la liste de tous les prénoms Des enfants imaginaires quon n'aura jamais Quand tu serrais mon bras sur la moto On aurait pu rouler jusquau soleil Jai encore regardé toutes nos photos Pour me rappeler pourquoi on saimait Tu joues avec ma tolérance Tu ne m'a laissé que lerrance Donc, je manque de cohérence Jai connu trop de tolérence Jattendais de vrais réponses Même à deux tu t sens seul Lamour, quest-ce que jen sais ? Pleurs des pluies torrentielles Cur couleur arc-en-ciel Putain, ce que ça rend seul Comment faire pour avancer ? Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire You might also likeAller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Tas le cur inflammable Jai le goût du risque Quand je souris maintenant, jai lair triste Tes dhumeur, Hiroshima, mon amour Toute la rue nous regardait Quand ta colère bombardait Rongé par ton orgueil, tout vire au drame Cest plus fort que toi, tu dois tout gâcher Une flamme au fond de lil Chéri t'es pyromane Tu détruis quand tu as peur de tattacher Pleurs des pluies torrentielles Cur couleur arc-en-ciel Putain, ce que ça rend seul Comment faire pour avancer ? Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière</t>
+          <t>Nos fous rires, nos danses, nos souvenirs Toutes ces promesses quon n'a pas su tenir Jai retrouvé la liste de tous les prénoms Des enfants imaginaires quon n'aura jamais Quand tu serrais mon bras sur la moto On aurait pu rouler jusquau soleil Jai encore regardé toutes nos photos Pour me rappeler pourquoi on saimait Tu joues avec ma tolérance Tu ne m'a laissé que lerrance Donc, je manque de cohérence Jai connu trop de tolérence Jattendais de vrais réponses Même à deux tu t sens seul Lamour, quest-ce que jen sais ? Pleurs des pluies torrentielles Cur couleur arc-en-ciel Putain, ce que ça rend seul Comment faire pour avancer ? Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Tas le cur inflammable Jai le goût du risque Quand je souris maintenant, jai lair triste Tes dhumeur, Hiroshima, mon amour Toute la rue nous regardait Quand ta colère bombardait Rongé par ton orgueil, tout vire au drame Cest plus fort que toi, tu dois tout gâcher Une flamme au fond de lil Chéri t'es pyromane Tu détruis quand tu as peur de tattacher Pleurs des pluies torrentielles Cur couleur arc-en-ciel Putain, ce que ça rend seul Comment faire pour avancer ? Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière Laisse le temps ralentir Avant de partir Ça fait bien mal quand on fait mal Le bien, cest pire Aller-retour en enfer Si je me retourne encore Tu me transformes en pierre Le 1 des deux qui perd Cest celui qui est en tort Je gagne si je reste fière</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Les dieux me disent qu'il était temps J'me laisse prendre par la tentation Un cran d'arrêt vaut de grandes actions Tellement d'victoires qu'on va fêter ça yeah C'est l'retour du talent détestable M'appelle pas frère, dernière fois qu'on s'est vu Dis-moi c'était quand C'est la prose enflammée Ici-bas toutes les roses ont fané yeah Vie momentanée Je vais régner nonante années J'viens même plus dans toutes vos soirées Moi, j'lui mords l'oreille, j'suis son Luis Suárez Fashion week, j'arrive en Touareg 2M, L.O.R. enfoiré J'suis entamé Les fleurs ont fané sur ma planète, cellophanée J'vois même pas net, j'arrive en roi, j'pars acclamé Les fleurs ont fané sur ma planète, cellophanée J'suis entamé Tout est noir, délinquant, avant la mort, caché dans poche de son veston J'ai pas l'temps de te voir, ma musique répondra à toutes vos questions J'rappe sale, c'est trop réel, j'suis né sous aurore boréale Avec la vie, j'suis un peu cruel, avec la mort j'suis en chorée à-l Dans ma chambre d'enfant les as s'alignent encore Réveille les enfers, les paradis vont s'taire J'le fais pour mettre mère de famille en Corse Deviens un homme, ne m'a pas dit mon père Bâti par l'empire sur un qu'est ce t'en penses ? Milliers d'euros mais je reste tranquille Baisse d'un ton, yeah, j'suis l'best en France Cinquante toiles Valentoine sur une veste en jean Sors des cercles, pour combien tu restes en transe Ton rappeur préf' dans un french cancan You might also like J'suis entamé Les fleurs ont fané sur ma planète, cellophanée J'vois même pas net, j'arrive en roi, j'pars acclamé Les fleurs ont fané sur ma planète, cellophanée J'suis entamé</t>
+          <t>Les dieux me disent qu'il était temps J'me laisse prendre par la tentation Un cran d'arrêt vaut de grandes actions Tellement d'victoires qu'on va fêter ça yeah C'est l'retour du talent détestable M'appelle pas frère, dernière fois qu'on s'est vu Dis-moi c'était quand C'est la prose enflammée Ici-bas toutes les roses ont fané yeah Vie momentanée Je vais régner nonante années J'viens même plus dans toutes vos soirées Moi, j'lui mords l'oreille, j'suis son Luis Suárez Fashion week, j'arrive en Touareg 2M, L.O.R. enfoiré J'suis entamé Les fleurs ont fané sur ma planète, cellophanée J'vois même pas net, j'arrive en roi, j'pars acclamé Les fleurs ont fané sur ma planète, cellophanée J'suis entamé Tout est noir, délinquant, avant la mort, caché dans poche de son veston J'ai pas l'temps de te voir, ma musique répondra à toutes vos questions J'rappe sale, c'est trop réel, j'suis né sous aurore boréale Avec la vie, j'suis un peu cruel, avec la mort j'suis en chorée à-l Dans ma chambre d'enfant les as s'alignent encore Réveille les enfers, les paradis vont s'taire J'le fais pour mettre mère de famille en Corse Deviens un homme, ne m'a pas dit mon père Bâti par l'empire sur un qu'est ce t'en penses ? Milliers d'euros mais je reste tranquille Baisse d'un ton, yeah, j'suis l'best en France Cinquante toiles Valentoine sur une veste en jean Sors des cercles, pour combien tu restes en transe Ton rappeur préf' dans un french cancan J'suis entamé Les fleurs ont fané sur ma planète, cellophanée J'vois même pas net, j'arrive en roi, j'pars acclamé Les fleurs ont fané sur ma planète, cellophanée J'suis entamé</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Légitimité incontestable Tu m'vois comme le public voyait Cantona quitter le stade Piétinez la, piétinez-la, piétinez la carrière de l'ennemi sur ces frontières délimitées Comment peux-tu vouloir feater le diable ? J'ai compris qu'ma concurrence, composée d'enfants limités J'préfère encore proposer c'flow pour les regarder s'entre-tuer Tentant vainement de l'imiter L.O Chaque jour j'regarde devant, j'deviens devin J'supprime résidus bactériques, bah ouais La force et le talent nous caractérisent, bah ouais J'suis venu féconder ta daronne car j'veux pas qu't'hérites, bah ouais La ferveur du paraître fait pas l'poids de tes rimes, bah ouais J'suis l'enfant du siècle, j'suis l'enfant terrible, bah ouais Ton cerveau s'compresse devant la télé-lé Infranchissable comme Makélélé Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es You might also like L-O Ma cote augmente J'suis tellement proche de mes ennemis J'confonds c'putain d'Death Note et mon carnet d'adresses L-O-R fait la une dans la presse J'ai vu l'ange de la mort entrain de camoufler ses cornes On manie la magie des cartes Les cris retentissent quand c'est l'hiver n'attendant pas qu'on se libère Disparaissent qu'en cassant les verres Fondation consolidée Tout niquer comme comme seule idée Dans 2 ans chez Coachella tu vas finir aux Solidays Ta défaite est si laide Le miroir sembrase, j'le regarde mourir sans l'aider J'les vois r'muer ciel et terre pour faire un concert solidaire J'ai pas tiré ma révérence au dessus d'ton rappeur préféré Ainsi qu'son backeur référent même si j'apprécie les deux Yah, ton cerveau s'compresse devant la télé-lé Oy, infranchissable comme Makélélé Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es</t>
+          <t>Légitimité incontestable Tu m'vois comme le public voyait Cantona quitter le stade Piétinez la, piétinez-la, piétinez la carrière de l'ennemi sur ces frontières délimitées Comment peux-tu vouloir feater le diable ? J'ai compris qu'ma concurrence, composée d'enfants limités J'préfère encore proposer c'flow pour les regarder s'entre-tuer Tentant vainement de l'imiter L.O Chaque jour j'regarde devant, j'deviens devin J'supprime résidus bactériques, bah ouais La force et le talent nous caractérisent, bah ouais J'suis venu féconder ta daronne car j'veux pas qu't'hérites, bah ouais La ferveur du paraître fait pas l'poids de tes rimes, bah ouais J'suis l'enfant du siècle, j'suis l'enfant terrible, bah ouais Ton cerveau s'compresse devant la télé-lé Infranchissable comme Makélélé Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es L-O Ma cote augmente J'suis tellement proche de mes ennemis J'confonds c'putain d'Death Note et mon carnet d'adresses L-O-R fait la une dans la presse J'ai vu l'ange de la mort entrain de camoufler ses cornes On manie la magie des cartes Les cris retentissent quand c'est l'hiver n'attendant pas qu'on se libère Disparaissent qu'en cassant les verres Fondation consolidée Tout niquer comme comme seule idée Dans 2 ans chez Coachella tu vas finir aux Solidays Ta défaite est si laide Le miroir sembrase, j'le regarde mourir sans l'aider J'les vois r'muer ciel et terre pour faire un concert solidaire J'ai pas tiré ma révérence au dessus d'ton rappeur préféré Ainsi qu'son backeur référent même si j'apprécie les deux Yah, ton cerveau s'compresse devant la télé-lé Oy, infranchissable comme Makélélé Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es Sois respectueux, sois respectable On assure le spectable Dis-moi qui tu es, dis-moi qui tu es Dis-moi, dis-moi qui tu es</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-sceller God damn, dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Oui, mes mercenaires reverraient d'inverser l'aire Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure, j'persévère, Nasa gang interstellaire De Paris même jusqu'à New Delhi J'les élimine ah, ils veulent délimiter des lignes Mais l'enfant du siècle s'illumine comme lenluminure dans l'alinéa Un soir de pleine lune, où les astres s'alignent Mon ambition est planétaire tel le cartel de Medellín, ah J'étale mon art sur triptyque, fils j'ai l'équipe-type Qui kick ? Speranza, naturellement c'est sismique Ce genre de 2 mesures de démesure Haha, parait qu'ça coûte au moins 6 SMICs Les constats mentent, c'qui compte c'est l'dépassement J'ai des placements constamment en déplacement J'suis en-haut du classement, je perçois leur entassement Yeah, vêtu d'un accoutrement mystique A la fois maître de mon art et perdu dans ses artifices Un génie triste t'apporte une pierre en plus pour bâtir l'édifice Si t'écoutes tu participes, yeah Les lettres d'or du Lord s'accorde à merveille avec l'incipit Athéna ma génitrice, j'assouvis mes pensées cupides En décuplant mes bénéfices, yeah J'vois quelques étoiles dans le ciel qui nous laissent briller Ce qui m'importe c'est qu'les miens s'extirpent Tout mon talent s'exprime, où ça ? Dépeint sur les fresques intemporelles qui plafonnent la chapelle Sixtine Esquisse sur esquisse Parfait comme le maintien cyclique des astres lors d'une année bissextile Est-c'que j'surestime ? Nan J'rencontre celui qu'j'ai envie d'être en délaissant l'autre homme qui s'exile Une once de génie s'exhibe, j'exige la Présence des miens dans la Salle du Temps et de l'Esprit Je vois la Grande Ours dans le ciel donc je me laisse guider Lord Esperanza J'suis juste le babtou le plus fort de la plupart de tes négros Attiré par l'argent sale, tout c'que j'dois faire c'est d'le blanchir Oui le Lord est ténébreux, pourrait dénigrer tes négros Venu pour enclencher les enchères, il m'reste que l'Everest à franchir Ouvrir plus d'un compte en Suisse, 2-3 au Monténégro Dis-toi qu'mes parents savent même pas que je vais bâtir un empire M'écouter c'est m'adopter, c'est l'même effet que quand t'as su C'que ça faisait d's'enfumer sous bonne weed pendant qu'elle te suce Défoncé dans la piscine, sous 30 degrés Celsius On parle peu, on crache ce feu, si t'en doutes j'vais t'montrer négroYou might also like</t>
+          <t>Blunt de blueberry, inenvisageable que je décélère Je dédie ces lignes pour mes scélérats dans un best-sceller God damn, dans 3 ans j'ai mon coupé gris Arrête le temps, l'espace d'un instant Merde, nos mères sénervent et mon père perd ses nerfs Oui, mes mercenaires reverraient d'inverser l'aire Donc c'est l'ange Gabriel qui nous bénit Toile signée Matisse chez mon receleur J'crois qu'c'est l'heure, j'persévère, Nasa gang interstellaire De Paris même jusqu'à New Delhi J'les élimine ah, ils veulent délimiter des lignes Mais l'enfant du siècle s'illumine comme lenluminure dans l'alinéa Un soir de pleine lune, où les astres s'alignent Mon ambition est planétaire tel le cartel de Medellín, ah J'étale mon art sur triptyque, fils j'ai l'équipe-type Qui kick ? Speranza, naturellement c'est sismique Ce genre de 2 mesures de démesure Haha, parait qu'ça coûte au moins 6 SMICs Les constats mentent, c'qui compte c'est l'dépassement J'ai des placements constamment en déplacement J'suis en-haut du classement, je perçois leur entassement Yeah, vêtu d'un accoutrement mystique A la fois maître de mon art et perdu dans ses artifices Un génie triste t'apporte une pierre en plus pour bâtir l'édifice Si t'écoutes tu participes, yeah Les lettres d'or du Lord s'accorde à merveille avec l'incipit Athéna ma génitrice, j'assouvis mes pensées cupides En décuplant mes bénéfices, yeah J'vois quelques étoiles dans le ciel qui nous laissent briller Ce qui m'importe c'est qu'les miens s'extirpent Tout mon talent s'exprime, où ça ? Dépeint sur les fresques intemporelles qui plafonnent la chapelle Sixtine Esquisse sur esquisse Parfait comme le maintien cyclique des astres lors d'une année bissextile Est-c'que j'surestime ? Nan J'rencontre celui qu'j'ai envie d'être en délaissant l'autre homme qui s'exile Une once de génie s'exhibe, j'exige la Présence des miens dans la Salle du Temps et de l'Esprit Je vois la Grande Ours dans le ciel donc je me laisse guider Lord Esperanza J'suis juste le babtou le plus fort de la plupart de tes négros Attiré par l'argent sale, tout c'que j'dois faire c'est d'le blanchir Oui le Lord est ténébreux, pourrait dénigrer tes négros Venu pour enclencher les enchères, il m'reste que l'Everest à franchir Ouvrir plus d'un compte en Suisse, 2-3 au Monténégro Dis-toi qu'mes parents savent même pas que je vais bâtir un empire M'écouter c'est m'adopter, c'est l'même effet que quand t'as su C'que ça faisait d's'enfumer sous bonne weed pendant qu'elle te suce Défoncé dans la piscine, sous 30 degrés Celsius On parle peu, on crache ce feu, si t'en doutes j'vais t'montrer négro</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Yeah, cracheur de feu est un métier, menottes serrées, arcade pétée J'lappelle la nuit, j'me sens si seul, elle vient m'pick up dans un pick-up Une relation qui prend la moisissure, elle croit qu'j'lui mens, elle croit qu'j'la manipule Y a pas longtemps qu'j'suis sorti du hood mais j'sais très bien qu'j'vais y retourner Mais avant ça, j'me suis promis de toucher à tout c'que j'veux toucher De goûter à tout c'que j'veux goûter, côtoyer lopulence de tout près Nous, on taffe même quand cest dimanche, tu comprends pas, renoi, jtai dit Notre équipement, cest leur déguisement, on sait quils mentent de toute évidence Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Yeah, j'veux pas dune condition misérable, réussir ou mourir comme seule conviction viscérale Le bruit de la foule est assourdissant mais n'mempêche pas décrire depuis le cur du sample, yeah Moi, jai peur du sens de la vie mais j'suis perdu sans Jai camouflé mes peines sur un écran vert, Paramour en noir sur mon étendard La vie rêve de devoir être rangée mais ses limites me sont étrangères Souvenirs calcinés dans l'cendar, noyer ma réussite dans du vingt ans dâge Finir ma vie dans villa vers Tanger et quitter le monde après vie légendaire Dis-moi qui marrêtera, trouve la fin d'lhorizon dans ma rétine Rap français jambe écartées, jarrive inattendu comme un tapis rouge dans les quartiers, yeah, yeah Les voix dans ma tête ont des voix dans leur tête, je suis de ceux qui s'dévoilent dans leurs textes Le monde est-il à portée pour avenir avorté dans un bout de latex ? Jai vite compris que la vie me donnerait ce que j'veux si j'la braque cagoulé Jaurai c'que je voulais, moi, je taime pas comme Jean-Marie, yeah Prince de la ville, j'suis dans Paris, yeah, armé de patience, de patience, de patience Canon scié sur mon barillet Tout c'que je touche devient de lor, mon nom gravé dans lau-delà, ouais Dis pas qu'largent est indolore, ça pue la sueur dans mes dollars, ouais Jai vu le jour un soir où tombe le tonnerre, on m'reproche davoir un cur un peu trop large Ma raison tolère les raisins d'ma colère, tous solitaires pour l'dernier décollage You might also like Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Impossible j'let it go, man, yeah, peu importe les contraintes J'travaille fort pour ce shit la, quand on créé, on fait des chefs-duvre Tu sleepes sur mon rap, tas des acariens, cest du rap québécois, pas canadien La musique et moi, cest comme homme et chien, on est des poètes, pas des comédiens Yah, donnez-moi une minute que jme téléporte sur Venus Que jaille chill avec mes OVNIs, quand on fume, on d'vient des zombis On nous respecte jusquà lautre bout du globe, maintenant, on sait cest quoi, le goût du kub Mais ça change rien à notre amour de vivre, heureux même quand jsuis à court de rimes Tu pop des pills, quest-c'tu fous, dog ? On smoke le weed like Snoop Dogg Comme Eman sip le Courvoisier, prends une gorgée pour la courtoisie Maintenant, on joue dans la cour des grands, impossible quon soit à court de cran Des fois en r'tard, toujours dans les temps, I make the better of me tout le temps Oh oui, holá, Imma get, get, get high et me voilà On nous voit dans lstraat, tu dis whats up mais quand jfais dla musique, cest pas pour ça Wow là, prends une minute pour lire mon verse parce que s'tas pas compris, ça vaut la peine, eh Ah pis peu importe tant qutu bouges, temps qutu feel Hey Zay, you gotta dance Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go</t>
+          <t>Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Yeah, cracheur de feu est un métier, menottes serrées, arcade pétée J'lappelle la nuit, j'me sens si seul, elle vient m'pick up dans un pick-up Une relation qui prend la moisissure, elle croit qu'j'lui mens, elle croit qu'j'la manipule Y a pas longtemps qu'j'suis sorti du hood mais j'sais très bien qu'j'vais y retourner Mais avant ça, j'me suis promis de toucher à tout c'que j'veux toucher De goûter à tout c'que j'veux goûter, côtoyer lopulence de tout près Nous, on taffe même quand cest dimanche, tu comprends pas, renoi, jtai dit Notre équipement, cest leur déguisement, on sait quils mentent de toute évidence Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Yeah, j'veux pas dune condition misérable, réussir ou mourir comme seule conviction viscérale Le bruit de la foule est assourdissant mais n'mempêche pas décrire depuis le cur du sample, yeah Moi, jai peur du sens de la vie mais j'suis perdu sans Jai camouflé mes peines sur un écran vert, Paramour en noir sur mon étendard La vie rêve de devoir être rangée mais ses limites me sont étrangères Souvenirs calcinés dans l'cendar, noyer ma réussite dans du vingt ans dâge Finir ma vie dans villa vers Tanger et quitter le monde après vie légendaire Dis-moi qui marrêtera, trouve la fin d'lhorizon dans ma rétine Rap français jambe écartées, jarrive inattendu comme un tapis rouge dans les quartiers, yeah, yeah Les voix dans ma tête ont des voix dans leur tête, je suis de ceux qui s'dévoilent dans leurs textes Le monde est-il à portée pour avenir avorté dans un bout de latex ? Jai vite compris que la vie me donnerait ce que j'veux si j'la braque cagoulé Jaurai c'que je voulais, moi, je taime pas comme Jean-Marie, yeah Prince de la ville, j'suis dans Paris, yeah, armé de patience, de patience, de patience Canon scié sur mon barillet Tout c'que je touche devient de lor, mon nom gravé dans lau-delà, ouais Dis pas qu'largent est indolore, ça pue la sueur dans mes dollars, ouais Jai vu le jour un soir où tombe le tonnerre, on m'reproche davoir un cur un peu trop large Ma raison tolère les raisins d'ma colère, tous solitaires pour l'dernier décollage Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go Impossible j'let it go, man, yeah, peu importe les contraintes J'travaille fort pour ce shit la, quand on créé, on fait des chefs-duvre Tu sleepes sur mon rap, tas des acariens, cest du rap québécois, pas canadien La musique et moi, cest comme homme et chien, on est des poètes, pas des comédiens Yah, donnez-moi une minute que jme téléporte sur Venus Que jaille chill avec mes OVNIs, quand on fume, on d'vient des zombis On nous respecte jusquà lautre bout du globe, maintenant, on sait cest quoi, le goût du kub Mais ça change rien à notre amour de vivre, heureux même quand jsuis à court de rimes Tu pop des pills, quest-c'tu fous, dog ? On smoke le weed like Snoop Dogg Comme Eman sip le Courvoisier, prends une gorgée pour la courtoisie Maintenant, on joue dans la cour des grands, impossible quon soit à court de cran Des fois en r'tard, toujours dans les temps, I make the better of me tout le temps Oh oui, holá, Imma get, get, get high et me voilà On nous voit dans lstraat, tu dis whats up mais quand jfais dla musique, cest pas pour ça Wow là, prends une minute pour lire mon verse parce que s'tas pas compris, ça vaut la peine, eh Ah pis peu importe tant qutu bouges, temps qutu feel Hey Zay, you gotta dance Faut cqui faut, mmh, mmh Jmets toutes les fuckboys qui parlaient dans mon dos, mmh, mmh Maintenant, on mpaye comme du monde pour rocker des shows, mmh, mmh Mais jai su faire mon ch'min, jai pas regardé les autres, mmh, mmh j'ai pas r'gardé les autres Ouh, I love my shit, jpas prêt de let it go</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ici, l'amour nous sert d'essence et peut parfois faire taire mes sens J'pense aux sans domicile fixe qui vivent pas trop le confinement dense J'ai peur d'échouer et perdre l'aisance en pleine effervescence Les conflits dansent sur l'continent et j'continue mes confidences Ma France, que tu es belle quand tu es apeurée, la vie m'a dit Faut pas s'leurer Pas étonnant qu'on vienne au monde et qu'au bout de quelques secondes Attendant que l'orage ne gronde, on commence nos vies par pleurer Hyper sceptique, face au vide perceptible, comprenant pas qu'il y a toujours au moins cinq perspectives On prend conscience de la hauteur qu'en descendant Dis-toi que c'est qu'une armure si tu me trouves condescendant Nouvelle angoisse nocturne, j'me réfugie dans les écrans Rien n'est blanc, rien n'est noir, tout est gris, Dieu est grand grand Faut qu'j'perpétue l'héritage, loin des singes mis en cage Proche des sages et d'leur courage, j'tourne la page, j'oublie l'orage Dans le fond d'mon dix ans d'âge, la rage est une prise d'otage dans laquelle les médisants nagent Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Finalement, on met une vie à sortir de nos chrysalides J'aimerais apprendre à me connaître avant d'comprendre les pyramides Qu'y a t-il après la vie ? Après la mort ? Après la cime ? À quoi bon vivre seuls dans nos villes, maintenus par l'adrénaline ? La mélodie à peine audible se mêle au disque, c'est maladif Du mal à dire, si l'âme est pure, comme les notif' que l'on me diffuse Ah, j'sais plus quoi faire, l'info est trop exponentielle J'regrette mon innocence, prenant nuages, recollant l'ciel La conseillère d'orientation se désoriente en prenant l'seum Tu m'étonnes qu'elle comprenne pas la beauté des jeunes potentiels Savoir si salvateur, tous dans des salles d'attente libres Ma jeunesse crée, autour de moi, j'vois que des Salvator Dali La terre est née, bulleuse, on est nés cimentés Et j'rêve encore une fois de rejoindre les nébuleuses You might also like Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Les semestres très beaux n'effacent pas les sinistrés Ici bas, on compte les jours au rythme des nôtres défenestrés J'te donnerai pas d'promesses qui t'aident, j'garderai ma dignité L'homme pense qu'un peu d'promiscuité s'transforme en ambiguïté J'oublie pas qu'les aiguilles saignent même dans le cimetière des rêves La terre s'dérègle car on la traite comme une péripatéticienne Colérique mais je montre pas d'rictus, sentiments font du karaté Comment soigner mon caractère en comptant qu'sur l'eucalyptus ? On finira inoubliable comme lil des Illuminatis Jeunesse désuvrée préfère tout inhaler J'me demande si j'suis de taille mais y a qu'à voir les éclipses, les astres aussi se livrent bataille Un arc-en-ciel noir recouvre nos souvenirs ensevelis, j'ai l'impression que mes sens évoluent Ici, tu sais, les ego s'évaluent, tout ce qu'on pense, c'est voulu Tout ce qu'on dit, c'est voulu, tout ce qu'on fait, c'est voulu J'attends d'voir le contenu de ton cur pour que l'on se valide L'homme prend l'mensonge, l'aspire et le gobe Finalement, quoi d'mieux qu'un confinement pour faire respirer le globe ? Et j'vous l'dis doucement, j'pense aux régions, aux arrondissements J'dois vous laisser, il est vingt heures, j'entends les applaudissements</t>
+          <t>Ici, l'amour nous sert d'essence et peut parfois faire taire mes sens J'pense aux sans domicile fixe qui vivent pas trop le confinement dense J'ai peur d'échouer et perdre l'aisance en pleine effervescence Les conflits dansent sur l'continent et j'continue mes confidences Ma France, que tu es belle quand tu es apeurée, la vie m'a dit Faut pas s'leurer Pas étonnant qu'on vienne au monde et qu'au bout de quelques secondes Attendant que l'orage ne gronde, on commence nos vies par pleurer Hyper sceptique, face au vide perceptible, comprenant pas qu'il y a toujours au moins cinq perspectives On prend conscience de la hauteur qu'en descendant Dis-toi que c'est qu'une armure si tu me trouves condescendant Nouvelle angoisse nocturne, j'me réfugie dans les écrans Rien n'est blanc, rien n'est noir, tout est gris, Dieu est grand grand Faut qu'j'perpétue l'héritage, loin des singes mis en cage Proche des sages et d'leur courage, j'tourne la page, j'oublie l'orage Dans le fond d'mon dix ans d'âge, la rage est une prise d'otage dans laquelle les médisants nagent Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Finalement, on met une vie à sortir de nos chrysalides J'aimerais apprendre à me connaître avant d'comprendre les pyramides Qu'y a t-il après la vie ? Après la mort ? Après la cime ? À quoi bon vivre seuls dans nos villes, maintenus par l'adrénaline ? La mélodie à peine audible se mêle au disque, c'est maladif Du mal à dire, si l'âme est pure, comme les notif' que l'on me diffuse Ah, j'sais plus quoi faire, l'info est trop exponentielle J'regrette mon innocence, prenant nuages, recollant l'ciel La conseillère d'orientation se désoriente en prenant l'seum Tu m'étonnes qu'elle comprenne pas la beauté des jeunes potentiels Savoir si salvateur, tous dans des salles d'attente libres Ma jeunesse crée, autour de moi, j'vois que des Salvator Dali La terre est née, bulleuse, on est nés cimentés Et j'rêve encore une fois de rejoindre les nébuleuses Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Si j'montais, si j'montais, si j'montais Les semestres très beaux n'effacent pas les sinistrés Ici bas, on compte les jours au rythme des nôtres défenestrés J'te donnerai pas d'promesses qui t'aident, j'garderai ma dignité L'homme pense qu'un peu d'promiscuité s'transforme en ambiguïté J'oublie pas qu'les aiguilles saignent même dans le cimetière des rêves La terre s'dérègle car on la traite comme une péripatéticienne Colérique mais je montre pas d'rictus, sentiments font du karaté Comment soigner mon caractère en comptant qu'sur l'eucalyptus ? On finira inoubliable comme lil des Illuminatis Jeunesse désuvrée préfère tout inhaler J'me demande si j'suis de taille mais y a qu'à voir les éclipses, les astres aussi se livrent bataille Un arc-en-ciel noir recouvre nos souvenirs ensevelis, j'ai l'impression que mes sens évoluent Ici, tu sais, les ego s'évaluent, tout ce qu'on pense, c'est voulu Tout ce qu'on dit, c'est voulu, tout ce qu'on fait, c'est voulu J'attends d'voir le contenu de ton cur pour que l'on se valide L'homme prend l'mensonge, l'aspire et le gobe Finalement, quoi d'mieux qu'un confinement pour faire respirer le globe ? Et j'vous l'dis doucement, j'pense aux régions, aux arrondissements J'dois vous laisser, il est vingt heures, j'entends les applaudissements</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Encore une nuit parfumée dhistoire Je tobserve quand tu pars fumer La ville nest quun miroir Où les lumières te suivent car tu nest Quune étoile filante dans le noir Difficile de tentrevoir Je tai fais du mal sans le voir et je regrette ohohoh Tes dans une prison de paraître Non tu nétais pas préparée Ce soir seul le ciel nous arrête Et lui pourquoi veut nous séparer ? Non tu nétais pas préparée Tes dans une prison de paraître Lamour dans un 20 mètres carrés Mais Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3 Encore une nuit parfumée dhistoire Je tobserve quand tu pars fumer Il y a peu de choses que tu me laisses voir Tes larmes couler lors des marches funestes Difficile de tentrevoir sous un plafond de cendres noires Je tai fait du mal sans le voir et je regrette You might also likeTes dans une prison de paraître Non tu nétais pas préparée Ce soir seul le ciel nous arrête Et lui pourquoi veut nous séparer ? Non tu nétais pas préparée Tes dans une prison de paraître Lamour dans un 20 mètres carrés Mais Tes ma fenêtre sur le monde oh oh oh oh x4 A quoi sert dêtre une reine sur un trône en terre oh Jai pas construit mes rêves sur tes commentaires oh Il faudrait quon menferme, jnous croyait complémentaires, oh Nos destins sont sédentaires, jsais plus comment faire oh Mais dis-moi comment jpourrais tabandonner étant donné oh Que jme bats pour te garder depuis tant dannées, jsuis condamné oh A te souiller, de toutes façons oh jai tant donné oh Que la tristesse me fait signe oh et que la fin me pend au nez oh Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3 Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3</t>
+          <t>Encore une nuit parfumée dhistoire Je tobserve quand tu pars fumer La ville nest quun miroir Où les lumières te suivent car tu nest Quune étoile filante dans le noir Difficile de tentrevoir Je tai fais du mal sans le voir et je regrette ohohoh Tes dans une prison de paraître Non tu nétais pas préparée Ce soir seul le ciel nous arrête Et lui pourquoi veut nous séparer ? Non tu nétais pas préparée Tes dans une prison de paraître Lamour dans un 20 mètres carrés Mais Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3 Encore une nuit parfumée dhistoire Je tobserve quand tu pars fumer Il y a peu de choses que tu me laisses voir Tes larmes couler lors des marches funestes Difficile de tentrevoir sous un plafond de cendres noires Je tai fait du mal sans le voir et je regrette Tes dans une prison de paraître Non tu nétais pas préparée Ce soir seul le ciel nous arrête Et lui pourquoi veut nous séparer ? Non tu nétais pas préparée Tes dans une prison de paraître Lamour dans un 20 mètres carrés Mais Tes ma fenêtre sur le monde oh oh oh oh x4 A quoi sert dêtre une reine sur un trône en terre oh Jai pas construit mes rêves sur tes commentaires oh Il faudrait quon menferme, jnous croyait complémentaires, oh Nos destins sont sédentaires, jsais plus comment faire oh Mais dis-moi comment jpourrais tabandonner étant donné oh Que jme bats pour te garder depuis tant dannées, jsuis condamné oh A te souiller, de toutes façons oh jai tant donné oh Que la tristesse me fait signe oh et que la fin me pend au nez oh Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3 Tes ma fenêtre sur le monde oh oh oh oh Ma fenêtre sur le monde oh oh oh oh x3</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Triste à dire, mais tout s'attend à disparaître J'ai des défauts, j'sais qu'ils peuvent nuires Jusqu'au jour où le vice m'arrête Merde, les anges crient à l'aide S'attend à 10 pareilles avant d'le devenir Apparemment j'suis apparenté à Paramour Certains cuisine la mort dans une caravane Moi j'suis devenu celui que j'rêvais d'être Auparavant, j'arrive comme un feu de forêt Ou une bombe en plein carnaval J'vois des enfants pieds nus qui pleurent Quand le clown réveille toute la fête foraine Les balles tirent le signal d'alarme Wow, l'amour s'achète, j'tombe amoureux sur Tinder J'ai des idées qui pourraient me faire prendre 10 ans ferme J'parle entre quatre yeux avec le serpent des enfers J'ai des potes à qui j'peux pas trop m'fier J'finirais trop fier, même bien atrophié Hiéroglyphes triangulaires dans les pentagones Ce matin j'ai tué un chat surtout comme Chantal Goya Imagine mon enterrement, la famille qui pleure à droite, les jaloux qui chantent à gauche Très jeune prostituée sur la banquette arrière A part ça le monde est calme Début de carrière dans des rues qu'empestent la pierre et l'urine fécale J'ai vu la faille de l'Homme dans un détail Mon ange gardien porte un gilet d'explosifs Beaucoup font de l'argent pour l'art, moi j'veux faire de l'art pour les gens Dit moi, est-ce plausible ? 8 milliards à mes rentes, ma rétine en caméra Je vois que tout les camés rampent vers un bonheur artificiel Quand il pleut j'me dit juste que Dieu est parti pisser Pour les cons la Terre est plate Pour moi tout est une question de largeur Jeunesse bercée par la symphonie des chargeurs J'écris sous bouffée délirante Quand le doute sort le déni rentre J'm'inquiète plus depuis que je sais Que j'suis le plus béni d'entre eux Le roi est mort, vive le roi Têtes coupés en rythme pour que tout les civils dansent Langue se délit devant le S.O double barre J'attends lumière comme âme en peine Qu'attend qu'le serveur ouvre le bar Ma vie n'est qu'un crash test A toute vitesse sur le boulevard L.O.R.D tu l'oublie pas comme le faciès de Poelvoorde Ici y'a pas de couplet bâclé, parle pas Faut décupler tout le cash, pas les balles J'veux 10 Porsches coupé bas chez Planet Rap Bidon d'essence sur You might also like</t>
+          <t>Triste à dire, mais tout s'attend à disparaître J'ai des défauts, j'sais qu'ils peuvent nuires Jusqu'au jour où le vice m'arrête Merde, les anges crient à l'aide S'attend à 10 pareilles avant d'le devenir Apparemment j'suis apparenté à Paramour Certains cuisine la mort dans une caravane Moi j'suis devenu celui que j'rêvais d'être Auparavant, j'arrive comme un feu de forêt Ou une bombe en plein carnaval J'vois des enfants pieds nus qui pleurent Quand le clown réveille toute la fête foraine Les balles tirent le signal d'alarme Wow, l'amour s'achète, j'tombe amoureux sur Tinder J'ai des idées qui pourraient me faire prendre 10 ans ferme J'parle entre quatre yeux avec le serpent des enfers J'ai des potes à qui j'peux pas trop m'fier J'finirais trop fier, même bien atrophié Hiéroglyphes triangulaires dans les pentagones Ce matin j'ai tué un chat surtout comme Chantal Goya Imagine mon enterrement, la famille qui pleure à droite, les jaloux qui chantent à gauche Très jeune prostituée sur la banquette arrière A part ça le monde est calme Début de carrière dans des rues qu'empestent la pierre et l'urine fécale J'ai vu la faille de l'Homme dans un détail Mon ange gardien porte un gilet d'explosifs Beaucoup font de l'argent pour l'art, moi j'veux faire de l'art pour les gens Dit moi, est-ce plausible ? 8 milliards à mes rentes, ma rétine en caméra Je vois que tout les camés rampent vers un bonheur artificiel Quand il pleut j'me dit juste que Dieu est parti pisser Pour les cons la Terre est plate Pour moi tout est une question de largeur Jeunesse bercée par la symphonie des chargeurs J'écris sous bouffée délirante Quand le doute sort le déni rentre J'm'inquiète plus depuis que je sais Que j'suis le plus béni d'entre eux Le roi est mort, vive le roi Têtes coupés en rythme pour que tout les civils dansent Langue se délit devant le S.O double barre J'attends lumière comme âme en peine Qu'attend qu'le serveur ouvre le bar Ma vie n'est qu'un crash test A toute vitesse sur le boulevard L.O.R.D tu l'oublie pas comme le faciès de Poelvoorde Ici y'a pas de couplet bâclé, parle pas Faut décupler tout le cash, pas les balles J'veux 10 Porsches coupé bas chez Planet Rap Bidon d'essence sur</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>J'arrive en avance comme Hubert Reeves, jcommande rappeur sur Uber Eats Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz Jme suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien J'étais déjà le plus fort dans le ventre de ma mère fais-le, tu m'intéresses pas comme les blagues de Nagui Rien à foutre, jécoute pas ton avis, au dernier étage tout comme Angela Mer 'kel Skula, skula, skula, ma tête sur des autocollants, ma tête sur des photocopies Skula, skula, skula, trouve moi sur des photos 3D, jai l'flow que tes potos copient Phénoménal, phénoménal, phénoménal, wow, plus je rappe, plus je rappe, plus j'fais du métal, wow J'te trouve aucun adjectif dénominal, hmm, jfous l'seum dans les prolon' comme le péno final J'tiens les murs comme Van Buyten skulabanks, trouve-moi flex dans Lambo blanche fion, fion Dans l'coffre-fort en mitaines skulabanks, y a que des as dans nos mains switch droit Plus fort que nos pères comme Son Goten, oh yeah, j'me sentirai plus libre sans voter, oh yeah Tout niquer à vingt-cinq comme Toni Kroos, j'rigole de leur musique sans gluten, oh yeah Fuck c'que l'Etat fédéral donne, j'ai fait des ratures, j'ai fait des rappeurs, j'en ai ras l'bol Si Dieu a chanté la vie, j'suis l'premier album En avance comme Elon Musk, j'joue avec ta tête comme pelote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien You might also like Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Benz Trouve-moi flex dans le Merco Benz, flex dans l'Merco L.O.R, rec' en cours, rocambolesque comme Rocancourt Chaque jour, j'charbonne, j'ai l'monde à béqueter, dieu nous a fait mais il a bâclé J'essaie l'amour, j'essaie la bêtise, j'veux tout c'qui brille comme Leïla Bekhti Sont bons qu'à faire des remarques, j'arrive Terre d'Hermès, t'arrives paire d'Air Max, woaw En avance comme Elon Musk, joue avec ta tête comme pelote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Benz Trouve-moi flex dans le Merco Benz, flex dans l'Merco Faut pas faire des trucs comme ça les gars yeah Si j'le fais, c'est pour nourrir le cur des ancêtres et celui de ta petite sur en troisième J'bosse pour passer les 70 prochaines années de ma vie sur un bateau en croisière J'suis chaud cosmopolitain, sûrement dû à mon joli teint J'rigole du passé entre deux rendez-vous quand je croise mon buzz dans l'métropolitain Si la mort est un long sommeil, mon âme est un bon oreiller J'sors du centième concert, j'me demande encore si l'bonheur y est Chasse démons comme Ghost-Buster, MIMS mets la cam dans un bonnet rayé J'oublierai rien quand j'serai oscarisé pour mon premier rôle dans un blockbuster J'arrive manteau d'fourrures sur une Kawasaki Peu d'erreurs, pas mal d'acquis, déguste un sashimi dans un lit baldaquin Elles ont tétons cachés par boule de Wasabi Ce chemin n'effraie que les esprits les plus étriqués J'repousse les frontières du réel tout comme les chamans africains J'ai mis mon cur sur un disque dur ah ouais, ouais, ouais J'vois pas l'bonheur dans un disque d'or ah ouais, ouais, ouais J'ai mis mon cur sur un disque dur ah ouais, ouais, ouais J'vois pas l'bonheur dans un disque d'or Pas là pour laisser parler ces fils de ptes La blonde, la rousse, l'asiate, la russe, j'sais pas celle qui m'excite le plus Souvent l'impression qu'mes envies s'déforment J'suis dans L.A Parano, là, c'est LO pas un autre On va faire taire, taire tous les vices de forme J'veux une vie de fleur de lys et d'lustres Numéro 1, j'suis l'second, le troisième, hey Le mojo est magmatique J'me réveille dans sombre cul de la voisine, ah Plus fort que les galactiques Y a beaucoup de choses dans l'monde de stalag J'appelle platiste, ingé en feu sur ce micro devient stalactites Bah ouais, j'leur conseille du xan après l'repas pour s'en remettre J'suis 100 vrai, il ressemble au renoi dans Malcolm quand il court cent mètres Heu, heu, c'est le bruit qu'elle fait quand je la, heu, heu Rentre dans l'studio pour l'feat', tu ressors, tu fais hmm Ma tête sur des pièces de monnaie, ah J'rappe sur toi depuis sa d'temps J'veux que monnaie acquiesce J'ai mis carte sur table Jamais perdant, nouvelle paire d'as J'arrive sur mon char d'assaut J'me lève déterminé, j'm'endors sur une fesse de Kardashian Olup, la révolution sera digitalisée J'remplirai des stades au Mexique comme Alizée La glande est pinéalisée La jeunesse n'arrête pas de m'idéaliser Génération Nike, trop libéralisée Voiture noire, vitre noire, veste noire J'arrive présidentialisé La blonde, la rousse, l'asiate, la russe J'sais pas celle qui m'excite le plus Souvent l'impression qu'mes envies s'déforment J'suis dans L.A Parano, là, c'est LO pas un autre On va faire taire, taire tous les vis de forme On veut une vie de fleur de lys et d'lustres Numéro 1, j'suis l'second, le troisième, hey Petit prince énigmatique Je l'fais pour qu'la daronne soit en croisière Passe au studio, s'tu veux m'croiser Elle veut mon cur et mon phrasé Quand je quitte la salle du temps J'laisse des traînées de lave embrasée Premier classique comme illmatic J'crois qu'j'suis malade, toutes les filles m'attirent J'me sens comme Yao Ming J'm'assois sur eux tel Mimi Mathy Pas d'concurrence, j'suis en feat avec moi-même, validé Trois ans qu'j'écris l'histoire J'finirai comme Mohamed Ali, yeah</t>
+          <t>J'arrive en avance comme Hubert Reeves, jcommande rappeur sur Uber Eats Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz Jme suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien J'étais déjà le plus fort dans le ventre de ma mère fais-le, tu m'intéresses pas comme les blagues de Nagui Rien à foutre, jécoute pas ton avis, au dernier étage tout comme Angela Mer 'kel Skula, skula, skula, ma tête sur des autocollants, ma tête sur des photocopies Skula, skula, skula, trouve moi sur des photos 3D, jai l'flow que tes potos copient Phénoménal, phénoménal, phénoménal, wow, plus je rappe, plus je rappe, plus j'fais du métal, wow J'te trouve aucun adjectif dénominal, hmm, jfous l'seum dans les prolon' comme le péno final J'tiens les murs comme Van Buyten skulabanks, trouve-moi flex dans Lambo blanche fion, fion Dans l'coffre-fort en mitaines skulabanks, y a que des as dans nos mains switch droit Plus fort que nos pères comme Son Goten, oh yeah, j'me sentirai plus libre sans voter, oh yeah Tout niquer à vingt-cinq comme Toni Kroos, j'rigole de leur musique sans gluten, oh yeah Fuck c'que l'Etat fédéral donne, j'ai fait des ratures, j'ai fait des rappeurs, j'en ai ras l'bol Si Dieu a chanté la vie, j'suis l'premier album En avance comme Elon Musk, j'joue avec ta tête comme pelote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Benz Trouve-moi flex dans le Merco Benz, flex dans l'Merco L.O.R, rec' en cours, rocambolesque comme Rocancourt Chaque jour, j'charbonne, j'ai l'monde à béqueter, dieu nous a fait mais il a bâclé J'essaie l'amour, j'essaie la bêtise, j'veux tout c'qui brille comme Leïla Bekhti Sont bons qu'à faire des remarques, j'arrive Terre d'Hermès, t'arrives paire d'Air Max, woaw En avance comme Elon Musk, joue avec ta tête comme pelote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de shh sait pas d'où j'viens, ride la ville comme prince saoudien Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Benz Trouve-moi flex dans le Merco Benz, flex dans l'Merco Faut pas faire des trucs comme ça les gars yeah Si j'le fais, c'est pour nourrir le cur des ancêtres et celui de ta petite sur en troisième J'bosse pour passer les 70 prochaines années de ma vie sur un bateau en croisière J'suis chaud cosmopolitain, sûrement dû à mon joli teint J'rigole du passé entre deux rendez-vous quand je croise mon buzz dans l'métropolitain Si la mort est un long sommeil, mon âme est un bon oreiller J'sors du centième concert, j'me demande encore si l'bonheur y est Chasse démons comme Ghost-Buster, MIMS mets la cam dans un bonnet rayé J'oublierai rien quand j'serai oscarisé pour mon premier rôle dans un blockbuster J'arrive manteau d'fourrures sur une Kawasaki Peu d'erreurs, pas mal d'acquis, déguste un sashimi dans un lit baldaquin Elles ont tétons cachés par boule de Wasabi Ce chemin n'effraie que les esprits les plus étriqués J'repousse les frontières du réel tout comme les chamans africains J'ai mis mon cur sur un disque dur ah ouais, ouais, ouais J'vois pas l'bonheur dans un disque d'or ah ouais, ouais, ouais J'ai mis mon cur sur un disque dur ah ouais, ouais, ouais J'vois pas l'bonheur dans un disque d'or Pas là pour laisser parler ces fils de ptes La blonde, la rousse, l'asiate, la russe, j'sais pas celle qui m'excite le plus Souvent l'impression qu'mes envies s'déforment J'suis dans L.A Parano, là, c'est LO pas un autre On va faire taire, taire tous les vices de forme J'veux une vie de fleur de lys et d'lustres Numéro 1, j'suis l'second, le troisième, hey Le mojo est magmatique J'me réveille dans sombre cul de la voisine, ah Plus fort que les galactiques Y a beaucoup de choses dans l'monde de stalag J'appelle platiste, ingé en feu sur ce micro devient stalactites Bah ouais, j'leur conseille du xan après l'repas pour s'en remettre J'suis 100 vrai, il ressemble au renoi dans Malcolm quand il court cent mètres Heu, heu, c'est le bruit qu'elle fait quand je la, heu, heu Rentre dans l'studio pour l'feat', tu ressors, tu fais hmm Ma tête sur des pièces de monnaie, ah J'rappe sur toi depuis sa d'temps J'veux que monnaie acquiesce J'ai mis carte sur table Jamais perdant, nouvelle paire d'as J'arrive sur mon char d'assaut J'me lève déterminé, j'm'endors sur une fesse de Kardashian Olup, la révolution sera digitalisée J'remplirai des stades au Mexique comme Alizée La glande est pinéalisée La jeunesse n'arrête pas de m'idéaliser Génération Nike, trop libéralisée Voiture noire, vitre noire, veste noire J'arrive présidentialisé La blonde, la rousse, l'asiate, la russe J'sais pas celle qui m'excite le plus Souvent l'impression qu'mes envies s'déforment J'suis dans L.A Parano, là, c'est LO pas un autre On va faire taire, taire tous les vis de forme On veut une vie de fleur de lys et d'lustres Numéro 1, j'suis l'second, le troisième, hey Petit prince énigmatique Je l'fais pour qu'la daronne soit en croisière Passe au studio, s'tu veux m'croiser Elle veut mon cur et mon phrasé Quand je quitte la salle du temps J'laisse des traînées de lave embrasée Premier classique comme illmatic J'crois qu'j'suis malade, toutes les filles m'attirent J'me sens comme Yao Ming J'm'assois sur eux tel Mimi Mathy Pas d'concurrence, j'suis en feat avec moi-même, validé Trois ans qu'j'écris l'histoire J'finirai comme Mohamed Ali, yeah</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay Te rappelles-tu quand on traversait Paris le soir A lheure où cest le pire ça Quand la Tour Eiffel shabille despoir Les hommes nus regardaient tes sourires en coin Javoue que jai du en souffrir un peu Ta robe pouvait recouvrir un pont Observez pas tous les ronds-points Après la nocturne dans les Beaux-Arts, on dit se manquer yeah yeah yeah yeah Personne dans les rues pour entendre nos dissonances yeah yeah yeah yeah Alors jai finit par te murmurer doucement yeah yeah yeah yeah Je préfère te laisser dans ton ignorance Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay You might also like Les nuages éternuent quand les gratte-ciels se réveillent Tu pleures sous les réverbères et tous tes grains de sel se révèlent Pigalle sendort sous une pluie daddiction Montmartre fait danser les curs Mon XVIIIème a rempli sa mission Le soleil a brûlé nos peurs Le VI ème est froid comme le marbre de ses halls Paris la nuit bien loin de ses idéaux Même les anges sont dénués dauréole On finit par voir les arbres dici laube Nos banlieues sont multicolores Comme les aurores boréales Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay</t>
+          <t>Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay Te rappelles-tu quand on traversait Paris le soir A lheure où cest le pire ça Quand la Tour Eiffel shabille despoir Les hommes nus regardaient tes sourires en coin Javoue que jai du en souffrir un peu Ta robe pouvait recouvrir un pont Observez pas tous les ronds-points Après la nocturne dans les Beaux-Arts, on dit se manquer yeah yeah yeah yeah Personne dans les rues pour entendre nos dissonances yeah yeah yeah yeah Alors jai finit par te murmurer doucement yeah yeah yeah yeah Je préfère te laisser dans ton ignorance Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay Les nuages éternuent quand les gratte-ciels se réveillent Tu pleures sous les réverbères et tous tes grains de sel se révèlent Pigalle sendort sous une pluie daddiction Montmartre fait danser les curs Mon XVIIIème a rempli sa mission Le soleil a brûlé nos peurs Le VI ème est froid comme le marbre de ses halls Paris la nuit bien loin de ses idéaux Même les anges sont dénués dauréole On finit par voir les arbres dici laube Nos banlieues sont multicolores Comme les aurores boréales Yeah-eah on a traversé ensemble cette forêt dciment Mais je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence Je suis de ceux qui font ce quils veulent Alors arrête de mharceler sans arrêt Tu membarrasses plus rien ne tarrête Moi je me sens vraiment mieux seul Moi qui demandait juste un peu plus de silence, ay ay ay ay</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J'avais ton âge y a encore quelques pages Le passage à lâge adulte est grisant dans le virage Devenir une femme y a pas de stage, pas de rattrapage Je sais que tu l'as pas décidé, mais tu le portes cet héritage Alors apprends à faire avec, rien n'est acquis vraiment Mais noublie pas d'être une femme avant d'être une maman Pense à ton arrière grand-mère qui pouvait pas décider, même pas divorcer, à peine respirer Fais pas l'enfant gâté, rien n'est jamais gagné Écoute, j'ai pris quelques notes Petite, t'as le sentiment d'être différente, tu marches pas dans les clous, cest peut-être toi qui as raison et les autres qui sont fous Après tout qui crée les codes et les tabous? Qui a dit que ceux qui rentraient pas dans le cadre deviendraient rien du tout Souvent les futures génies sont mauvaises à lécole et souvent c'est les plus timides qui deviennent des idoles Alors en classe, si le professeur te casse, te dit que tes bonne à rien, l'ouvre pas trop ou alors ouvre-la bien T'inquiète pas si t'es petite, tinquiète pas si t'es grosse Les popus du collège sont les premières à devenir des cassos Écoute pas les ragots, leurs conseils à la con Écoute ce que dit ton cur, il a souvent raison Apprends à t'aimer toi, t'es quelqu'un de spécial Spécial c'est suffisant, pas besoin de la jouer original Les petits bonheurs de la vie sont souvent les plus cools Chanter Céline Dion à tue-tête, tu verras ça défoule Entoure-toi bien, de gens qui t'aiment, regarde seulement ceux qui te donnent et pas ceux qui te prennent Petite, tu as eu le temps petite Petite, prends de l'élan, la vie c'est une course de fond, t'as besoin d'entraînement Tu monteras des projets qui se casseront la figure, mais relève toi, trouve une échelle et escalade les murs Tu veux devenir patronne, alors deviens patronne Ne laisse personne te dire que t'es pas assez bonne C'est jamais ceux qui foutent rien qui arrivent au sommet Te compare pas aux autres, ça c'est un coup à déprimer Tu sais, il y a pas de limite, même pas de temps, les seules limites sont les regrets que t'auras d'avoir dit pas maintenant D'avoir dit pas maintenant You might also likeÉcoute pas les ragots, te mêle pas des histoires La vérité, c'est que les choses ne seront jamais toutes blanches ou noires La vérité, c'est aussi que la vie ne sera pas toujours rose C'est du même style de personne dont tu tomberas amoureuse, tu sais? Le style de personne qui te rendra malheureuse S'il te fout une claque, faudra que tu te fasses la malle S'il te touche alors que tu veux pas, faudra pas que tu trouves ça normal L'amour et la violence ne font pas bon ménage, surtout laisse rien passer, pour ne pas tomber dans l'engrenage Il n'y a pas d'exception, pas d'excuses, c'est que du mytho Une fois, deux fois, trois fois, n'attends pas celle de trop N'aie pas peur d'en parler, n'aie pas peur de le dire Fais moi confiance, c'est en parlant qu'on commence à guérir Et y a pas que les gestes qui feront des dégâts Les mots seront comme des balles qui resteront bloquées en toi Laisse personne croire que c'est de ta faute, que tu as mérité la violence Stoppe l'influence, quelle qu'elle soit des gens toxiques qui évolueront près de toi Tu es trop forte, tu es trop belle, tu es trop importante Tu es trop forte, tu es trop belle, trop importante Alors N'aie plus honte, il faut que tu saches assez De toutes les plaies que l'on cache Et de tous les cris que l'on garde en soi Tout ce mal qu'on se fait par amour Adieu le malamour, le malamour Souvenir des coups qu'on prend pour des caresses Adieu le malamour, le malamour C'est un amour aveugle et sourd qui blesse Adieu le malamour, le malamour Souvenir des coups qu'on prend pour des caresses Adieu le malamour, le malamour C'est un amour aveugle et sourd qui blesse Check, check, check, check Yah yah yah yah À c'qu'il parait ta coqueluche est de sortie, j'viens juste d'annoncer ma sortie d'album J'veux le cur de Coluche j'en suis certaine J'veux pas pour des excès d'alcool Ouais, j'suis toujours là, les trolls veulent plus me voir, les commentaires pour me descendre Vas-y, vas-y, presse la détente, bitch Si tu fous la rage, tout l'monde veut ta gage Quand on m'invite j'réponds présent, mon rap les baise, ça me détend Ah oui, j'viens encaisser tous les chocs, j'ai grandi je suis bénie d'être née à la bonne époque Les coups de pute m'ont bien servi, j'essaye de rester dans mes bottes J'essaye de devenir écolo j'me méfie même de mes pommes, po-po-po-pommes J'vais encaisser tout mon cash pour faire partie des sages j'vais pas étaler mon rap que le savoir est une arme Me dit le partage est un art J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap, j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, nan nan J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens Ouais, j'ai des ennemis depuis que j'évolue, comme si j'avais volé leur peu de renommée Oui j'apprends qu'on ne partage pas tous les mêmes valeurs Si connard tu crains mon bonheur, as-tu peur qu'j'entache ton honneur ? J'ai de la haine en moi, la fin je l'évalue, nan, j'n'ai jamais voté d'coloniser la Lune Oui j'apprends que botum n'attache pas de la valeur, à respecter ni la nature ni l'être humain pour un quart d'heure de... gloire, gloire Sur la BO des Feux d'l'amour, y a des tsunamis J'écoute Aretha Franklin, tu parles de ma vie Quand tout part en couille j'suis dans Jumanji Sombre est Génération Ice Tea, Bueno, Chocapik Hygiène de vie pourrie, pourrie, mon corps somatise Donc j'ai d'autres combats à mener que leurs potins Plus j'suis progresse Plus je progresse, plus je traumatise J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, nan nan J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, han Drapeau Blanc le 24 mai dans les bacs, allez chopper ça Yeah, vingt-quatre mai J'te raconte ma vie Tout est noir dans ma life Serrer les dents toute ma life Compter ce qu'il me reste en poche toute ma life Le regard des gens, toute ma life Briser mon cur, ouais, ouais, toute ma life, ouais, ouais Manque d'amour, ouais, ouais, toute ma life, ouais, ouais M'éloigner de mes proches, ça, c'est toute ma life Vivre sans repères, ça c'est toute ma life Ya, ya, ya Tout est noir, tout est- Quand je ferme les yeux Tout est sombre Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Dans ma vie que tout est noir Dans c'stress sans arrêt ma life Crier c'que j'vaux sans cesse c'est c'est ma life Courir après les tunes non-stop c'est c'est ma life Commander du respect à autrui c'est c'est ma life Ya, ya, porter mes couilles ouais, ouais, toute ma life ouais, ouais Casser les codes ouais, ouais, toute ma life ouais, ouais Tracer ma route ouais, ouais, toute ma life ouais, ouais Noir et fière de l'être, ça, c'est toute ma life, ya, ya, ya Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Dans ma vie que tout est noir Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Noir Si j'donne un jour, crois-pas qu'ça y est C'est pour toujours et à jamais Comme jamais, comme jamais J'ai ma vie, j'ai pas envie, de faire semblant, de faire comme si Ça m'rend malade, j'suis dans mon lit Je rêve de m'tailler oh ouais, ouais, ouais Tailler oh ouais On improvise sur Skyrock rien qu'ça rappe sale T'as capté mh, là je mic drop Fréro tu peux danser sur de la salsa Des années que je rappe on me dit c'est du sale ça Pas d'problème sur le fait qu'tu sais, on arrive en meute depuis des années Mon gars ça l'fait tu sais qu'j'suis avec le frérot Fred de Sky' Pas d'problème tu sais qu'on l'a fait, frérot ce n'est qu'un freestyle Ouh, j'ai vu l'avenir dans la petite boule de cristal, oh Si j'donne, un jour, crois pas qu'ça y est Qu'c'est pour toujours, et à jamais, jamais, jamais, jamais, jamais, jamais Je vis la nuit, j'aime la pluie Car on ne voit pas mes larmes et je m'enfuis T'façon à Paris y a pas d'soleil oh ouais, ouais, ouais Soleil oh ouais Pourquoi tu parles de ma couleur? C'est quoi l'problème de ma couleur? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur oui, oui Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres ouh Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt J'l'étais d'jà quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love ah Échouer est impossible comme Marcelo à Barcelone ah Ma tête en ville tout les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini, oui à la banks Oui, oui Drapeau Blanc le 24 mai et ça fait Si j'donne un jour, crois-pas qu'ça y est Qu'c'est pour toujours et à jamais Comme jamais, comme jamais, jamais, jamais, jamais, C'est pas que j'aime pas ta gueule, j'ai déjà donné Mariez-vous mais laissez-moi seule, j'ai déjà donné Non je n'ai pas oublié quand j'ai pardonné Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps J'veux plus répondre à tes messages J'me sens comme dans une cage Je sais bien que t'as la rage On dirait que notre amour fuit vers le rivage Je n'sais plus quoi penser de nous En seulement quelques mois je te mettais la corde au cou Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus ton temps Mon ego brille, brille, brille, brille, brille dans vos regards opportunistes Toujours pas de cur, chaque soir, encore une autre, nos deux nouveaux corps s'unissent Pendant c'temps, mère s'inquiète, elle voudrait pas que mes torts m'punissent, putain Laisse pas traîner ton fils aux portes du vice Entre l'enfer et le paradis, j'essaie de trouver le centre du triptyque Les femmes deviennent de plus en plus faciles, mes proches deviennent de plus en plus critiques Les concerts se remplissent mais j'suis toujours seul Bien sûr que ceux qui s'imposent en veulent, woh La chance n'existe pas, la chance n'existe pas Comment veux-tu que j'explose en vol? Haha Être sage, c'est quoi? Aider les autres pour s'aider soi-même, woh Pour l'instant, j'me cache derrière des voyelles J'suis pas v'nu au monde pour le consommer, woh L'impression qu'j'm'arrêterai qu'au sommet, woh Mais le sommet, c'est quoi? Une vision d'ensemble pour pouvoir contempler tout le malheur des hommes Bébé j'ai plus le temps A quoi ça sert de m'attendre? Bébé j'ai plus le temps Bébé j'ai plus le temps Bébé j'ai plus ton temps Bébé j'ai plus le temps A quoi ça sert de m'attendre? Bébé j'ai plus le temps Bébé j'ai plus le temps Bébé j'ai plus ton temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus ton temps Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Un grand homme m'a dit Tu veux voir tous les tiens réussir mais un peu moins qu'toi, woh Finalement, j'crois qu'on est tous égaux en marchant sur le chemin d'croix Ma tête sur les Inrocks n'apporte aucun progrès pour l'Humanité Venu pour changer les mentalités, woh Plein d'humilité, plein d'humilité, woh J'me suis fait dans toutes mes dualités On dirait qu'ça tire, canon fumant, j'ouvre mon troisième il Ma vision du bonheur n'est pas de m'écouter parler sur un vieux sample d'Erik Satie, woh Ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, prouve-le J'ai croisé cet homme sur le boulevard Bonsoir, ça va ? Raconte-moi ton histoire Il m'a dit À ton avis ? Tu veux savoir comment rater sa vie ? Puis, j'l'ai vu courir, j'ai crié Fume pas, cela gâche tout ton sourire Il m'a répondu, dans un fou rire Au moins, j'aurai une raison de mourir Les hommes communiquent mais se confrontent à la réalité et sa finalité Moralité je n'suis qu'un corps habité d'une personnalité J'en ai assez, le passé m'ramène à l'enfance, à toutes ces images que j'peux pas effacer Bébé, j'ai plus le temps</t>
+          <t>J'avais ton âge y a encore quelques pages Le passage à lâge adulte est grisant dans le virage Devenir une femme y a pas de stage, pas de rattrapage Je sais que tu l'as pas décidé, mais tu le portes cet héritage Alors apprends à faire avec, rien n'est acquis vraiment Mais noublie pas d'être une femme avant d'être une maman Pense à ton arrière grand-mère qui pouvait pas décider, même pas divorcer, à peine respirer Fais pas l'enfant gâté, rien n'est jamais gagné Écoute, j'ai pris quelques notes Petite, t'as le sentiment d'être différente, tu marches pas dans les clous, cest peut-être toi qui as raison et les autres qui sont fous Après tout qui crée les codes et les tabous? Qui a dit que ceux qui rentraient pas dans le cadre deviendraient rien du tout Souvent les futures génies sont mauvaises à lécole et souvent c'est les plus timides qui deviennent des idoles Alors en classe, si le professeur te casse, te dit que tes bonne à rien, l'ouvre pas trop ou alors ouvre-la bien T'inquiète pas si t'es petite, tinquiète pas si t'es grosse Les popus du collège sont les premières à devenir des cassos Écoute pas les ragots, leurs conseils à la con Écoute ce que dit ton cur, il a souvent raison Apprends à t'aimer toi, t'es quelqu'un de spécial Spécial c'est suffisant, pas besoin de la jouer original Les petits bonheurs de la vie sont souvent les plus cools Chanter Céline Dion à tue-tête, tu verras ça défoule Entoure-toi bien, de gens qui t'aiment, regarde seulement ceux qui te donnent et pas ceux qui te prennent Petite, tu as eu le temps petite Petite, prends de l'élan, la vie c'est une course de fond, t'as besoin d'entraînement Tu monteras des projets qui se casseront la figure, mais relève toi, trouve une échelle et escalade les murs Tu veux devenir patronne, alors deviens patronne Ne laisse personne te dire que t'es pas assez bonne C'est jamais ceux qui foutent rien qui arrivent au sommet Te compare pas aux autres, ça c'est un coup à déprimer Tu sais, il y a pas de limite, même pas de temps, les seules limites sont les regrets que t'auras d'avoir dit pas maintenant D'avoir dit pas maintenant Écoute pas les ragots, te mêle pas des histoires La vérité, c'est que les choses ne seront jamais toutes blanches ou noires La vérité, c'est aussi que la vie ne sera pas toujours rose C'est du même style de personne dont tu tomberas amoureuse, tu sais? Le style de personne qui te rendra malheureuse S'il te fout une claque, faudra que tu te fasses la malle S'il te touche alors que tu veux pas, faudra pas que tu trouves ça normal L'amour et la violence ne font pas bon ménage, surtout laisse rien passer, pour ne pas tomber dans l'engrenage Il n'y a pas d'exception, pas d'excuses, c'est que du mytho Une fois, deux fois, trois fois, n'attends pas celle de trop N'aie pas peur d'en parler, n'aie pas peur de le dire Fais moi confiance, c'est en parlant qu'on commence à guérir Et y a pas que les gestes qui feront des dégâts Les mots seront comme des balles qui resteront bloquées en toi Laisse personne croire que c'est de ta faute, que tu as mérité la violence Stoppe l'influence, quelle qu'elle soit des gens toxiques qui évolueront près de toi Tu es trop forte, tu es trop belle, tu es trop importante Tu es trop forte, tu es trop belle, trop importante Alors N'aie plus honte, il faut que tu saches assez De toutes les plaies que l'on cache Et de tous les cris que l'on garde en soi Tout ce mal qu'on se fait par amour Adieu le malamour, le malamour Souvenir des coups qu'on prend pour des caresses Adieu le malamour, le malamour C'est un amour aveugle et sourd qui blesse Adieu le malamour, le malamour Souvenir des coups qu'on prend pour des caresses Adieu le malamour, le malamour C'est un amour aveugle et sourd qui blesse Check, check, check, check Yah yah yah yah À c'qu'il parait ta coqueluche est de sortie, j'viens juste d'annoncer ma sortie d'album J'veux le cur de Coluche j'en suis certaine J'veux pas pour des excès d'alcool Ouais, j'suis toujours là, les trolls veulent plus me voir, les commentaires pour me descendre Vas-y, vas-y, presse la détente, bitch Si tu fous la rage, tout l'monde veut ta gage Quand on m'invite j'réponds présent, mon rap les baise, ça me détend Ah oui, j'viens encaisser tous les chocs, j'ai grandi je suis bénie d'être née à la bonne époque Les coups de pute m'ont bien servi, j'essaye de rester dans mes bottes J'essaye de devenir écolo j'me méfie même de mes pommes, po-po-po-pommes J'vais encaisser tout mon cash pour faire partie des sages j'vais pas étaler mon rap que le savoir est une arme Me dit le partage est un art J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap, j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, nan nan J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens Ouais, j'ai des ennemis depuis que j'évolue, comme si j'avais volé leur peu de renommée Oui j'apprends qu'on ne partage pas tous les mêmes valeurs Si connard tu crains mon bonheur, as-tu peur qu'j'entache ton honneur ? J'ai de la haine en moi, la fin je l'évalue, nan, j'n'ai jamais voté d'coloniser la Lune Oui j'apprends que botum n'attache pas de la valeur, à respecter ni la nature ni l'être humain pour un quart d'heure de... gloire, gloire Sur la BO des Feux d'l'amour, y a des tsunamis J'écoute Aretha Franklin, tu parles de ma vie Quand tout part en couille j'suis dans Jumanji Sombre est Génération Ice Tea, Bueno, Chocapik Hygiène de vie pourrie, pourrie, mon corps somatise Donc j'ai d'autres combats à mener que leurs potins Plus j'suis progresse Plus je progresse, plus je traumatise J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, nan nan J'me sens libre, du moins plus qu'en Alabama Quand j'prends le mic' dans Planète Rap j'suis Michelle Obama Drapeau blanc dans mon esprit, micro tâché de sang, Ariane ne survit pas sans que ses actions aient du sens, han Drapeau Blanc le 24 mai dans les bacs, allez chopper ça Yeah, vingt-quatre mai J'te raconte ma vie Tout est noir dans ma life Serrer les dents toute ma life Compter ce qu'il me reste en poche toute ma life Le regard des gens, toute ma life Briser mon cur, ouais, ouais, toute ma life, ouais, ouais Manque d'amour, ouais, ouais, toute ma life, ouais, ouais M'éloigner de mes proches, ça, c'est toute ma life Vivre sans repères, ça c'est toute ma life Ya, ya, ya Tout est noir, tout est- Quand je ferme les yeux Tout est sombre Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Dans ma vie que tout est noir Dans c'stress sans arrêt ma life Crier c'que j'vaux sans cesse c'est c'est ma life Courir après les tunes non-stop c'est c'est ma life Commander du respect à autrui c'est c'est ma life Ya, ya, porter mes couilles ouais, ouais, toute ma life ouais, ouais Casser les codes ouais, ouais, toute ma life ouais, ouais Tracer ma route ouais, ouais, toute ma life ouais, ouais Noir et fière de l'être, ça, c'est toute ma life, ya, ya, ya Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Dans ma vie que tout est noir Tout est noir, tout est noir Dans ma vie que tout est noir Tout est sombre, oh, tout est noir Noir Si j'donne un jour, crois-pas qu'ça y est C'est pour toujours et à jamais Comme jamais, comme jamais J'ai ma vie, j'ai pas envie, de faire semblant, de faire comme si Ça m'rend malade, j'suis dans mon lit Je rêve de m'tailler oh ouais, ouais, ouais Tailler oh ouais On improvise sur Skyrock rien qu'ça rappe sale T'as capté mh, là je mic drop Fréro tu peux danser sur de la salsa Des années que je rappe on me dit c'est du sale ça Pas d'problème sur le fait qu'tu sais, on arrive en meute depuis des années Mon gars ça l'fait tu sais qu'j'suis avec le frérot Fred de Sky' Pas d'problème tu sais qu'on l'a fait, frérot ce n'est qu'un freestyle Ouh, j'ai vu l'avenir dans la petite boule de cristal, oh Si j'donne, un jour, crois pas qu'ça y est Qu'c'est pour toujours, et à jamais, jamais, jamais, jamais, jamais, jamais Je vis la nuit, j'aime la pluie Car on ne voit pas mes larmes et je m'enfuis T'façon à Paris y a pas d'soleil oh ouais, ouais, ouais Soleil oh ouais Pourquoi tu parles de ma couleur? C'est quoi l'problème de ma couleur? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur oui, oui Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres ouh Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt J'l'étais d'jà quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love ah Échouer est impossible comme Marcelo à Barcelone ah Ma tête en ville tout les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini, oui à la banks Oui, oui Drapeau Blanc le 24 mai et ça fait Si j'donne un jour, crois-pas qu'ça y est Qu'c'est pour toujours et à jamais Comme jamais, comme jamais, jamais, jamais, jamais, C'est pas que j'aime pas ta gueule, j'ai déjà donné Mariez-vous mais laissez-moi seule, j'ai déjà donné Non je n'ai pas oublié quand j'ai pardonné Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps J'veux plus répondre à tes messages J'me sens comme dans une cage Je sais bien que t'as la rage On dirait que notre amour fuit vers le rivage Je n'sais plus quoi penser de nous En seulement quelques mois je te mettais la corde au cou Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus ton temps Mon ego brille, brille, brille, brille, brille dans vos regards opportunistes Toujours pas de cur, chaque soir, encore une autre, nos deux nouveaux corps s'unissent Pendant c'temps, mère s'inquiète, elle voudrait pas que mes torts m'punissent, putain Laisse pas traîner ton fils aux portes du vice Entre l'enfer et le paradis, j'essaie de trouver le centre du triptyque Les femmes deviennent de plus en plus faciles, mes proches deviennent de plus en plus critiques Les concerts se remplissent mais j'suis toujours seul Bien sûr que ceux qui s'imposent en veulent, woh La chance n'existe pas, la chance n'existe pas Comment veux-tu que j'explose en vol? Haha Être sage, c'est quoi? Aider les autres pour s'aider soi-même, woh Pour l'instant, j'me cache derrière des voyelles J'suis pas v'nu au monde pour le consommer, woh L'impression qu'j'm'arrêterai qu'au sommet, woh Mais le sommet, c'est quoi? Une vision d'ensemble pour pouvoir contempler tout le malheur des hommes Bébé j'ai plus le temps A quoi ça sert de m'attendre? Bébé j'ai plus le temps Bébé j'ai plus le temps Bébé j'ai plus ton temps Bébé j'ai plus le temps A quoi ça sert de m'attendre? Bébé j'ai plus le temps Bébé j'ai plus le temps Bébé j'ai plus ton temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus le temps Oh bébé j'ai plus ton temps Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Bébé j'ai plus ton temps A quoi ça sert de m'attendre? Un grand homme m'a dit Tu veux voir tous les tiens réussir mais un peu moins qu'toi, woh Finalement, j'crois qu'on est tous égaux en marchant sur le chemin d'croix Ma tête sur les Inrocks n'apporte aucun progrès pour l'Humanité Venu pour changer les mentalités, woh Plein d'humilité, plein d'humilité, woh J'me suis fait dans toutes mes dualités On dirait qu'ça tire, canon fumant, j'ouvre mon troisième il Ma vision du bonheur n'est pas de m'écouter parler sur un vieux sample d'Erik Satie, woh Ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, ne me parle pas d'amour, prouve-le J'ai croisé cet homme sur le boulevard Bonsoir, ça va ? Raconte-moi ton histoire Il m'a dit À ton avis ? Tu veux savoir comment rater sa vie ? Puis, j'l'ai vu courir, j'ai crié Fume pas, cela gâche tout ton sourire Il m'a répondu, dans un fou rire Au moins, j'aurai une raison de mourir Les hommes communiquent mais se confrontent à la réalité et sa finalité Moralité je n'suis qu'un corps habité d'une personnalité J'en ai assez, le passé m'ramène à l'enfance, à toutes ces images que j'peux pas effacer Bébé, j'ai plus le temps</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'écris pour toucher les curs et pour qu'on s'en souvienne Le corps en pleine forme, la conscience usée Péridurale pour accoucher mes peurs Seul les consciencieux règnent dans monde consensuel 5 ans que je mouille le maillot J'en vois qui font encore des cercon sans suer La vie est une pute qui me suce dans l'trom Mes cauchemars roulent dans un bus fantôme Je suis fait d'erreur, je dois fédérer J'fais des rêves où je paie plus d'impôts, wo Les anges déchus tiennent, force à tous mes gens Qui depuis tant d'temps me soutiennent, ah J'suis venu au monde dans un grand jet d'cyprine J'repartirai dans une grandeur suprême Sa majesté, j'suis si magistral, moi j'fais pas exprès Descendance astrale, depuis le début, j'voulais paillettes et strass J'prenais d'jà toute la place sur cette putain d'estrade ! Enfance écourtée, j'ai inventé la mienne Donc tout à fait normal que l'envie d'chanter me vienne J'ai du faire taire un lion, j'ai du planter une hyène Afin d'laisser ma trace dans le vingt et unième siècle L'amour et la haine, j'sais faire les deux ensemble Cracheur de feu, micro redevient cendre J'finis l'premier chapitre du reste de ma vie Ça s'passe au Bataclan le soir du 20 décembreYou might also like</t>
+          <t>J'écris pour toucher les curs et pour qu'on s'en souvienne Le corps en pleine forme, la conscience usée Péridurale pour accoucher mes peurs Seul les consciencieux règnent dans monde consensuel 5 ans que je mouille le maillot J'en vois qui font encore des cercon sans suer La vie est une pute qui me suce dans l'trom Mes cauchemars roulent dans un bus fantôme Je suis fait d'erreur, je dois fédérer J'fais des rêves où je paie plus d'impôts, wo Les anges déchus tiennent, force à tous mes gens Qui depuis tant d'temps me soutiennent, ah J'suis venu au monde dans un grand jet d'cyprine J'repartirai dans une grandeur suprême Sa majesté, j'suis si magistral, moi j'fais pas exprès Descendance astrale, depuis le début, j'voulais paillettes et strass J'prenais d'jà toute la place sur cette putain d'estrade ! Enfance écourtée, j'ai inventé la mienne Donc tout à fait normal que l'envie d'chanter me vienne J'ai du faire taire un lion, j'ai du planter une hyène Afin d'laisser ma trace dans le vingt et unième siècle L'amour et la haine, j'sais faire les deux ensemble Cracheur de feu, micro redevient cendre J'finis l'premier chapitre du reste de ma vie Ça s'passe au Bataclan le soir du 20 décembre</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J'suis le vrai Prince de la trap, hey Ces négros copient mon trip, hey T'as l'air défoncé sous crack, hmm Tu paies tes vues et tes clics, hmm J'ai charbonné, charbonné, charbonné Tu vas t'abonner, t'abonner, t'abonner, hey Que des vrais Gs dans l'équipe, slay Dix phenergan dans le cup, ah gars Comme d'hab lean, taga Au calme, sans tabou, j'suis au phone La go parle mal, j'raccroche, mode avion C'que tu fais, c'est du déjà vu, hmm Plus j'avance, plus j'ai des jaloux, hey S'te-plaît, me raconte pas ta vie, hmm Me parle pas si j'ai pas dave-bé, hey Slay, slay, slay, j'me rappelle de tout ceux qui voulaient porter l'il Slay, slay, slay, j'suis content que quand j'ai rempli le portefeuille Slay, slay, slay, j'enterre le rap, je suis Youv Dee qu'apporte le deuil Slay, slay, slay, les p'tits ont faim, j'crois que bientôt, j'vais drop la tape Envoie tes prods à mon gang, négro sois prêt, nous, on détruit n'importe laquelle Elle veut mon doigt dans la fente mais j'me rappelle que c'est pas ça qui monte la paie J'les vois copier sur mes gens, on voit clair dans ton jeu, on sait c'que tu veux faire Toi, t'es même pas dans les temps, tu veux faire pareil mais t'es même pas complet, frère À chaque nouveau flow, ils sont sidérés Tu rappes en levrette et t'es libéré 90 des récits des rappeurs français sont à reconsidérer, sidérés Ce stratagème est délibéré Leur carrière s'éteint chez Deliveroo J'finis seul sur le trône, beaucoup s'y verraient Toute tentative de part est incinérée-cinérée Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet La fille du premier rang mouille sur ce talent qui est inné Le rap F.R. se fait piétiner Même dans l'cul d'ta daronne, j'suis actionnaire majoritaire J'réitère le rap, remercie mon géniteur, j'ai ni tort Ni raison, j'suis chez Majeur-Mineur T'inquiète, je gère mon heure majeure dans une mineure Tant dis qu'j'décris l'humain tout comme dans Germinal You might also like Mon succès sera annoncé eh Le verre a bouger dans le cercle eh Oxomemazine dans mon cer' Ramene ta 'sine à mon cer-con-con-con baby Faut qu'on cogne comme Gregor Mac Et qu'on termine décoré Sinon jamais j'décolerais J'ai dit jamais j'décolerais yah Je met le Peel dans le caddie yah Je mets les putes dans le caddie, ya J'ai pas caché dans le Candy-Up J'vais pas cracher dans le Candy Up Je compte rouler dans la Cadillac Daddy t'a dis d'aller wa wa Tu veux faire du sale digame j'ai l'inspi de Yagami Même plus besoin d'l'inhaler Kiwi Bunny Boy Me parle pas nois-ch', me parle pas pakistanais Si elle se rase pas la chatte, ouais, j'la marie jamais Ouais, j'pète pas un câble, faut qu'j'ai ma marie-jeanne J'me pète pas la voix mais y'a le mic qui crame, le mic qui crame Ouais, y'a le mic qui crame, ouais, y a les shtars qui passent Ouais, nan, le rap ne s'affaisse pas, ouais, nan, le rap spleen, ça fait Ouais, Tsar flex dans l'système, bientôt, Tsar pèse dans c'business Citizen toute en finesse, Tsar, toujours, reste dans l'ivresse, ok donc Tu veux un feat, t'es des barres comme un obèse qui court, ola La vie, c'est triste comme une grossesse qui foire, ola J'baise sa grosse chatte même si c'est kippour, ola Pourtant, connard, j'ai même pas mis d'kippa, ola Me parle pas nois-ch', me parle pas pakistanais Si elle se rase pas la chatte, ouais, j'la marie jamais Ouais, j'pète pas un câble, faut qu'j'ai ma marie-jeanne J'me pète pas la voix mais y'a le mic qui crame, le mic qui crame J'vis ma vie comme un long suicide J'vais pas sauter du haut d'un pont, tu piges ? J'ai ma moquette et ma boisson du Styx du Styx J'trouve malhonnête de pas profiter Moi, j'ai déjà cogité l'esprit ouvert comme le cul d'Anna Polina J'passe les pétasses à la moulinette Respecter les règles, c'est pas profitable J'passerai ma vie à les coutourner, bitch ass Mais dis, y'a du bon poulet, bitch ass Ici, y'a du lourd condé qui s'fâche Ici, y'a du lourd couplet qui s'place Ici, y'a du long doobie qui s'tasse Devant miroir, j'crache sur visage, ola Devant miroir, j'crache sur visage, j'crache sur visage, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner Comment s'consoler ? Vu les erreurs qu'on commet, l'horreur qu'on connaît, le bonheur qu'on poursuit Aujourd'hui, les jeunes sont paumés, les rêves sont faussés, le respect, on l'oublie J'ai peur de tomber Avec tes reufs, fais preuve de bonté J'ai l'seum, j'veux qu'on m'laisse seul, j'fume mon seum, écoule mon verre de codé On a consommé pour s'consoler, comment j'vais m'consoler, étant donné qu'j'ai tout consommé ? On a consommé pour s'consoler, comment j'vais m'consoler, étant donné qu'j'ai tout consommé ? Sachant qu'dans six ans, ce sera pire encore Guette ma mine obscure à cause d'ma vie nocturne, ma vie est remise en cause J'ai pris 10 ans d'tease dans l'Sotch Sachant qu'dans six ans, ce sera pire encore Guette ma mine obscure à cause d'ma vie nocturne, ma vie est remise en cause J'ai pris dix ans d'tise dans l'Scotch J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner J'veux m'voir en 40 mètres sur l'périphérique Nord J't'ai quitté car t'étais hystétrique Lord travaille toujours plus Pour qu'ma naissance devienne fait historique Level up, level up Tout mon bénéf' dans une enveloppe J'suis à 110 sur un cinquante, oy Oui, mon réseau se développe wouh Un cadavre entame sa marche funeste dans les rues de Pigalle yah La rue a le goût du risque, oy J'entends l'chant des sirènes pas celui des cigales Échouer n'existe pas comme un tir amical Le succès me scrute à travers son il de verre pyramidal, skuh skuh skuh Berline 4 matic, plaquée diplomatique, tique Comme seule problématique, devenir emblématique, tique Ma mère m'a dit faudra prendre ton billet Puis, pendant que t'y es, va les guillotiner Qu'ils assimilent ce talent qui est inné Le rap FR, je vais le piller-piller puis le piétiner L'âme tellement noire que l'on horrifie l'Styx aie Toujours la dalle comme un sans domicile fixe Ils me voyaient comme un alien Shit de Gallieni pour les aliéner 20-18, tout est noir, tes potos t'méprisent J'appelle Jason Piekar pour photo maîtrisée Y'a pas de concurrence, ils s'auto-détruisent Crois en tes rêves, crois en tes rêves, crois en tes rêves Crois en tes rêves, crois en tes rêves, Yah Parle avec LO, parle intérêt, yah Ramène n'importe lequel, j'vais l'enterrer, yah Hormones en fusion quand j'débarque dans ta ress Toute ma haine est crachée sous fréquence Antarès Plein d'ambition depuis Duperré Leur critique me fera rire seul dans la Ferrari, hein J'baisse les yeux pour regarder la concu, hey Reste assis, j'impose ma suprématie, ya Il sait pas, j'me suis tapé sa copine, hey J'ai du Bape, j'ai du Supreme aussi, ya T'es du-per, solo sans ton possee, hey J'suis du-per le barreau dans une pussy, ya J'ai pas pris ce Uber pour papoter, hey Elle sait que j'suis là que pour sa beauté, ya Ah gars, ah gars, ah gars, ah gars, ah gars Papa, Maman m'voient sous taga la night Osaleeka, Youv Dee vous allez cracher J'sais plus si j'fais du rap ou du Metallica Ah gars, ah gars, ah gars, ah gars, ah gars J'veux des pogos, pogos, pogos, pogos, pogos Ah qu'elle me colle, elle veut rien d'amical Elle veut bite de négro, négro, négro, négro, négro Bouge ton kwer, c'est mieux c'est mieux Roule un teh, c'est mieux ah gars Bouge ton kwer, c'est mieux slay C'est le Couvre Feu ay Bouge ton kwer, c'est mieux Roule un teh, c'est mieux ah gars Bouge ton kwer, c'est mieux C'est le Couvre Feu slay Leur carrière au Bangladesh, hold up, ouh Je traîne pas par ici car ça sent la dèche, hold up, ouh Là on turn up, on turn up, on turn up, on turn up Basses enflammées sur un morceau en ternaire T'auras pas ma reconnaissance éternelle Jamais eu besoin d'acheter vues sur internet 10 millions de streams, contrat trois cent mille E T'es bon qu'en 2007 t'es comme l'AC Milan Je veux pas du feat mais bon grazie mille Y a qu'un enfant du siècle et cela fait 1000 ans - hold up, ouh Tu pourras pas turn up comme nous 10 dans ma tête, chacun veut faire beaucoup de sous Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh Quand j'pé-ra, tu péris Je mérite d'être payé, enterrez mes billets Vous priez pour mieux vous tirer Gars moi j'ai besoin que de briller Laissez nous briller On va piller le palais, leur piquer leurs places Enculer leurs madre, leur filer le da-s' PALASS On est pas loin des balades, ta femme m'appelle elle est fan Enfin dans l'pe-ra gars, j'ai mis les pieds Jamais la vie de bandit repenti Je brandis les bites, comme la fille de Billy Ray Pas beaucoup de peine Pas beaucoup le temps donc parle dans le thème J'aime pas les balivernes salivaires Si t'as perdu ton hymen et ta liberté Dans un club libertin L'terrain m'appelle babe Je mets les paires et je défie du banc Je veux les parts de ma payday de mon manque de temps Et l'attente de billets de banque PALASS Tu pues d'la gueule, tu pues d'la gueule, tu pues d'la gueule J'veux pas savoir comment sent ta chatte Pétasse gueule Tu pues d'la gueule, tu pues d'la gueule, tu pues d'la gueule J'veux pas savoir comment sent ta chatte Pétasse gueule Mais qu'est-ce que t'as graillé comme tapas ? Pétasse gueule J'veux pas savoir comment sent ta chatte Pétasse gueule On dirait qu't'as bouffé un cadavre Pétasse gueule Casse-toi, m'parle pas, pétasse J'suis H24 dans l'sky Pétasse gueule Pourquoi tu fais la belle ? T'as la bouche pourrie comme Balkany Ola, bouge, là, tu mets la gerbe J'préfère m'étouffer dans l'cannabis Vu tes bouffées d'haleine, j'doute que ta pussy sente la vanille Vu tes bouffées d'haleine, j'doute que ta pussy sente la vanille Gueule J'mets des golden comme Kelly R Tous les jours, j'crève comme Kenny, frère Putain, j'veux pas qu'on délibère De ce système, je veux m'libérer J'mets des golden comme Kelly R Tous les jours, j'crève comme Kenny, frère Putain, j'veux pas qu'on délibère De ce système, je veux m'libérer Si t'es épileptique, mes clips, évite J'suis béni, j'ai pris des pills T'es dans l'déni, ton buis', c'est l'shit Elle m'suce au ciné, j'ressuscite J'me sens comme Jésus quand je jizzes C'est trop business, la Citizen J'crois qu'j'vais beuj, j'ai assez tisé Premier concert, j'me suis pissé d'ssus Troisième, j'ai pris 1500 Oh c'est trop fun, j'ai même pas visé c'truc C'est pas grâce au rap qu'tire des coups Bien sûr qu'maintenant, j'plie ces putes Bien sûr maman qu'maintenant, j'plie ces putes Cool-al et lean dans mon bénitier Russe et Grec est le pedigree J'connais plus d'défaites, tu peux vérifier Chaque jour, j'fume des pét' j'fais qu'effriter J'ai dit Cool-al et lean dans mon bénitier Russe et Grec est le pedigree J'connais plus d'défaites, tu peux vérifier Chaque jour, j'fume des pét' j'fais qu'effriter J'ai dit Je suis chez Givenchy pour un spot publicitaire Je me rappelle quand personne ne me plébiscitait Passe à la fin du show s'tu veux me féliciter Wesh, dans ma tête, c'est la cité Vilain garçon, vilain garçon, vilain garçon, ah Trouve l'avenir dans le fond de mon regard sombre, ah J'ai fondation, j'ai consolidation Carrière meurt sans sponsorisation Ouh, la concurrence porte des crocs-top Ouh, tous les jours, on finit fucked up Ouh, la concurrence porte des crocs-top Couvre feu, la concurrence porte des crocs-top T'écoutes et tu restes assis boy, j'me balade sur toute la scène Tu fermes ta gueule alors que tu sais qu'elle mintéresse ta 'zine J'la saigne elle est sous ecstasy, hoy J'répands l'amour dans ton corps sec J'te fais du mal et t'adores ça Tu seras toujours qu'un essai Je sais qu'un jour tu seras déçu mais c'est comme ça Elle boit mes paroles avec un para, pas l'habitude de m'étaler Faut qu'je titube dans mon palais J'te jure sur la vie d'ma bouteille J'suis déjà mort en réalité Attends moi dans un motel, le ciel est couleur cocktail Y'a plus d'rêves non non Nouveau booty sur mon bootleg Le ciel est couleur cocktail Le ciel est couleur cocktail</t>
+          <t>J'suis le vrai Prince de la trap, hey Ces négros copient mon trip, hey T'as l'air défoncé sous crack, hmm Tu paies tes vues et tes clics, hmm J'ai charbonné, charbonné, charbonné Tu vas t'abonner, t'abonner, t'abonner, hey Que des vrais Gs dans l'équipe, slay Dix phenergan dans le cup, ah gars Comme d'hab lean, taga Au calme, sans tabou, j'suis au phone La go parle mal, j'raccroche, mode avion C'que tu fais, c'est du déjà vu, hmm Plus j'avance, plus j'ai des jaloux, hey S'te-plaît, me raconte pas ta vie, hmm Me parle pas si j'ai pas dave-bé, hey Slay, slay, slay, j'me rappelle de tout ceux qui voulaient porter l'il Slay, slay, slay, j'suis content que quand j'ai rempli le portefeuille Slay, slay, slay, j'enterre le rap, je suis Youv Dee qu'apporte le deuil Slay, slay, slay, les p'tits ont faim, j'crois que bientôt, j'vais drop la tape Envoie tes prods à mon gang, négro sois prêt, nous, on détruit n'importe laquelle Elle veut mon doigt dans la fente mais j'me rappelle que c'est pas ça qui monte la paie J'les vois copier sur mes gens, on voit clair dans ton jeu, on sait c'que tu veux faire Toi, t'es même pas dans les temps, tu veux faire pareil mais t'es même pas complet, frère À chaque nouveau flow, ils sont sidérés Tu rappes en levrette et t'es libéré 90 des récits des rappeurs français sont à reconsidérer, sidérés Ce stratagème est délibéré Leur carrière s'éteint chez Deliveroo J'finis seul sur le trône, beaucoup s'y verraient Toute tentative de part est incinérée-cinérée Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet La fille du premier rang mouille sur ce talent qui est inné Le rap F.R. se fait piétiner Même dans l'cul d'ta daronne, j'suis actionnaire majoritaire J'réitère le rap, remercie mon géniteur, j'ai ni tort Ni raison, j'suis chez Majeur-Mineur T'inquiète, je gère mon heure majeure dans une mineure Tant dis qu'j'décris l'humain tout comme dans Germinal Mon succès sera annoncé eh Le verre a bouger dans le cercle eh Oxomemazine dans mon cer' Ramene ta 'sine à mon cer-con-con-con baby Faut qu'on cogne comme Gregor Mac Et qu'on termine décoré Sinon jamais j'décolerais J'ai dit jamais j'décolerais yah Je met le Peel dans le caddie yah Je mets les putes dans le caddie, ya J'ai pas caché dans le Candy-Up J'vais pas cracher dans le Candy Up Je compte rouler dans la Cadillac Daddy t'a dis d'aller wa wa Tu veux faire du sale digame j'ai l'inspi de Yagami Même plus besoin d'l'inhaler Kiwi Bunny Boy Me parle pas nois-ch', me parle pas pakistanais Si elle se rase pas la chatte, ouais, j'la marie jamais Ouais, j'pète pas un câble, faut qu'j'ai ma marie-jeanne J'me pète pas la voix mais y'a le mic qui crame, le mic qui crame Ouais, y'a le mic qui crame, ouais, y a les shtars qui passent Ouais, nan, le rap ne s'affaisse pas, ouais, nan, le rap spleen, ça fait Ouais, Tsar flex dans l'système, bientôt, Tsar pèse dans c'business Citizen toute en finesse, Tsar, toujours, reste dans l'ivresse, ok donc Tu veux un feat, t'es des barres comme un obèse qui court, ola La vie, c'est triste comme une grossesse qui foire, ola J'baise sa grosse chatte même si c'est kippour, ola Pourtant, connard, j'ai même pas mis d'kippa, ola Me parle pas nois-ch', me parle pas pakistanais Si elle se rase pas la chatte, ouais, j'la marie jamais Ouais, j'pète pas un câble, faut qu'j'ai ma marie-jeanne J'me pète pas la voix mais y'a le mic qui crame, le mic qui crame J'vis ma vie comme un long suicide J'vais pas sauter du haut d'un pont, tu piges ? J'ai ma moquette et ma boisson du Styx du Styx J'trouve malhonnête de pas profiter Moi, j'ai déjà cogité l'esprit ouvert comme le cul d'Anna Polina J'passe les pétasses à la moulinette Respecter les règles, c'est pas profitable J'passerai ma vie à les coutourner, bitch ass Mais dis, y'a du bon poulet, bitch ass Ici, y'a du lourd condé qui s'fâche Ici, y'a du lourd couplet qui s'place Ici, y'a du long doobie qui s'tasse Devant miroir, j'crache sur visage, ola Devant miroir, j'crache sur visage, j'crache sur visage, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner Comment s'consoler ? Vu les erreurs qu'on commet, l'horreur qu'on connaît, le bonheur qu'on poursuit Aujourd'hui, les jeunes sont paumés, les rêves sont faussés, le respect, on l'oublie J'ai peur de tomber Avec tes reufs, fais preuve de bonté J'ai l'seum, j'veux qu'on m'laisse seul, j'fume mon seum, écoule mon verre de codé On a consommé pour s'consoler, comment j'vais m'consoler, étant donné qu'j'ai tout consommé ? On a consommé pour s'consoler, comment j'vais m'consoler, étant donné qu'j'ai tout consommé ? Sachant qu'dans six ans, ce sera pire encore Guette ma mine obscure à cause d'ma vie nocturne, ma vie est remise en cause J'ai pris 10 ans d'tease dans l'Sotch Sachant qu'dans six ans, ce sera pire encore Guette ma mine obscure à cause d'ma vie nocturne, ma vie est remise en cause J'ai pris dix ans d'tise dans l'Scotch J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner, ola J'soigne mon karma, j'vais en oiseau m'réincarner J'veux m'voir en 40 mètres sur l'périphérique Nord J't'ai quitté car t'étais hystétrique Lord travaille toujours plus Pour qu'ma naissance devienne fait historique Level up, level up Tout mon bénéf' dans une enveloppe J'suis à 110 sur un cinquante, oy Oui, mon réseau se développe wouh Un cadavre entame sa marche funeste dans les rues de Pigalle yah La rue a le goût du risque, oy J'entends l'chant des sirènes pas celui des cigales Échouer n'existe pas comme un tir amical Le succès me scrute à travers son il de verre pyramidal, skuh skuh skuh Berline 4 matic, plaquée diplomatique, tique Comme seule problématique, devenir emblématique, tique Ma mère m'a dit faudra prendre ton billet Puis, pendant que t'y es, va les guillotiner Qu'ils assimilent ce talent qui est inné Le rap FR, je vais le piller-piller puis le piétiner L'âme tellement noire que l'on horrifie l'Styx aie Toujours la dalle comme un sans domicile fixe Ils me voyaient comme un alien Shit de Gallieni pour les aliéner 20-18, tout est noir, tes potos t'méprisent J'appelle Jason Piekar pour photo maîtrisée Y'a pas de concurrence, ils s'auto-détruisent Crois en tes rêves, crois en tes rêves, crois en tes rêves Crois en tes rêves, crois en tes rêves, Yah Parle avec LO, parle intérêt, yah Ramène n'importe lequel, j'vais l'enterrer, yah Hormones en fusion quand j'débarque dans ta ress Toute ma haine est crachée sous fréquence Antarès Plein d'ambition depuis Duperré Leur critique me fera rire seul dans la Ferrari, hein J'baisse les yeux pour regarder la concu, hey Reste assis, j'impose ma suprématie, ya Il sait pas, j'me suis tapé sa copine, hey J'ai du Bape, j'ai du Supreme aussi, ya T'es du-per, solo sans ton possee, hey J'suis du-per le barreau dans une pussy, ya J'ai pas pris ce Uber pour papoter, hey Elle sait que j'suis là que pour sa beauté, ya Ah gars, ah gars, ah gars, ah gars, ah gars Papa, Maman m'voient sous taga la night Osaleeka, Youv Dee vous allez cracher J'sais plus si j'fais du rap ou du Metallica Ah gars, ah gars, ah gars, ah gars, ah gars J'veux des pogos, pogos, pogos, pogos, pogos Ah qu'elle me colle, elle veut rien d'amical Elle veut bite de négro, négro, négro, négro, négro Bouge ton kwer, c'est mieux c'est mieux Roule un teh, c'est mieux ah gars Bouge ton kwer, c'est mieux slay C'est le Couvre Feu ay Bouge ton kwer, c'est mieux Roule un teh, c'est mieux ah gars Bouge ton kwer, c'est mieux C'est le Couvre Feu slay Leur carrière au Bangladesh, hold up, ouh Je traîne pas par ici car ça sent la dèche, hold up, ouh Là on turn up, on turn up, on turn up, on turn up Basses enflammées sur un morceau en ternaire T'auras pas ma reconnaissance éternelle Jamais eu besoin d'acheter vues sur internet 10 millions de streams, contrat trois cent mille E T'es bon qu'en 2007 t'es comme l'AC Milan Je veux pas du feat mais bon grazie mille Y a qu'un enfant du siècle et cela fait 1000 ans - hold up, ouh Tu pourras pas turn up comme nous 10 dans ma tête, chacun veut faire beaucoup de sous Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh Quand j'pé-ra, tu péris Je mérite d'être payé, enterrez mes billets Vous priez pour mieux vous tirer Gars moi j'ai besoin que de briller Laissez nous briller On va piller le palais, leur piquer leurs places Enculer leurs madre, leur filer le da-s' PALASS On est pas loin des balades, ta femme m'appelle elle est fan Enfin dans l'pe-ra gars, j'ai mis les pieds Jamais la vie de bandit repenti Je brandis les bites, comme la fille de Billy Ray Pas beaucoup de peine Pas beaucoup le temps donc parle dans le thème J'aime pas les balivernes salivaires Si t'as perdu ton hymen et ta liberté Dans un club libertin L'terrain m'appelle babe Je mets les paires et je défie du banc Je veux les parts de ma payday de mon manque de temps Et l'attente de billets de banque PALASS Tu pues d'la gueule, tu pues d'la gueule, tu pues d'la gueule J'veux pas savoir comment sent ta chatte Pétasse gueule Tu pues d'la gueule, tu pues d'la gueule, tu pues d'la gueule J'veux pas savoir comment sent ta chatte Pétasse gueule Mais qu'est-ce que t'as graillé comme tapas ? Pétasse gueule J'veux pas savoir comment sent ta chatte Pétasse gueule On dirait qu't'as bouffé un cadavre Pétasse gueule Casse-toi, m'parle pas, pétasse J'suis H24 dans l'sky Pétasse gueule Pourquoi tu fais la belle ? T'as la bouche pourrie comme Balkany Ola, bouge, là, tu mets la gerbe J'préfère m'étouffer dans l'cannabis Vu tes bouffées d'haleine, j'doute que ta pussy sente la vanille Vu tes bouffées d'haleine, j'doute que ta pussy sente la vanille Gueule J'mets des golden comme Kelly R Tous les jours, j'crève comme Kenny, frère Putain, j'veux pas qu'on délibère De ce système, je veux m'libérer J'mets des golden comme Kelly R Tous les jours, j'crève comme Kenny, frère Putain, j'veux pas qu'on délibère De ce système, je veux m'libérer Si t'es épileptique, mes clips, évite J'suis béni, j'ai pris des pills T'es dans l'déni, ton buis', c'est l'shit Elle m'suce au ciné, j'ressuscite J'me sens comme Jésus quand je jizzes C'est trop business, la Citizen J'crois qu'j'vais beuj, j'ai assez tisé Premier concert, j'me suis pissé d'ssus Troisième, j'ai pris 1500 Oh c'est trop fun, j'ai même pas visé c'truc C'est pas grâce au rap qu'tire des coups Bien sûr qu'maintenant, j'plie ces putes Bien sûr maman qu'maintenant, j'plie ces putes Cool-al et lean dans mon bénitier Russe et Grec est le pedigree J'connais plus d'défaites, tu peux vérifier Chaque jour, j'fume des pét' j'fais qu'effriter J'ai dit Cool-al et lean dans mon bénitier Russe et Grec est le pedigree J'connais plus d'défaites, tu peux vérifier Chaque jour, j'fume des pét' j'fais qu'effriter J'ai dit Je suis chez Givenchy pour un spot publicitaire Je me rappelle quand personne ne me plébiscitait Passe à la fin du show s'tu veux me féliciter Wesh, dans ma tête, c'est la cité Vilain garçon, vilain garçon, vilain garçon, ah Trouve l'avenir dans le fond de mon regard sombre, ah J'ai fondation, j'ai consolidation Carrière meurt sans sponsorisation Ouh, la concurrence porte des crocs-top Ouh, tous les jours, on finit fucked up Ouh, la concurrence porte des crocs-top Couvre feu, la concurrence porte des crocs-top T'écoutes et tu restes assis boy, j'me balade sur toute la scène Tu fermes ta gueule alors que tu sais qu'elle mintéresse ta 'zine J'la saigne elle est sous ecstasy, hoy J'répands l'amour dans ton corps sec J'te fais du mal et t'adores ça Tu seras toujours qu'un essai Je sais qu'un jour tu seras déçu mais c'est comme ça Elle boit mes paroles avec un para, pas l'habitude de m'étaler Faut qu'je titube dans mon palais J'te jure sur la vie d'ma bouteille J'suis déjà mort en réalité Attends moi dans un motel, le ciel est couleur cocktail Y'a plus d'rêves non non Nouveau booty sur mon bootleg Le ciel est couleur cocktail Le ciel est couleur cocktail</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mojo magmatique, chaque jour, j'm'améliore pour finir dans une carrera Ça m'ira quand j'toucherais le cur de 20 millions de français comme Kad Merad J'récupère mon âme, j'me demande si je la mérite On verra bien, les étoiles ne camouflent pas sang séché d'amérindiens sur le drapeau tricolore de l'Amérique D'façon à quoi bon, l'air qu'on laisse aux descendants n'est bientôt plus oxygéné Le reste de nos actions finira dans un tas de cendres grises J'rachète le passé via les comptes de l'entreprise même mes propres démons s'excusent, j'les avais jamais vus aussi gênés Le diable fait sa proposition sur un contrat d'licence, ciel devient noir devant c'qu'on va laisser J'me désaltère dans une pompe à essence, j'urine le reste sur concurrence en convalescence J'ai lumière à nourrir, j'ai mon ombre à vexer L'argent nous impose un monde indexé, sache qu'on va réussir peu importe l'nombre des essais, yeah J'en enterre tellement, moi j'suis bon qu'à gagner des guerres, j'commence dans l'entertainment, j'finis en politique comme Schwarzenegger Mes mains sont faites pour toucher l'or, mon flow pourrait mais jamais ne meurt Pas là pour épargner des mères, j'ai Paramour, je suis armé des meilleurs Désormais sont devenus des comme Messi quand il rentre au Nou Camp Seul face aux portes du succès, au moins 5 ans qu'j'suis dans la salle d'attente Toi tu kiffes un tel, t'idoles machin, ça t'pousse à devenir le toi amélioré Dans tous les cas, la vie peut t'ignorer, donc j'me fais remarquer avec 6 dalmatiens Mes initiales en or sur mon dentier, pourtant ça change rien à ma vie quotidienne Y a plus vraiment de mots qui tiennent, ça changera pas grand chose d'avoir le monde entier, putain Le roi est mort, vive le prince, j'pourrai pas trahir mes principes J'sais pas quand on me posera linceul mais j'sais qu'j'ai choisi J'm'arrêterai pas avant d'être assis sur l'fauteuil ou de Laurent Ruquier Tu serais surpris de voir que pour d'l'or en lingot, même des tétraplégiques deviennent fort en luthier J'ai valeurs humaines, j'ai valeurs pécuniaires, moi, je manque aux miens comme Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vend plus rien Le but, c'est d'passer du contrôle d'identité, au contrôle fiscal Peu d'idoles, la seule drogue qui m'calme, c'est mes rêves que j'copie colle Dieu est grand, Dieu est grand, Dieu est grand, j'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma, mourir jeune comme dans les années 70 You might also like J'ai rappé ma peine, j'ai rappé ma haine, devenu le plus fort pour qu'la folie ne m'atteigne Quand il m'reconnaisse, j'ai l'même sentiment que les guerriers du Péloponnèse sur les collines d'Athènes J'ai pleuré du sang, j'ai ravalé des larmes, cur sur la main comme Soleil est noir, illumine mes nuis blanches, le corps n'est qu'un décor, Dieu y dessine les âmes J'écoute l'album, wow, j'suis satisfait en ce qui me concerne Chaque jour, mon cerveau rêve de déconnecter Donne-moi le monde, j'ai trop les crocs, faut becter J'pense à mon père, à son cur inférieur, yeah J'me sens vivre seul dans ma chambre, yeah J'me sens mort de l'intérieur devant 8000 personnes qui se J'ai fait mes adieux, j'me sens renaître, dois-je me à Dieu ? J'remercie Flav' wow, j'ai failli presque arrêter J'me sentirai mieux qu'après millions d'ventes, des stades de France, sur une plage du Costa Rica Certaines femmes autour de moi, veulent poster leur postérieur en pensant s'inscrire dans la postérité La mélancolie comme bande originale de mon adolescence Au succès, j'me sens programmé, tout comme lobsolescence, j'suis vrai Aussi vrai qu'le 30 Septembre est ma date de naissance J'revois mon rêve, me dire Faut pas que tu m'abandonnes J'revois ma mère, me dire C'est l'univers qui donne J'revois les cieux recouvrir les nuits sans étoiles, moi, je fais le bien et toi ? J'suis le reflet d'mon époque, l'Afrique est en forme de Glock Charbonner toute une vie pour une vie dont on ne pourra même pas profiter Une femme de ménage voulait , un astrolapitek comme futur président J'ai enfanté mon ombre sombre comme cette société qu'est régis par le nombre Tombe et relève-toi, pas d'erreurs que des expériences, pas d'erreurs que des expériences J'écris l'histoire sur , j'me sens comme Telma et Louise J'cours après la liberté puis j'vais me précipiter dans un précipice Tout est noir, délinquant, avant la mort, caché dans poche de son veston J'ai pas l'temps de te voir, ma musique répondra à toutes vos questions J'rappe sale, c'est trop réel, j'suis né sous aurore boréale Avec la vie, j'suis un peu cruel, avec la mort, j'suis en chorée à-l C'est la prose enflammée, ici-bas toutes les roses ont fané Vie momentanée, je vais régner nonante années J'viens même plus dans toutes vos soirées Moi, j'lui mords l'oreille, j'suis son Luis Suárez Fashion week, j'arrive en Touareg Damn, L.O.R. enfoiré Le flow est violent Comme les cauchemars d'un dictateur Comme le système qui dit qu't'as peur Comme un monde dénué de sens Comme les liens que j'ai noué Comme un activiste dévoué face à des billets de 100 Le flow est violent Comme monter sans concevoir que tu vas r'descendre Comme quand on se voit dans une marre de sang Comme tout ceux qui démarrent des sons et finissent forts déçus C'est comme la ménagère, tous les mardis soirs, devant Ardisson, entraîné à échouer face aux portes du succès Comme une relation qui passe de l'amour à la haine Comme une tromperie que l'on savourait à peine Ça m'aurait empêché de vouloir faire des souhaits et quitter ce monde, sans les savourer en paix Le flow est violent Comme un regard menaçant Comme comprendre que chaque guerre, rend heureux la science Comme un couple qui meurt enlacé Comme l'enfant qui fait ou voir la douleur s'effacer quand j'prends la scène, quand j'repense à cette femme qui m'aurait lassé Le flow est violent comme un conflit mal géré Comme un viol dans les montagnes en pleine guerre d'Algérie Comme laisser ses rideaux faire, comme de l'anti-oxydant Sur le rideau d'fer, l'injustice est imbattable dans cette France dilettante Mariane est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème, connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter, méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tout leur conseils, demande toi qui t'es, on s'canalise Place peu d'espoirs dans la psychanalyse Ici, c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père, demain sera pire, J'trouvais refuge dans mes soupirs, j'les couvre d'or, mon cur s'y perd Mes deux mains s'remplir, pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain, laisse concurrence en convalescence, c'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser, pas les essais LORD, Oklm, Couvre Feu, Jackie Brown, t'entends pas ? Y a pas d'perception perspicace si t'as qu'une seule perspective Seul l'amour des nôtres compte, le reste n'est pas perceptible Ma peur persiste y a trop d'épreuves que j'ai su surmonter Les anges me susurrent d'monter Les mains gantées j'ai grandi fier car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées L'argent c'est l'excrément du diable pour qui j'n'ai pas d'miséricorde L'égalité des chances provient de ce que la misère accorde L'amour est plus fort que la haine, que la colère, que la peine Faut qu'on tolère qu'nos curs polaires entacheront le ciel ébène Nos armes se taisent nos âmes se fanent, les souvenirs s'confondent et s'effacent Comme un mensonge dans l'il d'une femme quand nos visages sont face à face Les étoiles peuvent témoigner du silence entre les voyelles Le sang qui coule était royal un ange nous quitte ailes déployées Sentiments pris dans la noyade nos curs impurs sont nettoyés Mon nom gravé sur tes poignets s'demande pourquoi t'es déloyale Lord en improvis' sur Couvre Feu, t'inquiétes pas mon gava, j'débarque toujours à l'improviste Mon gava me parlait de faire l'Olympia, Bruno , on l'emmerde toujours On arrive, on embrasse les actrices, pas de problèmes, tu sais que le flow est trop radioactif Pas d'soucis sur OKLM, j'suis normal sur la croisette Pas de problèmes, mon gars tu le sais J'le fais pour payer à la daronne, une croisière J'le fais depuis la troisième, depuis des années Lord en impro, jamais désarmer, ça le fait Mon gava, tu le sais depuis 2 ans Oui mon pote, on le fait, y a pas de problèmes, non, non Normal, tellement fort, tu sais que j'en dors mal Drapeau Blanc, 24 Mai, oui le est Ah, c'est chaud comme le magma, la lave Pas de problèmes, mon gava, tu sais, on arrive en glave Qu'est c'que tu vas faire, tu vas écouter Drapeau Blanc Fréro, c'est LORD, y a pas d'slogan</t>
+          <t>Mojo magmatique, chaque jour, j'm'améliore pour finir dans une carrera Ça m'ira quand j'toucherais le cur de 20 millions de français comme Kad Merad J'récupère mon âme, j'me demande si je la mérite On verra bien, les étoiles ne camouflent pas sang séché d'amérindiens sur le drapeau tricolore de l'Amérique D'façon à quoi bon, l'air qu'on laisse aux descendants n'est bientôt plus oxygéné Le reste de nos actions finira dans un tas de cendres grises J'rachète le passé via les comptes de l'entreprise même mes propres démons s'excusent, j'les avais jamais vus aussi gênés Le diable fait sa proposition sur un contrat d'licence, ciel devient noir devant c'qu'on va laisser J'me désaltère dans une pompe à essence, j'urine le reste sur concurrence en convalescence J'ai lumière à nourrir, j'ai mon ombre à vexer L'argent nous impose un monde indexé, sache qu'on va réussir peu importe l'nombre des essais, yeah J'en enterre tellement, moi j'suis bon qu'à gagner des guerres, j'commence dans l'entertainment, j'finis en politique comme Schwarzenegger Mes mains sont faites pour toucher l'or, mon flow pourrait mais jamais ne meurt Pas là pour épargner des mères, j'ai Paramour, je suis armé des meilleurs Désormais sont devenus des comme Messi quand il rentre au Nou Camp Seul face aux portes du succès, au moins 5 ans qu'j'suis dans la salle d'attente Toi tu kiffes un tel, t'idoles machin, ça t'pousse à devenir le toi amélioré Dans tous les cas, la vie peut t'ignorer, donc j'me fais remarquer avec 6 dalmatiens Mes initiales en or sur mon dentier, pourtant ça change rien à ma vie quotidienne Y a plus vraiment de mots qui tiennent, ça changera pas grand chose d'avoir le monde entier, putain Le roi est mort, vive le prince, j'pourrai pas trahir mes principes J'sais pas quand on me posera linceul mais j'sais qu'j'ai choisi J'm'arrêterai pas avant d'être assis sur l'fauteuil ou de Laurent Ruquier Tu serais surpris de voir que pour d'l'or en lingot, même des tétraplégiques deviennent fort en luthier J'ai valeurs humaines, j'ai valeurs pécuniaires, moi, je manque aux miens comme Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vend plus rien Le but, c'est d'passer du contrôle d'identité, au contrôle fiscal Peu d'idoles, la seule drogue qui m'calme, c'est mes rêves que j'copie colle Dieu est grand, Dieu est grand, Dieu est grand, j'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma, mourir jeune comme dans les années 70 J'ai rappé ma peine, j'ai rappé ma haine, devenu le plus fort pour qu'la folie ne m'atteigne Quand il m'reconnaisse, j'ai l'même sentiment que les guerriers du Péloponnèse sur les collines d'Athènes J'ai pleuré du sang, j'ai ravalé des larmes, cur sur la main comme Soleil est noir, illumine mes nuis blanches, le corps n'est qu'un décor, Dieu y dessine les âmes J'écoute l'album, wow, j'suis satisfait en ce qui me concerne Chaque jour, mon cerveau rêve de déconnecter Donne-moi le monde, j'ai trop les crocs, faut becter J'pense à mon père, à son cur inférieur, yeah J'me sens vivre seul dans ma chambre, yeah J'me sens mort de l'intérieur devant 8000 personnes qui se J'ai fait mes adieux, j'me sens renaître, dois-je me à Dieu ? J'remercie Flav' wow, j'ai failli presque arrêter J'me sentirai mieux qu'après millions d'ventes, des stades de France, sur une plage du Costa Rica Certaines femmes autour de moi, veulent poster leur postérieur en pensant s'inscrire dans la postérité La mélancolie comme bande originale de mon adolescence Au succès, j'me sens programmé, tout comme lobsolescence, j'suis vrai Aussi vrai qu'le 30 Septembre est ma date de naissance J'revois mon rêve, me dire Faut pas que tu m'abandonnes J'revois ma mère, me dire C'est l'univers qui donne J'revois les cieux recouvrir les nuits sans étoiles, moi, je fais le bien et toi ? J'suis le reflet d'mon époque, l'Afrique est en forme de Glock Charbonner toute une vie pour une vie dont on ne pourra même pas profiter Une femme de ménage voulait , un astrolapitek comme futur président J'ai enfanté mon ombre sombre comme cette société qu'est régis par le nombre Tombe et relève-toi, pas d'erreurs que des expériences, pas d'erreurs que des expériences J'écris l'histoire sur , j'me sens comme Telma et Louise J'cours après la liberté puis j'vais me précipiter dans un précipice Tout est noir, délinquant, avant la mort, caché dans poche de son veston J'ai pas l'temps de te voir, ma musique répondra à toutes vos questions J'rappe sale, c'est trop réel, j'suis né sous aurore boréale Avec la vie, j'suis un peu cruel, avec la mort, j'suis en chorée à-l C'est la prose enflammée, ici-bas toutes les roses ont fané Vie momentanée, je vais régner nonante années J'viens même plus dans toutes vos soirées Moi, j'lui mords l'oreille, j'suis son Luis Suárez Fashion week, j'arrive en Touareg Damn, L.O.R. enfoiré Le flow est violent Comme les cauchemars d'un dictateur Comme le système qui dit qu't'as peur Comme un monde dénué de sens Comme les liens que j'ai noué Comme un activiste dévoué face à des billets de 100 Le flow est violent Comme monter sans concevoir que tu vas r'descendre Comme quand on se voit dans une marre de sang Comme tout ceux qui démarrent des sons et finissent forts déçus C'est comme la ménagère, tous les mardis soirs, devant Ardisson, entraîné à échouer face aux portes du succès Comme une relation qui passe de l'amour à la haine Comme une tromperie que l'on savourait à peine Ça m'aurait empêché de vouloir faire des souhaits et quitter ce monde, sans les savourer en paix Le flow est violent Comme un regard menaçant Comme comprendre que chaque guerre, rend heureux la science Comme un couple qui meurt enlacé Comme l'enfant qui fait ou voir la douleur s'effacer quand j'prends la scène, quand j'repense à cette femme qui m'aurait lassé Le flow est violent comme un conflit mal géré Comme un viol dans les montagnes en pleine guerre d'Algérie Comme laisser ses rideaux faire, comme de l'anti-oxydant Sur le rideau d'fer, l'injustice est imbattable dans cette France dilettante Mariane est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème, connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter, méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tout leur conseils, demande toi qui t'es, on s'canalise Place peu d'espoirs dans la psychanalyse Ici, c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père, demain sera pire, J'trouvais refuge dans mes soupirs, j'les couvre d'or, mon cur s'y perd Mes deux mains s'remplir, pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain, laisse concurrence en convalescence, c'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser, pas les essais LORD, Oklm, Couvre Feu, Jackie Brown, t'entends pas ? Y a pas d'perception perspicace si t'as qu'une seule perspective Seul l'amour des nôtres compte, le reste n'est pas perceptible Ma peur persiste y a trop d'épreuves que j'ai su surmonter Les anges me susurrent d'monter Les mains gantées j'ai grandi fier car mère avance sans sangloter Les politiques seront couverts de bouquets d'fleurs ensanglantées L'argent c'est l'excrément du diable pour qui j'n'ai pas d'miséricorde L'égalité des chances provient de ce que la misère accorde L'amour est plus fort que la haine, que la colère, que la peine Faut qu'on tolère qu'nos curs polaires entacheront le ciel ébène Nos armes se taisent nos âmes se fanent, les souvenirs s'confondent et s'effacent Comme un mensonge dans l'il d'une femme quand nos visages sont face à face Les étoiles peuvent témoigner du silence entre les voyelles Le sang qui coule était royal un ange nous quitte ailes déployées Sentiments pris dans la noyade nos curs impurs sont nettoyés Mon nom gravé sur tes poignets s'demande pourquoi t'es déloyale Lord en improvis' sur Couvre Feu, t'inquiétes pas mon gava, j'débarque toujours à l'improviste Mon gava me parlait de faire l'Olympia, Bruno , on l'emmerde toujours On arrive, on embrasse les actrices, pas de problèmes, tu sais que le flow est trop radioactif Pas d'soucis sur OKLM, j'suis normal sur la croisette Pas de problèmes, mon gars tu le sais J'le fais pour payer à la daronne, une croisière J'le fais depuis la troisième, depuis des années Lord en impro, jamais désarmer, ça le fait Mon gava, tu le sais depuis 2 ans Oui mon pote, on le fait, y a pas de problèmes, non, non Normal, tellement fort, tu sais que j'en dors mal Drapeau Blanc, 24 Mai, oui le est Ah, c'est chaud comme le magma, la lave Pas de problèmes, mon gava, tu sais, on arrive en glave Qu'est c'que tu vas faire, tu vas écouter Drapeau Blanc Fréro, c'est LORD, y a pas d'slogan</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>L.O, L.O, L.O.R Fils de argh, j'suis dans la trap Elle avale ma semence comme t'avale ta fierté Eux ils prônent le progrès, moi j'progresse sur le trône Leur terre n'est pas fertile, j sais comment t'faire taire La vessie pleine, les couilles vidées yeah J'urine sur leur dépouilles ridées yeah Pour réussir, faut savoir se permettre Je suis dans son vagin, comme dans ton internet La vérité sort d'la bouche des enfants mais on tente tous les évangélistes Putain de mésentente J'vois qu'des adultes adulent des idoles tout comme Eve Angeli Tu n'est qu'indésirable tel ton contenu Me demande pas comment faire quand t'es nul Compte-tenu du fait que je ne fais que déféquer sur ces fils de koufar Je ne peux que les fuck J'écris l'histoire a la sueur d'mon front J'te marche dessus si nos égos s'confrontent Oy, par ici les fantômes règnent Je suis dans l'épicentre de la faille temporelle J'rappe un message, je n'ai plus l'temps pour eux sku Ténébreux peut tempérer La mort s'réjouie, j'suis pas content pour elle J'fais d'la poésie trash contemporaine Mon ciel est gris comme le littoral nord La jalousie t'enterre littéralement Tandis qu'un gosse de plus meurt de soif au tiers-monde Nouveau scandale, nouvelle orgie Ils avortent lenterrement puis l'étouffe entièrement Ce système c'est le colosse aux nombreux pied d'argiles Dans lequel, on ne respecte que l'argent Le vagin de Marianne est bien plus qu'élargi Neurones noyés dans la paraffine, leurs curs fanent J'suis ténébreux fuck un contraste 2017 j'te dit qu'on trace le trait sur le contrat J'attend l'masteur, j'suis dans l'draxter hey J'prend tout car leur part est fine Putain d'rockstar, j'me ferais p't'être buter par un fan On les baise souvent, demande pas pourquoi J'te repondrai p't'être parce que sku sku sku Je m'autoproclame empereur, j'voulais lumières sur mes empreintes trouve de la poudre lunaire J'les baise avec le sourire oy, ton égo veut se nourrir Y'a ton il dans la serrure, y'a ma fierté dans son trou d'souris Enfoiré, j'dois contenter l'ciel Ton excès de confiance te fait contempler l'sol J'n'ai besoin de personne, j'préfère tenter seul ah Sa main sur mes abdominaux, le dos, mes cheveux gominés Ça devient très facile je suis lopprimeur face au dominé Provoqueur j'suis XXX, leur empire sécroule comme des dominos Leur espoir de régner fuit comme la victoire devant Domenech Reste dans ta fierté la victora s'y prête J'me reveille sur un cul d'chez Victoria Secret Faudrait qu't'assimile qu'on est pas similaire Je vaux 200 milles E dans ce milieu Aucune défense difficile à contrer Tu me rappelles les signaux qu'ils montrèrent J'suis l'meilleur d'la géné', que mes prétendants m'en prouvent le contraireYou might also like1</t>
+          <t>L.O, L.O, L.O.R Fils de argh, j'suis dans la trap Elle avale ma semence comme t'avale ta fierté Eux ils prônent le progrès, moi j'progresse sur le trône Leur terre n'est pas fertile, j sais comment t'faire taire La vessie pleine, les couilles vidées yeah J'urine sur leur dépouilles ridées yeah Pour réussir, faut savoir se permettre Je suis dans son vagin, comme dans ton internet La vérité sort d'la bouche des enfants mais on tente tous les évangélistes Putain de mésentente J'vois qu'des adultes adulent des idoles tout comme Eve Angeli Tu n'est qu'indésirable tel ton contenu Me demande pas comment faire quand t'es nul Compte-tenu du fait que je ne fais que déféquer sur ces fils de koufar Je ne peux que les fuck J'écris l'histoire a la sueur d'mon front J'te marche dessus si nos égos s'confrontent Oy, par ici les fantômes règnent Je suis dans l'épicentre de la faille temporelle J'rappe un message, je n'ai plus l'temps pour eux sku Ténébreux peut tempérer La mort s'réjouie, j'suis pas content pour elle J'fais d'la poésie trash contemporaine Mon ciel est gris comme le littoral nord La jalousie t'enterre littéralement Tandis qu'un gosse de plus meurt de soif au tiers-monde Nouveau scandale, nouvelle orgie Ils avortent lenterrement puis l'étouffe entièrement Ce système c'est le colosse aux nombreux pied d'argiles Dans lequel, on ne respecte que l'argent Le vagin de Marianne est bien plus qu'élargi Neurones noyés dans la paraffine, leurs curs fanent J'suis ténébreux fuck un contraste 2017 j'te dit qu'on trace le trait sur le contrat J'attend l'masteur, j'suis dans l'draxter hey J'prend tout car leur part est fine Putain d'rockstar, j'me ferais p't'être buter par un fan On les baise souvent, demande pas pourquoi J'te repondrai p't'être parce que sku sku sku Je m'autoproclame empereur, j'voulais lumières sur mes empreintes trouve de la poudre lunaire J'les baise avec le sourire oy, ton égo veut se nourrir Y'a ton il dans la serrure, y'a ma fierté dans son trou d'souris Enfoiré, j'dois contenter l'ciel Ton excès de confiance te fait contempler l'sol J'n'ai besoin de personne, j'préfère tenter seul ah Sa main sur mes abdominaux, le dos, mes cheveux gominés Ça devient très facile je suis lopprimeur face au dominé Provoqueur j'suis XXX, leur empire sécroule comme des dominos Leur espoir de régner fuit comme la victoire devant Domenech Reste dans ta fierté la victora s'y prête J'me reveille sur un cul d'chez Victoria Secret Faudrait qu't'assimile qu'on est pas similaire Je vaux 200 milles E dans ce milieu Aucune défense difficile à contrer Tu me rappelles les signaux qu'ils montrèrent J'suis l'meilleur d'la géné', que mes prétendants m'en prouvent le contraire1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pourquoi tu parles de ma couleur ? C'est quoi l'problème de ma couleur ? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt, j'l'étais d'ja quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love Échouer est impossible comme Marcelo à Barcelone Ma tête en ville, tous les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini You might also like Personne ne me connait, y a qu'avec les miens que j'me connecte Rouler en Corvette, c'est pas une corvée, mains sur le volant et son col V J'passe les rapports dans la caisse, elle veut des rapports dans la caisse Roule du cul, pas des mécaniques, le bâton dans les roues, ouais, c'est pathétique Speed Diablo d'vient furieux, voiture allemande pour faire fureur Vitres teintées pour les curieux, sors du bolide avec pudeur, hein On finira premier le championnat, j'suis un jeune rebelle comme Cantona, nan, nan, nan Si tu veux la Porsche, sors du porche, les mains à la pâte, pas dans la poche Sors ma tête du toit ouvrant, le vent caresse mon corps, j'dois pas louper le coche Y a pas d'corps dans l'coffre, mets d'la voix dans mon coffre J'suis dans le tic tic tic Les aiguilles me piquent piquent piquent J'deviens big big big Mon bigo fait bip bip bip J'suis dans le tic tic tic Les aiguilles me piquent piquent piquent J'deviens big big big Mon bigo fait bip bip bip J'arrive dans la soirée sur mes sons Je laisse ma cousine sur messagerie Ca coûte trop cher pour que je te laisse enlever mes sapes J'leur dis c'est du toc ils me disent mais ça brille Groupie veut banger et tube L'artiste veut belle gow et thune à ce qu'il paraît Ma gueule j'ai fait tout plein d'études mais bon briller dans tout l'hexagone c'est plus carré ow En soirée j'suis pas très tchatcheur j'veux faire du biff comme djadja Y'a qu'une chance sur deux que je connaisse ta sur, bisous, ciao ciao J'lis ça dans le sang comme quatre grammes pour porter l'il faut des gri-gri Elle écarte les beuch comme cri-cri, cri qui oui quand ton crac craque Deux trois millions j'crois que c'est le minimum J'entends, j'entends, ouais mais qui dit mieux? Deux trois millions j'crois que c'est le minimum Double V monte plus qu'à l'infini, mais dis-moi comment je peux m'définir J'ai perdu ma tête, c'est le 7.7, j'suis qu'un cocktail Molotov, j'suis dans une release Putain, quand j'rappe, j'suis à mille dix, danse, quand j'rappe, j'suis qu'à dix mille J'suis polyvalent comme si j'étais , j'veux tout baiser, me renommer Dominique Fuck une nana, j'veux les DOM-TOM, y a que quand j'dis que j'vais donner mon temps Cracher plus fort que les drum tom, j'suis déjà dans le ciel, yeah ouh Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini J'arrive en avance comme Hubert Reeves, commande rappeur sur Uber Eats Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de pute sait pas d'où j'viens, ride la ville comme prince saoudien J'étais déjà le plus fort dans le ventre de ma mère fais-le, tu mintéresses pas comme les blagues de Nagui Rien à foutre, j'écoute pas ton avis, au dernier étage tout comme Angela Merkel Ma tête sur des autocollants, ma tête sur des photocopies Trouve moi sur des photos 3D, j'ai l'flow que tes potos copient Phénoménal, phénoménal, phénoménal, wow, plus je rappe, plus je rappe, plus j'fais du métal, wow J'te trouve aucun adjectif dénominal, personne ne t'écoute, t'es comme réseau Tidal Plus fort que nos pères comme Son Goten, oh yeah, j'me sentirai plus libre sans voter, oh yeah Tout niquer à vingt-cinq comme Toni Kroos, j'rigole de leur musique sans gluten, oh yeah Fuck c'que l'Etat fédéral donne, j'ai fait des ratures, j'ai fait des rappeurs, j'en ai ras l'bol, wow Si Dieu a chanté la vie, j'suis l'premier album En avance comme Elon Musk, joue avec ta tête comme belote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de pute sait pas d'où j'viens, ride la ville comme prince saoudien Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco C'est toujours Piège à la prod hey, quand j'rentre sur scène, ça lâche des yah Plus y a d'zéros sur le chèque hey, plus y a de traîtres qui m'appellent yah J'viens pas d'ton bled et j't'emmerde, pas de drogues dans les poumons ni dans l'verre La basse arrive plus violente que dans Binks donc ils vont pleurer des rivières comme Timberlake Donc je rachète leur contrat hey, j'laisse la monnaie sur l'comptoir yah Succès prend il au beurre noir hey, destin m'a fait eyes contact yah Je vois que leur cul s'ouvre hey comme les portes de la DeLorean Deux heures du mat', jvomis dans lauréole, j'me sens Zidane dans le Réal yah J'arrive en beast mode, j'suis rempli d'seum, je vois qu'l'argent nous emprisonne, on a la haine comme antidote L'il porté par le cyclope fait que je déchire l'anti-pop, wouh, ah, yeah, on est fous à lier, j'fais du boom bap, yeah</t>
+          <t>Pourquoi tu parles de ma couleur ? C'est quoi l'problème de ma couleur ? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt, j'l'étais d'ja quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love Échouer est impossible comme Marcelo à Barcelone Ma tête en ville, tous les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini Personne ne me connait, y a qu'avec les miens que j'me connecte Rouler en Corvette, c'est pas une corvée, mains sur le volant et son col V J'passe les rapports dans la caisse, elle veut des rapports dans la caisse Roule du cul, pas des mécaniques, le bâton dans les roues, ouais, c'est pathétique Speed Diablo d'vient furieux, voiture allemande pour faire fureur Vitres teintées pour les curieux, sors du bolide avec pudeur, hein On finira premier le championnat, j'suis un jeune rebelle comme Cantona, nan, nan, nan Si tu veux la Porsche, sors du porche, les mains à la pâte, pas dans la poche Sors ma tête du toit ouvrant, le vent caresse mon corps, j'dois pas louper le coche Y a pas d'corps dans l'coffre, mets d'la voix dans mon coffre J'suis dans le tic tic tic Les aiguilles me piquent piquent piquent J'deviens big big big Mon bigo fait bip bip bip J'suis dans le tic tic tic Les aiguilles me piquent piquent piquent J'deviens big big big Mon bigo fait bip bip bip J'arrive dans la soirée sur mes sons Je laisse ma cousine sur messagerie Ca coûte trop cher pour que je te laisse enlever mes sapes J'leur dis c'est du toc ils me disent mais ça brille Groupie veut banger et tube L'artiste veut belle gow et thune à ce qu'il paraît Ma gueule j'ai fait tout plein d'études mais bon briller dans tout l'hexagone c'est plus carré ow En soirée j'suis pas très tchatcheur j'veux faire du biff comme djadja Y'a qu'une chance sur deux que je connaisse ta sur, bisous, ciao ciao J'lis ça dans le sang comme quatre grammes pour porter l'il faut des gri-gri Elle écarte les beuch comme cri-cri, cri qui oui quand ton crac craque Deux trois millions j'crois que c'est le minimum J'entends, j'entends, ouais mais qui dit mieux? Deux trois millions j'crois que c'est le minimum Double V monte plus qu'à l'infini, mais dis-moi comment je peux m'définir J'ai perdu ma tête, c'est le 7.7, j'suis qu'un cocktail Molotov, j'suis dans une release Putain, quand j'rappe, j'suis à mille dix, danse, quand j'rappe, j'suis qu'à dix mille J'suis polyvalent comme si j'étais , j'veux tout baiser, me renommer Dominique Fuck une nana, j'veux les DOM-TOM, y a que quand j'dis que j'vais donner mon temps Cracher plus fort que les drum tom, j'suis déjà dans le ciel, yeah ouh Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini, tout l'monde Double V monte plus qu'à l'infini J'arrive en avance comme Hubert Reeves, commande rappeur sur Uber Eats Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de pute sait pas d'où j'viens, ride la ville comme prince saoudien J'étais déjà le plus fort dans le ventre de ma mère fais-le, tu mintéresses pas comme les blagues de Nagui Rien à foutre, j'écoute pas ton avis, au dernier étage tout comme Angela Merkel Ma tête sur des autocollants, ma tête sur des photocopies Trouve moi sur des photos 3D, j'ai l'flow que tes potos copient Phénoménal, phénoménal, phénoménal, wow, plus je rappe, plus je rappe, plus j'fais du métal, wow J'te trouve aucun adjectif dénominal, personne ne t'écoute, t'es comme réseau Tidal Plus fort que nos pères comme Son Goten, oh yeah, j'me sentirai plus libre sans voter, oh yeah Tout niquer à vingt-cinq comme Toni Kroos, j'rigole de leur musique sans gluten, oh yeah Fuck c'que l'Etat fédéral donne, j'ai fait des ratures, j'ai fait des rappeurs, j'en ai ras l'bol, wow Si Dieu a chanté la vie, j'suis l'premier album En avance comme Elon Musk, joue avec ta tête comme belote basque Trouve-moi flex dans l'Merco Benz, trouve-moi flex dans l'Merco Benz J'me suis dit c'est l'rap ou rien, skula, t'entends pas ou bien ? Fils de pute sait pas d'où j'viens, ride la ville comme prince saoudien Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco Trouve-moi flex dans le Merco Benz, flex dans l'Merco C'est toujours Piège à la prod hey, quand j'rentre sur scène, ça lâche des yah Plus y a d'zéros sur le chèque hey, plus y a de traîtres qui m'appellent yah J'viens pas d'ton bled et j't'emmerde, pas de drogues dans les poumons ni dans l'verre La basse arrive plus violente que dans Binks donc ils vont pleurer des rivières comme Timberlake Donc je rachète leur contrat hey, j'laisse la monnaie sur l'comptoir yah Succès prend il au beurre noir hey, destin m'a fait eyes contact yah Je vois que leur cul s'ouvre hey comme les portes de la DeLorean Deux heures du mat', jvomis dans lauréole, j'me sens Zidane dans le Réal yah J'arrive en beast mode, j'suis rempli d'seum, je vois qu'l'argent nous emprisonne, on a la haine comme antidote L'il porté par le cyclope fait que je déchire l'anti-pop, wouh, ah, yeah, on est fous à lier, j'fais du boom bap, yeah</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'ai grandi dans le luxe et les quartiers mal famés Jsuis affamé, sacré L.O L'enfant du siècle, 2M, IBO, la famille 3000E pour faire une heure La plupart disent que Lord il dort Veulent selfie dans l'corridor Leurs daronnes les chauffeurs Uber Allo Atef ça taff tout lété Enfoiré, j'suis bullet-proof, t'es qu'un encroulé C'que j'étais, voulais tuer Mais c'que je suis, c'que je serais Yeah, jvous lapprendrais volontiers Miroir c'est qui lplus fort Miroir, miroir c'est qui l'plus fort J'écris lhistoire comme les Tudor Dit-moi, dit-moi c'est qui l'plus fort Jeune Lord, jeune Apollon, jeune Alain Delon J'fais plus d'erreurs J'ferais régner terreur comme les colons Vie de piscine et de langoustine Génie pur décelé dans les postillons C'est pour ceux qui se posent encore la question Fait pour savoir si je maîtrise toutes sortes de styles J'arrive conquistador comme Jacques Cartier J'écoute des symphonies, j'écoute Agartha Qui dit que t'as pas de couilles si tu viens pas de quartier Tellement de flows, je les connais pas par coeur Allez je plante la France sur le pouloulou Nous deux c'est pas la même , j'me paye pas la gare L.O oulouloum m'parle pas c'est pas la peine Playlist Spotify, le monde comme Galaga Font la queue chez Pôle Emploi J'rachète l'île de Koh-Lanta Voit bouillir sous un toit en tôle, comme quand tu sent l'alcool en toi Ré-invente mon art comme tous les films de Tim Burton J'prends d'honnêtes chez Tim Hortons Comprends que ma team est immortel J'suis dans sa cht.. en pleine immersion Nouvel album, j'ai déjà dix versions La plupart des médias prennent fait divers pour faire diversion Tous comprimés sur le fond de la plage Arrière l'amour dure 3 ans j'préfère baiser ma carrière Y'a qu'Instagram et le filtre de l'apparence Qui finira peut-être par briser des barrières J'arrive extravagant, j'suis un extraterrestre J'prends la place, tout les autres attendent J'leur met vent glacial j'emporte mistral gagnant j'partage le son le ciel fera le reste Retourne Montréal avec FouKi, sirop d'érable sur mon cookie Tant de concerts que c'est déconcertant Mais c'est certain, Jalam nous confirme nouveau booking J'arrive pimpant comme un cool kid, ma chérie Va donc refaire ton relooking Prince de la trap devenu new king, L.OYou might also like</t>
+          <t>J'ai grandi dans le luxe et les quartiers mal famés Jsuis affamé, sacré L.O L'enfant du siècle, 2M, IBO, la famille 3000E pour faire une heure La plupart disent que Lord il dort Veulent selfie dans l'corridor Leurs daronnes les chauffeurs Uber Allo Atef ça taff tout lété Enfoiré, j'suis bullet-proof, t'es qu'un encroulé C'que j'étais, voulais tuer Mais c'que je suis, c'que je serais Yeah, jvous lapprendrais volontiers Miroir c'est qui lplus fort Miroir, miroir c'est qui l'plus fort J'écris lhistoire comme les Tudor Dit-moi, dit-moi c'est qui l'plus fort Jeune Lord, jeune Apollon, jeune Alain Delon J'fais plus d'erreurs J'ferais régner terreur comme les colons Vie de piscine et de langoustine Génie pur décelé dans les postillons C'est pour ceux qui se posent encore la question Fait pour savoir si je maîtrise toutes sortes de styles J'arrive conquistador comme Jacques Cartier J'écoute des symphonies, j'écoute Agartha Qui dit que t'as pas de couilles si tu viens pas de quartier Tellement de flows, je les connais pas par coeur Allez je plante la France sur le pouloulou Nous deux c'est pas la même , j'me paye pas la gare L.O oulouloum m'parle pas c'est pas la peine Playlist Spotify, le monde comme Galaga Font la queue chez Pôle Emploi J'rachète l'île de Koh-Lanta Voit bouillir sous un toit en tôle, comme quand tu sent l'alcool en toi Ré-invente mon art comme tous les films de Tim Burton J'prends d'honnêtes chez Tim Hortons Comprends que ma team est immortel J'suis dans sa cht.. en pleine immersion Nouvel album, j'ai déjà dix versions La plupart des médias prennent fait divers pour faire diversion Tous comprimés sur le fond de la plage Arrière l'amour dure 3 ans j'préfère baiser ma carrière Y'a qu'Instagram et le filtre de l'apparence Qui finira peut-être par briser des barrières J'arrive extravagant, j'suis un extraterrestre J'prends la place, tout les autres attendent J'leur met vent glacial j'emporte mistral gagnant j'partage le son le ciel fera le reste Retourne Montréal avec FouKi, sirop d'érable sur mon cookie Tant de concerts que c'est déconcertant Mais c'est certain, Jalam nous confirme nouveau booking J'arrive pimpant comme un cool kid, ma chérie Va donc refaire ton relooking Prince de la trap devenu new king, L.O</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir sans répondre au tel A l'heure où j'écris ce couplet j'suis sur le toit de la ville J'redescends sur le boulevard hors de nerfs Me trouve-tu orgueilleux si j'te dit qu'j'ai Fuit ma vie moyenne pour la rendre extraordinaire Nouvelle feuille blanche à magnifier Face aux femmes mon âme est faible, j'ai du mal à m'en méfier On arrive dans ta ville pour tout retourner en une journée On repart quand le mal est fait J'touche mon rêve du bout du doigt J'ai commencé guidé par le goût du risque J'ai trop faim, faut béqueter, j'veux déconnecter Comme un frère qui s'allume un mont du Rif Y'a ceux qui se contente d'un effet Et d'autres qui touchent du bois Ceux qui font ce qu'ils disent, ce qu'ils disent ce qu'ils font Wow, avalanche de cauchemar y'a toute mes désirances qui te font Vois-tu mon iris qui saigne, hein ? Anesthésie sous whisky sec On oublie même que la banquise fond Le monde en feu sous écran Haute-Définition Contemple l'horizon sur la côte du Finistère Putain d'époque, ma jeunesse doit tout changer Mais pour l'instant elle fini se taire You might also like Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir sans répondre au tel Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir en tentant de le changer Toi t'es coupable d'être étranger Y'a ceux qui écoutent leur rêves et ceux qui préfèrent être en gite T'as le choix entre vivre le danger ou une vie qu'est juste épongée Ah merde, attendre que la paye tombe et poser ses congés On est congestionné par le système qui fait que s'auto-congeler J'dit ça mais j'y pense allongé sur une chaise longue vers Tanger Enfin bref, pour conclure si tu veux changer agis Arrête d'y songer, ah merde Ma France est raciste, oublie ses racines T'façon y'a pas de pays féeriques J'me sens vivre à 200 sur une bretelle d'autoroute L'esprit fait des ronds, j'fais des tours de périphériques Dans ma tête l'amour et la haine ne font que permuter Le vivre en refait simplement l'éternité 2019 j'vais record un album où j'rap en braille pour le faire leaker Ma peur chantée en la mineur est éliminée J'réfléchis dans le noir la paix s'est illuminée Ma république dit que le viol n'est qu'un délit mineur Les curs sont couleur ceinture Teddy Riner Y'a ceux qui voient le monde, ceux qui font semblant J'm'adresse à ma descendance j'leur demande de l'indulgence J'vois l'occident accidenté sur la bande d'arrêt d'urgence L-O-L-O-R Planète Rap DrapeauBlanc MajeurMineur FouKi, comme un flocon Scylla C'est comment Gracy Hopkins</t>
+          <t>Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir sans répondre au tel A l'heure où j'écris ce couplet j'suis sur le toit de la ville J'redescends sur le boulevard hors de nerfs Me trouve-tu orgueilleux si j'te dit qu'j'ai Fuit ma vie moyenne pour la rendre extraordinaire Nouvelle feuille blanche à magnifier Face aux femmes mon âme est faible, j'ai du mal à m'en méfier On arrive dans ta ville pour tout retourner en une journée On repart quand le mal est fait J'touche mon rêve du bout du doigt J'ai commencé guidé par le goût du risque J'ai trop faim, faut béqueter, j'veux déconnecter Comme un frère qui s'allume un mont du Rif Y'a ceux qui se contente d'un effet Et d'autres qui touchent du bois Ceux qui font ce qu'ils disent, ce qu'ils disent ce qu'ils font Wow, avalanche de cauchemar y'a toute mes désirances qui te font Vois-tu mon iris qui saigne, hein ? Anesthésie sous whisky sec On oublie même que la banquise fond Le monde en feu sous écran Haute-Définition Contemple l'horizon sur la côte du Finistère Putain d'époque, ma jeunesse doit tout changer Mais pour l'instant elle fini se taire Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir sans répondre au tel Seul dans ma chambre d'hôtel C'est pas de ma faute si j'te semble hautain J'suis venu au monde en tremblotant J'vais repartir en tentant de le changer Toi t'es coupable d'être étranger Y'a ceux qui écoutent leur rêves et ceux qui préfèrent être en gite T'as le choix entre vivre le danger ou une vie qu'est juste épongée Ah merde, attendre que la paye tombe et poser ses congés On est congestionné par le système qui fait que s'auto-congeler J'dit ça mais j'y pense allongé sur une chaise longue vers Tanger Enfin bref, pour conclure si tu veux changer agis Arrête d'y songer, ah merde Ma France est raciste, oublie ses racines T'façon y'a pas de pays féeriques J'me sens vivre à 200 sur une bretelle d'autoroute L'esprit fait des ronds, j'fais des tours de périphériques Dans ma tête l'amour et la haine ne font que permuter Le vivre en refait simplement l'éternité 2019 j'vais record un album où j'rap en braille pour le faire leaker Ma peur chantée en la mineur est éliminée J'réfléchis dans le noir la paix s'est illuminée Ma république dit que le viol n'est qu'un délit mineur Les curs sont couleur ceinture Teddy Riner Y'a ceux qui voient le monde, ceux qui font semblant J'm'adresse à ma descendance j'leur demande de l'indulgence J'vois l'occident accidenté sur la bande d'arrêt d'urgence L-O-L-O-R Planète Rap DrapeauBlanc MajeurMineur FouKi, comme un flocon Scylla C'est comment Gracy Hopkins</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yeah, L.O L.O.R Hey, Polaroïd disponible partout Yeah, j'te vois, bien vu Majeur Mineur, IBO, Nelick, Pala 2018 on arrive La vessie pleine, les couilles vidées J'urine sur leur dépouille ridée Prince de la trap devenu prince des ténèbres Ton rappeur préféré nous réponds en hébreux Jolie gueule, vilain garçon, l'avenir dans mon regard sombre Aucun d'eux ne sait rapper sans s'humilier Pour moins de 210K nous ne signons Traîne avec gueule cassé futur sommelier J'entends leur syndicat de Somalien Chanter leur handicap sur le pont d'Avignon Cinq millions de streams pour un son pavillon Concu se perd dans scène, seum il y a Pendant qu'j'rêve du million sous Saint-Émilion On agit d'abord, on résonne à posteriori L'enfant du siècle placardé dans la street Comme sur un poster au Ritz On a mis le doigt sur tes hémorroïdes J'écoute Polaroïd, j'ai créer la brèche Maintenant on attaque à 10 000 comme des spermatozoïdes You might also like Fils de pute, j'suis dans suite de luxe Bilan d'vie de finance toujours Aussi fort depuis Lord Lux Futur en saphir luit dans l'or des lustres Qui se lance dans le rap FR n'avance que s'il pisse dessus L'argent rentre seul, j'me suis fait tout seul Pas besoin d'ton seum ni de tes conseils Tellement déter que c'est que la veille qu'on s'lève On craint de perdre du sel dès qu'on sait qu'on saigne Jeune babtou teigneux, j'attends qu'sa cervelle repeigne le plafond J'les baiserais t'façon, j'les regarde même plus J'suis trop dédaigneux Yeah, jolie gueule, jolie gueule, jolie gueule, jolie gueule Hey, vilain garçon, l'avenir dans mon regard sombre Leur visage les trahissent, le mien demeure marqué par l'indifférence Enterre leur ignorance, j'suis sur le trône j'fais mes affaires assis C'est dans tes craintes que tu trouves tes racines 2-3 concerts par semaine, j't'enlève ta confiance personnelle Talent proportionnelle j'arrive trop déterminé comme un tortionnaire Que du génie parsemé, conscience personnelle Cette humiliation est non-intentionnelle 6 heures du mat' j'écris l'histoire, j'ai toujours pas sommeil Le téléphone vibre encore un label qui le fait sonner Leur victoire est optionnelle, la notre est obsessionnelle On veut l'monde ou rien Tu rêves d'effacer les traces de ton passé Tu vis où j'viens passer l'été Mec en face c'est des travs Ils se découvrent des facilités, pour le Mandarin J'ai polarisé l'assistance Tu m'ennuies comme ado descolarisé Tu feras risé, tu fais la risé Deux ans j'les baise si fort que leur trou s'élargie Résidus de flow dans des trousses d'argiles On m'a demandé sur un feat, j'n'avais pas le temps J'ai repoussé l'orgie, maintenant ils toussent A croire qu'ils sont tous allergiques</t>
+          <t>Yeah, L.O L.O.R Hey, Polaroïd disponible partout Yeah, j'te vois, bien vu Majeur Mineur, IBO, Nelick, Pala 2018 on arrive La vessie pleine, les couilles vidées J'urine sur leur dépouille ridée Prince de la trap devenu prince des ténèbres Ton rappeur préféré nous réponds en hébreux Jolie gueule, vilain garçon, l'avenir dans mon regard sombre Aucun d'eux ne sait rapper sans s'humilier Pour moins de 210K nous ne signons Traîne avec gueule cassé futur sommelier J'entends leur syndicat de Somalien Chanter leur handicap sur le pont d'Avignon Cinq millions de streams pour un son pavillon Concu se perd dans scène, seum il y a Pendant qu'j'rêve du million sous Saint-Émilion On agit d'abord, on résonne à posteriori L'enfant du siècle placardé dans la street Comme sur un poster au Ritz On a mis le doigt sur tes hémorroïdes J'écoute Polaroïd, j'ai créer la brèche Maintenant on attaque à 10 000 comme des spermatozoïdes Fils de pute, j'suis dans suite de luxe Bilan d'vie de finance toujours Aussi fort depuis Lord Lux Futur en saphir luit dans l'or des lustres Qui se lance dans le rap FR n'avance que s'il pisse dessus L'argent rentre seul, j'me suis fait tout seul Pas besoin d'ton seum ni de tes conseils Tellement déter que c'est que la veille qu'on s'lève On craint de perdre du sel dès qu'on sait qu'on saigne Jeune babtou teigneux, j'attends qu'sa cervelle repeigne le plafond J'les baiserais t'façon, j'les regarde même plus J'suis trop dédaigneux Yeah, jolie gueule, jolie gueule, jolie gueule, jolie gueule Hey, vilain garçon, l'avenir dans mon regard sombre Leur visage les trahissent, le mien demeure marqué par l'indifférence Enterre leur ignorance, j'suis sur le trône j'fais mes affaires assis C'est dans tes craintes que tu trouves tes racines 2-3 concerts par semaine, j't'enlève ta confiance personnelle Talent proportionnelle j'arrive trop déterminé comme un tortionnaire Que du génie parsemé, conscience personnelle Cette humiliation est non-intentionnelle 6 heures du mat' j'écris l'histoire, j'ai toujours pas sommeil Le téléphone vibre encore un label qui le fait sonner Leur victoire est optionnelle, la notre est obsessionnelle On veut l'monde ou rien Tu rêves d'effacer les traces de ton passé Tu vis où j'viens passer l'été Mec en face c'est des travs Ils se découvrent des facilités, pour le Mandarin J'ai polarisé l'assistance Tu m'ennuies comme ado descolarisé Tu feras risé, tu fais la risé Deux ans j'les baise si fort que leur trou s'élargie Résidus de flow dans des trousses d'argiles On m'a demandé sur un feat, j'n'avais pas le temps J'ai repoussé l'orgie, maintenant ils toussent A croire qu'ils sont tous allergiques</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Je rap dans une reverb, j'fais un disque d'or Sors de la cabine pour les fister fort Je réserve ma suite royale, fils de pute réserve un triste sort J'arrive dans ton game j'suis fucked up Dans ta pétasse sans dire toc-toc On va détrôner l'roi des La concurrence porte des crops-top L.O.R.D j'vais m'attarder, j'veux ma part du butin ska Oui vous perdez, j'n'ai pas peur d'eux J'vais les buter putain ska On arrive dans le piège en quelques minutes yah J'suis venu pour leur montrer quel est le bizutage Ta pétasse et moi, c'est très ambigu yah Dans ton internet j'ai l'meilleur visu yah La concurrence applaudit par les fesses hey On efface des visages ton rappeur perd la face hey J'suis dans ta télé, j'urine au milieu d'la mêlée Bat-les, bat-les, j'arrive au dessus comme poney Fucked up, fucked up, fucked up, fucked up Mes gringos dans l'club sont tous fucked up Fucked up, fucked up, fucked up, fucked up Mes rebeus dans l'club sont tous fucked up You might also like Je n'ai ni le mood ni l'envie ni l'âge de perdre Oy, j'excelle actuellement dans le niquage de mère Tout est noir, tout est noir, tout est noir yo Au-dessus d'autrui c'est mon côté warrior J'suis l'plus déterminé qu'le Je me lasse des terriens cette race se détériore, sku La main droite sur son cul la main gauche sur leur carrière J'finis dans ta pute pardon si j'perd mes manières Bientôt 5 millions de streams sur la bannière Sexe sur l'autoroute, contresens en roue-arrière Les groupies s'attroupent et se colle sur la barrière Oy, j'avais une idée mais j'vois ce cul qui passe Oy, j'écoute Alborosie, ce mojo corrosif Déclenche l'hérésie comme la cougar quand je chante T'es une jolie cochonne, oui mon est honnête Prends pas cet air étonné Rappeur traverse les villages dans des camions à glace pour se faire connaître L-O La concurrence applaudit par les fesses hey On efface des visages ton rappeur perd la face hey J'suis dans ta télé, j'urine au milieu d'la mêlée Bat-les, bat-les, j'arrive au dessus comme poney Fucked up, fucked up, fucked up, fucked up Mes gringos dans l'club sont tous fucked up Fucked up, fucked up, fucked up, fucked up Mes rebeus dans l'club sont tous fucked up</t>
+          <t>Je rap dans une reverb, j'fais un disque d'or Sors de la cabine pour les fister fort Je réserve ma suite royale, fils de pute réserve un triste sort J'arrive dans ton game j'suis fucked up Dans ta pétasse sans dire toc-toc On va détrôner l'roi des La concurrence porte des crops-top L.O.R.D j'vais m'attarder, j'veux ma part du butin ska Oui vous perdez, j'n'ai pas peur d'eux J'vais les buter putain ska On arrive dans le piège en quelques minutes yah J'suis venu pour leur montrer quel est le bizutage Ta pétasse et moi, c'est très ambigu yah Dans ton internet j'ai l'meilleur visu yah La concurrence applaudit par les fesses hey On efface des visages ton rappeur perd la face hey J'suis dans ta télé, j'urine au milieu d'la mêlée Bat-les, bat-les, j'arrive au dessus comme poney Fucked up, fucked up, fucked up, fucked up Mes gringos dans l'club sont tous fucked up Fucked up, fucked up, fucked up, fucked up Mes rebeus dans l'club sont tous fucked up Je n'ai ni le mood ni l'envie ni l'âge de perdre Oy, j'excelle actuellement dans le niquage de mère Tout est noir, tout est noir, tout est noir yo Au-dessus d'autrui c'est mon côté warrior J'suis l'plus déterminé qu'le Je me lasse des terriens cette race se détériore, sku La main droite sur son cul la main gauche sur leur carrière J'finis dans ta pute pardon si j'perd mes manières Bientôt 5 millions de streams sur la bannière Sexe sur l'autoroute, contresens en roue-arrière Les groupies s'attroupent et se colle sur la barrière Oy, j'avais une idée mais j'vois ce cul qui passe Oy, j'écoute Alborosie, ce mojo corrosif Déclenche l'hérésie comme la cougar quand je chante T'es une jolie cochonne, oui mon est honnête Prends pas cet air étonné Rappeur traverse les villages dans des camions à glace pour se faire connaître L-O La concurrence applaudit par les fesses hey On efface des visages ton rappeur perd la face hey J'suis dans ta télé, j'urine au milieu d'la mêlée Bat-les, bat-les, j'arrive au dessus comme poney Fucked up, fucked up, fucked up, fucked up Mes gringos dans l'club sont tous fucked up Fucked up, fucked up, fucked up, fucked up Mes rebeus dans l'club sont tous fucked up</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Oh, gelato, gelato-oh Gelato, gelato, gelato-oh Gelato-oh Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Trochu Savage 21, za svý bratry, d'Artagnan Poád jsem svj kapitán, nezestárnem, Petr Pan Jdeme si pro Ballon d'Oro, ereme to, pomodoro Vechno je sýrový, noro, mrdám ti na tvoje YOLO Oívám na kadým tracku, chápe to testa di cazzo Prej se mam dret pi zemi, puta madre, ptám se na co? Raindrop, drop top, nikdy jsem neebral o props Raindrop, drop top, strhám tvý holce croptop Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato You might also like On monte des empires sans cravate autour du cou Voir plus loin sert à rien pour du pouvoir C'est rare comme voir un Bordelais boire de l'eau J'écris l'Histoire et j'me barre de là Justice divine ou bien force de l'ordre Le ciel au bord des larmes qui n'attend rien de l'autre J'prends c'qui m'est dû de droit Tu sais des traîtres, j'en ai vu deux trois Prendre la tabouret, finir sur le trône Tu diras qu't'étais là dès les débuts du roi La poudre de rêve nous fait tenir debout Donc c'est normal que le marchand d'sable en importe Parfois le chemin de vie paraît paradoxal Comme donner d'l'argent sale en main propre Phrasé trop piquant, j'arrive toujours appliqué Y'a rien de compliqué, j'veux finir sous les tropiques Les vrais voyous portent des costumes trois pièces J'rappe sale, y'a 6000 personnes qui acquiescent Pardonne-moi si j'manque de délicatesse Dans 2 ans, même Obama subira l'délit de faciès Zéro pitié pour rappeur sans rhétorique Logo Paramour doré sur le thorax J'retourne au pays en vainqueur humiliant l'ennemi comme César et Vercingétorix Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato</t>
+          <t>Oh, gelato, gelato-oh Gelato, gelato, gelato-oh Gelato-oh Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Trochu Savage 21, za svý bratry, d'Artagnan Poád jsem svj kapitán, nezestárnem, Petr Pan Jdeme si pro Ballon d'Oro, ereme to, pomodoro Vechno je sýrový, noro, mrdám ti na tvoje YOLO Oívám na kadým tracku, chápe to testa di cazzo Prej se mam dret pi zemi, puta madre, ptám se na co? Raindrop, drop top, nikdy jsem neebral o props Raindrop, drop top, strhám tvý holce croptop Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato On monte des empires sans cravate autour du cou Voir plus loin sert à rien pour du pouvoir C'est rare comme voir un Bordelais boire de l'eau J'écris l'Histoire et j'me barre de là Justice divine ou bien force de l'ordre Le ciel au bord des larmes qui n'attend rien de l'autre J'prends c'qui m'est dû de droit Tu sais des traîtres, j'en ai vu deux trois Prendre la tabouret, finir sur le trône Tu diras qu't'étais là dès les débuts du roi La poudre de rêve nous fait tenir debout Donc c'est normal que le marchand d'sable en importe Parfois le chemin de vie paraît paradoxal Comme donner d'l'argent sale en main propre Phrasé trop piquant, j'arrive toujours appliqué Y'a rien de compliqué, j'veux finir sous les tropiques Les vrais voyous portent des costumes trois pièces J'rappe sale, y'a 6000 personnes qui acquiescent Pardonne-moi si j'manque de délicatesse Dans 2 ans, même Obama subira l'délit de faciès Zéro pitié pour rappeur sans rhétorique Logo Paramour doré sur le thorax J'retourne au pays en vainqueur humiliant l'ennemi comme César et Vercingétorix Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato Gelato, gelato, vechno je ledový, gelato Gelato, gelato, dlám to, protoe chtla to Gelato, gelato, nikdy m nesváe kravatou Gelato, gelato, ode m ve není pijato</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé Je suis chez Givenchy pour un spot publicitaire Je me rappelle quand personne ne me plébiscitait Passe à la fin du show s'tu veux me féliciter Dans ma tête, c'est la cité Vilain garçon, vilain garçon, vilain garçon, ah Trouve l'avenir dans le fond de mon regard sombre, ah J'ai fondation, j'ai consolidation Leur carrière meurt sans sponsorisation Si je rappe de la merde c'est que je rappe sur l'humanité Yah, olup Je suis dans le banks, je suis dans mondanité Yah, olup Yah, olup Yah, olup, olup, olup Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé You might also like Je voulais juste être millionnaire Mais le prof m'a ri au nez Destiné à rayonner Depuis l'état embryonnaire Juste le meilleur pour tous les réalistes Écouteurs Apple pour la tenir en laisse J'appelle personne pour me venir en aide Je ne suis qu'un nouveau Nekfeu pour les généralistes Au comptoir général avec Eddy de Pretto Dans le fin fond du piège avec Yung Sid et Cashmire Flavien te dira que j'avais vraies idées très tôt C'est le seul qui me conseille pour que j'élucide mes cauchemars Yah, olup Yah, olup Yah, olup, olup, olup Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé</t>
+          <t>Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé Je suis chez Givenchy pour un spot publicitaire Je me rappelle quand personne ne me plébiscitait Passe à la fin du show s'tu veux me féliciter Dans ma tête, c'est la cité Vilain garçon, vilain garçon, vilain garçon, ah Trouve l'avenir dans le fond de mon regard sombre, ah J'ai fondation, j'ai consolidation Leur carrière meurt sans sponsorisation Si je rappe de la merde c'est que je rappe sur l'humanité Yah, olup Je suis dans le banks, je suis dans mondanité Yah, olup Yah, olup Yah, olup, olup, olup Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé Je voulais juste être millionnaire Mais le prof m'a ri au nez Destiné à rayonner Depuis l'état embryonnaire Juste le meilleur pour tous les réalistes Écouteurs Apple pour la tenir en laisse J'appelle personne pour me venir en aide Je ne suis qu'un nouveau Nekfeu pour les généralistes Au comptoir général avec Eddy de Pretto Dans le fin fond du piège avec Yung Sid et Cashmire Flavien te dira que j'avais vraies idées très tôt C'est le seul qui me conseille pour que j'élucide mes cauchemars Yah, olup Yah, olup Yah, olup, olup, olup Ici, tous les jours, on finit fucked up olup La concurrence porte des crop-tops olup, yah Oulala, tous mes babtous veulent la moula, la Yah, je les regarde, je suis saoulé, lé ouh, olup J'insulte leur mère sur un air de ukulélé</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sers du Courvoisier pour la courtoisie Même appétit même si je me suis embourgeoisé Vivre son rêve ou rêver sa vie Jai vraiment eu aucun mal pour choisir Parfois les coeurs se connectent Et les corps sisolent Regard perdu dans le feu de cheminée Avec deux courtisanes sous cortisone Qui passent leurs mains manucurées dans mes cheveux gominés Mère nature écarte aussi Face aux sourires jaunes Moi je veux mourir jeune Juste le plus tard possible Planter mon Drapeau Blanc sur Interlude On fait des réunions pour finir par y vivre 20 décembre au Bataclan Je quitterai les planches quand jaurai vu Paris vibrer Largent rend largement beau mais peut nous dissocier La vraie nature sexprime dans un moment crucial Moi je me sens petit lorsque je pense au ciel Je suis rare comme coupe de champagne dans logement social La guerre, cest des gens qui sentretuent, qui ne se connaissent pas Au profit de gens qui se connaissent, connasse Saimer soi-même, cest accepter davoir son espace Sans vouloir prendre celui des autres Promesse, audace Se reconnaissent Jeunesse, fugace, déni de grossesse La beauté naît dans le désordre Le chaos meurt et puis raisonne Jai vu la vie faire laumône dans un orphelinat Mais la mort attendait pour lui refaire lhymen Finalement, dans cet univers, seul lAmour fait de lHomme un très grand phénomène Ma peine est démentielle Laisse place à la rédemption Dans une autre dimension Lange pleure et le démon saigne Ici bas, le silence règne Les étoiles filantes qui dansent éclaboussent le toit de mon ciel Planter mon Drapeau Blanc sur Interlude Nostalgique dune époque que je nai pas connu Je suis jeune et pas comme eux Ma colère satténue Je rallume lumière, je vois démons qui tâtonnent Mon histoire a débuté sur un échec avec un E majuscule On tappelle Majesté si tu ne te donnes pas dexcuses Seul jusquau crépuscule Les codes on les change Lhistoire on la bouscule On sait se tenir La basse, je laisse cogner Je prends ma carrière en levrette sur la banquette dun bolide dEstonie Je me sens vide quand ya plus daction Faut transformer lénergie Je ne pourrai rien faire de ta frustration Le cur en a plus quassez Ma raison fait des pulsations Je mange des crustacés Mais Jeffrey, ya plus de glaçonsYou might also like</t>
+          <t>Sers du Courvoisier pour la courtoisie Même appétit même si je me suis embourgeoisé Vivre son rêve ou rêver sa vie Jai vraiment eu aucun mal pour choisir Parfois les coeurs se connectent Et les corps sisolent Regard perdu dans le feu de cheminée Avec deux courtisanes sous cortisone Qui passent leurs mains manucurées dans mes cheveux gominés Mère nature écarte aussi Face aux sourires jaunes Moi je veux mourir jeune Juste le plus tard possible Planter mon Drapeau Blanc sur Interlude On fait des réunions pour finir par y vivre 20 décembre au Bataclan Je quitterai les planches quand jaurai vu Paris vibrer Largent rend largement beau mais peut nous dissocier La vraie nature sexprime dans un moment crucial Moi je me sens petit lorsque je pense au ciel Je suis rare comme coupe de champagne dans logement social La guerre, cest des gens qui sentretuent, qui ne se connaissent pas Au profit de gens qui se connaissent, connasse Saimer soi-même, cest accepter davoir son espace Sans vouloir prendre celui des autres Promesse, audace Se reconnaissent Jeunesse, fugace, déni de grossesse La beauté naît dans le désordre Le chaos meurt et puis raisonne Jai vu la vie faire laumône dans un orphelinat Mais la mort attendait pour lui refaire lhymen Finalement, dans cet univers, seul lAmour fait de lHomme un très grand phénomène Ma peine est démentielle Laisse place à la rédemption Dans une autre dimension Lange pleure et le démon saigne Ici bas, le silence règne Les étoiles filantes qui dansent éclaboussent le toit de mon ciel Planter mon Drapeau Blanc sur Interlude Nostalgique dune époque que je nai pas connu Je suis jeune et pas comme eux Ma colère satténue Je rallume lumière, je vois démons qui tâtonnent Mon histoire a débuté sur un échec avec un E majuscule On tappelle Majesté si tu ne te donnes pas dexcuses Seul jusquau crépuscule Les codes on les change Lhistoire on la bouscule On sait se tenir La basse, je laisse cogner Je prends ma carrière en levrette sur la banquette dun bolide dEstonie Je me sens vide quand ya plus daction Faut transformer lénergie Je ne pourrai rien faire de ta frustration Le cur en a plus quassez Ma raison fait des pulsations Je mange des crustacés Mais Jeffrey, ya plus de glaçons</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur J'sais pas de quoi sont faits mes rêves mais j'poursuis sans cesse leur ombre À force de finir seul, je n'en compte même plus le nombre Mal à l'aise dans nos silences, j'comprends qu'nos chemins bifurquent autant Même si nos nuits sont si longues, j'ai compris qu'l'amour dure qu'un temps Alors je cherche réconfort dans la suivante Pensant qu'ça sera différent Je t'ai dit je suis moi, moi, moi, moi, moi Sans te dire qui je suis vraiment Les femmes sont des paradis artificiels On y cache nos failles pour les retrouver endurcies Désolé, ma belle, c'est moi qui tire les ficelles Tu n'es qu'un détail, mon cur est en sursis Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur J'traverse la ville le soir à la recherche de mon bonheur You might also like J'enchaîne les femmes, j'y trouve aucun réconfort Bien loin de l'image que j'aimerais qu'on forme J'pensais pas que reprendre le pouvoir serait ton fort J'vois ça comme une forme d'addiction compensatoire Dans l'ombre de la nuit, mes pas s'étouffent Je veux juste entendre Lord, on pense à toi Ça m'suffit plus, un point c'est tout J'peux pas donner mon cur, j'ai d'jà été trompé Quand mon ciel est trempé, c'est que tous mes démons pleurent Moi, j'peux pas donner mon âme, un jour, j'te raconterai Pourquoi la plupart des femmes ne peuvent plus me rencontrer Ce n'sont que des paradis artificiels On y cache nos failles pour les retrouver endurcies Désolé, ma belle, c'est moi qui tire les ficelles Tu n'es qu'un détail, mon cur est en sursis x2 Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur x2 J'traverse la ville le soir à la recherche de mon bonheur1</t>
+          <t>Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur J'sais pas de quoi sont faits mes rêves mais j'poursuis sans cesse leur ombre À force de finir seul, je n'en compte même plus le nombre Mal à l'aise dans nos silences, j'comprends qu'nos chemins bifurquent autant Même si nos nuits sont si longues, j'ai compris qu'l'amour dure qu'un temps Alors je cherche réconfort dans la suivante Pensant qu'ça sera différent Je t'ai dit je suis moi, moi, moi, moi, moi Sans te dire qui je suis vraiment Les femmes sont des paradis artificiels On y cache nos failles pour les retrouver endurcies Désolé, ma belle, c'est moi qui tire les ficelles Tu n'es qu'un détail, mon cur est en sursis Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur J'traverse la ville le soir à la recherche de mon bonheur J'enchaîne les femmes, j'y trouve aucun réconfort Bien loin de l'image que j'aimerais qu'on forme J'pensais pas que reprendre le pouvoir serait ton fort J'vois ça comme une forme d'addiction compensatoire Dans l'ombre de la nuit, mes pas s'étouffent Je veux juste entendre Lord, on pense à toi Ça m'suffit plus, un point c'est tout J'peux pas donner mon cur, j'ai d'jà été trompé Quand mon ciel est trempé, c'est que tous mes démons pleurent Moi, j'peux pas donner mon âme, un jour, j'te raconterai Pourquoi la plupart des femmes ne peuvent plus me rencontrer Ce n'sont que des paradis artificiels On y cache nos failles pour les retrouver endurcies Désolé, ma belle, c'est moi qui tire les ficelles Tu n'es qu'un détail, mon cur est en sursis x2 Moi, j'traverse la ville le soir pour un désir éphémère Pour ce plaisir illusoire qui m'fait croire qu'j'suis téméraire J'traverse la ville le soir à la recherche de mon bonheur x2 J'traverse la ville le soir à la recherche de mon bonheur1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie Dans sa main droite Brûle un zippo Elle tire une dernière latte À la porte de l'entrepôt L'essence vidée C'était notre idée Plus personne tout va brûler Et plus rien à branler Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie You might also like Quitte à faire monter les degrés Autant y aller vraiment à fond Plutôt qu'taffer de force et gré Dans les entrepôts d'Amazon Nous chiens battus on devient méchants Mais changer l'monde on se sent impuissants Un puit sans fond ni brèche Ils ont éteint la lumière Nous on allume la mèche Nous on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Dernier regard au loin Je ne vois que le tien Je ne vois que le tien Je ne vois que le tien Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Après nous le KO tout sera plus beau Je comprends pas l'monde qui m'a vu naître Mes parents disaient pareil Jeunesse désemparée Qui trouve des réponses dans l'allumette Vu qu'interdire c'est inciter J'suis d'humeur taciturne Dans l'feu je n'vois que le reflet d'mon teint si terne Un incendie consenti Plus flammes dans la citerne À peine 20 ans et le coeur cassé Evidemment je pense eux Evidemment je pense eux Face au feu qui dort en nous Face au feu qui dort en nous Que peuvent faire les lances à eau Dernier vainqueurs, de l'inctincteur Le bonheur n'est qu'un leurre Les gens heureux sont des acteurs J'ai le meilleur et le pire en moi Tous les deux des pyromanes Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Dernier regard au loin Je ne vois que le tien Je ne vois que le tien Je ne vois que le tien Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Après nous le KO tout sera plus beau Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie</t>
+          <t>Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie Dans sa main droite Brûle un zippo Elle tire une dernière latte À la porte de l'entrepôt L'essence vidée C'était notre idée Plus personne tout va brûler Et plus rien à branler Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie Quitte à faire monter les degrés Autant y aller vraiment à fond Plutôt qu'taffer de force et gré Dans les entrepôts d'Amazon Nous chiens battus on devient méchants Mais changer l'monde on se sent impuissants Un puit sans fond ni brèche Ils ont éteint la lumière Nous on allume la mèche Nous on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Dernier regard au loin Je ne vois que le tien Je ne vois que le tien Je ne vois que le tien Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Après nous le KO tout sera plus beau Je comprends pas l'monde qui m'a vu naître Mes parents disaient pareil Jeunesse désemparée Qui trouve des réponses dans l'allumette Vu qu'interdire c'est inciter J'suis d'humeur taciturne Dans l'feu je n'vois que le reflet d'mon teint si terne Un incendie consenti Plus flammes dans la citerne À peine 20 ans et le coeur cassé Evidemment je pense eux Evidemment je pense eux Face au feu qui dort en nous Face au feu qui dort en nous Que peuvent faire les lances à eau Dernier vainqueurs, de l'inctincteur Le bonheur n'est qu'un leurre Les gens heureux sont des acteurs J'ai le meilleur et le pire en moi Tous les deux des pyromanes Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Dernier regard au loin Je ne vois que le tien Je ne vois que le tien Je ne vois que le tien Demain on verra bien On sera le seul témoin Il ne restera rien Il ne restera rien Après nous le KO tout sera plus beau Incendie, c'est comme un cinéma On t'admire dans la nuit Feu de joie On n'a plus froid, quand l'espoir est parti Il ne reste que toi Incendie</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Logiques sont mes connecteurs Sur l'autoroute du succès, personne ne dépasse les gros moteurs Tellement dans le bâtiment j'ai qu'ces stats affolent les promoteurs J'vois l'avenir dans le cristal qui m'dis qu'j'ai dépassé le stade d'être prometteur Logiques sont mes connecteurs Sur l'autoroute du succès, personne ne dépasse les gros moteurs Tellement dans le bâtiment j'ai qu'ces stats affolent les promoteurs J'vois l'avenir dans le cristal qui m'dis qu'j'ai dépassé le stade d'être prometteur Je ne vais pas me gêner d'être le meilleur de ma géné' J'ai noté pendant mes jeûnes qu'il y a du génie dans mes gènes J'ai régénéré sous Jeanne-Marie, généré du biff J'suis son préféré, son jeune marie Mais dis moi Esperanza t'as des rimes dévastatrices Ça dévie vers la matrice, dans l'univers d'un vaste artiste Pour combattre avec la mort, faut comprendre ce qui tattriste Plus t'espères et plus t'as tords car mes lignes dépassent la crise Je pousse la chansonnette nan Y'a pas que la chance honnête nan Je pousse la chansonnette nan Y'a pas que la chance honnête nan J'aime quand les choses se corsent et je te préfère quand t'as bu Bref j'te préfère quand t'abuses et quand t'as plus ce joli corset Saches que ton corps c'est plus qu'un simple refuge Qu'en toi j'ai trouvé l'amour ainsi que la science infuse Viens par ici j'suis par ici, le talent résonne jusqu'à Paris si On part ici j'suis par ici, le talent résonne jusqu'à Paris ci Aux Antipodes comme la Goutte-d'Or Où toutes les rues sont sombres On sencense un peu fon-fon J'entends Mon dieu j'aime trop son son J'me sens plein de ce-for comme Samson Mais j'suis l'seul qui se sent mal sans son mic Donc j'écris même sur du Canson Ce dont du ciel qu'on m'a légué j'me sens obligé d'en faire quelque chose Tans que j'suis pas bridé dans ma quête j'ose Ce dont du ciel qu'on m'a légué j'me sens obligé d'en faire quelque chose You might also like J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose</t>
+          <t>Logiques sont mes connecteurs Sur l'autoroute du succès, personne ne dépasse les gros moteurs Tellement dans le bâtiment j'ai qu'ces stats affolent les promoteurs J'vois l'avenir dans le cristal qui m'dis qu'j'ai dépassé le stade d'être prometteur Logiques sont mes connecteurs Sur l'autoroute du succès, personne ne dépasse les gros moteurs Tellement dans le bâtiment j'ai qu'ces stats affolent les promoteurs J'vois l'avenir dans le cristal qui m'dis qu'j'ai dépassé le stade d'être prometteur Je ne vais pas me gêner d'être le meilleur de ma géné' J'ai noté pendant mes jeûnes qu'il y a du génie dans mes gènes J'ai régénéré sous Jeanne-Marie, généré du biff J'suis son préféré, son jeune marie Mais dis moi Esperanza t'as des rimes dévastatrices Ça dévie vers la matrice, dans l'univers d'un vaste artiste Pour combattre avec la mort, faut comprendre ce qui tattriste Plus t'espères et plus t'as tords car mes lignes dépassent la crise Je pousse la chansonnette nan Y'a pas que la chance honnête nan Je pousse la chansonnette nan Y'a pas que la chance honnête nan J'aime quand les choses se corsent et je te préfère quand t'as bu Bref j'te préfère quand t'abuses et quand t'as plus ce joli corset Saches que ton corps c'est plus qu'un simple refuge Qu'en toi j'ai trouvé l'amour ainsi que la science infuse Viens par ici j'suis par ici, le talent résonne jusqu'à Paris si On part ici j'suis par ici, le talent résonne jusqu'à Paris ci Aux Antipodes comme la Goutte-d'Or Où toutes les rues sont sombres On sencense un peu fon-fon J'entends Mon dieu j'aime trop son son J'me sens plein de ce-for comme Samson Mais j'suis l'seul qui se sent mal sans son mic Donc j'écris même sur du Canson Ce dont du ciel qu'on m'a légué j'me sens obligé d'en faire quelque chose Tans que j'suis pas bridé dans ma quête j'ose Ce dont du ciel qu'on m'a légué j'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose J'me sens obligé d'en faire quelque chose</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>L.O.R, L.O.R, j'suis là pour niquer vos mères À vos marques, reflets lunaires dans construction cellulaire Quand je marche, dans ma ville, ils me font des haies d'honneur Elle n'apprécie pas le goût amer que je laisse dans ses ovaires Fiston, laisse aérer le blunt, laisse une forte odeur Aqua dans l'Aventador, on vise pas le même tas d'or J'lance mon SARL, hangover dans l'Range Rover Tomb Rider me suce dans ma propriété saisonnière On m'a dit Lord toi t'es plus c'que t'étais Je suis dans l'Audi TT L.O.R.D sur OKLM, Booska-p tarabiscoté Pour l'instant je suis sous-côté Bientôt, j'dépenserai sans compter, j'suis titulaire indiscuté J'les revois qui titubèrent, j'ramène la plus bonne dans l'Uber Alors que j'connais pas cette discothèque Fuck une demande, fuck y'a des liasses dans les miennes Y'a des Pokemon dans ta pocket Si seul face au ciel Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu paieras moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'Histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque You might also like Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'vais percer plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste, rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature Lord1</t>
+          <t>L.O.R, L.O.R, j'suis là pour niquer vos mères À vos marques, reflets lunaires dans construction cellulaire Quand je marche, dans ma ville, ils me font des haies d'honneur Elle n'apprécie pas le goût amer que je laisse dans ses ovaires Fiston, laisse aérer le blunt, laisse une forte odeur Aqua dans l'Aventador, on vise pas le même tas d'or J'lance mon SARL, hangover dans l'Range Rover Tomb Rider me suce dans ma propriété saisonnière On m'a dit Lord toi t'es plus c'que t'étais Je suis dans l'Audi TT L.O.R.D sur OKLM, Booska-p tarabiscoté Pour l'instant je suis sous-côté Bientôt, j'dépenserai sans compter, j'suis titulaire indiscuté J'les revois qui titubèrent, j'ramène la plus bonne dans l'Uber Alors que j'connais pas cette discothèque Fuck une demande, fuck y'a des liasses dans les miennes Y'a des Pokemon dans ta pocket Si seul face au ciel Y'a de la magie noire dans mon imaginaire J'calcule pas fils de putes empêtrés Dom Pé', Dom Pé', Dom Pé', Dom Pé' Jeffrey vous m'en remettrez La déception est amère, j'marche à ge-gor dessechée Sous un grand manteau noir, la mort arrive faut s'dépêcher Toi t'as vomi tes péchés donc ces derniers bouchent l'entonnoir Tout est noir, j'peux pas craindre celle qui se dit concurrence Puisqu'il s'avère qu'en l'occurence la plupart sont illettrés J'rentre dans ta pute sans dire un mot Ténébreux dans l'tempérament Sur les routes noires du firmament J'trouve refuge dans les pires moments J'attends ton blabla, mais pute tu m'as vu tu paieras moins J'la baise dans bolide d'firme allemande, oy ! Laisse-moi passer s'te plaît, personne ne sait m'stopper Les doutes s'estompent, j'ai peu d'estime pour tes estampes Jeune Prince de la Trap futuriste comme Keith Ape J'suis l'turf mo'herfucker, next on fait fuiter ta sextape L.O.R pine ta copine, j'vois son syndicat militer Donc on fait l'unanimité Ces fils de pute de pute de pute sont déjà limités Conçus dans des schémas de consanguinité Tu rachètes ta dignité, hein ? T'effaces pas tes erreurs ? J'baise une pute à Pereire, on vient rétablir la terreur On est venus pour s'insérer, Marianne a ses règles Mais j'finirai par la serrer, j'suis dans ma vingtième année J'les baise avec dextérité, tu t'étouffes dans l'paraître Paraît que c'est la triste vérité Remplissent ton veau-cer de conneries avec des séries télé Self-made man fera story-teller, viens pas m'voir sans I-Télé On rentre dans cette trap comme on rentre dans l'Histoire T'étais où quand j'étais rien ? La jalousie t'enterre, hein J'suis qu'un terrien de plus sur l'terrain Sauf que j'sais comment t'faire taire On m'a dit mon frérot, hisse-toi J'arrive de nulle part comme un astéroïde Métal froid sur la nuque, fils de pute Ne commets pas d'acte héroïque Yeah, L.O.R, Majeur Mineur Dans Paname, toutes les drogues circulent Ils s'l'arrachent comme un drop Supreme SO Piège Maison, SO Dillinger Bitchass on est dans le crop circle Enfoiré faut régner, pose piège à loups dans la forêt J'éteins ta carrière d'un compte foreign, j'vois les faux régner J'suis dans cette pute comme Sifredi dans deux MILF J'vais percer plus vite que l'hymen d'une 2000 J'laisse parler les conspirationnistes Ça les étonne plus comme une balle qui siffle Dans la LDJ, conspire un sionniste, rockstar, putain d'soliste Quand t'es mort il est trop tard Ta tête face au sol, t'entendras mords le trottoir Fashion Week j'passe à Milan, j'passe à Turin Voix déreglée sur accords de basses saturées On rejette ta candidature, ton âme n'est pas pure J'suis dans une jeune salope comme j'suis dans une femme mâture Donc j'me pose plus d'question sur l'homme et sa nature Lord1</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Les démons n'ont pas peur du noir, il est tard quand j'en croise la plupart Comme un volcan dans la tête que rien n'arrête Ça me dessert, j'repense à c'que j'ai dit Pendant des heures, mes émotions me désolent Alors on doit un peu s'isoler donc faut pas trop t'étonner Si on dit tout le temps désolé, c'est normal, j'suis bloqué Dans un désert, chaque jour j'attends de voir Ce que me réserve toutes mes idées n désordre Ouh-ouh-ouh-ouh-ouh-ouh Ouh-ouh-ouh-ouh Ouh-ouh-ouh J'me sentirai jamais vraimnt légitime, d'ailleurs, on en compte même plus les victimes J'aimerais y voir un signe mais j'hallucine Ça me dessert, j'absorbe tout c'qui m'entoure Rien ne me préserve, mes plaies ne se résorbent Parasites, parasites, dans ma tête résident des parasites Donc j'hésite mais j'résiste et les problèmes me paralysent Mon cur est blessé aux frontières de l'impossible Ma garde est baissée, douleur reste invisible You might also like Ouh-ouh-ouh-ouh-ouh-ouh Ouh-ouh-ouh-ouh Ouh-ouh-ouh In-invisibles, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs</t>
+          <t>Les démons n'ont pas peur du noir, il est tard quand j'en croise la plupart Comme un volcan dans la tête que rien n'arrête Ça me dessert, j'repense à c'que j'ai dit Pendant des heures, mes émotions me désolent Alors on doit un peu s'isoler donc faut pas trop t'étonner Si on dit tout le temps désolé, c'est normal, j'suis bloqué Dans un désert, chaque jour j'attends de voir Ce que me réserve toutes mes idées n désordre Ouh-ouh-ouh-ouh-ouh-ouh Ouh-ouh-ouh-ouh Ouh-ouh-ouh J'me sentirai jamais vraimnt légitime, d'ailleurs, on en compte même plus les victimes J'aimerais y voir un signe mais j'hallucine Ça me dessert, j'absorbe tout c'qui m'entoure Rien ne me préserve, mes plaies ne se résorbent Parasites, parasites, dans ma tête résident des parasites Donc j'hésite mais j'résiste et les problèmes me paralysent Mon cur est blessé aux frontières de l'impossible Ma garde est baissée, douleur reste invisible Ouh-ouh-ouh-ouh-ouh-ouh Ouh-ouh-ouh-ouh Ouh-ouh-ouh In-invisibles, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs me rendent visite Hyper sensible-sible, j'hésite J'me perds sans cible, imprévisible Vu que c'est in-invisible, toutes mes peurs</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C'est le chant des enfants rejetés, ceux qui savent pas dire Je t'aime Il pleut des averses dans nos têtes, étouffés par les peut-être Je sais bien que les constats mentent, tout à fait normal qu'on s'lamente L'impression d'être jugé constamment, alors j'me fais du mal consciemment Oh-oh-oh J'éteins l'écran d'accueil, vide comme les soirées qu'je mène Comment faire le deuil de c'que je n'serai jamais ? Saut de l'ange dans le néant saut de l'ange dans le néant Quelques larmes de plus dans l'océan Oh-oh-oh L'abandon de soi rime avec l'abondance des soirs Quand le vice nous fait ses avances, une danse d'espoir Quand on ne voit que le mal en soi, on m'a oublié près d'la balançoire Oh You might also like Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Pourquoi c'est coincé dans toutes mes pensées ? Hum J'en sais rien mais j'essaie de gommer son poids sans cesse Oh On dit qu'on cherche toujours chez les autres une partie de ce qui nous manque Jusqu'au dernier dénouement, ouais Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Souv'nirs sont noirs, normal que j'en oublie très peu Sans cesse tenté de me tromper, tempête m'empêche d'être en paix J'le fais pour mes enfants tristes, qui comprennent pas pourquoi ils sont incompris Cerveau en grève, le cur en crise, j'ai baissé le glaive, un peu sous emprise L'âme en cellule de dégrisement, qui sommes nous vraiment, cachés derrière nos déguisements ? Vouloir être un autre et mourir d'épuisement J'me refais du mal, jugement brutal J'ai rangé ma lame dans son fourreau, à la fois victime et bourreau Seul et pourtant j'suis entouré, la prison mentale et ses barreaux D'abord vous vivez, vous souffrez, vous mourrez J'ai plongé la tête la première sur les carreaux Faut qu'ça s'arrête, ouais, faut qu'ça s'arrête, tous ces bruits dans ma tête Faut plus que je m'inquiète et faut qu'j'me fasse confiance Très peu de fêtes car les jugements sont traîtres Moi, j'suis toujours en quête, d'l'ultime état d'conscience Pour y arriver, faut qu'je m'autorise, autour les vautours rôdent, comment cautériser ? J'me lobotomise, mais les doutes reviennent en roue arrière À croire que mes peines sont motorisées J'ai joué jusqu'à changer les règles, mais j'ai terriblement peur du regard des gens Comme si les problèmes mangeaient mes rêves mais je recule, devant c'que la plupart enjambent J'attends que l'angoisse me dise je m'en vais, ça me semble impossible que les autres m'envient Alors je doute, je doute et mon monde devient mauve Si on m'dit pas qu'c'est bien, moi, j'entends que c'est mauvais Plus j'me déteste, plus je mens, les gens défilent et s'enchaînent et leurs filets s'déchaînent Ne crains plus leurs jugements, ils sont trop occupés à penser à eux-mêmes Serpents s'insèrent dans ma tête J'ai fait passer l'autre avant moi, la question c'est d'savoir si j'l'ai fait sincèrement, p't'être Ou pour le reflet qu'ça renvoie Quand je regarde par la f'nêtre, je n'vois que des pantins enfantins, des centaines de traitres Car cette fenêtre est un miroir d'une histoire où l'on voit au d'là du paraître S'te plaît, maman explique ce que ça fait d'être, vu que l'Histoire, même se répète Pendant que l'orage gronde, le temps d'une seconde Je sens que l'espoir règne en maître Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez</t>
+          <t>C'est le chant des enfants rejetés, ceux qui savent pas dire Je t'aime Il pleut des averses dans nos têtes, étouffés par les peut-être Je sais bien que les constats mentent, tout à fait normal qu'on s'lamente L'impression d'être jugé constamment, alors j'me fais du mal consciemment Oh-oh-oh J'éteins l'écran d'accueil, vide comme les soirées qu'je mène Comment faire le deuil de c'que je n'serai jamais ? Saut de l'ange dans le néant saut de l'ange dans le néant Quelques larmes de plus dans l'océan Oh-oh-oh L'abandon de soi rime avec l'abondance des soirs Quand le vice nous fait ses avances, une danse d'espoir Quand on ne voit que le mal en soi, on m'a oublié près d'la balançoire Oh Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Pourquoi c'est coincé dans toutes mes pensées ? Hum J'en sais rien mais j'essaie de gommer son poids sans cesse Oh On dit qu'on cherche toujours chez les autres une partie de ce qui nous manque Jusqu'au dernier dénouement, ouais Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Souv'nirs sont noirs, normal que j'en oublie très peu Sans cesse tenté de me tromper, tempête m'empêche d'être en paix J'le fais pour mes enfants tristes, qui comprennent pas pourquoi ils sont incompris Cerveau en grève, le cur en crise, j'ai baissé le glaive, un peu sous emprise L'âme en cellule de dégrisement, qui sommes nous vraiment, cachés derrière nos déguisements ? Vouloir être un autre et mourir d'épuisement J'me refais du mal, jugement brutal J'ai rangé ma lame dans son fourreau, à la fois victime et bourreau Seul et pourtant j'suis entouré, la prison mentale et ses barreaux D'abord vous vivez, vous souffrez, vous mourrez J'ai plongé la tête la première sur les carreaux Faut qu'ça s'arrête, ouais, faut qu'ça s'arrête, tous ces bruits dans ma tête Faut plus que je m'inquiète et faut qu'j'me fasse confiance Très peu de fêtes car les jugements sont traîtres Moi, j'suis toujours en quête, d'l'ultime état d'conscience Pour y arriver, faut qu'je m'autorise, autour les vautours rôdent, comment cautériser ? J'me lobotomise, mais les doutes reviennent en roue arrière À croire que mes peines sont motorisées J'ai joué jusqu'à changer les règles, mais j'ai terriblement peur du regard des gens Comme si les problèmes mangeaient mes rêves mais je recule, devant c'que la plupart enjambent J'attends que l'angoisse me dise je m'en vais, ça me semble impossible que les autres m'envient Alors je doute, je doute et mon monde devient mauve Si on m'dit pas qu'c'est bien, moi, j'entends que c'est mauvais Plus j'me déteste, plus je mens, les gens défilent et s'enchaînent et leurs filets s'déchaînent Ne crains plus leurs jugements, ils sont trop occupés à penser à eux-mêmes Serpents s'insèrent dans ma tête J'ai fait passer l'autre avant moi, la question c'est d'savoir si j'l'ai fait sincèrement, p't'être Ou pour le reflet qu'ça renvoie Quand je regarde par la f'nêtre, je n'vois que des pantins enfantins, des centaines de traitres Car cette fenêtre est un miroir d'une histoire où l'on voit au d'là du paraître S'te plaît, maman explique ce que ça fait d'être, vu que l'Histoire, même se répète Pendant que l'orage gronde, le temps d'une seconde Je sens que l'espoir règne en maître Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez Quoique l'on dise, quoique l'on fasse, c'est jamais assez, jamais assez</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tout l'vice enfermé dans la boite de Pandore Surgit dans les cauchemards dans lesquels j'm'endors Mes démons sont, encore demandeurs Y'a la grandeur d'un Lord et son ordre de grandeur J'prends la couronne, j'prends la couronne, j'prends la couronne Virage à 280 sous rhum La ville disparait derrière le tourane Ils s'attendent pas à me voir dans nouveau Givenchi pour homme J'rêvais de percer dans le rer D J'ai tweeter sur son chht et elle a rt Boy L.O.R.D fait de L.A.R.T Oh merde Ils paraissent inutiles comme les cheveux sur la tête d'Homer Leur fond de commerce c'est de faire les commères Estimez-vous heureux qu'j'insulte pas vos mères 2018 Y'a rien qui bouge pour eux être heureux c'est être ingé J'cultive pas la haine de l'étranger J'préfère faire tache comme un jogging sur un tapis rouge Konbini konbini Coucou yeah Mic drop You might also likeJ'écoute concu j'me gratte les coucougniettes Ouais c'est Dieu qui donne Internet Bande de gens, j'inove Chaud comme Benny dans J'en vois trop qui dorment Ma bite sur ton front Quelle jolie licorne Et toi qui pensait que c'était l'extrait du premier album J'arrive possédé possédé Pour engrosser des génitrices Connait le procédé procédé Dire que les babascools engraissent famille LePen En refaisant le monde dans des feuilles OCB J'écris un couplet J'ai créer un complexe Tout mes collègues sont flex Si le succès dépend du travail L'humilité dépends du contexte J'suis toujours dans l'actu Dis-moi qui je serais sans la pub J'arrive avec mon taux de vandale Je prie comme un fantôme sans balle Hanté par des rappeurs comme nous D'façon dans trente ans y'en a plus Je fais le grand écart en plus je me sens comme Jean-Claude Van Damne L.O</t>
+          <t>Tout l'vice enfermé dans la boite de Pandore Surgit dans les cauchemards dans lesquels j'm'endors Mes démons sont, encore demandeurs Y'a la grandeur d'un Lord et son ordre de grandeur J'prends la couronne, j'prends la couronne, j'prends la couronne Virage à 280 sous rhum La ville disparait derrière le tourane Ils s'attendent pas à me voir dans nouveau Givenchi pour homme J'rêvais de percer dans le rer D J'ai tweeter sur son chht et elle a rt Boy L.O.R.D fait de L.A.R.T Oh merde Ils paraissent inutiles comme les cheveux sur la tête d'Homer Leur fond de commerce c'est de faire les commères Estimez-vous heureux qu'j'insulte pas vos mères 2018 Y'a rien qui bouge pour eux être heureux c'est être ingé J'cultive pas la haine de l'étranger J'préfère faire tache comme un jogging sur un tapis rouge Konbini konbini Coucou yeah Mic drop J'écoute concu j'me gratte les coucougniettes Ouais c'est Dieu qui donne Internet Bande de gens, j'inove Chaud comme Benny dans J'en vois trop qui dorment Ma bite sur ton front Quelle jolie licorne Et toi qui pensait que c'était l'extrait du premier album J'arrive possédé possédé Pour engrosser des génitrices Connait le procédé procédé Dire que les babascools engraissent famille LePen En refaisant le monde dans des feuilles OCB J'écris un couplet J'ai créer un complexe Tout mes collègues sont flex Si le succès dépend du travail L'humilité dépends du contexte J'suis toujours dans l'actu Dis-moi qui je serais sans la pub J'arrive avec mon taux de vandale Je prie comme un fantôme sans balle Hanté par des rappeurs comme nous D'façon dans trente ans y'en a plus Je fais le grand écart en plus je me sens comme Jean-Claude Van Damne L.O</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>J'protège mes proches , j'épargne ceux que j'aime On perd des amis par manque de dialogue L'ange sur mon épaule me répète je t'haine Je t'haine, je t'haine Je t'haine Je t'haine Jentraîne la détresse sous pronoms autotunés Tu ne vois pas mes faiblesses tu ne m'es d'aucune aide J't'oublierais sans l'vouloir Comme ces visages qui m'hantent le soir sur nos photos funestes Seul face au dernier jugement J'te déteste éperdument La mélancolie des rues sur un air de piano J'grandis j'm'égare le monde est à nous Le temps si lent son odeur tabou Emmuré dans l'silence Le soir tombe sur les villes où les roses on fané J'marchais dans l'ombre sur parcelle enflammé Oui fallait qu'tu m'le dise J'attends pas qu'la mort nous séduise Seul face au dernier jugement J'te déteste éperdument Perdu dans un torrent de pensées L'amour t'hypnotise et te rends dépensier On s'aimais moins au roman d'un aimant J'revois nos craintes couler dans un vase d'anémone Je n'aurais jamais d'estime si tu n'es pas des nôtres La haine nous guide, l'orgueil n'atteint des mots J'te déteste éperdument J'te déteste éperdument Seul face au dernier jugement Dernier jugement Seul face au dernier jugement J'te déteste éperdument Seul face au dernier jugement dernier jugement J'te déteste éperdumentYou might also like</t>
+          <t>J'protège mes proches , j'épargne ceux que j'aime On perd des amis par manque de dialogue L'ange sur mon épaule me répète je t'haine Je t'haine, je t'haine Je t'haine Je t'haine Jentraîne la détresse sous pronoms autotunés Tu ne vois pas mes faiblesses tu ne m'es d'aucune aide J't'oublierais sans l'vouloir Comme ces visages qui m'hantent le soir sur nos photos funestes Seul face au dernier jugement J'te déteste éperdument La mélancolie des rues sur un air de piano J'grandis j'm'égare le monde est à nous Le temps si lent son odeur tabou Emmuré dans l'silence Le soir tombe sur les villes où les roses on fané J'marchais dans l'ombre sur parcelle enflammé Oui fallait qu'tu m'le dise J'attends pas qu'la mort nous séduise Seul face au dernier jugement J'te déteste éperdument Perdu dans un torrent de pensées L'amour t'hypnotise et te rends dépensier On s'aimais moins au roman d'un aimant J'revois nos craintes couler dans un vase d'anémone Je n'aurais jamais d'estime si tu n'es pas des nôtres La haine nous guide, l'orgueil n'atteint des mots J'te déteste éperdument J'te déteste éperdument Seul face au dernier jugement Dernier jugement Seul face au dernier jugement J'te déteste éperdument Seul face au dernier jugement dernier jugement J'te déteste éperdument</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>J'bois goutte à goutte le goût amer de la vérité Je m'accapare le produit qu'ils n'ont pas mérité Drapeau Noir dans ta prise péritel Ne me parle pas de prise d'opposition J'suis le prince héritier J'n'applique en aucun cas la loi d'la parité Leurs critiques reposent toutes sur des suppositions Glisse un suppositoire dans toutes tes cavités Ma vie défile sur le cul de cette jeune puritaine J'n'emporterai qu'un vulgaire Souvenir d'une longue nuit d'amour dans une porto-ricaine On remet en doute leur insécurité, fuck J'suis dans une daronne en live sur iTélé J'gagne en maturité Keep your mojo J'la baise j'me lâche, j'n'en fait qu'un court métrage Tout meurt et tout renaît Poétique en amour mais trash Ma main sur leurs fronts nos égos se confrontent J'suis là pour vous mettre à genoux Ici les jnouns n'font plus peur à notre âge Mais l'argent nous rend faible Nouveau fait, l'outrage est commit par l'agent Les politiques disent en effet Un tel et tel s'copient tandis qu'un jeune subit les Pénétrations d'matraque télescopique J'remercie les vrais qui reconnaissent l'étique Je n'reverrais pas tous ceux qui délaissent les tics Fournis pas de doute en tes rêves Rappelle-toi fils de pute, perds tout intérêt Comme cougar sans chirurgie esthétique Leur volonté de changement est statique T'avale la pleine gorge, j'ai le mensonge qui te flatte J'les arrose de champagne quand j'ai fini l'eau plate En concert je conserve l'énergie générée J'suis qu'un jeune orateur fédérateur Sois pas gêné si j'me fais des rappeurs J'suis dans l'générateur Hallo, L-O-R Je ne rétorque, j'impose la fellation au fils de délateur Oy, influent comme sénateur Mes scélérats n'ont pas baissé les bras La victoire célébrée se fête chez des acteurs On rachète leur carrière à trois, du sang sur le marbre Carrera 3 dans un arbre Je n'aurais tord que le jour de ma mort si le pied droit s'endort sur l'accélérateur Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo J'vous l'avais déjà dis les gars On n'dupe pas aisément le Vega J'me suis entouré de vrai gars Pour causer plus de dégâts Moi j'fume la wax et l'indica Puissant comme les khalifa Personne peut nous qualifier, la situation est clarifiée Nos royalty seront ratifiés Ouais ma belle faudra t'y faire Sache que Lord et jeune Isham savent très bien gérer leurs affaires On fait des business par ci, on fait des business par là La concurrence est juste en face elle en a les yeux écarlates Hey, je m'sens ankylosé par le manque d'oseille J'suis comme un Anubis je règne sur la mort Ma city s'étend tous les soirs et renaît Comptant bien plus d'une perte et bien d'un mort Mais j'fais preuve de labeur dans mon laboratoire secret comme Orochimaru On ride dans la Roll's toi dans la Subaru J'suis doflamingo j'ai un flow qui est barré Les raisins d'la colère se trouvent dans ma résine J'veux le boule de leurs surs dans un bas-résille Parisiens, parisiennes venez par ici On retourne Paname et sa périphérie Ça se pète à Gallieni au dessous du périph' Mes gars veulent les lauriers de chez Fred Perry Keep your mojo j'allume 2-3 bougies Tous ces fils de pute vont finir par périr Les rues d'M City me sont familières Me crois pas docile comme un familier Les traîtres et les wacks j'les vois par milliers Tes putes font les belles mais valent pas mille yens J'arrive dans ce jeu, j'viens les humilier J'suis comme Kazuya j'les ai renié Et ils se sentent perdus, sache que mon art perdure On consomme la verdure entre deux ceaux-mor J'observe ma princesse d'un regard princier Les pupilles en feu et les lèvres elle se mord 2017, je les dissèque Je souffle un coup et les cendres se dispersent Shavy refait l'histoire, j'me construis dans l'mystère Passe dans ma ville, évite les balles qui s'perdent Oui c'est la discorde, je sais qu'ils sont perdus J'ai payé ma dette et j'ai payé mon dû Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojoYou might also like6</t>
+          <t>J'bois goutte à goutte le goût amer de la vérité Je m'accapare le produit qu'ils n'ont pas mérité Drapeau Noir dans ta prise péritel Ne me parle pas de prise d'opposition J'suis le prince héritier J'n'applique en aucun cas la loi d'la parité Leurs critiques reposent toutes sur des suppositions Glisse un suppositoire dans toutes tes cavités Ma vie défile sur le cul de cette jeune puritaine J'n'emporterai qu'un vulgaire Souvenir d'une longue nuit d'amour dans une porto-ricaine On remet en doute leur insécurité, fuck J'suis dans une daronne en live sur iTélé J'gagne en maturité Keep your mojo J'la baise j'me lâche, j'n'en fait qu'un court métrage Tout meurt et tout renaît Poétique en amour mais trash Ma main sur leurs fronts nos égos se confrontent J'suis là pour vous mettre à genoux Ici les jnouns n'font plus peur à notre âge Mais l'argent nous rend faible Nouveau fait, l'outrage est commit par l'agent Les politiques disent en effet Un tel et tel s'copient tandis qu'un jeune subit les Pénétrations d'matraque télescopique J'remercie les vrais qui reconnaissent l'étique Je n'reverrais pas tous ceux qui délaissent les tics Fournis pas de doute en tes rêves Rappelle-toi fils de pute, perds tout intérêt Comme cougar sans chirurgie esthétique Leur volonté de changement est statique T'avale la pleine gorge, j'ai le mensonge qui te flatte J'les arrose de champagne quand j'ai fini l'eau plate En concert je conserve l'énergie générée J'suis qu'un jeune orateur fédérateur Sois pas gêné si j'me fais des rappeurs J'suis dans l'générateur Hallo, L-O-R Je ne rétorque, j'impose la fellation au fils de délateur Oy, influent comme sénateur Mes scélérats n'ont pas baissé les bras La victoire célébrée se fête chez des acteurs On rachète leur carrière à trois, du sang sur le marbre Carrera 3 dans un arbre Je n'aurais tord que le jour de ma mort si le pied droit s'endort sur l'accélérateur Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo J'vous l'avais déjà dis les gars On n'dupe pas aisément le Vega J'me suis entouré de vrai gars Pour causer plus de dégâts Moi j'fume la wax et l'indica Puissant comme les khalifa Personne peut nous qualifier, la situation est clarifiée Nos royalty seront ratifiés Ouais ma belle faudra t'y faire Sache que Lord et jeune Isham savent très bien gérer leurs affaires On fait des business par ci, on fait des business par là La concurrence est juste en face elle en a les yeux écarlates Hey, je m'sens ankylosé par le manque d'oseille J'suis comme un Anubis je règne sur la mort Ma city s'étend tous les soirs et renaît Comptant bien plus d'une perte et bien d'un mort Mais j'fais preuve de labeur dans mon laboratoire secret comme Orochimaru On ride dans la Roll's toi dans la Subaru J'suis doflamingo j'ai un flow qui est barré Les raisins d'la colère se trouvent dans ma résine J'veux le boule de leurs surs dans un bas-résille Parisiens, parisiennes venez par ici On retourne Paname et sa périphérie Ça se pète à Gallieni au dessous du périph' Mes gars veulent les lauriers de chez Fred Perry Keep your mojo j'allume 2-3 bougies Tous ces fils de pute vont finir par périr Les rues d'M City me sont familières Me crois pas docile comme un familier Les traîtres et les wacks j'les vois par milliers Tes putes font les belles mais valent pas mille yens J'arrive dans ce jeu, j'viens les humilier J'suis comme Kazuya j'les ai renié Et ils se sentent perdus, sache que mon art perdure On consomme la verdure entre deux ceaux-mor J'observe ma princesse d'un regard princier Les pupilles en feu et les lèvres elle se mord 2017, je les dissèque Je souffle un coup et les cendres se dispersent Shavy refait l'histoire, j'me construis dans l'mystère Passe dans ma ville, évite les balles qui s'perdent Oui c'est la discorde, je sais qu'ils sont perdus J'ai payé ma dette et j'ai payé mon dû Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo Cette bitch veut mon 'seillo, cette bitch veut mon 'seillo Keep your mojo Elle ouvre son kimono, elle ouvre son kimono Keep your mojo6</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kemikalisation L-O, L-O, L-O, L-O-R Leur carrière dans un tupperware L'ennemi est censé périr Rien n'a changé je me sens supérieur Mon cur est mort, comment l'rafistoler ? Nos deux âmes s'détestent, s'contemplent et puis s'tolèrent Ma seule relation épistolaire S'est finie dans le silence laissé par l'pistolet Enfant unique d'une éclipse solaire Je ne crains que la colère du tonnerre En théorie ton pote t'aime dans les faits il t'laisse J'arrive en parka chic, concurrence archaïque Tout comme l'agriculture dans les pays d'l'Est hey Je n'ai confiance qu'en mes gens hey J'arrive en roi j'pars en légende hey Les fils du diable s'immiscent dans l'cul d'Marianne Cette dernière les recrache toujours entre les gens Dis moi qui m'arrêtera Leur carrière avortée s'décompose dès qu'on pose dans l'un d'leurs Planète Rap Peur de l'échec banale comme bavure policière La jeunesse refoule toutes ses craintes dans un joli cierge L'homme n'est pas mort il l'est quasi hein Tu bois le monbazillac Tandis qu'à l'autre bout du monde Enfant soldat côtoie touristes caucasiens You might also like Quelle occasion J'peux compter l'argent le temps d'un tour d'aiguille Sur la Casio, je me sens quasi autodidacte J'agis autant qu'j'finalise J'suis le stress traumatique qui va nuire au candidat J'commence la rée-soi dans mannequin décérébré Geoffrey vous m'en remettrez, j'suis là pour célébrer C'est les bras tendus que le succès m'accueille Dites-moi qui peut m'égaler, j'ai signé sans parler Mon sperme sur la joue d'une fille sénégalaise Lui a d'ailleurs donné ce côté Michael Encore une âme esseulée qui fait taire ses regrets dans le cendar Drapeau Noir dans nouveau monde J'colonise à travers sombre étendard J'te laisse tergiverser sur tous tes mythes urbains J'te brûle sur le feat, j'te laisse en Lu, plus tu reviens</t>
+          <t>Kemikalisation L-O, L-O, L-O, L-O-R Leur carrière dans un tupperware L'ennemi est censé périr Rien n'a changé je me sens supérieur Mon cur est mort, comment l'rafistoler ? Nos deux âmes s'détestent, s'contemplent et puis s'tolèrent Ma seule relation épistolaire S'est finie dans le silence laissé par l'pistolet Enfant unique d'une éclipse solaire Je ne crains que la colère du tonnerre En théorie ton pote t'aime dans les faits il t'laisse J'arrive en parka chic, concurrence archaïque Tout comme l'agriculture dans les pays d'l'Est hey Je n'ai confiance qu'en mes gens hey J'arrive en roi j'pars en légende hey Les fils du diable s'immiscent dans l'cul d'Marianne Cette dernière les recrache toujours entre les gens Dis moi qui m'arrêtera Leur carrière avortée s'décompose dès qu'on pose dans l'un d'leurs Planète Rap Peur de l'échec banale comme bavure policière La jeunesse refoule toutes ses craintes dans un joli cierge L'homme n'est pas mort il l'est quasi hein Tu bois le monbazillac Tandis qu'à l'autre bout du monde Enfant soldat côtoie touristes caucasiens Quelle occasion J'peux compter l'argent le temps d'un tour d'aiguille Sur la Casio, je me sens quasi autodidacte J'agis autant qu'j'finalise J'suis le stress traumatique qui va nuire au candidat J'commence la rée-soi dans mannequin décérébré Geoffrey vous m'en remettrez, j'suis là pour célébrer C'est les bras tendus que le succès m'accueille Dites-moi qui peut m'égaler, j'ai signé sans parler Mon sperme sur la joue d'une fille sénégalaise Lui a d'ailleurs donné ce côté Michael Encore une âme esseulée qui fait taire ses regrets dans le cendar Drapeau Noir dans nouveau monde J'colonise à travers sombre étendard J'te laisse tergiverser sur tous tes mythes urbains J'te brûle sur le feat, j'te laisse en Lu, plus tu reviens</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>J'rappe dans tout vos hémisphères Puis j'repars laissant l'bruit s'faire Tout la nuit j'écris des textes Et au réveil, j'laisse ma miss faire Il se demande à qui est ce flaire Voyant bien que j'acquiesce fier Message, musique et flow Sont tout c'que j'pourrais te vi-sser Ton avocat est commis On préfère ça au commissaire Qu'on m'assure tes commissures T'inquiète pas j'te l'ai promis sur Fondamental pour t'obtenir J'ai forcement du garder c'putain de mental Bien sur que t'as su me séduire J'étais fou de toi pendant un temps Maintenant je réalise que tout c'que t'as su faire Bah c'est me nuire On a visé la lune Pour pouvoir te la décrocher Je la mate de la tête au pied Elle a prisé ma thune Je suis soul soul, sous les projecteurs Je suis soul soul,sous les projecteurs Je suis soul soul,sous les projecteurs Ma venue c'est pour les sous Me demande d'être protecteurYou might also like</t>
+          <t>J'rappe dans tout vos hémisphères Puis j'repars laissant l'bruit s'faire Tout la nuit j'écris des textes Et au réveil, j'laisse ma miss faire Il se demande à qui est ce flaire Voyant bien que j'acquiesce fier Message, musique et flow Sont tout c'que j'pourrais te vi-sser Ton avocat est commis On préfère ça au commissaire Qu'on m'assure tes commissures T'inquiète pas j'te l'ai promis sur Fondamental pour t'obtenir J'ai forcement du garder c'putain de mental Bien sur que t'as su me séduire J'étais fou de toi pendant un temps Maintenant je réalise que tout c'que t'as su faire Bah c'est me nuire On a visé la lune Pour pouvoir te la décrocher Je la mate de la tête au pied Elle a prisé ma thune Je suis soul soul, sous les projecteurs Je suis soul soul,sous les projecteurs Je suis soul soul,sous les projecteurs Ma venue c'est pour les sous Me demande d'être protecteur</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Moi, j'ai pas attendu qu'on me donne la permission, mes rêves sont devenus des ambitions ouais, ouais J'ai quitté l'anonymat, adulé par mes pairs, critiqué pour mon audimat J's'rai là même si la folie m'atteint, le monde est à ceux qui se lèvent tôt le matin J'ai vu sens de ma vie dans vos regards étoilés ouais, ouais et j'me suis laissé aller J'ai tellement charbonné qu'ils n'y verront que de la chance Maman, ne t'en fais pas, j'deviens riche avec mes chansons J'vais brûler l'billet sur l'plateau télé quoique t'en penses, aïe, aïe, aïe Petits pas de danse, j'arrive dans l'game en claquettes-chaussettes, j'crois en moi, pas en toi pour être honnête Millionnaire avant les vingt-cinq, j'repartirai plus riche qu'ovationné dans un bain d'sang, oh yeah Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy J'arrive dans l'game en claquettes-chaussettes, j'crois en moi, pas en toi pour être honnête Millionnaire avant les vingt-cinq, j'repartirai plus riche qu'ovationné dans un bain d'sang, oh yeah Ça, c'est pour ceux qui me ressemblent, pour tous les autres, en un regard, on se ressent Les rappeurs ne s'hydratent pas haha, vrai reconnait vrai entre curs de pirates J'suis pas l'mail de confirmation de ton mail de confirmation J'suis l'meilleur d'la génération, ceci n'est qu'une affirmation S'permettent de parler sur le net mmh Remplissent pas la Boule Noire Sha, sha, sha J'suis qu'un enfant des boulevards Donnez-moi la France et j'irai croquer le monde Crois pas en la chance, je n'crois qu'en mon monde Faux amis dans l'rétroviseur, ma vie n'est qu'un freestyle improvisé You might also like Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Yeah, aïe, aïe, papy, no, aïe, aïe, papy Ils sont tous hors-jeu, ils sont tous hors-jeu Faim de nous, faim de toi, faim de nous, faim de moi Aïe, aïe, sur toi, j'décolle, parait que ma musique est bonne Paraît que ma musique est folle, paraît que ma musique est folle Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy</t>
+          <t>Moi, j'ai pas attendu qu'on me donne la permission, mes rêves sont devenus des ambitions ouais, ouais J'ai quitté l'anonymat, adulé par mes pairs, critiqué pour mon audimat J's'rai là même si la folie m'atteint, le monde est à ceux qui se lèvent tôt le matin J'ai vu sens de ma vie dans vos regards étoilés ouais, ouais et j'me suis laissé aller J'ai tellement charbonné qu'ils n'y verront que de la chance Maman, ne t'en fais pas, j'deviens riche avec mes chansons J'vais brûler l'billet sur l'plateau télé quoique t'en penses, aïe, aïe, aïe Petits pas de danse, j'arrive dans l'game en claquettes-chaussettes, j'crois en moi, pas en toi pour être honnête Millionnaire avant les vingt-cinq, j'repartirai plus riche qu'ovationné dans un bain d'sang, oh yeah Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy J'arrive dans l'game en claquettes-chaussettes, j'crois en moi, pas en toi pour être honnête Millionnaire avant les vingt-cinq, j'repartirai plus riche qu'ovationné dans un bain d'sang, oh yeah Ça, c'est pour ceux qui me ressemblent, pour tous les autres, en un regard, on se ressent Les rappeurs ne s'hydratent pas haha, vrai reconnait vrai entre curs de pirates J'suis pas l'mail de confirmation de ton mail de confirmation J'suis l'meilleur d'la génération, ceci n'est qu'une affirmation S'permettent de parler sur le net mmh Remplissent pas la Boule Noire Sha, sha, sha J'suis qu'un enfant des boulevards Donnez-moi la France et j'irai croquer le monde Crois pas en la chance, je n'crois qu'en mon monde Faux amis dans l'rétroviseur, ma vie n'est qu'un freestyle improvisé Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Yeah, aïe, aïe, papy, no, aïe, aïe, papy Ils sont tous hors-jeu, ils sont tous hors-jeu Faim de nous, faim de toi, faim de nous, faim de moi Aïe, aïe, sur toi, j'décolle, parait que ma musique est bonne Paraît que ma musique est folle, paraît que ma musique est folle Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy Se laisser porter, se laisser aller, se laisser porter, aïe, aïe, papy</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yeah, yeah L-O-R, L-O-R, L-O-R-D L-O-R, L-O-R, L-O-R-D Sku J'vais pas citer d'noms mais si tu te sens visé Sache que j'te pisse dessus Fils de pute, je te vois t'enliser J'crache sur ton amour qui n'es pas réciproque Je suis par ici comme dans Paris Hilton Baise la main du prince ou nique ta mère Fils de fille de joie, le goût de la défaite est amer Dans c'game j'marche la bite à l'air On avance chaque jour, les étoiles sont témoins J'en tolère très peu, j'en respecte un peu moins J'téma son terma d'puis taleur Que veux-tu que j'fasse avec mon prochain ? L-O-R-D mo'fucka on vous baise mo'fucka J'tire ses cheveux, j'élargis sa trachée Le rap français déguste c'que j'ai craché J'la prends par derrière dans maison victorienne Multiplie l'chiffre par facteur vectoriel Aucune défaite, nos victoires sont plurielles Valeur ajoutée d'manière trimestrielle Concurrence fait d'l'espionnage industriel Je priais le ciel lorsqu'Hadès criait Dans cette histoire je suis l'antagoniste Et j'les vois quitter c'monde dans une lente agonie J'arrive en roi, j'pars en légende Les gens m'ont dit pense qualité, quantité J'incitais à rayer les clauses de confidentialités Trouvez votre identité Cara Messi, Cara mé Toi et moi c'est pas la même Pendant qu'tu cherches un Salamèche J'suis dans Léa SalaméYou might also like2</t>
+          <t>Yeah, yeah L-O-R, L-O-R, L-O-R-D L-O-R, L-O-R, L-O-R-D Sku J'vais pas citer d'noms mais si tu te sens visé Sache que j'te pisse dessus Fils de pute, je te vois t'enliser J'crache sur ton amour qui n'es pas réciproque Je suis par ici comme dans Paris Hilton Baise la main du prince ou nique ta mère Fils de fille de joie, le goût de la défaite est amer Dans c'game j'marche la bite à l'air On avance chaque jour, les étoiles sont témoins J'en tolère très peu, j'en respecte un peu moins J'téma son terma d'puis taleur Que veux-tu que j'fasse avec mon prochain ? L-O-R-D mo'fucka on vous baise mo'fucka J'tire ses cheveux, j'élargis sa trachée Le rap français déguste c'que j'ai craché J'la prends par derrière dans maison victorienne Multiplie l'chiffre par facteur vectoriel Aucune défaite, nos victoires sont plurielles Valeur ajoutée d'manière trimestrielle Concurrence fait d'l'espionnage industriel Je priais le ciel lorsqu'Hadès criait Dans cette histoire je suis l'antagoniste Et j'les vois quitter c'monde dans une lente agonie J'arrive en roi, j'pars en légende Les gens m'ont dit pense qualité, quantité J'incitais à rayer les clauses de confidentialités Trouvez votre identité Cara Messi, Cara mé Toi et moi c'est pas la même Pendant qu'tu cherches un Salamèche J'suis dans Léa Salamé2</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>J'ai vu la peur dans les yeux d'ma mère mais j'n'avais qu'un seul rêve et deux amis en tête Bang bang Ma haine disparaissait quand j'mettais d'la fumée opaque dans mes poumons désamiantés Viens voir c'qui s'passe par ici Jeunesse perdue dans un square Le cur figé pour deux années entières J'roulais mon désespoir sur un toit d'Paris-Sud La pauvreté charme ceux qui s'disent paresseux Bang bang Les fantômes du passé veulent tous m'anéantir Mon étoile m'a demandé que veux-tu ? J'ai répondu je veux le monde et toi ?, chut Alors mon étoile se tut puis m'a demandé mais, c'est pour fonder quoi ? Y a ceux qui parlent, ceux qui agissent, ceux qui tardent, ceux qui trahissent Wouh ! Bang bang Y'a les gens pieux Y'a les envieux Le même en mieux Le même en mieux J'vois les causes, j'vois les conséquences Y'en a qui s'permettent D'autres qui récupèrent vite Ma vie n'est qu'un plan séquence A faire naître en Super 8 Ya ! Semence sucrée dans la bouche d'une superficielle Leurs grands mères fonctionnent aussi par ficelle J'oublie pas qu'les ténèbres sont parfois ciel Et que les sacrifices t'apportent plus de superficie Que font-ils à part te mentir Dans des grands appartements ? J'baisse les yeux du ciel pour voir ton horizon Sombre destin atteint sa floraison Y'a celui qui parle Y'a celui qui fait Mais dans les deux cas c'est le plus influent qui a raison You might also like Wouh ! Bang bang Y'a les gens pieux Y'a les envieux Le même en mieux Le même en mieux Bang bang</t>
+          <t>J'ai vu la peur dans les yeux d'ma mère mais j'n'avais qu'un seul rêve et deux amis en tête Bang bang Ma haine disparaissait quand j'mettais d'la fumée opaque dans mes poumons désamiantés Viens voir c'qui s'passe par ici Jeunesse perdue dans un square Le cur figé pour deux années entières J'roulais mon désespoir sur un toit d'Paris-Sud La pauvreté charme ceux qui s'disent paresseux Bang bang Les fantômes du passé veulent tous m'anéantir Mon étoile m'a demandé que veux-tu ? J'ai répondu je veux le monde et toi ?, chut Alors mon étoile se tut puis m'a demandé mais, c'est pour fonder quoi ? Y a ceux qui parlent, ceux qui agissent, ceux qui tardent, ceux qui trahissent Wouh ! Bang bang Y'a les gens pieux Y'a les envieux Le même en mieux Le même en mieux J'vois les causes, j'vois les conséquences Y'en a qui s'permettent D'autres qui récupèrent vite Ma vie n'est qu'un plan séquence A faire naître en Super 8 Ya ! Semence sucrée dans la bouche d'une superficielle Leurs grands mères fonctionnent aussi par ficelle J'oublie pas qu'les ténèbres sont parfois ciel Et que les sacrifices t'apportent plus de superficie Que font-ils à part te mentir Dans des grands appartements ? J'baisse les yeux du ciel pour voir ton horizon Sombre destin atteint sa floraison Y'a celui qui parle Y'a celui qui fait Mais dans les deux cas c'est le plus influent qui a raison Wouh ! Bang bang Y'a les gens pieux Y'a les envieux Le même en mieux Le même en mieux Bang bang</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Pourquoi tu parles de ma couleur ? C'est quoi l'problème de ma couleur ? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur oui, oui Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres ouh Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt, j'l'étais d'ja quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love Échouer est impossible comme Marcelo à Barcelone Ma tête en ville, tous les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini Rentre dans l'game avec couplets hostiles sur un salto avant J'respecte mes homologues mais j'veux leurs têtes découpées au sabre sur un plateau d'argent On fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, ma sur assure la présidence Fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, réussir n'est qu'une évidence Là, c'est l'enfant du siècle skula, olup, pas l'temps Couronne sur la tête, j'suis calme, j'prépare la tempête Moi, je n'entends que le ciel, t'as capté, olup Au succès, j'suis condamné, trois ans qu'c'est mon année You might also like Si tu comptes que sur la chance, honnêtement, j'peux pas grand chose pour toi, cerné sous mes lunettes Questionne c'que tu penses connaître, j'avais prévenu que j'bâtirais l'empire en poussant la chansonnette, non Shit en bouche, difficile d'articuler J'réussis l'jour où j'achète hôtel particulier à celle qui m'a vu naître Chaque nouveau flow peut réveiller les morts, j'suis v'nu changer les normes On rêve peine à croire qu'il est de ce monde, j'suis passé de grec au filet de saumon J'écoute que mon instinct primitif ohlabanks J'arrive tout en cuir en slow motion comme Trinity, sous joint, sous lean, en perte de vitesse, un accident est vite évité J'crée des rappeurs, j'fais un nouveau business, j'remplis leur carte de fidélité J'écris l'histoire en italique sur papier glacé oui, oui Jeune artiste en herbe, continue, si tu n'as pas percé, c'est que tu n'en as pas fait assez On fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, ma sur assure la présidence Fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, réussir n'est qu'une évidence Là, c'est l'enfant du siècle skula, olup, pas l'temps Couronne sur la tête, j'suis calme, j'prépare la tempête Moi, je n'entends que le ciel, t'as capté, olup Au succès, j'suis condamné, trois ans qu'c'est mon année</t>
+          <t>Pourquoi tu parles de ma couleur ? C'est quoi l'problème de ma couleur ? Va leur dire que l'nouveau blanc va sodomiser leur génitrice dans la douleur oui, oui Faut cocher la case, cocher, la remplir la bouche des envieux d'vingt-trois centimètres ouh Pour toi, j'ai peu d'sentiments, me d'mande pas si j'suis prêt, j'l'étais d'ja quand j'me suis senti naître Venu au monde en guerre mais j'propage rien à part ce love Échouer est impossible comme Marcelo à Barcelone Ma tête en ville, tous les murs se recouvrent tandis qu'un frère s'fait juger pour couleur de peau Le bonheur des riches fait le malheur des pauvres, y a que dans le danger qu'vraie nature se découvre La limite, c'est le ciel et le ciel est infini ohlabanks Toute la bêtise humaine dans les courbes du bikini Rentre dans l'game avec couplets hostiles sur un salto avant J'respecte mes homologues mais j'veux leurs têtes découpées au sabre sur un plateau d'argent On fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, ma sur assure la présidence Fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, réussir n'est qu'une évidence Là, c'est l'enfant du siècle skula, olup, pas l'temps Couronne sur la tête, j'suis calme, j'prépare la tempête Moi, je n'entends que le ciel, t'as capté, olup Au succès, j'suis condamné, trois ans qu'c'est mon année Si tu comptes que sur la chance, honnêtement, j'peux pas grand chose pour toi, cerné sous mes lunettes Questionne c'que tu penses connaître, j'avais prévenu que j'bâtirais l'empire en poussant la chansonnette, non Shit en bouche, difficile d'articuler J'réussis l'jour où j'achète hôtel particulier à celle qui m'a vu naître Chaque nouveau flow peut réveiller les morts, j'suis v'nu changer les normes On rêve peine à croire qu'il est de ce monde, j'suis passé de grec au filet de saumon J'écoute que mon instinct primitif ohlabanks J'arrive tout en cuir en slow motion comme Trinity, sous joint, sous lean, en perte de vitesse, un accident est vite évité J'crée des rappeurs, j'fais un nouveau business, j'remplis leur carte de fidélité J'écris l'histoire en italique sur papier glacé oui, oui Jeune artiste en herbe, continue, si tu n'as pas percé, c'est que tu n'en as pas fait assez On fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, ma sur assure la présidence Fait nos choses en silence, jeune entrepreneur en freelance Paramour en finance, réussir n'est qu'une évidence Là, c'est l'enfant du siècle skula, olup, pas l'temps Couronne sur la tête, j'suis calme, j'prépare la tempête Moi, je n'entends que le ciel, t'as capté, olup Au succès, j'suis condamné, trois ans qu'c'est mon année</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Le cur étroit comme deux mètres carrés, jai plus de place Comment pourrais-je te réparer ? Y a plus despace Parait qula magie disparaît disparaît Que toutes les histoires finissent pareil pareil Cest souvent légo qui nous rend bête, on sprend la tête Comme deux enfants qui sinsultent dans des corps dadultes On sprotège et à chaque fois on cache nos blessures blessures On sdit les choses quon pense pas pour prendre le dessus dessus Bien sûr que les hommes pleurent Mais ils le gardent à lintérieur Dès quils donnent un bout de cur Et ça me fait peur Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici tout est bien plus beau ici You might also like Oh-oh-oh Oh-oh oh-oh Oh-oh Hen, et je repense à tous nos fous rires, que jai gâchés Évidement, tas laissé courir quand jtai fait marcher Mais à chaque fois, on sforce pour se faire chier On se perd, à trop se chercher Dis-moi comment raviver la flamme Toi qui disais tu sais parler aux femmes Jaurais préféré savoir comment vraiment técouter On naurait pas r'fait lamour à sen dégouter Bien sûr que les hommes pleurent les hommes pleurent Mais ils le gardent à lintérieur à lintérieur Dès quils donnent un bout de cur un bout de cur Et ça me fait peur Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici tout est bien plus beau ici Hum-hum, oh-oh-oh Hum-hum, oh-oh Hum-hum, oh-oh Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici</t>
+          <t>Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Le cur étroit comme deux mètres carrés, jai plus de place Comment pourrais-je te réparer ? Y a plus despace Parait qula magie disparaît disparaît Que toutes les histoires finissent pareil pareil Cest souvent légo qui nous rend bête, on sprend la tête Comme deux enfants qui sinsultent dans des corps dadultes On sprotège et à chaque fois on cache nos blessures blessures On sdit les choses quon pense pas pour prendre le dessus dessus Bien sûr que les hommes pleurent Mais ils le gardent à lintérieur Dès quils donnent un bout de cur Et ça me fait peur Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici tout est bien plus beau ici Oh-oh-oh Oh-oh oh-oh Oh-oh Hen, et je repense à tous nos fous rires, que jai gâchés Évidement, tas laissé courir quand jtai fait marcher Mais à chaque fois, on sforce pour se faire chier On se perd, à trop se chercher Dis-moi comment raviver la flamme Toi qui disais tu sais parler aux femmes Jaurais préféré savoir comment vraiment técouter On naurait pas r'fait lamour à sen dégouter Bien sûr que les hommes pleurent les hommes pleurent Mais ils le gardent à lintérieur à lintérieur Dès quils donnent un bout de cur un bout de cur Et ça me fait peur Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici tout est bien plus beau ici Hum-hum, oh-oh-oh Hum-hum, oh-oh Hum-hum, oh-oh Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Oh mon amour, pourquoi tu veux partir ? Mais pourquoi tu veux partir ? Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici Tout est bien plus beau ici</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Les ombres, les ombres Les ombres, dans ma tête, dans ma tête, dans ma- Les ombres, les ombres Les ombres, dans ma tête, dans ma tête Trois heures du matin, les ombres dans ma tête semblent vraiment m'atteindre J'me dis qu'la folie est moins tendre, ces voix résonnent Dans ma tête, dans ma tête Au virage de la nuit, tous mes démons m'attendent Le bruit s'amplifie, comment veux-tu que ma vie s'simplifie ? Il est chelou, ton pote, c'est c'que la plupart disent Crise de tachycardie, ça multiplie l'emprise par dix car c'est rare Bienv'nue dans mon esprit carcéral Est-ce le système qui me freine ou ma tête qui fait naufrage ? Dans un monde dédoublé, qui sont les vrais schizophrènes ? Une ombre dans la tête, c'est pas d'ma faute, j'suis né avec J'vois l'monde en noir et blanc comme les notes du piano Et plus l'écart est grand, plus je perds le dialogue Tu sais, avec le temps, les ombres m'ont rendu parano J'vois des fantômes dans les rideaux, des monstres dans les caniveaux You might also like De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre J'parle à mon ami imaginaire J'ai toujours un obscur nuage d'hiver Dans ma tête J'parle à mon ami imaginaire Dans ma tête Assommé par l'insomnie solitaire Tombé dans l'hiver Les ombres, les ombres Les ombres Dans ma tête, dans ma tête Comment trouver la sortie d'la prison mentale ? J'ai l'impression qu'j'suis bon qu'à me mettre lamentable Dans ma tête, je vrille, au dehors, j'suis présentable Deux pieds dans l'sol mais je reste bancal À quoi bon rester sur la terre si le lendemain me fait peur ? Peur Plus je sombre au fond, plus les doutes prolifèrent Et plus la fin s'ra belle, plus y aura d'somnifères J'vois l'monde en noir et blanc comme les notes du piano Et plus l'écart est grand, plus je perds le dialogue Tu sais, avec le temps, les ombres m'ont rendu parano J'vois des fantômes dans les rideaux, des monstres dans les caniveaux De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre J'parle à mon ami imaginaire J'ai toujours un obscur nuage d'hiver Dans ma tête J'parle à mon ami imaginaire Dans ma tête Assommé par l'insomnie solitaire Tombé dans l'hiver Les ombres, les ombres Les ombres Dans ma tête, dans ma tête, dans ma- Les ombres, les ombres Les ombres Dans ma tête, dans ma tête Les batt'ments d'cur qui s'accélèrent, j'ai les mains moites, mes tempes résonnent Je sens qu'c'est l'heure au fond d'ma tête, une ombre enchaînée s'emprisonne J'ai l'impression qu'y a qu'en toussant que je relance mon rythme cardiaque Uh, uh J'ai des tendances limite maniaques et des fourmis dans le torse On m'dit d'faire ça et puis d'faire ci J'ai du mal à trouver la force pour remonter vers l'éclaircie Dans mes cauchemars, la Lune s'égare, le Soleil parait calciné Encore une crise d'halluciné donc j'mets l'doigt dans l'allume-cigare L'angoisse est reine du camouflage, les marques deviennent trop visibles Quand les ombres me prennent en otage, mon alter ego m'rend visite J'passe de la joie au pire chaos, tout ça en moins d'une seconde Cette fois, l'ombre m'a mis K.O, le seul moyen, c'est qu'j'quitte ce monde6</t>
+          <t>Les ombres, les ombres Les ombres, dans ma tête, dans ma tête, dans ma- Les ombres, les ombres Les ombres, dans ma tête, dans ma tête Trois heures du matin, les ombres dans ma tête semblent vraiment m'atteindre J'me dis qu'la folie est moins tendre, ces voix résonnent Dans ma tête, dans ma tête Au virage de la nuit, tous mes démons m'attendent Le bruit s'amplifie, comment veux-tu que ma vie s'simplifie ? Il est chelou, ton pote, c'est c'que la plupart disent Crise de tachycardie, ça multiplie l'emprise par dix car c'est rare Bienv'nue dans mon esprit carcéral Est-ce le système qui me freine ou ma tête qui fait naufrage ? Dans un monde dédoublé, qui sont les vrais schizophrènes ? Une ombre dans la tête, c'est pas d'ma faute, j'suis né avec J'vois l'monde en noir et blanc comme les notes du piano Et plus l'écart est grand, plus je perds le dialogue Tu sais, avec le temps, les ombres m'ont rendu parano J'vois des fantômes dans les rideaux, des monstres dans les caniveaux De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre J'parle à mon ami imaginaire J'ai toujours un obscur nuage d'hiver Dans ma tête J'parle à mon ami imaginaire Dans ma tête Assommé par l'insomnie solitaire Tombé dans l'hiver Les ombres, les ombres Les ombres Dans ma tête, dans ma tête Comment trouver la sortie d'la prison mentale ? J'ai l'impression qu'j'suis bon qu'à me mettre lamentable Dans ma tête, je vrille, au dehors, j'suis présentable Deux pieds dans l'sol mais je reste bancal À quoi bon rester sur la terre si le lendemain me fait peur ? Peur Plus je sombre au fond, plus les doutes prolifèrent Et plus la fin s'ra belle, plus y aura d'somnifères J'vois l'monde en noir et blanc comme les notes du piano Et plus l'écart est grand, plus je perds le dialogue Tu sais, avec le temps, les ombres m'ont rendu parano J'vois des fantômes dans les rideaux, des monstres dans les caniveaux De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre De la nuit à l'aube, d'une vie à l'autre J'parle à mon ami imaginaire J'ai toujours un obscur nuage d'hiver Dans ma tête J'parle à mon ami imaginaire Dans ma tête Assommé par l'insomnie solitaire Tombé dans l'hiver Les ombres, les ombres Les ombres Dans ma tête, dans ma tête, dans ma- Les ombres, les ombres Les ombres Dans ma tête, dans ma tête Les batt'ments d'cur qui s'accélèrent, j'ai les mains moites, mes tempes résonnent Je sens qu'c'est l'heure au fond d'ma tête, une ombre enchaînée s'emprisonne J'ai l'impression qu'y a qu'en toussant que je relance mon rythme cardiaque Uh, uh J'ai des tendances limite maniaques et des fourmis dans le torse On m'dit d'faire ça et puis d'faire ci J'ai du mal à trouver la force pour remonter vers l'éclaircie Dans mes cauchemars, la Lune s'égare, le Soleil parait calciné Encore une crise d'halluciné donc j'mets l'doigt dans l'allume-cigare L'angoisse est reine du camouflage, les marques deviennent trop visibles Quand les ombres me prennent en otage, mon alter ego m'rend visite J'passe de la joie au pire chaos, tout ça en moins d'une seconde Cette fois, l'ombre m'a mis K.O, le seul moyen, c'est qu'j'quitte ce monde6</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais Peu importe si l'regard des autres nous cerne, les envieux parlent et les silencieux gouvernent Même mes cauchemars ont très peur de leurs cauchemars donc on préfère rêver les yeux ouverts Les regards dans le vide sont souvent rouge Ferrari, j'confonds montée sous acide et descente aux enfers arides C'est nous les enfants du ciment, changent d'idéal tous les six mois Si on critique tes sentiments, mieux vaut répondre par le silence Jeune incandescent, que des gouttes de sang quand on marche dans la ville Pourquoi s'aveugler à fixer les pleins phares ? Ce soir, c'est de noir que mon cur s'habille Si j'suis pas millionnaire avant la trentaine, j'sais pas si le jeu en vaut la chandelle Dans la night Si j'te fais croire que tout va bien, c'est qu'pour moi, tout va mal J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais You might also like Dose d'adrénaline en intraveineuse pour calmer l'envie de me mettre en veilleuse Écrase tes peines dans l'cendrier, jamais nos âmes nous n'vendrions Sur l'sentier, les promesses sont plus d'cent millions J'écris le cri de ma vie hey, décris le gris de ma ville hey Ils repeignent nos murs entre racistes aux couleurs de leurs costumes trois pièces anthracites Funambule au bord du trou noir, en blouson sombre Pendant c'temps-là, anges et démons chantent toujours mon blues ensemble On croit pas en la chance dans des survêt' Lotto, la Faucheuse crie vengeance, silencieuse sur une moto La vue est belle du haut des ponts quand le vide nous contemple Les gens t'écoutent pour te répondre, moi, j't'écoute pour te comprendre Si j'suis pas millionnaire avant la trentaine, j'sais pas si le jeu en vaut la chandelle Dans la night Si j'te fais croire que tout va bien, c'est qu'pour moi, tout va mal J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai rêvé les yeux ouverts, putain, c'est chelou J'm'endors à quelque part mais j'me réveille chez nous Le regard des gens dit tout, damn, regarde-toi J'm'endors je n'sais où, j'me réveille chez moi J'préfère dormir les yeux ouverts et rêver d'un monde meilleur J'préfère dormir les yeux ouverts et rêver d'un monde meilleur</t>
+          <t>J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais Peu importe si l'regard des autres nous cerne, les envieux parlent et les silencieux gouvernent Même mes cauchemars ont très peur de leurs cauchemars donc on préfère rêver les yeux ouverts Les regards dans le vide sont souvent rouge Ferrari, j'confonds montée sous acide et descente aux enfers arides C'est nous les enfants du ciment, changent d'idéal tous les six mois Si on critique tes sentiments, mieux vaut répondre par le silence Jeune incandescent, que des gouttes de sang quand on marche dans la ville Pourquoi s'aveugler à fixer les pleins phares ? Ce soir, c'est de noir que mon cur s'habille Si j'suis pas millionnaire avant la trentaine, j'sais pas si le jeu en vaut la chandelle Dans la night Si j'te fais croire que tout va bien, c'est qu'pour moi, tout va mal J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais Dose d'adrénaline en intraveineuse pour calmer l'envie de me mettre en veilleuse Écrase tes peines dans l'cendrier, jamais nos âmes nous n'vendrions Sur l'sentier, les promesses sont plus d'cent millions J'écris le cri de ma vie hey, décris le gris de ma ville hey Ils repeignent nos murs entre racistes aux couleurs de leurs costumes trois pièces anthracites Funambule au bord du trou noir, en blouson sombre Pendant c'temps-là, anges et démons chantent toujours mon blues ensemble On croit pas en la chance dans des survêt' Lotto, la Faucheuse crie vengeance, silencieuse sur une moto La vue est belle du haut des ponts quand le vide nous contemple Les gens t'écoutent pour te répondre, moi, j't'écoute pour te comprendre Si j'suis pas millionnaire avant la trentaine, j'sais pas si le jeu en vaut la chandelle Dans la night Si j'te fais croire que tout va bien, c'est qu'pour moi, tout va mal J'ai rêvé les yeux ouverts, bonheur éclair dans le viseur, dans le viseur J'ai rêvé les yeux ouverts, tout tourbillonne dans le désordre sur l'avenue déserte ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai pris le mauvais remède, j'ai du mal à m'en remettre, tout est noir, j'me sens renaître ouais, ouais, ouais J'ai rêvé les yeux ouverts, putain, c'est chelou J'm'endors à quelque part mais j'me réveille chez nous Le regard des gens dit tout, damn, regarde-toi J'm'endors je n'sais où, j'me réveille chez moi J'préfère dormir les yeux ouverts et rêver d'un monde meilleur J'préfère dormir les yeux ouverts et rêver d'un monde meilleur</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L.O, VSO, yeah, yeah Oups, historique Le diable veut pas qu'on lise toutes les astérisques J'ai brisé beaucoup d'curs, j'ressens pas d'douleur On m'a dit Tu vaux très cher, Théodore J'ai quand même signé avec un quatre couleurs L-O, L-O-R-D, je peux plus m'attarder J'ai vu la plupart quémander pour rapper dans des kermesses La vie, c'est que du karma, surveille le ciel, j'arrive d'en haut comme Hermès Me parle pas de sabotage eh, le mojo provoque flow optique Je gagne avec un avantage eh, pull up dans l'game en ski nautique J'me suis fait tout seul avec mes vingt res-fré, t'as beau être riche ton ombre n'est qu'un reflet Oups, j'suis overbooké, mais si j'm'ennuyais, je jouerais de la derbouka sur quelques paires de seins refaits C'est le showtime faut qu'on vienne, personne ne m'a prédit rappeur C'était cramé comme cocaïne colombienne dans l'nez d'l'animateur Haha, L-O, L-O-R-D J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up You might also like Jarrive sucré comme un soda goyave, direction le centre, à deux dans la gova, wow Ton rap est lisse, pas besoin de gommage, mets-moi deux wrapschips, je moccupe du cool-al Deux bouteilles en club, cest le minimum, dès que jai des bugs, la musique est bonne donc Danke shön, jaime les Allemandes et que ça te choque ou te charme, un de chaque, fais péter le champ Cheveux dans le vent, à litalienne Ton ke-me te manque ? Bah, invite Alien yah Rap ADN, on va pas rentrer dans le rang, ce quon ma donné, je le rends mais y aura pas de happy end Et la drogua dans le sang ? Jamais de la vie La vodka dans le rhum ? J'me remets jamais de la nuit J'suis dans l'truc comme jamais, j'les fais rire comme Jamel Toujours frais comme Jared, toutes au coup comme Channel Ma copine est trop fraîche, jai les boules glacées Parfum menthe-mangue-fraise, mouvement d'fesses Jsuis absorbé, jfonds, elle a d'fort belles formes À sen frapper l'front dans la Ford Escort Quand on rentre dans l'club, les nes-jeu sont tous ouf ils sont dingues Jlève le majeur et jrepars en pouce-pouce Allô ? Jai level up allô ? Marco a level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up Pas d'prise de tête, que d'la prise de poids Rien n'marrête, j'me sens obèse sur la piste noire Quand j'pars en couilles, jpars en voyage Jai level up avec mes sales gars Ch'mise hawaïenne en boîte, shot de liqueur Jsuis absent dans ma tête comme sur Twitter J'mets des coups d'rein dans l'tas, comme sur lflipper Et je deviens chanteur de raï sur mon disque Han, j'vais mourir à cause de la musique Han, oui, cest bizarre vu que maintenant, jen vis Marchand d'tapis, j'menvole comme Aladdin Mélange dans l'Schwepps, j'chante comme Daniel Balavoine Woh, jai level up, Wadadadin Danse sur le bar à rhum, embrasse-moi sur mon baratin J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up</t>
+          <t>L.O, VSO, yeah, yeah Oups, historique Le diable veut pas qu'on lise toutes les astérisques J'ai brisé beaucoup d'curs, j'ressens pas d'douleur On m'a dit Tu vaux très cher, Théodore J'ai quand même signé avec un quatre couleurs L-O, L-O-R-D, je peux plus m'attarder J'ai vu la plupart quémander pour rapper dans des kermesses La vie, c'est que du karma, surveille le ciel, j'arrive d'en haut comme Hermès Me parle pas de sabotage eh, le mojo provoque flow optique Je gagne avec un avantage eh, pull up dans l'game en ski nautique J'me suis fait tout seul avec mes vingt res-fré, t'as beau être riche ton ombre n'est qu'un reflet Oups, j'suis overbooké, mais si j'm'ennuyais, je jouerais de la derbouka sur quelques paires de seins refaits C'est le showtime faut qu'on vienne, personne ne m'a prédit rappeur C'était cramé comme cocaïne colombienne dans l'nez d'l'animateur Haha, L-O, L-O-R-D J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up Jarrive sucré comme un soda goyave, direction le centre, à deux dans la gova, wow Ton rap est lisse, pas besoin de gommage, mets-moi deux wrapschips, je moccupe du cool-al Deux bouteilles en club, cest le minimum, dès que jai des bugs, la musique est bonne donc Danke shön, jaime les Allemandes et que ça te choque ou te charme, un de chaque, fais péter le champ Cheveux dans le vent, à litalienne Ton ke-me te manque ? Bah, invite Alien yah Rap ADN, on va pas rentrer dans le rang, ce quon ma donné, je le rends mais y aura pas de happy end Et la drogua dans le sang ? Jamais de la vie La vodka dans le rhum ? J'me remets jamais de la nuit J'suis dans l'truc comme jamais, j'les fais rire comme Jamel Toujours frais comme Jared, toutes au coup comme Channel Ma copine est trop fraîche, jai les boules glacées Parfum menthe-mangue-fraise, mouvement d'fesses Jsuis absorbé, jfonds, elle a d'fort belles formes À sen frapper l'front dans la Ford Escort Quand on rentre dans l'club, les nes-jeu sont tous ouf ils sont dingues Jlève le majeur et jrepars en pouce-pouce Allô ? Jai level up allô ? Marco a level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up Pas d'prise de tête, que d'la prise de poids Rien n'marrête, j'me sens obèse sur la piste noire Quand j'pars en couilles, jpars en voyage Jai level up avec mes sales gars Ch'mise hawaïenne en boîte, shot de liqueur Jsuis absent dans ma tête comme sur Twitter J'mets des coups d'rein dans l'tas, comme sur lflipper Et je deviens chanteur de raï sur mon disque Han, j'vais mourir à cause de la musique Han, oui, cest bizarre vu que maintenant, jen vis Marchand d'tapis, j'menvole comme Aladdin Mélange dans l'Schwepps, j'chante comme Daniel Balavoine Woh, jai level up, Wadadadin Danse sur le bar à rhum, embrasse-moi sur mon baratin J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up J'ai level up, j'ai level up</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Est-ce qu'on s'aime vraiment ? Est-ce qu'on aime l'idée qu'on s'en est fait ? Regard ambitieux sur le selfie, j'peux pas m'contenter de vos en effet Animé par la peur de perdre, j'ai forcément dû monter J'ai vu que des curs de pierre dans des déserts cimentés Liberté, Égalité, Fatalité On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre Kalashnikov dans du polystyrène, j'entends le chant des sirènes de police Même Dame Nature a du cholestérol donc je déchante, mes migraines sont trop lisses J'vois des migrants tués par des pirates en eau douce, j'ai mon ombre à vexer Peu importe nombre des essais, un homme qui rate en vaut douze Liberté, Égalité, va t'faire niquer On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre You might also like Liberté, Liberté, Liberté Nigga in Jari geïsoleerd, désolé Liberté, Liberté, Liberté Prim is gebucked hy is didde fatalité Kijk naar mijn land en ik zie geen egaalste Junlies die smoke of suivent die Lala, die Columbiana Les drogues c'st bon kwalite kwalite Ikke word rijk mijn fatalité hey Kalashnikov 47, j'ai un 38, j'ai un grand mack et j'ai un grande tech is Fully automat Die kanus on deck en dat is voor protect En talon de ibahesj Fissure de bélier of cambriolage Dat zin ramkraken of die inbraken Of we pakken knaken mit die Ponypacks Liberté, Égalité, Fatalité On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'connais pas la lâcheté, si t'as des rêves, vends-les, j'irai les racheter Trop d'erreurs, j'suis sous Crystal Roderer pour célébrer Vrai bonhomme fera vrai parcours, j'ai grandi dans l'ombre J'en ai vu beaucoup qu'ont la mémoire courte et les dents longues Est-ce qu'on s'aime vraiment ? Est-ce qu'on aime l'idée qu'on s'en est fait ? Regard ambitieux sur le selfie, j'peux pas m'contenter de vos en effet Animé par la peur de perdre, j'ai forcément dû monter J'ai vu que des curs de pierre dans des déserts cimentés Liberté, Liberté, Liberté Liberté, Liberté, Liberté Liberté, Liberté, Liberté Liberté, Liberté, Liberté</t>
+          <t>Est-ce qu'on s'aime vraiment ? Est-ce qu'on aime l'idée qu'on s'en est fait ? Regard ambitieux sur le selfie, j'peux pas m'contenter de vos en effet Animé par la peur de perdre, j'ai forcément dû monter J'ai vu que des curs de pierre dans des déserts cimentés Liberté, Égalité, Fatalité On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre Kalashnikov dans du polystyrène, j'entends le chant des sirènes de police Même Dame Nature a du cholestérol donc je déchante, mes migraines sont trop lisses J'vois des migrants tués par des pirates en eau douce, j'ai mon ombre à vexer Peu importe nombre des essais, un homme qui rate en vaut douze Liberté, Égalité, va t'faire niquer On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre Liberté, Liberté, Liberté Nigga in Jari geïsoleerd, désolé Liberté, Liberté, Liberté Prim is gebucked hy is didde fatalité Kijk naar mijn land en ik zie geen egaalste Junlies die smoke of suivent die Lala, die Columbiana Les drogues c'st bon kwalite kwalite Ikke word rijk mijn fatalité hey Kalashnikov 47, j'ai un 38, j'ai un grand mack et j'ai un grande tech is Fully automat Die kanus on deck en dat is voor protect En talon de ibahesj Fissure de bélier of cambriolage Dat zin ramkraken of die inbraken Of we pakken knaken mit die Ponypacks Liberté, Égalité, Fatalité On veut défier l'éternité pour l'éternité J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'ai fait la guerre pour avoir l'amour On fait l'amour, on se fait la guerre J'connais pas la lâcheté, si t'as des rêves, vends-les, j'irai les racheter Trop d'erreurs, j'suis sous Crystal Roderer pour célébrer Vrai bonhomme fera vrai parcours, j'ai grandi dans l'ombre J'en ai vu beaucoup qu'ont la mémoire courte et les dents longues Est-ce qu'on s'aime vraiment ? Est-ce qu'on aime l'idée qu'on s'en est fait ? Regard ambitieux sur le selfie, j'peux pas m'contenter de vos en effet Animé par la peur de perdre, j'ai forcément dû monter J'ai vu que des curs de pierre dans des déserts cimentés Liberté, Liberté, Liberté Liberté, Liberté, Liberté Liberté, Liberté, Liberté Liberté, Liberté, Liberté</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Love yourself, love yourself Love yourself, love yourself Love yourself Les yeux rivés sur mes deux lunes J'ai vu mes rêves s'engouffrer dans un puit sans fond On sait c'que les puissants font Tant d'appelés pour si peu d'élus Ici faut vaincre pour convaincre Rongés par le froid du déluge On rêve de plus, on rêve du monde On rêve de quitter l'sol donc me parle pas d'équité Commence par savoir qui t'es Toujours trahi par ceux qui t'aiment J'pense à tous ceux persécutés Mon coeur me dit Soit rationnel c'est rassurant La race humaine court à sa perte J'vois des destins s'enraciner L'orage déshabille les abysses, toi Tu sers le vide, on passe des cernes aux rides Encore une nuit parfumée d'histoires Tes regrets s'enlisent comme tout ce que t'envisages La mort efface un énième visage You might also like J'ai des défauts J'suis conscient qu'ils peuvent nuir Je n'veux pas être, je veux devenir Love yourself, love yourself Love yourself, love yourself Love yourself1</t>
+          <t>Love yourself, love yourself Love yourself, love yourself Love yourself Les yeux rivés sur mes deux lunes J'ai vu mes rêves s'engouffrer dans un puit sans fond On sait c'que les puissants font Tant d'appelés pour si peu d'élus Ici faut vaincre pour convaincre Rongés par le froid du déluge On rêve de plus, on rêve du monde On rêve de quitter l'sol donc me parle pas d'équité Commence par savoir qui t'es Toujours trahi par ceux qui t'aiment J'pense à tous ceux persécutés Mon coeur me dit Soit rationnel c'est rassurant La race humaine court à sa perte J'vois des destins s'enraciner L'orage déshabille les abysses, toi Tu sers le vide, on passe des cernes aux rides Encore une nuit parfumée d'histoires Tes regrets s'enlisent comme tout ce que t'envisages La mort efface un énième visage J'ai des défauts J'suis conscient qu'ils peuvent nuir Je n'veux pas être, je veux devenir Love yourself, love yourself Love yourself, love yourself Love yourself1</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Nos yeux s'affrontent dans le mépris Dis-moi comment les pourquoi tuent dis-moi Ce soir, ta guitare pleure dis-moi Qu'on a le ciel pour toiture Dis-moi pourquoi ne valons tous pas le même prix Dis-moi si ton cur fuit la peur Dis-moi qu'on crie nos existences sous la pluie Dis-moi si tu n'as que la distance pour appui Ton regard magenta s'agita, ma gitane Et je t'ai regardée Et je t'ai regrettée Je t'aime quand t'essayes Tu rêves d'être mienne Je le sais, je le sais Je sème notre passé, tu pleures nos regrets Dansons ensemble, dansons ensemble Mais je me sers dans ton âme ma gitane Je t'élève, tu m'enlèves, ma gitane Et je me perds dans l'envers ma gitane Je t'élève, tu me serres, ma gitane You might also like Dis-moi pourquoi l'océan noir de nos problèmes ne s'assèche pas Dis-moi pourquoi on ne s'aime pas, on ne s'aime plus La sagesse parle mais c'était devant l'inconnu Bien sûr que l'amour ne s'achète pas Pour le moment, mes rêves se mélangent, j'pense à leurs finalités Encore un songe d'une nuit d'été où j'fuis ma personnalité Dis-moi pourquoi ces souvenirs méditerranéens ont tué nos curs feignants Ils finissent par faner hein, tout s'réitèrent dans le néant 1</t>
+          <t>Nos yeux s'affrontent dans le mépris Dis-moi comment les pourquoi tuent dis-moi Ce soir, ta guitare pleure dis-moi Qu'on a le ciel pour toiture Dis-moi pourquoi ne valons tous pas le même prix Dis-moi si ton cur fuit la peur Dis-moi qu'on crie nos existences sous la pluie Dis-moi si tu n'as que la distance pour appui Ton regard magenta s'agita, ma gitane Et je t'ai regardée Et je t'ai regrettée Je t'aime quand t'essayes Tu rêves d'être mienne Je le sais, je le sais Je sème notre passé, tu pleures nos regrets Dansons ensemble, dansons ensemble Mais je me sers dans ton âme ma gitane Je t'élève, tu m'enlèves, ma gitane Et je me perds dans l'envers ma gitane Je t'élève, tu me serres, ma gitane Dis-moi pourquoi l'océan noir de nos problèmes ne s'assèche pas Dis-moi pourquoi on ne s'aime pas, on ne s'aime plus La sagesse parle mais c'était devant l'inconnu Bien sûr que l'amour ne s'achète pas Pour le moment, mes rêves se mélangent, j'pense à leurs finalités Encore un songe d'une nuit d'été où j'fuis ma personnalité Dis-moi pourquoi ces souvenirs méditerranéens ont tué nos curs feignants Ils finissent par faner hein, tout s'réitèrent dans le néant 1</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nos curs rêvent ensemble méconnaissables Mais le temps nous laisse ensemble Jlaisse ma haine sur un vieux sample Car mes frères ont lther maussade Et dire quon semble tous bellement sages Car nos destins sont périssables Latterrissage est à tes risques et périls Jatterris, cest pénible Jpréfère décoller Jai mes collègues pour mépauler Certains senfument sous népalais Lorsque le ciel sen est allé Jveux faire du bien sans métaler Dire que mes craintes semblent empalées Sur un toit de la jungle de Calais Ma peine est démentielle Place à la rédemption Jsuis perdu dans une dimension Où chaque ange pleure, chaque démon saigne Jai dimmenses rêves Dans mon cur le silence règne Les étoiles filantes éclaboussent le toit de mon ciel ! Oh mamama mamama x4 Oh mamama mamama x4You might also like</t>
+          <t>Nos curs rêvent ensemble méconnaissables Mais le temps nous laisse ensemble Jlaisse ma haine sur un vieux sample Car mes frères ont lther maussade Et dire quon semble tous bellement sages Car nos destins sont périssables Latterrissage est à tes risques et périls Jatterris, cest pénible Jpréfère décoller Jai mes collègues pour mépauler Certains senfument sous népalais Lorsque le ciel sen est allé Jveux faire du bien sans métaler Dire que mes craintes semblent empalées Sur un toit de la jungle de Calais Ma peine est démentielle Place à la rédemption Jsuis perdu dans une dimension Où chaque ange pleure, chaque démon saigne Jai dimmenses rêves Dans mon cur le silence règne Les étoiles filantes éclaboussent le toit de mon ciel ! Oh mamama mamama x4 Oh mamama mamama x4</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>J'ai vu la peur dans les yeux d'ma mère J'ressens l'amour scandé par Tous ceux qui chantent l'espoir Le ciel est souvent noir Les souvenirs coulent toujours sur mes joues Comme le jour d'un grand départ J'ai dis je t'aime faisant des allusions Nos péchés s'entassent comme nos désillusions J'peux pas devenir le mal que j't'ai fais On part en guerre contre nos reflets J'me demande qui j'vois dans les yeux de ceux qui m'admirent Une âme de plus meurt en martyr Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire J'y mets toute mon âme, les veines apparentes J'rends pas fier mes parents si les cieux me condamnent Regard froid, j'te nargue pas J'ressens de l'amertume quand j'vois c'que l'temps nous donne L'anxiété m'accompagne, j'ai pêché mon Père, mais la madone pardonne Neige éternelle sur les cimes des montagnes Oh Guide mon ego quand l'ange de droite l'ordonne Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ouais j'suis mélomane J'étais low low low low Depuis que j'suis déçu de moi Je me vois de l'haut-delà Au dessus de moi le feu de lave j'écoute le jeu de l'âge J'aurais du m'arrêter à la minute où j'ai commencé J'fais tomber la nuit quand je suis là J'aide la mama pour la maille J'ai fais le saut de l'ange en deux temps J'ai fini par appuyer sur la détente Un erreur qui vaut de l'or Je lève mon verre à ta santé, je lève mon verre à ta santé Toi mon ami qui m'écoute Tu m'a oté l'envie d'me découdre Oui j'suis mélomane Mélomane depuis tit-pe J'écoutais les Pink Floyd les yeux dans le vide J'ai dis qu'une fois je t'aime Jespère que j'paraissais honnête L'impression qu'c'était hier Couché de soleil avec une théière Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomaneYou might also like</t>
+          <t>J'ai vu la peur dans les yeux d'ma mère J'ressens l'amour scandé par Tous ceux qui chantent l'espoir Le ciel est souvent noir Les souvenirs coulent toujours sur mes joues Comme le jour d'un grand départ J'ai dis je t'aime faisant des allusions Nos péchés s'entassent comme nos désillusions J'peux pas devenir le mal que j't'ai fais On part en guerre contre nos reflets J'me demande qui j'vois dans les yeux de ceux qui m'admirent Une âme de plus meurt en martyr Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire J'y mets toute mon âme, les veines apparentes J'rends pas fier mes parents si les cieux me condamnent Regard froid, j'te nargue pas J'ressens de l'amertume quand j'vois c'que l'temps nous donne L'anxiété m'accompagne, j'ai pêché mon Père, mais la madone pardonne Neige éternelle sur les cimes des montagnes Oh Guide mon ego quand l'ange de droite l'ordonne Ma belle, belle, belle, belle, bella Encore une nuit parfumée d'histoire Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ouais j'suis mélomane J'étais low low low low Depuis que j'suis déçu de moi Je me vois de l'haut-delà Au dessus de moi le feu de lave j'écoute le jeu de l'âge J'aurais du m'arrêter à la minute où j'ai commencé J'fais tomber la nuit quand je suis là J'aide la mama pour la maille J'ai fais le saut de l'ange en deux temps J'ai fini par appuyer sur la détente Un erreur qui vaut de l'or Je lève mon verre à ta santé, je lève mon verre à ta santé Toi mon ami qui m'écoute Tu m'a oté l'envie d'me découdre Oui j'suis mélomane Mélomane depuis tit-pe J'écoutais les Pink Floyd les yeux dans le vide J'ai dis qu'une fois je t'aime Jespère que j'paraissais honnête L'impression qu'c'était hier Couché de soleil avec une théière Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane Ah oui j'suis mélomane, ah oui j'suis mélomane</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12-12 le téléphone pleure Inarrêtable comme un home run Car on veut le hors bord et les hors d'uvre Traîne ni avec les mauvais frères ni les bonnes surs Ni les bonnes surs Texte est foire s'ils n'se sentent pas offensés Golden shower sur le rap français J'ai les Air Nike, toi t'as l'air niqué À contre courant comme Copernic Leur dogme vole en éclat façon Guernica Enferme leur croyances dans un tupperware Pénètre voies du seigneur ressort par l'sophage Transforme cercueil en un sarcophage Vas-y bip bip mon Nokia-kia Avant que je devienne fantôme dans coquillage-quillage Elle a les yeux qui tuent, j'sais pas c'qu'y a, c'qu'y a Sur la scène de crime du maquillage-quillage Dès le matin, ça tire il faut se taire maintenant Car le satin m'attire et la satire m'atteint E.D.E.N, côtoie Satan juste par intérêt Car on se donne du mal pour un bien matériel O.L.A.F, je n'fais que prouver tandis qu'pédés se vantent Je vois c'qu'ils font pour qu'leur cd se vendent C'est décevant You might also like Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Elle dring, dring mon Nokia Fuck ton système est un peu vilain J'perce plus vite que l'hymen d'une 2001 Raciste se dédouane en disant qu'il a lu l'coran Futur prend forme dans l'reflet de ces bulles dorées J'laisse ses ovaires desséchés sans édulcorants J'en connais peu qu'assument les risques Trop de failles dans ce bordel consumériste Pourquoi vanter tous ses mérites ? Ton rappeur gesticule, j'suis posé sur son front J'y gratte mes testicules quand ça m'irrite Sample Gainsbourg Que je suis l'élu de ma génération J'inverse mon cycle de dégénérescence Doigt d'honneur, j'tire la langue pour la célébration Descendance de rappeurs, j'dois gérer les naissances L.O.R.D Trop de carrières en déclin tout comme Balotelli Mène plus qu'une vie d'orgueil dans un bel hôtel J'brûle un billet d'500 sur le plateau télé Sache qu'on va t'ôter les dents Vous papotez les gars Double appel Je fais patienter ma propre M.O.R.T Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Eden Allô, L.O, t'as vu le rap FR ? Lord Billets violets couvrent mes visions yaaah Je suis dans ta télévision yaaah De nombreux kilomètres me séparent ardemment De ces énergumènes sans aucun argument Eden Invoquent le boycott seulement en cas d'défaite ...Leur fanbase ne remplit pas une salle des fêtes Eden Ah le bâtard, ils vont êtres saucés Car leur souhait le plus grand va finir exaucé C'est des piètres rappeurs mais de très bons sosies Lord Fallait oser Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur2</t>
+          <t>12-12 le téléphone pleure Inarrêtable comme un home run Car on veut le hors bord et les hors d'uvre Traîne ni avec les mauvais frères ni les bonnes surs Ni les bonnes surs Texte est foire s'ils n'se sentent pas offensés Golden shower sur le rap français J'ai les Air Nike, toi t'as l'air niqué À contre courant comme Copernic Leur dogme vole en éclat façon Guernica Enferme leur croyances dans un tupperware Pénètre voies du seigneur ressort par l'sophage Transforme cercueil en un sarcophage Vas-y bip bip mon Nokia-kia Avant que je devienne fantôme dans coquillage-quillage Elle a les yeux qui tuent, j'sais pas c'qu'y a, c'qu'y a Sur la scène de crime du maquillage-quillage Dès le matin, ça tire il faut se taire maintenant Car le satin m'attire et la satire m'atteint E.D.E.N, côtoie Satan juste par intérêt Car on se donne du mal pour un bien matériel O.L.A.F, je n'fais que prouver tandis qu'pédés se vantent Je vois c'qu'ils font pour qu'leur cd se vendent C'est décevant Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Elle dring, dring mon Nokia Fuck ton système est un peu vilain J'perce plus vite que l'hymen d'une 2001 Raciste se dédouane en disant qu'il a lu l'coran Futur prend forme dans l'reflet de ces bulles dorées J'laisse ses ovaires desséchés sans édulcorants J'en connais peu qu'assument les risques Trop de failles dans ce bordel consumériste Pourquoi vanter tous ses mérites ? Ton rappeur gesticule, j'suis posé sur son front J'y gratte mes testicules quand ça m'irrite Sample Gainsbourg Que je suis l'élu de ma génération J'inverse mon cycle de dégénérescence Doigt d'honneur, j'tire la langue pour la célébration Descendance de rappeurs, j'dois gérer les naissances L.O.R.D Trop de carrières en déclin tout comme Balotelli Mène plus qu'une vie d'orgueil dans un bel hôtel J'brûle un billet d'500 sur le plateau télé Sache qu'on va t'ôter les dents Vous papotez les gars Double appel Je fais patienter ma propre M.O.R.T Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Elle dring dring mon Nokia Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Eden Allô, L.O, t'as vu le rap FR ? Lord Billets violets couvrent mes visions yaaah Je suis dans ta télévision yaaah De nombreux kilomètres me séparent ardemment De ces énergumènes sans aucun argument Eden Invoquent le boycott seulement en cas d'défaite ...Leur fanbase ne remplit pas une salle des fêtes Eden Ah le bâtard, ils vont êtres saucés Car leur souhait le plus grand va finir exaucé C'est des piètres rappeurs mais de très bons sosies Lord Fallait oser Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur Dring, dring, dring, dring, dring Les vipères m'appellent, je ne réponds pas Dring, dring, dring, dring, dring Le Rap Français sur répondeur2</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>On finira millionnaire x4 Nos défauts samenuisent et nos mots dépassent nos pensées Jose penser que nos égaux agirons Jsors bientôt de lanonymat Ma famille de la pauvreté la vie dma mère Pas assez naïf pour voter Le temps cest de largent, le mien sera facturé Jpourrais chanter violent sur guitare saturée Jfais preuve dténacité, mon frère taffe si dur Ça mrend taciturne Studieux quen studio, tauras sur la conscience Jacte on ta cité On finira millionnaire, maman jte lai promis Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable On finira millionnaire x4 You might also like Plus habiles que nos pairs On maquille nos paires pendant quils pilotaient Je veux ma Murcielago Le coffre rempli de lingots Jécris mon histoire et je nsuis quau sommaire Du mal à concevoir ce que mon âme tolère On manie la force depuis le vaisseau mère Enfant dla trap élevé par le tonnerre Jsuis plus fort quavant Jtravaille mes talents car Tout vient à point pour celui qui sait attendre Dorénavant ça mparait navrant Cest mon quotidien ne scompose dor et dargent Jfaçonne lavenir pour que ma descendance finisse millionnaire Je veux de lor et alors Lord Lord Lord Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable On finira millionnaire x4</t>
+          <t>On finira millionnaire x4 Nos défauts samenuisent et nos mots dépassent nos pensées Jose penser que nos égaux agirons Jsors bientôt de lanonymat Ma famille de la pauvreté la vie dma mère Pas assez naïf pour voter Le temps cest de largent, le mien sera facturé Jpourrais chanter violent sur guitare saturée Jfais preuve dténacité, mon frère taffe si dur Ça mrend taciturne Studieux quen studio, tauras sur la conscience Jacte on ta cité On finira millionnaire, maman jte lai promis Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable On finira millionnaire x4 Plus habiles que nos pairs On maquille nos paires pendant quils pilotaient Je veux ma Murcielago Le coffre rempli de lingots Jécris mon histoire et je nsuis quau sommaire Du mal à concevoir ce que mon âme tolère On manie la force depuis le vaisseau mère Enfant dla trap élevé par le tonnerre Jsuis plus fort quavant Jtravaille mes talents car Tout vient à point pour celui qui sait attendre Dorénavant ça mparait navrant Cest mon quotidien ne scompose dor et dargent Jfaçonne lavenir pour que ma descendance finisse millionnaire Je veux de lor et alors Lord Lord Lord Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable Jai lcur endurci Regard froid imperméable Maman maime pour deux, père minable impardonnable On finira millionnaire x4</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Quand une âme sur disparait On perd un miroir qui réfléchit nos défauts Rêves et cauchemars se confondent dans l'écho des forêts Les abysses d'un cur sont difficiles à forer L'univers nous tourne autour, comme un 45 tours Qui s'consume en parlant d'amour Et qui t'entoure la taille Nos âmes s'détestent et puis s'tolèrent Il n'y a qu'à voir l'éclipse solaire Pour comprendre que les astres aussi se livrent bataille J'promets qu'la prochaine fois j'écouterais ma mère Au lieu de sceller mes doutes dans une bouteille à la mer Le diable, vêtu d'un costume propre t'emmène dans les profondeurs abyssales Le diable, vêtu d'un costume propre t'emmène dans les profondeurs abyssales J'entends des bruits de mots, des éclaboussures d'étoiles Des demandes qui se répandent et des mondes qui se répondent On met les voiles on navigue, désespoir crié sur les toits de la ville Que des curs éparpillés que l'on finit par piller Là où l'on n'a pas pied dans nos rêves en papier À deux pas de la vitre, face au poids de l'avenir Aucune politesse maladive quand le trépas nous invite J'ai vu maman s'épanouir dans un rêve Mais vu qu'c'n'était qu'un rêve j'ai vu ce moment s'évanouir Encore une course à l'orgueil Des histoires d'amour se comparent toutes à leurs deuils You might also like J'ai promis de faire le bon choix J'ai promis de ne pas m'tromper de foi J'ai promis d'choisir mes batailles Et d'faire en sorte que tous les miens se sentent de taille Bien sûr qu'encore une fois, bien sûr qu'encore une fois Les minutes passent lent'ment la nuit Bien sûr qu'encore une fois, bien sûr qu'encore une fois Je n'sais que faire face à l'ennui Bien sûr qu'encore une fois, bien sûr qu'encore une fois Les minutes passent lent'ment la nuit Je me demande que faire quand les regrets font taire Nos souvenirs centenaires</t>
+          <t>Quand une âme sur disparait On perd un miroir qui réfléchit nos défauts Rêves et cauchemars se confondent dans l'écho des forêts Les abysses d'un cur sont difficiles à forer L'univers nous tourne autour, comme un 45 tours Qui s'consume en parlant d'amour Et qui t'entoure la taille Nos âmes s'détestent et puis s'tolèrent Il n'y a qu'à voir l'éclipse solaire Pour comprendre que les astres aussi se livrent bataille J'promets qu'la prochaine fois j'écouterais ma mère Au lieu de sceller mes doutes dans une bouteille à la mer Le diable, vêtu d'un costume propre t'emmène dans les profondeurs abyssales Le diable, vêtu d'un costume propre t'emmène dans les profondeurs abyssales J'entends des bruits de mots, des éclaboussures d'étoiles Des demandes qui se répandent et des mondes qui se répondent On met les voiles on navigue, désespoir crié sur les toits de la ville Que des curs éparpillés que l'on finit par piller Là où l'on n'a pas pied dans nos rêves en papier À deux pas de la vitre, face au poids de l'avenir Aucune politesse maladive quand le trépas nous invite J'ai vu maman s'épanouir dans un rêve Mais vu qu'c'n'était qu'un rêve j'ai vu ce moment s'évanouir Encore une course à l'orgueil Des histoires d'amour se comparent toutes à leurs deuils J'ai promis de faire le bon choix J'ai promis de ne pas m'tromper de foi J'ai promis d'choisir mes batailles Et d'faire en sorte que tous les miens se sentent de taille Bien sûr qu'encore une fois, bien sûr qu'encore une fois Les minutes passent lent'ment la nuit Bien sûr qu'encore une fois, bien sûr qu'encore une fois Je n'sais que faire face à l'ennui Bien sûr qu'encore une fois, bien sûr qu'encore une fois Les minutes passent lent'ment la nuit Je me demande que faire quand les regrets font taire Nos souvenirs centenaires</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mon cur est noir de monde couleur embrasé Quand je me souviens de ces femmes croisées Au détour dune rue, dun village Qui font même perdurer leur mirage Mon cur est noir de monde, fouille dans le passé Quand je me souviens de ces lèvres embrassées Au détour dune rue, dun village Jen confonds parfois les visages Une aventure sans fin Comme tes pupilles bleu azur Pourvu que ça dure Mon cur est noir de monde x3 Pourvu que ça dure Mon cur est noir de monde couler embrasé Quand je me souviens de ces femmes croisées Au détour dune rue, dun village A lheure où lon ne voit plus les âges Certaines cueillaient mes rêves sur des framboisiers Dautres ne mont laissé quun parfum boisé Au détour dune rue, dun village Jen confonds parfois les visages Une aventure sans fin Comme tes pupilles vert pâture Pourvu que ça dure You might also likeMon cur est noir de monde x3 Pourvu que ça dure Une aventure sans fin Comme tes pupilles jaune nature Pourvu que ça dure Mon cur est noir de monde x3 Pourvu que ça dure Pourvu que ça dure</t>
+          <t>Mon cur est noir de monde couleur embrasé Quand je me souviens de ces femmes croisées Au détour dune rue, dun village Qui font même perdurer leur mirage Mon cur est noir de monde, fouille dans le passé Quand je me souviens de ces lèvres embrassées Au détour dune rue, dun village Jen confonds parfois les visages Une aventure sans fin Comme tes pupilles bleu azur Pourvu que ça dure Mon cur est noir de monde x3 Pourvu que ça dure Mon cur est noir de monde couler embrasé Quand je me souviens de ces femmes croisées Au détour dune rue, dun village A lheure où lon ne voit plus les âges Certaines cueillaient mes rêves sur des framboisiers Dautres ne mont laissé quun parfum boisé Au détour dune rue, dun village Jen confonds parfois les visages Une aventure sans fin Comme tes pupilles vert pâture Pourvu que ça dure Mon cur est noir de monde x3 Pourvu que ça dure Une aventure sans fin Comme tes pupilles jaune nature Pourvu que ça dure Mon cur est noir de monde x3 Pourvu que ça dure Pourvu que ça dure</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>À quoi bon faire Bercy seul dans les loges ? J'remercie l'ciel pour tant d'éloges Je ne me suis jamais dis Si je deviens riche Moi, je me suis toujours dis Quand je serai riche, oh yeah T'es pas validé, j'me sens frais dans ces mondanités Moi, je me sens frais si les jeux sont faits, oh Les dés sont pipés, mort ou vif Traverse les Champs sous Moët Noyé dans baril du Koweït À quoi bon vouloir changer le monde ? Moi, j'suis qu'un putain de poète Mort ou vif Finalement, tu sais, j'ai beau rapper vrai, la plupart attende juste de me voir mort ou vif Dis-moi pourquoi leur donner tout mon cur ? Contrat sur la tête, dire qu'ils me veulent tous mort ou vif J'rêve toujours de m'étendre assez, j'lui demande de m'attendre ici Ma belle, t'es attendrissante mais il en faut plus pour aimer t'embrasser Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma Toi, t'aimerais bien qu'on t'rassure mais j'ai trop à faire, compte pas sur moi Plus j'avance, plus j'ai des facilités J'me demande si ton flow va passer l'été J'rappe bien, Chabal, Shalom mais y'a que sur ta tête que j'ai cassé la teille Mort ou vif J'ai d'la suite dans les idées, assez pour avoir des idées dans suite royale Génération Winehouse, backseat, freestyle, j'compte que sur mon équipe loyale Mort ou vif J'donnerai corps à la science pour qu'on comprenne les efforts de ma pensée Moula, moula, j'ai pas encore dépensé, j'écoute concu' car c'est fort relaxant Paris, j'aime ta couleur café Odeur d'mafé, couloir taché Boulevard Foch et fumoir bafoué Ton bitume et ses douleurs cachées Chaque jour, j'grandis, chaque jour, je m'élève Les profs disaient T'es qu'un mauvais élève Il n'y a qu'en roi du monde, que je me lève Moi, j'arrive en retard, sourire aux lèvres You might also like Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma Toi, t'aimerais bien qu'on t'rassure mais j'ai trop à faire, compte pas sur moi</t>
+          <t>À quoi bon faire Bercy seul dans les loges ? J'remercie l'ciel pour tant d'éloges Je ne me suis jamais dis Si je deviens riche Moi, je me suis toujours dis Quand je serai riche, oh yeah T'es pas validé, j'me sens frais dans ces mondanités Moi, je me sens frais si les jeux sont faits, oh Les dés sont pipés, mort ou vif Traverse les Champs sous Moët Noyé dans baril du Koweït À quoi bon vouloir changer le monde ? Moi, j'suis qu'un putain de poète Mort ou vif Finalement, tu sais, j'ai beau rapper vrai, la plupart attende juste de me voir mort ou vif Dis-moi pourquoi leur donner tout mon cur ? Contrat sur la tête, dire qu'ils me veulent tous mort ou vif J'rêve toujours de m'étendre assez, j'lui demande de m'attendre ici Ma belle, t'es attendrissante mais il en faut plus pour aimer t'embrasser Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma Toi, t'aimerais bien qu'on t'rassure mais j'ai trop à faire, compte pas sur moi Plus j'avance, plus j'ai des facilités J'me demande si ton flow va passer l'été J'rappe bien, Chabal, Shalom mais y'a que sur ta tête que j'ai cassé la teille Mort ou vif J'ai d'la suite dans les idées, assez pour avoir des idées dans suite royale Génération Winehouse, backseat, freestyle, j'compte que sur mon équipe loyale Mort ou vif J'donnerai corps à la science pour qu'on comprenne les efforts de ma pensée Moula, moula, j'ai pas encore dépensé, j'écoute concu' car c'est fort relaxant Paris, j'aime ta couleur café Odeur d'mafé, couloir taché Boulevard Foch et fumoir bafoué Ton bitume et ses douleurs cachées Chaque jour, j'grandis, chaque jour, je m'élève Les profs disaient T'es qu'un mauvais élève Il n'y a qu'en roi du monde, que je me lève Moi, j'arrive en retard, sourire aux lèvres Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma tête Mort ou vif, mort ou vif, ils ont mis des contrats sur ma Toi, t'aimerais bien qu'on t'rassure mais j'ai trop à faire, compte pas sur moi</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J'veux m'voir en 40 mètres sur l'périphérique Nord J't'ai quitté car t'étais hystétrique Lord travaille toujours plus Pour qu'ma naissance devienne fait historique Level up, level up Tout mon bénéf' dans une enveloppe J'suis à 110 sur un cinquante, oy Oui, mon réseau se développe wouh Un cadavre entame sa marche funeste dans les rues de Pigalle yah La rue a le goût du risque, oy J'entends l'chant des sirènes pas celui des cigales Échouer n'existe pas comme un tir amical Le succès me scrute à travers son il de verre pyramidal, skuh skuh skuh Berline 4 matic, plaquée diplomatique, tique Devenir emblématique comme seule problématique, tique Ma mère m'a dit faudra prendre ton billet Puis, pendant que t'y es, va les guillotiner Qu'ils assimilent ce talent qui est inné Le rap FR, je vais le piller-piller puis le piétiner L'âme tellement noire que l'on horrifie l'Styx aie Toujours la dalle comme un sans domicile fixe Ils me voyaient comme un alien Shit de Gallieni pour les aliéner 20-18, tout est noir, tes potos t'méprisent J'appelle Jason Piekar pour photo maîtrisée Y'a pas de concurrence, ils s'auto-détruisent C'est leur coté triso J'crois en mes rêves, j'crois en mes rêves J'crois en mes rêves, crois en tes rêves, yah Parle avec LO, parle intérêt, yah Ramène n'importe lequel, j'vais l'enterrer, yah Hormones en fusion quand j'débarque dans ta ress Toute ma haine est crachée sous fréquence Antarès Plein d'ambition depuis Duperré Leur critique me fera rire seul dans la Ferrari, hein La détermination d'un homme se sent dans la poignée de main Je vais soigner demain, les tiens peuvent en témoigner Ni l'argent, ni les femmes, ni l'succès ne pourront méloigner des miens J'vais mourir sur scène, mo'fucker Putain d'rockstar Vingt-et-un ans plus qu'six à vivre J'sais qu'j'suis l'meilleur que si ça vibre Drrrrr Drrrrr Allo LO, talent imprévisible, tu pourrais même devenir international Haha Ils passent tous à coté du grand jour, je les vois comme CR7 regarde Arsenal yah La voix d'la raison se tait Quand l'délit d'faciès s'exprime Je vois que l'futur, moi Je vois pas leur bassesse d'esprit Viens voir en bas, sur l'macadam Marchant d'armes côtoie macchabée Oui, dis-toi qu'ils tueront tout ton espoir comme ils ont tué Makaveli You might also like Les miens n'ont pas de mauvais fond Ils n'ont qu'des intérêts yah J'ouvre des portes, je comprends qu'en refermant Turn up dans ta chhh J'suis l'nouveau Léo Ferré yah Leurs daronnes floquées sur un t-shirt que j'arbore fièrement Hm hm J'arrive flex, stylé Ton ex je la next En un texto Même leur grand-mère se retrouve dans les textes Www.LordEsperanza.com Léo connait meilleur textile Turn up dans ta chhh Même si on est serrés yah J'suis mon rappeur préféré yah J'me sens comme Michael Jacksonn Michael Bay, Michael Jordan Hm hm Même en bitcoin, le featuring n'est toujours pas abordable Hm hm Mon assurance est royale C'est l'retour de l'enfant prodige J'suis leur concurrence déloyale Je demande aux étoiles pour appuyer mon témoignage Turn up dans ta chhh Leur avenir est illisible yah C'qui m'arrive était prévisible yah J'urine sur rappeur provincial au succès risible J'rentre sur Paname, jappelle famé Y'a des fans à l'aiport Tout est noir comme VIH qui coule dans l'sang d'une mère porteuse J'vois pas qui peut rivaliser Dans leur game pour le dévali... Du Candy Shop au Madison Square Edouard m'appelle, tous mes concerts s'additionnent Fier Je traîne avec gueules cassées plus futurs prix Nobel J'suis Rocco Si Faudel J'met la nitro dans la Nissan Frère Encore un fils de chhh Qui signera son contrat d'artiste Tu vaut 10 t'es pas intéressant J'te prends ton égo et j'vais t'enterrer sans Tu m'raconteras la suite Ils font figuration J'traite tous les parasites comme les paparazzis Sans aucune forme de considération</t>
+          <t>J'veux m'voir en 40 mètres sur l'périphérique Nord J't'ai quitté car t'étais hystétrique Lord travaille toujours plus Pour qu'ma naissance devienne fait historique Level up, level up Tout mon bénéf' dans une enveloppe J'suis à 110 sur un cinquante, oy Oui, mon réseau se développe wouh Un cadavre entame sa marche funeste dans les rues de Pigalle yah La rue a le goût du risque, oy J'entends l'chant des sirènes pas celui des cigales Échouer n'existe pas comme un tir amical Le succès me scrute à travers son il de verre pyramidal, skuh skuh skuh Berline 4 matic, plaquée diplomatique, tique Devenir emblématique comme seule problématique, tique Ma mère m'a dit faudra prendre ton billet Puis, pendant que t'y es, va les guillotiner Qu'ils assimilent ce talent qui est inné Le rap FR, je vais le piller-piller puis le piétiner L'âme tellement noire que l'on horrifie l'Styx aie Toujours la dalle comme un sans domicile fixe Ils me voyaient comme un alien Shit de Gallieni pour les aliéner 20-18, tout est noir, tes potos t'méprisent J'appelle Jason Piekar pour photo maîtrisée Y'a pas de concurrence, ils s'auto-détruisent C'est leur coté triso J'crois en mes rêves, j'crois en mes rêves J'crois en mes rêves, crois en tes rêves, yah Parle avec LO, parle intérêt, yah Ramène n'importe lequel, j'vais l'enterrer, yah Hormones en fusion quand j'débarque dans ta ress Toute ma haine est crachée sous fréquence Antarès Plein d'ambition depuis Duperré Leur critique me fera rire seul dans la Ferrari, hein La détermination d'un homme se sent dans la poignée de main Je vais soigner demain, les tiens peuvent en témoigner Ni l'argent, ni les femmes, ni l'succès ne pourront méloigner des miens J'vais mourir sur scène, mo'fucker Putain d'rockstar Vingt-et-un ans plus qu'six à vivre J'sais qu'j'suis l'meilleur que si ça vibre Drrrrr Drrrrr Allo LO, talent imprévisible, tu pourrais même devenir international Haha Ils passent tous à coté du grand jour, je les vois comme CR7 regarde Arsenal yah La voix d'la raison se tait Quand l'délit d'faciès s'exprime Je vois que l'futur, moi Je vois pas leur bassesse d'esprit Viens voir en bas, sur l'macadam Marchant d'armes côtoie macchabée Oui, dis-toi qu'ils tueront tout ton espoir comme ils ont tué Makaveli Les miens n'ont pas de mauvais fond Ils n'ont qu'des intérêts yah J'ouvre des portes, je comprends qu'en refermant Turn up dans ta chhh J'suis l'nouveau Léo Ferré yah Leurs daronnes floquées sur un t-shirt que j'arbore fièrement Hm hm J'arrive flex, stylé Ton ex je la next En un texto Même leur grand-mère se retrouve dans les textes Www.LordEsperanza.com Léo connait meilleur textile Turn up dans ta chhh Même si on est serrés yah J'suis mon rappeur préféré yah J'me sens comme Michael Jacksonn Michael Bay, Michael Jordan Hm hm Même en bitcoin, le featuring n'est toujours pas abordable Hm hm Mon assurance est royale C'est l'retour de l'enfant prodige J'suis leur concurrence déloyale Je demande aux étoiles pour appuyer mon témoignage Turn up dans ta chhh Leur avenir est illisible yah C'qui m'arrive était prévisible yah J'urine sur rappeur provincial au succès risible J'rentre sur Paname, jappelle famé Y'a des fans à l'aiport Tout est noir comme VIH qui coule dans l'sang d'une mère porteuse J'vois pas qui peut rivaliser Dans leur game pour le dévali... Du Candy Shop au Madison Square Edouard m'appelle, tous mes concerts s'additionnent Fier Je traîne avec gueules cassées plus futurs prix Nobel J'suis Rocco Si Faudel J'met la nitro dans la Nissan Frère Encore un fils de chhh Qui signera son contrat d'artiste Tu vaut 10 t'es pas intéressant J'te prends ton égo et j'vais t'enterrer sans Tu m'raconteras la suite Ils font figuration J'traite tous les parasites comme les paparazzis Sans aucune forme de considération</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>J'arrive les mains dans le dos En grand écart sur leur pute de mère Critiqué, critiqué, la plupart me voue un culte de merde On apprend pas mieux qu'en scionnant Début de carrière dans le pensionnat L'homme n'est pas souvent si honnête Ego surdimensionné Là j'fais du rap conscient donc continuer à me détester A quoi bon se reproduire si c'est pour laisser ce monde infesté ? Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Wow, le karma, le karma, le karma, le karma, le karma Instinct carnassier, mère m'a mis au monde sur le tarmac J'ai su que j'étais fait pour ça quand j'écoutais Écoute, le karma, le karma, j'ai coupé les ponts Elle s'est coupée les veines Chaque re-phras, plus j'suis des zones érogènes Mon coeur sous melo time Enfant précoce élevé sous kérosène J'l'ai fais jouir quand je lui ai bouffé l'oreille L.O.R.D E.S.P, moi j'leur manque de R.E.S.P Bizarre tout ceux qui ont pas cru en moi J'arrive dans un preme-Su en noir Majordome remet des serviettes, j'ressors du show suant de gloire J'fais vivre deuxième jeunesse, aux mamans de mes supportrices Le bonheur met des uppercut, mais l'argent rend pas super triste J'reste vingt ans comme Fred de Sky' Ou je meurs jeune comme Lady Di Échoué n'existe pas, comme un manchot qui lit le braille You might also like Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah J'suis l'élu comme Keanu Reeves, le meilleur à priori J'ai voulu acheter le destin, le diable m'a fait un prix horrible J'tue maintenant, j'enterre a posteriori Logo Paramour sur un costard en gris J'arrive à 200 sur un Dragster en I Mes initiales sur un poster au Ritz Sont très bons, aussi fou que 22 font 1 J'le fait pour que le daron m'regarde avec des yeux d'enfants, hein Ola yeah, répète cinq fois ola yeah J'fais disque d'or puis j'repars, sur une plage ensoleillé Même appétit qu'a mes 18 ans, wow, dans quel monde vit-on Ma vision du bonheur ne se résume pas dans chaussure en python Louis Vuitton 20-19, il était temps, le but étant de tout niquer Drapeau Blanc fait pointer tétons de quelques chroniqueurs Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah</t>
+          <t>J'arrive les mains dans le dos En grand écart sur leur pute de mère Critiqué, critiqué, la plupart me voue un culte de merde On apprend pas mieux qu'en scionnant Début de carrière dans le pensionnat L'homme n'est pas souvent si honnête Ego surdimensionné Là j'fais du rap conscient donc continuer à me détester A quoi bon se reproduire si c'est pour laisser ce monde infesté ? Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Wow, le karma, le karma, le karma, le karma, le karma Instinct carnassier, mère m'a mis au monde sur le tarmac J'ai su que j'étais fait pour ça quand j'écoutais Écoute, le karma, le karma, j'ai coupé les ponts Elle s'est coupée les veines Chaque re-phras, plus j'suis des zones érogènes Mon coeur sous melo time Enfant précoce élevé sous kérosène J'l'ai fais jouir quand je lui ai bouffé l'oreille L.O.R.D E.S.P, moi j'leur manque de R.E.S.P Bizarre tout ceux qui ont pas cru en moi J'arrive dans un preme-Su en noir Majordome remet des serviettes, j'ressors du show suant de gloire J'fais vivre deuxième jeunesse, aux mamans de mes supportrices Le bonheur met des uppercut, mais l'argent rend pas super triste J'reste vingt ans comme Fred de Sky' Ou je meurs jeune comme Lady Di Échoué n'existe pas, comme un manchot qui lit le braille Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah J'suis l'élu comme Keanu Reeves, le meilleur à priori J'ai voulu acheter le destin, le diable m'a fait un prix horrible J'tue maintenant, j'enterre a posteriori Logo Paramour sur un costard en gris J'arrive à 200 sur un Dragster en I Mes initiales sur un poster au Ritz Sont très bons, aussi fou que 22 font 1 J'le fait pour que le daron m'regarde avec des yeux d'enfants, hein Ola yeah, répète cinq fois ola yeah J'fais disque d'or puis j'repars, sur une plage ensoleillé Même appétit qu'a mes 18 ans, wow, dans quel monde vit-on Ma vision du bonheur ne se résume pas dans chaussure en python Louis Vuitton 20-19, il était temps, le but étant de tout niquer Drapeau Blanc fait pointer tétons de quelques chroniqueurs Yeah, oh, yeah, faut qu'j'multiplie oh yeah Tous les jours flex, tous les jours flex comme Rudyard Kipling oh yeah Monde en folie veut nous tuer, monde en folie oh yeah Monde en folie veut nous tuer, monde en folie oh yeah</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, nous abordons finalement notre descente vers Paris-Charles De Gaulle. Il est 23h23. La température extérieure est de 23 degrés. Nous vous invitons à regagner votre siège et à siroter ce cocktail afin de profiter de ces derniers instants Toute l'équipe est fière de vous annoncer que nous sommes en route pour le deuxième album. Nous espérons que ce voyage autour du globe vous a plu et que vous avez pu trouver votre bonheur dans le panel de paysages différents que nous avons tenté de vous proposer. Nous tenons à remercier tous les artistes présents à bord de la nacelle ainsi que tous les acteurs de l'ombre qui ont uvré pour rendre cette aventure possible. À bientôt peut-être, sur les chemins des chevaliers du ciel Toute la compagnie L.O Airlines vous souhaite un agréable chemin de vie N'oubliez pas que L.O Airlines et une compagnie rattachée à Paramour, société civile inscrite dans tous les registres officiels. Offre soumise à conditions avec tous les artistes participants. Ne pensez pas trouver d'indice ou d'exclusivité sur la suite car il n'y en aura pas ici. La marque Paramour est disponible partout. Courez vous procurer ce textile rarissime auprès de votre vendeur de textile favori. Grand merci à tous les producteurs présents sur le projet au Shawondasee, à Freedadou, Léo pour leurs investissements et à toutes les équipes extérieures sans qui rien n'aurait été possibleYou might also like</t>
+          <t>Mesdames, messieurs, nous abordons finalement notre descente vers Paris-Charles De Gaulle. Il est 23h23. La température extérieure est de 23 degrés. Nous vous invitons à regagner votre siège et à siroter ce cocktail afin de profiter de ces derniers instants Toute l'équipe est fière de vous annoncer que nous sommes en route pour le deuxième album. Nous espérons que ce voyage autour du globe vous a plu et que vous avez pu trouver votre bonheur dans le panel de paysages différents que nous avons tenté de vous proposer. Nous tenons à remercier tous les artistes présents à bord de la nacelle ainsi que tous les acteurs de l'ombre qui ont uvré pour rendre cette aventure possible. À bientôt peut-être, sur les chemins des chevaliers du ciel Toute la compagnie L.O Airlines vous souhaite un agréable chemin de vie N'oubliez pas que L.O Airlines et une compagnie rattachée à Paramour, société civile inscrite dans tous les registres officiels. Offre soumise à conditions avec tous les artistes participants. Ne pensez pas trouver d'indice ou d'exclusivité sur la suite car il n'y en aura pas ici. La marque Paramour est disponible partout. Courez vous procurer ce textile rarissime auprès de votre vendeur de textile favori. Grand merci à tous les producteurs présents sur le projet au Shawondasee, à Freedadou, Léo pour leurs investissements et à toutes les équipes extérieures sans qui rien n'aurait été possible</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sind drei Tage vorbei Tja, es sollt halt nicht sein Doch was soll's, ich bin fein Hab' nicht drauf gewartet Aber dann, nachts um vier Krieg' 'ne Nachricht von dir Als ob's mich jetzt interessiert Dass du grad' noch wach bist Hast gedacht ich steig' darauf ein Spiel dein Spielchen lieber allein Hab' dafür keine zeit mehr Bin dafür viel zu weit, yeah Hast gedacht, ich fall' darauf rein Hast gedacht, ich wär wohl so leicht Hab' dafür keine Zeit mehr Bin dafür viel zu weit, yeah Ruf mich, ruf mich nicht an Ich bin längst woanders Ruf mich nicht an Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir You might also like J'fais l'amour à mes problèmes Et cours après vie de bohème Depuis ma plus tendre enfance Tu sais que savoir dire je t'aime Nécessite une âme ancienne Et pourra même te rendre en transe Yeah, yeah, yeah J'ai gardé l'goût d'l'espoir J'oublie soucis dans un coup d'un soir Moi, j'viens d'en bas tout comme l'or noir Heute, la moon est wunderbar Alles klar, appelle-moi, tu tomberas sur messagerie J'suis à Los Angeles, voix chelou sur l'répondeur Quinze minutes de gloire, c'est pas assez pour une vie J'préfère les revivre toutes les vingt-quatre heure Trouve-moi dans la lumière Assis sous un éclat lunaire Faut quon transforme les secousses d'hier Avant d'redevenir poussière Ruf mich, ruf mich nicht an Ich bin längst woanders Ruf mich nicht an Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir</t>
+          <t>Sind drei Tage vorbei Tja, es sollt halt nicht sein Doch was soll's, ich bin fein Hab' nicht drauf gewartet Aber dann, nachts um vier Krieg' 'ne Nachricht von dir Als ob's mich jetzt interessiert Dass du grad' noch wach bist Hast gedacht ich steig' darauf ein Spiel dein Spielchen lieber allein Hab' dafür keine zeit mehr Bin dafür viel zu weit, yeah Hast gedacht, ich fall' darauf rein Hast gedacht, ich wär wohl so leicht Hab' dafür keine Zeit mehr Bin dafür viel zu weit, yeah Ruf mich, ruf mich nicht an Ich bin längst woanders Ruf mich nicht an Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir J'fais l'amour à mes problèmes Et cours après vie de bohème Depuis ma plus tendre enfance Tu sais que savoir dire je t'aime Nécessite une âme ancienne Et pourra même te rendre en transe Yeah, yeah, yeah J'ai gardé l'goût d'l'espoir J'oublie soucis dans un coup d'un soir Moi, j'viens d'en bas tout comme l'or noir Heute, la moon est wunderbar Alles klar, appelle-moi, tu tomberas sur messagerie J'suis à Los Angeles, voix chelou sur l'répondeur Quinze minutes de gloire, c'est pas assez pour une vie J'préfère les revivre toutes les vingt-quatre heure Trouve-moi dans la lumière Assis sous un éclat lunaire Faut quon transforme les secousses d'hier Avant d'redevenir poussière Ruf mich, ruf mich nicht an Ich bin längst woanders Ruf mich nicht an Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir Ich bin nicht na, na, na, na, na, na, na, nah bei dir Bin jetzt na, na, na, na, na, na, na, nah bei mir</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Oh-oh Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Oh-oh Déjà trois heures trente du matin, j'trouve toujours pas le sommeil, j'diverge J'pense à toi, ça m'réchauffe peu comme rayon de Soleil d'hiver On s'fait la guerre des décibels, dis-moi pourquoi t'as si mal Mais, c'est si dur de dire deux syllabes je t'aime T'as voulu rester calme voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux T'as pas ret'nu tes larms ret'nu tes larmes T's plus âgée mais au fond de l'âme, je reste le plus vieux Sans toi, tout paraît vide, comme cette mélodie, tu m'restes dans la tête Pourquoi tu disparais vite comme cette mélodie, tu m'restes dans la tête Sans toi, tout paraît vide, on s'était promis, monts et merveilles Avant qu'le temps n'intervienne, rien n'est éternel You might also like Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles J'pense à toi, j'm'ennuie, j'écris sur le bruit d'mes pas sous la pluie Je n'ai que des ruines comme fait la pluie T'as voulu rester calme voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux T'as pas ret'nu tes larmes ret'nu tes larmes T'es plus âgée mais au fond de l'âme, je reste le plus vieux Sans toi, tout paraît vide, comme cette mélodie, tu m'restes dans la tête Pourquoi tu disparais vite comme cette mélodie, tu m'restes dans la tête Sans toi, tout paraît vide, on s'était promis, monts et merveilles Avant qu'le temps n'intervienne, rien n'est éternel Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh T'as voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux Il veut qu'on l'appelle elle Je ne rentre pas dans vos cases</t>
+          <t>Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Oh-oh Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Oh-oh Déjà trois heures trente du matin, j'trouve toujours pas le sommeil, j'diverge J'pense à toi, ça m'réchauffe peu comme rayon de Soleil d'hiver On s'fait la guerre des décibels, dis-moi pourquoi t'as si mal Mais, c'est si dur de dire deux syllabes je t'aime T'as voulu rester calme voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux T'as pas ret'nu tes larms ret'nu tes larmes T's plus âgée mais au fond de l'âme, je reste le plus vieux Sans toi, tout paraît vide, comme cette mélodie, tu m'restes dans la tête Pourquoi tu disparais vite comme cette mélodie, tu m'restes dans la tête Sans toi, tout paraît vide, on s'était promis, monts et merveilles Avant qu'le temps n'intervienne, rien n'est éternel Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles J'pense à toi, j'm'ennuie, j'écris sur le bruit d'mes pas sous la pluie Je n'ai que des ruines comme fait la pluie T'as voulu rester calme voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux T'as pas ret'nu tes larmes ret'nu tes larmes T'es plus âgée mais au fond de l'âme, je reste le plus vieux Sans toi, tout paraît vide, comme cette mélodie, tu m'restes dans la tête Pourquoi tu disparais vite comme cette mélodie, tu m'restes dans la tête Sans toi, tout paraît vide, on s'était promis, monts et merveilles Avant qu'le temps n'intervienne, rien n'est éternel Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh Sauf les neiges éternelles Oh-oh, oh-oh Oh-oh, oh-oh, oh-oh Plus rien n'est éternel oh-oh T'as voulu rester calme Mais tu sonnais comme le son d'une arme, ce soir d'été pluvieux Il veut qu'on l'appelle elle Je ne rentre pas dans vos cases</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Les nénuphars se questionnent Pourquoi les hommes ne se contentent-ils pas d'aimer ? Nous ne sommes que la somme de deux étoiles qui postillonnent Un être du passé dans le miroir Un dieu de la mort sur l'épaule de gauche Un homme qui ne connait pas son histoire Une femme prête à tout qui frôle l'ébauche J'ai une main dans le charbon mais elle vaut de l'or L'autre main me demande si je peux voir l'au-delà Seul face au vide, je fais le saut de l'ange Mais la chute est amère comme l'eau de la mer J'vois mon amour-propre dans le regard des autres L'amour d'une femme cache les défauts de l'Homme J'vois mon amour-propre dans le regard des autres L'amour d'une femme cache les défauts de l'Homme Les nénuphars se questionnent Pourquoi les hommes ne se contentent-ils pas d'aimer ? Nous ne sommes que la somme de deux étoiles qui postillonnent On traverse Paris la vessie pleine Sous une pluie de décibels Puis, on en fait des récits Ce soir, la Lune était si belle Et ton regard si précis, j'apprécie Croque la vie même quand elle te tourne le dos Comme un amour non réciproque Et dire qu'on était si prochesYou might also like</t>
+          <t>Les nénuphars se questionnent Pourquoi les hommes ne se contentent-ils pas d'aimer ? Nous ne sommes que la somme de deux étoiles qui postillonnent Un être du passé dans le miroir Un dieu de la mort sur l'épaule de gauche Un homme qui ne connait pas son histoire Une femme prête à tout qui frôle l'ébauche J'ai une main dans le charbon mais elle vaut de l'or L'autre main me demande si je peux voir l'au-delà Seul face au vide, je fais le saut de l'ange Mais la chute est amère comme l'eau de la mer J'vois mon amour-propre dans le regard des autres L'amour d'une femme cache les défauts de l'Homme J'vois mon amour-propre dans le regard des autres L'amour d'une femme cache les défauts de l'Homme Les nénuphars se questionnent Pourquoi les hommes ne se contentent-ils pas d'aimer ? Nous ne sommes que la somme de deux étoiles qui postillonnent On traverse Paris la vessie pleine Sous une pluie de décibels Puis, on en fait des récits Ce soir, la Lune était si belle Et ton regard si précis, j'apprécie Croque la vie même quand elle te tourne le dos Comme un amour non réciproque Et dire qu'on était si proches</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Oy Yeah Lord Esperanza dans ta ville Montpellier Ramène nimporte quel rappeur français Trappeur suisse ou chanteur belge Jvais lui rappeler comment épeler LOR, cest le meilleur Les humilier mrassure mais ça mmène à r Jétais déjà fort, là, jsuis légendaire Jme fais leurs S-A-L-A-R En une demi-heure Jte respecte si tu lmérites Jsuis au dssus, tu me vois l'acter Dans leurs têtes, cest lAmérique Dans la mienne, cest la shhht Plus de rappeur que dauditeur, yah Petit, jdraguais baby-sitter, yah Trop dmini-moi, jdois gérer les naissances En régénérescence comme Petit-Cur, yah Jvais pas citer dblase tout rappeur qui mentoure sait que même si jle kiffe, jfinirai par le tuer Le prenez pas perso, jsuis né numéro uno chez moi, jai appris quon fait rien à moitié À lheure où jparle, oy Un immigré pète une barrière Oooh Un YouTubeur créé une carrière Jappelle ça du travail, tappelles ça du génie Jcommence dans Marion, jfinis dans Eugénie Jai vu ceux qui vendent mère pour te le vendre Dire tout est noir comme ce vendredi Ménagère veut autre article Prince du Qatar fait chauffer sa carte et les restes de lAntarctique Produire plus pour gagner moins, hein Tétait où quand jvalais rien ? Javais pourtant bien dit à tout ces galériens Je vise que le sommet donc accompagnez-moi Tant mieux si tu tretrouves dans mes propos, ay Jeunesse dorée dans la coco, ay Lord Esperanza, meilleur rappeur de lhistoire, jle jure sur la tête à Toto, ay Bloqués en 2005, ils sont comme Konami Dans cgame, jnai qudes intérêts, jnai aucun ami Jme sens comme Majid Jordan sous Blue Magic Ça mcritique puis ça mdit tétais où, my G ? Oooh Jles envoie tous se perdre dans Jumanji Jsuis chez Ruquier, ya de quoi rendre fou mamie 2018, Lord en surf sur le tsunamiYou might also like</t>
+          <t>Oy Yeah Lord Esperanza dans ta ville Montpellier Ramène nimporte quel rappeur français Trappeur suisse ou chanteur belge Jvais lui rappeler comment épeler LOR, cest le meilleur Les humilier mrassure mais ça mmène à r Jétais déjà fort, là, jsuis légendaire Jme fais leurs S-A-L-A-R En une demi-heure Jte respecte si tu lmérites Jsuis au dssus, tu me vois l'acter Dans leurs têtes, cest lAmérique Dans la mienne, cest la shhht Plus de rappeur que dauditeur, yah Petit, jdraguais baby-sitter, yah Trop dmini-moi, jdois gérer les naissances En régénérescence comme Petit-Cur, yah Jvais pas citer dblase tout rappeur qui mentoure sait que même si jle kiffe, jfinirai par le tuer Le prenez pas perso, jsuis né numéro uno chez moi, jai appris quon fait rien à moitié À lheure où jparle, oy Un immigré pète une barrière Oooh Un YouTubeur créé une carrière Jappelle ça du travail, tappelles ça du génie Jcommence dans Marion, jfinis dans Eugénie Jai vu ceux qui vendent mère pour te le vendre Dire tout est noir comme ce vendredi Ménagère veut autre article Prince du Qatar fait chauffer sa carte et les restes de lAntarctique Produire plus pour gagner moins, hein Tétait où quand jvalais rien ? Javais pourtant bien dit à tout ces galériens Je vise que le sommet donc accompagnez-moi Tant mieux si tu tretrouves dans mes propos, ay Jeunesse dorée dans la coco, ay Lord Esperanza, meilleur rappeur de lhistoire, jle jure sur la tête à Toto, ay Bloqués en 2005, ils sont comme Konami Dans cgame, jnai qudes intérêts, jnai aucun ami Jme sens comme Majid Jordan sous Blue Magic Ça mcritique puis ça mdit tétais où, my G ? Oooh Jles envoie tous se perdre dans Jumanji Jsuis chez Ruquier, ya de quoi rendre fou mamie 2018, Lord en surf sur le tsunami</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Let's go En combat constant contre moi-même Mohamed Ali dans l'miroir, j'boxe avec la même rage À leurs questions concernant l'avenir, j'ai toujours su quoi mettre en fin de page tout niquer Parler c'est bien, mais on change pas le monde dans des voyelles J'préfère tomber dans l'oubli que dans la moyenne Le politique pense que son costume le sépare bien de la pègr, quelle imposture Il nous déclar la guerre avec gardiens de la paix sombre cadeau Sur le boulevard, des mères en pleurs, douleur prend de l'ampleur J'ai donné, on m'a rendu J'ai gardé les bras tendus comme le Corcovado Noir La vérité n'est qu'un miroir brisé qui éclate tôt ou tard, nos reflets ne sont guère que des écrans vides On a les mains dans la merde, ils ont les mains dans des écrevisses Le monde est noir sous leurs lunettes Armani J'm'estime heureux car j'ai pu naître les mains libres Ça m'empêchera pas de chanter ma révolte en piano-voix tout comme Juliette Armanet On critiquera seulement c'que la foule moque J'ai côtoyé les ombres jusqu'au bout du tunnel puis j'ai fait marche arrière en moonwalk J'm'endors en comptant les traîtres, et j'ai aucun mal vu la liste Si l'marchand d'armes est un vendeur de mort, comment perçois-tu le buraliste ? You might also like Noir Tout est noir On va s'énerver un peu là Noir Troisième chapitre, j'tiens la tête du roi que le peuple décapite Je ne me sens bien que lorsque j'ai fini mon travail dès les premières lumières, quand le Soleil crépite Après nous, la fin du monde On craint pas nos pères, mais que le ciel qui gronde J'rappe jusqu'à c'que la glace fonde Mon égo cagoulé, sur la poitrine, il porte une bombe Depuis la cage aux lions, j'ai vu l'Diable sourire aux hyènes Les souvenirs reviennent en tyrolienne Maintenant, je rappe en hiéroglyphes L'enfer c'est vouloir plaire aux autres jure On s'voit dans l'monde d'après, mais pas que Deux pieds dans la flaque Maintenant je chante, car je m'ennuie quand je rappe Tape, quarante dans ma tête comme le CAC Quand est-ce que tu captes ? J'emmerde leurs statistiques, méthodes bien rangées C'est le son venu déranger directeurs artistiques J'écoute plus les critiques, j'réponds par le silence J'ai faim comme un jeune cadre dynamique dans la finance Ils te veulent unique, mais ils raffolent de c'qui marche Paramour Music, un peu trop abusif J'ai mis mes entrailles sur les plateformes de streaming Passation de pouvoir comme la dynastie Ming Quand vient la nuit, j'boxe avec sheitan mais ce n'est pas si dur Dans un paradoxe, mais j'y suis pas, j'y suis mais j'y suis plus Les vrais voyous portent des costumes Si le rap est mort, c'est mon album posthume Ciao Let's go Noir Ah ah ah</t>
+          <t>Let's go En combat constant contre moi-même Mohamed Ali dans l'miroir, j'boxe avec la même rage À leurs questions concernant l'avenir, j'ai toujours su quoi mettre en fin de page tout niquer Parler c'est bien, mais on change pas le monde dans des voyelles J'préfère tomber dans l'oubli que dans la moyenne Le politique pense que son costume le sépare bien de la pègr, quelle imposture Il nous déclar la guerre avec gardiens de la paix sombre cadeau Sur le boulevard, des mères en pleurs, douleur prend de l'ampleur J'ai donné, on m'a rendu J'ai gardé les bras tendus comme le Corcovado Noir La vérité n'est qu'un miroir brisé qui éclate tôt ou tard, nos reflets ne sont guère que des écrans vides On a les mains dans la merde, ils ont les mains dans des écrevisses Le monde est noir sous leurs lunettes Armani J'm'estime heureux car j'ai pu naître les mains libres Ça m'empêchera pas de chanter ma révolte en piano-voix tout comme Juliette Armanet On critiquera seulement c'que la foule moque J'ai côtoyé les ombres jusqu'au bout du tunnel puis j'ai fait marche arrière en moonwalk J'm'endors en comptant les traîtres, et j'ai aucun mal vu la liste Si l'marchand d'armes est un vendeur de mort, comment perçois-tu le buraliste ? Noir Tout est noir On va s'énerver un peu là Noir Troisième chapitre, j'tiens la tête du roi que le peuple décapite Je ne me sens bien que lorsque j'ai fini mon travail dès les premières lumières, quand le Soleil crépite Après nous, la fin du monde On craint pas nos pères, mais que le ciel qui gronde J'rappe jusqu'à c'que la glace fonde Mon égo cagoulé, sur la poitrine, il porte une bombe Depuis la cage aux lions, j'ai vu l'Diable sourire aux hyènes Les souvenirs reviennent en tyrolienne Maintenant, je rappe en hiéroglyphes L'enfer c'est vouloir plaire aux autres jure On s'voit dans l'monde d'après, mais pas que Deux pieds dans la flaque Maintenant je chante, car je m'ennuie quand je rappe Tape, quarante dans ma tête comme le CAC Quand est-ce que tu captes ? J'emmerde leurs statistiques, méthodes bien rangées C'est le son venu déranger directeurs artistiques J'écoute plus les critiques, j'réponds par le silence J'ai faim comme un jeune cadre dynamique dans la finance Ils te veulent unique, mais ils raffolent de c'qui marche Paramour Music, un peu trop abusif J'ai mis mes entrailles sur les plateformes de streaming Passation de pouvoir comme la dynastie Ming Quand vient la nuit, j'boxe avec sheitan mais ce n'est pas si dur Dans un paradoxe, mais j'y suis pas, j'y suis mais j'y suis plus Les vrais voyous portent des costumes Si le rap est mort, c'est mon album posthume Ciao Let's go Noir Ah ah ah</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Trop la dalle comme si j'avais ventre vide anh-anh On ne traîne qu'entre leads anh-anh On m'a dit de voir en grand donc j'ai placardé ma tête partout dans le centre-ville A 100 dans l'ouverture, charo la baby-sitter J'suis sous la couette je pense à ma prochaine couverture publicitaire Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens Ouh-ouuh allez viens On va t'apprendre la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine aïe aïe aïe Longue vie au roi Longue vie au roi Feuille d'or pour le testament L'avant-garde est japonaise Mais le moteur reste allemand Bâtir l'empire en haut de la to-do list J'crois qu'elle vient du Middle East Elle sait pas qui j'suis Donc elle me googlise Né entre cuisse de Jupiter et genou d'Atlas J'pull up sur le trône comme un mérovingien J'arrive dans l'club alors mets-nous 20 places La plu part qui en parle trop touche 0 vagin J'suis le genre d'homme qui défonce les portes Même quand je sors de la voiture c'est mon majordome J'arrive en ville on maccueille jordonne J'suis à 2 mètres du sol comme Michael Jordan You might also like Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens ah ouais ouais ouais Ouh-ouuh allez viens On vas t'apprendre la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine sku-skuu Pull up et fait tourner l'hélice hein-hein Poésie trash dans ta playlist ouais Flex on débarque en tyrolienne Pour que les auditeurs se fidélisent Tout en noir dans le vaisseau mère Les québécois disent tabarnak Les espagnols chantent ay Ppapi Les français m'disent ça tue sa mère J'suis resté intègre, j'ai juste augmenté le nombre de carats C'est tous des menteurs ils font même du ski en plein Sahara Ahahah Nous c'est les futurs millionnaires En randonnée l'avenir en missionnaire Étant donné que dans mon dictionnaire J'ai supprimé le mot abandonner Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens ah ouais ouais ouais Ouh-ouuh allez viens On vas t'apprendre la politesse la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine sku-skuu Politaine</t>
+          <t>Trop la dalle comme si j'avais ventre vide anh-anh On ne traîne qu'entre leads anh-anh On m'a dit de voir en grand donc j'ai placardé ma tête partout dans le centre-ville A 100 dans l'ouverture, charo la baby-sitter J'suis sous la couette je pense à ma prochaine couverture publicitaire Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens Ouh-ouuh allez viens On va t'apprendre la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine aïe aïe aïe Longue vie au roi Longue vie au roi Feuille d'or pour le testament L'avant-garde est japonaise Mais le moteur reste allemand Bâtir l'empire en haut de la to-do list J'crois qu'elle vient du Middle East Elle sait pas qui j'suis Donc elle me googlise Né entre cuisse de Jupiter et genou d'Atlas J'pull up sur le trône comme un mérovingien J'arrive dans l'club alors mets-nous 20 places La plu part qui en parle trop touche 0 vagin J'suis le genre d'homme qui défonce les portes Même quand je sors de la voiture c'est mon majordome J'arrive en ville on maccueille jordonne J'suis à 2 mètres du sol comme Michael Jordan Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens ah ouais ouais ouais Ouh-ouuh allez viens On vas t'apprendre la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine sku-skuu Pull up et fait tourner l'hélice hein-hein Poésie trash dans ta playlist ouais Flex on débarque en tyrolienne Pour que les auditeurs se fidélisent Tout en noir dans le vaisseau mère Les québécois disent tabarnak Les espagnols chantent ay Ppapi Les français m'disent ça tue sa mère J'suis resté intègre, j'ai juste augmenté le nombre de carats C'est tous des menteurs ils font même du ski en plein Sahara Ahahah Nous c'est les futurs millionnaires En randonnée l'avenir en missionnaire Étant donné que dans mon dictionnaire J'ai supprimé le mot abandonner Ouh-ouuh allez viens Tétais où quand je valais rien ? mais tétais où ? Ouh-ouuh Nouveau riche que des anciens galériens ah ouais ouais ouais Ouh-ouuh allez viens On vas t'apprendre la politesse la politesse Ouh-ouuh J'suis parisien j'ai l'élégance napolitaine sku-skuu Politaine</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yah, L.O, L.O.R Skula, Skula, Skula Au succès j'suis programmé comme l'obsolescence, j'bois la concurrence comme un Orangina J'suis vrai, aussi vrai qu'le 30 septembre est ma date de naissance, mon adolescence n'a vu qu'la tristesse comme bande originale Ils iront te dire qu'j'ai pas morflé, la valeur d'un homme s'voit dans sa loyauté J'ai fini ma nuit dans les bras d'Morphée, je commence ma journée en pleine royauté, hé, hé, hé J'ai commencé tout fier et toi ? J'remercie le ciel qui nous sert de toit J'ai écrit Drapeau Blanc dans la poussière d'étoiles Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Obscur et connu comme Bachar el-Assad, allez, j'alterne au feeling, j'm'acharne à la salle, woh Ils veulent plus de like, plus de like, plus de like, cinq dans ma tête comme Jackson, le meilleur comme Michael Rien à prouver, tout est trouvé, j'suis approuvé, les scientifiques veulent mes neurones dans l'éprouvette La maman à ma gauche écoute fort Maria, la 2000 à ma droite me parle de mariage Pieds sur terre, la tête dans les étoiles, j'mets la leur dans les toilettes, j'écris des mots sur toile J'suis dans l'château comme Marie-Antoinette, L.O.R, c'est l'avenir du rap en trois lettres L'argent, j'vais crever sans, j'vois l'bonheur dans des moments simples J'ai commencé dans cave sombre, aujourd'hui, j'rappe sur clavecin, j'avais peur comme une môme enceinte J'me rappelle que j'écrivais sans ma tête sur des écrans vissés, maintenant, j'digère l'écrevisse You might also like Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais</t>
+          <t>Yah, L.O, L.O.R Skula, Skula, Skula Au succès j'suis programmé comme l'obsolescence, j'bois la concurrence comme un Orangina J'suis vrai, aussi vrai qu'le 30 septembre est ma date de naissance, mon adolescence n'a vu qu'la tristesse comme bande originale Ils iront te dire qu'j'ai pas morflé, la valeur d'un homme s'voit dans sa loyauté J'ai fini ma nuit dans les bras d'Morphée, je commence ma journée en pleine royauté, hé, hé, hé J'ai commencé tout fier et toi ? J'remercie le ciel qui nous sert de toit J'ai écrit Drapeau Blanc dans la poussière d'étoiles Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Obscur et connu comme Bachar el-Assad, allez, j'alterne au feeling, j'm'acharne à la salle, woh Ils veulent plus de like, plus de like, plus de like, cinq dans ma tête comme Jackson, le meilleur comme Michael Rien à prouver, tout est trouvé, j'suis approuvé, les scientifiques veulent mes neurones dans l'éprouvette La maman à ma gauche écoute fort Maria, la 2000 à ma droite me parle de mariage Pieds sur terre, la tête dans les étoiles, j'mets la leur dans les toilettes, j'écris des mots sur toile J'suis dans l'château comme Marie-Antoinette, L.O.R, c'est l'avenir du rap en trois lettres L'argent, j'vais crever sans, j'vois l'bonheur dans des moments simples J'ai commencé dans cave sombre, aujourd'hui, j'rappe sur clavecin, j'avais peur comme une môme enceinte J'me rappelle que j'écrivais sans ma tête sur des écrans vissés, maintenant, j'digère l'écrevisse Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps cha Ola, ola, ola, ola, ouais Ola, ola, ola, ola, ouais</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Han! Yah! Leur carrière au Bangladesh, hold up, ouh Je traîne pas par ici car ça sent la dèche, hold up, ouh Là on turn up, on turn up, on turn up, on turn up Basses enflammées sur un morceau en ternaire T'auras pas ma reconnaissance éternelle Jamais eu besoin d'acheter vues sur internet 10 millions de streams, contrat trois cent mille E T'es bon qu'en 2007 t'es comme l'AC Milan Je veux pas du feat mais bon grazie mille Y a qu'un enfant du siècle et cela fait 1000 ans - hold up, ouh Tu pourras pas turn up comme nous 10 dans ma tête, chacun veut faire beaucoup de sous Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah You might also like Là j'arrive, yeah J'suis au-dessus, yeah It's funny man, phénomène, fais nous-même, yeah On s'illumine, y a du bruit, c'est nos fans, yeah yeah J'vais le faire tout bien J'étais même pas riche, yeah Meilleur à Paris, yeah J'oublie pas d'où je viens Leur avenir est dans du cellophane, yeah Je n'étais qu'un très jeune mélomane, yeah Je ne peux même plus répondre au téléphone, yeah Je leur mets vitesse lumière dans le Millenium, aie Elle veut que j'la ch elle est mignonne, aie Mais le temps c'est de l'argent j'veux Platinium Je ne suis pas de ceux qui brûlent leur peine dans l'aluminium, aie Olup, ouh Que des vautours autour Tu lui fais la cour Je lui fais l'amour Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah1</t>
+          <t>Han! Yah! Leur carrière au Bangladesh, hold up, ouh Je traîne pas par ici car ça sent la dèche, hold up, ouh Là on turn up, on turn up, on turn up, on turn up Basses enflammées sur un morceau en ternaire T'auras pas ma reconnaissance éternelle Jamais eu besoin d'acheter vues sur internet 10 millions de streams, contrat trois cent mille E T'es bon qu'en 2007 t'es comme l'AC Milan Je veux pas du feat mais bon grazie mille Y a qu'un enfant du siècle et cela fait 1000 ans - hold up, ouh Tu pourras pas turn up comme nous 10 dans ma tête, chacun veut faire beaucoup de sous Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Là j'arrive, yeah J'suis au-dessus, yeah It's funny man, phénomène, fais nous-même, yeah On s'illumine, y a du bruit, c'est nos fans, yeah yeah J'vais le faire tout bien J'étais même pas riche, yeah Meilleur à Paris, yeah J'oublie pas d'où je viens Leur avenir est dans du cellophane, yeah Je n'étais qu'un très jeune mélomane, yeah Je ne peux même plus répondre au téléphone, yeah Je leur mets vitesse lumière dans le Millenium, aie Elle veut que j'la ch elle est mignonne, aie Mais le temps c'est de l'argent j'veux Platinium Je ne suis pas de ceux qui brûlent leur peine dans l'aluminium, aie Olup, ouh Que des vautours autour Tu lui fais la cour Je lui fais l'amour Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh Plus d'idole, plus d'concurrents, nan nan Hold up, ouh Fuck l'école, j'ai trois comptes courants, ouais ouais Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah Hold up, ouh, yeah1</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Si tu doutes, arrête, vu la place qu'il y a On voit l'monde à grand échelle parce qu'il y a Pas d'autre choix, pour tous mes Jean Michel Basquiat Moi, j'écris ces lignes pour mes jeunes les moins solides Pour les destins insalubres, l'univers est insolite Ce soir, les fenêtres s'allument et les planètes s'alignent J'oublie pas jaloux que les sommes attisent On pardonne, on somatise Y a qu'en redescendant au plus bas de l'échelle qu'on voit la convoitise Devenir soi-même, c'est surmonter ses obsessions traumatiques Les problèmes disparaitront sans correction automatique J'ai croisé mon passé, j'lui ai dit sans rancune Des tentatives, y en a jamais assez même si t'en as qu'une J'ai croisé mon passé, j'lui ai dit sans rancune Car tout finit par s'effacer comme le rêve d'un somnambule, yeah On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Ouais, ouais On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères You might also like Décidément, j'avais des idées noires Ma peine en si bémol face à mes six démons Le jugement t'apprend rien sur qui est l'autre Mais te dit tout sur c'lui qui juge Rien est noir, rien est blanc Tout est gris, Dieu est grand Nous n'sommes que poussière d'étoiles, résidus bactériques La mort et ses menaces t'irritent ? Sur son contrat, j'ai lu l'astérisque Pendant ce temps, ma dynastie rie, tu vis mieux si tu espaces le risque Autour de moi, que des curs imprenables dans des grands engrenages comme Minastirite J'ai croisé mon passé, j'lui ai dit sans rancune Des tentatives, y en a jamais assez même si t'en as qu'une J'ai croisé mon passé, j'lui ai dit sans rancune Car tout finit par s'effacer comme le rêve d'un somnambule, yeah On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Ouais, ouais On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères</t>
+          <t>On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Si tu doutes, arrête, vu la place qu'il y a On voit l'monde à grand échelle parce qu'il y a Pas d'autre choix, pour tous mes Jean Michel Basquiat Moi, j'écris ces lignes pour mes jeunes les moins solides Pour les destins insalubres, l'univers est insolite Ce soir, les fenêtres s'allument et les planètes s'alignent J'oublie pas jaloux que les sommes attisent On pardonne, on somatise Y a qu'en redescendant au plus bas de l'échelle qu'on voit la convoitise Devenir soi-même, c'est surmonter ses obsessions traumatiques Les problèmes disparaitront sans correction automatique J'ai croisé mon passé, j'lui ai dit sans rancune Des tentatives, y en a jamais assez même si t'en as qu'une J'ai croisé mon passé, j'lui ai dit sans rancune Car tout finit par s'effacer comme le rêve d'un somnambule, yeah On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Ouais, ouais On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Décidément, j'avais des idées noires Ma peine en si bémol face à mes six démons Le jugement t'apprend rien sur qui est l'autre Mais te dit tout sur c'lui qui juge Rien est noir, rien est blanc Tout est gris, Dieu est grand Nous n'sommes que poussière d'étoiles, résidus bactériques La mort et ses menaces t'irritent ? Sur son contrat, j'ai lu l'astérisque Pendant ce temps, ma dynastie rie, tu vis mieux si tu espaces le risque Autour de moi, que des curs imprenables dans des grands engrenages comme Minastirite J'ai croisé mon passé, j'lui ai dit sans rancune Des tentatives, y en a jamais assez même si t'en as qu'une J'ai croisé mon passé, j'lui ai dit sans rancune Car tout finit par s'effacer comme le rêve d'un somnambule, yeah On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères Ouais, ouais On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères On a fait ce qu'on devait faire J'dissocie les affaires, les faux amis, les vrais frères</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Bonjour à toutes et à tous Bienvenue à bord du vaisseau 2323 Le personnel de bord est ravi de pouvoir vous accueillir et espère que vous passerez un agréable voyage Vous trouverez toutes les instructions nécessaires sur l'écran devant vous Vous pourrez vous restaurer en jeux de mots, techniques ancestrales ou autres structures futuristes dans la nacelle réservée à cet effet Par ailleurs, des verres de flow vous seront également servit La compagnie Only Nasa vous rappelle que toute substance illicite est naturellement autorisé à bord et vous souhaite un agréable voyage Mesdames et Monsieur, veuillez attacher vos ceintures, l'aventure va commencer J'ai bu la potion magique de mon gars Panoramix Si en soirée personne s'agite c'est qu'ils n'aiment pas nos remix A la fin du trajet, ça sera tragique si j'ai pas le panoramique A la fin du trajet, ça sera tragique si j'ai pas le panoramique T'écoute pas l'EP bah t'as qu'a pas parler A force d'avaler J'ai fini par croire que je pourrais mattabler Donc ce monde je me laccapare par les Moyens du bords faudrait s'y attarder Même si pour l'moment y'a pas d'sous wow Y'a beaucoup de rappeurs qui regarder Le but c'est d'sauver l'game Et si tu veux ramener des meufs hm Fais donc en sorte qu'elles soient pas trop laides 18 ans déjà signé je n'aurais pas pu rêver mieux Un public même pas ciblé et pourtant j't'assure Fais parfois halluciner Tellement paradoxal comme voir un babtou ténébreux Les anges m'entourent et dansent A tour à tour ils m'tournent autour Se noient dans ma fumée dense Et d'un seul coup je pense que La cour accourt comme un vautour Le prince les mettra en transe Bref Ils bougent la tête même s'ils sont sourdsYou might also like</t>
+          <t>Bonjour à toutes et à tous Bienvenue à bord du vaisseau 2323 Le personnel de bord est ravi de pouvoir vous accueillir et espère que vous passerez un agréable voyage Vous trouverez toutes les instructions nécessaires sur l'écran devant vous Vous pourrez vous restaurer en jeux de mots, techniques ancestrales ou autres structures futuristes dans la nacelle réservée à cet effet Par ailleurs, des verres de flow vous seront également servit La compagnie Only Nasa vous rappelle que toute substance illicite est naturellement autorisé à bord et vous souhaite un agréable voyage Mesdames et Monsieur, veuillez attacher vos ceintures, l'aventure va commencer J'ai bu la potion magique de mon gars Panoramix Si en soirée personne s'agite c'est qu'ils n'aiment pas nos remix A la fin du trajet, ça sera tragique si j'ai pas le panoramique A la fin du trajet, ça sera tragique si j'ai pas le panoramique T'écoute pas l'EP bah t'as qu'a pas parler A force d'avaler J'ai fini par croire que je pourrais mattabler Donc ce monde je me laccapare par les Moyens du bords faudrait s'y attarder Même si pour l'moment y'a pas d'sous wow Y'a beaucoup de rappeurs qui regarder Le but c'est d'sauver l'game Et si tu veux ramener des meufs hm Fais donc en sorte qu'elles soient pas trop laides 18 ans déjà signé je n'aurais pas pu rêver mieux Un public même pas ciblé et pourtant j't'assure Fais parfois halluciner Tellement paradoxal comme voir un babtou ténébreux Les anges m'entourent et dansent A tour à tour ils m'tournent autour Se noient dans ma fumée dense Et d'un seul coup je pense que La cour accourt comme un vautour Le prince les mettra en transe Bref Ils bougent la tête même s'ils sont sourds</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Majeur Mineur Goldstein Studio J'laisse tous mes détracteurs se manifester J'me demande bien qui t'a dit d'tester Tu veux percer ? Insiste On va t'infester fils d'inceste Je te laisse en R, j'te plie sur le feat J'peux pas t'assister, j'manie sens astral Je perpétue valeurs ancestrales, on vous baise de père en fils Au dessus depuis nonante-six Homme de pouvoir tout comme Berlusconi J'la tappe tellement fort j'vois ses bourrelets s'cogner J'lui donnais pas les textes qu'elle voulait scanner Concurrence se ramasse, traverse tout l'escalier Oy oy, je vous laisse canner J'peux pas finir ange déchu Mes ennemis mangent du shit Baise une beurette puis je la traite comme tel Rentre dans ta bitch comme drogue avec Montel Beaucoup parlent sur mon flow mais n'peuvent s'en équiper Drrrr, téléphone sonne, occupé La défaite résonne en toi comme l'son des cloches J'fais pas la guerre, j'sais c'que l'sang déclenche Parle sur moi pendant qu't'y es J'pourrais même jurer sur ta teucha Que la tienne n'est pas étanche Pose mon verre de vin sur son culo Pull up dans un Range Rover J'peux pas vésqui l'hangover, toi t'as fini la tête sous l'eau Suce moi dans la cabine quand j'm'inquiète, Audemars J'pense à la veille quand je m'inquiète de demain Tu nourris ton égo je ne fais qu'être au-delà J'calcule pas vos rappeurs tous en quête d'audimat Sache qu'on crache sur ton objectif J'baise ta gow mon gars c'est comment ? Met la vodka dans le milkshake Tout l'immeuble chauffe, poésie trash Putain d'rock star tout comme Mick Jagger J'fais doigt d'honneur pendant l'mugshot J'la baise encore dans l'Eurostar J'attends l'Master, dans une Jaguar Et j'finis l'Jäger' J'innove comme Oscar Niemeyer T'es ni l'moins bon, ni l'meilleurYou might also like2</t>
+          <t>Majeur Mineur Goldstein Studio J'laisse tous mes détracteurs se manifester J'me demande bien qui t'a dit d'tester Tu veux percer ? Insiste On va t'infester fils d'inceste Je te laisse en R, j'te plie sur le feat J'peux pas t'assister, j'manie sens astral Je perpétue valeurs ancestrales, on vous baise de père en fils Au dessus depuis nonante-six Homme de pouvoir tout comme Berlusconi J'la tappe tellement fort j'vois ses bourrelets s'cogner J'lui donnais pas les textes qu'elle voulait scanner Concurrence se ramasse, traverse tout l'escalier Oy oy, je vous laisse canner J'peux pas finir ange déchu Mes ennemis mangent du shit Baise une beurette puis je la traite comme tel Rentre dans ta bitch comme drogue avec Montel Beaucoup parlent sur mon flow mais n'peuvent s'en équiper Drrrr, téléphone sonne, occupé La défaite résonne en toi comme l'son des cloches J'fais pas la guerre, j'sais c'que l'sang déclenche Parle sur moi pendant qu't'y es J'pourrais même jurer sur ta teucha Que la tienne n'est pas étanche Pose mon verre de vin sur son culo Pull up dans un Range Rover J'peux pas vésqui l'hangover, toi t'as fini la tête sous l'eau Suce moi dans la cabine quand j'm'inquiète, Audemars J'pense à la veille quand je m'inquiète de demain Tu nourris ton égo je ne fais qu'être au-delà J'calcule pas vos rappeurs tous en quête d'audimat Sache qu'on crache sur ton objectif J'baise ta gow mon gars c'est comment ? Met la vodka dans le milkshake Tout l'immeuble chauffe, poésie trash Putain d'rock star tout comme Mick Jagger J'fais doigt d'honneur pendant l'mugshot J'la baise encore dans l'Eurostar J'attends l'Master, dans une Jaguar Et j'finis l'Jäger' J'innove comme Oscar Niemeyer T'es ni l'moins bon, ni l'meilleur2</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, yeah Ouh, ouh, ouh Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais Mélodie des oubliés, les rêves sont plus grandeur nature Pour ceux qui perdent leur sablier, ciel est un grand frère mature Tu vas l'faire me disent les gens, j'crois qu'en plus j'entends des voix J'm'apparente aux légendes car j'suis présent dans grand rendez-vous Mon passé vide de sens, future vie de prince, c'est fini l'innocence Mon cur est dev'nu froid comme soir de 10 décembre, oh Les pleurs, la sueur, le sang, y a qu'là qu'on se ressent Tout construire ensemble puis redev'nir des cendres Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net You might also like Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ? Non ho più il tempo di un giro in macchina con te Mon amour sono in stu' 24 su 7 Bevo rum, no Greygoose, braccio fuori che pende In un SUV bulletproof, fra', con tutta la gang gang Busy mood, sorry boo, non rispondo ai DM Però è cool dimmi tu se vuoi restiamo best friends Jimmy Choo, Gucci Boots, baby, cosa ti serve? Salta su e scendi giù, non devi fare niente Sono qua, bro, non so come ha fatto Ora ho ciò che voglio, fra', non lo sto più sognando Yeh, resto calmo, tu che fine hai fatto? Sei sparito, bro, e nemmeno ti stanno cercando Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ? Jamais bancal, chaussettes, sandales, en surf sur l'instrumentale Le cur s'emballe, sentimental, depuis qu'j'me suis senti monté Si tu me cherches, je n'suis pas là, j'ai su m'éloigner de ton emprise Les saisons passent comme décisions prises, le temps monotone donne des visons grises Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ?</t>
+          <t>Ouh, ouh, ouh, yeah Ouh, ouh, ouh Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais Mélodie des oubliés, les rêves sont plus grandeur nature Pour ceux qui perdent leur sablier, ciel est un grand frère mature Tu vas l'faire me disent les gens, j'crois qu'en plus j'entends des voix J'm'apparente aux légendes car j'suis présent dans grand rendez-vous Mon passé vide de sens, future vie de prince, c'est fini l'innocence Mon cur est dev'nu froid comme soir de 10 décembre, oh Les pleurs, la sueur, le sang, y a qu'là qu'on se ressent Tout construire ensemble puis redev'nir des cendres Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ? Non ho più il tempo di un giro in macchina con te Mon amour sono in stu' 24 su 7 Bevo rum, no Greygoose, braccio fuori che pende In un SUV bulletproof, fra', con tutta la gang gang Busy mood, sorry boo, non rispondo ai DM Però è cool dimmi tu se vuoi restiamo best friends Jimmy Choo, Gucci Boots, baby, cosa ti serve? Salta su e scendi giù, non devi fare niente Sono qua, bro, non so come ha fatto Ora ho ciò che voglio, fra', non lo sto più sognando Yeh, resto calmo, tu che fine hai fatto? Sei sparito, bro, e nemmeno ti stanno cercando Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ? Jamais bancal, chaussettes, sandales, en surf sur l'instrumentale Le cur s'emballe, sentimental, depuis qu'j'me suis senti monté Si tu me cherches, je n'suis pas là, j'ai su m'éloigner de ton emprise Les saisons passent comme décisions prises, le temps monotone donne des visons grises Oh ouais, oh ouais Laissez-moi sur ma planète Oh ouais, oh ouais J'crois qu'L.O, il est pas net Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? Elle m'dit T'es où, où, où, où, où ? Yeah Où, où, où, où ? J'te vois pas Où, où, où, où, où ? Yeah Où, où, où, où ? Où, où, où, où, où ? Yeah Où, où, où, où ?</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Lumière au fond du tunnel, est-ce le paradis paradis ? J'entends le chant des sirènes Est-ce le paradis paradis ? Lumière au fond du tunnel, est-ce le paradis paradis ? J'entends le chant des sirènes Comme si j'avais besoin de toujours tout inverser, voir le monde à l'envers paradis, paradis On a grandi trop vite, hier encore j'étais bercé par un grand courant d'air paradis, paradis Je me suis vu plonger, j'ai fini par m'brûler, pris dans les vents contraires paradis, paradis Même si j'y ai songé, j'ai jamais reculé, faut qu'j'déplace les frontières Pour en faire un paradis, ouais Pour en faire un paradis, ouais Après la mort on vit encore tant que l'on perdure dans la mémoire de nos proches J'ai toujours su retrouver mes souvenirs perdus grâce à la poussière qui s'accroche J'ai quitté mon corps, c'est fou Regard tourné vers les cieux, est-ce vraiment la récompense ? Le réel me parait flou Je pars, je ferme les yeux, j'accède à la vraie conscience Comme si j'avais besoin de toujours tout inverser, voir le monde à l'envers paradis, paradis On a grandi trop vite, hier encore j'étais bercé par un grand courant d'air paradis, paradis Je me suis vu plonger, j'ai fini par m'brûler, pris dans les vents contraires paradis, paradis Même si j'y ai songé, j'ai jamais reculé, faut qu'j'déplace les frontières Pour en faire un paradis, ouais Pour en faire un paradis, ouais You might also like Eh, sur moi cent c'est seulement un cercle J'peux pas compter sur toi pas l'choix faut qu'je m'en sorte seul J'suis dans ma fucking phase de merde Dans nos yeux jour et nuit que des cornes Dans la Audi fight tant le jeu est dangereux J'me mens à moi-même quand j'me dis qu'j'arrête quand j'veux On avait pas les sous, misère cachée sous le make-up J'me dis plus jamais, mais chaque fois je rappelle Y a d'la résine dans mes doutes Y a qu'la pression pour me wake up J'me remets dedans alors qu'j'en sors à peine Ouais, j'suis sé-po, hen Le bien, le mal sur les épaules, hen Oui, je sais pas, hen Toujours cassé rien n'me répare, hen Il m'faut quoi ? Pour en faire un paradis Pour en faire un paradis, ouais Pour en faire un paradis, ouais Lumière au fond du tunnel J'entends le chant des sirènes Pour en faire un paradis, ouais</t>
+          <t>Lumière au fond du tunnel, est-ce le paradis paradis ? J'entends le chant des sirènes Est-ce le paradis paradis ? Lumière au fond du tunnel, est-ce le paradis paradis ? J'entends le chant des sirènes Comme si j'avais besoin de toujours tout inverser, voir le monde à l'envers paradis, paradis On a grandi trop vite, hier encore j'étais bercé par un grand courant d'air paradis, paradis Je me suis vu plonger, j'ai fini par m'brûler, pris dans les vents contraires paradis, paradis Même si j'y ai songé, j'ai jamais reculé, faut qu'j'déplace les frontières Pour en faire un paradis, ouais Pour en faire un paradis, ouais Après la mort on vit encore tant que l'on perdure dans la mémoire de nos proches J'ai toujours su retrouver mes souvenirs perdus grâce à la poussière qui s'accroche J'ai quitté mon corps, c'est fou Regard tourné vers les cieux, est-ce vraiment la récompense ? Le réel me parait flou Je pars, je ferme les yeux, j'accède à la vraie conscience Comme si j'avais besoin de toujours tout inverser, voir le monde à l'envers paradis, paradis On a grandi trop vite, hier encore j'étais bercé par un grand courant d'air paradis, paradis Je me suis vu plonger, j'ai fini par m'brûler, pris dans les vents contraires paradis, paradis Même si j'y ai songé, j'ai jamais reculé, faut qu'j'déplace les frontières Pour en faire un paradis, ouais Pour en faire un paradis, ouais Eh, sur moi cent c'est seulement un cercle J'peux pas compter sur toi pas l'choix faut qu'je m'en sorte seul J'suis dans ma fucking phase de merde Dans nos yeux jour et nuit que des cornes Dans la Audi fight tant le jeu est dangereux J'me mens à moi-même quand j'me dis qu'j'arrête quand j'veux On avait pas les sous, misère cachée sous le make-up J'me dis plus jamais, mais chaque fois je rappelle Y a d'la résine dans mes doutes Y a qu'la pression pour me wake up J'me remets dedans alors qu'j'en sors à peine Ouais, j'suis sé-po, hen Le bien, le mal sur les épaules, hen Oui, je sais pas, hen Toujours cassé rien n'me répare, hen Il m'faut quoi ? Pour en faire un paradis Pour en faire un paradis, ouais Pour en faire un paradis, ouais Lumière au fond du tunnel J'entends le chant des sirènes Pour en faire un paradis, ouais</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ouh-ouh-ouh Hum-hum-hum L'amour, c'est dans le cur, la confiance, c'est dans les yeux Rêver sans bouger, c'est attendre un miracle en priant l'mauvais dieu Force aux miens qu'ont pas su s'taire, abimés par le système N'oubliez pas qu'la victoire n'est qu'une défaite qui insiste On essaie d'vivre libres, enfermés dans c'qu'on est pas Une personne qui t'encourage en vaut dix qu'encouragent tes faux départs Aucune vérité absolue, les réalités se pluralisent La vraie grandeur c'est d'être supérieur à celui qu'tu fus jadis Fermer les yeux quand mes souvenirs s'en allaient Douleur imprimée dans l'cerveau reptilien Comment grandir normal quand tes parents t'ignorent ? L'horizon est noire, vue de chaque méridien J'ai grandi dans un cauchemar de Tarantino Hypersensible, en une phrase je lis quarante signaux Ouh, ouh On suit son âme sur quitte à marcher dans ses pas Puis on dit pardon, même quand on n'le pense pas On croît trouver du réconfort dans une routine esquintante On garde des amis par nostalgie mais c'est parfois mieux quand ça reste qu'un temps La haine nous déshabille, comment lui résister ? Comme un poisson des abysses, elle a b'soin d'ombre pour exister J'deviens perfectionniste, j'ai mis cur sur disque dur, difficile d'enregistrer Y a des risques à prendre pour vendre des disques et des vices à perdre Puis j'ai compris qu'la musique, c'est qu'une affaire de chiffres et de chiffres d'affaires Pour le son, j'veux pas baisser d'un ton Pour ma mère, j'ai grandi plus vite quand mon oncle a sauté d'un pont You might also like Par amour, par amour, par amour Toi t'es bon tu t'mets des limites de temps sur Insta Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit Par amour, par amour J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Par amour, par amour J'oublie pas, mais j'ai pardonné D'abord Mes mots s'emmêlent, puis les égos s'en veulent Mes démons s'engueulent et ça nous rend émotionnels Par amour, on d'vient jaloux, mais si on l'est C'est juste qu'on a du mal à s'aimer soi-même, ouais Chante la détresse des curs de pierre J'me tais, c'est mon stylo qui parle, l'amour c'est avoir peur de perdre J'l'ai compris en voyant mon père sur un lit d'hôpital Tant d'beauté dans la laideur, un jour p't'être que j'l'apprécierai Pourquoi courir après l'chef-d'uvre, alors qu'c'est vous qui déciderai ? J'ai aussi aimé des gens qui m'ont rendu qu'des regrets Dans une relation chacun veut qu'sa version soit la vraie Pendant qu'la pellicule brûle On s'attire, on s'détruit comme deux astres qui se culbutent On peine à s'dire que l'on se plaît, perdus comme les reniés du soir Ironie du sort, le vide est c'que j'connais de plus peuplé L'ambition est belle, pourtant qu'est-ce qu'elle détruit J'préfère échouer avec mes erreurs qu'avec celles d'autrui En amour, l'égo est en tête, mais que peut faire le courant d'air face à la plus vieille des tempêtes C'est les mêmes qui te diront ils sont tous pareils Leur égo est plus fort tant qu'y aura des Hommes Ça s'arrêtera pas comme les peurs des parents des enfants disparus Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit Par amour, par amour J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Oh, oh-oh-oh, oh J'ai pardonné, j'ai oublié Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Par amour, par amour J'ai pardonné, j'ai oublié Par amour, par amour, par amour Par amour, par amour, par amour Par amour, par amour, par amour Par amour, par amour, par amour Peu importe le choix de vie, tout est question d'point d'vue Destin m'a donné rendez-vous, les étoiles chutent aux coins des rues Pour mes potes, qui serions nous sans nos deuxième familles ? On naît seul, on meurt seul, entre les deux on s'accompagne, attendant qu'les planètes s'alignent J'écris pour ceux qui se cachent au fond d'la salle, tous ceux qui portent qu'un seul jean Pour tous mes jeunes qu'ont d'la sappe, pour mes soldats dans les pogos, mes agitateurs qui disparaissent dans la foule, j'suis prestidigitateur J'monte sur scène, j'me reconnecte, j'écris pour ce jeune au premier rang en qui j'me reconnaît C'est pour celui qui cherche l'anonymat, celui qui n'applaudit pas Car même ça, ça fait trop d'bruit Peu importe la couleur, on a le même apport, la même peau J'ai compris qu'j'f'rai pas grand chose, si jamais je n'm'aimais pas J'préfère le chemin parcouru plutôt qu'la récompense La mort est elle l'arrêt qu'on pense ? Voilà à peu prêt tout, pour mon dernier discours Et toi, t'irais jusqu'où par amour ? Femme Qui croît aux âmes, tu vois ? Moi, moi. Voilà, imaginez le conseil des vieilles âmes. Et il dit - Qui a envie, donc, de regoûter au vent dans la branche, la douceur d'un baiser sur la peau, à des saveurs, à des épices, à des paysages ? - Moi, moi, moi - Donc Attention, euh, les jeunes âmes ne peuvent pas venir, alors voilà, vous choisissez - Donc Moi, j'veux ça, moi j'veux ça, moi j'veux ça - Attention, vous connaissez la règle du jeu. À partir du moment où vous vous incarnez, vous oubliez tout et vous r'dev'nez des humains Le conseil des vieilles âmes s'est réuni, l'âme qui était la tienne a choisi d's'incarner dans cette famille là, dans ce ventre là, avec ce père là, cette mère là, le package qui va avec et c'est ton package de vie. Donc honore la vie qui t'a été donnée. Euh, et ne-ne-ne-ne m'éprise pas ce que tout le monde voulait, c'est à dire goûter à nouveau des saveurs Lord Esperanza C'est comme un moyen d'dire aux gens, euh, acceptez votre existence Femme Life package acceptation, c'est le nom d'ma méthode Lord Esperanza L.P.A Life package acceptation Femme C'est le jour où tu le dis dans une chanson, c'est parce que j'l'ai déposé Lord Esperanza Ha ha ha ! J'te dois combien ? Femme C'est l'thème de mon prochain livre Lord Esperanza Bah oui, c'est génial, c'est un très bon thème</t>
+          <t>Ouh-ouh-ouh Hum-hum-hum L'amour, c'est dans le cur, la confiance, c'est dans les yeux Rêver sans bouger, c'est attendre un miracle en priant l'mauvais dieu Force aux miens qu'ont pas su s'taire, abimés par le système N'oubliez pas qu'la victoire n'est qu'une défaite qui insiste On essaie d'vivre libres, enfermés dans c'qu'on est pas Une personne qui t'encourage en vaut dix qu'encouragent tes faux départs Aucune vérité absolue, les réalités se pluralisent La vraie grandeur c'est d'être supérieur à celui qu'tu fus jadis Fermer les yeux quand mes souvenirs s'en allaient Douleur imprimée dans l'cerveau reptilien Comment grandir normal quand tes parents t'ignorent ? L'horizon est noire, vue de chaque méridien J'ai grandi dans un cauchemar de Tarantino Hypersensible, en une phrase je lis quarante signaux Ouh, ouh On suit son âme sur quitte à marcher dans ses pas Puis on dit pardon, même quand on n'le pense pas On croît trouver du réconfort dans une routine esquintante On garde des amis par nostalgie mais c'est parfois mieux quand ça reste qu'un temps La haine nous déshabille, comment lui résister ? Comme un poisson des abysses, elle a b'soin d'ombre pour exister J'deviens perfectionniste, j'ai mis cur sur disque dur, difficile d'enregistrer Y a des risques à prendre pour vendre des disques et des vices à perdre Puis j'ai compris qu'la musique, c'est qu'une affaire de chiffres et de chiffres d'affaires Pour le son, j'veux pas baisser d'un ton Pour ma mère, j'ai grandi plus vite quand mon oncle a sauté d'un pont Par amour, par amour, par amour Toi t'es bon tu t'mets des limites de temps sur Insta Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit Par amour, par amour J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Par amour, par amour J'oublie pas, mais j'ai pardonné D'abord Mes mots s'emmêlent, puis les égos s'en veulent Mes démons s'engueulent et ça nous rend émotionnels Par amour, on d'vient jaloux, mais si on l'est C'est juste qu'on a du mal à s'aimer soi-même, ouais Chante la détresse des curs de pierre J'me tais, c'est mon stylo qui parle, l'amour c'est avoir peur de perdre J'l'ai compris en voyant mon père sur un lit d'hôpital Tant d'beauté dans la laideur, un jour p't'être que j'l'apprécierai Pourquoi courir après l'chef-d'uvre, alors qu'c'est vous qui déciderai ? J'ai aussi aimé des gens qui m'ont rendu qu'des regrets Dans une relation chacun veut qu'sa version soit la vraie Pendant qu'la pellicule brûle On s'attire, on s'détruit comme deux astres qui se culbutent On peine à s'dire que l'on se plaît, perdus comme les reniés du soir Ironie du sort, le vide est c'que j'connais de plus peuplé L'ambition est belle, pourtant qu'est-ce qu'elle détruit J'préfère échouer avec mes erreurs qu'avec celles d'autrui En amour, l'égo est en tête, mais que peut faire le courant d'air face à la plus vieille des tempêtes C'est les mêmes qui te diront ils sont tous pareils Leur égo est plus fort tant qu'y aura des Hommes Ça s'arrêtera pas comme les peurs des parents des enfants disparus Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit Par amour, par amour J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Oh, oh-oh-oh, oh J'ai pardonné, j'ai oublié Par amour, j'ai tout donné, donc si on m'exclut Je n'me vexe pas, j'crois plus en l'espoir, j'crois en l'exploit J'oublie pas, mais j'ai pardonné Par amour, j'ai poussé mes limites dans mes extrêmes J'ai voulu bien faire, mais on s'fait du mal, sans faire exprès Par amour, par amour J'ai pardonné, j'ai oublié Par amour, par amour, par amour Par amour, par amour, par amour Par amour, par amour, par amour Par amour, par amour, par amour Peu importe le choix de vie, tout est question d'point d'vue Destin m'a donné rendez-vous, les étoiles chutent aux coins des rues Pour mes potes, qui serions nous sans nos deuxième familles ? On naît seul, on meurt seul, entre les deux on s'accompagne, attendant qu'les planètes s'alignent J'écris pour ceux qui se cachent au fond d'la salle, tous ceux qui portent qu'un seul jean Pour tous mes jeunes qu'ont d'la sappe, pour mes soldats dans les pogos, mes agitateurs qui disparaissent dans la foule, j'suis prestidigitateur J'monte sur scène, j'me reconnecte, j'écris pour ce jeune au premier rang en qui j'me reconnaît C'est pour celui qui cherche l'anonymat, celui qui n'applaudit pas Car même ça, ça fait trop d'bruit Peu importe la couleur, on a le même apport, la même peau J'ai compris qu'j'f'rai pas grand chose, si jamais je n'm'aimais pas J'préfère le chemin parcouru plutôt qu'la récompense La mort est elle l'arrêt qu'on pense ? Voilà à peu prêt tout, pour mon dernier discours Et toi, t'irais jusqu'où par amour ? Femme Qui croît aux âmes, tu vois ? Moi, moi. Voilà, imaginez le conseil des vieilles âmes. Et il dit - Qui a envie, donc, de regoûter au vent dans la branche, la douceur d'un baiser sur la peau, à des saveurs, à des épices, à des paysages ? - Moi, moi, moi - Donc Attention, euh, les jeunes âmes ne peuvent pas venir, alors voilà, vous choisissez - Donc Moi, j'veux ça, moi j'veux ça, moi j'veux ça - Attention, vous connaissez la règle du jeu. À partir du moment où vous vous incarnez, vous oubliez tout et vous r'dev'nez des humains Le conseil des vieilles âmes s'est réuni, l'âme qui était la tienne a choisi d's'incarner dans cette famille là, dans ce ventre là, avec ce père là, cette mère là, le package qui va avec et c'est ton package de vie. Donc honore la vie qui t'a été donnée. Euh, et ne-ne-ne-ne m'éprise pas ce que tout le monde voulait, c'est à dire goûter à nouveau des saveurs Lord Esperanza C'est comme un moyen d'dire aux gens, euh, acceptez votre existence Femme Life package acceptation, c'est le nom d'ma méthode Lord Esperanza L.P.A Life package acceptation Femme C'est le jour où tu le dis dans une chanson, c'est parce que j'l'ai déposé Lord Esperanza Ha ha ha ! J'te dois combien ? Femme C'est l'thème de mon prochain livre Lord Esperanza Bah oui, c'est génial, c'est un très bon thème</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Le nerf d'la guerre n'a pas d'odeur De murs, de morts De sons d'honneur Depuis naguère tout l'monde adhère Faut respecter le code d'honneur Le nerf d'la guerre n'a pas d'odeur Faut respecter le code d'honneur Hara kiri pour mon senseï, j'pourrais surement me suicider Faut pas céder Sont insensés mais seraient capable de sucer des bites Et si t'es deus, sache te soucier des Beatles Ouais, si t'es deus, sache te soucier des Beatles Débiter cent fois le beat eh Débuter sans voir le butin Devant ton monde, devient des putains Enbuter l'reste pour prendre le butin Diabétiques sont tous ces mutants Mais t'inquiète je mets des buts 1-2-3 feu partez, faut se porter vers Détroit 2-3 j'suis l'portier qui a su comment s'exporter Le business s'est bien importé Ce fait en partie en aparté Dans la rue j'peux me téléporter L'important c'fait en aparté La frappe touchera a 2-3 portant Comme le dos j'suis hors de porté J'ai les cartes les gens Oui j'écarte le jeu Claque des doigts et mon cartel agit Guettes les cartes et léger Oui je marque le jeu XXX que dès fois j'ai escorté les jupe 'Sperenza Sur la carte XXX Nique tes cartilages Notre quartier là je ne compte pas Dans l'il j'ai plus qu'un compas Pour ça qu'ils veulent tous qu'on parlent A personne tu n'me compare A personne tu n'me compare Dans l'il j'ai plus qu'un compas You might also like Je suis désorienté par toutes ses courbes orientales Je suis désorienté par toutes ses courbes orientales Je suis des Audis rentrés Des Audis rentrés Tout désorienté Des Audis rentrés Tout désorienté Le classique shit en dix minutes Puis j'disparais comme par magie Ces disciples ils diminuent Ça se dit paré mais part manger Les parts du gâteau sont tous gâté Je vois des gouttes XXX T'as pas du guetter les mains ganté Fiston guette on est pas Bogotta Pour de simples bagatelles Certains s'insultent, pas la peine Une rousse, une brune une blonde, une russe Ensuite je me fais la belle Ouais j'les compte même a la pelle, pour l'haltérophilie Mesdames, n'ayez pas la flemme, car j'alterne au feeling Au pire précise que y'a pas de para, nan De pierres précieuses de quatre carats En cas de carotte, soit pas parano Pas de carence, c'est le CAC 40 Au pire précise que y'a pas de para, nan De pierres précieuses de quatre carats En cas de carotte, soit pas parano' Pas de carence, si on panne XXX J'détèrre Excalibur, même ton ex collabore Tandis, qu'il s'agit de surtout ce que j'élabore Du génie quasi pur et du dure labeur Ça sonne pas si dure dès les premiers abords Rue de Californie pétasse à califourchon Avec laquelle il fornique, disons qu'elle en a prit pour son Tous les jours j'prend du niveau Mon meilleur son n'est pas écrit Bien-sûr que j'me dois d'innover Mais pas d'écrire tout mon mépris Désormais j'entame l'art nouveau Et d'ailleurs ça se fait sans répit Je suis désorienté par toutes ses courbes orientales Je suis désorienté par toutes ses courbes orientales Je suis des Audis rentrés Tout désorienté Je suis désorienté Tout désorienté J'ai vu les ennemis venimeux s'animer Venus mieux se miner dans les zones a nommer Des minots démunis facilement dominés Toujours dissimuler dans le zen, on nommait Les morceaux viennent de XXX La semaine ne cesse de m'harceler Nique Pégase j'ai un mort celé Tout ces aspects sont morcelés La bombe est désamorcé les gars La mort sans l'amour c'est laid Eh... La mort sans l'amour c'est laid</t>
+          <t>Le nerf d'la guerre n'a pas d'odeur De murs, de morts De sons d'honneur Depuis naguère tout l'monde adhère Faut respecter le code d'honneur Le nerf d'la guerre n'a pas d'odeur Faut respecter le code d'honneur Hara kiri pour mon senseï, j'pourrais surement me suicider Faut pas céder Sont insensés mais seraient capable de sucer des bites Et si t'es deus, sache te soucier des Beatles Ouais, si t'es deus, sache te soucier des Beatles Débiter cent fois le beat eh Débuter sans voir le butin Devant ton monde, devient des putains Enbuter l'reste pour prendre le butin Diabétiques sont tous ces mutants Mais t'inquiète je mets des buts 1-2-3 feu partez, faut se porter vers Détroit 2-3 j'suis l'portier qui a su comment s'exporter Le business s'est bien importé Ce fait en partie en aparté Dans la rue j'peux me téléporter L'important c'fait en aparté La frappe touchera a 2-3 portant Comme le dos j'suis hors de porté J'ai les cartes les gens Oui j'écarte le jeu Claque des doigts et mon cartel agit Guettes les cartes et léger Oui je marque le jeu XXX que dès fois j'ai escorté les jupe 'Sperenza Sur la carte XXX Nique tes cartilages Notre quartier là je ne compte pas Dans l'il j'ai plus qu'un compas Pour ça qu'ils veulent tous qu'on parlent A personne tu n'me compare A personne tu n'me compare Dans l'il j'ai plus qu'un compas Je suis désorienté par toutes ses courbes orientales Je suis désorienté par toutes ses courbes orientales Je suis des Audis rentrés Des Audis rentrés Tout désorienté Des Audis rentrés Tout désorienté Le classique shit en dix minutes Puis j'disparais comme par magie Ces disciples ils diminuent Ça se dit paré mais part manger Les parts du gâteau sont tous gâté Je vois des gouttes XXX T'as pas du guetter les mains ganté Fiston guette on est pas Bogotta Pour de simples bagatelles Certains s'insultent, pas la peine Une rousse, une brune une blonde, une russe Ensuite je me fais la belle Ouais j'les compte même a la pelle, pour l'haltérophilie Mesdames, n'ayez pas la flemme, car j'alterne au feeling Au pire précise que y'a pas de para, nan De pierres précieuses de quatre carats En cas de carotte, soit pas parano Pas de carence, c'est le CAC 40 Au pire précise que y'a pas de para, nan De pierres précieuses de quatre carats En cas de carotte, soit pas parano' Pas de carence, si on panne XXX J'détèrre Excalibur, même ton ex collabore Tandis, qu'il s'agit de surtout ce que j'élabore Du génie quasi pur et du dure labeur Ça sonne pas si dure dès les premiers abords Rue de Californie pétasse à califourchon Avec laquelle il fornique, disons qu'elle en a prit pour son Tous les jours j'prend du niveau Mon meilleur son n'est pas écrit Bien-sûr que j'me dois d'innover Mais pas d'écrire tout mon mépris Désormais j'entame l'art nouveau Et d'ailleurs ça se fait sans répit Je suis désorienté par toutes ses courbes orientales Je suis désorienté par toutes ses courbes orientales Je suis des Audis rentrés Tout désorienté Je suis désorienté Tout désorienté J'ai vu les ennemis venimeux s'animer Venus mieux se miner dans les zones a nommer Des minots démunis facilement dominés Toujours dissimuler dans le zen, on nommait Les morceaux viennent de XXX La semaine ne cesse de m'harceler Nique Pégase j'ai un mort celé Tout ces aspects sont morcelés La bombe est désamorcé les gars La mort sans l'amour c'est laid Eh... La mort sans l'amour c'est laid</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah Y'a que des vilains garçons dans le coin fumeur Oh yeah, yeah Petit prince, petit prince, petit prince de mauvaise humeur Yeah, yeah Y'a ceux qui parlent et y'a ceux qui font J'ai couronne sur la tête, j'ai main sur leur front J'sais plus qui est qui, devant l'empire qu'on fonde Les anges et les démons se regardent et se confondent Hey, je n'leur accorde pas l'respect moi j'suis vrai comme trop peu Et je vais le rester Même le Christ s'est fait tromper J'me vois pas finir rockstar à Saint-Tropez You might also like Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah J'vais peut-être mourir seul dans un fou rire tué par un fanatique Ici ce qui prône, c'est l'argent son vice A quoi bon le faire sans éthique ? Explique moi comment même nos propres fils Se tuent de l'intérieur pour se sentir vivre Vue sur le toit du monde Là où l'argent rend tous les gens immondes Demain est à ceux qui se lèvent de bonne heure J'ai fumé ma jeunesse dans une chambre de bonne Est-ce que j'cours à ma perte, ou bien après l'bonheur ? Couronne ensanglantée du champagne en carafe Encore un paragraphe où ma prose semble hantée Cerveau endommagé, ma vie en Do majeur Parle à mon cur ou à mon manager Parcours la France Essaie d'me trouver qui sait faire mieux J'irais le signer sur mon label Paramour Ce soir le diable joue à guichet fermé Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah Y'a que des vilains garçons dans le coin fumeur Oh yeah, yeah Petit prince, petit prince, petit prince de mauvaise humeur Oh yeah, yeah</t>
+          <t>Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah Y'a que des vilains garçons dans le coin fumeur Oh yeah, yeah Petit prince, petit prince, petit prince de mauvaise humeur Yeah, yeah Y'a ceux qui parlent et y'a ceux qui font J'ai couronne sur la tête, j'ai main sur leur front J'sais plus qui est qui, devant l'empire qu'on fonde Les anges et les démons se regardent et se confondent Hey, je n'leur accorde pas l'respect moi j'suis vrai comme trop peu Et je vais le rester Même le Christ s'est fait tromper J'me vois pas finir rockstar à Saint-Tropez Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah J'vais peut-être mourir seul dans un fou rire tué par un fanatique Ici ce qui prône, c'est l'argent son vice A quoi bon le faire sans éthique ? Explique moi comment même nos propres fils Se tuent de l'intérieur pour se sentir vivre Vue sur le toit du monde Là où l'argent rend tous les gens immondes Demain est à ceux qui se lèvent de bonne heure J'ai fumé ma jeunesse dans une chambre de bonne Est-ce que j'cours à ma perte, ou bien après l'bonheur ? Couronne ensanglantée du champagne en carafe Encore un paragraphe où ma prose semble hantée Cerveau endommagé, ma vie en Do majeur Parle à mon cur ou à mon manager Parcours la France Essaie d'me trouver qui sait faire mieux J'irais le signer sur mon label Paramour Ce soir le diable joue à guichet fermé Petit prince, petit prince, petit prince Arrogance j'connais pas politesse Ici c'est la loi de la jungle Comme toutes les mafias Napolitaines Hey Petit prince, petit prince, petit prince Petit prince, petit prince Petit prince, petit prince, petit prince Petit prince, petit prince yeah Y'a que des vilains garçons dans le coin fumeur Oh yeah, yeah Petit prince, petit prince, petit prince de mauvaise humeur Oh yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>J'ai même plus l'temps, j'les laisse parler Yeah Peu importe c'qu'ils diront, c'est pareil Eh C'est les mêmes qui veulent nous séparer Yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah J'ai décidé de m'écouter, penses-tu pouvoir faire la même ? Mes textes commencent les mains liées et finissent toujours par Amen On rmplace les hommes par l'appli', j'rmplace le doute par l'acquis Au fond d'toi, tu parles à qui ? Les mêmes questions sans réponse quand les plus faibles se dénoncent Quand les roses deviennent des ronces, quand les mots deviennent des monstres Puisqu'on a peur de la feuille blanche Feuille blanche J'oublie pas qu'au début le diable avait une gueule d'ange J'y laisse des plumes, mais j'ai pas perdu la mienne J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même Plus la même Étrange métier, je souffre pour toucher les autres On fait rien à moitié, beaucoup trop fier chez les nôtres No, no La plupart m'auraient jeté dans l'arène, avance tout droit, toute façon, ils parleront sans arrêt Sans arrêt Y a ceux qui veulent grossir et ceux qui veulent grandir L'horreur J'ai même plus l'temps, j'les laisse parler Ouh, ouh, yeah Peu importe c'qu'ils diront, c'est pareil C'qu'ils diront, c'est pareil, eh C'est les mêmes qui veulent nous séparer Séparer, yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah You might also like J'ai l'cur froid comme Sub-Zero Shu Bats les couilles de c'qu'ils pensent, j'suis serein Bats les couilles T'façon, les suceurs suceront Mmh, suceront, yeah Compliqué d'faire comme si rien ne changeait Tellement saoulé qu'mon cur en d'vient étanche Saoulé Quand les gens qu'tu pensais connaître deviennent étrangers Étrangers J'sais encore qui est sincère et qui me branche Qui vient pousser quand ça patine ? Ça patine, ouais Il sert à quoi l'capital sympathie ? Il sert à quoi ? Ouais J'ai frappé fort, tu l'avais pas prédit T'as trouvé ça crédible quand j'ai commencé à signer d'sacrés deals C'est qu'les blessures ont eu raison de moi Si t'entends plus d'mes nouvelles depuis des mois Sombre jeu, ma plume en est sortie noircie J'ai même plus l'temps, j'les laisse parler Ouh, ouh, yeah Peu importe c'qu'ils diront, c'est pareil C'qu'ils diront, c'est pareil, hen C'est les mêmes qui veulent nous séparer Séparer, yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah J'ai même plus l'temps, j'les laisse parler J'y laisse des plumes, mais j'ai pas perdu la mienne J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même, eh, j'ai même plus l'temps, j'les laisse parler La plupart m'auraient jeté dans l'arène, avance tout droit, toute façon, ils parleront sans arrêt toute façon, ils parleront sans arrêt, eh</t>
+          <t>J'ai même plus l'temps, j'les laisse parler Yeah Peu importe c'qu'ils diront, c'est pareil Eh C'est les mêmes qui veulent nous séparer Yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah J'ai décidé de m'écouter, penses-tu pouvoir faire la même ? Mes textes commencent les mains liées et finissent toujours par Amen On rmplace les hommes par l'appli', j'rmplace le doute par l'acquis Au fond d'toi, tu parles à qui ? Les mêmes questions sans réponse quand les plus faibles se dénoncent Quand les roses deviennent des ronces, quand les mots deviennent des monstres Puisqu'on a peur de la feuille blanche Feuille blanche J'oublie pas qu'au début le diable avait une gueule d'ange J'y laisse des plumes, mais j'ai pas perdu la mienne J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même Plus la même Étrange métier, je souffre pour toucher les autres On fait rien à moitié, beaucoup trop fier chez les nôtres No, no La plupart m'auraient jeté dans l'arène, avance tout droit, toute façon, ils parleront sans arrêt Sans arrêt Y a ceux qui veulent grossir et ceux qui veulent grandir L'horreur J'ai même plus l'temps, j'les laisse parler Ouh, ouh, yeah Peu importe c'qu'ils diront, c'est pareil C'qu'ils diront, c'est pareil, eh C'est les mêmes qui veulent nous séparer Séparer, yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah J'ai l'cur froid comme Sub-Zero Shu Bats les couilles de c'qu'ils pensent, j'suis serein Bats les couilles T'façon, les suceurs suceront Mmh, suceront, yeah Compliqué d'faire comme si rien ne changeait Tellement saoulé qu'mon cur en d'vient étanche Saoulé Quand les gens qu'tu pensais connaître deviennent étrangers Étrangers J'sais encore qui est sincère et qui me branche Qui vient pousser quand ça patine ? Ça patine, ouais Il sert à quoi l'capital sympathie ? Il sert à quoi ? Ouais J'ai frappé fort, tu l'avais pas prédit T'as trouvé ça crédible quand j'ai commencé à signer d'sacrés deals C'est qu'les blessures ont eu raison de moi Si t'entends plus d'mes nouvelles depuis des mois Sombre jeu, ma plume en est sortie noircie J'ai même plus l'temps, j'les laisse parler Ouh, ouh, yeah Peu importe c'qu'ils diront, c'est pareil C'qu'ils diront, c'est pareil, hen C'est les mêmes qui veulent nous séparer Séparer, yeah J'ai même plus l'temps, j'les laisse parler J'les laisse parler, yeah J'ai même plus l'temps, j'les laisse parler J'y laisse des plumes, mais j'ai pas perdu la mienne J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même J'suis si jeune et pourtant, j'me dis d'jà qu'c'est plus la même, eh, j'ai même plus l'temps, j'les laisse parler La plupart m'auraient jeté dans l'arène, avance tout droit, toute façon, ils parleront sans arrêt toute façon, ils parleront sans arrêt, eh</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Peur de perdre mes repères Peur de nsavoir faire le bien Peur de nsavoir pas bien le faire Peur de ne plus avoir peur Cest réconfortant comme la mélancolie Peur de tout faire vriller dans un élan dfolie Peur que le diable soit dans mon lit Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Peur dêtre oublié Peur de fuir le succès Maintenant quil y est Peur de npas transformer lessai Peur de ne pas remplir Bercy Toujours autant peur de ne plus recevoir de Merci Peur du décès Peur de maimer moi-même Peur, peur de me larmoyer Peur, peur dêtre dans la moyenne You might also likeJai peur de donner mon cur Toujours autant peur dvoir ma mère en pleurs Dune vie de regrets, dune vie de rancur Quelle couche avec moi car je suis rappeur Mes peurs shabituent Je mhabitue à mes peurs Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai fumé la purple, pour combattre mes peurs Nostalgique de la veille quand tombent les feuilles Jrêvais dun accueil au royaume des merveilles Nos peurs sont toutes inférieures En croisade Toi qui es si froide Caches-tu un feu intérieur ? Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai pas peur de</t>
+          <t>Peur de perdre mes repères Peur de nsavoir faire le bien Peur de nsavoir pas bien le faire Peur de ne plus avoir peur Cest réconfortant comme la mélancolie Peur de tout faire vriller dans un élan dfolie Peur que le diable soit dans mon lit Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Peur dêtre oublié Peur de fuir le succès Maintenant quil y est Peur de npas transformer lessai Peur de ne pas remplir Bercy Toujours autant peur de ne plus recevoir de Merci Peur du décès Peur de maimer moi-même Peur, peur de me larmoyer Peur, peur dêtre dans la moyenne Jai peur de donner mon cur Toujours autant peur dvoir ma mère en pleurs Dune vie de regrets, dune vie de rancur Quelle couche avec moi car je suis rappeur Mes peurs shabituent Je mhabitue à mes peurs Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai fumé la purple, pour combattre mes peurs Nostalgique de la veille quand tombent les feuilles Jrêvais dun accueil au royaume des merveilles Nos peurs sont toutes inférieures En croisade Toi qui es si froide Caches-tu un feu intérieur ? Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Jai mis peur sur un drapeau blanc, nos étreintes sur un drapeau noir oha-a oha-a Peur que laube se lève Peur dêtre obsolète Peur que laube se lève Peur dêtre obsolète oh-o oh-o oh-o oh-o Jai pas peur de</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>L-O L-O-R Majeur-Mineur Drapeau Blanc, 24 mai, Planète Rap Seul dans ma chambre d'hôtel C'est pas de ma faute si je te semble hautain Je suis venu au monde en tremblotant. hein Je suis qu'un petit fils de prolétaires en vogue Je repense à mon oncle sous héroïne sur un terrain vague Les vices de l'esprit, on fait avec Mon âme sur m'a dit fait un vu, j'en ai fait un rêve A lheure où jécris ce couplet je suis sur le toit de la ville Jredescends sur le boulevard hors de nerf Me trouves-tu orgueilleux si jte dis que jai fuis ma vie moyenne pour la rendre extraordinaire hein Nouvelle feuille blanche à magnifier Face aux femmes mon âme est faible, jai du mal à men méfier yeah On arrive dans ta ville pour tout retourner en une journée hah On repart quand le mal est fait Je touche mon rêve du bout du doigt Jai commencé guidé par le goût du risque jai trop faim Faut becqueter, jveux déconnecter comme un frère qui sallume un mou du rif You might also likeIl y a ceux qui se contentent den effet et il y a ceux qui touchent du bois Ceux qui font ce quils disent, ce qui disent quils font Avalanche de cauchemars, il y a tous mes désirs en ski de fond Vois-tu mon iris qui saigne hein Anesthésié sous whisky sec on oublie même que la banquise fond Le monde en feu sous écran haute définition Contemple lhorizon sur la côte du Finistère Putain dépoque, ma jeunesse doit tout changer Mais pour linstant elle finit ce ter Seul dans ma chambre dhôtel C'est pas de ma faute si jte semble hautain Je suis venu au monde en tremblotant Je suis parti sans répondre au tel. brrr Seul dans ma chambre dhôtel C'est pas de ma faute si je te semble hautain Je suis venu au monde en tremblotant Je vais repartir en tentant de le changer Toi tes coupable dêtre étranger Il y a ceux qui nécoutent que leurs rêves et ceux qui préfèrent être rangés Pas le choix entre vivre le danger et une vie quest juste épongée. ah merde Attendre que la paye tombe et poser ses congés On est congestionnés par le système qui ne fait que sauto-ronger Je dis ça mais jy pense allongé sur une chaise-longue verte, enfin bref Pour conclure si tu veux changer agis Arrêtes dy songer ah merde Ma France est raciste, oublie ses racines Tfaçon il y a pas de pays féérique Jme sens vivant à 200 sur une bretelle dautoroute Lesprit fait des ronds, jfais des tours de périphérique Dans ma tête, lamour et la haine ne font que permuter Le miroir reflète simplement léternité 2019 je vais record un album où jrappe en braille pour le faire leaker Ma peur chantée en la mineur est éliminée Jréfléchis dans lnoir la pièce est illuminée Ma république dis que le viol nest quun délit mineur Les curs sont couleur ceinture Teddy Riner Il y a ceux qui voient le monde, ceux qui font semblant Je mintéresse à mes descendants Jleur demande de lindulgence wow Jvois lOccident accidenté sur la bande darrêt durgence</t>
+          <t>L-O L-O-R Majeur-Mineur Drapeau Blanc, 24 mai, Planète Rap Seul dans ma chambre d'hôtel C'est pas de ma faute si je te semble hautain Je suis venu au monde en tremblotant. hein Je suis qu'un petit fils de prolétaires en vogue Je repense à mon oncle sous héroïne sur un terrain vague Les vices de l'esprit, on fait avec Mon âme sur m'a dit fait un vu, j'en ai fait un rêve A lheure où jécris ce couplet je suis sur le toit de la ville Jredescends sur le boulevard hors de nerf Me trouves-tu orgueilleux si jte dis que jai fuis ma vie moyenne pour la rendre extraordinaire hein Nouvelle feuille blanche à magnifier Face aux femmes mon âme est faible, jai du mal à men méfier yeah On arrive dans ta ville pour tout retourner en une journée hah On repart quand le mal est fait Je touche mon rêve du bout du doigt Jai commencé guidé par le goût du risque jai trop faim Faut becqueter, jveux déconnecter comme un frère qui sallume un mou du rif Il y a ceux qui se contentent den effet et il y a ceux qui touchent du bois Ceux qui font ce quils disent, ce qui disent quils font Avalanche de cauchemars, il y a tous mes désirs en ski de fond Vois-tu mon iris qui saigne hein Anesthésié sous whisky sec on oublie même que la banquise fond Le monde en feu sous écran haute définition Contemple lhorizon sur la côte du Finistère Putain dépoque, ma jeunesse doit tout changer Mais pour linstant elle finit ce ter Seul dans ma chambre dhôtel C'est pas de ma faute si jte semble hautain Je suis venu au monde en tremblotant Je suis parti sans répondre au tel. brrr Seul dans ma chambre dhôtel C'est pas de ma faute si je te semble hautain Je suis venu au monde en tremblotant Je vais repartir en tentant de le changer Toi tes coupable dêtre étranger Il y a ceux qui nécoutent que leurs rêves et ceux qui préfèrent être rangés Pas le choix entre vivre le danger et une vie quest juste épongée. ah merde Attendre que la paye tombe et poser ses congés On est congestionnés par le système qui ne fait que sauto-ronger Je dis ça mais jy pense allongé sur une chaise-longue verte, enfin bref Pour conclure si tu veux changer agis Arrêtes dy songer ah merde Ma France est raciste, oublie ses racines Tfaçon il y a pas de pays féérique Jme sens vivant à 200 sur une bretelle dautoroute Lesprit fait des ronds, jfais des tours de périphérique Dans ma tête, lamour et la haine ne font que permuter Le miroir reflète simplement léternité 2019 je vais record un album où jrappe en braille pour le faire leaker Ma peur chantée en la mineur est éliminée Jréfléchis dans lnoir la pièce est illuminée Ma république dis que le viol nest quun délit mineur Les curs sont couleur ceinture Teddy Riner Il y a ceux qui voient le monde, ceux qui font semblant Je mintéresse à mes descendants Jleur demande de lindulgence wow Jvois lOccident accidenté sur la bande darrêt durgence</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ola, ola, ola J'réfléchis dans l'noir, j'illumine la pièce J'vois l'manque de confiance, qui rumine, j'acquiesce Ola, ola, ola ola, ola, ola J'ai rappé ma peine J'affronte le miroir pour qu'la folie n'm'atteigne Quand ils m'reconnaissent, j'ai l'même sentiment que les guerriers du Péloponnèse sur les collines d'Athènes Ola, ola, ola ola, ola, ola J'me suis fait tout seul, perdu entre mes doutes Moi, j'n'suis qu'un gosse perdu Dis-moi pourquoi tu m'écoutes ? T'es qu'un souvenir, toile d'araignée que l'on a laissée sur les poutres You're just like me Poison Ivy Not there when I really feel ya Poison Ivy Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em You might also like Marcher des heures, oublier nos erreurs, n'avoir que l'aube comme frontière Soleil levant, j'te parle de demain lorsque les autres racontent hier Ola, ola, ola, ola, ola, ola Ola, ola, ola Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em You're just like me Poison Ivy Not there when I really feel ya Poison Ivy Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em I took that photo Didn't think that would be the last time I saw ya Saw ya Climbing up the three Climbing up to me Climbing, Poison Ivy Climbing</t>
+          <t>Ola, ola, ola J'réfléchis dans l'noir, j'illumine la pièce J'vois l'manque de confiance, qui rumine, j'acquiesce Ola, ola, ola ola, ola, ola J'ai rappé ma peine J'affronte le miroir pour qu'la folie n'm'atteigne Quand ils m'reconnaissent, j'ai l'même sentiment que les guerriers du Péloponnèse sur les collines d'Athènes Ola, ola, ola ola, ola, ola J'me suis fait tout seul, perdu entre mes doutes Moi, j'n'suis qu'un gosse perdu Dis-moi pourquoi tu m'écoutes ? T'es qu'un souvenir, toile d'araignée que l'on a laissée sur les poutres You're just like me Poison Ivy Not there when I really feel ya Poison Ivy Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em Marcher des heures, oublier nos erreurs, n'avoir que l'aube comme frontière Soleil levant, j'te parle de demain lorsque les autres racontent hier Ola, ola, ola, ola, ola, ola Ola, ola, ola Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em You're just like me Poison Ivy Not there when I really feel ya Poison Ivy Every day last summer You were gettin' high, uh? It got too hot to talk but now I'm caught up All about the plug with the spokes on his Impala And how he'd wait to make the drop until you all tried all em I took that photo Didn't think that would be the last time I saw ya Saw ya Climbing up the three Climbing up to me Climbing, Poison Ivy Climbing</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Le téléphone sonne, j'vois des rappeurs au taquet Critiquez, critiquez, critiquez Pas peur des tacles, j'sors du Uber-coptère dans une vapeur opaque Trop d'mojo pour un seul homme, tout schuss, j'suis en slalom Flow universel, j'dis welcome, bienvenue, shabbat shalom Mazeltov J'm'ennuie, j'prends leur colère et j'm'en sers en guise de tricot J'pars au soleil écrire l'album, j'reviens ici et puis j'hiberne Maman m'a dit Mon fils, il faut qu'tu remplisses le frigo J'suis revenu à la maison avec un nouveau frigidaire Pull-up, fion, vroum vroum, intérieur pastel full options J'suis cool à fond, j'vois L'Origine du Monde quand j'soulève son... Sur la toile, le talent s'étale, bêtise humaine est dev'nue monotone C'est nous qu'on perce, c'est nous qu'on a la dalle Et j'arrête quand j'ai trois étages à Manhattan, bip, bip J'vois que des pénis sur leur blason La couronne est lourde, ma tête s'habitue J'ai basket sur bitume, ah Ils n'ont que des tennis sur le gazon, yah Faut m'vouvoyer, ça fait du ring quand vous nous voyez J'utilise troisième il pour voir, yeah Le featuring te coûte douze loyers, yeah sauf FouKi Avant toute chose, on dit salut, avant toute chose, on dit wouah Avant toute chose, on dit salut, avant toute chose, on dit wouah Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh You might also like J'me sens fancy j'fume un marocco, mmh Bouge sur le track, ça fait mal au dos, mmh Tu fais la vedette sur les réseaux ? Mmh, mmh, mmh, mmh Moi, j'prends ma retraite à Monaco Started from le parc Laurier et maintenant sur la grosse, grosse, grosse, grosse, grosse, grosse scène La sauce est de Napoli yeah, j'mets mon tablier, j'cook, cook, cook, cook, oh man Pour la prod', aucune pitié, pour le show, aucune pitié La vie, c'pas trop compliqué, j'fais c'que j'aime pour les billets Hi, hi, hi Dans ma tourtière du wapiti, parfaite cuisson et bon appétit J'dessine ma vie à la Marini, mmh J'go hard comme Kawhi, j'suis sur le court, c'est la pagaille Oh my god, j'suis dans le travail, toi, t'es perdu dans le hi, hi, hi Avant toute chose, on dit salut, avant toute chose, on dit wouah Avant toute chose, on dit salut, avant toute chose, on dit wouah Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh</t>
+          <t>Le téléphone sonne, j'vois des rappeurs au taquet Critiquez, critiquez, critiquez Pas peur des tacles, j'sors du Uber-coptère dans une vapeur opaque Trop d'mojo pour un seul homme, tout schuss, j'suis en slalom Flow universel, j'dis welcome, bienvenue, shabbat shalom Mazeltov J'm'ennuie, j'prends leur colère et j'm'en sers en guise de tricot J'pars au soleil écrire l'album, j'reviens ici et puis j'hiberne Maman m'a dit Mon fils, il faut qu'tu remplisses le frigo J'suis revenu à la maison avec un nouveau frigidaire Pull-up, fion, vroum vroum, intérieur pastel full options J'suis cool à fond, j'vois L'Origine du Monde quand j'soulève son... Sur la toile, le talent s'étale, bêtise humaine est dev'nue monotone C'est nous qu'on perce, c'est nous qu'on a la dalle Et j'arrête quand j'ai trois étages à Manhattan, bip, bip J'vois que des pénis sur leur blason La couronne est lourde, ma tête s'habitue J'ai basket sur bitume, ah Ils n'ont que des tennis sur le gazon, yah Faut m'vouvoyer, ça fait du ring quand vous nous voyez J'utilise troisième il pour voir, yeah Le featuring te coûte douze loyers, yeah sauf FouKi Avant toute chose, on dit salut, avant toute chose, on dit wouah Avant toute chose, on dit salut, avant toute chose, on dit wouah Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh J'me sens fancy j'fume un marocco, mmh Bouge sur le track, ça fait mal au dos, mmh Tu fais la vedette sur les réseaux ? Mmh, mmh, mmh, mmh Moi, j'prends ma retraite à Monaco Started from le parc Laurier et maintenant sur la grosse, grosse, grosse, grosse, grosse, grosse scène La sauce est de Napoli yeah, j'mets mon tablier, j'cook, cook, cook, cook, oh man Pour la prod', aucune pitié, pour le show, aucune pitié La vie, c'pas trop compliqué, j'fais c'que j'aime pour les billets Hi, hi, hi Dans ma tourtière du wapiti, parfaite cuisson et bon appétit J'dessine ma vie à la Marini, mmh J'go hard comme Kawhi, j'suis sur le court, c'est la pagaille Oh my god, j'suis dans le travail, toi, t'es perdu dans le hi, hi, hi Avant toute chose, on dit salut, avant toute chose, on dit wouah Avant toute chose, on dit salut, avant toute chose, on dit wouah Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh Politesse, politesse, avant toute chose, on dit salut Politesse, politesse, avant toute chose, on dit wouh</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pour moi le bonheur Ce n'est qu'une succession De moments un peu moins tristes Parfois le miroir me questionne Pourquoi as-tu choisi d'être un artiste ? Certains sautent, d'autres titubent Face aux dangers de l'altitude Sur le pont des paradis perdus J'marche là où certaines mères cherchent en vain le fruit de leurs entrailles Là, où des curs se noient dans la solitude Là, où des âmes se perdent dans l'incertitude J'ai mon art dans la peau comme un je t'aime en braille J'écoute que mes étoiles J'attends leur alignement J'récupère ma plume sur un cygne noir Finalement, j'crois qu'mes envies me mentent Plus j'la traverse, plus la ville me hante À quoi bon devenir celui que je veux être Si c'est pour que mon ancienne vie me manque J'rêve de tout traverser, saisir le sablier et l'inverser J'me vois demander le monde puis l'obtenir et ne pas le remercier J'marche là où l'on court après l'echo des silences Où les différences sont c'que nous détestons Où les réponses n'apportent que des questions J'suis qu'un corps, un cur, un cur, un corps Le temps, l'amour et la confiance en nous sont les seules choses qui nous lient J'ai toujours autant peur d'retomber dans l'oubli Car cela fera renaître en moi l'enfant qui pleure encore Chaque jour, je repense au lendemain d'la veille Puis chaque jour, je repousse la date butoir Dire que j'ai pensé à me buter Puis j'ai même repoussé à plus tard En disant que je trouverais autre exutoire Quand l'miroir ne sait plus qui t'es En dépit du toi, le monde paraît beau Qu'une vie idéale, s'nourrit didéaux Les anges tombent du ciel Bruits sourds sur le parapluie J'me confie qu'à vous quand ça va plus Mes paradigmes perdurent Sur le pont des paradis perdus You might also like Certains sautent, d'autres titubent Sur le pont des paradis perdus Certains sautent, d'autres titubent Sur le pont des paradis perdus Paradis perdus, paradis perdus, paradis2</t>
+          <t>Pour moi le bonheur Ce n'est qu'une succession De moments un peu moins tristes Parfois le miroir me questionne Pourquoi as-tu choisi d'être un artiste ? Certains sautent, d'autres titubent Face aux dangers de l'altitude Sur le pont des paradis perdus J'marche là où certaines mères cherchent en vain le fruit de leurs entrailles Là, où des curs se noient dans la solitude Là, où des âmes se perdent dans l'incertitude J'ai mon art dans la peau comme un je t'aime en braille J'écoute que mes étoiles J'attends leur alignement J'récupère ma plume sur un cygne noir Finalement, j'crois qu'mes envies me mentent Plus j'la traverse, plus la ville me hante À quoi bon devenir celui que je veux être Si c'est pour que mon ancienne vie me manque J'rêve de tout traverser, saisir le sablier et l'inverser J'me vois demander le monde puis l'obtenir et ne pas le remercier J'marche là où l'on court après l'echo des silences Où les différences sont c'que nous détestons Où les réponses n'apportent que des questions J'suis qu'un corps, un cur, un cur, un corps Le temps, l'amour et la confiance en nous sont les seules choses qui nous lient J'ai toujours autant peur d'retomber dans l'oubli Car cela fera renaître en moi l'enfant qui pleure encore Chaque jour, je repense au lendemain d'la veille Puis chaque jour, je repousse la date butoir Dire que j'ai pensé à me buter Puis j'ai même repoussé à plus tard En disant que je trouverais autre exutoire Quand l'miroir ne sait plus qui t'es En dépit du toi, le monde paraît beau Qu'une vie idéale, s'nourrit didéaux Les anges tombent du ciel Bruits sourds sur le parapluie J'me confie qu'à vous quand ça va plus Mes paradigmes perdurent Sur le pont des paradis perdus Certains sautent, d'autres titubent Sur le pont des paradis perdus Certains sautent, d'autres titubent Sur le pont des paradis perdus Paradis perdus, paradis perdus, paradis2</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Junior Alaprod Jaime le silence entre les notes Laisse-moi ton corps Protèges ton cur On vend la mort Quoi ça técure Je nsuis que le reflet dmon époque Jeune et cupide, nest-ce pas rageant ? Je nsais même plus quoi faire de ma côte Un regard suffit pour quelle écarte les jambes B.O.L.N.O.A.R gravé dans la légende On descend du vaisseau pour les éclairer Maître Jedi en mission Eux ils rappent en levrette et sont libérés Leurs fiches chantent à lunisson A chaque nouvelle ligne elle est sidérée sidérée 90 des récits des rappeurs français ne sont pas à considérer MXD sur lécusson MXD sur lécusson Il reste des munitions pour clore les discussions Bang bang dans ton élocution Et on verra comment on sen tire Tas des rêves de grandeur ? Moi jai carrément pire La seule chance de men sortir Cest de bâtir un empire You might also like Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no Bang ! Tuer le rap cétait prémédité Jai médité sur cette habilité Tous les soirs tu mécoutes Et laprès-midi tes En pleine recherche de tout ce que jaime éditer Jai vu parmi mes doutes le talent léviter Dans lépicentre de la faille temporelle La mort aimerait me faucher Elle est très puissante mais sait pertinemment Que cest perdu davance et quje nai pas ltemps Pour elle, cest donc pour ça quelle est fâchée Cest donc pour ça quelle est fâchée Je viens davoir une révélation Nos cellules sont en constante régénération Jai lâme enfouie dans les recoins dun spectre Attendant que le ciel ne nous tombe sur la tête Né sous une bonne étoile Quest-ce que mes notes dévoient ? Jvais devenir celui que jai envie dêtre Hommage énorme à ma génération Tellement dépassée dès quon génère un son Mon imaginaire devenu magie noire Me permet de préparer mon élévation Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no Onlynasa cest la Cosa Nostra Et nos écrits sont rares Le Seigneur a béni mon art Pour apaiser ma colère Fils unique dune éruption solaire Venu marquer le temps lespace dun instant Le Don nécrit que pour éblouir les dômes La ligne est intemporelle Dans lépicentre de la faille temporelle Comme une étoile polaire On inverse la tendance pour désunir les pôles Onlynasa grave son nom dans lhistoire Je veux ma tour divoire, pour la victoire Jai le savoir dans mon fusil dépaule la seule chance cest dy croire Faut vider le Saint Graal si tas soif de pouvoir Deux-trois classiques dans ltiroir Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no</t>
+          <t>Junior Alaprod Jaime le silence entre les notes Laisse-moi ton corps Protèges ton cur On vend la mort Quoi ça técure Je nsuis que le reflet dmon époque Jeune et cupide, nest-ce pas rageant ? Je nsais même plus quoi faire de ma côte Un regard suffit pour quelle écarte les jambes B.O.L.N.O.A.R gravé dans la légende On descend du vaisseau pour les éclairer Maître Jedi en mission Eux ils rappent en levrette et sont libérés Leurs fiches chantent à lunisson A chaque nouvelle ligne elle est sidérée sidérée 90 des récits des rappeurs français ne sont pas à considérer MXD sur lécusson MXD sur lécusson Il reste des munitions pour clore les discussions Bang bang dans ton élocution Et on verra comment on sen tire Tas des rêves de grandeur ? Moi jai carrément pire La seule chance de men sortir Cest de bâtir un empire Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no Bang ! Tuer le rap cétait prémédité Jai médité sur cette habilité Tous les soirs tu mécoutes Et laprès-midi tes En pleine recherche de tout ce que jaime éditer Jai vu parmi mes doutes le talent léviter Dans lépicentre de la faille temporelle La mort aimerait me faucher Elle est très puissante mais sait pertinemment Que cest perdu davance et quje nai pas ltemps Pour elle, cest donc pour ça quelle est fâchée Cest donc pour ça quelle est fâchée Je viens davoir une révélation Nos cellules sont en constante régénération Jai lâme enfouie dans les recoins dun spectre Attendant que le ciel ne nous tombe sur la tête Né sous une bonne étoile Quest-ce que mes notes dévoient ? Jvais devenir celui que jai envie dêtre Hommage énorme à ma génération Tellement dépassée dès quon génère un son Mon imaginaire devenu magie noire Me permet de préparer mon élévation Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no Onlynasa cest la Cosa Nostra Et nos écrits sont rares Le Seigneur a béni mon art Pour apaiser ma colère Fils unique dune éruption solaire Venu marquer le temps lespace dun instant Le Don nécrit que pour éblouir les dômes La ligne est intemporelle Dans lépicentre de la faille temporelle Comme une étoile polaire On inverse la tendance pour désunir les pôles Onlynasa grave son nom dans lhistoire Je veux ma tour divoire, pour la victoire Jai le savoir dans mon fusil dépaule la seule chance cest dy croire Faut vider le Saint Graal si tas soif de pouvoir Deux-trois classiques dans ltiroir Pose, ose Permettez-moi simplement dajouter une dose, ose On signe le contrat que si on établit toutes les clauses, pose Osez qui pourra, quel quiproquo Hey ho no no no no</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>J'ai pas besoin de ton aide babe, j'finis seul au sommet J'te trompe et je suis honnête babe, t'as fini par me connaître J'ai pas besoin de ton aide babe, j'finis dans ton sommeil J'deviens celui que j'dois être babe, j'ai vu rougir tes pomettes Je t'aime que pour ce soir, it's alright Les mains tendues vers le ciel so oh my J'ai besoin de ton aide babe, j'vois plus la fin d'la semaine J'me trompe et je suis honnête babe, mon cur est sous ta semelle On s'aimait par habitude Je titube sur le bitume J'me suis perdu dans un torrent de pensées L'amour t'hypnotise et te rend dépensier Je t'aime que pour ce soir, it's alright Nos corps s'entrelaceront all night J'ai besoin de ton aide babe, déjà que nos egos s'emmêlent J'te trompe et je suis honnête babe, désert émotionnel Fuis-moi je t'aime, ton âme aussi m'a jeté J'ai choisi d'noyer ma peine pour aussi instaurer c'climat de paix Plus habile que nos pères, on maquille nos peines Pendant qu'ils pillent nos terres et déshabillent nos surs Mes mains tendus vers le ciel, oh my Le sang chaud lord d'une énième cold night Je t'aime que pour ce soir, it's alright Je t'aime que pour ce soir, it's alrightYou might also like</t>
+          <t>J'ai pas besoin de ton aide babe, j'finis seul au sommet J'te trompe et je suis honnête babe, t'as fini par me connaître J'ai pas besoin de ton aide babe, j'finis dans ton sommeil J'deviens celui que j'dois être babe, j'ai vu rougir tes pomettes Je t'aime que pour ce soir, it's alright Les mains tendues vers le ciel so oh my J'ai besoin de ton aide babe, j'vois plus la fin d'la semaine J'me trompe et je suis honnête babe, mon cur est sous ta semelle On s'aimait par habitude Je titube sur le bitume J'me suis perdu dans un torrent de pensées L'amour t'hypnotise et te rend dépensier Je t'aime que pour ce soir, it's alright Nos corps s'entrelaceront all night J'ai besoin de ton aide babe, déjà que nos egos s'emmêlent J'te trompe et je suis honnête babe, désert émotionnel Fuis-moi je t'aime, ton âme aussi m'a jeté J'ai choisi d'noyer ma peine pour aussi instaurer c'climat de paix Plus habile que nos pères, on maquille nos peines Pendant qu'ils pillent nos terres et déshabillent nos surs Mes mains tendus vers le ciel, oh my Le sang chaud lord d'une énième cold night Je t'aime que pour ce soir, it's alright Je t'aime que pour ce soir, it's alright</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Il me reste encore en tête quelques morceaux de souvenirs À l'époque, t'attirais tout mon corps comme un trou de ver Tu voulais jouer pour me nuire Avant d'sécher tes larmes en diamant dans un courant d'air J'ai fini par quitter ma zone de confort, le ciel souffre Trous dans couche d'ozone me confortent Lorsque les nuages recouvraient nos rêves de grandeur Ta dernière image s'ouvrait sur une lèvre demandeuse On s'fait du mal, on s'évite, très loin de la dolce vita Chérie tu sais, tu sévis tard comme le froid bolchevique Tu m'as paru inévitable, j'ai même dessiné un câble Entre ton il et ton âme pour en faire un tableau de Pablo Désert de peur, comment pourrais-je unifier ces grains d'sable Alors que j'reste qu'un enfant face aux problèmes qui l'accablent ? Le cur décapité macabre, proche de Fleck et d'son sourire mesquin J'me dois d'harponner l'destin tout comme le capitaine Achab L'illusion est addictive, personne ne va m'piquer ma came Trop d'visions fictives, comment faire abdiquer c'vacarme ? Ça fait des mois qu'j'ai l'impression de revivre notre première fois J'demande pardon à mes parts d'ombre, que la lumière soit Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita You might also like J'nous revois courir dans des ruelles, cachés derrière nos subterfuges Au début, j'étais susceptible puis la lumière fut De nature, j'suis sceptique, j'ai ce vrai côté John Doe Mais t'emporte tout derrière toi comme une mélodie crescendo J'ai dû taper du poing pour pas qu'tu m'files entre les doigts Puis tu m'as fait du pied d'manière adroite dans le café du coin Je conserve nos voyages ancrés dans l'fond de ma mémoire J'pensais pas que tu m'apporterais tant de déboires Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita Alors c'est l'heure où les regrets reviennent À s'demander c'qui reste après Les souvenirs tournent en boucle comme dans l'cerveau d'un rescapé Mon cur est une plage après la vague de trente-six mètres T'oublier, il est grand tant d's'y mettre J'm'étais dit À la vie, à la mort mais mon bonheur est masqué Après l'orage, les paysages sont périssables et souvent dévastés En attendant, j'traîne ma carcasse dans nos immensités Espérant voir un jour les éléments réunis pour ne former qu'une seule immensité Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita2</t>
+          <t>Il me reste encore en tête quelques morceaux de souvenirs À l'époque, t'attirais tout mon corps comme un trou de ver Tu voulais jouer pour me nuire Avant d'sécher tes larmes en diamant dans un courant d'air J'ai fini par quitter ma zone de confort, le ciel souffre Trous dans couche d'ozone me confortent Lorsque les nuages recouvraient nos rêves de grandeur Ta dernière image s'ouvrait sur une lèvre demandeuse On s'fait du mal, on s'évite, très loin de la dolce vita Chérie tu sais, tu sévis tard comme le froid bolchevique Tu m'as paru inévitable, j'ai même dessiné un câble Entre ton il et ton âme pour en faire un tableau de Pablo Désert de peur, comment pourrais-je unifier ces grains d'sable Alors que j'reste qu'un enfant face aux problèmes qui l'accablent ? Le cur décapité macabre, proche de Fleck et d'son sourire mesquin J'me dois d'harponner l'destin tout comme le capitaine Achab L'illusion est addictive, personne ne va m'piquer ma came Trop d'visions fictives, comment faire abdiquer c'vacarme ? Ça fait des mois qu'j'ai l'impression de revivre notre première fois J'demande pardon à mes parts d'ombre, que la lumière soit Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita J'nous revois courir dans des ruelles, cachés derrière nos subterfuges Au début, j'étais susceptible puis la lumière fut De nature, j'suis sceptique, j'ai ce vrai côté John Doe Mais t'emporte tout derrière toi comme une mélodie crescendo J'ai dû taper du poing pour pas qu'tu m'files entre les doigts Puis tu m'as fait du pied d'manière adroite dans le café du coin Je conserve nos voyages ancrés dans l'fond de ma mémoire J'pensais pas que tu m'apporterais tant de déboires Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita Alors c'est l'heure où les regrets reviennent À s'demander c'qui reste après Les souvenirs tournent en boucle comme dans l'cerveau d'un rescapé Mon cur est une plage après la vague de trente-six mètres T'oublier, il est grand tant d's'y mettre J'm'étais dit À la vie, à la mort mais mon bonheur est masqué Après l'orage, les paysages sont périssables et souvent dévastés En attendant, j'traîne ma carcasse dans nos immensités Espérant voir un jour les éléments réunis pour ne former qu'une seule immensité Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Encore un petit peu de douceur avant l'dernier silence de nos deux corps sous terre Dolce vita, dolce vita Relier toutes tes tâches de rousseur comme une étoile filante et toutes ces poussières Dolce vita, dolce vita2</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ma chambre a la forme d'une cage Le soleil passe son bras par la fenêtre Les chasseurs à ma porte Comme les p'tits soldats Qui veulent me prendre Bien plus qu'un monarque à mon âge J'ai compris l'rap et ses manèges Compte plus les cordes à mon arc Depuis qu'le poids d'ma plume s'allège Creuse tes méninges et trouve des perles Ca déménage ma vague déferle Ou ça ? Dans Paris que je trouve si belle sous la neige Bah ouais l'ami, faudrait s'mettre aux normes On m'a demandé de faire un mètre énorme Maître en herbe, on les met d'accord Y'a bien trop de mandats sur mon métronome J'aime bien remettre au lendemain Les fait sans che-mar par quatre chemins Les Butte-Chaumont c'est par chez moi Le chemin se fait sur parchemin J'y songe et pense aux souvenirs Vu que le meilleur reste à venir Attendant de voir les sous venir J'ai déjà préparé mon avenir Bah ouais j'viens bien de Paris Nord Mais ma seule direction c'est l'Est J'suis dans une dimension céleste You might also like On est posés au calme Va savoir pourquoi cette demoiselle marche bancale Moi, que de la weed dans mon pochtard Et sache que si les choses se corsent, on ira autre part Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Et je marche, je fais mes bails C'est sur bientôt, j'me fait la malle Si jeune et déja àl Je mapprête à prendre le large Tu sais, à vrai dire, je n'ai jamais encore vu la plage Le stress de Paname me fait prendre de l'âge J'réfléchis et marche seul Plus j'avance, j'remarque que Je ne suis que de passage Dans le passé pour vivre en marge Donc je reste, je prendrai le mic Mais sachez bien que pour le reste Je ne veux pas travailler Me lever tôt, rentrez tard Un smic ou faire du sale Puis quoi vendre mon âme Tu vas faire quoi si j'ai pas envie Mais à qui est ce que tu parles T'es pas ma pote, on est pas amis A défaut d'être bonne, tu perd la tête et parle mal Ca je ne veux pas.... On est posés au calme Va savoir pourquoi cette demoiselle marche bancale Moi, que de la weed dans mon pochtard Et sache que si les choses se corsent on ira autre part Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume</t>
+          <t>Ma chambre a la forme d'une cage Le soleil passe son bras par la fenêtre Les chasseurs à ma porte Comme les p'tits soldats Qui veulent me prendre Bien plus qu'un monarque à mon âge J'ai compris l'rap et ses manèges Compte plus les cordes à mon arc Depuis qu'le poids d'ma plume s'allège Creuse tes méninges et trouve des perles Ca déménage ma vague déferle Ou ça ? Dans Paris que je trouve si belle sous la neige Bah ouais l'ami, faudrait s'mettre aux normes On m'a demandé de faire un mètre énorme Maître en herbe, on les met d'accord Y'a bien trop de mandats sur mon métronome J'aime bien remettre au lendemain Les fait sans che-mar par quatre chemins Les Butte-Chaumont c'est par chez moi Le chemin se fait sur parchemin J'y songe et pense aux souvenirs Vu que le meilleur reste à venir Attendant de voir les sous venir J'ai déjà préparé mon avenir Bah ouais j'viens bien de Paris Nord Mais ma seule direction c'est l'Est J'suis dans une dimension céleste On est posés au calme Va savoir pourquoi cette demoiselle marche bancale Moi, que de la weed dans mon pochtard Et sache que si les choses se corsent, on ira autre part Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Et je marche, je fais mes bails C'est sur bientôt, j'me fait la malle Si jeune et déja àl Je mapprête à prendre le large Tu sais, à vrai dire, je n'ai jamais encore vu la plage Le stress de Paname me fait prendre de l'âge J'réfléchis et marche seul Plus j'avance, j'remarque que Je ne suis que de passage Dans le passé pour vivre en marge Donc je reste, je prendrai le mic Mais sachez bien que pour le reste Je ne veux pas travailler Me lever tôt, rentrez tard Un smic ou faire du sale Puis quoi vendre mon âme Tu vas faire quoi si j'ai pas envie Mais à qui est ce que tu parles T'es pas ma pote, on est pas amis A défaut d'être bonne, tu perd la tête et parle mal Ca je ne veux pas.... On est posés au calme Va savoir pourquoi cette demoiselle marche bancale Moi, que de la weed dans mon pochtard Et sache que si les choses se corsent on ira autre part Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume Je ne veux pas travailler Je ne veux pas déjeuner Je veux seulement l'oublier Et puis je fume</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Nous nous sommes que deux curs qui se tournent le dos Toi tu tendors, le visage ronger par l'inquiétude inquiétude Toujours la même réponse à mon Qui es-tu ? Qui es-tu ? Tous les murs sur mon lit n'existe plus comme les coïncidence Dans ton regard, un ravin secret Ici, les roses aussi dansent quand la nuit tarde sur nos jardins secret Nos chemins se séparent, pare, pare Mais mûrissent encore tous nos soirs d'un regret Les nuages noir font ainsi sens sur le quai de la gare, gare, gare Sache que seul ton absence cause un silence Tu sais, j'suis qu'un homme Moi aussi j'ai mes défauts Tu sais, j'suis qu'un homme Je peux distinguer le vrai du faux Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme You might also like Tu ne pardonnes qu'a moitié, mes promesses nos tenus, contenus de leurs contenus J't'ai laissé des points de suspension, des pourquoi, des regards suspicieux, nos empires de spacieux , et compose les, l'univers en expansion Si je ne savais, si vieillesse pouvais Je sais que j'ai retiré ton cur, hey Jette ta rancune et ta rancur, hey nos cur hey Alors t'en vois un autre, si je t'en rends qu'une, chaque jour du recul et cela m'écure Celui que je serai demain, rêve de reconstruire notre sphère demain, oh no Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Moi aussi j'ai mes défauts Moi aussi j'ai mes défauts Tu sais j'suis qu'un homme Tu sais, Tu sais Je peux distinguer le vrai du faux Je peux distinguer le vrai du faux Tu sais, j'suis qu'un homme, oui Tu sais, j'suis qu'un homme tu sais Tu sais, j'suis qu'un homme tu sais Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais j'suis qu'un homme Tu sais, tu sais Tu sais j'suis qu'un homme Moi aussi j'ai mes défauts</t>
+          <t>Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Nous nous sommes que deux curs qui se tournent le dos Toi tu tendors, le visage ronger par l'inquiétude inquiétude Toujours la même réponse à mon Qui es-tu ? Qui es-tu ? Tous les murs sur mon lit n'existe plus comme les coïncidence Dans ton regard, un ravin secret Ici, les roses aussi dansent quand la nuit tarde sur nos jardins secret Nos chemins se séparent, pare, pare Mais mûrissent encore tous nos soirs d'un regret Les nuages noir font ainsi sens sur le quai de la gare, gare, gare Sache que seul ton absence cause un silence Tu sais, j'suis qu'un homme Moi aussi j'ai mes défauts Tu sais, j'suis qu'un homme Je peux distinguer le vrai du faux Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu ne pardonnes qu'a moitié, mes promesses nos tenus, contenus de leurs contenus J't'ai laissé des points de suspension, des pourquoi, des regards suspicieux, nos empires de spacieux , et compose les, l'univers en expansion Si je ne savais, si vieillesse pouvais Je sais que j'ai retiré ton cur, hey Jette ta rancune et ta rancur, hey nos cur hey Alors t'en vois un autre, si je t'en rends qu'une, chaque jour du recul et cela m'écure Celui que je serai demain, rêve de reconstruire notre sphère demain, oh no Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Moi aussi j'ai mes défauts Moi aussi j'ai mes défauts Tu sais j'suis qu'un homme Tu sais, Tu sais Je peux distinguer le vrai du faux Je peux distinguer le vrai du faux Tu sais, j'suis qu'un homme, oui Tu sais, j'suis qu'un homme tu sais Tu sais, j'suis qu'un homme tu sais Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais, j'suis qu'un homme Tu sais j'suis qu'un homme Tu sais, tu sais Tu sais j'suis qu'un homme Moi aussi j'ai mes défauts</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Donne moi du love je suis une trapstar, wo Je rentre sur le track je m'assoie sur ton visage J'ai toujours su quoi faire de mes dix doigts De ce qui font pas ceux qui envisagent, ah Yah, yah, ton rappeur est faux aussi vrai qu'un boubou de château d'eau Ne va pas sans tissage, yah, je parle de changer le monde tu parles de remplissage J'suis pas étonné que tu sois étonné là je démonte Anna je donne envie à Tony T'avais pas vu si fort depuis mégalomane dans abri bétonné anti atomique Moi je manque de temps, pas d'intelligence, yah Je braque le game et la diligence, yah Billet violet mais je vois tout en sépia Triple platine remplit pas l'olympia, yah, chut Tu ne seras jamais le boss comme le plancton Sont connus que dans le fond de leur canton Nous récoltons ce que nous plantons Je ne t'aimes ni toi ni ton double menton Tendez vos fronts qu'on y greffe vos testicules Si fier de ce que nous avons ils font atterrir des avions Tellement ils stressent quand ils gesticulent Est-ce que t'aimes les ambiances lancinantes ? Le thème m'est inconnu, j'ai la plume émue J'veux qu'parler d'émotions intenses hallucinantes J'veux qu'mes textes soient relus, amener plus d'imprévu amener plus d'imprévu Jamais dans la contradiction, croûte de fromage Désole pour cette transition, j'aurais bien voulu continuer mais c'est déjà fini You might also like Tu m'as maté de haut en bas comme si tu lisais des scans J'sors toujours par temps de pluie comme pour me rapprocher des squales On ride six o'clock la nuit me connait mieux qu'ma reum Toujours en train de faire le bilan comme si j'étais l'un Des neg' marrons Vaya con dios j'rêve de finir étoilé comme un chef, han Prends mes pompes et nettoie-les ça dure qu'un temps Mais moi le rap je l'ai maqué j'entasse les loops et les maquettes J'suis comme un loup dans le maquis corse Toute la scène est en transe, pourtant j'suis loin dans les tendances La go est souple elle est tentante et moi j'suis saoul donc je m'ambiance Tu veux la guerre on t'fait l'amour Je suis blanc, j'suis brillant j'ai fait la boule Si t'es la corde moi j'suis la poutre attaque éclair pikatchu ! On t'monte en l'air comme dans ta bar mitzvah Le rap est dead le rocknroll is back Quand on rentre dans ta ville y'a ta nana qui s'barre Elle passe sous mon nombril comme ma banane Eastpak J'suis un lundi au bureau en redescente d'ecsta Calbute étonnamment lourd en revenant dEspagne, wow waw J'suis dans l'hyper espace ta demande de feat arrive dans mes spams Hola como estas digame, digame Hola como estas digame, digame, digame Hola como estas le telephone sonne, digame, digame Hola como estas Hola1</t>
+          <t>Donne moi du love je suis une trapstar, wo Je rentre sur le track je m'assoie sur ton visage J'ai toujours su quoi faire de mes dix doigts De ce qui font pas ceux qui envisagent, ah Yah, yah, ton rappeur est faux aussi vrai qu'un boubou de château d'eau Ne va pas sans tissage, yah, je parle de changer le monde tu parles de remplissage J'suis pas étonné que tu sois étonné là je démonte Anna je donne envie à Tony T'avais pas vu si fort depuis mégalomane dans abri bétonné anti atomique Moi je manque de temps, pas d'intelligence, yah Je braque le game et la diligence, yah Billet violet mais je vois tout en sépia Triple platine remplit pas l'olympia, yah, chut Tu ne seras jamais le boss comme le plancton Sont connus que dans le fond de leur canton Nous récoltons ce que nous plantons Je ne t'aimes ni toi ni ton double menton Tendez vos fronts qu'on y greffe vos testicules Si fier de ce que nous avons ils font atterrir des avions Tellement ils stressent quand ils gesticulent Est-ce que t'aimes les ambiances lancinantes ? Le thème m'est inconnu, j'ai la plume émue J'veux qu'parler d'émotions intenses hallucinantes J'veux qu'mes textes soient relus, amener plus d'imprévu amener plus d'imprévu Jamais dans la contradiction, croûte de fromage Désole pour cette transition, j'aurais bien voulu continuer mais c'est déjà fini Tu m'as maté de haut en bas comme si tu lisais des scans J'sors toujours par temps de pluie comme pour me rapprocher des squales On ride six o'clock la nuit me connait mieux qu'ma reum Toujours en train de faire le bilan comme si j'étais l'un Des neg' marrons Vaya con dios j'rêve de finir étoilé comme un chef, han Prends mes pompes et nettoie-les ça dure qu'un temps Mais moi le rap je l'ai maqué j'entasse les loops et les maquettes J'suis comme un loup dans le maquis corse Toute la scène est en transe, pourtant j'suis loin dans les tendances La go est souple elle est tentante et moi j'suis saoul donc je m'ambiance Tu veux la guerre on t'fait l'amour Je suis blanc, j'suis brillant j'ai fait la boule Si t'es la corde moi j'suis la poutre attaque éclair pikatchu ! On t'monte en l'air comme dans ta bar mitzvah Le rap est dead le rocknroll is back Quand on rentre dans ta ville y'a ta nana qui s'barre Elle passe sous mon nombril comme ma banane Eastpak J'suis un lundi au bureau en redescente d'ecsta Calbute étonnamment lourd en revenant dEspagne, wow waw J'suis dans l'hyper espace ta demande de feat arrive dans mes spams Hola como estas digame, digame Hola como estas digame, digame, digame Hola como estas le telephone sonne, digame, digame Hola como estas Hola1</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>LO, cha Lord Esperanza dans ta ville, han Bordeaux Dans ce game, j'marche la bite à l'air Baise la main du prince ou nique ta mère C'qui compte, c'est l'auto-dépassement J'ai des placements constamment en déplacement Souris pas sur la photo de classe, nan Vilain garçon, premier classement, ah Là je perçois leur entassement, ah J'ai salope, deux, et pétasse, moins un Lord Esperanza dans ta ville Tu pourras pas changer ma vie Le succès est en vis-à-vis Là, je l'envisage vite Comment changer d'avis ? Tu veux feater, c'est noté Peu importe la foule, j'la fais sauter Un son par semaine en 2017 2018, devine qui c'est Les médisants peuvent méditer Sur l'fait qu'à mes 10 ans J'rappais déjà dans mes dictées Fils de pute rêve de m'étiqueter Rentre dans ta mère j'suis séduisant Les voisins se plaignent des nuisances Mais comment veux-tu l'éviter ? Tu vois mon clip, tu mets replay On met fin à ton fairytail Et j'impose ma seule vérité Tout mon succès est mérité T'es mort même en le déduisant R.I.P You might also like Pull-up yeah, j'suis full option J'arrive dans l'game en jantes alu' D'abord elle danse sur synapson Puis soulève son pantalon Quand à nous On s'ennuie ici quand t'es là C'est triste de voir que l'argent t'anime Ta carrière morte comme Canteloup est sans talent Merde, j'suis dans Uber, yah J'ai plus l'temps donc j'lis plus l'heure, yah Frère, tu rappes pour du beurre, yah Moi j'suis dans l'cul d'la crémière, yah J'ressors d'elle, ça pue l'pudding Phéromones dans l'pull, pull-in Tu rentres dans l'sol comme Trainspotting J'arrive avec prestance scénique L.O, c'est nickel, elle veut sa dick Concu se nique, fuck ton syndic Maintenant, ça dit que je suis sadique J'suis l'même en mieux Peu d'amis, beaucoup d'envieux Tu veux m'brûler sur l'featuring Écris ton texte puis fais en deux, ring Esperanza vient de creuser l'écart Car il veut voler comme Icare ou Youri Gargarine, oy J'mange un rappeur au goût margarine Drapeau rouge comme le sang Blanc comme les murs Dur de se dire qu'il est également bleu marine Concu régie sous le barbarisme Ma descendance flotte dans ses gargarismes</t>
+          <t>LO, cha Lord Esperanza dans ta ville, han Bordeaux Dans ce game, j'marche la bite à l'air Baise la main du prince ou nique ta mère C'qui compte, c'est l'auto-dépassement J'ai des placements constamment en déplacement Souris pas sur la photo de classe, nan Vilain garçon, premier classement, ah Là je perçois leur entassement, ah J'ai salope, deux, et pétasse, moins un Lord Esperanza dans ta ville Tu pourras pas changer ma vie Le succès est en vis-à-vis Là, je l'envisage vite Comment changer d'avis ? Tu veux feater, c'est noté Peu importe la foule, j'la fais sauter Un son par semaine en 2017 2018, devine qui c'est Les médisants peuvent méditer Sur l'fait qu'à mes 10 ans J'rappais déjà dans mes dictées Fils de pute rêve de m'étiqueter Rentre dans ta mère j'suis séduisant Les voisins se plaignent des nuisances Mais comment veux-tu l'éviter ? Tu vois mon clip, tu mets replay On met fin à ton fairytail Et j'impose ma seule vérité Tout mon succès est mérité T'es mort même en le déduisant R.I.P Pull-up yeah, j'suis full option J'arrive dans l'game en jantes alu' D'abord elle danse sur synapson Puis soulève son pantalon Quand à nous On s'ennuie ici quand t'es là C'est triste de voir que l'argent t'anime Ta carrière morte comme Canteloup est sans talent Merde, j'suis dans Uber, yah J'ai plus l'temps donc j'lis plus l'heure, yah Frère, tu rappes pour du beurre, yah Moi j'suis dans l'cul d'la crémière, yah J'ressors d'elle, ça pue l'pudding Phéromones dans l'pull, pull-in Tu rentres dans l'sol comme Trainspotting J'arrive avec prestance scénique L.O, c'est nickel, elle veut sa dick Concu se nique, fuck ton syndic Maintenant, ça dit que je suis sadique J'suis l'même en mieux Peu d'amis, beaucoup d'envieux Tu veux m'brûler sur l'featuring Écris ton texte puis fais en deux, ring Esperanza vient de creuser l'écart Car il veut voler comme Icare ou Youri Gargarine, oy J'mange un rappeur au goût margarine Drapeau rouge comme le sang Blanc comme les murs Dur de se dire qu'il est également bleu marine Concu régie sous le barbarisme Ma descendance flotte dans ses gargarismes</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>La liberté tu sais, tu peux la décréter L'égalité tu peux la décréte La fraternité tu la décrète pas Et si tu veux massacrer les trois, y'a un moyen très simple pour ça Liberté, égalité, fatalité Les écarts se creusent dans le fond des mentalités Encore une autre allitération Un jeune immigré terrassé Deux kalashs sur une terrasse Trois groupes de jeunes qui péra sec L'impression de n'pas faire assez Mais j'récupère en soit, toutes les fins sont alternatives Comme nos réalités Dans un couloir sans couleurs, la mort rêve de t'alliter Comment rêver de qualité Dans un système ou tu n'peux pas lutter Jeunesse perdue sur un terrain vague J'suis qu'un p'tit fils de prolétaire en vogue Mais la clause est monétaire Qu'aurait pensé Erasme de la cause humanitaire ? A la fois victime et responsable des mutations écologiques Le monde se meurt y'a plus d'logique Mais ils disent que nous restons stables C'est la Macron économie Donald Trump et Manuel mentent dans les manuels Le réchauffement climatique est une invention des chinois Mais l'on consomme nos réserves terrestres annuelles en 6 mois Dis-moi qui les évite Il s'agit de cesser la reproduction des élites You might also like Reste à ta place J'ai dis reste à ta place Reste à ta place Vas-y reste à ta place Reste à ta place petit Reste à ta place Reste à ta place Reste à ta place Reste à ta place Reste à ta place Reste à ta place Oh reste à ta place Oui reste à ta place Reste à ta place Ca a débuté comme ça d'une petite musique retournée Qu'on boirait comme du petit lait Et qui dirait fraternité Oh c'est séduisant en effet N'importe quel drapeau en est fait Dans ces poussières cocues des fées Tu liras l'amour et la paix Et la luxure de te tromper au grand adultère des idées Aux républiques édulcorées Fondées des France réprouvées Qu'on doit appeler des réprivées Mais tu t'en libérera comme ça en l'an trentième de mon âge J'ai dissous le dernier mirage Qui crois te prendre ce qui est à toi Qui veut te vendre ce qui est à toi Qui dois te rendre ce qui est à toi Que tu dois prendre pour être à toi République édulcorée hein Le raciste se dédouane en disant qu'il a lu l'Coran Ceux qui nous éduquent auraient du nous dire que Les hautes sphères nous observent Qu'à travers le filtre des bulles dorées Comme Raimbaud peut-être que le Congo m'aura France centralisée, sans totaliser L'ensemble des conglomérats Très peu honorable comme la Gomorra Cela ne comble le moral Pendant qu'on débat sur le complot Merah Toujours pas d'regard endolori J'repars, vie parfois vide de sens Les coloris s'égarent tous entre vice et guerre Mais on évite le sang Souvenirs nourris de cendres, derrière la vitre le soir Le visage de l'Afrique est mangé par le choléra Même pour panser leurs blessures Là-bas l'alcool est rare Y'a des gouvernements qu'on rompu La haine fait des ricochets On la craint comme pinochet Système ouvertement corrompu Difficile de changer d'sphère Je ne sais toujours pas ce que je suis censé faire Face au déterminisme Aucun regard plein de cynisme Les paroles volent, les écrits restent Même si le temps bouge Drapeau bleu, blanc, rouge ou du soleil levant On est tous guidés par le vent Même si des âmes se vendent Nos rêves ont le goût de lavande Sur un rythme de tambour Reste à ta place Oh ça a déconné comme ça Reste à ta place Reste à ta place Oh reste à ta place</t>
+          <t>La liberté tu sais, tu peux la décréter L'égalité tu peux la décréte La fraternité tu la décrète pas Et si tu veux massacrer les trois, y'a un moyen très simple pour ça Liberté, égalité, fatalité Les écarts se creusent dans le fond des mentalités Encore une autre allitération Un jeune immigré terrassé Deux kalashs sur une terrasse Trois groupes de jeunes qui péra sec L'impression de n'pas faire assez Mais j'récupère en soit, toutes les fins sont alternatives Comme nos réalités Dans un couloir sans couleurs, la mort rêve de t'alliter Comment rêver de qualité Dans un système ou tu n'peux pas lutter Jeunesse perdue sur un terrain vague J'suis qu'un p'tit fils de prolétaire en vogue Mais la clause est monétaire Qu'aurait pensé Erasme de la cause humanitaire ? A la fois victime et responsable des mutations écologiques Le monde se meurt y'a plus d'logique Mais ils disent que nous restons stables C'est la Macron économie Donald Trump et Manuel mentent dans les manuels Le réchauffement climatique est une invention des chinois Mais l'on consomme nos réserves terrestres annuelles en 6 mois Dis-moi qui les évite Il s'agit de cesser la reproduction des élites Reste à ta place J'ai dis reste à ta place Reste à ta place Vas-y reste à ta place Reste à ta place petit Reste à ta place Reste à ta place Reste à ta place Reste à ta place Reste à ta place Reste à ta place Oh reste à ta place Oui reste à ta place Reste à ta place Ca a débuté comme ça d'une petite musique retournée Qu'on boirait comme du petit lait Et qui dirait fraternité Oh c'est séduisant en effet N'importe quel drapeau en est fait Dans ces poussières cocues des fées Tu liras l'amour et la paix Et la luxure de te tromper au grand adultère des idées Aux républiques édulcorées Fondées des France réprouvées Qu'on doit appeler des réprivées Mais tu t'en libérera comme ça en l'an trentième de mon âge J'ai dissous le dernier mirage Qui crois te prendre ce qui est à toi Qui veut te vendre ce qui est à toi Qui dois te rendre ce qui est à toi Que tu dois prendre pour être à toi République édulcorée hein Le raciste se dédouane en disant qu'il a lu l'Coran Ceux qui nous éduquent auraient du nous dire que Les hautes sphères nous observent Qu'à travers le filtre des bulles dorées Comme Raimbaud peut-être que le Congo m'aura France centralisée, sans totaliser L'ensemble des conglomérats Très peu honorable comme la Gomorra Cela ne comble le moral Pendant qu'on débat sur le complot Merah Toujours pas d'regard endolori J'repars, vie parfois vide de sens Les coloris s'égarent tous entre vice et guerre Mais on évite le sang Souvenirs nourris de cendres, derrière la vitre le soir Le visage de l'Afrique est mangé par le choléra Même pour panser leurs blessures Là-bas l'alcool est rare Y'a des gouvernements qu'on rompu La haine fait des ricochets On la craint comme pinochet Système ouvertement corrompu Difficile de changer d'sphère Je ne sais toujours pas ce que je suis censé faire Face au déterminisme Aucun regard plein de cynisme Les paroles volent, les écrits restent Même si le temps bouge Drapeau bleu, blanc, rouge ou du soleil levant On est tous guidés par le vent Même si des âmes se vendent Nos rêves ont le goût de lavande Sur un rythme de tambour Reste à ta place Oh ça a déconné comme ça Reste à ta place Reste à ta place Oh reste à ta place</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Jai attendu dix ans avant datteindre ma forme finale Le monde nappartient pas à léboueur le plus matinal Jécris pour ceux qui attendent que la machine senraye, pour faire de mes couplets un règne Pour mes génies quon ne regarde jamais, même sils s'coupaient loreille Au royaume des aveugles, largent règne Quel dieu tu pries avec des chiffrs ? Répéter, répéter, répéter ds heures Travailler, travailler, travailler Bâtir un empire sans porter de cravate Chercher la fontaine de Jouvence dans le plus grand désert Jte lai djà dit jsuis pas rappeur, jsuis artiste Jai grandi trop vite, les deux doigts dans la prise Le fils dun père bizarre et dune maman triste Des nuits blanches à repenser ma matière grise Él'vé au rythme des verres qui cassent, des assiettes qui volent, des couteaux dans le dos Jai même pas lâché une goutte deau sur toutes ces photos de vie jaunes Quand la vie force à être perspicace Devenu adulte juste un peu trop tôt Cette fois cest que pour lamour de lart, rien à foutre si vous ne me validez pas Jirai suivre le chemin que les plus ridés tracent Jai fermé la bouche mais jai tout dit Jétudie la lumière qui sreflète à jamais dans lfond de la galerie des glaces Proche des enfants maudits dans les taudis, des destins enlevés dans les tueries de masse Jtouche un peu lhistoire dès qu'junis des phrases Plus javance, moins jconnais dhommes plus fidèles que mon canidé drace Qui va écrire quoi ? Qui va penser quoi ? Tfaçon Internet cest lparadis des crasses Jai peu confiance en lHomme, jsuis d'nature solitaire Jappelle pas le 17 en cas de bavure policière Black Amadeus On change pas lmonde, cest que du son, tout cqui monte peut redescendre En chacun de nous dort un phnix qui renaît des cendres Jarrive avant que le piano reparte Mon cur est tout noir comme le drapeau des spartes À léchelle du temps, nos empires ne sont que des châteaux de cartes Jle f'rai tant qula Terre tourne encore Pour la beauté du geste, jvais le faire pour le sport Pour lamour dla compét Au cur de la tempête, on défie les trompettes de la mort On d'vient des phénomènes en six mois, le ciment devient si noir Lavenir cest à moi, jporte mes frères en moi comme siamois Avec mes démons jfais d'lescrime Les streams font pas le talent, le talent fait pas les streams You might also like Plus jgrandis, plus jai horreur du réel Sous les aurores boréales, jai vu le diable fumer sans auréole Camouflé comme un caméléon, comment calmer les ombres ? Combien diront qutu as tort ? Une fois que tauras mis tout lmonde daccord, ils diront qu'tavais raison Mais peu importe, à part nous-mêmes, qui nous aide ? Tu prenais plus dnouvelles, quand y avait sept personnes au concert La daronne faisait les poubelles, prête à tout pour une boîte de conserve Jécris pour ceux qui tournent en rond sur les bords du vinyle Pour mes âmes anciennes dans des corps juvéniles Pilule bleue ou rouge, un agent télimine Jécris pas pour ceux qui rabaissent la gente féminine Parfois les fantômes du passé me rendent visite On oublie jamais toutes les douleurs invisibles À léchelle du temps si morose, je ne suis quune fraction dseconde Crois en toi et va au bout des choses, avant lextinction dce monde Le soleil nest quune petite décharge, la lune nest quun croissant pour lhomme Alors écoute toi, quitte à finir dans la marge Cest nous les reines sans royaume et les rois sans couronne</t>
+          <t>Jai attendu dix ans avant datteindre ma forme finale Le monde nappartient pas à léboueur le plus matinal Jécris pour ceux qui attendent que la machine senraye, pour faire de mes couplets un règne Pour mes génies quon ne regarde jamais, même sils s'coupaient loreille Au royaume des aveugles, largent règne Quel dieu tu pries avec des chiffrs ? Répéter, répéter, répéter ds heures Travailler, travailler, travailler Bâtir un empire sans porter de cravate Chercher la fontaine de Jouvence dans le plus grand désert Jte lai djà dit jsuis pas rappeur, jsuis artiste Jai grandi trop vite, les deux doigts dans la prise Le fils dun père bizarre et dune maman triste Des nuits blanches à repenser ma matière grise Él'vé au rythme des verres qui cassent, des assiettes qui volent, des couteaux dans le dos Jai même pas lâché une goutte deau sur toutes ces photos de vie jaunes Quand la vie force à être perspicace Devenu adulte juste un peu trop tôt Cette fois cest que pour lamour de lart, rien à foutre si vous ne me validez pas Jirai suivre le chemin que les plus ridés tracent Jai fermé la bouche mais jai tout dit Jétudie la lumière qui sreflète à jamais dans lfond de la galerie des glaces Proche des enfants maudits dans les taudis, des destins enlevés dans les tueries de masse Jtouche un peu lhistoire dès qu'junis des phrases Plus javance, moins jconnais dhommes plus fidèles que mon canidé drace Qui va écrire quoi ? Qui va penser quoi ? Tfaçon Internet cest lparadis des crasses Jai peu confiance en lHomme, jsuis d'nature solitaire Jappelle pas le 17 en cas de bavure policière Black Amadeus On change pas lmonde, cest que du son, tout cqui monte peut redescendre En chacun de nous dort un phnix qui renaît des cendres Jarrive avant que le piano reparte Mon cur est tout noir comme le drapeau des spartes À léchelle du temps, nos empires ne sont que des châteaux de cartes Jle f'rai tant qula Terre tourne encore Pour la beauté du geste, jvais le faire pour le sport Pour lamour dla compét Au cur de la tempête, on défie les trompettes de la mort On d'vient des phénomènes en six mois, le ciment devient si noir Lavenir cest à moi, jporte mes frères en moi comme siamois Avec mes démons jfais d'lescrime Les streams font pas le talent, le talent fait pas les streams Plus jgrandis, plus jai horreur du réel Sous les aurores boréales, jai vu le diable fumer sans auréole Camouflé comme un caméléon, comment calmer les ombres ? Combien diront qutu as tort ? Une fois que tauras mis tout lmonde daccord, ils diront qu'tavais raison Mais peu importe, à part nous-mêmes, qui nous aide ? Tu prenais plus dnouvelles, quand y avait sept personnes au concert La daronne faisait les poubelles, prête à tout pour une boîte de conserve Jécris pour ceux qui tournent en rond sur les bords du vinyle Pour mes âmes anciennes dans des corps juvéniles Pilule bleue ou rouge, un agent télimine Jécris pas pour ceux qui rabaissent la gente féminine Parfois les fantômes du passé me rendent visite On oublie jamais toutes les douleurs invisibles À léchelle du temps si morose, je ne suis quune fraction dseconde Crois en toi et va au bout des choses, avant lextinction dce monde Le soleil nest quune petite décharge, la lune nest quun croissant pour lhomme Alors écoute toi, quitte à finir dans la marge Cest nous les reines sans royaume et les rois sans couronne</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel Dimanche, Paris, de ma fenêtre, j'entends les mouettes Est-ce la mer qui m'interroge ? Ici, la différence fait rage Pourquoi respecter les règles établies Si elles sont faites pour qu'on y déroge ? J'ai compris que s'aimer, c'est partager les torts Les neiges éternelles ont fondu Laisser vivre nos regrets fera de nous des hommes Sakura, yeah Sakura J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel You might also like Comment y croire, l'hiver a pris fin J'revois la couleur d'mes vux Le spectacle est divin, le ciel a cette rougeur de feu J'ai toujours su que mes larmes n'auraient qu'un temps J'ai envie d'être heureux Et même si j'vais tenter d'apprécier le printemps, l'hiver me veut L'hiver me veut, il me réclame, relance l'assaut Et regarde mes yeux, quoi que je fasse, j'l'ai dans la peau Il me reste peu de temps pour faire fondre mes glaces et déjouer le sort Faut qu'j'y parvienne avant qu'le dernier pétale ait touché le sol Avant que le dernier pétale n'ait touché le sol Faut qu'mes neiges éternelles aient fondu Dégeler mes ailes et savourer le vol Et pour l'instant, je fais semblant, je m'émerveille En attendant que le printemps soit éternel J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel J'suis un enfant d'l'hiver, un peu solitaire Je sors quand les étoiles naviguent Les réverbères titubent Sous somnifères, incompris comme une âme solitaire À marcher des heures dans ma ville Entendre son cliquetis, mais les silences prolifèrent J'laisse la mélancolie faire Comprenant qu'on est Tous immenses, et si petits Entre les arbres, les utopies et les amas d'conifères De ciment</t>
+          <t>J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel Dimanche, Paris, de ma fenêtre, j'entends les mouettes Est-ce la mer qui m'interroge ? Ici, la différence fait rage Pourquoi respecter les règles établies Si elles sont faites pour qu'on y déroge ? J'ai compris que s'aimer, c'est partager les torts Les neiges éternelles ont fondu Laisser vivre nos regrets fera de nous des hommes Sakura, yeah Sakura J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel Comment y croire, l'hiver a pris fin J'revois la couleur d'mes vux Le spectacle est divin, le ciel a cette rougeur de feu J'ai toujours su que mes larmes n'auraient qu'un temps J'ai envie d'être heureux Et même si j'vais tenter d'apprécier le printemps, l'hiver me veut L'hiver me veut, il me réclame, relance l'assaut Et regarde mes yeux, quoi que je fasse, j'l'ai dans la peau Il me reste peu de temps pour faire fondre mes glaces et déjouer le sort Faut qu'j'y parvienne avant qu'le dernier pétale ait touché le sol Avant que le dernier pétale n'ait touché le sol Faut qu'mes neiges éternelles aient fondu Dégeler mes ailes et savourer le vol Et pour l'instant, je fais semblant, je m'émerveille En attendant que le printemps soit éternel J'suis un enfant d'l'hiver, j'ai l'amour du nord Le froid m'a rendu insensible, il a cristallisé mes ailes en cours de vol J'suis un enfant d'l'hiver, je croyais ne plus craindre rien Pourtant, je tremble quand le printemps vient Je n'suis qu'un enfant de l'hiver dans l'attente du printemps éternel Qu'un enfant de l'hiver dans l'attente du printemps éternel J'suis un enfant d'l'hiver, un peu solitaire Je sors quand les étoiles naviguent Les réverbères titubent Sous somnifères, incompris comme une âme solitaire À marcher des heures dans ma ville Entendre son cliquetis, mais les silences prolifèrent J'laisse la mélancolie faire Comprenant qu'on est Tous immenses, et si petits Entre les arbres, les utopies et les amas d'conifères De ciment</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Les rappeurs sont une espèce rare en voie d'extinction. Ils préfèrent mal éduquer la jeunesse et vanter les mérites du capitalisme plutôt que d'agir en conscience L.O À tchic, à tchic, à tchic, ça fait aïe, aïe, aïe J'dois rien à personne, j'ai fait mes bails, bails, bails J'repars a six du mat' en disant Bye, bye, bye, ah Quand j'étais petit, j'étais jedi-di-di, olup J'suis juste venu mettre bien les arrière-petits-fils de ma descendance Comprennent pas que quand j'dis qu'j'suis meilleur, c'est même plus de la condescendance Regarde dans mes yeux, regarde dans mes yeux, regarde dans mes yeux si tu veux lire l'avenir Le monde en feu, c'est même plus triste à dire, t'es dans l'dénis si tu captes pas qu'le pire reste à venir piou Si tu suis pas l'enfant du siècle, 2020, c'est l'moment J'suis v'nu les déranger comme une blague de cul devant belle-maman ouh, ah Trouve-moi sur un nuage Ça s'voit qu'ton visage connait rien, j'ai la dalle d'un village somalien Et je suis à jeun, j'ai appris l'bon français pour féconder leurs mères Maintenant, l'industrie m'impose ses mathématiques J'me fais remarquer quand j'arrive dans la ville comme les Maserati que la misère attire sku Retournée acrobatique, c'est plus des morceaux, c'est des accidents On crée des jolies coïncidences, comme blanchir l'argent dans des lavomatiques Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand You might also like Já mrdam tu rap game, mrdám tu rap game asto je tu fake, asto je tu fake Poslouchám pop, poslouchán pop Já myslím smoke - Pop Smoke Flexíte white offy original Vae flow bite offy fake Vaíme love, lyrics my kovem Jsem nikdy neebral ani cent Nalij mi mj drink, nabízí mi drogy Nabízí mi eny, nebute sníeny Myslete na sebe, i kdy to nasere Nkdy mi krujem, mám noní mru jen Zstávám vzhru já - halucinace Srdce neztrácet, den byl zas dlouhej Asi tak dvacet hodin vzhru Asi tyi jsem spal Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Ta grand-mère la chut qui sait pas faire du feu chh J'suis l'boss final, tu peux pas m'dire pousse Quand tu m'vois, tu t'pousses, c'est mon côté star On a retourné le pop-up store yeah J'repars dans un concept car yeah Tu vas ter-sau tout seul, j'vois qu'ils toussent, toussent J'leur fais des doigts d'honneur dans une voiture en or Ils r'partent tous en pousse-pousse Force est de constater que cette énergie débordante aurait pu faire frémir les plus grand compositeurs. Attendons le deuxième album pour en juger. En attendant, retrouvez Lord Esperanza dans ta ville disponible partout1</t>
+          <t>Les rappeurs sont une espèce rare en voie d'extinction. Ils préfèrent mal éduquer la jeunesse et vanter les mérites du capitalisme plutôt que d'agir en conscience L.O À tchic, à tchic, à tchic, ça fait aïe, aïe, aïe J'dois rien à personne, j'ai fait mes bails, bails, bails J'repars a six du mat' en disant Bye, bye, bye, ah Quand j'étais petit, j'étais jedi-di-di, olup J'suis juste venu mettre bien les arrière-petits-fils de ma descendance Comprennent pas que quand j'dis qu'j'suis meilleur, c'est même plus de la condescendance Regarde dans mes yeux, regarde dans mes yeux, regarde dans mes yeux si tu veux lire l'avenir Le monde en feu, c'est même plus triste à dire, t'es dans l'dénis si tu captes pas qu'le pire reste à venir piou Si tu suis pas l'enfant du siècle, 2020, c'est l'moment J'suis v'nu les déranger comme une blague de cul devant belle-maman ouh, ah Trouve-moi sur un nuage Ça s'voit qu'ton visage connait rien, j'ai la dalle d'un village somalien Et je suis à jeun, j'ai appris l'bon français pour féconder leurs mères Maintenant, l'industrie m'impose ses mathématiques J'me fais remarquer quand j'arrive dans la ville comme les Maserati que la misère attire sku Retournée acrobatique, c'est plus des morceaux, c'est des accidents On crée des jolies coïncidences, comme blanchir l'argent dans des lavomatiques Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Já mrdam tu rap game, mrdám tu rap game asto je tu fake, asto je tu fake Poslouchám pop, poslouchán pop Já myslím smoke - Pop Smoke Flexíte white offy original Vae flow bite offy fake Vaíme love, lyrics my kovem Jsem nikdy neebral ani cent Nalij mi mj drink, nabízí mi drogy Nabízí mi eny, nebute sníeny Myslete na sebe, i kdy to nasere Nkdy mi krujem, mám noní mru jen Zstávám vzhru já - halucinace Srdce neztrácet, den byl zas dlouhej Asi tak dvacet hodin vzhru Asi tyi jsem spal Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Jai banni l'mot idéalement de tout mon vocabulaire C'que j'veux, j'l'obtiens, Homo Sapiens, venu dans bolide allemand Ta grand-mère la chut qui sait pas faire du feu chh J'suis l'boss final, tu peux pas m'dire pousse Quand tu m'vois, tu t'pousses, c'est mon côté star On a retourné le pop-up store yeah J'repars dans un concept car yeah Tu vas ter-sau tout seul, j'vois qu'ils toussent, toussent J'leur fais des doigts d'honneur dans une voiture en or Ils r'partent tous en pousse-pousse Force est de constater que cette énergie débordante aurait pu faire frémir les plus grand compositeurs. Attendons le deuxième album pour en juger. En attendant, retrouvez Lord Esperanza dans ta ville disponible partout1</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Hey ! Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera L-O yeah Cinq années de ma vie dans le doute Pourtant je suis né sous la voûte Céleste, le sang contient des midi-chlores Chaque mort me rapproche de la croûte terrestre Nécoute pas le monde Puisquil te dira On sen fout dtes rêves Jai dit à mon ex Jai envie déclore Mes regrets renaissent quand je goûte ses lèvres hein hein Je suis le maître de mon destin wow Tue le fils du diable, il en reste un wow Jai dû confondre cordon ombilical et intestin Jsuis poursuivi par mon ombre lyricale Seul dans la nuit les yeux rouges qui ricanent Jrappe dans latmosphère infestée Je trinquerais à laube pendant le dernier des festins Cocktail Molotov donne vie aux jerricanes Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera You might also likeÇa fait hey how hey jai Fait mes débuts dans une cave Aujourdhui jmange du caviar Fais monter les octaves Frappe de trompette comme Pavard La plupart sont silencieux mais largent les rend bavards Mes neurones sont devenus polymériques Laisse moi célébrer succès sur côte ibérique Jréalise les rêves de grand-mère immigrée Car je vais conquérir la folle Amérique Garde une rigidité cadavérique On na jamais ce quon est On a que ce quon mérite Un prêtre pédophile quest renié par lEglise Pourra quand même se marier à la mairie merde Les vrai voyous portent des costumes trois-pièces wow Jrappe sale, il y a six mille personnes qui acquiescent wow Pardonne moi si jmanque de délicatesse Encore deux ans et même aux Bahamas tu paieras le délit de fasciés</t>
+          <t>Hey ! Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera L-O yeah Cinq années de ma vie dans le doute Pourtant je suis né sous la voûte Céleste, le sang contient des midi-chlores Chaque mort me rapproche de la croûte terrestre Nécoute pas le monde Puisquil te dira On sen fout dtes rêves Jai dit à mon ex Jai envie déclore Mes regrets renaissent quand je goûte ses lèvres hein hein Je suis le maître de mon destin wow Tue le fils du diable, il en reste un wow Jai dû confondre cordon ombilical et intestin Jsuis poursuivi par mon ombre lyricale Seul dans la nuit les yeux rouges qui ricanent Jrappe dans latmosphère infestée Je trinquerais à laube pendant le dernier des festins Cocktail Molotov donne vie aux jerricanes Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera Drapeau blanc sur Planète Rap Dis-moi donc qui marrêtera Ça fait hey how hey jai Fait mes débuts dans une cave Aujourdhui jmange du caviar Fais monter les octaves Frappe de trompette comme Pavard La plupart sont silencieux mais largent les rend bavards Mes neurones sont devenus polymériques Laisse moi célébrer succès sur côte ibérique Jréalise les rêves de grand-mère immigrée Car je vais conquérir la folle Amérique Garde une rigidité cadavérique On na jamais ce quon est On a que ce quon mérite Un prêtre pédophile quest renié par lEglise Pourra quand même se marier à la mairie merde Les vrai voyous portent des costumes trois-pièces wow Jrappe sale, il y a six mille personnes qui acquiescent wow Pardonne moi si jmanque de délicatesse Encore deux ans et même aux Bahamas tu paieras le délit de fasciés</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>J'cultive ma différence Ici l'amour est inhérent à notre itinérance Met la haine entre parenthèses L'ange de la mort n'est pas rentré Fantôme d'antan vient pour m'hanter Dire qu'les deux peuvent s'apparenter J'repars en tête J'n'ai confiance qu'en mes liens de parenté J'peux pas m'laisser leurrer J'témoigne de la misère du monde que les plus sombres vont célébrer Comment veux-tu décélérer ? Ce système se réjouit de nourrir les décérébrés Nos espoirs sont incinérés J'aurais dû m'dire qu'ils s'en iraient D'une rose noire je signerai Ainsi nos rêves aiment s'ignorer Donc on les vit à part entière Je n'ai pas connu pire encore, je N'ai que ma rancur s'effritant sur l'rempart en pierre J'suis le reflet de mon époque J'me rétracte dans c'monde opaque Et j'crie ma peine en soliloque La peur a laissé des impacts intacts J'empacte mes actes, y'a l'tact et l'acte La sagesse ou le pactole Pas mon nom sur le pacte Mais le diable joue l'acteur J'connais l'mal et ses facteurs J't'aimais le temps de l'entracte Et j'remercie mes détracteurs Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux En cmoment jdors pas Mes idées me dépriment Toute la miff est ccord-da Je nai pas de savoir-vivre Tous les soirs Jpromets qujarrête cette routine Javais juré mais jme déçois À croire que mes démon sobstinent A croire que jai vu des choses Et qu' jen ai vécu d'autres Ce gosse en cours sur sa chaise Qui narrête pas de faire des fautes Jai pas taffé lorthographe Mais le profond de mes textes Jsuis l'pornographe du phonographe Qui tfait sourire en tec Des clins dil à mes inspirations Un grand respect car on aspire à ça Et la vérité cest quon espère aussi On a joué les jetons dune vie Sur un art périssable Mais au fond ça ira Si on ya mit du cur Prends les coups garde ta rage Pour la retranscrire dans tes pleurs Dencre noire jentrevois ce qui fait mes peurs Jai trente voix grand devoir pour mes frères et surs Échappe au système et rien nest consenti Vis en paix et ferme ta gueule, mais Vivre en paix cest accepter que tous les cons sen tirent Ça va staper contre un flic mais tas rien contre ce type Ça prend des coups la conséquence et ben c'est quon séquipe Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux- Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieuxYou might also like</t>
+          <t>J'cultive ma différence Ici l'amour est inhérent à notre itinérance Met la haine entre parenthèses L'ange de la mort n'est pas rentré Fantôme d'antan vient pour m'hanter Dire qu'les deux peuvent s'apparenter J'repars en tête J'n'ai confiance qu'en mes liens de parenté J'peux pas m'laisser leurrer J'témoigne de la misère du monde que les plus sombres vont célébrer Comment veux-tu décélérer ? Ce système se réjouit de nourrir les décérébrés Nos espoirs sont incinérés J'aurais dû m'dire qu'ils s'en iraient D'une rose noire je signerai Ainsi nos rêves aiment s'ignorer Donc on les vit à part entière Je n'ai pas connu pire encore, je N'ai que ma rancur s'effritant sur l'rempart en pierre J'suis le reflet de mon époque J'me rétracte dans c'monde opaque Et j'crie ma peine en soliloque La peur a laissé des impacts intacts J'empacte mes actes, y'a l'tact et l'acte La sagesse ou le pactole Pas mon nom sur le pacte Mais le diable joue l'acteur J'connais l'mal et ses facteurs J't'aimais le temps de l'entracte Et j'remercie mes détracteurs Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux En cmoment jdors pas Mes idées me dépriment Toute la miff est ccord-da Je nai pas de savoir-vivre Tous les soirs Jpromets qujarrête cette routine Javais juré mais jme déçois À croire que mes démon sobstinent A croire que jai vu des choses Et qu' jen ai vécu d'autres Ce gosse en cours sur sa chaise Qui narrête pas de faire des fautes Jai pas taffé lorthographe Mais le profond de mes textes Jsuis l'pornographe du phonographe Qui tfait sourire en tec Des clins dil à mes inspirations Un grand respect car on aspire à ça Et la vérité cest quon espère aussi On a joué les jetons dune vie Sur un art périssable Mais au fond ça ira Si on ya mit du cur Prends les coups garde ta rage Pour la retranscrire dans tes pleurs Dencre noire jentrevois ce qui fait mes peurs Jai trente voix grand devoir pour mes frères et surs Échappe au système et rien nest consenti Vis en paix et ferme ta gueule, mais Vivre en paix cest accepter que tous les cons sen tirent Ça va staper contre un flic mais tas rien contre ce type Ça prend des coups la conséquence et ben c'est quon séquipe Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux- Dans ma vie jsuis bon mais jtavoue quça varie La vérité, cest que jnai pas de savoir-vivre Ça mempêche pas décrire des textes remplis davarice Mais bon faudrait déjà savoir ce que j'vise Si japprenais à faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux Faire la part des choses avant ça serait ptêtre mieux Frère on a beaucoup de trucs à faire avant dêtre vieux</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Le rap et moi ça va ensemble comme le vice et l'argent Oui l'débit s'élargit, je veux qu'tes formes soient larges Le rap et moi ça va ensemble comme les miss et l'orgie Oui l'débit s'élargit, je veux qu'tes formes soient larges Ouais c'est le raz-de-marée qu'a scellé l'rap pour s'marrer Car scélérats eu su leurrer cessez les rats démarrés J'ai failli n'pas démarrer mais fini par m'y perdre Sans repère face aux vipères mais qui a dit qu'y'a pas de mis-per Le maître c'est l'Everest, fidèle ça c'est pour les vrais Parlons vraiment, la seule limite c'est l'Everest Dans ma quête je ne m'inquiète pas Tant que je peux fumer la moquette j'plane En côte, j'enquête en maquette plate Un blase gravé sur la quette-pla Esperanza Lord Esperanza Faut innover Dans mon sommeil, je lis que mon art monnaie Meilleur de mon ère dans mes sonnets je l'entends marmonner Toute la semaine les langues de bois vont parler d'ma renommée Quand je vois qu'ils se font pardonner Je me dit que de marbre on est C'est harmonieux hein, comme une toile signée Claude Monet J'achèterais même du Chardonnay pour avoir tes coordonnées Je suis un peu trop désordonné, j'emmerde toujours les ordres donnés Demeurant sur cette ordonnée You might also like Mais t'es toujours le même Tu veux pas nous parler plutôt de.. j'sais pas.. c'que tu composes Moi je compose et t'accompagne Pour que ma prose soit ta compagne Dans les campagnes plume de Montaigne je déplacerais toutes les montagnes Un démontage à faire, je veux que ma femme aie du caractère Et pour info j'éviterai surement tous les retardataires C'est pas la peine frère de penser qu'à part faire la fête Car à part faire leffort, l'affaire prolifère et je manque à l'appel File à l'anglaise comme Double-0-7 L'Euro fait des heureux donc je compte bientôt trouver les recettes Lord Esperanza Hors de Portée Onlynasa Merci à Flav, Noah et tous les XXX Deux-mille ze-quin Only, Only, Onlynasa Only, Only, Onlynasa</t>
+          <t>Le rap et moi ça va ensemble comme le vice et l'argent Oui l'débit s'élargit, je veux qu'tes formes soient larges Le rap et moi ça va ensemble comme les miss et l'orgie Oui l'débit s'élargit, je veux qu'tes formes soient larges Ouais c'est le raz-de-marée qu'a scellé l'rap pour s'marrer Car scélérats eu su leurrer cessez les rats démarrés J'ai failli n'pas démarrer mais fini par m'y perdre Sans repère face aux vipères mais qui a dit qu'y'a pas de mis-per Le maître c'est l'Everest, fidèle ça c'est pour les vrais Parlons vraiment, la seule limite c'est l'Everest Dans ma quête je ne m'inquiète pas Tant que je peux fumer la moquette j'plane En côte, j'enquête en maquette plate Un blase gravé sur la quette-pla Esperanza Lord Esperanza Faut innover Dans mon sommeil, je lis que mon art monnaie Meilleur de mon ère dans mes sonnets je l'entends marmonner Toute la semaine les langues de bois vont parler d'ma renommée Quand je vois qu'ils se font pardonner Je me dit que de marbre on est C'est harmonieux hein, comme une toile signée Claude Monet J'achèterais même du Chardonnay pour avoir tes coordonnées Je suis un peu trop désordonné, j'emmerde toujours les ordres donnés Demeurant sur cette ordonnée Mais t'es toujours le même Tu veux pas nous parler plutôt de.. j'sais pas.. c'que tu composes Moi je compose et t'accompagne Pour que ma prose soit ta compagne Dans les campagnes plume de Montaigne je déplacerais toutes les montagnes Un démontage à faire, je veux que ma femme aie du caractère Et pour info j'éviterai surement tous les retardataires C'est pas la peine frère de penser qu'à part faire la fête Car à part faire leffort, l'affaire prolifère et je manque à l'appel File à l'anglaise comme Double-0-7 L'Euro fait des heureux donc je compte bientôt trouver les recettes Lord Esperanza Hors de Portée Onlynasa Merci à Flav, Noah et tous les XXX Deux-mille ze-quin Only, Only, Onlynasa Only, Only, Onlynasa</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Young Chilla veut du cash milli, j'le plierai pas dans la street à la Cassidy, hey Young Chilla est dans l'hood, j'ai croisé les loups, j'suis ni capé ni dans l'port Young Chilla joue les cartes, les risques, j'ai dû rapper face aux garces, j'ai le gap, bitches, hey Young Chill' est dans l'hood, j'ai croisé la foule là, j'ai capté, j'suis dans l'coup, hey, yah Yah, yah, yah, yah, je parle trop de moi, j'parle pas sur les autres et j'm'efforce d'ignorer les 'tasses J'travaille mon image, j'ai pris un virage, mira, j'émerge de nulle part et j'm'impose en une track Yah, yah, yah, yah, j'calcule pas les bougs, au milieu des loups, j'suis la loutre mais j'crie comme un ours Là, j'deviens virale, j'suis la sans-visage, j'ai quitté l'village, en pirogue, j'les pirate You might also like Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Obscur et connu comme Bachar el-Assad, allez, j'alterne au feeling, hey, j'm'acharne à la salle Ils veulent plus de like, plus de like, plus de like, cinq dans ma tête comme Jackson, le meilleur comme Michael Woh, j'suis l'meilleur comme Michael, en impro sur Skyrock T'inquiète pas, ça rappe ça, oui, tu sais qu'je mic' drop, normal Nelick, Chilla, Eden, pas d'problème, mon gava Là, j'suis dédaigneux, là, j'suis respectable Tu vas p't-être éteindre mais tu sais que le flow est toujours très détestable Ça le fait, pas d'problème, on tape des selfies avec les frérots, dans la Tequila, je mets sur sel fin sur du Kanye Wesh Kiwi, t'as un truc là-d'ssus ou quoi ? Tu parles beaucoup mais tu fais que neni Tu veux savoir ce que fait kiwibunny J'mène une vie décalé comme le bruit du tonnerre Dans laquelle y'a des gens qui sont loin d'être honnête Tu me demande si j'ai fait des thunes Elle me demande si j'ai fait des tubes Désolé ça cou-pe, je passe dans un tu-nnel Ta grand-mère la pute si t'aime pas l'autotune J'dépense rien dans ton tieks Dans l'enveloppe j'espère que tout y est Trop de problèmes je pourrais pas tout dire Trop de promesses j'pourrais pas tout tenir Pour l'instant on lâche pas on tien, boy Si t'as pas confiance aux tiens faut rectifier le tir Pou, pou, pou, pou, pou, balle dans la tête pour effacer les tears J'm'en bas les couilles de la Rollex J'suis pas la relève, le rap j'le soulève, hey Sur mon bigot dès que j'me lève Si t'as pas de nouvelles c'est que tu m'as soûlé Les gens qui parlent mal on sait jamais qui c'est Leur avis ça m'étonnerait qu'il me serve Le freestyle c'est pour les types Mais y'a que des ti-peu qui viennent à mes concerts, merde J'suis pas assez con pour écouter vos merdes J'vais briller, j'vais briller, j'vais briller J'le jure sur vos mères, ouais Kiwibunny chez Skyrock, L.O.R.D chez Skyrock Rajoute pas de coca dans mon sky, boy Imprimez L-O-R-D sur leur visage à coup de clavier AZERTY De ceux qui agissent, pas de ceux qui envisagent Le grand public en vaut dix avertis Jsuis dans le tour-bus, tes dans la tourmente Leur carrière prise dans une tournante, ah Jfais danser leur fille dans le ventre de leur mère Donneraient leur mère pour faire gonfler leur ventre Petit prince de la trap chez les Enfoirés Jsuis le rappeur préféré du rappeur préféré du rappeur préféré dton rappeur préféré Appelle-moi rap de blanc, rap de iencli, copie d'Nekfeu ou je n'sais pas quelle connerie Mais rappelle-toi que j'arrive bientôt, si on fait un featuring, tu me sers d'intro J'aurais toujours les crocs et l'aileron dans le dos, j'observe leurs concerts pourris, ça envoie des textos dans la fosse Oui, y a des sous dans l'rap, mamie, t'inquiète pas, j'suis une mise à jour, on m'appelle Dany cinquième Dan J'écoute Paris la nuit, j'écoute Bruxelles Vie, je kicke donc rien à foutre que les pucelles kiffent Car c'est le RK1 pas R. Kelly, à l'heure qu'il est, j'veux ESSKEETIT dans l'Escalade Est-ce que là enfin je n'aurai plus d'ennemis ? Triste à dire, mais tout s'attend à disparaître J'ai des défauts, j'sais qu'ils peuvent nuires Jusqu'au jour où le vice m'arrête Merde, les anges crient à l'aide S'attend à 10 pareilles avant d'le devenir Apparemment j'suis apparenté à Paramour Certains cuisine la mort dans une caravane Moi j'suis devenu celui que j'rêvais d'être On est en impro, pas de problème J'retombe toujours sur mes pattes L.O.R, boom bap ou de la trap Pas de problème, tu sais que j'découpe planète rap Dit-moi donc, mon fréro, qui m'arrêtera Yo, c'est le 24 mai, ça le fait Mais car tu le sais, oui mon gars, tu peux le faire Y'a pas de scélérat on accéléra La concurrence à fini par baisser les bras depuis cinq années, jamais désarmé Fréro tu le sait, ma daronne me voit déjà roi Moi y'a pas de désarroi, oh merde Comment te dire que le cléon faisait pousser sa weed dans des armoires Ici c'est Lacoste, oui mon gars, tu sais que la go est belle donc je l'accoste Dédicace tout mes gars, qui le savent, qui le font Pas de problème, aussi ceux qui boivent de l'Euphon Et ceux qui roulent toute leur weed toute la journée Pas de problème mon gava ça fait deux ans que j'suis en tournée On va leur dire Drapeau Blanc, disque d'or, j'ai mis mon coeur Sur un p'tit disque dur, et j'embrasse V.I.A Flavien, si j'suis ici c'est grâce à toi mon gava Oui mon pote c'est le drapeau blanc, 24 mai sur planète rap Oui mon pote c'est le drapeau blanc, 24 mai sur planète rap</t>
+          <t>Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Young Chilla veut du cash milli, j'le plierai pas dans la street à la Cassidy, hey Young Chilla est dans l'hood, j'ai croisé les loups, j'suis ni capé ni dans l'port Young Chilla joue les cartes, les risques, j'ai dû rapper face aux garces, j'ai le gap, bitches, hey Young Chill' est dans l'hood, j'ai croisé la foule là, j'ai capté, j'suis dans l'coup, hey, yah Yah, yah, yah, yah, je parle trop de moi, j'parle pas sur les autres et j'm'efforce d'ignorer les 'tasses J'travaille mon image, j'ai pris un virage, mira, j'émerge de nulle part et j'm'impose en une track Yah, yah, yah, yah, j'calcule pas les bougs, au milieu des loups, j'suis la loutre mais j'crie comme un ours Là, j'deviens virale, j'suis la sans-visage, j'ai quitté l'village, en pirogue, j'les pirate Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Eh, moi, j'ai pas l'temps qu'tu m'fasses perdre mon temps, eh Ola, ola, ola, ola, ouais Obscur et connu comme Bachar el-Assad, allez, j'alterne au feeling, hey, j'm'acharne à la salle Ils veulent plus de like, plus de like, plus de like, cinq dans ma tête comme Jackson, le meilleur comme Michael Woh, j'suis l'meilleur comme Michael, en impro sur Skyrock T'inquiète pas, ça rappe ça, oui, tu sais qu'je mic' drop, normal Nelick, Chilla, Eden, pas d'problème, mon gava Là, j'suis dédaigneux, là, j'suis respectable Tu vas p't-être éteindre mais tu sais que le flow est toujours très détestable Ça le fait, pas d'problème, on tape des selfies avec les frérots, dans la Tequila, je mets sur sel fin sur du Kanye Wesh Kiwi, t'as un truc là-d'ssus ou quoi ? Tu parles beaucoup mais tu fais que neni Tu veux savoir ce que fait kiwibunny J'mène une vie décalé comme le bruit du tonnerre Dans laquelle y'a des gens qui sont loin d'être honnête Tu me demande si j'ai fait des thunes Elle me demande si j'ai fait des tubes Désolé ça cou-pe, je passe dans un tu-nnel Ta grand-mère la pute si t'aime pas l'autotune J'dépense rien dans ton tieks Dans l'enveloppe j'espère que tout y est Trop de problèmes je pourrais pas tout dire Trop de promesses j'pourrais pas tout tenir Pour l'instant on lâche pas on tien, boy Si t'as pas confiance aux tiens faut rectifier le tir Pou, pou, pou, pou, pou, balle dans la tête pour effacer les tears J'm'en bas les couilles de la Rollex J'suis pas la relève, le rap j'le soulève, hey Sur mon bigot dès que j'me lève Si t'as pas de nouvelles c'est que tu m'as soûlé Les gens qui parlent mal on sait jamais qui c'est Leur avis ça m'étonnerait qu'il me serve Le freestyle c'est pour les types Mais y'a que des ti-peu qui viennent à mes concerts, merde J'suis pas assez con pour écouter vos merdes J'vais briller, j'vais briller, j'vais briller J'le jure sur vos mères, ouais Kiwibunny chez Skyrock, L.O.R.D chez Skyrock Rajoute pas de coca dans mon sky, boy Imprimez L-O-R-D sur leur visage à coup de clavier AZERTY De ceux qui agissent, pas de ceux qui envisagent Le grand public en vaut dix avertis Jsuis dans le tour-bus, tes dans la tourmente Leur carrière prise dans une tournante, ah Jfais danser leur fille dans le ventre de leur mère Donneraient leur mère pour faire gonfler leur ventre Petit prince de la trap chez les Enfoirés Jsuis le rappeur préféré du rappeur préféré du rappeur préféré dton rappeur préféré Appelle-moi rap de blanc, rap de iencli, copie d'Nekfeu ou je n'sais pas quelle connerie Mais rappelle-toi que j'arrive bientôt, si on fait un featuring, tu me sers d'intro J'aurais toujours les crocs et l'aileron dans le dos, j'observe leurs concerts pourris, ça envoie des textos dans la fosse Oui, y a des sous dans l'rap, mamie, t'inquiète pas, j'suis une mise à jour, on m'appelle Dany cinquième Dan J'écoute Paris la nuit, j'écoute Bruxelles Vie, je kicke donc rien à foutre que les pucelles kiffent Car c'est le RK1 pas R. Kelly, à l'heure qu'il est, j'veux ESSKEETIT dans l'Escalade Est-ce que là enfin je n'aurai plus d'ennemis ? Triste à dire, mais tout s'attend à disparaître J'ai des défauts, j'sais qu'ils peuvent nuires Jusqu'au jour où le vice m'arrête Merde, les anges crient à l'aide S'attend à 10 pareilles avant d'le devenir Apparemment j'suis apparenté à Paramour Certains cuisine la mort dans une caravane Moi j'suis devenu celui que j'rêvais d'être On est en impro, pas de problème J'retombe toujours sur mes pattes L.O.R, boom bap ou de la trap Pas de problème, tu sais que j'découpe planète rap Dit-moi donc, mon fréro, qui m'arrêtera Yo, c'est le 24 mai, ça le fait Mais car tu le sais, oui mon gars, tu peux le faire Y'a pas de scélérat on accéléra La concurrence à fini par baisser les bras depuis cinq années, jamais désarmé Fréro tu le sait, ma daronne me voit déjà roi Moi y'a pas de désarroi, oh merde Comment te dire que le cléon faisait pousser sa weed dans des armoires Ici c'est Lacoste, oui mon gars, tu sais que la go est belle donc je l'accoste Dédicace tout mes gars, qui le savent, qui le font Pas de problème, aussi ceux qui boivent de l'Euphon Et ceux qui roulent toute leur weed toute la journée Pas de problème mon gava ça fait deux ans que j'suis en tournée On va leur dire Drapeau Blanc, disque d'or, j'ai mis mon coeur Sur un p'tit disque dur, et j'embrasse V.I.A Flavien, si j'suis ici c'est grâce à toi mon gava Oui mon pote c'est le drapeau blanc, 24 mai sur planète rap Oui mon pote c'est le drapeau blanc, 24 mai sur planète rap</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en J'ai basé mon avenir sur mon audace, j'le fais pour la fierté de mes ancêtres La frontière est large entre la personne que tu es, à qui tu es habitué et celui que tu penses être Prince de la trap devenu roi de la ville, j'ai fini par changer l'décor Tout s'esquinte sauf le destin, tu peux mourir ou enjamber les corps J'ai beau cultiver ma lumière, j'me lève avec un nouveau vice de plus J'me porte bien mieux depuis qu'j'côtoie plus de fils de pute Y'a des risques de pluie, surveille le ciel, regarde les étoiles Prends la plus ancienne et n'oublie jamais que j'existe depuis J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende You might also like J'te disais d'te taire et d'juste profiter du voyage Laisse-moi piloter, cesse de gigoter, tu deviens pitoyable La mort n'a rien d'effroyable, tu verras qu'elle est loyale Donc ne stresse plus chaque fois que tes boyaux se mettent à picoter Dois-je te ligoter ? Tu te calmes ou tu décèdes Si c'est l'cas je n'veux pas de trace d'ectoplasme sur les sièges Tu te vides, lèg', oui chef Véritable pipelette, tu réclames la vie d'rêve Est ce que t'es fan de la vitesse ? T'étouffe la agrippée Ton crâne écrase l'appuie-tête Là ça fait quoi d'badtriper ? D'écouter battre la pluie belge ? Tes coups d'éclats m'fatiguent, peye Et d'où tu grattes l'amitié ? Depuis t'à l'heure t'es là, face à moi, j'te parle, mais qui t'es ? On reviendra qu'avec un trophée pour les auditeurs Avec le crâne de chaque prod accroché au rétroviseur Ce soir, on rentre tard, va falloir s'y habituer D'abord, je te ferai rendre l'âme, après tu m'diras qui tu es Marche le cur serré, deux larmes de peine dans les globes oculaires Un désespoir tentaculaire comme pour tous ceux incarcérés Les portes se brisent, le port se lève, la voile n'est pas resserrée Jeune en perte guidé par ses rêves, fuit son destin de porcelaine Les curs sont froids, les egos cloisonnés, j'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc y a plus de pleurs que de balles, j'vais pas m'empêcher d'tout donner On passe des cernes aux rides, les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir comme une éclipse dans un ciel de cendres noires On s'envenime, ça, c'est nos vies, rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies mais ma peine s'est déversée</t>
+          <t>J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en J'ai basé mon avenir sur mon audace, j'le fais pour la fierté de mes ancêtres La frontière est large entre la personne que tu es, à qui tu es habitué et celui que tu penses être Prince de la trap devenu roi de la ville, j'ai fini par changer l'décor Tout s'esquinte sauf le destin, tu peux mourir ou enjamber les corps J'ai beau cultiver ma lumière, j'me lève avec un nouveau vice de plus J'me porte bien mieux depuis qu'j'côtoie plus de fils de pute Y'a des risques de pluie, surveille le ciel, regarde les étoiles Prends la plus ancienne et n'oublie jamais que j'existe depuis J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'arrive en roi, j'pars en légende J'te disais d'te taire et d'juste profiter du voyage Laisse-moi piloter, cesse de gigoter, tu deviens pitoyable La mort n'a rien d'effroyable, tu verras qu'elle est loyale Donc ne stresse plus chaque fois que tes boyaux se mettent à picoter Dois-je te ligoter ? Tu te calmes ou tu décèdes Si c'est l'cas je n'veux pas de trace d'ectoplasme sur les sièges Tu te vides, lèg', oui chef Véritable pipelette, tu réclames la vie d'rêve Est ce que t'es fan de la vitesse ? T'étouffe la agrippée Ton crâne écrase l'appuie-tête Là ça fait quoi d'badtriper ? D'écouter battre la pluie belge ? Tes coups d'éclats m'fatiguent, peye Et d'où tu grattes l'amitié ? Depuis t'à l'heure t'es là, face à moi, j'te parle, mais qui t'es ? On reviendra qu'avec un trophée pour les auditeurs Avec le crâne de chaque prod accroché au rétroviseur Ce soir, on rentre tard, va falloir s'y habituer D'abord, je te ferai rendre l'âme, après tu m'diras qui tu es Marche le cur serré, deux larmes de peine dans les globes oculaires Un désespoir tentaculaire comme pour tous ceux incarcérés Les portes se brisent, le port se lève, la voile n'est pas resserrée Jeune en perte guidé par ses rêves, fuit son destin de porcelaine Les curs sont froids, les egos cloisonnés, j'étais dans ceux qu'tu vois zoner Comment savoir si c'qu'ils proposent n'est pas cadeau empoisonné ? Plus de peur que de mal, fleurs du mal engoudronnées Donc y a plus de pleurs que de balles, j'vais pas m'empêcher d'tout donner On passe des cernes aux rides, les rideaux s'ferment, laissent entrevoir des scènes horribles On cerne le vide, du moins c'qu'on semble voir comme une éclipse dans un ciel de cendres noires On s'envenime, ça, c'est nos vies, rappelle-toi c'qu'on nous drainait Ici l'espoir voudrait naître mais la jeunesse dorée titube toujours avec la poudre au nez Dans nos cieux, peu déclaircies mais ma peine s'est déversée</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Si je meurs demain, j'me rappellerais encore d'hier J'aurais enfin réponse aux inconnus de l'ordinaire Si je meurs demain, j'sais même pas qui restera pour suivre le corbillard Si je meurs demain, j'pourrais jamais voir les cimes de la Cordillère J'oublierais la douceur d'l'enfance J'ferais le vide absolu comme quand mes étoiles m'encensent Si je mourais demain, j'espère que mon père serait fier Si je mourais demain, j'espère que ma mère serait faire J'irais m'excuser pour tous les tords que j'ai causé J'oublierais les faux espoirs à métamorphoser J'effacerais mes défauts J'assumerais peut-être la totalité de mes fautes J'verrais que c'est désastreux mais même les astres meurent Si je meurs demain, j'effacerais les contrastes amers J'irais voir toutes les horloges de Dalí couler J'pourrais peut-être pas éviter d'voir Paris sous les bombes J'me repentirais pour tous les mondes que j'ai manipulés J'me rappellerais du bruit de la pluie sur la vitre De nos curs, des sentiments qui s'y trouvent J'dirais oui à mes problèmes, loin de l'âme de Vitruve J'te rappellerais qu'on est libre comme nos arbitres Si je meurs demain, est-ce que je ferais les gros titres Au final, j'en ai rien à foutre, moi, j'voulais juste donner de l'espoir à la foule J'ferais du bruit après ma lumière comme quand viendra la foudre J'irais chanter mon mal-être, j'verrais des séraphins sans reflet s'érafler sur les remparts de la ville J'ferais mes adieux dans ma lettre puisque la mort n'est qu'une autre part de la vie Et je sais qu'c'est hyper dur, mais oublie tes regrets Tes paradis perdus, avant d'être enterré Ne crois pas en tes rêves, réalise les J'ai mis mon cur dans cet album Le monde tient dans mes deux mains Et toi que ferais-tu si tu mourais demain ?You might also like1</t>
+          <t>Si je meurs demain, j'me rappellerais encore d'hier J'aurais enfin réponse aux inconnus de l'ordinaire Si je meurs demain, j'sais même pas qui restera pour suivre le corbillard Si je meurs demain, j'pourrais jamais voir les cimes de la Cordillère J'oublierais la douceur d'l'enfance J'ferais le vide absolu comme quand mes étoiles m'encensent Si je mourais demain, j'espère que mon père serait fier Si je mourais demain, j'espère que ma mère serait faire J'irais m'excuser pour tous les tords que j'ai causé J'oublierais les faux espoirs à métamorphoser J'effacerais mes défauts J'assumerais peut-être la totalité de mes fautes J'verrais que c'est désastreux mais même les astres meurent Si je meurs demain, j'effacerais les contrastes amers J'irais voir toutes les horloges de Dalí couler J'pourrais peut-être pas éviter d'voir Paris sous les bombes J'me repentirais pour tous les mondes que j'ai manipulés J'me rappellerais du bruit de la pluie sur la vitre De nos curs, des sentiments qui s'y trouvent J'dirais oui à mes problèmes, loin de l'âme de Vitruve J'te rappellerais qu'on est libre comme nos arbitres Si je meurs demain, est-ce que je ferais les gros titres Au final, j'en ai rien à foutre, moi, j'voulais juste donner de l'espoir à la foule J'ferais du bruit après ma lumière comme quand viendra la foudre J'irais chanter mon mal-être, j'verrais des séraphins sans reflet s'érafler sur les remparts de la ville J'ferais mes adieux dans ma lettre puisque la mort n'est qu'une autre part de la vie Et je sais qu'c'est hyper dur, mais oublie tes regrets Tes paradis perdus, avant d'être enterré Ne crois pas en tes rêves, réalise les J'ai mis mon cur dans cet album Le monde tient dans mes deux mains Et toi que ferais-tu si tu mourais demain ?1</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Nananana nananananana Nananana nananananana Nananana nananananana Talam talam ta ta na Ne laisse jamais les autres te dicter qui t'es Oublie jamais que t'es unique Maman m'a dit Fais d'la musique Pour enlever les étiquettes C'est difficile de croire en soi Encore plus compliqué de croire en les autres Aucune limite à tes rêves Qui que tes parents soient Tu sais, quand on veut aller haut On subit la vie et ses aléas J'ai donné ma confiance à peu de personnes Croise nous en concert tu m'verras faire une bise à Léo Je m'suis promis de ne plus remettre au lendemain T'auras à faire à moi si tu t'attaques à l'un des miens Avant chaque scène, j'ai l'stress Comme quad papa conduisait deux secondes sans les mains Mais c'est jamais perdu d'avance Comme un Promis, j'le répète à personne Depuis deux ans, ma vie c'est des vacances J'vis tellement mon rêve que j'en perds sommeil On a commencé devant des salles vides Impossible d'rentrer si on avait à faire au videur On reste deux heures Demain on saute dans l'avion pour Calvi, ouais You might also like Nananana nananananana Nananana nananananana Nananana nananananana Talam talam ta ta na</t>
+          <t>Nananana nananananana Nananana nananananana Nananana nananananana Talam talam ta ta na Ne laisse jamais les autres te dicter qui t'es Oublie jamais que t'es unique Maman m'a dit Fais d'la musique Pour enlever les étiquettes C'est difficile de croire en soi Encore plus compliqué de croire en les autres Aucune limite à tes rêves Qui que tes parents soient Tu sais, quand on veut aller haut On subit la vie et ses aléas J'ai donné ma confiance à peu de personnes Croise nous en concert tu m'verras faire une bise à Léo Je m'suis promis de ne plus remettre au lendemain T'auras à faire à moi si tu t'attaques à l'un des miens Avant chaque scène, j'ai l'stress Comme quad papa conduisait deux secondes sans les mains Mais c'est jamais perdu d'avance Comme un Promis, j'le répète à personne Depuis deux ans, ma vie c'est des vacances J'vis tellement mon rêve que j'en perds sommeil On a commencé devant des salles vides Impossible d'rentrer si on avait à faire au videur On reste deux heures Demain on saute dans l'avion pour Calvi, ouais Nananana nananananana Nananana nananananana Nananana nananananana Talam talam ta ta na</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis-moi c'que j'suis censé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'veux voir le monde, donc je monte, mais j'ai tellement peur du vide Nostalgique derrière la vitre j'pense aux amis perdus vite Tristesse devient colère, colère devient douleur Douleur me rend solitaire, comme tout le monde sur la Terre La vie est ce qu'elle est Mes émotions prennent l'ascenseur, j'passe par l'escalier Même dans la foule je me sens seul, faut s'contenter d'la vie Suffit d'faire un pas d'côté pour contempler la vue J'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? Ouais j'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? You might also like J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tout à gagner, plus rien à perdre Du mal à trouver ma place au milieu des wagons bondés J'ai passé ma jeunesse un peu seul à vagabonder Eternelle boucle infernale finira par me faire mal Camouflés derrière nos façades, on est que d'passage Solitude m'emprisonne peu importe le nombre Même si le temps m'isole, jamais seul avec mon ombre Personne ne peut m'soigner, vu qu'on se sent toujours seul, même accompagné J'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? Ouais j'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tout à gagner, plus rien à perdre Seul dans ma tête, seul dans ma tête C'est comme un tremblement d'terre, tremblement d'terre, peu comme un- Seul dans ma tête, seul dans ma tête C'est comme un tremblement d'terre, tremblement d'terre, peu comme un- Ouais, j'ai posé des questions, j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seuls entre eux ? J'crois qu'on est tous solitaires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire frère Tout à gagner, plus rien à perdre</t>
+          <t>J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis-moi c'que j'suis censé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'veux voir le monde, donc je monte, mais j'ai tellement peur du vide Nostalgique derrière la vitre j'pense aux amis perdus vite Tristesse devient colère, colère devient douleur Douleur me rend solitaire, comme tout le monde sur la Terre La vie est ce qu'elle est Mes émotions prennent l'ascenseur, j'passe par l'escalier Même dans la foule je me sens seul, faut s'contenter d'la vie Suffit d'faire un pas d'côté pour contempler la vue J'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? Ouais j'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tout à gagner, plus rien à perdre Du mal à trouver ma place au milieu des wagons bondés J'ai passé ma jeunesse un peu seul à vagabonder Eternelle boucle infernale finira par me faire mal Camouflés derrière nos façades, on est que d'passage Solitude m'emprisonne peu importe le nombre Même si le temps m'isole, jamais seul avec mon ombre Personne ne peut m'soigner, vu qu'on se sent toujours seul, même accompagné J'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? Ouais j'ai posé des réponses j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seul entre eux ? J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tout à gagner, plus rien à perdre Seul dans ma tête, seul dans ma tête C'est comme un tremblement d'terre, tremblement d'terre, peu comme un- Seul dans ma tête, seul dans ma tête C'est comme un tremblement d'terre, tremblement d'terre, peu comme un- Ouais, j'ai posé des questions, j'ai reçu des questions Posé des réponses, j'ai reçu des questions Comment font les autres pour vivre aussi seuls entre eux ? J'crois qu'on est tous solitaires Juste un humain de plus sur la Terre Dis moi c'que j'suis censé faire, frère Tu sais, moi j'ai plus grand chose à perdre J'crois qu'on est tous solitaires-taires Juste un humain de plus sur la Terre Dis moi c'que j'suis sensé faire frère Tout à gagner, plus rien à perdre</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Eh, oh woah I feel so lonely x4 J'étais seul et désespéré J'ai enterré mes intérêts Et t'en pleures et t'en pleures et tu perds La matière qui s'trouve dans tes rêves C'est difficile de sinsérer J'ai du mal à coopérer Et t'en pleures et t'en pleures et tu perds La volonté de te taire Tes paupières peignent les cernes dessinées J'n'écoute que quand c'est trop tard, yeah Tandis que nos destinées viennent au monde sur le trottoir Faut bien plus qu'un notaire notoire Vie d'rockstar, veste de motard Je respecte que c'que je veux Oui je fais c'que je veux Des yeux comme les tiens sont trop rares You might also like1</t>
+          <t>Eh, oh woah I feel so lonely x4 J'étais seul et désespéré J'ai enterré mes intérêts Et t'en pleures et t'en pleures et tu perds La matière qui s'trouve dans tes rêves C'est difficile de sinsérer J'ai du mal à coopérer Et t'en pleures et t'en pleures et tu perds La volonté de te taire Tes paupières peignent les cernes dessinées J'n'écoute que quand c'est trop tard, yeah Tandis que nos destinées viennent au monde sur le trottoir Faut bien plus qu'un notaire notoire Vie d'rockstar, veste de motard Je respecte que c'que je veux Oui je fais c'que je veux Des yeux comme les tiens sont trop rares 1</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Let's go J'suis plus dans l'rap, j'suis dans la recherche P4 La barre est si haute que la concurrence fait du saut à la perche Ce soir, si ma voix sature c'est que l'enfer a ri mouahaha On veut serrer la ceinture pour finir dans une vroom Combien d'fois va falloir vous dire qu'un pénis n'est pas comestible ? Rien à foutre, rap de blanc ta race J'suis pas là pour qu'on m'estime, j'ai toujours considéré l'son d'la semaine dernière comme vestige Faut être YouTuber, rappeur, chanteur, humoriste ou opportuniste Mon nom résonne jusqu'au port d'Tunis À l'heure où j'parle certains corps pourrissent dans des coffres, motherfucker J'ai le fond, j'ai la forme, j'ai l'étoffe, motherfucker L.O.R, lyrical cocktail Molotov, motherfucker Mes amis d'enfance veulent faire de l'argent sur mon dos Surmené, dix appels en une heure Demande ma secrétaire, j'peux pas dire c'qu'il se prépare Gueule d'ange normal que la fille du préfet me préfère Surveille le ciel let's go, préviens le monde woah Surveille le ciel let's go, préviens le monde wah Respecte le client car le client est roi Les pieds dans le ciment, j'ai de l'or sur les doigts You might also like J'suis pas un nouveau riche, j'suis un ancien pauvre maman On veut plus d'un coup Dans c'monde, seuls les plus grands s'imposent J'fais des rêves où j'paiee plus d'impôts, wouah Y aura des contusions, le p'tit cousin du p'tit cousin veut son selfie ah Conclusion ah les dommages sont plusieurs hein, hein Mes sourires sont usés okay J'les laisse dans la confusion wouah Les autographes sont diffusés Donc, j'repars avec la seule fille J'y vais pas d'main morte comme Jamel, allez, fume le zamal, j'roule en Bentley comme Amel Tout est rouge et noir tel Stendhal, j'suis pas dans les codes, fuck, fuck tes standards ahah 10 de mes capacités j'suis qu'à 10 de mes capacités deux fois Ici, on est vite incités par la Vie de rêve et son immensité Si t'aimes pas, t'écoutes pas ou bien va t'renseigner ah J'ai fait sur le rap français yeah Surveille le ciel let's go, préviens le monde woah Surveille le ciel let's go, préviens le monde wah Respecte le client car le client est roi Les pieds dans le ciment, j'ai de l'or sur les doigts Merveilleux Chaque journée qui passe m'approche un peu plus de mon million d'euros On arrive à 200 comme un commando aïe J'suis resté l'même, je ne joue pas de rôle Devenir légendaire comme Belmondo aïe J'connais l'anxiété, brille dans la nuit comme le cosmos tout l'été wah-wah J'étais pas dans ta hype mais mes soss y étaient wah-wah P'tit fils d'immigré gravit échelons d'la société ouais Faut d'la persévérance s'tu veux percer Faut s'exercer, j'dois remercier l'destin J'me sens vivre dans mes versets, à quoi bon tergiverser ? J'ai laissé mes adversaires dans l'rétro de la Mercedes Moi, je me sens proche du ciel, j'ai pleuré des larmes de sel Marché dans la ville, le soir, pour chercher mon âme sur Puis, j'ai marié ma clef d'sol, tout garder à part mon seum Je ne dois rien à personne car j'ai monté mon armée seul Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort</t>
+          <t>Let's go J'suis plus dans l'rap, j'suis dans la recherche P4 La barre est si haute que la concurrence fait du saut à la perche Ce soir, si ma voix sature c'est que l'enfer a ri mouahaha On veut serrer la ceinture pour finir dans une vroom Combien d'fois va falloir vous dire qu'un pénis n'est pas comestible ? Rien à foutre, rap de blanc ta race J'suis pas là pour qu'on m'estime, j'ai toujours considéré l'son d'la semaine dernière comme vestige Faut être YouTuber, rappeur, chanteur, humoriste ou opportuniste Mon nom résonne jusqu'au port d'Tunis À l'heure où j'parle certains corps pourrissent dans des coffres, motherfucker J'ai le fond, j'ai la forme, j'ai l'étoffe, motherfucker L.O.R, lyrical cocktail Molotov, motherfucker Mes amis d'enfance veulent faire de l'argent sur mon dos Surmené, dix appels en une heure Demande ma secrétaire, j'peux pas dire c'qu'il se prépare Gueule d'ange normal que la fille du préfet me préfère Surveille le ciel let's go, préviens le monde woah Surveille le ciel let's go, préviens le monde wah Respecte le client car le client est roi Les pieds dans le ciment, j'ai de l'or sur les doigts J'suis pas un nouveau riche, j'suis un ancien pauvre maman On veut plus d'un coup Dans c'monde, seuls les plus grands s'imposent J'fais des rêves où j'paiee plus d'impôts, wouah Y aura des contusions, le p'tit cousin du p'tit cousin veut son selfie ah Conclusion ah les dommages sont plusieurs hein, hein Mes sourires sont usés okay J'les laisse dans la confusion wouah Les autographes sont diffusés Donc, j'repars avec la seule fille J'y vais pas d'main morte comme Jamel, allez, fume le zamal, j'roule en Bentley comme Amel Tout est rouge et noir tel Stendhal, j'suis pas dans les codes, fuck, fuck tes standards ahah 10 de mes capacités j'suis qu'à 10 de mes capacités deux fois Ici, on est vite incités par la Vie de rêve et son immensité Si t'aimes pas, t'écoutes pas ou bien va t'renseigner ah J'ai fait sur le rap français yeah Surveille le ciel let's go, préviens le monde woah Surveille le ciel let's go, préviens le monde wah Respecte le client car le client est roi Les pieds dans le ciment, j'ai de l'or sur les doigts Merveilleux Chaque journée qui passe m'approche un peu plus de mon million d'euros On arrive à 200 comme un commando aïe J'suis resté l'même, je ne joue pas de rôle Devenir légendaire comme Belmondo aïe J'connais l'anxiété, brille dans la nuit comme le cosmos tout l'été wah-wah J'étais pas dans ta hype mais mes soss y étaient wah-wah P'tit fils d'immigré gravit échelons d'la société ouais Faut d'la persévérance s'tu veux percer Faut s'exercer, j'dois remercier l'destin J'me sens vivre dans mes versets, à quoi bon tergiverser ? J'ai laissé mes adversaires dans l'rétro de la Mercedes Moi, je me sens proche du ciel, j'ai pleuré des larmes de sel Marché dans la ville, le soir, pour chercher mon âme sur Puis, j'ai marié ma clef d'sol, tout garder à part mon seum Je ne dois rien à personne car j'ai monté mon armée seul Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort Oh yeah J'attire lumière, j'ai grandi dans l'noir Tu sais, ici, on croit en nous Comme la vie après la mort</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Yeah yeah Oui Ollow Yeah Hola Konnichiwa Ollow Salam dis moi NAMASTE Comme une pute si j'baise le game, j'srai obligé d'le khalasser J't'écoute parler, j'me fais chier comme devant Patrick Sabatier J'habite Paris, tout est pourri ici, on n'parle même pas l'anglais Comme Kanye, j'cuisine des hits depuis l'hôpital psychiatrique Vous êtes des copies conformes, vous voir vous perdre me fout la trique Plus tu t'en bats les couilles, plus ça plaît Plus tu respectes personne, plus ça paye Plus tu t'en bats les couilles, plus ça plaît Téma le boss Téma le boss Téma le boss À chaque nouveau flow, ils sont sidérés Tu rappes en levrette et t'es libéré 90 des récits des rappeurs français sont à reconsidérer, sidérés Ce stratagème est délibéré Leur carrière s'éteint chez Deliveroo J'finis seul sur le trône, beaucoup s'y verraient Toute tentative de part est incinérée-cinérée Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet La fille du premier rang mouille sur ce talent qui est inné Le rap F.R. se fait piétiner Même dans l'cul d'ta daronne, j'suis actionnaire majoritaire J'réitère le rap, remercie mon géniteur, j'ai ni tort Ni raison, j'suis chez Majeur-Mineur T'inquiète, je gère mon heure majeure dans une mineure Tant dis qu'j'décris l'humain tout comme dans Germinal Fais pas le gosse You might also like Téma le boss Téma le boss Téma le boss Ollow Yeah Téma le boss, wo, oh, oh Téma le boss, wo, oh, oh Téma le boss Plus tu t'en bats les couilles, plus ça plaît Plus tu respectes personne, plus ça paye Plus tu t'en bats les couilles, plus ça plaît Téma le boss Téma le boss Téma le boss</t>
+          <t>Yeah yeah Oui Ollow Yeah Hola Konnichiwa Ollow Salam dis moi NAMASTE Comme une pute si j'baise le game, j'srai obligé d'le khalasser J't'écoute parler, j'me fais chier comme devant Patrick Sabatier J'habite Paris, tout est pourri ici, on n'parle même pas l'anglais Comme Kanye, j'cuisine des hits depuis l'hôpital psychiatrique Vous êtes des copies conformes, vous voir vous perdre me fout la trique Plus tu t'en bats les couilles, plus ça plaît Plus tu respectes personne, plus ça paye Plus tu t'en bats les couilles, plus ça plaît Téma le boss Téma le boss Téma le boss À chaque nouveau flow, ils sont sidérés Tu rappes en levrette et t'es libéré 90 des récits des rappeurs français sont à reconsidérer, sidérés Ce stratagème est délibéré Leur carrière s'éteint chez Deliveroo J'finis seul sur le trône, beaucoup s'y verraient Toute tentative de part est incinérée-cinérée Tout niquer, tout niquer, tout niquer Mon pied sur ta tête dans le tourniquet La fille du premier rang mouille sur ce talent qui est inné Le rap F.R. se fait piétiner Même dans l'cul d'ta daronne, j'suis actionnaire majoritaire J'réitère le rap, remercie mon géniteur, j'ai ni tort Ni raison, j'suis chez Majeur-Mineur T'inquiète, je gère mon heure majeure dans une mineure Tant dis qu'j'décris l'humain tout comme dans Germinal Fais pas le gosse Téma le boss Téma le boss Téma le boss Ollow Yeah Téma le boss, wo, oh, oh Téma le boss, wo, oh, oh Téma le boss Plus tu t'en bats les couilles, plus ça plaît Plus tu respectes personne, plus ça paye Plus tu t'en bats les couilles, plus ça plaît Téma le boss Téma le boss Téma le boss</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Manger des glaces couleur beiges et boire de la bière belge Le pire c'est que j'ai mangé mais cétait pas bon mais c'était pas trop mauvais Une fois j'ai été en Afrique et il avaient pas de t-shirt je peux te le dire ils sont tout nus It's a prank En vrai c'était trop bien c'est le meilleur été que j'ai jamais passé avec Miguel Le racisme c'est être réaliste, c'est savoir différencier les êtres supérieurs sans être Suprémaciste Tu as le choix de sauver toute ta famille ou un nèg... oups un noir qui a pas de bras, tu sauve qui ? Tu va pas sauver moignon-man ? La vie c'est comme un biscuit c'est pas de la viande Même les femmes ont des urètres même si c'est pas homologué Oh Cordo t'a la corde au cou ? Chloé tu sais que l'eau est chaude ? West t'es a l'Ouest respiration de bâtard C'est quoi le point commun entre Orelsan et Nekfeu ? Bah y a pas de réponse j'ai pas la réponse vu que je te pose la question Cordo t'es un stérilet cassé t'es conscient de ça ta mère elle s'est mit une enclume dans la chatte elle a cru c'était un stérilet Je me sens unique avec un ftus dans mon corps Woaw putain je me déçois Dev on parlais des ara... de toi Y a le prof qui touche les cuisse en cour d'SVT, le prof tout nu, le prof qui t'attend dans la voiture, le prof dans le lit de ton père T'arrive t'a fini les cours t'es trop content et y a ton frère il joue a la XPlaystayboxPC et il joue a Minecraft oh t'es trop fort t'a fait une maison et la y a ta mère elle baise avec ton prof en fait c'est pas ton prof cest ton père parceque ton père il ressemble a ton prof mais en fait non c'est vraiment ton prof et oui c'est pour ça que t'a des bonnes note en vrai tu crois que tu va réussir ta vie mais tu va finir en L et en sarouel toute ta vie pd ! Nous on se vente en mode Ouais je connais Lord Esperanza et bah les arabes ils font Moi je connaissait le mec qui conduisait l'avion avant qu'il perce mdr Haaaaaaaaaaaaan Haaaaaaaaaaaaaaan West il est allé dans le Nord Oh t'sais on a tous un p'tit gros dans notre lycée il se déplace en roulant. Il se déplace en diesel. Il se sont greffé des roulettes dans le cul A partir du moment ou tu met des capotes quand tu baise t'es un garçon manqué On l' pas souhaité le bon anniversaire a Oussama le 11 septembre ou l'a oublié La couche d'ozone elle est voilée en Algérie Fricadelle DemsYou might also like</t>
+          <t>Manger des glaces couleur beiges et boire de la bière belge Le pire c'est que j'ai mangé mais cétait pas bon mais c'était pas trop mauvais Une fois j'ai été en Afrique et il avaient pas de t-shirt je peux te le dire ils sont tout nus It's a prank En vrai c'était trop bien c'est le meilleur été que j'ai jamais passé avec Miguel Le racisme c'est être réaliste, c'est savoir différencier les êtres supérieurs sans être Suprémaciste Tu as le choix de sauver toute ta famille ou un nèg... oups un noir qui a pas de bras, tu sauve qui ? Tu va pas sauver moignon-man ? La vie c'est comme un biscuit c'est pas de la viande Même les femmes ont des urètres même si c'est pas homologué Oh Cordo t'a la corde au cou ? Chloé tu sais que l'eau est chaude ? West t'es a l'Ouest respiration de bâtard C'est quoi le point commun entre Orelsan et Nekfeu ? Bah y a pas de réponse j'ai pas la réponse vu que je te pose la question Cordo t'es un stérilet cassé t'es conscient de ça ta mère elle s'est mit une enclume dans la chatte elle a cru c'était un stérilet Je me sens unique avec un ftus dans mon corps Woaw putain je me déçois Dev on parlais des ara... de toi Y a le prof qui touche les cuisse en cour d'SVT, le prof tout nu, le prof qui t'attend dans la voiture, le prof dans le lit de ton père T'arrive t'a fini les cours t'es trop content et y a ton frère il joue a la XPlaystayboxPC et il joue a Minecraft oh t'es trop fort t'a fait une maison et la y a ta mère elle baise avec ton prof en fait c'est pas ton prof cest ton père parceque ton père il ressemble a ton prof mais en fait non c'est vraiment ton prof et oui c'est pour ça que t'a des bonnes note en vrai tu crois que tu va réussir ta vie mais tu va finir en L et en sarouel toute ta vie pd ! Nous on se vente en mode Ouais je connais Lord Esperanza et bah les arabes ils font Moi je connaissait le mec qui conduisait l'avion avant qu'il perce mdr Haaaaaaaaaaaaan Haaaaaaaaaaaaaaan West il est allé dans le Nord Oh t'sais on a tous un p'tit gros dans notre lycée il se déplace en roulant. Il se déplace en diesel. Il se sont greffé des roulettes dans le cul A partir du moment ou tu met des capotes quand tu baise t'es un garçon manqué On l' pas souhaité le bon anniversaire a Oussama le 11 septembre ou l'a oublié La couche d'ozone elle est voilée en Algérie Fricadelle Dems</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Mesdames, Messieurs, merci de garder votre calme. Le commandant a réussi à passer les turbulences mais nous allons devoir faire une escale à Pusan pour faire le plein de kérosène. Merci de rester assis et de surveiller vos enfantsYou might also like</t>
+          <t>Mesdames, Messieurs, merci de garder votre calme. Le commandant a réussi à passer les turbulences mais nous allons devoir faire une escale à Pusan pour faire le plein de kérosène. Merci de rester assis et de surveiller vos enfants</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Intro Lord Esperanza Speranza Hors de Portée 2015 C'est comment ? C'est comment ? Ça se considère dans le futur ha Tel un décalage horaire mais Tout ces cas sidère, certains murmures Car les murs ont des oreilles Salut c'est le virus ouais ouais Essentiel qui sans cesse comme l'inceste assiste Déploie les papyrus La science est un ancêtre qui t'incite comme système Insister pas systématiquement Mais si c'n'était pas mathématiques comment Capter les tigres sans les Car les contraires ça tire Qui veut môter ma tech' Matez les types qui sent l' Dans ce système statique tout les matins Genre télékinésie, amassez les sommes Flows téléguidés, tous les quilles sont liquidés Mais vu que la NASA yo Flatter le en liquide, c'est décidé Car d'autres partent au Canada S'annonce le seum Le terrain t'a tout fait rater Donc ça se terre à Toronto Mais tes râteaux vont tarrêter Non sans se taire et sans retour Similaire au corrompus man Ca peut d'venir compromettant Tous les millitaires qui ont rompus gagnent Beaucoup plus que toi dans un premier temps J'y vais accapela pendant l'apocalypse pour la weed et ses lips Et puis comme , j'me sens très galactiqueYou might also like</t>
+          <t>Intro Lord Esperanza Speranza Hors de Portée 2015 C'est comment ? C'est comment ? Ça se considère dans le futur ha Tel un décalage horaire mais Tout ces cas sidère, certains murmures Car les murs ont des oreilles Salut c'est le virus ouais ouais Essentiel qui sans cesse comme l'inceste assiste Déploie les papyrus La science est un ancêtre qui t'incite comme système Insister pas systématiquement Mais si c'n'était pas mathématiques comment Capter les tigres sans les Car les contraires ça tire Qui veut môter ma tech' Matez les types qui sent l' Dans ce système statique tout les matins Genre télékinésie, amassez les sommes Flows téléguidés, tous les quilles sont liquidés Mais vu que la NASA yo Flatter le en liquide, c'est décidé Car d'autres partent au Canada S'annonce le seum Le terrain t'a tout fait rater Donc ça se terre à Toronto Mais tes râteaux vont tarrêter Non sans se taire et sans retour Similaire au corrompus man Ca peut d'venir compromettant Tous les millitaires qui ont rompus gagnent Beaucoup plus que toi dans un premier temps J'y vais accapela pendant l'apocalypse pour la weed et ses lips Et puis comme , j'me sens très galactique</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>C'est l'ange sur mon épaule qui m'apporte le pacte J'suis guidé par les vents cosmiques Dans l'épicentre de la faille J'ai laissé des impacts d'une pureté intacte Une lueur de génie m'applaudit Leurs paroles suivent pas les actes Mannequin allemande à l'arrière de l'Audi 23 carats, 2-3 diamants polis J'entends les cieux me complimenter 10 ans d'âge finit par fermenter Faut remonter, leur prouver qu'on est complémentaires Dans tous les cas, j'accomplis mon destin La prophétie dit qu'mes couplets vont t'plaire Ils osent critiquer, leurs doutes les font taire Merde, l'avenir est entre nos mains Dans la Salle du Temps en plein entrainement On s'voit entre meneurs, je suis entremetteur Jeune entrepreneur dans l'histoire à long terme Mes constats les consternent J'ai rejoins l'univers et ses couleurs sont ternes J'attends qu'ma musique rémunère S.P.E.R attire toute la lumière Idées visionnaires, dans 10 ans J'suis mort ou millionnaire Fier de mon art et ses répercussions Numéro 23 sur l'écusson Il m'arrive d'avoir quelques excès d'pulsions Je veux la tête d'leur chef dexécution Quand il s'agit d'écrire, je deviens ambidextre J'vois en plus grand celui qu'j'ai envie d'être J'prépare bien mon antithèse J'prépare bien mon antithèse J'prépare bien mon antithèse Piqûre de basse enflammée On est pas similaires, faudra l'assimiler Merde, dissimulés dans l'angle 2-3 chefs-d'oeuvre Très bien disséminés, neurones acidulés J'ai l'âme enfouie dans les recoins d'un spectre Attendant que le ciel ne nous tombe sur la tête Que des sombres maquettes Je vise le globe, oui le monde c'est ma quête Le phnix m'indique quand renaître Y'a beaucoup de magma dans mes artères coronaires Avant d'être nouveau-né, j'étais déjà couronné Boulevard Saint-Honoré, j'revois mes honoraires 2-3 résidus d'flow qui s'concentrent sur un nerf Si tu veux feater c'est 2000 pour une heure La Nasa est lunaire Un seul coup d'téléphone et je suis élu maire Enfouies dans l'épiderme J'ai des particules que les chercheurs énumèrent Yeah, yeah, Lord motherfucker Qu'est-ce tu vas faire ? Hein ? Pi, 3.14, yeah, yeah Deux mile ze-sei dans cette shit Deux mile ze-sei Onlynasa motherfucker Onlynasa motherfucker Lord S.P.E.RYou might also like</t>
+          <t>C'est l'ange sur mon épaule qui m'apporte le pacte J'suis guidé par les vents cosmiques Dans l'épicentre de la faille J'ai laissé des impacts d'une pureté intacte Une lueur de génie m'applaudit Leurs paroles suivent pas les actes Mannequin allemande à l'arrière de l'Audi 23 carats, 2-3 diamants polis J'entends les cieux me complimenter 10 ans d'âge finit par fermenter Faut remonter, leur prouver qu'on est complémentaires Dans tous les cas, j'accomplis mon destin La prophétie dit qu'mes couplets vont t'plaire Ils osent critiquer, leurs doutes les font taire Merde, l'avenir est entre nos mains Dans la Salle du Temps en plein entrainement On s'voit entre meneurs, je suis entremetteur Jeune entrepreneur dans l'histoire à long terme Mes constats les consternent J'ai rejoins l'univers et ses couleurs sont ternes J'attends qu'ma musique rémunère S.P.E.R attire toute la lumière Idées visionnaires, dans 10 ans J'suis mort ou millionnaire Fier de mon art et ses répercussions Numéro 23 sur l'écusson Il m'arrive d'avoir quelques excès d'pulsions Je veux la tête d'leur chef dexécution Quand il s'agit d'écrire, je deviens ambidextre J'vois en plus grand celui qu'j'ai envie d'être J'prépare bien mon antithèse J'prépare bien mon antithèse J'prépare bien mon antithèse Piqûre de basse enflammée On est pas similaires, faudra l'assimiler Merde, dissimulés dans l'angle 2-3 chefs-d'oeuvre Très bien disséminés, neurones acidulés J'ai l'âme enfouie dans les recoins d'un spectre Attendant que le ciel ne nous tombe sur la tête Que des sombres maquettes Je vise le globe, oui le monde c'est ma quête Le phnix m'indique quand renaître Y'a beaucoup de magma dans mes artères coronaires Avant d'être nouveau-né, j'étais déjà couronné Boulevard Saint-Honoré, j'revois mes honoraires 2-3 résidus d'flow qui s'concentrent sur un nerf Si tu veux feater c'est 2000 pour une heure La Nasa est lunaire Un seul coup d'téléphone et je suis élu maire Enfouies dans l'épiderme J'ai des particules que les chercheurs énumèrent Yeah, yeah, Lord motherfucker Qu'est-ce tu vas faire ? Hein ? Pi, 3.14, yeah, yeah Deux mile ze-sei dans cette shit Deux mile ze-sei Onlynasa motherfucker Onlynasa motherfucker Lord S.P.E.R</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Je rentre dans cette trap comme je rentre dans l'Histoire Mon reflet dans l'or des lustres K.R.Onos toile signée Lord Lux J'les vois tous échouer depuis ma tour d'ivoire Fais musique pour briller Les égos s'accumulent comme l'orgueil dans le réceptacle Peu importe qui tu es, j'suis là pour te destituer D'entrée je sens que mes antécédents les font changer de sens J'étais tenté, c'est dans les coups que j'encaissais Que j'ai trouvé refuge, comme tous les précédents Fais musique pour billets Viens dans la traphouse fuck toutes les conséquences Elle veut s'déshabiller et j'la filme en plan séquence Fais musique pour briller Couronne sur la tête tout comme Henri VI SO Lux, mes négros s'enrichissent J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Essuyes-toi la bouche, il doit t'en rester J'veux des basses saturées sur un glitch, sur un sneetch En avance sur mon temps tout comme Frederic Nietzsche L.O.R.D J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Appelle-moi Lord, j'ai 10 ans d'expé You might also like Toi tu peux pas, mais Espe peut Donc restez calmes, restez calmes mohofucker J'suis respectueux donc respectable, respectable mohofucker Trap Tears, verse une larme Mais je sais que le temps n'efface pas mes regrets Ma destinée se crée tu veux stopper l'progrès Mais j'bâtis mon empire en secret Trap Tears, oui le cul d'ta racli bouge Trap Tears, Trap Tears, retrouve-nous sur le tapis rouge Fais musique pour briller, fais musique pour billets Fais musique pour briller, fais musique pour... J'suis dans le piège, ma tête s'colle au siège SO l'enfant du siècle, jeune Lord entend le siège Sors du Q7 j'suis en Burburry beige, mayne Elle a les sinus enneigés J'pense à mon art, j'élimine c'qui l'énerve ADN dans leur game pour 23 millénaires J'voulais toucher une montre j'suis l'avenir d'son reflet Le cul d'ta pute me plait Rockstar comme Metallica Faudra faire monter la com, mon mental est métallique Couronne sur la tête mais j'suis controversé Oui c'est bien le pouvoir que je compte renverser Faudra compter, recompter puis compter les billets Que je compte reverser pour mes sombres versets De la vie de château tout comme Henri VI SO Lux, mes négros s'enrichissent J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Essuyes-toi la bouche, il doit t'en rester J'veux des basses saturées sur un glitch, sur un sneetch Je veux juste devenir riche, L.O.R.D J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Appelle-moi Lord, j'ai 10 ans d'expé Toi tu peux pas, mais Espe peut Donc restez calmes, restez calmes mohofucker J'suis respectueux donc respectable, respectable mohofucker Trap Tears, verse une larme Mais je sais que le temps n'efface pas mes regrets Ma destinée se crée tu veux stopper l'progrès Mais j'bâtis mon empire en secret Trap Tears, oui le cul d'ta racli bouge Trap Tears, Trap Tears, retrouve-nous sur le tapis rouge Fais musique pour briller, fais musique pour billets Fais musique pour briller, fais musique pour... J'suis dans cette merde car l'empire est vital, c'est inévitable Comme finir dans l'élite de la hiérarchie pyramidale Fuck un parcours méritable SO Cachemire Jasmin qui fait mouiller ta pute Anonymous fait ma pub La concu' tire dans un cube Appelle Young Sid si tu veux faire un tube L'enfant du siècle en enterre dix Main droite dans texte sacré Main gauche veut palper l'interdit N'oublie pas que le vice vient après On vise l'ascension sociale, donc faut prêter attention au ciel Du quartier résidentiel, à la suite présidentielle</t>
+          <t>Je rentre dans cette trap comme je rentre dans l'Histoire Mon reflet dans l'or des lustres K.R.Onos toile signée Lord Lux J'les vois tous échouer depuis ma tour d'ivoire Fais musique pour briller Les égos s'accumulent comme l'orgueil dans le réceptacle Peu importe qui tu es, j'suis là pour te destituer D'entrée je sens que mes antécédents les font changer de sens J'étais tenté, c'est dans les coups que j'encaissais Que j'ai trouvé refuge, comme tous les précédents Fais musique pour billets Viens dans la traphouse fuck toutes les conséquences Elle veut s'déshabiller et j'la filme en plan séquence Fais musique pour briller Couronne sur la tête tout comme Henri VI SO Lux, mes négros s'enrichissent J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Essuyes-toi la bouche, il doit t'en rester J'veux des basses saturées sur un glitch, sur un sneetch En avance sur mon temps tout comme Frederic Nietzsche L.O.R.D J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Appelle-moi Lord, j'ai 10 ans d'expé Toi tu peux pas, mais Espe peut Donc restez calmes, restez calmes mohofucker J'suis respectueux donc respectable, respectable mohofucker Trap Tears, verse une larme Mais je sais que le temps n'efface pas mes regrets Ma destinée se crée tu veux stopper l'progrès Mais j'bâtis mon empire en secret Trap Tears, oui le cul d'ta racli bouge Trap Tears, Trap Tears, retrouve-nous sur le tapis rouge Fais musique pour briller, fais musique pour billets Fais musique pour briller, fais musique pour... J'suis dans le piège, ma tête s'colle au siège SO l'enfant du siècle, jeune Lord entend le siège Sors du Q7 j'suis en Burburry beige, mayne Elle a les sinus enneigés J'pense à mon art, j'élimine c'qui l'énerve ADN dans leur game pour 23 millénaires J'voulais toucher une montre j'suis l'avenir d'son reflet Le cul d'ta pute me plait Rockstar comme Metallica Faudra faire monter la com, mon mental est métallique Couronne sur la tête mais j'suis controversé Oui c'est bien le pouvoir que je compte renverser Faudra compter, recompter puis compter les billets Que je compte reverser pour mes sombres versets De la vie de château tout comme Henri VI SO Lux, mes négros s'enrichissent J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Essuyes-toi la bouche, il doit t'en rester J'veux des basses saturées sur un glitch, sur un sneetch Je veux juste devenir riche, L.O.R.D J'suis dans cette shit comme dans cette bitch Ténébreux sans respect Appelle-moi Lord, j'ai 10 ans d'expé Toi tu peux pas, mais Espe peut Donc restez calmes, restez calmes mohofucker J'suis respectueux donc respectable, respectable mohofucker Trap Tears, verse une larme Mais je sais que le temps n'efface pas mes regrets Ma destinée se crée tu veux stopper l'progrès Mais j'bâtis mon empire en secret Trap Tears, oui le cul d'ta racli bouge Trap Tears, Trap Tears, retrouve-nous sur le tapis rouge Fais musique pour briller, fais musique pour billets Fais musique pour briller, fais musique pour... J'suis dans cette merde car l'empire est vital, c'est inévitable Comme finir dans l'élite de la hiérarchie pyramidale Fuck un parcours méritable SO Cachemire Jasmin qui fait mouiller ta pute Anonymous fait ma pub La concu' tire dans un cube Appelle Young Sid si tu veux faire un tube L'enfant du siècle en enterre dix Main droite dans texte sacré Main gauche veut palper l'interdit N'oublie pas que le vice vient après On vise l'ascension sociale, donc faut prêter attention au ciel Du quartier résidentiel, à la suite présidentielle</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, nous allons traverser quelques zones de turbulence. Des vents chauds nous poussent à l'ouest. Il est possible que nous modifions quelque peu notre itinéraire initial. Veuillez regagner votre siège. Et pensez à rattacher votre ceintureYou might also like</t>
+          <t>Mesdames, messieurs, nous allons traverser quelques zones de turbulence. Des vents chauds nous poussent à l'ouest. Il est possible que nous modifions quelque peu notre itinéraire initial. Veuillez regagner votre siège. Et pensez à rattacher votre ceinture</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>J'transforme les rêves en ambitions Je n'ai confiance qu'en ma vision Sur cette terre on est en mission Maman me voit sur télévision Succès en missionaire, les fans sont des visionnaires Les doute se sont fait rares, les envieux s'additionèrent Pull-up, flex dans une Ferrari Appel Edge si tu veux produit du terroir Devenir poussièreux dans un tiroir Le reflet de mon époque dans un miroir Enfoiré d'chroniqueur tu fais pas ce que tu veux d'ma grand-mère Nanani nananère, paradis perdus dans les yeux de ma mère J'suis seul, j'refait l'monde, j'suis dans une chambre d'hôtel J'vois des âmes anciennes dans des corps juvéniles Reste de regrets sur le calendrier Des pleurs dispersés sur les bords du vinyle J'suis dans club chemise en satin sans bretelles Pas que le fond de mon verre qui m'entend crier Mon frère j'suis dedans depuis l'embryon Pourquoi tu laisses pas le talent briller ? Ma liasse d'espoirs a brûlé ah ouais ouais ouais J'vois mon son coaguler ah ouais ouais ouais Les anges arrivent cagoulés ah ouais ouais ouais Haïs ou adulés You might also like Le temps d'une nuit j'ai besoin de tout oublier Les blessures, les séquelles ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Ouais c'est tout pour l'benef, ouais c'est tout pour l'benef Le temps d'une nuit j'ai besoin de tout oublier Les séquelles, les blessures ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Espérons que demain sera Tutto Bene La tête vers le haut, le joint vers le ciel A défaut de joindre les deux bouts Déchus en enfer mes démons ont des ailes J'prends la nuit pour le jour, corps est fait d'amour Pour ça que mon coeur est sourd, bon qu'à faire les cent pas Comme un mec au card-pla, constamment en guerre Avec toutes ces voix qui parlent en moi, veulent pas lâcher l'affaire J'ai besoin de tant de choses, pourtant j'me prive de rien Sur les lignes de ma main, se dessine les grandes choses Au féfé, au bolide allemand, j'penserais moins à tout mes manques J'ai trop subi la vie d'avant à rêver biff, argent Faut que j'm'extirpe brillamment Vision troublé sous produits afghans Argent parle, visage change Drapeau noir, les pirates dansent Ma liasse d'espoirs a brûlé ah ouais ouais ouais J'vois mon son coaguler ah ouais ouais ouais Les anges arrivent cagoulés ah ouais ouais ouais Haïs ou adulés Le temps d'une nuit j'ai besoin de tout oublier Les blessures, les séquelles ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Ouais c'est tout pour l'benef, ouais c'est tout pour l'benef Le temps d'une nuit j'ai besoin de tout oublier Les séquelles, les blessures ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Espérons que demain sera Tutto Bene</t>
+          <t>J'transforme les rêves en ambitions Je n'ai confiance qu'en ma vision Sur cette terre on est en mission Maman me voit sur télévision Succès en missionaire, les fans sont des visionnaires Les doute se sont fait rares, les envieux s'additionèrent Pull-up, flex dans une Ferrari Appel Edge si tu veux produit du terroir Devenir poussièreux dans un tiroir Le reflet de mon époque dans un miroir Enfoiré d'chroniqueur tu fais pas ce que tu veux d'ma grand-mère Nanani nananère, paradis perdus dans les yeux de ma mère J'suis seul, j'refait l'monde, j'suis dans une chambre d'hôtel J'vois des âmes anciennes dans des corps juvéniles Reste de regrets sur le calendrier Des pleurs dispersés sur les bords du vinyle J'suis dans club chemise en satin sans bretelles Pas que le fond de mon verre qui m'entend crier Mon frère j'suis dedans depuis l'embryon Pourquoi tu laisses pas le talent briller ? Ma liasse d'espoirs a brûlé ah ouais ouais ouais J'vois mon son coaguler ah ouais ouais ouais Les anges arrivent cagoulés ah ouais ouais ouais Haïs ou adulés Le temps d'une nuit j'ai besoin de tout oublier Les blessures, les séquelles ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Ouais c'est tout pour l'benef, ouais c'est tout pour l'benef Le temps d'une nuit j'ai besoin de tout oublier Les séquelles, les blessures ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Espérons que demain sera Tutto Bene La tête vers le haut, le joint vers le ciel A défaut de joindre les deux bouts Déchus en enfer mes démons ont des ailes J'prends la nuit pour le jour, corps est fait d'amour Pour ça que mon coeur est sourd, bon qu'à faire les cent pas Comme un mec au card-pla, constamment en guerre Avec toutes ces voix qui parlent en moi, veulent pas lâcher l'affaire J'ai besoin de tant de choses, pourtant j'me prive de rien Sur les lignes de ma main, se dessine les grandes choses Au féfé, au bolide allemand, j'penserais moins à tout mes manques J'ai trop subi la vie d'avant à rêver biff, argent Faut que j'm'extirpe brillamment Vision troublé sous produits afghans Argent parle, visage change Drapeau noir, les pirates dansent Ma liasse d'espoirs a brûlé ah ouais ouais ouais J'vois mon son coaguler ah ouais ouais ouais Les anges arrivent cagoulés ah ouais ouais ouais Haïs ou adulés Le temps d'une nuit j'ai besoin de tout oublier Les blessures, les séquelles ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Ouais c'est tout pour l'benef, ouais c'est tout pour l'benef Le temps d'une nuit j'ai besoin de tout oublier Les séquelles, les blessures ont laissées des plaies Elles ont poussées mésanges à finir cagoulé Espérons que demain sera Tutto Bene</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>En retranscription Qui vivra verra, je veux luxure et prestige, en figeant le temps C'est désastreux mais, même les astres meurent J'suis au bord des abysses le cur dans les vestiges On ne craint plus l'échec, ni la peur du succès Si jeune et tant d'talent je n'suis qu'une âme de plus Qu'a le vertige face à ces rêves d'enfant L-O-R-D mo'fucker Cristallise mon orgueil sur l'orgue Je fais des envieux le temps passe J'sais comment fermer leur gueules Joffrey, j'ai pas de citron dans mon Vodka-Martini J'suis récalcitrant Je suis parti de rien mais je suis parti libre Les pilons s'entassent dans l'cendrier J'éradique avant d'trier, fais musique pour billets Laisse la talent briller ah Des larmes de sueur et du sang Mon âme se consume dans c'putain d'encrier On recrée l'histoire c'est pas rédhibitoire fixé sur le calendrier Je suis béni du ciel car il fait mes victoires J'revois maman prier, j'ai les deux mains liés Mais je n'ai pas le temps d'crier You might also like Ride ma ville dans l'vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ride ride la ville dans le vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ecrit l'histoire qu'au sommaire Ecrit l'histoire qu'au sommaire Comme comme le Kosovo Commet que des gros Violent comme le Kosovo Commet que des gros Ride ride la ville dans le vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ecrit l'histoire qu'au sommaire</t>
+          <t>En retranscription Qui vivra verra, je veux luxure et prestige, en figeant le temps C'est désastreux mais, même les astres meurent J'suis au bord des abysses le cur dans les vestiges On ne craint plus l'échec, ni la peur du succès Si jeune et tant d'talent je n'suis qu'une âme de plus Qu'a le vertige face à ces rêves d'enfant L-O-R-D mo'fucker Cristallise mon orgueil sur l'orgue Je fais des envieux le temps passe J'sais comment fermer leur gueules Joffrey, j'ai pas de citron dans mon Vodka-Martini J'suis récalcitrant Je suis parti de rien mais je suis parti libre Les pilons s'entassent dans l'cendrier J'éradique avant d'trier, fais musique pour billets Laisse la talent briller ah Des larmes de sueur et du sang Mon âme se consume dans c'putain d'encrier On recrée l'histoire c'est pas rédhibitoire fixé sur le calendrier Je suis béni du ciel car il fait mes victoires J'revois maman prier, j'ai les deux mains liés Mais je n'ai pas le temps d'crier Ride ma ville dans l'vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ride ride la ville dans le vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ecrit l'histoire qu'au sommaire Ecrit l'histoire qu'au sommaire Comme comme le Kosovo Commet que des gros Violent comme le Kosovo Commet que des gros Ride ride la ville dans le vaisseau mère Vaisseau mère, vai-vai-vaisseau mère Ecrit l'histoire qu'au sommaire</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Jai vu 50 degrés à lombre, les puissants laissent la terre cuire Chaque nouveau problème On le remplace pour le faire fuir Des gens déprimés, réprimés comme des primates Des villes où lon sacclimate, enfermé dans sa petite boîte Quand jouvre les yeux jai si mal On est les mêmes moutons que le Petit Prince dessina, putain Jai du faire un Very Bad Trip Cerveau cramé, plus de batterie Jai du faire un Very Bad Trip Comme si javais le doigt dans la prise Jai vu des gens admiratifs des plus hauts gradés militaires Plus tas de morts à ton actif et plus tas de médaille en fer Des filles de 14 ans suivies par des hommes de quarante trois Et des gourous te faire miroiter quils peuvent te faire croire en toi Avis de tempête Les politiques sont amnésiques Moi jai voulu que tout sarrête Comme un silence dans la musique Jai du faire un Very Bad Trip Cerveau cramé, plus de batterie Jai du faire un Very Bad Trip Comme si javais le doigt dans la priseYou might also like</t>
+          <t>Jai vu 50 degrés à lombre, les puissants laissent la terre cuire Chaque nouveau problème On le remplace pour le faire fuir Des gens déprimés, réprimés comme des primates Des villes où lon sacclimate, enfermé dans sa petite boîte Quand jouvre les yeux jai si mal On est les mêmes moutons que le Petit Prince dessina, putain Jai du faire un Very Bad Trip Cerveau cramé, plus de batterie Jai du faire un Very Bad Trip Comme si javais le doigt dans la prise Jai vu des gens admiratifs des plus hauts gradés militaires Plus tas de morts à ton actif et plus tas de médaille en fer Des filles de 14 ans suivies par des hommes de quarante trois Et des gourous te faire miroiter quils peuvent te faire croire en toi Avis de tempête Les politiques sont amnésiques Moi jai voulu que tout sarrête Comme un silence dans la musique Jai du faire un Very Bad Trip Cerveau cramé, plus de batterie Jai du faire un Very Bad Trip Comme si javais le doigt dans la prise</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Hello cha Majeur-Mineur Hé J'regarde le ciel, je dis merci Quand j'vois tous nos supporters assis par terre sku sku J'en ai laissé quelques-uns dans l'inertie Vise le Stade de France, fuck un Bercy Oui, Polaroïd est dans ta télé ay J'suis l'meilleur, t'as capté les bails Négligé, négligé, négligé, né J'pisse sur leur tombe, j'suis même plus gêné aaaah Leur carrière dans un Tupperware J'les baise, ils le sentent ultérieurement On n'évolue qu'entre immuables yah Les plus forts s'entaillent, mec, j'ai pas ton time, j'suis dans maison d'campagne, finançant l'champagne avec l'argent d'contribuables Tu ressens la puissance, ah Les plus intelligents se noient même par orgueil dans leur propre puits d'science, ah On va fermer leurs gueules Fils de, j'ai mon expo dans l'ciel Miskina, j'ves-qui la vermine J'avance déterminé sur des terres minées mais mon potentiel est exponentiel yah Leur pouvoir d'achat dans le cellophane cha Poésie trash pour hanter les femmes cha Tu vas m'voir monter les marches à Cannes Nahal Sheitan, je me fais reconnaître, c'est nos fans Très gros cerveau comme dans Mars Attacks Leur album au rayon farces-attrapes J'suis l'Prince de la trap, ay Busy, 2M, rép' au téléphone, wouh Connu de Siem-Reap à Wellington ay Les rappeurs ne font plus qu'du reggaeton ay Ils s'taisent lorsque j'entre en scène Va leur dire que j'les baise et qu'ça fait 137 haha Ça fait longtemps qu'on s'voit, l'info s'est propagée Elle dit non, trop pas, j'ai fait que boire un café Mais pourtant, je l'ai prise dans l'fond d'son potager Elle veut pas qu'ça sache car elle est trop âgée ah J'suis dans leur gorge en longueur et largeur LO vide son chargeur Aucune différence entre fils de pute et fils de député Elle veut ma ch car je suis réputé J'connais pas la défaite, ça, c'est pour les faibles J'm'arrêterai pas, même dans grand appart' avec vue sur la Tour EiffelYou might also like</t>
+          <t>Hello cha Majeur-Mineur Hé J'regarde le ciel, je dis merci Quand j'vois tous nos supporters assis par terre sku sku J'en ai laissé quelques-uns dans l'inertie Vise le Stade de France, fuck un Bercy Oui, Polaroïd est dans ta télé ay J'suis l'meilleur, t'as capté les bails Négligé, négligé, négligé, né J'pisse sur leur tombe, j'suis même plus gêné aaaah Leur carrière dans un Tupperware J'les baise, ils le sentent ultérieurement On n'évolue qu'entre immuables yah Les plus forts s'entaillent, mec, j'ai pas ton time, j'suis dans maison d'campagne, finançant l'champagne avec l'argent d'contribuables Tu ressens la puissance, ah Les plus intelligents se noient même par orgueil dans leur propre puits d'science, ah On va fermer leurs gueules Fils de, j'ai mon expo dans l'ciel Miskina, j'ves-qui la vermine J'avance déterminé sur des terres minées mais mon potentiel est exponentiel yah Leur pouvoir d'achat dans le cellophane cha Poésie trash pour hanter les femmes cha Tu vas m'voir monter les marches à Cannes Nahal Sheitan, je me fais reconnaître, c'est nos fans Très gros cerveau comme dans Mars Attacks Leur album au rayon farces-attrapes J'suis l'Prince de la trap, ay Busy, 2M, rép' au téléphone, wouh Connu de Siem-Reap à Wellington ay Les rappeurs ne font plus qu'du reggaeton ay Ils s'taisent lorsque j'entre en scène Va leur dire que j'les baise et qu'ça fait 137 haha Ça fait longtemps qu'on s'voit, l'info s'est propagée Elle dit non, trop pas, j'ai fait que boire un café Mais pourtant, je l'ai prise dans l'fond d'son potager Elle veut pas qu'ça sache car elle est trop âgée ah J'suis dans leur gorge en longueur et largeur LO vide son chargeur Aucune différence entre fils de pute et fils de député Elle veut ma ch car je suis réputé J'connais pas la défaite, ça, c'est pour les faibles J'm'arrêterai pas, même dans grand appart' avec vue sur la Tour Eiffel</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite J'emmène une jolie suédoise à la comédie française Dans ton regard tu me toises Peu importe c'qu'on me dit Ouais je sais qu'ça me nuit Et si le sexe s'amenuise Au moins tu sais j'tue l'ennuie J'me sens bien quand t'entre en scène Elle s'appelait Amanda 2 yeux en amande Alors elle me demanda Mais c'est qui Molière Le bonheur Ce n'est qu'une course sans fin Vaut mieux l'ignorer pour être heureux Wah être un homme c'est aussi pleurer Wah j'en ai pas l'air mais j'suis peureux Ce soir la pluie veut m'effleurer Le ciel attendra que l'on se retrouve Main dans ses cheveux Elle m'a dit je te veux, je te veux, je te veux ... You might also like Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite Buée dans la pièce Tes jambes qui tremblent Les murs acquiescent Quand on s'assemble ensemble Aucune de nos nuits se ressemblent Difficile de finir sans bleu Chérie j'aime ton ouverture Tu t'évertues pour que le nous perdure Tu m'as dit j'veux que tu gouvernes Faisons le, sous couverture T'aimais bien mes phrases tirées par les cheveux Donc je t'ai tiré par les... ah Enlève ce regard malicieux C'est ce que j'avais de mieux Quand nos 2 corps mélodieux Sentremêlaient entre mes lèvres Écoute moi dans les yeux Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite</t>
+          <t>Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite J'emmène une jolie suédoise à la comédie française Dans ton regard tu me toises Peu importe c'qu'on me dit Ouais je sais qu'ça me nuit Et si le sexe s'amenuise Au moins tu sais j'tue l'ennuie J'me sens bien quand t'entre en scène Elle s'appelait Amanda 2 yeux en amande Alors elle me demanda Mais c'est qui Molière Le bonheur Ce n'est qu'une course sans fin Vaut mieux l'ignorer pour être heureux Wah être un homme c'est aussi pleurer Wah j'en ai pas l'air mais j'suis peureux Ce soir la pluie veut m'effleurer Le ciel attendra que l'on se retrouve Main dans ses cheveux Elle m'a dit je te veux, je te veux, je te veux ... Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite Buée dans la pièce Tes jambes qui tremblent Les murs acquiescent Quand on s'assemble ensemble Aucune de nos nuits se ressemblent Difficile de finir sans bleu Chérie j'aime ton ouverture Tu t'évertues pour que le nous perdure Tu m'as dit j'veux que tu gouvernes Faisons le, sous couverture T'aimais bien mes phrases tirées par les cheveux Donc je t'ai tiré par les... ah Enlève ce regard malicieux C'est ce que j'avais de mieux Quand nos 2 corps mélodieux Sentremêlaient entre mes lèvres Écoute moi dans les yeux Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite Maintenant qu'il y a de l'orage J'sais pas si j'en ai trop fait Si cette lueur est surfaite Laisse-moi r'garder ton visage J'sais pas si j'en ai trop fait Si cette pensée est surfaite</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ya Puta est en manque, rempli canaux nasaux d'chienne Ceux qui demandent le feat sont tous sadomasochistes Ces rappeurs sans culture s'enculent tous c'est des putains de buzz skia Ton arcade sourcilière s'enflammera sur le butagaz S'entre-tue pour cacher faible au fond de Ville J'm'en fous qu't'aies des tâches à faire, travaille sur ta base ya Tu veux copier le génie sonde les terminaisons nerveuses Je ferai demi-tour j'préfère finir dans la serveuse J'suis dans tes dix cousines, mi-Basquiat, mi-Mozart Pousse ta grand-mère la chauve dans le fond des mimosas T'es dans le Limousin, je drift en limousine L.O Tous tes rêves sont cellophanés Warner vient de téléphoner Ma haine dans dans cette, dans cette mélo' Dans mon cur les roses ont fanées L'enfant du siècle en cabine Sous auto-tune en La mineur Traînée de lave et prose enflammée ya J'les vois s'allier contre moi distribue en des pétitions J'rigole à la fin de ton couplet comme comique de répétition Me raconte pas ta vie ça m'fatigue comme débat politique Au-dessus depuis le paléolithique Un, t'es bon qu'dans tes rêves Deux, t'es sans intérêt Trois, t'es pas prolifique Commence sur le trône mais tu finis banni J'vois des Koulibaly, j'vois des sophistiqués Chez moi Sophie sticke j'vois qu'ils savent astiquer Le produit qu'on propose avec Kiwi-Bunny Ecoute Drapeau Noir, comprends qu'j'suis visionnaire De mon futur je suis décisionnaire L'égo vous emporte dans souffrance restez-y J'avais le choix entre drogue et succès Sache que j'ai saisi l'honneurYou might also like</t>
+          <t>Ya Puta est en manque, rempli canaux nasaux d'chienne Ceux qui demandent le feat sont tous sadomasochistes Ces rappeurs sans culture s'enculent tous c'est des putains de buzz skia Ton arcade sourcilière s'enflammera sur le butagaz S'entre-tue pour cacher faible au fond de Ville J'm'en fous qu't'aies des tâches à faire, travaille sur ta base ya Tu veux copier le génie sonde les terminaisons nerveuses Je ferai demi-tour j'préfère finir dans la serveuse J'suis dans tes dix cousines, mi-Basquiat, mi-Mozart Pousse ta grand-mère la chauve dans le fond des mimosas T'es dans le Limousin, je drift en limousine L.O Tous tes rêves sont cellophanés Warner vient de téléphoner Ma haine dans dans cette, dans cette mélo' Dans mon cur les roses ont fanées L'enfant du siècle en cabine Sous auto-tune en La mineur Traînée de lave et prose enflammée ya J'les vois s'allier contre moi distribue en des pétitions J'rigole à la fin de ton couplet comme comique de répétition Me raconte pas ta vie ça m'fatigue comme débat politique Au-dessus depuis le paléolithique Un, t'es bon qu'dans tes rêves Deux, t'es sans intérêt Trois, t'es pas prolifique Commence sur le trône mais tu finis banni J'vois des Koulibaly, j'vois des sophistiqués Chez moi Sophie sticke j'vois qu'ils savent astiquer Le produit qu'on propose avec Kiwi-Bunny Ecoute Drapeau Noir, comprends qu'j'suis visionnaire De mon futur je suis décisionnaire L'égo vous emporte dans souffrance restez-y J'avais le choix entre drogue et succès Sache que j'ai saisi l'honneur</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Vivre pour s'entre-tuer Cultiver sa différence Verser le sang jusqu'à suer Vivre ou mourir, quitter ce monde dans un fou rire Sur les bords du mirador, difficile de fuir la mort Pure créance, tout ça craint L'écran a plus de force qu'une caméra de surveillance Solitaire depuis l'départ, je ne pense qu'à renier les lois Rafraîchir la page d'accueil jusqu'à saigner des doigts La ville est une prison de verre que faire face à l'enfermement Les curs sont froids comme bout d'plastique J'me dit qu'parfois l'enfer me manque Rêver d'une vie fantastique, supprimer par lappât du gain Quand l'malheur nous pousse à bout, sommes-nous vraiment capables du bien ? Ce n'est pas signe de bonne santé mentale que d'être adapté à une société malade La vérité c'est qu'y a pas d'vérité, seul le temps révèle les procédés valables Dis-moi combien coûte un Homme ? Dis-moi combien coûte une âme Dirigés par le goût du risque, le prix d'une vie se résume dans le coup de l'arme Vie , dictature du paraître Certains pensent qu'avec des avoirs, on finit même par être Putain d'système aseptisé, lil de verre nous méprise À force, on est tous épuisés par la traîtrise qui fait criser Ouais la méfiance authentifiée, la douleur est dure à quantifier Monde en folie gentrifié, compliqué à authentifier Tous unis dans cette quête conjointe où les bas-fonds nous bercent Ma rébellion fait une tête plongeante dans le plafond de verreYou might also like</t>
+          <t>Vivre pour s'entre-tuer Cultiver sa différence Verser le sang jusqu'à suer Vivre ou mourir, quitter ce monde dans un fou rire Sur les bords du mirador, difficile de fuir la mort Pure créance, tout ça craint L'écran a plus de force qu'une caméra de surveillance Solitaire depuis l'départ, je ne pense qu'à renier les lois Rafraîchir la page d'accueil jusqu'à saigner des doigts La ville est une prison de verre que faire face à l'enfermement Les curs sont froids comme bout d'plastique J'me dit qu'parfois l'enfer me manque Rêver d'une vie fantastique, supprimer par lappât du gain Quand l'malheur nous pousse à bout, sommes-nous vraiment capables du bien ? Ce n'est pas signe de bonne santé mentale que d'être adapté à une société malade La vérité c'est qu'y a pas d'vérité, seul le temps révèle les procédés valables Dis-moi combien coûte un Homme ? Dis-moi combien coûte une âme Dirigés par le goût du risque, le prix d'une vie se résume dans le coup de l'arme Vie , dictature du paraître Certains pensent qu'avec des avoirs, on finit même par être Putain d'système aseptisé, lil de verre nous méprise À force, on est tous épuisés par la traîtrise qui fait criser Ouais la méfiance authentifiée, la douleur est dure à quantifier Monde en folie gentrifié, compliqué à authentifier Tous unis dans cette quête conjointe où les bas-fonds nous bercent Ma rébellion fait une tête plongeante dans le plafond de verre</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Je parais familier à des millions d'étrangers, mon business, c'est moi-même, sur moi, je suis centré Phénomène s'étend, l'argent se prend, se dépense, mes proches me trouvent moins présent, je préfère en plaisanter Soif de reconnaissance immense, je n'arriverai jamais à l'étancher Tous mes défauts, je ne veux pas les changer, me r'mettr en question me frait flancher Puis voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent C'est pas parce que mon train d'vie fuse à deux cents à l'heure que j'suis à des années-lumière que j'suis à des années-lumière Peut-être que dans mes yeux, tu verrais qu'je suis ailleurs si je n'portais pas de lunettes J'ai vu des gens aimer mes sons et sans condition, te l'rendre au centuple Parle-moi français si tu m'vois changer, y a pas si longtemps, j'me serrais la ceinture Et j'veux pas juste passer comme une étoile filante mais, c'est c'que mes enfants pensaient d'moi la dernière fois qu'j'suis rentré J'sais même pas quoi leur dire, j'te jure que parfois, j'ai honte, comment leur avouer qu'papa veut plaire au monde entier ? Et puis voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent You might also like Beaucoup d'étoiles qu'on voit la nuit sont déjà mortes, et alors ? Soit j'échoue, soit j'explose comme une bombe qu'on désamorce, et alors ? Me parle pas d'célébrité, ne rien dire sur son succès, j'crois qu'au final, c'est l'ébruiter Des années à vouloir plus, quitte à mettre mes peurs sous scellés, les amis, les affaires finissent par pourrir et s'emmêler Ils m'ont pris pour un fêlé, si personne veut qu'tu t'élèves, regarde vers le ciel et puis relève la tête et fais-le Si le vice me fascine, que le risque me taquine, pourrais-je encore me r'garder dans mon disque de platine ? Même en temps de paix, ils ne m'entendent guère Y a qu'à voir les éclipses, les astres aussi se font la guerre Solo comme une étoile Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Ouais, pour que les gens te regardent Solo comme une étoile La vie devient une illusion quand jour et nuit, tu vends du rêve1</t>
+          <t>Je parais familier à des millions d'étrangers, mon business, c'est moi-même, sur moi, je suis centré Phénomène s'étend, l'argent se prend, se dépense, mes proches me trouvent moins présent, je préfère en plaisanter Soif de reconnaissance immense, je n'arriverai jamais à l'étancher Tous mes défauts, je ne veux pas les changer, me r'mettr en question me frait flancher Puis voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent C'est pas parce que mon train d'vie fuse à deux cents à l'heure que j'suis à des années-lumière que j'suis à des années-lumière Peut-être que dans mes yeux, tu verrais qu'je suis ailleurs si je n'portais pas de lunettes J'ai vu des gens aimer mes sons et sans condition, te l'rendre au centuple Parle-moi français si tu m'vois changer, y a pas si longtemps, j'me serrais la ceinture Et j'veux pas juste passer comme une étoile filante mais, c'est c'que mes enfants pensaient d'moi la dernière fois qu'j'suis rentré J'sais même pas quoi leur dire, j'te jure que parfois, j'ai honte, comment leur avouer qu'papa veut plaire au monde entier ? Et puis voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Beaucoup d'étoiles qu'on voit la nuit sont déjà mortes, et alors ? Soit j'échoue, soit j'explose comme une bombe qu'on désamorce, et alors ? Me parle pas d'célébrité, ne rien dire sur son succès, j'crois qu'au final, c'est l'ébruiter Des années à vouloir plus, quitte à mettre mes peurs sous scellés, les amis, les affaires finissent par pourrir et s'emmêler Ils m'ont pris pour un fêlé, si personne veut qu'tu t'élèves, regarde vers le ciel et puis relève la tête et fais-le Si le vice me fascine, que le risque me taquine, pourrais-je encore me r'garder dans mon disque de platine ? Même en temps de paix, ils ne m'entendent guère Y a qu'à voir les éclipses, les astres aussi se font la guerre Solo comme une étoile Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent que les gens te regardent Voilà qu't'es solo comme une étoile Tu t'enflammes, ouais, pour que les gens te regardent Ouais, pour que les gens te regardent Solo comme une étoile La vie devient une illusion quand jour et nuit, tu vends du rêve1</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Il y a comme un mal-être Un sentiment de solitude Comme une envie de rester moi-même Jusquà ce que toute cette folie mtue Comme une étreinte gravée sur un drapeau noir Comme un rejet sociétal tout au fond de lentonnoir Comme un extrait de vie, comme un rideau dapparence Comme un appel paternel qui smanifeste quune fois par an Comme un besoin dtout quitter Comme un mépris quand ton nom finit par Déjà quitté Comme un Je sais déjà qui tes, comme un air dépité Devant le manque déquité Comme un arrêt au port Comme une silhouette embrasée au milieu de laéroport Comme une odeur de chloroforme Pour plaire aux formats Comme un Bush connard Tu sras jamais qui tu veux être Mais tsais il y a plus trop de normes Comme un clochard sous Moët Tfaçon jpeux rien changer Jsuis quun putain de poète Putain de poète, ouais ouais, putain de poète Comme une absence sous absinthe Comme une jalousie maladive Comme une absence sous absinthe Comme une jalousie maladive Comme un semblant de découverte Quand sont jtés des Gars, qui tes ? Comme un filtre opaque qui nous sépare et nous détruit Comme le goût dla déception Largent détruit le cur dautrui You might also likeComme un buvard chez Nick qui tabsorbe Comme une absence sous absinthe Comme des visages hantés écrasés sur des téléphones Comme une âme un peu équipée qui paye les frais Comme un cur nanana qui fait leffort Comme un regard méprisant qui régit toutes les relations Comme un sentiment lui vite dénoué de toute coloration Jtrouve des réponses, jpose des questions Jme pose des questions, jme pose des réponses Jy trouve des questions, jy pose des réponses Jy trouve des questions Combien damis ai-je perdus x4 Comme une absence sous absinthe x2 Merde jsuis quun poète x2 Putain jsuis quun poète Loin de moi lidée de ne taimer quun temps Je nallais pas bipper dans les sets détendants Ni tout à fait la même, ni tout à fait une autre Tous appellent la même quand les doutes appellent une autre Ni tout à fait la même, ni tout à fait une autre x2 Je relie tes taches de rousseur comme des constellations Dire que le monde est à ceux qui ont mangé la poussière Comme un arrêt au port</t>
+          <t>Il y a comme un mal-être Un sentiment de solitude Comme une envie de rester moi-même Jusquà ce que toute cette folie mtue Comme une étreinte gravée sur un drapeau noir Comme un rejet sociétal tout au fond de lentonnoir Comme un extrait de vie, comme un rideau dapparence Comme un appel paternel qui smanifeste quune fois par an Comme un besoin dtout quitter Comme un mépris quand ton nom finit par Déjà quitté Comme un Je sais déjà qui tes, comme un air dépité Devant le manque déquité Comme un arrêt au port Comme une silhouette embrasée au milieu de laéroport Comme une odeur de chloroforme Pour plaire aux formats Comme un Bush connard Tu sras jamais qui tu veux être Mais tsais il y a plus trop de normes Comme un clochard sous Moët Tfaçon jpeux rien changer Jsuis quun putain de poète Putain de poète, ouais ouais, putain de poète Comme une absence sous absinthe Comme une jalousie maladive Comme une absence sous absinthe Comme une jalousie maladive Comme un semblant de découverte Quand sont jtés des Gars, qui tes ? Comme un filtre opaque qui nous sépare et nous détruit Comme le goût dla déception Largent détruit le cur dautrui Comme un buvard chez Nick qui tabsorbe Comme une absence sous absinthe Comme des visages hantés écrasés sur des téléphones Comme une âme un peu équipée qui paye les frais Comme un cur nanana qui fait leffort Comme un regard méprisant qui régit toutes les relations Comme un sentiment lui vite dénoué de toute coloration Jtrouve des réponses, jpose des questions Jme pose des questions, jme pose des réponses Jy trouve des questions, jy pose des réponses Jy trouve des questions Combien damis ai-je perdus x4 Comme une absence sous absinthe x2 Merde jsuis quun poète x2 Putain jsuis quun poète Loin de moi lidée de ne taimer quun temps Je nallais pas bipper dans les sets détendants Ni tout à fait la même, ni tout à fait une autre Tous appellent la même quand les doutes appellent une autre Ni tout à fait la même, ni tout à fait une autre x2 Je relie tes taches de rousseur comme des constellations Dire que le monde est à ceux qui ont mangé la poussière Comme un arrêt au port</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Dans c'truc, on s'implique ouh J'suis dans fille de flic yeah Ouais, ouais, ouais, j'm'applique ouh Boy, ils sont tous weak yeah Je rentre dans le piège, ah J'ressors de sa ch..., ah Comment te dire que j'urine sur la plupart de leur debat LOR Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah LOR, Gucci Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah Ça fait dix ans que je rappe, yeah Je ressors d'une jeune de l'EFAP, ouh Je crache ma haine avec de l'autotune Sur vos classiques de merde de boombap, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah You might also like Ouh Verse une larme de whisky pour nos defunts Whipping whipping Zéro défaut Whipping, whipping Zéro défaite, yeah Là, j'suis dans banks, ouh Là, j'suis dans banks, yeah Là, j'suis dans banks J'arrive comme aristocrate Grosse claque sur sa fesse toute flasque Joue pas ma carrière aux cartes T'écoutes le master au casque, ouh Maitre guilloux à l'appareil Allo, Allo LOR Multiplie les droits d'auteur Disque d'or dans le RER Lord Esperanza dans ta ville, ça va fermer des culs Ouvrir des bouches, faire applaudir des pieds On m'a dit Lord toi, t'es plus ce que t'étais J'ai répondu j'suis dans l'Audi TT On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah</t>
+          <t>Dans c'truc, on s'implique ouh J'suis dans fille de flic yeah Ouais, ouais, ouais, j'm'applique ouh Boy, ils sont tous weak yeah Je rentre dans le piège, ah J'ressors de sa ch..., ah Comment te dire que j'urine sur la plupart de leur debat LOR Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah LOR, Gucci Leur avenir dans bout d'shit Ta salope est bouche bée Ton rappeur m'écoute, yeah Ça fait dix ans que je rappe, yeah Je ressors d'une jeune de l'EFAP, ouh Je crache ma haine avec de l'autotune Sur vos classiques de merde de boombap, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah Ouh Verse une larme de whisky pour nos defunts Whipping whipping Zéro défaut Whipping, whipping Zéro défaite, yeah Là, j'suis dans banks, ouh Là, j'suis dans banks, yeah Là, j'suis dans banks J'arrive comme aristocrate Grosse claque sur sa fesse toute flasque Joue pas ma carrière aux cartes T'écoutes le master au casque, ouh Maitre guilloux à l'appareil Allo, Allo LOR Multiplie les droits d'auteur Disque d'or dans le RER Lord Esperanza dans ta ville, ça va fermer des culs Ouvrir des bouches, faire applaudir des pieds On m'a dit Lord toi, t'es plus ce que t'étais J'ai répondu j'suis dans l'Audi TT On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah On my mind, ouh Money on my mind Money bag, money bag, ouh Money on my mind, yeah</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>J'ai mes clefs dans le poing entre mes doigts je les tiens Check derrière, check au loin et jusqu'ici tout va bien Marcher vite, baisser les yeux mais marcher bien au milieu Ils sont souvent cachés dans les coins T'es qu'un zéro, solo zéro, toi qui m'attends dans la rue J'y peux rien si c'est ta mère la dernière qui t'a vu tout nu Tu t'prends pour un animal, j'crois t'as maté trop de docus Si t'as vraiment trop la dalle, y a Pigalle ou les films de cul Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro, zéro, j'marche dans la nuit, je quémande des numéros J'veux faire diversion mais j'suis dans faits divers Non, je n'suis pas un héros J'erre dans la ville à la recherche de ma virilité, prêt à lui prendre sa timidité Je n'ai vu qu'elle, j'ai perdu toute humanité Bloqué dans l'hall devant la cage d'escaliers J'l'interpelle, lui impose mon envie d'aller s'caler Digicode en pleurs, je rallume tes peurs, donne-moi ton corps ensuite protège ton cur Sombre inconnu veut te voir nue, dissimulé derrière voiture J'attends dans l'noir pour révéler ma vraie nature La journée, j'suis normal, j'suis comme toi, j'suis comme eux, la nuit j'suis dépassé par mes pulsions Dans la tête ça pue l'sexe, j'me branle dans un buisson, j'veux t'aimer sur un matelas Bultex Ton regard pétrifié fait vriller mes intuitions, j'excuse mes actions car j'ai manqué d'affection J'ouvre les portes du réel, t'aimer n'est plus une fiction, j'agis puis j'contemple l'erreur de ma réflexion Percer ton armature, j'rêve de devenir un homme sage Peut-on blâmer Mère Nature de m'avoir créé comme ça ? You might also like Stilettos aiguisés, grazia roulé bien serré Gava t'as qu'à m'attaquer, la mode pourrait te matraquer Oui le style est important, je suis baguée jusqu'aux dents Coup de croc, pauvre chien, tout ça pour un coup de rein Lacrymo dans le sac, de la maison à la fac Pour te fumer du tac a tac, j'ai préparé la contre-attaque Krav-maga, grave mon gars, si tu m'aimes prends garde à toi Je ne te le dirai pas deux fois Tu t'expliques et tu divagues mais y a pas d'erreur Tu crois que tu dragues mais t'agis comme un violeur Pense à tous les zéros qui trainent dans le secteur Pense à tous les zéros qui pourraient serrer ta sur T'es qu'un zéro, solo zéro, toi qui m'attends dans la rue J'y peux rien si c'est ta mère la dernière qui t'a vu tout nu Tu t'prends pour un animal, j'crois t'as maté trop de docus Si t'as vraiment trop la dalle, y a Pigalle ou les films de cul Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro, zéro Zéro, zéro, zéro Zéro1</t>
+          <t>J'ai mes clefs dans le poing entre mes doigts je les tiens Check derrière, check au loin et jusqu'ici tout va bien Marcher vite, baisser les yeux mais marcher bien au milieu Ils sont souvent cachés dans les coins T'es qu'un zéro, solo zéro, toi qui m'attends dans la rue J'y peux rien si c'est ta mère la dernière qui t'a vu tout nu Tu t'prends pour un animal, j'crois t'as maté trop de docus Si t'as vraiment trop la dalle, y a Pigalle ou les films de cul Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro, zéro, j'marche dans la nuit, je quémande des numéros J'veux faire diversion mais j'suis dans faits divers Non, je n'suis pas un héros J'erre dans la ville à la recherche de ma virilité, prêt à lui prendre sa timidité Je n'ai vu qu'elle, j'ai perdu toute humanité Bloqué dans l'hall devant la cage d'escaliers J'l'interpelle, lui impose mon envie d'aller s'caler Digicode en pleurs, je rallume tes peurs, donne-moi ton corps ensuite protège ton cur Sombre inconnu veut te voir nue, dissimulé derrière voiture J'attends dans l'noir pour révéler ma vraie nature La journée, j'suis normal, j'suis comme toi, j'suis comme eux, la nuit j'suis dépassé par mes pulsions Dans la tête ça pue l'sexe, j'me branle dans un buisson, j'veux t'aimer sur un matelas Bultex Ton regard pétrifié fait vriller mes intuitions, j'excuse mes actions car j'ai manqué d'affection J'ouvre les portes du réel, t'aimer n'est plus une fiction, j'agis puis j'contemple l'erreur de ma réflexion Percer ton armature, j'rêve de devenir un homme sage Peut-on blâmer Mère Nature de m'avoir créé comme ça ? Stilettos aiguisés, grazia roulé bien serré Gava t'as qu'à m'attaquer, la mode pourrait te matraquer Oui le style est important, je suis baguée jusqu'aux dents Coup de croc, pauvre chien, tout ça pour un coup de rein Lacrymo dans le sac, de la maison à la fac Pour te fumer du tac a tac, j'ai préparé la contre-attaque Krav-maga, grave mon gars, si tu m'aimes prends garde à toi Je ne te le dirai pas deux fois Tu t'expliques et tu divagues mais y a pas d'erreur Tu crois que tu dragues mais t'agis comme un violeur Pense à tous les zéros qui trainent dans le secteur Pense à tous les zéros qui pourraient serrer ta sur T'es qu'un zéro, solo zéro, toi qui m'attends dans la rue J'y peux rien si c'est ta mère la dernière qui t'a vu tout nu Tu t'prends pour un animal, j'crois t'as maté trop de docus Si t'as vraiment trop la dalle, y a Pigalle ou les films de cul Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro T'es qu'un zéro, zéro Zéro, zéro, zéro Zéro, zéro, zéro Zéro1</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Lord_Esperanza_songs.xlsx
+++ b/data/02_intermediate/cleaned_Lord_Esperanza_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Acid Rose Garden</t>
+          <t>Alles Klar</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Don't hesitate and leave EPalbum suggestions Last update Oct 31 '24 entries count 1.9k 400 entries YTD objective 366 273 entries in 2023Rating system avg. 55.77, upd. Oct 09 10 Would recommend not to listen to 2 20 Didn't enjoy or wasn't my type 13 30 Meh, expected more or smth different 57 40 Decent background project andor too situational 247 50 Good background project Interesting concept 604 60 Decent project Good ideasmusicality 498 70 Good project, was worth the listen 239 80 A-tier project, splendid would recommend 110 90 S-tier project, splendid on repeat should listen 28 100 Goatesque, superb on repeat must listen 6Listen Later - Kingo Hamada - midnight cruisin Discographies will.i.am, Kekra, Eason Chan, Spacetime Continuum, Brennan Savage, Lana Del Rey, BTS, Laurent Voulzy, Billie Eilish, Bruno Mars, Aether, Georgio FRA, Alcest, The Game, Nas, Mobb Deep, Suprême NTM, Booba, Frank Ocean, Jay-Z, Kanye West, Prince, WILLOW, Jaden, Usher, Yoko Shimomura, Travis Scott, Aerosmith, Radiohead, Coldplay, Andrea Bocelli, chopmonk., 2814, Chynna, Enrico Intra, Jok'air, wuf, Laylow, Supper Moment, JaneBeeby, thaHomey, Isaiah Rashad, Playboi Carti, Anderson .Paak, Xavier Dang, Népal, Yameii Online, AK3K, Black Eyes Peas, borealism, emune, 6ix9ine, Björk, Snoop Dogg, Nirvana, , Danny Brown, Griff, fka twigs, Death Grips, Kendrick Lamar, Earl Sweatshirt, lingua ignota, Xiu Xiu, The Caretaker, The Carebear, Lady Gaga, Jimi Hendrix, Led Zeppelin, Ray Charles, Iron Maiden, Franz Zappa, REPULSIVE, Black Atlass, Rihanna, Gorillaz, Oneohtrix Point Never, Mac Miller, Yves Tumor, Tame Impala, SCH, Jack Stauber, Machine Girl, goreshit, Aphex Twin, Starmoon, Acidgvrl, JAY-Z Listened Already - . - .. . - - . l l . l l l . - ooo o 0 - v 2003 Toyota Corolla - 2003 Toyota Corolla 2003 Toyota Corolla - 2013 Toyota Corolla 2003 Toyota Corolla - bsides 23wa - 3 23wa - GALION 23wa - Magenta 23wa - ULTRA - 2xxx - Life 4ria - imstillhere 667 - 33ème Degré 667 - 67ème Degré 6LACK - 6pc Hot EP 6LACK - East Atlanta Love Letter 6LACK - FREE 6LACK 6LACK - Since I Have A Lover 88rising - Head in the Clouds 8d8beats - LAte 90sFlav - Collection 9lives - exclusives AE - The Heavist Sound açewk - Sæcula Condita Adam Bosarge - Structures Without Rooms Adolf Nomura - shut up. AdVenture Capitalist Soundtrack Aero Chord - New Breed Part 1 Aesthesys - I Aftertheparty - Good Boy AgonyOST - Variations Of Hell Ahmad Jamal - One Ajna - SHERPA AKIBA - im lost in a neverending dream AL-90 - Murmansk-60 Alain Goraguer - La Planète Sauvage Original Motion Picture Soundtrack aldn - good grief aldn - greenhouse A L E X - Flow Alice Gas - Sorry 4 Being Famous Aliks - love Alkpote - Alkpote et la crème d'Ile 2 France Alkpote - Alkpote et la crème du 91 Alkpote - Inferno Alkpote - L'empereur Alkpote - L'orgasmixtape Alkpote - L'orgasmixtape, Vol. 2 Alkpote - Les marches de l'empereur Alkpote - L'empereur contre-attaque Alkpote - LSDC Alkpote - Monument Alkpote - Ogre Alkpote - Sadisme et perversion Alkpote - Sucez-moi avant l'album Alkpote - Vie rapide Alkpote Butter Bullets - Ténébreuse musique Allister Brimble - Need for Speed Underground 2 DS OST Alpha Wann - don dada mixtape vol 1 Alpha Wann - UNE MAIN LAVE L'AUTRE Alt236 - Leviathan - Whistle in the Wind AMAI YAYAYI - R F Y Ambar Lucid - Garden of Lucid Ambar Lucid - Dreaming Lucid Aminé - Good For You Aminé - Limbo Your Dream God mulchprize - Andrike Black - Projet 1 Angèle - Nonante-Cinq AnNie.Adaa - QU'AUJOURD'HUI NE MEURE JAMAIS Anthony, Exodia Sienna Sleep - Ateriavia Antoine Daniel - ALBUM 100 LIBRE DE DROIT POUR TWITCH aNTOJE - Booyung .anxious. - 3am EP Anna von Hausswolff - All Thoughts Fly Anna von Hausswolff - Källan Betatype Anna von Hausswolff - Track of Time Arata Iiyoshi, Hideki Sakamoto, Keisuke Ito, Ryoma Nakamura Kenichi Saito - Pokémon Mystery Dungeon Explorers of Time and Explorers of Darkness Soundtrack architecture in tokyo - Summer Paradise Ariana Grande - Christmas Chill Ariana Grande - Dangerous Woman Ariana Grande - My Everything Ariana Grande - Positions Ariana Grande - Sweetener Ariana Grande - thank u, next Ariana Grande - Yours Truly arizcorp - Yesterday Mall Arsaphe - PATIENCEBLOOD Arsaphe Izen - Z-SAFE Ashh - OPIUM Asia Menor - Enola Gay Asuka Ota, Hajime Wakai Koji Kondo - New Super Mario Bros. DS Soundtrack Asuka Ota Ryo Nagamatsu - Mario Kart Wii Soundtrack ATL - AVD - Synthèse Avenged Sevenfold - Life Is But a Dream... Avery Lynch - As Written, Vol. 1 aYm x Ezekey - hues EP 1 ayrtn - Ghost... AZALEA - We'll get the next dream!!! Banda Neira - Yang Patah Tumbuh, Yang Hilang Berganti Bassti x Nalim - Two Minds LP Battaglia - 444 Battaglia - Acid Velvet Batzorig Vaanchig - Great Chinggis Khan beatboxbandit - Connections beatboxbandit - GLOW bdbbb - Otitis Media Bedwetter - Vol. 1 Flick Your Tongue Against Your Teeth and Describe the Present Beeby - Morningstar Benjamin Epps Le chroniqueur sale - Fantôme avec chauffeur Ben Prunty - Chromatic T-Rex Ben Prunty - Cipher The Score for Banking on Bitcoin Ben Prunty - Color Sky Ben Prunty - Curious Merchandise Ben Prunty - Dark Window Ben Prunty - Deep Space Deluxe Ben Prunty - Fragments Ben Prunty - FTL Advanced Edition Soundtrack Ben Prunty - FTL Faster Than Light - Original Soundtrack Ben Prunty - Gravity Ghost Soundtrack Ben Prunty - Music Workbench Ben Prunty - StarCrawlers Soundtrack Ben Reilly - Freelance Bedwetter - Vol. 1 Flick Your Tongue Against Your Teeth and Describe the Present berlioz - open this wall Beyoncé - B'Day Beyoncé - Dangerously in Love Beyoncé - I AM...SASHA FIERCE Platinum Edition Billie Eilish - HIT ME HARD AND SOFT Bitsu - LEMONde Bitsu - NML Bitter Babe Nick Leon - Delirio Bitter Babe Nick Leon - Fuego Clandestino Bkwds - OUT OF SIGHT Black M - La Légende Black BlackXipher - Dark Trap Bladee - Eversince Bladee - Gluee Bladee - Icedancer Bladee - Red Light Bladee - rip bladee Bladee - Working on Dyung Bladee Ecco2k - Crest Bladee Thaiboy Digital - AvP Bladee, Ecco2k Thaiboy Digital - DG Blaiz - Polar Blank Banshee - 4D Blank Banshee - Blank Banshee 0 Blank Banshee - Blank Banshee 1 Blank Banshee - Gaia Blank Banshee - Mega Blank Banshee - Metamorphosis Blank Banshee - Music for Menus Blessu - Pranayama bliss3three - C3L3STIAL Blksmith - DIGITAL TWIN B o n b o o z e - Love Archetypes BONES - OFFLINE BONES - Useless BONES Drew The Architect - ModernArchitecture BONES GREAF - TheWitchTheWizard Booba - AD VITAM ÆTERNAM Booba - Nero Nemesis Booba - ULTRA borealism - Lost Found borealism - Ripples in the Stream Boulevard Depo - RAPP2 Blank Body - 2014-2019 brakence - punk2 Bram Pam - BramPam Bromaz - DISASTER Brother Mynor - Passionfruit Falls Bryson Tiller - A N N I V E R S A R Y Deluxe Bryson Tiller - Bryson Tiller Bryson Tiller - T R A P S O U L Bryson Tiller - True to Self B-Side - Journey To Badlands - - 444 - a sad kind of bliss - can't remember - late night bumps, Vol. 1 - late night bumps, Vol. 2 - late night bumps, Vol. 3 - late night bumps, Vol. 4 as - leaving - PO33 - pook - reflections, Pt. 1 w bob le head bob le head - Yesterday Burial - Untrue BUHI - Bushi BUHI - Bushi 1.5 BUHI - Bushi Tape 2 C418 - 148 C418 - 72 Minutes of Fame C418 - Cookie Clicker C418 - Dief C418 - Excursions C418 - Life Changing Moments Seem Minor in Pictures C418 - Minecraft - Volume Alpha C418 - Minecraft - Volume Beta C418 - One c678924 - 678924 Caballero - OSITO Caleb Belkin - Summer Nights Camellia - Camellia - Blackmagik Blazing Camellia - Cyphisonia Camellia - Crystallized Camellia - Camellia - dreamless wanderer Camellia - GALAXY BURST Camellia - heart of android Camellia - INSANE INFLAME Camellia - INVAIDAS FROM DA JUNGLE Camellia - MEGANTO METEOR Camellia - paroxysm Camellia - PLANETSHAPER Camellia - Reality Distortion Camellia - sudden shower Camellia - Thanks Twitter Followers 40K Carla's Dreams - Antiexemplu Carla's Dreams - Ngoc Carla's Dreams - Nocturn Casiopea - Casiopea Catnapp - Break cat soup - eutaxy Charli xcx - BRAT Charli xcx - True Romance Charly Puth - Voicenotes charmort - Viewfinder Chief Rugged - Sounds from Outerspace Childish Gambino - Because the Internet Childish Gambino - Camp Chilla - EGO Chillhop Music - Chillhop Raw Cuts chopmonk. - autumn ep chorrol - artists Christophe - Les vestiges du Chaos Chuli4n - Night Walk Ciano - 4 soundcloud beats C!erra Myt - Witness of Another World Cigarettes After Sex - Cigarettes After Sex Cigarettes After Sex - Cry Cigarettes After Sex - I. Cigarettes After Sex - X's CIGHT - Architecture City Morgue - CITY MORGUE VOL 1 HELL OR HIGH WATER Clairo - diary 001 Clams Casino - Instrumental Relics Coconuts - Coconuts Coldplay - Ghost Stories Coldplay - Mylo Xyloto Connaisseur Ticaso - Normal de l'Est Connaisseur Ticaso - Rap Life Constrobuz - Rain and Dust cormac - Nobscot. CoryaYo - Songs in the key of Earth vol. 1 Cowbell Cult - Cowbell Cult, Vol. 1 Cult Member - Stockholm Curtis Heron - The Answer cxltgod - The Freakshow of the Century, Pt 1 Cynthoni - Sewerslvt Presents Cynthoni, Pt. 1 Cynthoni - Sewerslvt Presents Cynthoni, Pt. 2 Cynthoni - SMOKE IT TO THE BUTT Daft Punk - Discovery Daft Punk - Homework Daft Punk - Human After All Daft Punk - Random Access Memories Daft Punk - TRON Legacy Damso - Batterie faible Damso - Ipséité Damso - Lithopédion Damso - QALF infinity Damso - Vieux sons Danger - 9142007 Dan Mason - Hypnagogia Danny Baronowsky - Super Meat Boy! - Official Special Edition Soundtrack Danny Towers - Tarantula Danton Eeprom - Yes Is More DARK DESIRE - Vol. 1 DRKNSS - magician whisper DRKNSS - wear flowers in your hair Dated - The Cold Dark Somewhere datfootdive - aLone death's dynamic sound - I'll Try Living Like This Deko - Iridescent Deko - Moonkid Mondays, Vol. 1 Delia - 7 Delia - Deliria Delia - FLEX Delia - Listen Up Delia - Parfum de fericire Delicasteez - Deli De Lorra - Unconditional Derek Pope - Epochs Derek Pope - Poltergeist Des Brennan - Don't Try This At Home Des Brennan - Exit 98 Des Brennan - For A While Des Brennan - Four Years Des Brennan - Growing Apart Des Brennan - Haven Des Brennan - Idyll Des Brennan - My Dear Friend Nostalgia Des Brennan - Serene Des Brennan - We Were Friends EP Des Brennan - You Look Like My Next Mistake Des Brennan X dXL - The Refreshments desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - Ambivision - FLOOR122 desert sand feels warm at night - New World Disciples desert sand feels warm at night - sparkling water desert sand feels warm at night - Tomorrow, 2096 desert sand feels warm at night - desert sand feels warm at night IndyAdvant - desert sand feels warm at night VirtualRealityDeluxe - Midnight Mansions Desert Squid - desktop junk - Cosmic Outerludes Devaloop Zaïd - Hier Jetzt!? Dez - business as usual. Dez - future features Dez - past descriptions Dioscures - Ciela direcia 5 - Cântece noi Dirty River - Train Station Dirty River - VILLAGE disvstxr - Yagmur discarded - discarded Disiz - Pacifique Django - Anthracite Django - ATHANOR Django - So le Flem Django - Troisième terme Django - Tue-moi, mon amour, s'il te plait Dj Billybooi - My Fantasy World DJ Blyatman - Hardkvas DJ Kuroneko - kuroneko DJ Kuroneko - neko garage 2 DJ Kuroneko - shadows collide DJ Okawari - Kaleidoscope DJ Smokey - Evil Wayz DJ Yung Vamp - Night of the Thrill, Vol. 2 Doja Cat - Amala Deluxe Version Doja Cat - Hot Pink Doja Cat - Purrr! Doja Cat - Scarlet Doo - Trackmania Canyon Soundtrack Doo - TrackMania DS Soundtrack Doo - TrackMania Forever Soundtrack Doo - TrackMania Nations ESWC Soundtrack Doo - TrackMania Turbo Build to Race Soundtrack Doo - TrackMania United Soundtrack Doo - TrackMania Wii Soundtrack DOOM DOOM - DOOM 1 Dragon Ball Z Supersonic Warriors 2 Music Drake 21 Savage - Her Loss Drake - Certified Lover Boy Dream.Corp - Online Dream.Corp - T3XTVRE GR1D DR. GABBA - Planet Piano Drew The Architect - Lèiyll drift-133 - Takeafter drip-133 - Becomes a Pattern drift-133 BONES - HateToBreakItToYou drwn. - glow slow DUCKBOY - tragic love songs to study to DUCKBOY - existential hymns for the average sigma Dundy - Acarde Dundy - NO!MASTER Dundy - RETRO Dundy - SPIRIT Dundy - STACKS dwyer - Lanterns dwyer - Olivino dwyer - Raspberry Teeth dwyer - Thursday Mornings Eagle Eyed Tiger - Future or Past Earl Sweatshirt - Some Rap Songs Eason Chan - Eason Chan Eason Chan - Eason Friends 903 ID Club Eason Chan - God Bless Lover Eason Chan - It's Me Eason Chan - My Happy Time Eason Chan - Preparation Eason Chan - Shall We Dance? Shall We Talk! Eason Chan - Some Like it Hot Eason Chan - Tear Eazy Dew - Homea Ecco2k - e Ecco2k - PXE Echelon Records - Echelon, Vol. 1 Echelon Records - Echelon, Vol. 2 Ed Harrison - Neotokyo eelxb - 3 Ole Monks eelxb - Curve eelxb - Jampeon eelxb - Scouts Honor Egoid - Altered Ego eightiesheadachetape - for a while El Matador - XIIINRV El Tigr3 - Kronos Eminem - Kamikaze Eminem - Music To Be Murdered By Eminem - Revival emune - 1993 emune - Auras emune - BAG IT UP TO THIS emune - balance emune - beat ur face to this emune - EAT HER OUT TO THIS emune - Moon Bounce emune - Raw Flips Instrumentals emune - Retaliate emune - smoke a blunt cruise to this emune - Sorry emune - ustwo emune Mujo - SP-ecials engelwood x Jeff Kaale - Hightide engelwood simon eng - jazz channel Enoch Lenoir - Frostbite An Instrumental Tape Erik Satie - Trois Gymnopédies Ex Aquis - Che La Mia Ferita Sia Mortali eyeto8 - Apocalyptic Nirvana FACE - 12 faeriey - the chrome charlie tape Falls - You Have Ben Keeping fantompower - Longing Ferio, krrt Cobain - get five mics Fela Kuti - Gentleman Feldup - A Thousand Doors, Just One Key Feldup - Stared At from a Distance Feldup as Glassatlooker - A Feldup as Hurty eldeen - From the pit LP Feldup as Hurty eldeen - Seven empty polaroids EP Feldup as Hurty eldeen - The street sitting LP Feldup as XSANT - BANG vol. 1 Feldup as XSANT - BANG vol. 2 FEMTOGO neophron - One Man Army Ferdous - Cool Party Fifty Grand - Helena's Skin Fifty Grand - I Don't Know Why fiji.water - fiji.water - 3am Flight Fine-Sir-1584660650 - Fine-Sir-1584660650 - 1584660650 Fine-Sir-1584660650 - Post-Cyber Voxel Infinity Fixpen Sill - FLAG Floème - w a v e s Floème - a g e i n g p o e t r y Floème - Ecdisys Flume - Arrived Anxious, Left Bored Flying Lotus - Yasuke FOREV3RAIN - RAIN Forss - Ecclesia foxxy dekay - Colorful Dreams FrankJavCee - FrankJavCee Collection, Vol. 1, Pt. II Fraoula - Neon Drive OST Franz Liszt - Eine Faust-Symphonie in drei Charakterbildern Franz Liszt - Eine Symphonie zu Dantes Divina Commedia Freddie Dredd - Freddie's Inferno Freeze Corleone - ADC Freeze Corleone - À la recherche de la daillance Freeze Corleone - F.D.T Freeze Corleone - LMF Freeze Corleone - Projet Blue Beam Freeze Corleone - THC Freeze Corleone - Vieilles merdes Freeze Corleone - Vieilles merdes vol.II Freeze Corleone Ashe 22 - RIYAD SADIO Frums - Metacontinues Frums - vignette fujitsu - forests e.p fushou. - essentials gabby start - luca Gambi - LA VIE EST BELLE Gao the Arsonist - OUR BONES ARE ARTIFACTS gawdlee Bryson McGee - COLOSSAL gawdlee - DENISE gawdlee - fragilelawsofwordstructure gawdlee - hopeyouhadabadsummer gawdlee - I Know Gaz120 - Gaz120 Gazo - DRILL FR Getter - Some Creature Geoxor - Irreversible Ghostemane - Hexada GIVON - Give Or Take GIVON - TAKE TIME GIVON - When It's All Said And Done GLOBAL CHILL - midnight smoker Gods Of Something - Inner Void Gods Of Something - The Edge of Reality Godspeed You! Black Emperor - Allelujah! Don't Bend! Ascend! Godspeed You! Black Emperor - Asunder, Sweet and Other Distress Godspeed You! Black Emperor - F A Godspeed You! Black Emperor - Gd's Pee AT STATE'S END! Godspeed You! Black Emperor - Lift Your Skinny Fists Like Antennas to Heaven Godspeed You! Black Emperor - Luciferian Towers Godspeed You! Black Emperor - Slow Riot for New Zero Kanada Godspeed You! Black Emperor - Yanqui U.X.O. Go Ichinose, Junichi Masuda Hitomi Sato - Pokémon Diamond Soundtrack Go Ichinose, Junichi Masuda, Hitomi Sato Satoshi Nohara - Pokémon Platinum Soundtrack Go Ichinose, Junichi Masuda, Morikazu Aoki Hitomi Sato - Pokémon Emerald Soundtrack Go Ichinose, Shota Kageyama, Hitomi Sato, Junichi Masuda Takuto Kitsuta - Pokémon HeartGold and SoulSilver Soundtrack GOLDWATER - discography GOLDWATER - GOLDWATER EP GONE.Fludd - BOYS DON'T CRY - - - - goreshit - Semantic Compositions on Death and Its Meaning Gradur - Where Is l'album de Gradur graves - tomorrow tape grayera - It Feels Like I'm Wilting Away GRËJ - CUISINE GRËJ - ÉTOILES MICHELIN GRËJ - L'album gris GRËJ - PIXELTAPE GRËJ - PIXELTAPE2 GRËJ - RESTAURANT GRËJ - RINASCIMENTO GRËJ - TAKE AWAY EP Gridan Killa Fonic - OPUS MAGNUM GRXGVR - 020 guardin - guardin - Astral Agenda guardin - creature pt. 1 guardin - creature pt. 2 guardin - guardin - lacuna guardin - LOST FOUND guardin - Lost In A Fantasy guardin - outsider guardin - take me home GUILD MERCHANT - GUILD MERCHANT - blood feud GUILD MERCHANT - Heartless Guizmo - Amicalement vôtre Guizmo - C'est tout. Guizmo - Dans ma ruche Guizmo - GPG Guizmo - GPG 2 Guizmo - La banquise Guizmo - Normal Guizmo - Renard Guns N' Roses - Appetite For Destruction Guns N' Roses - G N' R Lies Guns N' Roses - Use Your Illusion I Haarper - Naga haircuts for men - 1989 haircuts for men - a path haircuts for men - ep Halicalf - Gunner The Prophet Hamza - 140 BPM 2 Hamza - Paradise Hamza - Sincèrement Hans Zimmer - Inception Music from the Motion Picture Hans Zimmer - Interstellar Original Motion Picture Soundtrack Harmful Logic - SOULGEMCOLLECTION Harris Cole - Colors Harry Styles - Harry Styles Haux - All We've Known Hector Berlioz - Te Deum hentai boys - 4EVER Heuss L'enfoiré Vald - Horizon vertical Hide - Dead End Adventure Himiko Kikuchi - Flying Beagle hhsweater - fly sumwere H JeuneCrack - 2ème Cycle HKK - Dreamwalker SURF - Waterbed Holder - Undertale Remixed by Holder Home - Hold Hong Kong Express - I Am Here, In Love............ Exist... Exist.... Exist!!! How to Disappear Completely - Seraphim How to Disappear Completely - Seraphim II Hozokauh - time, unraveling H-Pi - Trackmania Original Video Game Soundtrack Hyd - CLEARING i61 - ANGELWAVE Ian - Slayer IC3PEAK - IC3PEAK - IC3PEAK - IC3PEAK - IC3PEAK - FALLAL IC3PEAK - IC3PEAK IC3PEAK - Substances EP IC3PEAK - VACUUM ICYTWAT - 4 tha Troopz ICYTWAT - Dior Junts ICYTWAT - Dream Bwoy ICYTWAT - G4ost ICYTWAT - Good Pussy ICYTWAT - Have Mercy on Us ICYTWAT - ICYTWAT ICYTWAT - ICYTWAT Radio ICYTWAT - Magic as Usual ICYTWAT - Milk ICYTWAT - Siddhi ICYTWAT - Siddhi World ICYTWAT - Throwaway EP ICYTWAT LORDFUBU - Fubu vs. Twat Igorrr - Nostril Ikaz Boi - Paradise Inclasick - Space INDOOR CIGARETTES - VOLUME 1 INDOOR CIGARETTES - VOLUME 2 Inhavite - Raptilian insaneintherainmusic - Sinnohvation instupendo - Friend of a Friend INSULINE NICOTINE - Le retour INSULINE NICOTINE - ZEvent 2023 internetBoi - A Bird Needs Two Wings To Fly Irina Rimes - Acas Irina Rimes - Cosmos Irina Rimes - Despre el Irina Rimes - Origini Irina Rimes - Pastila Irko - Ghillie in the Mist IShowSpeed - Trip 2 Brazil itimar - leaf.ep Ivan Dorn - RANDORN Iwakura - Iwakura - Iwakura - The Backrooms Original Soundtrack Iwakura - The Backrooms Original Soundtrack 2 Iwakura - The Backrooms Original Soundtrack 3 Iwakura - Wires Iwakura frontooms - Limit Jacksonifyer - a glitch in the head Jacksonifyer - Bittersweet Abandonment Jacksonifyer - Distorted Rememberance Jacksonifyer - Hope Lost Jacques Brel - Au printemps Jacques Brel - Ces gens-là Jacques Brel - Jacques Brel 67 Jacques Brel - Jacques Brel et ses chansons Jacques Brel - J'arrive Jacques Brel - La Valse à mille temps Jacques Brel - Les Bonbons Jacques Brel - Les Marquises Jacques Brel - L'homme de la Mancha Jacques Brel - Marieke Jacques Brel - Olympia 1964 Jacques Brel - Quand on n'a que l'amour Jaden - CTV3 Cool Tape Vol. 3 James Grant, Jody Wisternoff Silver Mt. Zion - Anjunadeep 12 Sampler Part 1 Janice Quatlane - The Eternal Diva Layton Kyouju to Eien no Utahime japansaur - RENAISSANCE MIX japansaur - sese flick jarjarjr - Fallen Angel Jasper Byrne - Hotline Miami EP Jax 02.14 - Asian Taste Jeff Kaale x Engelwood ep Jeff Kaale x spencer - weekdays Jeff Kaale - Lagoon Jeff Kaale - Summer in the 50's jenny nuo - bound by expectations jenny nuo - the exhibit Jeremiah Chiu Marta Sofia Honer - Recordings from the Åland Islands Jeremy Soule - The Elder Scrolls V Skyrim OST Jetson - Culture Jeune sachet - FOREIGN Jhené Aiko - Sail Out Jiin - Cult Hymns Joji - BALLADS 1 Joji - Chloe Burbank Volume 1 Joji - In Tongues Deluxe Joji - LOST BALLADS Joji - Lost Instruments Joji - Nectar Joji - SMITHEREENS Jok'Air - Big Daddy Jok jonatan leandoer96 - Katla jonatan leandoer96 - Psycopath Ballads JOY. - JOY TO THE WORLD MIXTAPE JPEGMAFIA - All My Heroes Are Cornballs JPEGMAFIA - black ben carson JPEGMAFIA - EP! JPEGMAFIA - EP2! JPEGMAFIA - LP! JPEGMAFIA - Veteran JrDenil - DAS ALOTTA STRESS Juice WRLD - Affliction Juice WRLD - BINGEDRINKINGMUSIC Juice WRLD - Goodbye Good Riddance Anniversary Edition Juice WRLD - Too Soon.. Juku - HEARTBREAK Julien Doré - Jungle Jack - JUNGLE DES ILLUSIONS VOL 1 Kaaris - 2.7.0 Château Noir Kaaris - Dozo Kaaris - Okou Gnakouri Kaaris - Or Noir Part 3 Kaaris Kalash Criminel - SVR Kaarism - 1min de scam Kaarism - Château noir Kai Whiston - Drayan! Kamanugue - REVELATION 6 Kane Parsons - Backrooms Original Score, Vol. 1 Kane Parsons - Backrooms Original Score, Vol. 2 Kane Parsons - Backrooms Original Score, Vol. 3 Kane Parsons - Daemon Kane Parsons - It's All Happening Kane Parsons - The Oldest View Original Score, Vol. 1 Katro - Vol. IV - Hieracosphinx - I will not crush this world's corolla of wonders - Paradise Lost Kate Soper - Voices from the Killing Jar Kat Graham - Love Music Funk Magic Kavinsky - 1986 Kavinsky - OutRun Kavinsky - Reborn Kavinsky - Teddy Boy kawfee - bottled up kawfee - Heartburn kawfee - KAYTRANADA - 99.9 KAYTRANADA - Kaytra to Do Kazam - Abysses Kazam - Le Chant des Vagues Kaz Baagane - LOT022 KC Shore - solstice Keisuke Ito Yasuhiro Kawagoe - Pokémon Mystery Dungeon Gates to Infinity Soundtrack Kekra - Vréel 2 Kendrick Lamar - DAMN. KevGee - Sedated Tape Kevin MacLeod - PsychoKiller KFM - fail Khali - Palmer wild story Khali - IL ME RESSEMBLE PAS NON PLUS Killa Fonic - 2089 Killa Fonic - BeetleJuice Killa Fonic - III Killa Fonic - Emotiv Munteana Killa Fonic - Lam crim Killa Fonic - MAT-STHNI SARVA-BHTNI Killa Fonic - Osvaldo Deluxe Killa Fonic - Ramses 1989 Killa Fonic - Taxi Driver Killa Fonic - Terra Vista Killa Fonic - Trendsetter Killa Fonic - SS1000 kiLLa Laharl - Digital Shrine killedmyself - backyard cemetery revisited killedmyself - stay where it's safest killedmyself - the next time you see me, you won't killedmyself - that kindled look in her eyes Killer Bee - Venus EP Killstation - Days After Dying KingFsorrow - Color Code K.I. the Roi - If I'm Yours K.I. the Roi - To the Moon kizaru - Mas Fuerte kkami - The Adventures of Purple Star Looking for Ruby Klaus Veen - Blaze Knife Party - 100 No Modern Talking Knife Party - Abandon Ship Knife Party - Haunted House Knife Party - Rage Valley knowmadic - better off knowmadic - Nowhere KOHH - MONOCHROME Koji Kondo - New Super Mario Bros. Soundtrack Koji Kondo - Super Mario 3D Land Soundtrack Koji Kondo - Super Mario 64 Soundtrack Koji Kondo - Super Mario Galaxy Soundtrack Kordhell Scarlxrd - PSYCHX Korn - Follow The Leader Korn - Issues Korn - Korn Korn - Korn III Remember Who You Are Special Edition Korn - Life Is Peachy Korn - Live Rare Korn - See You On the Other Side Korn - Take A Look In The Mirror Korn - The Nothing Korn - The Paradigm Shift Deluxe Korn - The Path of Totality Special Edition Korn - The Serenity of Suffering Deluxe Korn - Untitled Korn - Untouchables KRAAKSTOF - KRAAKSTOF RADIO 001 KRAAKSTOF - KRAAKSTOF VOL.1 KRAAKSTOF - KRAAKSTOF VOL.2 KRAAKSTOF - KRAAKSTOF VOL.3 Krewella - Get Wet Krewella - Play Hard Krewella - Play Harder Kristian Florea - Glasna Intima Krisy - Paradis d'amour KronoMuzik - Free Krono KronoMuzik, Pandrezz Ronare - zzccmxtp KyonPalm - CYBERIA Lady Gaga - The Fame Monster Deluxe Edition La Fève - ERRR Lafleyne - GOLD DIGGER Lancey Foux - FIRST DEGREE Lancey Foux - FRIEND OR FOUX Lancey Foux - LIVE.EVIL Lancey Foux - Pink Lancey Foux - Pink II Lancey Foux Nyge - First Day At Nursery Laura Pausini - From the Inside Laura Pausini - Fatti sentire Laura Pausini - Inedito Laura Pausini - Io canto Laura Pausini - La mia resposta Laura Pausini - Laura Pausini Laura Pausini - Le cose che vivi Laura Pausini - Tra te e il mare Laura Pausini - Primavera in anticipo Laura Pausini - Resta in ascolto Laura Pausini - Simili Laura Shigihara - Plants vs. Zombies Soundtrack Laylow - L'Étrange Histoire de Mr. Anderson Lazuli - TOKETA Learic Spellman - Maturation Le Dé - Delta Plane Le Dé - Napalm L'Entourage - Jeunes Entrepreneurs Les Alchimistes - Antisocial LEX - Lightex - Rusty Nail Candy Lil Bo Weep - ILLUSIONS LILDRUGHILL - All Babies Fly lil kaine - No Mercy Lil Mariko - Lil Mariko Lil Peep - California Girls Lil Peep - Changes Lil Peep - Come Over When You're Sober, Pt. 1 Lil Peep - Come Over When You're Sober, Pt. 2 Lil Peep - Crybaby Lil Peep - Everybody's Everything Lil Peep - feelz Lil Peep - Hellboy Lil Peep - Lil Peep Part One Lil Peep - Live Forever Lil Peep - Teen Romance Lil Peep - Vertigo Lil Peep Death - Garden Lil Peep Fish Narc - Goth Angel Sinner Lil Peep Lil Tracy - castles Lil Peep Lil Tracy - CÅSTLES II Lil Peep, Jgrxxn Ghostemane - Elemental Lil Sheitan - Sur Mon Bateau Pirate Lil Xan - TOTAL XANARCHY L'Impératrice - Tako Tsubo Little Big - Antipositive, Pt. 1 Little Big - Antipositive, Pt. 2 Little Big - COVERS Little Big - Funeral Rave Little Big - GO BANANAS Little Big - Lobster Popstar Little Simz - Sometimes I Might Be Introvert lofi.hiphop - 1 yr lofi.hiphop - lofi.hiphop lofi.samurai - oldies Lolo Zouaï - Beautiful Lies Lolo Zouaï - High Highs to Low Lows Deluxe Lolo Zouaï - Ocean Beach Lolo Zouaï - Playgirl Lolo Zouaï - Please Hold Lonepsi - Danger de mot loose tha kid as geerad - brainwater loose tha kid as geerad - waves Loqiemean - Lord Apex - INTERPLANETARY FUNK LP Lord Esperanza - Drapeau Noir Lorenzo - Légende vivante Lorenzo - Sex In The City Lorn - Nothing Else Lorn - RARITIES Lorn - The Maze To Nowhere Lost Colossus - PATH OF LUST VOL.1 Louane - Chambre 12 Love Renaissance - Home From The Holidays Luchè - L1 Luchè - L2 Lucid Monday - LM013 Lucid Monday - LM019 Lucid Monday - LM020 Lucid Monday - LM021 Lucid Monday - Lucid Monday Presents DJ Yung Vamp, Soudiere Dilip Ludwig van Beethoven - Piano Sonata No. 14 Luidji - Boscolo Exedra Luidji - Mécanique des fluides Luidji - Saison 00 Luidji - Tristesse Business Saison 1 und - BlkBird und - Gold Luni - Orange Luther - GARÇON Luther TB - Alpha Luther TB - Love Pack Luther TB - Starter Pack Luv Resval Alkpote - Mariah Mabisyo - Beatmaking Sessions V.1 Mabisyo - Beauty Is Something Simple Mabisyo - Clouds Under Nicotine Extended Edition Mabisyo - Echoes Of The Subconscious Mabisyo - Everything Is Under Control Mabisyo - Light Up Your Heart Mabisyo - The Theory Of Premonitions Mabisyo Majestic 12 - Velvet Notes Mac Quayle - Mr. Robot, Vol. 1 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 2 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 3 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 4 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 5 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 6 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 7 Original Television Series Soundtrack Mac Miller - Blue Slide Park Mac Miller - K.I.D.S. Deluxe Mac Miller - On And On And Beyond Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - dungeon of lust Macroblank - entropy Macroblank - FETISH Macroblank - HOSTILE Macroblank - ibis valley Macroblank - keygen Macroblank - RARE PSALMS COLLECTION VOL.1 Macroblank - RARE PSALMS COLLECTION VOL.2 Macroblank - serpent lp Macroblank - Solstice Macroblank - Tales of the Cypher Macroblank - The Exiled Lords Macroblank GODSPEED - IMPERIAL Macroblank Oblique Occasions - elegiac blasphemy Macroblank Oblique Occasions - verdant halcyon Macross 82-99 - SAILORWAVE Madvillain - Madvillainy MAGDALENE - GODSLAYER Mag.Lo - Never Magnetic The Shaman X leaf beach - Façade Mai Lan - Autopilote Mai Lan - Mai Lan Mai Lan - Vampire EP Makala - Radio Suicide Male Alchemy - 1984 Male Alchemy - ep Male Alchemy - Male Alchemy - aristocracy Male Alchemy - Chamonix Male Alchemy - Melancholy Of An Angel Male Alchemy - you are afraid of me Mall Greb - How The Dogs Chill, Vol.1 Måneskin - Il ballo della vita Måneskin - Rush! Måneskin - Teatro d'ira - Vol.I Manicurés - EP m a n n y . - Calm ep. m a n n y . - Fallen ep . m a n n y . - Frequence Ep. m a n n y . - genesis ep. m a n n y . - mai tai . ep m a n n y . - wave ep. Manu Militari - Nouvelle vague Marie Therese - Space Chill Marko Glass - Covid Vibes Marko Glass - Markat Marko Glass - Sainted? Marko Glass - Versalingo Marko Glass Bvcovia - Bando Marko Glass Bvcovia - Bando 2 Marko Glass Bvcovia - Bando 3 Marracash - Persona Masahiko Kimura - Spectrobes Soundtrack Masayoshi Takanaka - All Of Me Masayoshi Takanaka - An Insatiable High Masayoshi Takanaka - Brasilian Skies Masayoshi Takanaka - On Guitar Masayoshi Takanaka - Seychelles Masayoshi Takanaka - T-Wave maslo chernogo tmina - Mathematical Records - Lupin Matt Martians - The Drum Chord Theory Maxence - Maykretch - meat computer - social distancing from reality Meep - Stardust meganeko - Eclipse Mekhane - Grains Mekhane - Medjed Melo Lobe - Humble Minds Members Only - Members Only Vol.1! Members Only - Members Only, Vol. 2 menace Santana - ! menace Santana - Freestyle covid Part. 1 menace Santana - Freestyle covid Part. 2 Merge! Yameii Online - Merge! Vs. Yameii MHD - 19 MHD - Mansa MHD - MHD Michael Jackson - Bad Michael Jackson - Ben Michael Jackson - Dangerous Michael Jackson - Farewell My Summer Love Michael Jackson - Forever Michael Michael Jackson - Got To Be There Michael Jackson - HIStory Michael Jackson - Invincible Michael Jackson - Looking Back To Yesterday Michael Jackson - Michael Michael Jackson - Music Me Michael Jackson - Off The Wall Michael Jackson - Thriller Michael Jackson - XSCAPE Michael McCann - Deus Ex Human Revolution Original Soundtrack Michele Morrone - Dark Room Bonus Edition Midi v3.0 - Ebb Flow midwxst - better luck next time. Migos - Culture III MIKE DEAN - 423 - MISOGI - OCCULT Mister V - Double V Mister V - MVP Mixed Matches - all we areall i need Mlodyskiny - Zby Mnogoznaal - Mnogoznaal - modest by default - Admissible Vol. I modest by default - Permaculture modest by default - RAW PRACTICES VOL. I modest by default - RAW PRACTICES VOL. II modest by default - RAW PRACTICES VOL. III modest by default - THE CURSE OF COLONIALISM I modest by default - THE CURSE OF COLONIALISM II modest by default - THE CURSE OF COLONIALISM III modest by default - The Rojava Documents - Belaya Polosa - - Monument - mol - QUIT MUSIC Monodrone - Monodrone - Customer Service Monodrone - Faded Memories Monodrone - Forbidden Fruit Monodrone - metempsychosis Monsieur Nov - Love Therapy Montell Fish - Her Love Still Haunts Me Like a Ghost MSyn - BEFORE Atalante MSyn - NWR MSyn - Victoria Molina MSyn present XXXTENTACION, A Tribute mt. marcy - naked lunch Muha - Identitet Muddyoush - Orchards mulchprize - Mussy - Jig my!lane - Sakura's Shadows M y s t e r y desert sand feels warm at night - Na-Kel Smith - NAMCO SOUNDS - Tekken 4 Original Game Soundtrack Nanku - Nanku Sharma Nasty Nate - Nasty Beats, Vol. 1 Nation Ecco2K - Ça Va Native Tapes - Native Tapes, Vol. 1 Botanical NAV - NAV NAV - Perfect Timing Navie D - Post nedaj - Alter Ego nedaj - BERSERK nedaj - Era9 nedaj - Genesis nedaj - NO MERCY nedaj - NO MERCY II nedaj - STATE OF MIND nedaj - The Abyss nedaj - THE PARADOX EP MIX Nedelko - Rhéologie Nekfeu - Cyborg Nekfeu - Feu Réédition Nekfeu - Les étoiles vagabondes expansion Nemzzz - NEMZZZ </t>
+          <t>Tout va bien, alles klar Tout va bien, alles klar Y a rien qui passe avant l'honneur, rien qui passe avant la loyauté En haut, tu n'me verras pas fayoter Alles klar, alles klar Ah bon, l'argent fait pas l'bonheur ? J'suis amoureux de mes royautés Vie de bohème sur la Canopée Homards, olives dénoyautées Si on t'redemande, dis-leur que j'suis entre deux mondes Et que mon égo ne veut pas s'fixer Ange gardien sous masque à gaz, ma rage est morte sous asphyxie On veut s'étendre oubliant que l'espace fait qu'ça L'histoire s'écrit mieux quand l'Homme ne connaît pas l'succès Oui, mon cur s'emballe, tu sais, j'n'suis qu'un exemple de plus du Mal du siècle On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ich bin mehr als sehr viel Passe deshalb nicht in deine Schublade Bin am Corner mit gen Gs, droppe ein Part alle wolln eine Zugabe Keiner Glaub bis ers sieht, Money Fame in jeder Stadt wartet Punani Von wer zur Hölle is chieff zu heute brauch ich meinen Namen nich sagen Kleinger Junge, große Träume, von gar nichts zu etwas zu heute Hunderttausend falsche Freunde gewinne damit sie enttäuscht sind Taschen sind vol wie bei Floyd, Sie hört meine Texte verbeugt sich Die Demos gepumpt in nem Gold, yeah Heute im Benz richtung Gold On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien wenn ich immer weiter mach Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien, je vais bien wenn ich immer weiter mach Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Tout va bien, alles klar, tout va bien, alles klar Tout va bien, alles klar, tout va bien, alles klar</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alles Klar</t>
+          <t>Amour malade</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tout va bien, alles klar Tout va bien, alles klar Y a rien qui passe avant l'honneur, rien qui passe avant la loyauté En haut, tu n'me verras pas fayoter Alles klar, alles klar Ah bon, l'argent fait pas l'bonheur ? J'suis amoureux de mes royautés Vie de bohème sur la Canopée Homards, olives dénoyautées Si on t'redemande, dis-leur que j'suis entre deux mondes Et que mon égo ne veut pas s'fixer Ange gardien sous masque à gaz, ma rage est morte sous asphyxie On veut s'étendre oubliant que l'espace fait qu'ça L'histoire s'écrit mieux quand l'Homme ne connaît pas l'succès Oui, mon cur s'emballe, tu sais, j'n'suis qu'un exemple de plus du Mal du siècle On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ich bin mehr als sehr viel Passe deshalb nicht in deine Schublade Bin am Corner mit gen Gs, droppe ein Part alle wolln eine Zugabe Keiner Glaub bis ers sieht, Money Fame in jeder Stadt wartet Punani Von wer zur Hölle is chieff zu heute brauch ich meinen Namen nich sagen Kleinger Junge, große Träume, von gar nichts zu etwas zu heute Hunderttausend falsche Freunde gewinne damit sie enttäuscht sind Taschen sind vol wie bei Floyd, Sie hört meine Texte verbeugt sich Die Demos gepumpt in nem Gold, yeah Heute im Benz richtung Gold On me disait Tu ferais mieux d'abandonner Mais abandonner, c'est troquer ses rêves contre des regrets, ouais, ouais, ouais Sie sagen mir es wäre gut wenn du aufgibst Doch geb ich auf fehlt mir der Traum Und mir bleibt nichts, nichts, nichts Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien wenn ich immer weiter mach Ist alles klar ? Hab ich mich so oft gefragt Doch, je vais bien, je vais bien wenn ich immer weiter mach Vivre autant jaunit mon teint J'suis bon qu'à marquer mon temps Alles klar, alles klar Alles klar, alles klar Alles schnell komm nichmehr mit Gibt kein weg für mich zurück Tout va bien, tout va bien Tout va bien, tout va bien Tout va bien, alles klar, tout va bien, alles klar Tout va bien, alles klar, tout va bien, alles klar</t>
+          <t>'Tone, yeah, L.O Quand je monte sur scène, j'ai le cur qui s'emballe J'oublie toute la peine Nan, j'étais perdu sans toi Ghost Killer Track, mec Pourquoi compter les gouttes lors d'un jour de pluie Parle à mon chttt, mon cur est malade J'pourrais t'voir comme un amour de plus Malgré tout, j'y pense toujours depuis Joli gueule, vilain garçon, l'avenir dans mon regard sombre Sourire moqueur, on s'détruit comme des rockeurs J'suis solo, emmène-moi peu importe où ton étoile mène Apprend d'abord à t'aimer toi-même Ciel couleur ébène, douleur et peine Les hommes s'entretuent sous leur Eden Saut de l'ange pour que leur foule me retienne Les lumières s'éteignent Jette leur un regard dédaigneux Pas d'ceux qui disent que c'était mieux Seul dans le trou noir de l'amour Dis-moi si le ciel est d'accord Si ce soir est un grand jour, comment être patient dans l'couloir de la mort ? Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychiatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade Ta présence est vitale, jamais on s'abandonnera Jamais on s'abandonnera mais si je t'ai fait du mal, j'espère que tu me pardonneras J'espère que tu me pardonneras Désolé, je sais oui s'en est navrant Dorénavant, nous deux ça s'ra plus jamais comme avant Quand tu pleures en scred, j'ai le cur en miettes Quand j'entends ta voix, j'veux plus rien savoir Je sais pas l'expliquer M'offrir aux autres m'a toujours fait peur J'ai beaucoup trop de peine J'ai beaucoup trop de bobos sur le cur Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade1</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Amour malade</t>
+          <t>Apparemment</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>'Tone, yeah, L.O Quand je monte sur scène, j'ai le cur qui s'emballe J'oublie toute la peine Nan, j'étais perdu sans toi Ghost Killer Track, mec Pourquoi compter les gouttes lors d'un jour de pluie Parle à mon chttt, mon cur est malade J'pourrais t'voir comme un amour de plus Malgré tout, j'y pense toujours depuis Joli gueule, vilain garçon, l'avenir dans mon regard sombre Sourire moqueur, on s'détruit comme des rockeurs J'suis solo, emmène-moi peu importe où ton étoile mène Apprend d'abord à t'aimer toi-même Ciel couleur ébène, douleur et peine Les hommes s'entretuent sous leur Eden Saut de l'ange pour que leur foule me retienne Les lumières s'éteignent Jette leur un regard dédaigneux Pas d'ceux qui disent que c'était mieux Seul dans le trou noir de l'amour Dis-moi si le ciel est d'accord Si ce soir est un grand jour, comment être patient dans l'couloir de la mort ? Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychiatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade Ta présence est vitale, jamais on s'abandonnera Jamais on s'abandonnera mais si je t'ai fait du mal, j'espère que tu me pardonneras J'espère que tu me pardonneras Désolé, je sais oui s'en est navrant Dorénavant, nous deux ça s'ra plus jamais comme avant Quand tu pleures en scred, j'ai le cur en miettes Quand j'entends ta voix, j'veux plus rien savoir Je sais pas l'expliquer M'offrir aux autres m'a toujours fait peur J'ai beaucoup trop de peine J'ai beaucoup trop de bobos sur le cur Laisse-moi faire ma vie d'artiste Loin de tout ces visages tristes Qu'on m'enferme en psychatrie J'ai l'cur rempli de cicatrices Comme des rockeurs, douleur au cur Amour malade, amour malade Comme des rockeurs, douleur au cur Amour malade, amour malade1</t>
+          <t>Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Allez, suis-nous sur la scène, faut qu'tu rejoignes le mouvement Transforme tes problèmes en rêves et regarde droit tout devant Maman m'a dit Y a des gens à éviter absolument Pour que les tempêtes de sable deviennent de simples coups de vent La vie n'est pas très câline, Instagram te pousse à garder la ligne L'horizon vient toujours après la cime, chaque jour un peu plus d'adrénaline Tout paraît simple pour l'instant Mais pour un simple regard, on te juge, tôt ou tard Ouais, tu sais, cest la jungle Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, jrends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Miro su vacío y pienso todo me va bien Hace mucho tiempo que el rencor ya lo dejé Agradezco a mi gente y a mi vida también Cada vez más dura como tú hay más de cien Cuando estás abajo a esos fekas no les importas na Ahora que estoy escalando chico no te quiero ya El disfraz te lo puedes quitar Toda conectada esto tenía que pasar Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'rends fier les gens J'ai rien trop vu venir, on m'dit qu'c'est suffisant J'pense avoir fait le pire car c'est plus comme avant Mais on n'se plaint plus de moi comme si j'étais géant, maintenant Hasta tù, tù me dices Te gusta mas lo mío que lo que tu haces Que vendrías tu alma por un chance Bebe te tengo en la mano no menaces Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Toy corriendo atrá del money dime aver Me van a juzgar igual yo ya lo see Ahora solo busco Los billetes de cien Solo quiera que mami viva bien eh Y dime quien eres tu, y que te importa a ti Con una mami gringa viene de Miami Beach Me pongo a prender le digo keloke Conmigo no te sientes sola tu te sientes bien</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMOUR PANSEMENT</t>
+          <t>Après l’Orage</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage Syndrome de l'imposteur, pourtant c'que j'ai, c'est mérité, avant les critiques, ça m'irritait J'ai passé trop d'temps à m'demander si j'allais rater, maint'nant, j'avance sans m'arrêter Pour oublier le manque qui s'install au fond des curs, on grandit avec l'égo incorporé On a fait couler d l'encre et on verse notre sueur, on donne les larmes qu'on n'a pas encore pleurées J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne-lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page tourner la page Après l'orage On a jamais succombler, ouais Concert complet, tout le vide est comblé, même si le torse est bombé, ouais Les plus grands sont ceux qu'ont déjà su tomber, ils t'regarderont ramper, ouais Profondeurs abyssales, le diable porte un costume, la plume surpasse l'épée, ouais Mais l'épée décide seule de qui tiendra la plume J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage après l'orage Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu après l'orage, ouais, ouais, ouais Après l'orage, ouais, ouais, ouais J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits Femme âgée Ah, ça je me l'demande hein, on trouve pas le mot, on trouve pas le, euh, l'histoire qui peut y avoir après. Et bah écoute, euh, y a jamais personne qui est, qui est r'venue sur Terre dire comment qu'ça se passe hein Lord Esperanza Ça c'est vrai Femme âgée C'est vrai, hein. Hum</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Apollo</t>
+          <t>AU COIN DE LA RIME #2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0401 La Ligne Bleue - Blue Points 0601 Edvy Dash - LEVITATE - 0601 Favé - F4 - 0601 Ghost Killer Track - Que de l'amour pt.2 - 0601 Saamou Skuu - Nous Cest La TH, vol. 2 0601 Slim C - Killu Kinf G 2 0801 Lowssa - L 1201 L'Don - Limportant cest pas la chute vol. 1 - 1201 Retro X - Yellowtape - 1301 Aketo - Zone bleue Réédition - 1301 Arlk1 Gaman lo - MAUDIT SAME SHIT 1301 GAULOIS - La Gaule Vol. 1 1301 KLS Le K - ANALOGIE 1301 Mini Rttclan - New Jersey 1301 Regularboy - TOUJOURS LA MÊME 1301 RBK - Lignes De Vécu 1301 Sam - Quelle vie - 1301 Spider Zed - Club de cur - 1301 Vin's - La chambre d'écoute - 1301 Yvnnis - NOVAE 1301 Zeusé - Zéro Degré - 1501 Djado Mado - RDV 1501 LITO - B.EYES 1801 RR - Sang Bleu 2001 93TWENTY - ABYME 2001 111knu - 111knuTape vol.1 2001 Anas - La vie de Many - 2001 Angsty Camboyz Revnge - ETERNELLE - 2001 ASHE 22 - Vingt-deux - 2001 Baby Neelou - Bromance - 2001 Caballro JeanJass - High Fines Herbes La Mixtape - Volume 2 - Saison 4. Parce quon na pas fait de mixtape pour les deux premières saisons. Ok, cest pas très logique, mais on-sen-bat-les-couilles, le projet il tue sa mère ! 2001 Carré d'As - ALPHA SIERRA 2001 Fresh LaDouille - Voltaire - 2001 Gianni - 42 jours avant MRTHN 2001 Johny Smile - CACHE-CASH 2001 Masto - Sonar - 2001 nelick - Supplément Chantilly Version deluxe - 2001 Roswein - FOLLOW MAC TWISP - 2001 Sir Reda - Amer.2 - 2001 Tommy Isaac - CAHM1R 2001 Yassin C2s - Denali - 2001 Zaho - Résilience - 2001 Zkr - Caméléon 2301 23 Megabits - 23MEGASPHERE - 2401 SOMA - hustle mode - 2701 Darealright - Dareal m'a tuer 2701 Denza - Ocean Violet part.1 2701 DIL - Fissure cérébrale - 2701 Dri-i - FLYDRI-I 2701 Elten - AUTARCIE - 2701 Jeune Morty - Ghetto Youth - 2701 Kekra - Stratos - 2701 Mano Leyra - C'EST PAS DU TAYC - 2701 Planaway - PREMIERE RENCONTRE 2701 Refré Couplain - NO FACE - 2701 Sadek - Changement de propriétaire - 2701 Seizur - Pluie d'Automne 2701 Venom Cz - Burn Alive 2701 Vves - Message groupé - 2701 ULQUI - NOTÍCIA - 2801 HOUDI - GRHÜNT 77 - 2901 Nobodylikesbirdie - DANS DE BEAUX DRAPS Février 0102 Cogofrégé - Sire Denathrius - 0102 Henri Bleu - armor - 0202 Costa - La ville derrière nos torches - 0302 Alkpote - LSDC - 0302 Chanje - BLACKBIRD 0302 Char - Comme si de rien n'était 0302 Dhab King - T.O.R. - 0302 F430 - Street Quality II - 0302 Georgio - Années Sauvages 0302 Kodes - NO CAP, Vol. 1 - 0302 Kofs - Matrixé - 0302 Lowtso - BZZZZZZ - 0302 Lujipeka - Montagnes Russes Menu XL - 0302 Sadandsolo - Subsahara 0302 WarEnd - Mutation Hg - 0302 YG Pablo - Kiss And Tell 0702 Misère Record - Deadline - 0902 Dirtyiceboyz - ONE OF A KIND 0902 Kaeles - VIBRATIONS 1002 Blasko - Carré Noir - 1002 Deemax - CAP CAPUCHE - 1002 DTF - KARMA - 1002 Myth Syzer - POISON 1002 Niro - Taulier 1002 Squadra - Mourir 100 regrets - 1002 Upsilon - Maison Hantée - 1102 Realo - EURO STEP - 1202 Laws Babyface - TROIS 1502 M.A.M - Starter Pack Side A 1502 Pbl - L'HEURE BLEUE 1602 Blue Sky Publishing - COOTB vol.2 - 1602 Luni - CAMELLIA 1602 ShuriGuzman - D-Boyy World 1702 2zer - Zerzervol2 - 1702 404Billy - BLKKKK VAN GOGH 2 1702 8Ruki BinksBeatz - INT8TION 1702 Achim - Aquarium Vol.1 - 1702 AKISSI - IMPURE. 1702 Beceith - Quand le ciel tombera 1702 Cacahouète - Les sales gueules - 1702 Captaine Roshi - Larosh 1er 1702 Criminls - WW3 - 1702 Dajak - LES LARMES DU SOLEIL 1702 DJ Weedim - Boulangerie française, Vol. 5 - 1702 FouKi - Zayon - 1702 Genezio - VIBESTARS SAISON 1 - 1702 gvs - ST4RS - 1702 Hamza - Sincèrement - 1702 Jey Brownie - Faits divers - 1702 Nunca - VISAG3 1702 TK - Avant la fête Bonus 1702 Trixxo - RotterK 2002 Bavaz - V.O. Violence Occidentale - 2002 Yuri Online mh - MEGALOVER 2202 Grödash - Grödash présente Flymen Music - 2302 Asinine - XIII - 2402 bupropion. - haven 2402 Cenza - Z.0 2402 Djavann - ATTENDS-MOI LÀ-HAUT 2402 DJ MS Mr. Dillinger - Jeune OG 2402 Hös Copperfield - LUEUR - 2402 JEUNE OBSERVATEUR - E.VOLUTION - 2402 Karmen - 100 DIAMANTS 2402 Klem Schen - Clément 2402 Kozi - VDA 2402 KR Malsain - Korozif Vol.1 - 2402 Landy - BRAVE - 2402 La F - GENJUTSU 2402 Malty2BZ - Enfant de Malheur 2402 Mapess - NO FACE - 2402 Maxi Jay - BADMAN - 2402 Peet - Todo Bien - 2402 Pirate - KDO 2 2402 Raous gang - Mauvais Chemin - 2402 Sultan - Iwazaru - 2402 Tengo John - Monstrueux EP - 2402 The Free - Filaments Bleus 2402 Waïv - VOUS COMPRENDREZ PLUS TARD - 2402 Ziak - Chrome - 2802 ihatemed - Genesis Mars - 0103 MC Lokass - Partage Vol. 2 0203 BimBim - La bande à Bimbim 1 0203 Cesar Niso - PRÉMICES - 0203 Hyacinthe - c'était pas le bruit du vent c'était juste mon souffle - 0203 JWK - FUCK ÇA - 0303 Azur - Horizon Deluxe Réédition 0303 Ben.C - SILVER BOY 0303 Bené - Rosa Nera 0303 C4 Family - CARTIER-BRESSON - 0303 Dandyguel - Chapitre 1 lhistoire continue - 0303 Deelay - 111e Saison 0303 Djadja Dinaz - ALPHA 0303 DJ Hamida - À la bien Winter edition - 0303 Double Zulu Just Music Beats - HUSTLEMANIA 0303 Drismer PCN - Sang 9 Volume 2 - 0303 Empty7 - Averse Nuit - 0303 Foleymingo - Les pensées d'un jeune casanier - 0303 HOUDI - LA FOLIE DES GRANDEURS 0303 JEUNESAINT - RIDEORDIE - 0303 Jwles Bob Marlich - Histoire Vraie - 0303 La Plaie - Sans Pression - 0303 Lyre - IRIS - 0303 M le Maudit - M.A.C.R. 0303 Nessbeal - Lumières Nocturnes - 0303 NOMATTER - Paradise Bay - 0303 Rvhim - Galb 0303 Softo - Mirage 0303 TripleGo - GIBRALTAR - 0303 web7 - world first 0403 Aero - Nouvelle ère - 0803 GEAVN - L'AMOUR SUR LES CENDRES 1003 GO GO GO - L'ÉPOPÉE 1003 2 Mètres - 2X46 - 1003 A2H - Une rose et une lame II 1003 Bilk - J'perds pas le nord 1003 Bné - Zone 4 1003 Compilation Bendo - Bendo X, Pt. 3 1003 J2LASTEU - J2 CORP - 1003 J9ueve - LE BIJOU LE PLUS BRILLANT - 1003 Keroué - CANDELA 1003 L'As - Saison 2 - 1003 Lorenzo - Coco Todiefor Remix - 1003 mademoiselle lou - Précieux - 1003 Maes - OMERTA - 1003 Novy - Nuketown 1003 Oumar - TRAUMA Saison 3 - 1003 Primero - Fragments, Pt. 4 - 1003 Princesse - Skyclub 1003 Ritzo - Ailleurs - 1003 Sadek - Changement de propriétaire version physique 1003 SAF - WINTERLOVE 1003 Sciences Peura - L'atelier - 1003 TIF - 1.6 - 1003 Werenoi - Carré - 1103 404Billy - BLKKKK VAN GOGH version vinyle 1303 13Mini - Exutoire - 1503 HVDDOCK Benjay - GLOW 1503 Janis - MULTIVERS 1503 Rapi Sati - Rapi Sati School - 1503 Toam - Plus Réel - 1603 Heskis - Plot Twist - 1603 Theodora Jeez Suave - Lili Aux Paradis Artificiels - 1703 Absolem - Balle d'argent - 1703 Achim - STRATUS JOYEUX 1703 Bilton - B.I.L - 1703 CAPUH - LOST VALLEY 1703 Cshmr - Twin Flame 1703 Decimo - Symphonia Vol. 1 1703 Djadja Dinaz - ALPHA part. 2 - 1703 Django - Logos 1703 Gianni - MRTHN 1703 H.LA DROGUE - Drogue - 1703 Leonis - De l'autre côté - 1703 LinLin - The Espers - 1703 Lost - Pont Champlain 1703 MV - Wavy 1703 Nakk Mendosa - Artefacts Vol. 6 1703 Noodels - Love Story 1703 Nubi - Artefacts Vol. 5 - 1703 PHLP - C'EST UN FAIT - 1703 Prinzly - PASSAGER 8 1703 Rocca - CIMARRON 1703 Rvzmo - 100 moi - 1703 Slimka Mairo - QUI A VOLÉ LE SOLEIL ? 1703 Thaubi - STRAYDOG.3 1703 Tisco - Narsheshe 3.0 1703 Tissmey - Noir blanc Volume 1 - 1703 Ucyll Ryo - la peau des yeux - 1703 winnterzuko - WINNTERMANIA 1703 Yams - Personally - 1703 Zola - DIAMANT DU BLED - 1803 Max D. Carter - Singulièrement Vôtre - 2003 JuL - Album gratuit, Vol. 7 - 2003 Loto - ALL FAX LIL NIGGA VOL1 2103 88Kvly - Sirius B 2103 Kamas Skuh - La Paye - 2103 Lucio Bukowski - ASADACHI TAPE Vol. 3 - 2203 YEND - Yekrik - 2303 23wa - RORSCHACH - 2303 Jolagreen23 - 23 2303 Ockney Krimophonik - LAZARE - 2403 34murphy - première traque - 2403 6osy - Kiss, Marry Kill Vol. 1 - 2403 BEN plg - Jrêve mieux quavant - 2403 Carbonne - Sous l'averse - 2403 DMS - VAGALAME 2403 Elams - Faits divers - 2403 Falcko - Black Code, Tome 3 2403 Lapostroz - BLEU - 2403 Resell - ZÉRO51 - 2403 Rozzy - VANTANOIR 1 - 2403 Varnish La Piscine - THIS LAKE IS SUCCESSFUL 2403 WarEnd - Mercure - 2403 YUNG POOR ALO - JEUNE PAUVRE 3 2403 Zaky - S.P.T. - 2403 Zéphir - Zé - 2803 akkai - LUM!NOL - 2803 arøne - conséquences - 2803 WISSKELESH - DU BINKS AU WISSEX WISSBINKS - 2903 Luther - AMI 3003 San-Nom - Silence Assourdissant - 3103 Akan - MAPP - 3103 Bekar - Plus fort que l'orage - 3103 Bramsito - Enchanté 3103 Dany Dan - Spécial Dany Dan Vol. 4 - 3103 Django - Eros 3103 Gizo Evoracci - Playeurisme Grâce 3103 Grödash - Monnaie Time 2 3103 Guizmo - Réédition 10 Ans 3103 Josué - Confessions 3103 LaF - CHROME 3103 La Place - Des perles et des cendres 3103 L'Hexaler - Lune Croissante - 3103 LUMJR - LOTERIE - 3103 Mara - LOVÉLAND 3103 Yasmine Ase - BLACKSWAN Avril 0104 James Deano - Existentiel Vol.1 - 0604 Närka - SWITCH - 0704 528ron Lovarran - DESDB 2 0704 Ashéo - Double Visage - 0704 Benjamin Epps - La grande désillusion - 0704 Cellulaire Sno3 - LE VRAI, L'INVERSE 0704 Donguti - BREAK UP SEASON 0704 Driver Le A - CONGÉS PAYÉS - 0704 Gatchete - AMR - 0704 Hicham - POLARITÉ 2 0704 JNR - Junior 0704 Kim - Evidence - 0704 Lord Esperanza - Phoenix 0704 Mister.C - Bantu Tape - 0704 Skia - Comme si j'avais - 0704 Sokuu - kenöpsia - 0704 Vadek - PACK - 0904 T.I.S - Vieux Indiens dans un monde moderne 1004 Recklessboise - H6 - 1304 TAKU - GHOST TRAIN - 1404 18snor - repulsa - 1404 47Ter - Au bon endroit - 1404 Bolémvn - Kaleidoscope - 1404 Charles BDL - Kaïros - 1404 Damlif - MAISON À L'AIDE 1404 Flynt - MAUVAIS POUR LE BUSINESS 1404 iTo - Biutiful ! - 1404 Jwles V900 - 25 sur 8 - 1404 Kahnji HIBA - quasi triste 1404 Kayna Samet - Altaïr, Pt. 2 - 1404 Lucio Bukowski - ET LE PRESTIDIGITATEUR IVRE MANQUA SON TOUR - 1404 Meryl - Ozoror - 1404 PLK - 2069' - 1404 Sabuu - PARTIR SUFFIRA 1404 Tenn Jeune Producer - SPIRAL 1404 Theodore - CHIC CHOC LOYENGE - 1404 Yome - ATMOSPHERIA - 1404 Yuz Boy - SAJÉ 1404 Zidi - MAUVAIS SENTIMENTS - 1904 Bluume - BLU PART 3 Muun Flowerz - 1904 Kay The Prodigy Mezzo Millo - Eastern Wind Deluxe - 1904 Urde - Faire des vagues 2104 2TH - Union - 2104 Bambino47 - Drillmatic 2 2104 Bunny - Quoi d9 - 2104 Dasuun - MADARA 2104 Diem Elioi - DragonTree 2104 Geeeko - Peine 333 - 2104 GRËJ - TAKE AWAY EP - 2104 Indydono - KANDIES - 2104 L'Don - FRANCONE MAFIA 2104 Le Risque - CPPR - 2104 Lpee - 33 - 2104 NeS - ÇA VA ALLER 2104 Rêves - Le bleu a des yeux - 2104 Rozzy - VANTANOIR 2 2104 Shaim - ZROGRAVITY 2104 Skefre - SKRRT Vol.1 - 2104 Tsew The Kid - Deuxième chance 2104 Wood - Dans mon Wood - 2104 Yonidas - Tréfonds - 2204 wasting shit - G.L.O.CC - 2304 Beeby - UN GRAND CUR DANS UN MONDE DE FILS DE PUTE - 2604 Green Montana - ROUGE NÉON 2704 Costa - Derrière la ville - 2704 Gris Anthracite - Anémone - 2804 Arsaphe - MURBERRY STREET - 2804 Atro Boi - L'inconnue d'en face - 2804 Dau - 2CB 2804 Elh Kmer - Vivaldi - 2804 Empty7 - BLV NUIT - 2804 Fuzati Le Motel - Baltimore - 2804 GR OMEGA - ResetStart 2804 Kaba Hyas - Music 4 Tesla 2804 Kima - Baby project - 2804 Leo SVR - Manita 2804 Naps - En temps réel 2804 RAS - Retour Aux Sources 2804 Selby - Black - 2804 Sheldon - Îlot 2804 Shtar Academy - Shtar Academy En permission - 2804 Stony Stone HOUDI - AVANT LES YEUX - 2804 X-Sphère - Après lHiver Mai 0205 Reta - Trash Life - 0305 ENOCK - DERNIÈRE PLUIE - 0305 STLR - 12 grammes 0505 Bolémvn - 5.0.5 0505 HD La Relève - Dieu, mes Frères et le Fer 0505 Rémy - Camus 0505 Sadandsolo - Oasis 0505 Slkrack - Crackito, vol. 1 - 0505 Yuri Online, Bricksy 3G - HUMAN LABORATORY 0905 Suspect 95 - Société Suspecte 1005 Di-Meh - Pixel 1005 Tovaritch - Baba Yaga - 1205 323madon - parental advisory - 1205 Baek - Minuit - 1205 Celestino - UNTITLED TAPE 2 - 1205 Furax Barbarossa - Libérable 1205 Hatik - niyya - 1205 James Loup - FULL OPTION - 1205 Jeune Observateur - PORISMA - 1205 Jok'Air - Melvin de Paris - 1205 L2B - Plus comme avant - 1205 LETS GO - LETS GO 1205 Paco - Contrôle Technique - 1205 Soleil Noir - Avant l'aube - 1205 Vacra - Galatée - 1205 Vadek - DU TEMPS - 1205 Zed - SOIXVNT3 1305 Jeune Lion - HIGHLY SPIRITUAL - 1605 Vink - Lordre et le Chaos - 1705 Sameer Ahmad - Tracy 168 - 1705 T.I.S Kaer MKS - Robots - 1805 Antoniucci - ENVIRONNEMENTS HOSTILES - 1905 Django - Troisième Terme 1905 Fresh - À labri Réédition 1905 GAZY MP - Masiaka 1905 Houssbad - GATE 67 - 1905 Kenyon - DATA - 1905 La F - 691 1905 La Gale - On vous rappellera 1905 L'uZine - La 26ème lettre 1905 Leone - ÉCLIPSE - 1905 Luv Resval - Mustafar 1905 Lybro - Oozaru - 1905 Mairo - omar chappier - 1905 Navve Tyngaa - AFTERMAPP 1905 Ol Zico - Tout baigne - 1905 Reynz - R - 1905 Tuerie - Papillon Monarque - 2305 Nosnow - 478 Hotline 2405 Blue Sky Publishing - COOTB vol.3 - 2405 Hakai - HOLLOW 2405 La Pépite - Apollo Mission Evangelion 2605 Def Prod - Def Prod Vol. 1 2605 Elams - Mwanamboka 2605 Elh Kmer - Vivaldi Vatna 2605 Fabio - L'OMBRE ET LA NUIT - 2605 Gemen Tenma - DRAGA - 2605 Gen - GENNIFER - 2605 GRËJ - RESTAURANT - 2605 H JeuneCrack - MATIÈRE PREMIÈRE - 2605 i300 - 3HUNNA 2605 Jwles - Blablazin 2605 MIG - 21 - 2605 NewStain - Du Rêve? - 2605 R.E.D.K. - N'écoutez pas cette merde - 2605 Rethno - SEULFIER - 2605 Riski - Paris vaut bien une messe - 2605 Roméo Elvis - Les galeries - 2605 Souldia - Non conventionnel - 2605 thaHomey - RARISSIME - 2605 USKY - RETINA - 3005 Ptite Soeur - REDSUN 3105 Fadah - DELUGE Juin - 0206 313 - RVMA II 0206 3arbi Amine Farsi - Interlope 0206 Aketo - Une petite vie sans histoires 0206 Allebou - BUNRAKU 0206 Couli B - Ambiance Joviale 0206 Dehmo - FLEGMATIQUE 0206 Don Milli - Le prix d'une vie 0206 JMK - SOUTH BABY 0206 khazy - MOURIR PEUT ATTENDRE 0206 La Famax - RÉTRO - 0206 Malo - iD - 0206 Moji x Sboy - AUTOMNE 0206 Raplume - TALENTS VOL.1 0206 Relo - Dieu Merci 0206 Rouge Carmin - Radio Futurista Vol. 3 - 0206 Rozzy - VANTANOIR 3 - 0206 Sheng - DI YU 0206 SLK - La Centrale - 0206 T.I.S Ouayiie - Lépidoptères 0206 Vin's - Le masque vide 0706 Famille Nombreuse - Ziamois - 0806 Lester - PIONEER - 0906 34murphy - fata morgana 0906 Achim - ALMA - 0906 Gambi - N'A STRAGIA 0906 Ghetto Phénomène - Longue Vie 0906 I.K - Rêves de rue 2.0 0906 Jackmaboy - MENACE SAISON I - 0906 JuL - C'est quand qu'il s'éteint ? - 0906 Lazer MMZ - BUSHIDO 0906 Lucci x Jeune Gueule - REFLEXION - 0906 Mussy - JIG 2.2 0906 Raplume - TALENTS VOL.2 0906 Royce - Avant-gardiste 0906 Ol' Kainry - Noble art 0906 Sto - Time Out Vol. 2 - 0906 Surprise - L'INVERSE 0906 Swift Guad - Les meilleurs feats du Swifton, Part.1 - 0906 TripleGo - Quand tu partiras 1406 Bakari - Arcadia - 1406 Bluume Triple Nine - OUT OF THE MUDD - 1406 Cyrious - Nés pour... - 1506 AAMO - LAKEHOUSE SEASON 1506 Bimbim - La bande 2 Bimbim 1606 Benab - Drapeau Blanc 1606 Black Jack - Don Black 1606 Cashmire - Mes rêves m'épuisent 1606 Deezer - Deezer Originals La Relève 4 1606 Donguti - Polaroïd Memories 1606 Dwen - Crack 1606 Ice Crimi Just Music Beats - Big Pap's El Papso 1606 Kodes - NO CAP, Vol. 1 Deluxe 1606 La Rumeur - Comment rester propre ? - 1606 Le Juiice - Trap Mama 2 - 1606 Linton - Black Bumble 1606 Nahir - Intégral 2 POV - 1606 Ratu - Ratusserie 1606 Sadek - Ouvert tout l'été - 1606 SOPA - PEIVNE - 1606 Wallace Cleaver - baiser 1606 Yanso - BX 212 - 1906 Henri Bleu - Jette moi le sort 1906 Implaccable - So Vladdy Shit - 2106 Eric Eract - LENDEMAIN D'UN MARDI GRAS - 2106 Fenka - Doll Lover 2106 STLR - Fer 2206 Araujo - Une larme de 2306 Cheu-B - BIG 2306 Chich - MANNSCHAFT 2306 Decimo - Symphonia Vol. 2 - 2306 Double Zulu Pablaw - KAIJU 2 2306 Elh Kmer - Vivaldi Jokül - 2306 Esso Luxueux - Liaisons Dangereuses 2306 Greenfinch - GREENY Lo-Fi 2306 Hash24 Sobek - Antartica 2306 Insa - Gris Béton - 2306 Kay The Prodigy - Triple Kay Supremacy 2306 Unfamouslouie - FREE UNFAMOUS 2306 Le 3ème il - Renaissance Réédition - 2306 Lpee - Intermède - 2306 Luidji - Saison 00 - 2306 PHLP - Magnifique - 2306 Rafal - Jukai Tome I - 2306 Selug - Le jour se lève 2306 Seyté - En chemin 2306 Shinzo - poétiquement votre 2306 So La Zone - La rue m'a eu - 2306 YG Pablo Sofiane Pamart - DIAMOND TEARS - 2306 Zéphir - Interlude ZÉ 2306 Zokush - SÛR ET CERTAIN 3006 Abah - Lumière 3006 AM La Scampia - Triste fête... ncor - 3006 Ammar - L'ARGENT AVANT LA FAME 3006 Ben.C - BLOODY SUMMER 3006 Boub'z - BDLB 3006 Butter Bullets - JAZZ 3006 Capou Jeune Gueule - Uno Nueve - 3006 Deadi - Autrement 3006 Deelee S - 3 FOIS 3006 Ether - SIMULCAST - 3006 Gapman - Prochaine Chèvre - 3006 Heuss L'enfoiré - Chef D'orchestre 3006 Jeri - R1NGTONE 3006 LaCraps Dezef - ASSOCIÉS 3006 L'Don - L'Don Compagnie vol.1 Starring Monsieur Dioni 3006 Leonis - De l'autre côté Réédition - 3006 Lotus - SOURIR - 3006 luXe Timeless Bessy Bess - BUSINESS MOVES - 3006 Melan - La tr3ntaine Partie 1 - 3006 Magnar - BLEU LAGON - 3006 Moken - PHASE 1 - RACINES 3006 Moubarak - Dans le vrai - 3006 Ninho - NI - 3006 OSO - c pas d'la pop! 3006 rad cartier - VISION NOCTURNE - 3006 robdbloc - Caméo - 3006 Rowjay - LA VIE RAPIDE EARLY ACCESS - 3006 SNSET - 22 - 3006 Zeu - WATERGATE Juillet - 0107 Yuz Boy - AVEC SINCÉRITÉ ET LE COEUR LÉGER. - 0507 Caballero JeanJass - High Fines Herbes - Édition 420 - 0507 Empty7 - Nessun dorma - 0507 Jelyh - 222 - 0507 Many Santana - PHANTOM - 0607 Costa - Là, derrière - 0607 Theodora - Lili Aux Paradis Artificiels Tome 2 0707 BRK - Top Boy, Vol. 2 - 0707 Coelho - LE SOLEIL NE S'ÉTEINT JAMAIS 0707 Dau - DENNIS - 0707 Deen Burbigo - OG San II 0707 Fresh LaDouille - Voltaire Deluxe - 0707 Gemen - VARA - 0707 HOUDI - SUN7 0707 Le Croc - BLOOM 0707 Lim Zeler - Nik ma vie 0707 Lrk - Hoshi 0707 Maxi Jay - BADGYAL - 0707 Ninho - NI Extension - 0707 Norsacce Berlusconi Dinos - Fallout Ushuaïa - 0707 Pirate - KDO 3 - 0707 Prototype - FAREWELL 0707 SAF - SUMMERLOVE - 0707 Tsukii Lyre - TL 0707 Youpi2000 - L'Amour me suffira toujours - 1007 ANTON - Même les méchants rêvent damour 1207 Lapostroz - GALLICE - 1307 baby hayabusa - Deadly Poison Sting 1307 Cesar Niso - ELMER - 1407 Ateyaba - La vie en Violet 1407 Bedjik - MULTIVERSE X1 - 1407 Bob Marlich - Gro-tex 1407 Gizo Evoracci - Superfly - 1407 Inflow - Hélios 1407 ISS - Libre 2.0 1407 Jackmaboy - MENACE SAISON II - 1907 Realo Tony Seng - BASSLINE 2007 asmarr311, Planaway meto - vraiment 2107 Artistes divers - Les Déguns 2 BO 2107 Elh Kmer - Vivaldi Vík 2107 Famille Nombreuse - Ziamois Deluxe - 2107 Flynt Don Choa - FLYNT DON CHOA 2107 Gambino La MG - Après Gambinerie - 2107 J9ueve - WDTA 2107 Karmen - MOTEL STUDIO 2107 Keeqaid - ANTICIPE 2107 Lybro - swimmingpool aqua 2107 Malty2BZ - 097 - 2107 NKP - AIGRI 2107 Nunca - Aléa 2107 Yassin - V3.5 2307 Adæb - Alphablanca - 2707 BabySolo33 - Radio ummer Hits - 2807 404Billy - Mr. AAA - 2807 Cellulaire - CMV - 2807 H.LA DROGUE - En attendant Drogue 2 - 2807 HVDDOCK Benjay - MIRAGE - 2807 Josué - MaisOùEstJosué 2807 Le Lij - Juste un Enfant du Queens II 2807 Momsii - LGT 2807 Oumar - MALCOLM X AVEC UN PARE-BALLES - 2807 Saiba - 9STA - 2907 ouley - FEVER .FM Août - 0208 liesaa - liesaa sors nous ce miel ! 0308 PAPI TeddyBear, GAL FFO RION - 3TROIS 0408 Ghetto One - Ghetto One - 0408 GVS - The Blue Fade 0408 Lascaar - Dis-leur - 0408 Lil Zamm - K!LL THËM ALL - 0408 Zoomy Vilhelm - GATE - 1108 Achim - icare. - 1108 Bob Marlich - Boutique de souvenirs 1108 Mola - Omar 1108 Pins Dimeh - Nindo III - Réédition - 1608 Inflow - Hélios - réédition 1608 Ouxma - Earth is hell 1808 Furlax - NEBULA - 1808 Jayel - Puzzle première pièce 1808 Kaki Santana - Back to Back - 1808 KronoMuzik - FREE KRONO - 1808 L'Don - LDon Compagnie vol.2 Starring PAPI TeddyBear GAL - 1808 Nosnow - Ipanema 1808 Sadek - Toujours ouvert tout l'été - 1808 SOPA - YEUZ BLEUS - 1808 Tyngaa - SUMMER MEMORIES 2 2208 Ludovico - Lehen Lorpena - 2408 Gris Anthracite - Drosera - 2508 DMS - NO PASSION - 2508 Navve - ESSKO - 3008 DOC OVG - Pourcentage vol. 1 - 3008 Jolagreen23 Kosei - 888823 - 3108 Tedax Max Just Music Beats - Palm Brick Septembre - 0109 Cellulaire - DÉSOLÉ D'ÊTRE 0109 Earvin - 2024 - 0109 Krisy - euphorie - 0109 Lester - wizard confirmé - 0109 Livaï Cosmo - on sen sort toujours pas - 0109 Max D. Carter - Vers La Beauté 0109 Nixon - Wall East 0109 Smeels - UCKME - 0109 TH - SI - 0209 wasting shit abel31 - mercuriales 0409 Mini RTTCLAN - Mini l'ingé - 0709 N3MS - EVERYDAY - 0809 404Billy - BLKKKK VAN GOGH 3 0809 Golgoth - JOUR DE PLUIE - 0809 KIK - ADIEU 0809 Leck - Mode Nuit 0809 Lil Zamm - FRÖM HESS TÖ EUROPE - 0809 Slayeur Slace - PROJET SANG BOUILLANT - 0809 Ulqui - ETNA - 1009 Nemavo - PostMortem - 1109 Freeze Corleone - ADC - 1309 sean - Se laver de ses péchés - 1409 Jeune LC - FIN DE JEU - 1509 47Ter - Au bon endroit Deluxe - 1509 Ammar - MA VIE AVANT LA TIENNE - 1509 Darlean - DEAD FILES 1509 Glauque - Les gens passent, le temps reste - 1509 LOTO - Detroit 2 Paris - 1509 Mandyspie - La Vie en Rose Vision 1509 Nyda - Acte II Le loup dans la bergerie 1509 Skefre - SKRRT Vol.2 - 1509 Théo Juice - Passionnément 1509 The Strangers - The Strangers 1809 Ry's - ARABIC DIAL - 1909 Primero - Fragments 2009 ihatemed - NMS 2109 BXII - Que la salade - 2209 A2H - Une rose et une lame, FIN. - 2209 babyxi - HIT OR MISS - 2209 Disiz - L'Amour... 2209 Hornet La Frappe - Avant Cités d'or 2209 J2LASTEU - RSF, pt. 1 - 2209 Mairo JeanJass - Déjeuner en paix 2209 Rookie - AMPLITUDE THERMIQUE - 2209 TH - SIGN - 2209 T.I.S Öster - TOY Terror Of the Year - 2209 Werenoi - Telegram 2 - 2609 Moken - PHASE 3 - EFFET TUNNEL 2609 TIPI MOBB - FCQTAA VOL1 - 2709 Empty7 - Ora pro nobis - 2709 H JeuneCrack Hologram Lo' - La pieuvre 2909 Banlieue Ouest Mafia - Banlieue Ouest Mafia 2809 Bricksy 3g - it looks fun - 2809 OgLounis - OGLOUNIS VS LES DOUTES 2909 DIEGO - Entre ciel et terre 2909 Genezio - VIBESTARS SAISON 2 - 2909 HK La Paille - NOCTAMBULE - 2909 Ikaz Boi - BRUT4L - 2909 Irko AMNE - DANGER RAPPROCHÉ - 2909 Jayel - Puzzle deuxième pièce 2909 Klem Schen - Temps davant - 2909 KT Gorique - DIASPORA GANG - 2909 Luni - AHBON MIXTAPE 2909 Mac Seamus - HUMAIN - 2909 MEL - Même pas mal - 2909 Niaks - Mandat de Dépôt - 2909 samayusi - FRACTALE - 2909 Tengo John - Métamorphoz 2909 Venom Cz - Crime Master 2909 Zequin - RESCAPÉ DES RUES RR 700FS 2909 Zesau - RC Octobre - 0410 Jwles Mad Rey - Le Zin dans la maison - 0410 Dj Per-k Moïse The Dude - Deep - 0510 AnNie .Adaa - MENTALITY RECOVERY - 0610 22Carbone - Entropie - 0610 34murphy Sobek - 9m 0610 Cesar Niso - LA FISSURE NSLW - 0610 Cyrious - Briller - 0610 Georgio - Les Alizés - 0610 Kaneki - 4REAL - 0610 KIK - ADIEU Version Feats - 0610 Krisy - euphoria 0610 Rosaliedu38 - RELOAD - 0610 Shay - Commando - 0610 Vicky R - SYSTM - 1110 Akhenaton Veust - Monopolium - 1110 Ucyll Ryo - NUKEM 1310 Aelpéacha - XYLOSTOMIASE 1310 Artistes divers - Chroniques de Mars 3 - 1310 Beendo Z - De la fontaine 1310 Black M - La légende Black - 1310 Cellulaire - SILENCE SOUS LAVERSE 1310 Cinco - 0TA BENGV 1310 E17 - E17 - 1310 Favé - IL LE FALLAIT - 1310 GLK - VENI 1310 Heavy - POLYGONES 1310 Keuchei - Cest Le Gang 1310 KT Gorique - AKISSI - 1310 L'Don - LDon Compagnie vol.3 Starring Râmiro - 1310 Lotus - Moneymachine, Vol. 2 - 1310 Lyre - merci, j'sais m'perdre - 1310 Mano Leyra - VOVÓ 1310 NDO Runway - Personne Ne Dormira Dans Le Hood Ce Soir 1310 Swift Guad Willy Bank - Artefact 1310 VVES - Implication - 1310 Yamê - ELOWI 1310 Ydane - Kanda 3D Blade Bouffon - 1310 YUNG POOR ALO PUSH GIO - CHAT NOIR 1710 Virgile - NUAGERIES - 1810 Leo SVR - SVR EFFECT - 1910 Bluume Triple Nine - RARI458 - 1910 N3MS - SPARRING 1910 TheYoungGolfeur - Sacrilèges - 2010 808NOCHE - STELLA - 2010 ADVM - .s'oublier encore. - 2010 arøne - toutes mes larmes - 2010 Gris Anthracite - Valériane - 2010 Ichon - KASSESSA - 2010 Inspire - Hier je meurs - 2010 Leto - TRAPTAR 3 2010 L'Hexaler - Croissant de lune 2010 Mac Kregor Kazkami - La guerre des nerfs Réédition 2010 Mehdi YZ - Troisième il 2010 Microbe - Lever de rideau - 2010 OSO - osowhereRu? 2010 Paco - Du gris au bleu 2010 SIMONY - ORIGINES Euphoria 2010 Softo - Instinct - 2010 TH - SIGNAL - 2010 web7 - wizard child - 2210 Laws Babyface - SUNFM - 2510 Lovarran UnfamousLouie - Ils Me Manquent Mes Rêves 2610 Oumar - MALCOLM X AVEC UN PARE-BALLES Vol.2 2710 Absolem - Balle d'argent Réédition 2710 BÉNI BASS DJ - L'homme de l'ombre 2710 Ici cest la street - Ici cest la street 2710 ISK - LDLG L'art de la guerre - 2710 Jewel Usain - Où les garçons grandissent 2710 Kemmler - 37 Folie-Méricourt - 2710 Livaï Cosmo - un long fleuve bien chiant 2710 Luzi Dar - GrandBazaar 01 2710 Milanezie kofi bæ - La Nuit Porte Conseil - 2710 Sensey - Hokage - 2710 Sokuu - tatlm 2710 Zaky - REVLUTION 2710 Zbig - Docteur Zbig - 2810 Damso - QALF LIVE - 2810 Josman - J.000. - 2910 Cielbleu - Par les yeux 3110 Harley - Loading 3110 Karl Drogo - La naissance de drogo - 3110 Kosei - AI - 3110 Magnim - Refem - 3110 MSyn - NWR Novembre 0111 Dafliky - Pas fait pour eux - 0211 abel31 - 4h16 - 0211 Fokca - Qui Est Baby Fokca ? 0311 AliasJazz - Échappée Belle 0311 Flaco Mundo - DRAPETOMANIA - 0311 GRËJ - ÉTOILES MICHELIN - 0311 Klem Schen - Archives - 0311 L'Don - L'Don Compagnie vol.4 Starring Famille Nombreuse - 0311 Neop0p whatever51 - EIGENGRAU - 0311 okis - Rêve dun rouilleur 0311 Rsko - Memory 0311 Sakage - IRL 0311 Slkrack - Crackito, vol. 2 - 0311 TIF - 1.6 LIVE SESSION 0311 Viez - Nemrock All Star - 0411 Sa2d - NEXT GEN - 0611 Zekhso - FULGURANCES 0711 Kaki Santana - Piege Volume 3 - 0711 ozkar - KANSAS - 0811 Lacrim - SALE ÉPOQUE - 0811 SAM - EXTÉRIEUR NUIT - 0811 AKISSI - Ciel m'en veut - 1011 AYATH - Perturbations 1011 Cheu-B - SKY - 1011 Dalí - Muse - 1011 Georgio - Années Sauvages Part. 2 1011 ihatemed - NMS NIGHTMARES EDITION 1011 Mister You - HLM3 1011 Ouss Riane - Razien 1011 Rockin' Squat - L'undaground s'exprime 1011 Sicario - Silence - 1011 snorunt - arva offmode - 1011 So' - SAHARA, Vol. 2 - 1011 Souffrance - Eau de source 1011 STI - Retrodrill vol.1 - 1011 Stony Stone - ROUGE RED ROSSO 1311 Hash24 - Origin - 1311 Krisy - euphoria sans interludes 1311 Warlock - Sorcellerie - 1411 Lorenzo - Coffret ultime - 1511 Malo - X3 - 1511 Peka59 - Fenêtre ouverte - 1511 Urde - Maintenant ou jamais - 1711 Achim - Ariane 1711 Criminls Congo Bill - VINDICTA - 1711 Double Zulu Pablaw - KAIJU MECHA - 1711 Dri-i - ne mexcuse pas - 1711 FouKi - RAP CLUB - 1711 GEAVN - CYNE 1711 Guy2Bezbar - AMBITION 1711 Hös Copperfield - LUEUR ESPOIR - 1711 Lazuli Angie - ANGILINAZULI 1711 LUMJR - CASINO 1711 Mvms - Renégat - 1711 Nayra - Riah 1711 Pivi - Triste mais Heureux - 1711 Youri Darealright - Neva - 1711 Yuzmv - Gardien du Labyrinthe - 2111 Zonmai - SunCash feelings - 2211 Rapclub - La Litanie des Horlas 2211 Ekloz - 3motional b!tch 2311 DTF - Karma Extended - 2311 Hamza - Drifté - 2311 JRK 19 - FreeJRK - 2311 MPablo - HUMAIN - 2411 ADVM - .soublier encore. - 2411 Ajar - Ö 2411 Bhk220 - Génération 2000 - 2411 Chanceko - La voix dans ma tête 2411 Fababy - La Symphonie des chargeurs Vol 2 - 2411 Fanny's Station - FANNY 2411 Générations - Générations Street - 2411 GR OMEGA - ICARE - 2411 Halo - BAD JAZZ 2411 Imed zee - Bipolaire 2411 Keeqaid - GENRE - 2411 Kerchak - En attendant Saison 2 2411 La Famax - Album Gratuix - 2411 Lujipeka - Weekend à Marseille - 2411 Noti Rose - Mirages Moisissures - 2411 Rémy - Le fils de la gardienne - 2411 Reynz - Z - 2411 Richie Beats - Oh My God Vol.1 - 2411 Sheldon - Seuls 2411 Yaro - Ciel - 2411 YL - LARLAR Part. 1 - 2711 Dalienski - Dali - 2711 Duke Mobb - En attendant La cassette 2 - 2711 FEMTOGO Neophron - NAMELESS BELLIGERENT - 2811 luXe Timeless - ALLUME - 2911 HAKAI - VEGA - 2911 Zalmad Nannaa - SUPERWHOAYEAH Décembre - 0112 Ajna - Boys Basement - 0112 ASHE 22 - KH-22 - 0112 Benjamin Epps - READY FOR WAR 0112 Bob Marlich - Sans Filtre II 0112 Chicaille Argenté - RESET 0112 Couli B - Encore 0112 Decimo - Symphonia, vol. 3 0112 Fuku JeanJass - Phoenix - 0112 Gazo Tiakola - LA MELO EST GANGX - 0112 Gemen Tsukii - 4PEAT - 0112 Gris Anthracite - Triple Venom 0112 Golgoth - Hostie part2 0112 ISS - Libre 3.0 - 0112 Jeune Mort - No colors - 0112 Jeune Ras - LUNE DE SANG - 0112 Khali - 23 - - 0112 L'Don - LDon Compagnie vol. 5 Starring Worms-T 0112 La Financière - TOO BIG TO FAIL 0112 Lasco - PENSÉE 2 - 0112 Limsa d'Aulnay ISHA - Bitume Caviar Vol.1 - 0112 Malko - MAELSTRÖM 0112 Mitch Ladrogua - Big Meech - 0112 Oni Kira - 237 BLOC F - 0112 Pollux - BLUES LAGUNE - 0112 Swing - AU REVOIR SIMEON 0112 Twenty9 - thérapie, stéréo - 0112 wasting shit - wase ape volume 3 0112 Yuri Online Chenpol - Noctura Pure Pueri Musika Magica - 0312 Djeemy RedUzi GRËJ - TAKE AWAY FOR TWO 0512 Blaz Pit - NO SKIP - 0512 Lonepsi - au sommet de ma tour 0512 VII - SCRAP vol.1 0612 PEKA - L'un parle de l'autre 0712 Tovaritch - Systema - 0812 243red - 001red 0812 47ter - Au bon endroit 47tour Live 0812 Bakari - SUPERNOVA 0812 DJ Quick - Onde2Choc 0812 Foot Korner - Du Nord au Sud - Compilation Foot Korner - 0812 Hugo TSR - Jeudi - 0812 ICO - MIA 0812 JSX - Antebellum - 0812 JuL - La route est longue - 0812 Kaba Hyas - Music 4 Tesla Vol. 2 - 0812 Kanoé - NOÉ - 0812 L2B - Plus comme avant Réédition - 0812 L'Allemand - Ma vie 0812 Lil Zamm - ZAMMWORLD 0812 Lossa2Squa - Afrowave 0812 Ludmael - Hérésie - 0812 Prinzly - ESCALE 8000 0812 Oldpee - JE M'APPELLE SIDI - 0812 robdbloc - Faux départs - 0812 Sadek - Nique le Casino 2 0812 Samy - Club Espoir - 0812 So La Lune - L'enfant de la pluie - 0812 SVUDVDE - SAUDADE 1012 Adæb - Casablanca - 1012 T.I.S Lando - MINUIT PILE 1112 IAM - HHHistory - 1112 Luni Sacks - Inédits 2022 - 2023 - 1212 Douze Déluge - MCRCLMT - 1212 OG L'Enf - 3x4 - 1312 Danyl - KHEDMA 2 1312 Loveni - BACK IN THE DAY ROOKIE II - 1312 YUNG POOR ALO - À l'envers - 1412 Nono La Grinta - 75022 - 1512 Ammar - MA PAIX AVANT L'AMOUR 1512 Diddi Trix - Trix City 2 - 1512 DIEGO - Rouge sang Félin version orchestrale - 1512 Jolagreen23 - RECHERCHE DESTRUCTION - 1512 Kaaris - Day One 1512 Lacrim - En attendant Corleone 1512 Lison - GODMODE 1512 Mayo - YOSKI 2 1512 Nefaste - Hiver 365 1512 Niro - Taulier La recave - 1512 Nono La Grinta - LA QUOIII ? - 1512 Prince Waly - BO Y Z Vol.2 1512 Roshi Amine Farsi - Night Ride - 1512 Selug enar - Le monde qui m'tombe sur la tête 1512 Sventx - UN SEUL IL 1512 Todd - UN NOIR SUR LA LUNE 1512 YPN - La patrie - 1812 Ptite Soeur Neophron - NOUVELLE ECONOMIE 1912 Afro S - Parenthèse 1912 ENV444 - Prélude - 2012 Jaymee - Brand New Jazz Trilogie 2112 N3MS - NAUSICAA - 2212 Dinos Dosseh - CÉSIUM 2212 Eloquence - El Chalino - 2212 Jayel - Puzzle Dernière pièce - 2212 Kay The Prodigy Mezzo Millo - Eastern Wind 2 - 2212 La Fève - 24 2212 Shotas - Oue La 6T 2212 Slayeur Slace Emes - ALPHA 2212 TAÏZ - POST-MORTEM 2512 Deelee S - RED ALERT 2 2512 Raplume - MIEL 2612 L'Don - LDon Compagnie hors-série Repas de famille 2712 BLOODYANJI - KILL TO LIVE 2712 Tarkov Lee - MÉCHANT DU FILM 2912 BERRY Phasm - TOP NIVEAU ll - 2912 Gouap Mini - BACK EN TRAP 2912 Kemi Gunner - Elf Oxy Fantasy 2912 Lemon Haze - 31 2912 Narson - Maquette Tape4</t>
+          <t>Transcription... Au coin d'la rime, Monsieur Wish à la prod Yeah check ça yeah Tu sais les kickeurs d'aujourd'hui s'ressemblent tous On parle que de concurrence putain on est même pas foutu d'se donner un coup d'pouce Ça m'fou l'blues, y'a plus d'originalité Ouais gars t'as pas idée Moi-même mon rap est copyrighté bah ouais T'as capté la rythmique Tu veux faire un tour dans l'tur-fu En 2017 les bobos débattent de balistique On s'est tous mis à la trap alors pourquoi tu clames Que t'es pas né dans la tendance, t'attends l'retour de flamme Nan, alors casse pas les couilles et casse toi Écartez-vous j'suis à l'aise, donnez moi une phase A Que j'en fasse un classique ou bien une merde de plus A vrai dire dans la sique-mu ouais y'a pas mal de gus Donc, y'a pas d'autres choix que celui d'faire la diff' Sinon on restera en bas d'l'échelle à faire du rap pour le kiff Puis, dans le fond les deux m'conviennent Quoi qu'il advienne, j'ferais jamais la reusta Nan j'ai pas l'temps j'vis sous Carpe diem Check, j'veux pas d'une vie cadavérique En Amérique ça kick depuis des décennies donc tcheck la kass-dedi Big Up à mes frères blancs, beurs, métissés Noich' et blacko qui s'approvisionnent chez l'épicier Puis, j'en place une pour mon 7-5 Et puis peut être qu'on s'tirera, faut voir avec le destin Mais j'reste un petit con, le soir profitons du festin Si mon soce ramène un teh marocain, direct j'le test hein Ça fait gauche-droite-middle dans ta face On a... ma gueule j'cache pas qu'y'a pas d'palace On charbonne nuits et jours donc on a des cernes sur la face Samedi soir on va tiser l'mélange pourtant j'ai pas très soif On arpente les rues, on attend le bus Et gros c'est frappant même marquant ça fréquente l'instru Ouais ouais Satan c'est l'argent et les femmes quand t'as bu Attends détaillant rentrant là t'abuse gros I like your style boy, I like the way you move I like your style boy, I like the way you move, you move Jveux embarqué sur le radeau Vers un avenir radieux Monter tout droit vers les cieux Puis trouver mon eldorado Jai mis un paquet de rimes dans mon sac à dos Les astres saccadés de saké, bref Tout ce quil faut pour survivre Tout en restant un peu ivre Je ne mintéresse plus au livres Depuis que je dois écrire ma propre histoire Le rap est mon échappatoire Jpense pas finir au paradis Au pire Jdébarque au purgatoire Cest pas trop mal à ce quon ma dit Jkikerais devant léternel Mon flow est sempiternel Du haut de ma tour de Babel Je débite des décibels Bébé tu est si belle viens faire un tour a la casa du Kazam Lherbe y est plus verte qua dame Tu seras ma cathédrale madame Regarde moi tout ces rageux, je pourrais les traiter de sombres merdes Mais laisse les avec leur haine, ils sont en guerre contre eux même Ton plus grand ennemie c'est toi, comme dirait mon vieux maitre Je mimprègne du poison pour fabriquer l'bon remède J'aide toujours les gens mais, je flaire toujours les dangers J'serais toujours dérangé si c'est dans l'rang qu'on veut m'mettre J'ai des rêves, nombreux m'aident et mes frères font de même Souvent déchiré mais j'irai où le son me mène Même près des sirènes, j'roule ça mon refré j'te laisserai tirer J'ai pas l'bras long je sais j'peux qu'les étirer Mais tout ça monte, me fait de l'effet direct, tout sa monte et fait Renaitre des petits rêves, donc j'affronte ce rêve et c'est décidé, J'fais mes prières Ou que j'aille l'ombre me cerne, j'essai d'briller, mais c'est griller Tout ce que l'monde veut faire gros c'est des billets et des billets Tout s'que l'on peut faire nous c'est les piller, donc tout s'que l'on va faire nous c'est les piller, et c'est plié L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père Demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs J'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir Pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain laisse concurrence en convalescence C'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser Pas les essais condescendants, j'compte pas r'descendre J'depeins des cendres ciel de décembre Je donnerais acte de ton décès Nature morte, toile incandescente I like your style boy, I like the way you move</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Apparemment</t>
+          <t>Au départ (Audemars)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En cmoment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Allez, suis-nous sur la scène, faut qu'tu rejoignes le mouvement Transforme tes problèmes en rêves et regarde droit tout devant Maman m'a dit Y a des gens à éviter absolument Pour que les tempêtes de sable deviennent de simples coups de vent La vie n'est pas très câline, Instagram te pousse à garder la ligne L'horizon vient toujours après la cime, chaque jour un peu plus d'adrénaline Tout paraît simple pour l'instant Mais pour un simple regard, on te juge, tôt ou tard Ouais, tu sais, cest la jungle Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, jrends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Miro su vacío y pienso todo me va bien Hace mucho tiempo que el rencor ya lo dejé Agradezco a mi gente y a mi vida también Cada vez más dura como tú hay más de cien Cuando estás abajo a esos fekas no les importas na Ahora que estoy escalando chico no te quiero ya El disfraz te lo puedes quitar Toda conectada esto tenía que pasar Apparemment, jai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'rends fier les gens J'ai rien trop vu venir, on m'dit qu'c'est suffisant J'pense avoir fait le pire car c'est plus comme avant Mais on n'se plaint plus de moi comme si j'étais géant, maintenant Hasta tù, tù me dices Te gusta mas lo mío que lo que tu haces Que vendrías tu alma por un chance Bebe te tengo en la mano no menaces Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Apparemment, j'ai changé mais pas vraiment, ah ouais En c'moment, moi, j'rends fier papa, maman, ah ouais Lalalalalalalalala Lalalalalalalalala Toy corriendo atrá del money dime aver Me van a juzgar igual yo ya lo see Ahora solo busco Los billetes de cien Solo quiera que mami viva bien eh Y dime quien eres tu, y que te importa a ti Con una mami gringa viene de Miami Beach Me pongo a prender le digo keloke Conmigo no te sientes sola tu te sientes bien</t>
+          <t>Han, Lord, mohofuckah Yo yo, au départ Yo, dans cette shit pour 2-3 millénaires Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'ai des rêves, j'les façonne, j'me donne raison d'y croire J'suis meilleur que la veille, yeah Le but c'est d'encrer son nom dans l'histoire Je me lève pour pouvoir impressionner l'miroir J'les vois tous échouer J'suis jeune, arrogant et doué Mais Dieu soit loué J'demande aux Cieux d'exaucer mes souhaits Tout c'que j'ai touché s'est transformé en or Y'a trop de mystères que je n'peux déceler Je pense à mon oncle, à son cur esseulé J't'assure qu'j'vais réussir pour honorer ta mort J'suis dans la salle des lords J'sais pas si j'construis mon futur ou si j'cours à ma perte Parfois le ciel m'attriste J'oublie mes cicatrices et songe aux âmes en peine Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être On fera couler l'encre et le sang Le temps sera témoin d'nos actes Perdu dans la tempête de sable Seul face à moi-même, je suis autodidacte Respectueux donc respectable J'vois la lumière ancestrale qui guide mes pas Mon âme est devenue spectrale Le cur meurtrit par l'amour en piteux état Mohofuckah, j'suis dans c'game Mon reflet dans l'miroir d'la suite présidentielle Hey, c'est écrit dans l'ciel Je vais marquer l'histoire tout comme l'Egypte ancienne Ok-k-k, j'suis dans c'thème L.O.R.D ou l'évidence même Et oui j'ai jugé inutile d'apporter D'l'importance à toute leur mise en scène Parlez-moi d'argent ou bien ne parlez pas J'attends toujours d'faire la fierté de mes parents Ça m'parait navrant Car la moula, ça sort et ça rentre Je veux ton or et ta rente Chacune des larmes versées parait charmante Faut pas faire pleurer sa mère Malheureusement j'ai compris ça plus récemment Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Don retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'entends tes mots Si tu veux pas mon bien, j'le ressens dans ton comportement J'm'inquiète plus des jugements qu'on porte sur moi Oui j'ai très bien compris qu'mon réconfort te manque J'ai haï relire, j'ai jeté, désormais Je suis fier de celui que je vais façonner Mais c'est pas rationnel, j'repars ovationné Ils n'sont pas si honnêtes, je suis passionné J'dois faire c'qui est nécessaire Rendre fiers mes prédécesseurs Je n'peux pas me laisser faire Le cur enfoui dans lépaisseur Lord, enfant d'la trap Léchec n'est qu'une mince hypothèse Personne ne m'incite autant Que celle que je façonne dans ma principauté 23 carats sur ma nuque Flûte de champagne dans ces beaux draps en soie Faut rester sincère pour pouvoir s'insérer Et donner vie à ses rêves, han Quitte à finir comme le Fils des Cieux Sur une croix en bois, au moins j'crois en moi Fils, ma dynastie règne Et n'se laisse pas bercer par le chant des sirènes Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être Au départ, au départ Au départ, au départ Au départ, au départ Au départ... L.O.R.D, mohofuckah Yeah, au départ L.O.R.D, une Audemars</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Après l’Orage</t>
+          <t>Audigier (SkulaBanks)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage Syndrome de l'imposteur, pourtant c'que j'ai, c'est mérité, avant les critiques, ça m'irritait J'ai passé trop d'temps à m'demander si j'allais rater, maint'nant, j'avance sans m'arrêter Pour oublier le manque qui s'install au fond des curs, on grandit avec l'égo incorporé On a fait couler d l'encre et on verse notre sueur, on donne les larmes qu'on n'a pas encore pleurées J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne-lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas les hommes ne les comptent pas T'façon, dans tous les cas Tout finit par s'en aller par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page tourner la page Après l'orage On a jamais succombler, ouais Concert complet, tout le vide est comblé, même si le torse est bombé, ouais Les plus grands sont ceux qu'ont déjà su tomber, ils t'regarderont ramper, ouais Profondeurs abyssales, le diable porte un costume, la plume surpasse l'épée, ouais Mais l'épée décide seule de qui tiendra la plume J'ai des violons dans l'âme, c'est ma sonorité, pour voir un homme changer, donne lui de l'autorité Brille à retardement, comme la plus vieille des étoiles, nouvelle lumière fait aussi peur que l'obscurité que l'obscurité Et plus j'grandis, plus j'ai mal, ça perdure perdure, attiré par les sens interdits interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Les années qui passent, n'ont pas de sens si les hommes ne les comptent pas T'façon dans tous les cas Tout finit par s'en aller Les regrets ne restent pas, comme les mauvais choix, faut tourner la page Après l'orage après l'orage Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Et plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu après l'orage, ouais, ouais, ouais Après l'orage, ouais, ouais, ouais J'retourne dans ma chambre d'enfant pour retrouver c'que j'ai perdu Tout finit par s'en aller Plus j'grandis, plus j'ai mal, ça perdure, attiré par les sens interdits Femme âgée Ah, ça je me l'demande hein, on trouve pas le mot, on trouve pas le, euh, l'histoire qui peut y avoir après. Et bah écoute, euh, y a jamais personne qui est, qui est r'venue sur Terre dire comment qu'ça se passe hein Lord Esperanza Ça c'est vrai Femme âgée C'est vrai, hein. Hum</t>
+          <t>Et qu'est-ce que ça signifie précisement Tabarnak ? Oooh Tabarnak ça veut dire ça va très bien ! Skulabanks, skulabanks Skulabanks, sha,sha,sha Moi, j'pars de rien comme Audigier, jeune lord et jeune prodige, yeah Flex, j'arrive en chaussons, fion, j'dépense chèque de caution Ils ne pourront que me haïr, tout pour mon, tout pour mon, tout pour mon gang gang J'suis dans carré, j'suis dans Shengen, ouh, chiah, olup, bang bang, skula J'ai mis ma ville sur la carte, oh yeah, j'suis dans très grand appart, woin Ancien rappeur frustré devenu chroniqueur me critique, j'en rigole quand j'me rends compte que ce soir c'est mon chauffeur Uber Sauve la France comme Umtiti, sur la concu', j'fais pipi Le monde appartient à tous les petits fils de Youtubers Jamais le boss comme le plancton, sont connus qu'au fond de leur canton Nous récoltons c'que nous plantons, je n't'aime ni toi, ni ton double menton, woh J'rentre sur Paname, j'appelle famé, drrrrrrrr, trois ans qu'c'est mon année Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Je mets Québec, Montréal sur le globe, yeah, avec ma clique on level up Mixe mon sirop d'érable avec du love, mixe ta playlist française avec mon boze God damn, j'suis comme Batman, je vis la nuit dans mon penthouse Tu veux le show, c'est ten thousand, Céline Dion sur ma terrasse Cendrillon se trouve à Vegas, on s'exporte comme Audigier Yeah, si je die c'est à L.A Les haters aiment pas que je parle à ma manière, appropriation culturelle sur ma tchass Non ils veulent pas que je détruise toutes les barrières mais sont pas capables de le faire à ma place On m'a dit Dans la vie, bats-toi, Munga Zayzay, c'est le patois Pleine vitesse, tu nous rattrapes pas, 300 sur l'autoroute A3 Skula Cash, l'argent est propre, le beat est sale, Skula Banks Où sont les haters, où ? I'm on another level Tu veux que j't'appelle, J'suis au 7ème ciel, faut que tu call mon label Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Jump dans ta bitch comme sur Doodle, j'graille concu' comme noodle Tu sers à pas grand chose comme taper Google dans Google Condescendant pour m'amuser, seul dans l'garage, construis fusée Leur descendance visitera ma maison d'enfance comme un musée Poison du diable dans la bouteille, j'ai main de dieu comme Maradona J'accepte de les pardonner après les avoir marabouter Jamais eu besoin d'acheter ma notoriété, j'suis avec mes soces Maliens qui connaissent pas sobriété Maman m'a dit Faut briller, t'es fait pour appart' haussmanien Golden Globe, ils veulent Gangnam style Désolé les gars mais on fait pas l'même bail Tu parles sur moi, continue, merci On s'est connus, j'avais r' en poche Si t'étais vif, tu serais rester proche pour faire la première partie de mon Bercy Je suis avec Mims au Mexique dans une Lexus Chaîne Paramour sur le plexus Brûle ton nexus, le vice mexcite Tous ces pédés sont dyslexiques Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Ça sera quand l'été indien à peu près ? Selon vous ? Comâ ?! Quand tu te cognes sur le pouce avec un marteau Au lieu de crier Maman, tu dis Tabarnak ! Que ça fait mal !</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Autographe</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Le roi est mort, vive le prince J'pourrais pas trahir mes principes J'sais pas quand on m'posera l'linceul Mais j'sais qu'j'ai choisi d'naître ainsi J'm'arrêterais pas avant d'être assis Sur le fauteuil d'El Atrassi ou de Laurent Ruquier Tu serais surpris de voir que pour de l'or en lingot même des tétraplégiques deviennent forts en lutte, yeah J'ai valeur humaine j'ai valeur pécuniaire moi je mens qu'aux mien comme Erico Mancunien ? Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vent plus rien Le but c'est d'passer du contrôle d'identité au contrôle fiscal Plus didole, la seule drogue qui m'calme C'est mes rêves que j'copie-colle Dieu est grand, Dieu est grand, Dieu est grand J'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma Mourir jeune comme dans les années 70 Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Poser de l'or sur le cou de la génitrice J'peux pas l'faire tout seul j'remercie les reufs A quoi bon être imbécile heureux Le temps dira si j'suis un génie triste 300 k-m-h sur l'avenue Montaigne j'suis en siège éjectable Le paradoxe c'est que même sur du vingt ans d'âge le bouchon d'liège est jetable Les amis jaloux deviennent sourds et muets Pourquoi leur donner ma confiance aveuglément Les nerfs en acier quand j'parle avec les morts J'veux que de la feuille d'or pour mon ameublement Moi j'suis bon qu'à t'aimer dans une suite royale J'arrive comme président dans une Citroën Sans arme, ni violence, ni trop d'haine J'ai tué la traîtrise dans l'équipe loyale J'fais R, à part ter-mon L-O-R au parthénon Charbonne pour qu'mes enfants finissent par se perdre dans l'appartement haha Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AU COIN DE LA RIME #2</t>
+          <t>Autre verre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Transcription... Au coin d'la rime, Monsieur Wish à la prod Yeah check ça yeah Tu sais les kickeurs d'aujourd'hui s'ressemblent tous On parle que de concurrence putain on est même pas foutu d'se donner un coup d'pouce Ça m'fou l'blues, y'a plus d'originalité Ouais gars t'as pas idée Moi-même mon rap est copyrighté bah ouais T'as capté la rythmique Tu veux faire un tour dans l'tur-fu En 2017 les bobos débattent de balistique On s'est tous mis à la trap alors pourquoi tu clames Que t'es pas né dans la tendance, t'attends l'retour de flamme Nan, alors casse pas les couilles et casse toi Écartez-vous j'suis à l'aise, donnez moi une phase A Que j'en fasse un classique ou bien une merde de plus A vrai dire dans la sique-mu ouais y'a pas mal de gus Donc, y'a pas d'autres choix que celui d'faire la diff' Sinon on restera en bas d'l'échelle à faire du rap pour le kiff Puis, dans le fond les deux m'conviennent Quoi qu'il advienne, j'ferais jamais la reusta Nan j'ai pas l'temps j'vis sous Carpe diem Check, j'veux pas d'une vie cadavérique En Amérique ça kick depuis des décennies donc tcheck la kass-dedi Big Up à mes frères blancs, beurs, métissés Noich' et blacko qui s'approvisionnent chez l'épicier Puis, j'en place une pour mon 7-5 Et puis peut être qu'on s'tirera, faut voir avec le destin Mais j'reste un petit con, le soir profitons du festin Si mon soce ramène un teh marocain, direct j'le test hein Ça fait gauche-droite-middle dans ta face On a... ma gueule j'cache pas qu'y'a pas d'palace On charbonne nuits et jours donc on a des cernes sur la face Samedi soir on va tiser l'mélange pourtant j'ai pas très soif On arpente les rues, on attend le bus Et gros c'est frappant même marquant ça fréquente l'instru Ouais ouais Satan c'est l'argent et les femmes quand t'as bu Attends détaillant rentrant là t'abuse gros I like your style boy, I like the way you move I like your style boy, I like the way you move, you move Jveux embarqué sur le radeau Vers un avenir radieux Monter tout droit vers les cieux Puis trouver mon eldorado Jai mis un paquet de rimes dans mon sac à dos Les astres saccadés de saké, bref Tout ce quil faut pour survivre Tout en restant un peu ivre Je ne mintéresse plus au livres Depuis que je dois écrire ma propre histoire Le rap est mon échappatoire Jpense pas finir au paradis Au pire Jdébarque au purgatoire Cest pas trop mal à ce quon ma dit Jkikerais devant léternel Mon flow est sempiternel Du haut de ma tour de Babel Je débite des décibels Bébé tu est si belle viens faire un tour a la casa du Kazam Lherbe y est plus verte qua dame Tu seras ma cathédrale madame Regarde moi tout ces rageux, je pourrais les traiter de sombres merdes Mais laisse les avec leur haine, ils sont en guerre contre eux même Ton plus grand ennemie c'est toi, comme dirait mon vieux maitre Je mimprègne du poison pour fabriquer l'bon remède J'aide toujours les gens mais, je flaire toujours les dangers J'serais toujours dérangé si c'est dans l'rang qu'on veut m'mettre J'ai des rêves, nombreux m'aident et mes frères font de même Souvent déchiré mais j'irai où le son me mène Même près des sirènes, j'roule ça mon refré j'te laisserai tirer J'ai pas l'bras long je sais j'peux qu'les étirer Mais tout ça monte, me fait de l'effet direct, tout sa monte et fait Renaitre des petits rêves, donc j'affronte ce rêve et c'est décidé, J'fais mes prières Ou que j'aille l'ombre me cerne, j'essai d'briller, mais c'est griller Tout ce que l'monde veut faire gros c'est des billets et des billets Tout s'que l'on peut faire nous c'est les piller, donc tout s'que l'on va faire nous c'est les piller, et c'est plié L'injustice est imbattable, dans cette France en dilettante Marianne est belle et tendre mais traite ses fils comme des bâtards Les graines qu'on sème connaissent l'équité Et puis germent, comme la haine sur lépiderme J'ai bien fait d'te quitter Méfie-toi même ceux qui t'aiment peuvent t'jalouser Surveille tous leurs conseils, demande toi qui t'es On s'canalise Place peu d'espoirs dans la psychanalyse Ici c'est le culte de l'ego, les plus timides se paralysent J'me demande pourquoi c'est dur d'aimer son père Demain sera pire, par ici les démons se perdent J'trouvais refuge dans mes soupirs J'les couvre d'or, mon cur s'y perd J'voudrais voir mes deux mains s'remplir Pour m'en sortir, j'dois bâtir un empire Besoin d'reconnaissance d'puis la naissance J'aime le rap mais j'le malmène car j'traite les putes dans leur essence On parait sain laisse concurrence en convalescence C'qu'on valait sans n'importe peu C'qu'il faut retenir c'est qu'on va laisser Pas les essais condescendants, j'compte pas r'descendre J'depeins des cendres ciel de décembre Je donnerais acte de ton décès Nature morte, toile incandescente I like your style boy, I like the way you move</t>
+          <t>La nuit, même mon ombre veut m'éviter, quand tous les égaux viennent s'inviter On finit par s'appliquer à devenir des hommes et c'est compliqué Depuis que je connais la vie de vitesse, quelques mois et j's'rai le roi de Lutèce Mon équipe est soudée on partage toutes nos joies, nos peurs et nos tristesses Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Le temps révèle toujours la vérité, pensais-tu vraiment l'éviter ? Trouve-moi juste accoudé, fuyant ce qui me reste de réalité Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre, ressers-moi un autre verre Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver1</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Au départ (Audemars)</t>
+          <t>Avenir Crystal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Han, Lord, mohofuckah Yo yo, au départ Yo, dans cette shit pour 2-3 millénaires Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'ai des rêves, j'les façonne, j'me donne raison d'y croire J'suis meilleur que la veille, yeah Le but c'est d'encrer son nom dans l'histoire Je me lève pour pouvoir impressionner l'miroir J'les vois tous échouer J'suis jeune, arrogant et doué Mais Dieu soit loué J'demande aux Cieux d'exaucer mes souhaits Tout c'que j'ai touché s'est transformé en or Y'a trop de mystères que je n'peux déceler Je pense à mon oncle, à son cur esseulé J't'assure qu'j'vais réussir pour honorer ta mort J'suis dans la salle des lords J'sais pas si j'construis mon futur ou si j'cours à ma perte Parfois le ciel m'attriste J'oublie mes cicatrices et songe aux âmes en peine Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être On fera couler l'encre et le sang Le temps sera témoin d'nos actes Perdu dans la tempête de sable Seul face à moi-même, je suis autodidacte Respectueux donc respectable J'vois la lumière ancestrale qui guide mes pas Mon âme est devenue spectrale Le cur meurtrit par l'amour en piteux état Mohofuckah, j'suis dans c'game Mon reflet dans l'miroir d'la suite présidentielle Hey, c'est écrit dans l'ciel Je vais marquer l'histoire tout comme l'Egypte ancienne Ok-k-k, j'suis dans c'thème L.O.R.D ou l'évidence même Et oui j'ai jugé inutile d'apporter D'l'importance à toute leur mise en scène Parlez-moi d'argent ou bien ne parlez pas J'attends toujours d'faire la fierté de mes parents Ça m'parait navrant Car la moula, ça sort et ça rentre Je veux ton or et ta rente Chacune des larmes versées parait charmante Faut pas faire pleurer sa mère Malheureusement j'ai compris ça plus récemment Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Don retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être J'entends tes mots Si tu veux pas mon bien, j'le ressens dans ton comportement J'm'inquiète plus des jugements qu'on porte sur moi Oui j'ai très bien compris qu'mon réconfort te manque J'ai haï relire, j'ai jeté, désormais Je suis fier de celui que je vais façonner Mais c'est pas rationnel, j'repars ovationné Ils n'sont pas si honnêtes, je suis passionné J'dois faire c'qui est nécessaire Rendre fiers mes prédécesseurs Je n'peux pas me laisser faire Le cur enfoui dans lépaisseur Lord, enfant d'la trap Léchec n'est qu'une mince hypothèse Personne ne m'incite autant Que celle que je façonne dans ma principauté 23 carats sur ma nuque Flûte de champagne dans ces beaux draps en soie Faut rester sincère pour pouvoir s'insérer Et donner vie à ses rêves, han Quitte à finir comme le Fils des Cieux Sur une croix en bois, au moins j'crois en moi Fils, ma dynastie règne Et n'se laisse pas bercer par le chant des sirènes Au départ Je ne voulais qu'une Audemars J'ai haï relire, j'ai jeté, j'me suis façonné seul Donc retiens ces 2 lettres Au départ, yeah Je ne voulais qu'une Audemars La cabine est en feu, j'calcule pas ma concu' Ni celle qui rêve de l'être Au départ, au départ Au départ, au départ Au départ, au départ Au départ... L.O.R.D, mohofuckah Yeah, au départ L.O.R.D, une Audemars</t>
+          <t>J'vois l'avenir dans l'cristal qui m'dit qu'j'ai passé l'stade d'être prometteur Dans ma meute fils, on s'reconnait entre meneurs Que des jeunes entrepreneurs entremetteurs XXX nos peurs en avançant entre nos tords et notre honneur On pleure des génocides que l'on a financé Comment rester silencieux face à ces mises en scène ? Avec le temps, je n'sais plus sur quel pied danser Je sais jusque quelles tombes j'dois fleurir avec mes chrysanthèmes Donc j'me demande comment faire Faudrait-il qu'on m'enterre pour qu'ils approuvent mes commentaires ? J'pense à ces âmes qu'on enferme A toutes celles qui mentèrent ne sachant pas c'qu'elles commettairent Oui j'ai vu le silence s'acheter Les âmes vendues par lâcheté L'excès d'fierté de l'Homme quand il oublie d'se racheter Honneur à ceux qui ont tenté N'ayant pas l'temps d'se contenter Les politiques seront couverts de bouquet de fleurs ensanglantées L-O-R-D J'ai gratté un truc, pour l'occas' Avec un jus d'pomme Poliakov En rentrant d'une manif armé car moi j'aime pas les keufs J'suis pas flemmard car j'fume la kush J'ai plus d'un tour dans mon keuss' Moi ? J'ai jamais poucave même si j'étais souvent l'plus keuss Les autres durs, ils adhèrent XXX demande à Nasser Et moi si l'rap c'est ma corde ouais inchallah qu'jamais ça sert XXX les pêchés sinsèrent car quand ça sort, c'est sûr XXX c'est sincère je n'veux plus de tristes blessures Mais j'veux bien doubler ça En liquide dans une petite mallette Me barrer vers Kinshasa Pour évacuer l'mal-être L'humain n'est rien sans son reflet, donc je réfléchis Comment préserver sans rafler ce qui me fais fléchir ? J'connais pas l'innocence et j'en ai toujours voulu Jamais pécho d'litres d'essence, j'crois j'ai toujours couru Vers la réussite avec mes propres moyens Tout ce que cela suscite c'est d'être un drôle de doyen</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Audigier (SkulaBanks)</t>
+          <t>Black Amadeus</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Et qu'est-ce que ça signifie précisement Tabarnak ? Oooh Tabarnak ça veut dire ça va très bien ! Skulabanks, skulabanks Skulabanks, sha,sha,sha Moi, j'pars de rien comme Audigier, jeune lord et jeune prodige, yeah Flex, j'arrive en chaussons, fion, j'dépense chèque de caution Ils ne pourront que me haïr, tout pour mon, tout pour mon, tout pour mon gang gang J'suis dans carré, j'suis dans Shengen, ouh, chiah, olup, bang bang, skula J'ai mis ma ville sur la carte, oh yeah, j'suis dans très grand appart, woin Ancien rappeur frustré devenu chroniqueur me critique, j'en rigole quand j'me rends compte que ce soir c'est mon chauffeur Uber Sauve la France comme Umtiti, sur la concu', j'fais pipi Le monde appartient à tous les petits fils de Youtubers Jamais le boss comme le plancton, sont connus qu'au fond de leur canton Nous récoltons c'que nous plantons, je n't'aime ni toi, ni ton double menton, woh J'rentre sur Paname, j'appelle famé, drrrrrrrr, trois ans qu'c'est mon année Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Je mets Québec, Montréal sur le globe, yeah, avec ma clique on level up Mixe mon sirop d'érable avec du love, mixe ta playlist française avec mon boze God damn, j'suis comme Batman, je vis la nuit dans mon penthouse Tu veux le show, c'est ten thousand, Céline Dion sur ma terrasse Cendrillon se trouve à Vegas, on s'exporte comme Audigier Yeah, si je die c'est à L.A Les haters aiment pas que je parle à ma manière, appropriation culturelle sur ma tchass Non ils veulent pas que je détruise toutes les barrières mais sont pas capables de le faire à ma place On m'a dit Dans la vie, bats-toi, Munga Zayzay, c'est le patois Pleine vitesse, tu nous rattrapes pas, 300 sur l'autoroute A3 Skula Cash, l'argent est propre, le beat est sale, Skula Banks Où sont les haters, où ? I'm on another level Tu veux que j't'appelle, J'suis au 7ème ciel, faut que tu call mon label Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks, Skulabanks Skulabanks Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Jump dans ta bitch comme sur Doodle, j'graille concu' comme noodle Tu sers à pas grand chose comme taper Google dans Google Condescendant pour m'amuser, seul dans l'garage, construis fusée Leur descendance visitera ma maison d'enfance comme un musée Poison du diable dans la bouteille, j'ai main de dieu comme Maradona J'accepte de les pardonner après les avoir marabouter Jamais eu besoin d'acheter ma notoriété, j'suis avec mes soces Maliens qui connaissent pas sobriété Maman m'a dit Faut briller, t'es fait pour appart' haussmanien Golden Globe, ils veulent Gangnam style Désolé les gars mais on fait pas l'même bail Tu parles sur moi, continue, merci On s'est connus, j'avais r' en poche Si t'étais vif, tu serais rester proche pour faire la première partie de mon Bercy Je suis avec Mims au Mexique dans une Lexus Chaîne Paramour sur le plexus Brûle ton nexus, le vice mexcite Tous ces pédés sont dyslexiques Skulabanks, Skulabanks, Skulabanks, Skulabanks Skulabanks, aye, Skulabanks-banks Skulabanks, aye, Skulabanks-banks Ça sera quand l'été indien à peu près ? Selon vous ? Comâ ?! Quand tu te cognes sur le pouce avec un marteau Au lieu de crier Maman, tu dis Tabarnak ! Que ça fait mal !</t>
+          <t>Yeah Rapp'lons les bases j'suis blanc, j'suis privilégié mais ne pas parler revient à fermer les yeux Le cur est lourd, c'pas un sujet léger, plus j'vois l'monde, plus j'ai de mal à cerner les cieux J'ai honte de cette France qu'accepte les immigrés que pour refaire nos villes nos villes Cinq décennies plus tard, ils leur ferment les frontières, pensant qu'ils vont s'arrêter comme le nuage de Tchernobyl Anges cagoulés face aux puissances du mal, le rêveur est seul dans les nuits sans étoiles Il se rappelle qu'il n'y a pas d'différence car tous les hommes commencent en position ftale Quand les couleurs sont des maux, la douleur s'endimanche, en deux mots Justice Adama, la justesse a du mal et r'met à plus tard J'vois d'la violence partout, j'vois d'la justice nulle part J'ai mal à l'Homme, j'suis gilet jaune, j'suis panthère noire Ma peau est blanche et tu sais qu'on slalome entre les Salam aleyk' qui riment pas mal avec tous les Shabbat shalom Bienv'nue dans l'monde où les sourds et muets se sont arrêtés d'voir voir, voir Après ça, les racistes se taisent comme si Mozart était noir Black Amadeus Cinq siècles d'histoire coloniale, dix-huit ans quand je sors de l'école, je déconstruis 'construis, 'construis L'homme est comme les fonds marins marins peuplé de monstres Peu importe où ça mène, ils oublient leurs racines La conscience qui sommeille et les s'amènent Le mensonge assumé du racisme c'est voir en l'autre le dégoût qu'on a d'soi-même Plafond de verre sans, ni porte, ni couloir I had a dream, Marianne seins nus porte le foulard Le bruit des odeurs, c'est qu'leurs sens sont niqués L'échelle sociale est à sens unique En plein dans le mille mille, le mal ne rate plus sa cible cible Jouons aux bons français comparons nos familles pour savoir qui a la plus raciste Black Amadeus Classez-moi monument historique, j'ai des polémiques, j'en fais des stories J'viens couper l'herbe sous le pied des racistes, la grand-mère d'Edith Piaf était Kabyle Paraîtrait qu'elle s'appelait Aïcha, qu'elle portait l'même hijab que Mona Lisa Ma grand-mère maternelle s'app'lait Marcelle, le deuxième prénom d'Darmanin, c'est Moussa J'mets du sens dans mes phrases sans faire exprès, comme quand j'fais tomber l'paquet d'pâtes alphabet Ces bâtards racontent des craques à mes gosses, j'suis sur leur plateau comme dans Among Us Après tout ça, les cistes-ra se taisent, après tout ça, les fils de pute tachycardent Comme si DJ Snake était un DZ, c'est pas d'la Taki-Taki-Taki-ah</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Autographe</t>
+          <t>Blanc ivoire</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Le roi est mort, vive le prince J'pourrais pas trahir mes principes J'sais pas quand on m'posera l'linceul Mais j'sais qu'j'ai choisi d'naître ainsi J'm'arrêterais pas avant d'être assis Sur le fauteuil d'El Atrassi ou de Laurent Ruquier Tu serais surpris de voir que pour de l'or en lingot même des tétraplégiques deviennent forts en lutte, yeah J'ai valeur humaine j'ai valeur pécuniaire moi je mens qu'aux mien comme Erico Mancunien ? Disque argenté comme la petite cuillère, rappeur devient rancunier quand il ne vent plus rien Le but c'est d'passer du contrôle d'identité au contrôle fiscal Plus didole, la seule drogue qui m'calme C'est mes rêves que j'copie-colle Dieu est grand, Dieu est grand, Dieu est grand J'dois faire en sorte que le panorama s'agrandisse Bolide allemand sous le pont de l'Alma Mourir jeune comme dans les années 70 Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Poser de l'or sur le cou de la génitrice J'peux pas l'faire tout seul j'remercie les reufs A quoi bon être imbécile heureux Le temps dira si j'suis un génie triste 300 k-m-h sur l'avenue Montaigne j'suis en siège éjectable Le paradoxe c'est que même sur du vingt ans d'âge le bouchon d'liège est jetable Les amis jaloux deviennent sourds et muets Pourquoi leur donner ma confiance aveuglément Les nerfs en acier quand j'parle avec les morts J'veux que de la feuille d'or pour mon ameublement Moi j'suis bon qu'à t'aimer dans une suite royale J'arrive comme président dans une Citroën Sans arme, ni violence, ni trop d'haine J'ai tué la traîtrise dans l'équipe loyale J'fais R, à part ter-mon L-O-R au parthénon Charbonne pour qu'mes enfants finissent par se perdre dans l'appartement haha Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais Mon cur est sous autotune quand j'chante la tristesse des boulevards Ouais ouais, ouais ouais, ouais ouais, ouais ouais J'ai fait une faute d'orthographe quand ?i m'a demandé l'autographe Ouais ouais, ouais ouais, ouais ouais, ouais ouais</t>
+          <t>I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me Si seulement c'était toi Seulement que de toi Me réveille sans soleil Dans le froid d'une matinée Un jour d'été sans pareil Au bord d'un lit tout abimé I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me J'ai pensé à toi toute la journée Tu m'as suivi jusqu'en tournée Te rappelles-tu ma belle à l'époque ? T'as fait de mon cur une fournaise Dans lequel t'es seule à gouverner A cause de toi j'crois que j'ai des TOC Toi tu m'as fait des Grâce à toi je ouh J'suis un peu ja-loux Mais je n'ai jamais ragé yeah yeah On s'est promis de ne pas faire même erreur que les autres qui s'aimaient avant nous Toi tu me vois comme un frère mais tes notes m'accompagnent depuis la vie a bon goût I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you Nos curs sont menottés Nos vies sont monotones J'pensais pas t'aimer autant Si j'ai un cur comme à l'hôtel Tu m'fais tourner en rond comme les cross dans ma tess T'es sans arrêt dans ma tête Encore un soir où j'attends Mais regarde moi Tu m'fais me mettre dans des états que j'imaginais pas babe Si j'étais un peintre tu serais l'origine de mes toiles J'aime quand je sens tes doigts contre les miens Quand je m'en vais voyager au-dessus des étoiles J'sais qu'il est tard mais je te veux toi I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you1</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Autre verre</t>
+          <t>Caméléon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>La nuit, même mon ombre veut m'éviter, quand tous les égaux viennent s'inviter On finit par s'appliquer à devenir des hommes et c'est compliqué Depuis que je connais la vie de vitesse, quelques mois et j's'rai le roi de Lutèce Mon équipe est soudée on partage toutes nos joies, nos peurs et nos tristesses Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Le temps révèle toujours la vérité, pensais-tu vraiment l'éviter ? Trouve-moi juste accoudé, fuyant ce qui me reste de réalité Les amis, les amours, les emmerdes s'oublient vite avec un verre de trop Moi, j'ai tout donné pour pas perdre, soit tu les montres, soit tu serres les crocs Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Veux-tu m'expliquer pourquoi l'monde est si vaste et j'y suis étriqué ? C'est pas très compliqué, j'ai perdu des amis comme on perd des briquets Dans l'jeu de l'amitié, j'ai fini par comprendre que les dés sont truqués Faut sûrement être pauvre d'esprit pour s'vanter d'être friqué Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre, ressers-moi un autre verre Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver Frère d'une autre mère, frère d'une autre mère Ressers-moi un autre verre que j'oublie le froid de l'hiver1</t>
+          <t>Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Au dernier étage, de nos tours de verre La drogue prend tout quand tes à court de rêve Les âmes perdues ont baissé leurs glaives Sous les néons des grandes ambitions Le lot de consolation Cest dans le néant de leurs addictions Pris dans le tourbillon de la dépendance Plus de consommation, plus de performance Le diable fait des avances Puis vient la spirale de la décadence Quand les qualités deviennent des défaillances Alors cest là que les démons dansent Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Labandon se camoufle dans les abondances Et la vie a bon goût quand la fumée compense Comment combler le manque de confiance ? Encore enlisé dans les sables mouvants Oubliant la vie davant Mais les dernières angoisses reviendront au Soleil levant En décalage total avec le quotidien Sans trop savoir comment la vie se maintient Regard noir vers lavenir Comment se souvenir de ses souvenirs ? Jeunesse éternelle ne pourra pas rev'nir Quand loverdose décide den finir Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons La nuit les masques tombent et se métamorphosent comme des caméléons1</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Avenir Crystal</t>
+          <t>Capable</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J'vois l'avenir dans l'cristal qui m'dit qu'j'ai passé l'stade d'être prometteur Dans ma meute fils, on s'reconnait entre meneurs Que des jeunes entrepreneurs entremetteurs XXX nos peurs en avançant entre nos tords et notre honneur On pleure des génocides que l'on a financé Comment rester silencieux face à ces mises en scène ? Avec le temps, je n'sais plus sur quel pied danser Je sais jusque quelles tombes j'dois fleurir avec mes chrysanthèmes Donc j'me demande comment faire Faudrait-il qu'on m'enterre pour qu'ils approuvent mes commentaires ? J'pense à ces âmes qu'on enferme A toutes celles qui mentèrent ne sachant pas c'qu'elles commettairent Oui j'ai vu le silence s'acheter Les âmes vendues par lâcheté L'excès d'fierté de l'Homme quand il oublie d'se racheter Honneur à ceux qui ont tenté N'ayant pas l'temps d'se contenter Les politiques seront couverts de bouquet de fleurs ensanglantées L-O-R-D J'ai gratté un truc, pour l'occas' Avec un jus d'pomme Poliakov En rentrant d'une manif armé car moi j'aime pas les keufs J'suis pas flemmard car j'fume la kush J'ai plus d'un tour dans mon keuss' Moi ? J'ai jamais poucave même si j'étais souvent l'plus keuss Les autres durs, ils adhèrent XXX demande à Nasser Et moi si l'rap c'est ma corde ouais inchallah qu'jamais ça sert XXX les pêchés sinsèrent car quand ça sort, c'est sûr XXX c'est sincère je n'veux plus de tristes blessures Mais j'veux bien doubler ça En liquide dans une petite mallette Me barrer vers Kinshasa Pour évacuer l'mal-être L'humain n'est rien sans son reflet, donc je réfléchis Comment préserver sans rafler ce qui me fais fléchir ? J'connais pas l'innocence et j'en ai toujours voulu Jamais pécho d'litres d'essence, j'crois j'ai toujours couru Vers la réussite avec mes propres moyens Tout ce que cela suscite c'est d'être un drôle de doyen</t>
+          <t>J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Le monde est si vaste mais on se l'accapare J'ai du décréter qu'ça m'étonne pas d'ta part Elle m'a jeté de chez elle avec un Sale bâtard ! Je me réveille aux aurores, j'suis rentré tard tard tard J'suis qu'un jeune entrepreneur avec des rêves en têtes Surveille ton avenir sinon les trêves t'enterrent On prépare le calme avant la tempête Ce soir seul, le ciel me tempère T'es pas ma compagne mais j'te raccompagne si t'es trop pompette T'es pas ma compagne mais j'te raccompagne si t'es trop pompette Le disque d'or j'en suis capable Le double platine j'en suis capable Le triple diamant j'en suis capable Capable, capable J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Au début on voulait plus s'quitter Avec le temps on sait plus qui s'aime, nan Ça fait combien d'temps qu'on a plus dix-sept ans ? J'crois que l'amour on sait plus qui c'est A chaque dispute la fin s'anticipe On essaie de construire mais y'a tout qui cède On se connait plus trop d'choses nous séparent On en revient à s'dire qu'on est pas fait pour ça J'ai peur qu'on y arrive pas Si tu pars j'm'en mordrai les doigts On s'aime que sous Marie-Jeanne Sous Marie-Jeanne, mais on se marrait jamais Je ne bouge plus mon cul pour te récupérer Les larmes coulent sur ton cou mais je n'comprends plus rien A partir de maintenant, tu me dis que tu vas partir sur de nouvelles bases Mais bouge babe, fuck le faux-love entre nous J'vais te cogner mon amour, s'aimer encore on a testé Après les beaux jours tu vas me demander de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable1</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Black Amadeus</t>
+          <t>Ce soir ne nous appartient pas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah Rapp'lons les bases j'suis blanc, j'suis privilégié mais ne pas parler revient à fermer les yeux Le cur est lourd, c'pas un sujet léger, plus j'vois l'monde, plus j'ai de mal à cerner les cieux J'ai honte de cette France qu'accepte les immigrés que pour refaire nos villes nos villes Cinq décennies plus tard, ils leur ferment les frontières, pensant qu'ils vont s'arrêter comme le nuage de Tchernobyl Anges cagoulés face aux puissances du mal, le rêveur est seul dans les nuits sans étoiles Il se rappelle qu'il n'y a pas d'différence car tous les hommes commencent en position ftale Quand les couleurs sont des maux, la douleur s'endimanche, en deux mots Justice Adama, la justesse a du mal et r'met à plus tard J'vois d'la violence partout, j'vois d'la justice nulle part J'ai mal à l'Homme, j'suis gilet jaune, j'suis panthère noire Ma peau est blanche et tu sais qu'on slalome entre les Salam aleyk' qui riment pas mal avec tous les Shabbat shalom Bienv'nue dans l'monde où les sourds et muets se sont arrêtés d'voir voir, voir Après ça, les racistes se taisent comme si Mozart était noir Black Amadeus Cinq siècles d'histoire coloniale, dix-huit ans quand je sors de l'école, je déconstruis 'construis, 'construis L'homme est comme les fonds marins marins peuplé de monstres Peu importe où ça mène, ils oublient leurs racines La conscience qui sommeille et les s'amènent Le mensonge assumé du racisme c'est voir en l'autre le dégoût qu'on a d'soi-même Plafond de verre sans, ni porte, ni couloir I had a dream, Marianne seins nus porte le foulard Le bruit des odeurs, c'est qu'leurs sens sont niqués L'échelle sociale est à sens unique En plein dans le mille mille, le mal ne rate plus sa cible cible Jouons aux bons français comparons nos familles pour savoir qui a la plus raciste Black Amadeus Classez-moi monument historique, j'ai des polémiques, j'en fais des stories J'viens couper l'herbe sous le pied des racistes, la grand-mère d'Edith Piaf était Kabyle Paraîtrait qu'elle s'appelait Aïcha, qu'elle portait l'même hijab que Mona Lisa Ma grand-mère maternelle s'app'lait Marcelle, le deuxième prénom d'Darmanin, c'est Moussa J'mets du sens dans mes phrases sans faire exprès, comme quand j'fais tomber l'paquet d'pâtes alphabet Ces bâtards racontent des craques à mes gosses, j'suis sur leur plateau comme dans Among Us Après tout ça, les cistes-ra se taisent, après tout ça, les fils de pute tachycardent Comme si DJ Snake était un DZ, c'est pas d'la Taki-Taki-Taki-ah</t>
+          <t>Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Je me revois te dire Il est si maladroit, ton corps Sache que ton regard enflammé m'alla droit au cur Il est si dur pour moi de s'approprier Notre silence, puisque j'ai trop crié Ça commence par un oui d'un commun accord puis nous formons ensemble une seule unité Avant que l'on comprenne que ce chemin n'apporte plus aucune clé pour communiquer Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas J'ai des perles de pluie de contrées lointaines Tu ne pleures depuis qu'on est aimantés J'ai fermé la parenthèse mais on rêve de s'y apparenter On s'aime qu'à moitié, on pleure à part entière L'amour est la seule frontière qui sépare l'entraide de la haine Encore un soir où t'es pas rentrée Et même les étoiles en parlent entre elles Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas1</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Blanc ivoire</t>
+          <t>Cha cha cha</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me Si seulement c'était toi Seulement que de toi Me réveille sans soleil Dans le froid d'une matinée Un jour d'été sans pareil Au bord d'un lit tout abimé I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me J'ai pensé à toi toute la journée Tu m'as suivi jusqu'en tournée Te rappelles-tu ma belle à l'époque ? T'as fait de mon cur une fournaise Dans lequel t'es seule à gouverner A cause de toi j'crois que j'ai des TOC Toi tu m'as fait des Grâce à toi je ouh J'suis un peu ja-loux Mais je n'ai jamais ragé yeah yeah On s'est promis de ne pas faire même erreur que les autres qui s'aimaient avant nous Toi tu me vois comme un frère mais tes notes m'accompagnent depuis la vie a bon goût I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you Nos curs sont menottés Nos vies sont monotones J'pensais pas t'aimer autant Si j'ai un cur comme à l'hôtel Tu m'fais tourner en rond comme les cross dans ma tess T'es sans arrêt dans ma tête Encore un soir où j'attends Mais regarde moi Tu m'fais me mettre dans des états que j'imaginais pas babe Si j'étais un peintre tu serais l'origine de mes toiles J'aime quand je sens tes doigts contre les miens Quand je m'en vais voyager au-dessus des étoiles J'sais qu'il est tard mais je te veux toi I can't stop my feelings for you I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you You tell me I can't stop my feelings for you1</t>
+          <t>Nos deux solitudes sur la plage, l'été a noirci la page Comment te dire qu'à notre âge, c'est normal de faire naufrage Les yeux verts couleur méditerranéen Tu mets le temps sur pause, j'oublie même le néant Faites que les secondes deviennent des années, hein On dit qu'avec l'usure, les âmes peuvent faner, hein Les garçons deviennent des hommes, le cur en Bubble Gum J'oublie mes questions, mes déceptions dans toutes les vapeurs de rhum J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Ouais Arma, c'est Lord, t'es sur messagerie là tu m'rappelles ? Yeah, mais je n'ai plus l'temps, baby dit que je parle trop Que je ne sais que la charmer, que je n'ai que des belles phases, yeah Elle dit que c'est mon business et des fois, je perds le fil Chaque fois, c'est pour ma faute, je ne pense qu'à bénéfice Et mon cur en suspens Chaque fois qu'elle me fixe, j'tourne la tête Chaque fois qu'elle me regarde Chaque fois que le disque tourne, elle danse le Cha Cha Je la regarde et j'essaie de pas perdre le rythme Elle s'approche, je la laisse venir Elle s'approche, je la laisse venir Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Viens, on oublie Paris et l'goût de l'ennui Dansons tous les deux jusqu'au bout de la nuit C'est ici que les doutes s'enfuient Ouh, ouh, ouh, ouh, ouh Allez, montre-moi ta magie Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi J'aime tout chez toi, ouais</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Caméléon</t>
+          <t>Château de Cartes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Au dernier étage, de nos tours de verre La drogue prend tout quand tes à court de rêve Les âmes perdues ont baissé leurs glaives Sous les néons des grandes ambitions Le lot de consolation Cest dans le néant de leurs addictions Pris dans le tourbillon de la dépendance Plus de consommation, plus de performance Le diable fait des avances Puis vient la spirale de la décadence Quand les qualités deviennent des défaillances Alors cest là que les démons dansent Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Labandon se camoufle dans les abondances Et la vie a bon goût quand la fumée compense Comment combler le manque de confiance ? Encore enlisé dans les sables mouvants Oubliant la vie davant Mais les dernières angoisses reviendront au Soleil levant En décalage total avec le quotidien Sans trop savoir comment la vie se maintient Regard noir vers lavenir Comment se souvenir de ses souvenirs ? Jeunesse éternelle ne pourra pas rev'nir Quand loverdose décide den finir Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Comme des caméléons, comme des camés Que sont nos addictions, sans leurs contradictions ? Tout est devenu fiction La nuit les masques tombent Et se métamorphosent comme des caméléons Saut de lange dans le vide immense De nos accoutumances Les masques dansent et se métamorphosent comme des caméléons La nuit les masques tombent et se métamorphosent comme des caméléons1</t>
+          <t>Le temps laisse son empreinte et les cernes deviennent des rides S'il te plait, sois sans crainte sur le chemin que j'emprunte Et je r'vois ces scènes terribles Les enfants deviennent adultes quand plus personne les adule Mais t'es ma fidèle supportrice, j't'ai vue cent fois supr triste Quand mes rêves dantan sont partis On échang les rôles si vite, c'est moi qui te disais prends garde J'ai huit ans quand tu regardes le vide, prête à sauter la rambarde T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Tu es une survivante, une guerrière au cur rebelle Pleine d'ambitions débordantes, mais tes envies sont dévorantes Et elles ont brûlé tes ailes Je m'en veux encore à mon âge, de n'avoir su être que moi Quand t'as vu venir l'orage des traces du temps sur ton visage Maman ma menti je crois Suis-je vraiment désiré ou le fruit d'un accident ? Par miracle, je suis né après deux avortements T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Capable</t>
+          <t>Château de sable</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Le monde est si vaste mais on se l'accapare J'ai du décréter qu'ça m'étonne pas d'ta part Elle m'a jeté de chez elle avec un Sale bâtard ! Je me réveille aux aurores, j'suis rentré tard tard tard J'suis qu'un jeune entrepreneur avec des rêves en têtes Surveille ton avenir sinon les trêves t'enterrent On prépare le calme avant la tempête Ce soir seul, le ciel me tempère T'es pas ma compagne mais j'te raccompagne si t'es trop pompette T'es pas ma compagne mais j'te raccompagne si t'es trop pompette Le disque d'or j'en suis capable Le double platine j'en suis capable Le triple diamant j'en suis capable Capable, capable J'ai fait les choses à ma manière Avant tout c'est pour la mama Très joli début de carrière Un million de stream sur la bannière Tout est si noir avec toi J't'ai pas trompé par respect Mais tout est si noir avec toi Tu m'as demandé de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable Au début on voulait plus s'quitter Avec le temps on sait plus qui s'aime, nan Ça fait combien d'temps qu'on a plus dix-sept ans ? J'crois que l'amour on sait plus qui c'est A chaque dispute la fin s'anticipe On essaie de construire mais y'a tout qui cède On se connait plus trop d'choses nous séparent On en revient à s'dire qu'on est pas fait pour ça J'ai peur qu'on y arrive pas Si tu pars j'm'en mordrai les doigts On s'aime que sous Marie-Jeanne Sous Marie-Jeanne, mais on se marrait jamais Je ne bouge plus mon cul pour te récupérer Les larmes coulent sur ton cou mais je n'comprends plus rien A partir de maintenant, tu me dis que tu vas partir sur de nouvelles bases Mais bouge babe, fuck le faux-love entre nous J'vais te cogner mon amour, s'aimer encore on a testé Après les beaux jours tu vas me demander de rester Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Mais j'en suis incapable Capable, capable Incapable, capable, capable Incapable, capable, capable Incapable, capable, capable1</t>
+          <t>Regarder sa vie du haut d'un pont et avoir du mal à y donner sens Certains sautent dautres titubent A l'autre bout du monde, on ne respecte que ceux qui donnent naissance Devenir homme, c'est dabord se perdre dans l'ingratitude de l'adolescence J'repense à mon père, à nos similitudes Plus j'm'en rends compte, plus j'l'ressemble 7 ans, tout petit Lord est méconnaissable Il a encore énervé papa et quand papa est en colère Il écrase les rêves, les châteaux de sable Alors petit Lord ne parle pas, le souffle coupé Il se perd dans lincertitude dun méconnaissant Entre vrai mensonge et faux message pendant c'temps La psychologue dit quil faut accepter Moi, je n'ai jamais rien accepté à part mon besoin de reconnaissance Petit Lord n'est bien qu'en étant seul Quand il ségare sur le quai de la gare en remerciant la vie Pour son don de sens Il aimerait prendre cette étincelle qui dort dans son regard quand l'ciel est tout noire et tuer ses envies Sur le bidon d'essence Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Château de sable, château de sable, château de sable Petit Lord est triste et rêve d'être artiste Il enchaîne les femmes et brise les curs Jusqu'à ce que ça retourne contre lui et que sa traîtrise l'écure Sa seule faiblesse, au fond, c'est l'âge Encore une nuit blanche, pleine d'idées noires Les cauchemars n'en sont que l'arborescence Et les rêves nous donnent des rides d'espoir Petit Lord grandit, mais se perd dans un fossé large Il dépeint sa peine sur un fond sonore Et décide de se défoncer l'âme, tu m'étonnes Voir ses souvenirs disparaître dans un nuage de fumée blanche Est toujours plus simple que de sécher ses larmes quand les problèmes sont plus étanches J'repense à mon père, à nos similitudes Plus je grandis, plus j'le ressemble Pourtant j'ai du mal à me reconnaître en lui En tout ce qui nous rassemble Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Châteaux de sable, châteaux de sable, châteaux de sable Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les châteaux de sable</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ce soir ne nous appartient pas</t>
+          <t>Check In</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Je me revois te dire Il est si maladroit, ton corps Sache que ton regard enflammé m'alla droit au cur Il est si dur pour moi de s'approprier Notre silence, puisque j'ai trop crié Ça commence par un oui d'un commun accord puis nous formons ensemble une seule unité Avant que l'on comprenne que ce chemin n'apporte plus aucune clé pour communiquer Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas J'ai des perles de pluie de contrées lointaines Tu ne pleures depuis qu'on est aimantés J'ai fermé la parenthèse mais on rêve de s'y apparenter On s'aime qu'à moitié, on pleure à part entière L'amour est la seule frontière qui sépare l'entraide de la haine Encore un soir où t'es pas rentrée Et même les étoiles en parlent entre elles Fin d'semaine, semaine, semaine Tout se meurt, se meurt Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas Les étoiles me rappellent que ce soir ne nous appartient pas Tout disparaît dans le royaume des rêves où tu règnes en souveraine Les étoiles me rappellent que ce soir ne nous appartient pas Seuls les draps s'en souviennent Demain, j'arrête de m'égarer dans la fumée de tes cigarettes J'finis par être préparé derrière ma prison de paraître Ce soir ne nous appartient pas, pas, j'peux pas Ce soir ne nous appartient pas1</t>
+          <t>Mesdames, messieurs, bonjour et bienvenue à bord du vol LEDTV épisode 2. La représentation qui va suivre concerne votre sécurité à bord de notre compagne, L.O Airlines lors de ce voyage improvisé aux quatre coins du globe. Les issues d'secours sont situées de chaque côté de la cabine, à l'avant, au centre et à l'arrière. N'essayez en aucun cas de les ouvrir avant d'avoir reçu des indications du personnel de bord. Toute l'équipe Paramour se tient à votre disposition en cas de question Chaque fois que ce signal est allumé, vous devrez attacher votre ceinture. Il est probable que nous soyons confrontés à des zones de turbulence dues à piqûres de basses enflammées, des structures futuristes ou encore des bouts de couplets stridents. Ne paniquez pas. En cas de dépressurisation, un masque à oxygène tombera automatiquement près de vous Mesdames et messieurs, merci pour votre attention. Ce projet est l'aboutissement de deux ans de travail afin de réunir des artistes du monde entier sur le même disque, volonté évoquée par Lord Esperanza et rendue possible grâce à ses nombreux anges gardiens. Il est désormais entre vos mains et nous comptons sur vous pour le défendre comme vous en avez si bien l'habitude. En d'autres mots, streamez ça, chacals Au nom de toute la compagnie L.O Airlines, nous vous souhaitons un excellent vol. L'aventure va commencer</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cha cha cha</t>
+          <t>Cimetière de rêves</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nos deux solitudes sur la plage, l'été a noirci la page Comment te dire qu'à notre âge, c'est normal de faire naufrage Les yeux verts couleur méditerranéen Tu mets le temps sur pause, j'oublie même le néant Faites que les secondes deviennent des années, hein On dit qu'avec l'usure, les âmes peuvent faner, hein Les garçons deviennent des hommes, le cur en Bubble Gum J'oublie mes questions, mes déceptions dans toutes les vapeurs de rhum J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Ouais Arma, c'est Lord, t'es sur messagerie là tu m'rappelles ? Yeah, mais je n'ai plus l'temps, baby dit que je parle trop Que je ne sais que la charmer, que je n'ai que des belles phases, yeah Elle dit que c'est mon business et des fois, je perds le fil Chaque fois, c'est pour ma faute, je ne pense qu'à bénéfice Et mon cur en suspens Chaque fois qu'elle me fixe, j'tourne la tête Chaque fois qu'elle me regarde Chaque fois que le disque tourne, elle danse le Cha Cha Je la regarde et j'essaie de pas perdre le rythme Elle s'approche, je la laisse venir Elle s'approche, je la laisse venir Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Viens, on oublie Paris et l'goût de l'ennui Dansons tous les deux jusqu'au bout de la nuit C'est ici que les doutes s'enfuient Ouh, ouh, ouh, ouh, ouh Allez, montre-moi ta magie Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh Oh, j'veux te voir danser sur le Cha Cha Cha Ouh, ouh, ouh, ouh, ouh J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi Du bout des doigts, ouais J'veux t'toucher toi J'aime tout chez toi, ouais J'veux t'toucher toi J'aime tout chez toi, ouais</t>
+          <t>Les mauvaises pensées souhaiteraient hanter mes rêves Tant d'erreurs qui rendent humains Au royaume des ombres où l'on se doit d'être téméraires Seules les flammes te tendent une main Le manque de sommeil t'emmènera J'attends le repos qu'un nuage enverra Laisse le reste vociférer le temps m'est rare, on s'y fera Tremper notre madeleine de Proust dans un verre de lait Une nuit étoilée pour éclairer nos cervelets Cette fatigue qu'on finit par aimer finit par régner Sur notre empire comme tous les liens qu'on a tissés sur ces toiles d'araignées Je n'ai pas renié le moi, je suis juste le même en pire Car bloqué entre deux cycles de sommeil, mon regard parait niais Je suis ma route comme le pic du soleil Le marchand de sable n'est qu'un parolier Faisait croire que le corps et l'âme ne sont pas reliés Le temps accule les semestres Ma rancune se défenestre Une vie t'en n'a qu'une alors fais naître tes idées avant de te perdre Décimé dans des tentacules de ténèbre Je pense à la gloire de demain A mes fautes d'hier Je m'endors des galaxies sous les paupières L'alchimiste veut comprendre à travers ses étranges formules Mes nuits blanches s'assombrissent comme l'aile d'un ange que l'on brûle Dans le cimetière des rêves où les cauchemars sont somnambulent Il ne reste que des bouts de drapeau d'abandon qui ondulent Qui sommes-nous ? Des esprits centenaires dans des corps d'insomnie Si nos curs ont l'air en paix enterre-les On s'perd la nuit et N a su faire taire les craintes, guidés par nos rêves perlés1</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Champagne Shower</t>
+          <t>Comme ça</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi, je compte plus les amitiés délaissées, les jugements portés sur tous mes essais Dfaçon, quand jy pense, ce nest pas si récent, comme les regards perfides dintéressés Jvoulais simplement combler chaque seconde de ma vie Pendant que mon cur faisait quelques rondes dans la nuit Toutes ces soirées à refaire le monde dans Paris Jai vu les gens changer autour de moi Dois-je me sentir coupable de réussir ? Mais bon, tout va vite et les vautours le savent Donc trace ta route comme on dirait ici Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jai juste besoin quon m'rappelle que j'suis personne Jai grandi entre père instable et mère seule J'rêve dun reflet symétrique comme les films de Wes Anderson Toujours entre excès et manque de confiance, ici, cest simple de perdre sa conscience Moi, jveux juste toucher les curs comme seule récompense Jai peur du succès, peur de npas être capable, peur de plus mreconnaître Jbois vos compliments cul sec, parfois, j'déconnecte mais mon cur est honnête Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Château de Cartes</t>
+          <t>Comment on s’aime</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Le temps laisse son empreinte et les cernes deviennent des rides S'il te plait, sois sans crainte sur le chemin que j'emprunte Et je r'vois ces scènes terribles Les enfants deviennent adultes quand plus personne les adule Mais t'es ma fidèle supportrice, j't'ai vue cent fois supr triste Quand mes rêves dantan sont partis On échang les rôles si vite, c'est moi qui te disais prends garde J'ai huit ans quand tu regardes le vide, prête à sauter la rambarde T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Tu es une survivante, une guerrière au cur rebelle Pleine d'ambitions débordantes, mais tes envies sont dévorantes Et elles ont brûlé tes ailes Je m'en veux encore à mon âge, de n'avoir su être que moi Quand t'as vu venir l'orage des traces du temps sur ton visage Maman ma menti je crois Suis-je vraiment désiré ou le fruit d'un accident ? Par miracle, je suis né après deux avortements T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, j'ai compté cent fois tes cheveux blancs T'es comme ce château de cartes qui s'envolera avec le temps Avant que ton bateau reparte, prends-moi dans tes bras, maman Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh Oh-oh-oh</t>
+          <t>Honte davoir honte Comment changer de contexte Tout paraît plus complexe avec tous mes complexes Tous les jours, cest pareil Je me fais mon cinéma Jarrête pas de me comparer, cest normal si jai mal Je me mets dans tous mes états Un jour ça sarrêtera On sest mis dans tous nos états À courir après ce qu'on n'est pas Bien sûr quon fait naufrage Sur les plages du sabotage T'en veux pas, on fait tous ça Alors on devient ce quon ne vut pas A vouloir trouver le mieux n soi Dès que comme une prise d'otage Se laisser sortir des cages Ten veux pas, ça ira Je me mets dans tous mes états Un jour sarrêtera Et je sais que ça ira Sentiment étranger Jai jamais limpression dêtre rangé Jamais limpression dêtre à ma place Mais cest quoi ma place ? Affronter ma conscience ou créer une carapace Les problèmes du passé, déplacés Qu'on remplace de chaud, tu es le père ou perpétue Faut que javance tout droit Je sais que la peur peut tuer Mais ça ira, ça ira Faut faire taire la petite voix Pourtant cest fou quand on sait comment on saigne Moi, je veux juste qu'on m'enseigne Quon m'enseigne comment on saime</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Château de sable</t>
+          <t>Couronné</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Regarder sa vie du haut d'un pont et avoir du mal à y donner sens Certains sautent dautres titubent A l'autre bout du monde, on ne respecte que ceux qui donnent naissance Devenir homme, c'est dabord se perdre dans l'ingratitude de l'adolescence J'repense à mon père, à nos similitudes Plus j'm'en rends compte, plus j'l'ressemble 7 ans, tout petit Lord est méconnaissable Il a encore énervé papa et quand papa est en colère Il écrase les rêves, les châteaux de sable Alors petit Lord ne parle pas, le souffle coupé Il se perd dans lincertitude dun méconnaissant Entre vrai mensonge et faux message pendant c'temps La psychologue dit quil faut accepter Moi, je n'ai jamais rien accepté à part mon besoin de reconnaissance Petit Lord n'est bien qu'en étant seul Quand il ségare sur le quai de la gare en remerciant la vie Pour son don de sens Il aimerait prendre cette étincelle qui dort dans son regard quand l'ciel est tout noire et tuer ses envies Sur le bidon d'essence Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Château de sable, château de sable, château de sable Petit Lord est triste et rêve d'être artiste Il enchaîne les femmes et brise les curs Jusqu'à ce que ça retourne contre lui et que sa traîtrise l'écure Sa seule faiblesse, au fond, c'est l'âge Encore une nuit blanche, pleine d'idées noires Les cauchemars n'en sont que l'arborescence Et les rêves nous donnent des rides d'espoir Petit Lord grandit, mais se perd dans un fossé large Il dépeint sa peine sur un fond sonore Et décide de se défoncer l'âme, tu m'étonnes Voir ses souvenirs disparaître dans un nuage de fumée blanche Est toujours plus simple que de sécher ses larmes quand les problèmes sont plus étanches J'repense à mon père, à nos similitudes Plus je grandis, plus j'le ressemble Pourtant j'ai du mal à me reconnaître en lui En tout ce qui nous rassemble Petit Lord encaisse les coups, questionne le ciel, pourquoi papa Est colérique entre nous, répond le ciel Je ne sais pas, mais tu en hérites La vie n'est pas très équitable mais les souvenirs disparaissent dans les châteaux de sable Châteaux de sable, châteaux de sable, châteaux de sable Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les Châteaux de sable, les souvenirs disparaissent dans les châteaux de sable</t>
+          <t>Couronné, frère J'suis dans l'mouvement, flow insoutenable Trouve-moi tout devant, flex à Copenhague, yeah Suffit d'une mesure pour que j'me téléporte, yeah Donne-moi le caviar, j'ai d'jà goûté les pâtes Tous me connaissent et m'appellent L.O Promesses J'arrive déterminé comme un guerrier du Péloponnèse Il tue à peine ce kid sous Fried Kentucky, il me vénère à m'dire Man, can you kick ? Décidément, maman n'est pas déçue de moi Portes d'entrée dans l'cinéma, ma tête partout d'ici deux mois J'dois halluciner, man, chh, tant de style Ils ont tous tendu l'stylo quand j'ai dit signez-moi J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né J'vous la rentre entièrement, rose noire pour l'enterrement Jeune prodige infernal voit reflet dans flaque du J'ai pas besoin que tu me dises que j'suis le meilleur Après, la vie, ça reste un peu comme colin-maillard Qui se s'rait douté qu'on ferait folies, money cash ? En affaires je n'laisse rien passer comme Neuer J'rentre sur l'beat avec mes couilles, je joue des maracas, eh J'écoute plus leur baratin, je repars à Marrakech voir l'marabout qui m'a rajouté un 10 dans un J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né fresh light, nouveau-né, fresh light, nouveau-né</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Check In</t>
+          <t>CRASH TEST</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, bonjour et bienvenue à bord du vol LEDTV épisode 2. La représentation qui va suivre concerne votre sécurité à bord de notre compagne, L.O Airlines lors de ce voyage improvisé aux quatre coins du globe. Les issues d'secours sont situées de chaque côté de la cabine, à l'avant, au centre et à l'arrière. N'essayez en aucun cas de les ouvrir avant d'avoir reçu des indications du personnel de bord. Toute l'équipe Paramour se tient à votre disposition en cas de question Chaque fois que ce signal est allumé, vous devrez attacher votre ceinture. Il est probable que nous soyons confrontés à des zones de turbulence dues à piqûres de basses enflammées, des structures futuristes ou encore des bouts de couplets stridents. Ne paniquez pas. En cas de dépressurisation, un masque à oxygène tombera automatiquement près de vous Mesdames et messieurs, merci pour votre attention. Ce projet est l'aboutissement de deux ans de travail afin de réunir des artistes du monde entier sur le même disque, volonté évoquée par Lord Esperanza et rendue possible grâce à ses nombreux anges gardiens. Il est désormais entre vos mains et nous comptons sur vous pour le défendre comme vous en avez si bien l'habitude. En d'autres mots, streamez ça, chacals Au nom de toute la compagnie L.O Airlines, nous vous souhaitons un excellent vol. L'aventure va commencer</t>
+          <t>Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Deux secondes avant l'crash, je conduis de nuit sous l'orage Le passager roule un joint pendant l'trajet La fumée dans l'habitacle colorait l'cur de l'appui-tête Woop, woop, deux secondes avant l'outrage, monsieur l'agent J'veux être blindé comme la Brink's uh J'veux qu'on parle de moi autant que la crise Aller-retour sous la pluie ah J'aimerais remonter le temps pour éviter toutes les bananes qu'on a pris Me diront que c'est la vie quand j'leur demanderai de l'aide Mais quand ils battront d'l'aile, moi, j's'rai le premier de la liste Fais gaffe à pas trop manquer d'air, c'est des rapaces, il faut être vif Ils auront tous le regard vide quand nos salles seront pleines 'vie de brûler brûler En wheeling, tous les samedis sous la pluie sous la pluie Vitres embuées 'buées quand je claque ton tatouage sur la cuisse Y a plus d'batterie sur le portable, faut encore gratter des textes ouais, ouais J'me sens comme Statham quand il braquait des caisses Crash test, ma génération à fond dans un platane J'avoue, j'ai pu rougir avec un fond d'eau écarlate Nah, j'baisse pas l'son, j'baise ton groupe de garage Répercussion j'ai un groove de cadavre J'bouge que sur des percussions, n'l'ouvre que pour en faire du bon Contre la tentation, j'ai perdu moult bagarres olup Pourquoi qu'ils l'ouvrent, ces bâtards ? Chez nous, on t'nique Ta mère la pute avec un accent grave, eh La rime est pure mais j'te la vendrai pas au gramme tut, tut On crie des sku en bas des baobabs Trop d'putes, trop d'follow, j'en devient mégalomane J'ai des groupies, j'ai du flow au bout du tuyau d'arrosage Croco sur l'polo, quand même, on n'est pas au bagne Alien.VSO, j'ai laissé mon arobase Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Première vitesse, deuxième vitesse, troisième vitesse, quatrième baw C'est kung-fu PX, microphone check it, VSO, ceinture noire, quatrième dan, woh Je pollue la jeunesse comme le plastique des flashballs, t'es has-been comme la file de droite et les flash mob Bouteille de Ciroc, numéro d'SIRET, entrepreneur et intermittent du spectacle J'mets tellement l'pied au plancher qu'j'finis l'genou dans la cave À l'époque, j'allais pointer en Clio 2 rouge à la CAF Maintenant, Nîmes city, ça brûle, j'suis en zone inhabitable J'peux pas sauver l'Amazonie, j'peux enfumer l'habitacle C'est PEX, bro, j'ai découpé l'ordinateur, j'ai des bouts d'verre sous la peau J'ai des couplets formidables, le pommeau d'vitesse sous la paume J'fonce sur tous les rageux, VSO, Lord Esperanza, y a pas d'erreur d'arbitrage Les industriels gèrent les gouvernements, les gouvernements gèrent les populations L'Homme est destiné à se reproduire donc à chaque nouveau feat', j'suis en copulation J'entends quand même des Mec, en fait, tas mis des femmes, mais ten fais qu'à ta gueule J'suis bloqué dans l'cauchemar d'un Télétubbies sous méthamphétamine Les médias taisent qu'un tel est tué, la prise de pouvoir est bien trop factuelle Multiplie par trois le BPM pour avoir mon quotient intellectuel yeah Prince de la trap, j'ai plus l'temps d'jouer, j'serre la main à des gens plus importants que des gens très importants dans un jean troué, yeah À quoi bon refaire nos villes vu qu'la jeunesse veut se perdre nowhere ? J'dérange comme un potager dans Tchernobyl, comme un Camerounais en Père Noël, olup olup J'ai aucun mal à dire adieu, vous pleurez quand vous dites au revoir L.O.R.D pour le cri radieux, Esperanza pour le guitare-voix La couronne est partout, la plupart d'mes anciens professeurs adhèrent au motif Programmé à m'envoler comme processeur aéronautique, wow L.O, VSO yeah, l'argent pousse leurs zygomatiques, fume le cigare sur un lit pneumatique Mon équipe au Vatican roule en plaque diplomatique</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cimetière de rêves</t>
+          <t>Dans les flammes</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Les mauvaises pensées souhaiteraient hanter mes rêves Tant d'erreurs qui rendent humains Au royaume des ombres où l'on se doit d'être téméraires Seules les flammes te tendent une main Le manque de sommeil t'emmènera J'attends le repos qu'un nuage enverra Laisse le reste vociférer le temps m'est rare, on s'y fera Tremper notre madeleine de Proust dans un verre de lait Une nuit étoilée pour éclairer nos cervelets Cette fatigue qu'on finit par aimer finit par régner Sur notre empire comme tous les liens qu'on a tissés sur ces toiles d'araignées Je n'ai pas renié le moi, je suis juste le même en pire Car bloqué entre deux cycles de sommeil, mon regard parait niais Je suis ma route comme le pic du soleil Le marchand de sable n'est qu'un parolier Faisait croire que le corps et l'âme ne sont pas reliés Le temps accule les semestres Ma rancune se défenestre Une vie t'en n'a qu'une alors fais naître tes idées avant de te perdre Décimé dans des tentacules de ténèbre Je pense à la gloire de demain A mes fautes d'hier Je m'endors des galaxies sous les paupières L'alchimiste veut comprendre à travers ses étranges formules Mes nuits blanches s'assombrissent comme l'aile d'un ange que l'on brûle Dans le cimetière des rêves où les cauchemars sont somnambulent Il ne reste que des bouts de drapeau d'abandon qui ondulent Qui sommes-nous ? Des esprits centenaires dans des corps d'insomnie Si nos curs ont l'air en paix enterre-les On s'perd la nuit et N a su faire taire les craintes, guidés par nos rêves perlés1</t>
+          <t>J'suis daltonien mais j'confonds jamais La couleur de la liasse Grandis dans l'noir j'oublie pas la douleur que ça laisse Au fond du puit J'entends encore les chauve-souris Bercé trop près du pot pourri Comme le joker les souris J'crois qu'j'ai des souvenirs du futur J'propose le caillou le plus pur Du côté très obscur de la lumière Il parlèrent mais tous titubèrent J'suis dans le onze titulaire Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glacs fonde Mon ange gardien st cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok Je reviens des morts, dans ma têtes les confidences La lune écoute mes confidences Trop occupé à façonner mon art J'fais tourner les têtes comme le fils du monarque Le mojo est noir J'arrive dans la pièce, j'cause un silence Aucune bonne étoile peut chasser l'or, le ciel Comment croire les coïncidences Le rap c'est d'la politique Quand la police tire sur les peaux métisses Y a pas d'armistice pour ton orifice Mais les pronostiques m'annoncent trop mystique Tu rentres du goulag, on rentre du boulot On boit la concurrence au goulot Peut importe l'heure, le monde est très noir Parmi les meilleurs produits du terroir Je meurs en teneur, billet tombé noir Jeune entrepreneur, je rentre en peignoir Ok ok Génération après nous la fin du monde Ok ok On craint pas nos pères, on craint que le ciel qui gronde Ok ok J'rapperai jusqu'à c'que la dernière des glaces fonde Mon ange gardien est cagoulé Autour d'la poitrine il porte une ombre C'est moi j'tape la bise au maire L'avenir est en missionnaire Ok ok Tu m'entends d'abord tu m'vois qu'après comme le bruit d'tonnerre Ok ok Dans les flammes de l'enfer mon ombre allume sa cigarette Ok ok Ok ok Si mon âme est en fer, j'la change en or puis j'arrête Ok ok Ok ok</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Comme ça</t>
+          <t>Dégénéré</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi, je compte plus les amitiés délaissées, les jugements portés sur tous mes essais Dfaçon, quand jy pense, ce nest pas si récent, comme les regards perfides dintéressés Jvoulais simplement combler chaque seconde de ma vie Pendant que mon cur faisait quelques rondes dans la nuit Toutes ces soirées à refaire le monde dans Paris Jai vu les gens changer autour de moi Dois-je me sentir coupable de réussir ? Mais bon, tout va vite et les vautours le savent Donc trace ta route comme on dirait ici Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jai juste besoin quon m'rappelle que j'suis personne Jai grandi entre père instable et mère seule J'rêve dun reflet symétrique comme les films de Wes Anderson Toujours entre excès et manque de confiance, ici, cest simple de perdre sa conscience Moi, jveux juste toucher les curs comme seule récompense Jai peur du succès, peur de npas être capable, peur de plus mreconnaître Jbois vos compliments cul sec, parfois, j'déconnecte mais mon cur est honnête Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Tu sais, tout ça ne se fait pas tout seul Y a tous mes gens dans lombre qui maintiennent ma boussole Jécris c'couplet, libre et passionné, jveux vivre ovationné Est-ce quand t-il pleut, tu enivres la race humaine ? Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Moi qui rêvais de devenir une star Jnaurai pas pu m'douter qucétait comme ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça Jnaurai pas pu m'douter qucétait ça</t>
+          <t>Plaire à tout le monde, c'est plaire à des hypocrites, les yeux fermés dans les virages C'est plus des morceaux, c'est des miracles, qui vide son verre, videra son cur Chaque jour de plus, j'suis tiraillé, mais c'est pire ailleurs Grand-mère s'inquiète plus, son p'tit fils vivra son heure J'oublie problèmes dans la foule quand j'ai sauté J'veux voir la ville recouverte de mes photos Le trône n'est qu'un fauteuil, Seigneur, j'ai fauté Les rêves nous rajeunissent, les vrais entre eux se reconnaissent Le temps est tenace, tous les murs jaunissent, c'est plus des menaces mais des promesses Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré J'ai basé mon avenir sur mon audace, j'le fais pour la fierté de mes ancêtres La frontière est large entre la personne que tu es, à qui tu es habitué et celui que tu penses être Prince de la trap devenu roi de la ville, j'ai fini par changer l'décor Tout s'esquinte sauf le destin, tu peux mourir ou enjamber les corps J'ai beau cultiver ma lumière, j'me lève avec un nouveau vice de plus J'me porte bien mieux depuis qu'j'côtoie plus des fils de pute Y'a des risques de pluie, surveille le ciel, regarde les étoiles Prends la plus ancienne et n'oublie jamais que j'existe depuis Dégénéré, dégénéré Dégénéré, dégénéré Dégénéré, dégénéré, dégénéré Dis-moi pourquoi plus t'encaisses et moins t'es généreux, ma santé mentale a pu dégénérer Nouvelle pop star, j'mange du lobster, Paramour empire, pas d'avocat véreux Trois heures du mat', elle m'demande de rester, désolé ma belle mais l'avenir m'attend C'est plus des morceaux, c'est des manques de respect J'rétablis la monarchie, t'étais où quand j'démarchais toute l'industrie ? Peu de feats sur mon album car les crimes vous laissent trop d'archives J'me sens vénéré, même si les haineux restent, j'avais des craintes et j'en ai fait des rêves Vingt-cinq ans, troisième album, trouve-moi sur l'fauteuil d'Ellen Degeneres</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Comment on s’aime</t>
+          <t>Déluge</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Honte davoir honte Comment changer de contexte Tout paraît plus complexe avec tous mes complexes Tous les jours, cest pareil Je me fais mon cinéma Jarrête pas de me comparer, cest normal si jai mal Je me mets dans tous mes états Un jour ça sarrêtera On sest mis dans tous nos états À courir après ce qu'on n'est pas Bien sûr quon fait naufrage Sur les plages du sabotage T'en veux pas, on fait tous ça Alors on devient ce quon ne vut pas A vouloir trouver le mieux n soi Dès que comme une prise d'otage Se laisser sortir des cages Ten veux pas, ça ira Je me mets dans tous mes états Un jour sarrêtera Et je sais que ça ira Sentiment étranger Jai jamais limpression dêtre rangé Jamais limpression dêtre à ma place Mais cest quoi ma place ? Affronter ma conscience ou créer une carapace Les problèmes du passé, déplacés Qu'on remplace de chaud, tu es le père ou perpétue Faut que javance tout droit Je sais que la peur peut tuer Mais ça ira, ça ira Faut faire taire la petite voix Pourtant cest fou quand on sait comment on saigne Moi, je veux juste qu'on m'enseigne Quon m'enseigne comment on saime</t>
+          <t>x2 On verras bien on verras bien J'ai pansé mes parties qui saignent avec le sel de l'eau de la mer L'ange de la mort souhaitera toujours prendre mon âme vers l'au delà mais Tout cela m'est artificiel Tant d'appelés pour si peu d'élus rongés par le froid du déluge La race humaine sacrifie le ciel Grandis dans le désordre Je pleure mes fautes et mes défauts, mes plaies se résorbent Je me construis dans mes blessures et non pas dans le regard des autres mais c'est sûr que je me garde des vôtres Mon égo se perds dans ses césures Et ça fait des heures, que je médite sur ma personne, la lumière pénètre les sous-sols comme ton regard quand tu m'aperçois Mais à part ça je me fais tout seul, faut garder son orgueil pour soi Finit sous le ciel, en rêvant de percer Je vois le monde en rouge sous mes Persol La main tendue, je remercie ceux qui m'attendaient Sois sûr de toi m'a-t-on dit Mais parfois les temps sont durs, après l'orage les tensions durent, ce matin d'hiver qui m'attendrit J'entends le bruit des rivières pourpres quand le ciel s'était étendu On manie la magie des cartes écris l'histoire à l'encre indélébile Intelligent, mais surtout intelligible Devant moi le ciel s'écarte je promets qu'il ne vont pas m'oublier Pars de rien, fais des milliers, dans l'immobilier Pute ma peine est démentielle, laisse place à la rédemption Si les anges pleurent, les démons saignent je suis trop anxieux car les vents sont pas toujours favorables Mais les étoiles filantes qui dansent éclaboussent toutes les reflets de mon ciel Faut savoir prêcher la morale, je revois mes espoirs Empêchant mes pêchés de disparaître pendant l'orage La rage me laisse croire, n'est-ce pas, quand il est trop tard que les larmes versées coulent à même le trottoir A force de trop de proximité, ils finissent même par s'imiter Ma partie noire s'empare de vos égos, vous repartez sans dignité La concurrence est limité, je féconde leur mère, ce sont mes fils Résultat de consanguinité2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Couronné</t>
+          <t>Demain</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Couronné, frère J'suis dans l'mouvement, flow insoutenable Trouve-moi tout devant, flex à Copenhague, yeah Suffit d'une mesure pour que j'me téléporte, yeah Donne-moi le caviar, j'ai d'jà goûté les pâtes Tous me connaissent et m'appellent L.O Promesses J'arrive déterminé comme un guerrier du Péloponnèse Il tue à peine ce kid sous Fried Kentucky, il me vénère à m'dire Man, can you kick ? Décidément, maman n'est pas déçue de moi Portes d'entrée dans l'cinéma, ma tête partout d'ici deux mois J'dois halluciner, man, chh, tant de style Ils ont tous tendu l'stylo quand j'ai dit signez-moi J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né J'vous la rentre entièrement, rose noire pour l'enterrement Jeune prodige infernal voit reflet dans flaque du J'ai pas besoin que tu me dises que j'suis le meilleur Après, la vie, ça reste un peu comme colin-maillard Qui se s'rait douté qu'on ferait folies, money cash ? En affaires je n'laisse rien passer comme Neuer J'rentre sur l'beat avec mes couilles, je joue des maracas, eh J'écoute plus leur baratin, je repars à Marrakech voir l'marabout qui m'a rajouté un 10 dans un J'ai commencé dans l'tro-m', là, j'suis sur Place Vendôme En Rolls-Royce Phantom, viens, on s'pète tantôt Bien ou quoi, le santo ? Fou-rire sur le manteau Le monde comme Monsanto, flex occidentaux Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Tout meurt et tout renaît Couronné, couronné Fresh light, nouveau-né fresh light, nouveau-né, fresh light, nouveau-né</t>
+          <t>Quand jsuis venu au monde, jai dû me tromper dendroit Au moins, jme dis que mon cur est en vie Si tas du mal à te reconnaître en lui Tauras du mal à te reconnaître en moi Ne dis pas à tes rêves que tas des grands problèmes Dis à tes problèmes que tas de très grands rêves Demain, demain nest quun recommencement de toutes nos vies si brèves Je crois que jai toujours fait tache Mes démons jouent à cache-cache En amour, trop dhistoires que je gâche Plus jméloigne, plus elle sattache Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Jsais quon est tous les mêmes devant le sablier Mais jai limpression de lavoir sous contrôle Alors quil n'sera jamais mon allié Pourtant il me fait croire quil a le bon rôle Au final, je préfère des jours remplis de vie Que vivre une longue vie quest juste remplie de jours Avec le temps, même tes souvenirs toublient Jaimerais faire en sorte que maintenant dure toujours Bien sûr que lavenir est lâche Puisque quil nous détruit sans relâche Quand l'éclair du destin se fâche Il ny a quà lespoir que jmattache Quoi quil en soit, je nsais pas de quoi sera fait demain Quoi quil en soit, je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Miroir, miroir, douleur, couche tard Doù meurt le soir dans mes cauchemars Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait Demain, demain, demain, demain, demain Je nsais pas de quoi sera fait demain1</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CRASH TEST</t>
+          <t>Démarrer</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Deux secondes avant l'crash, je conduis de nuit sous l'orage Le passager roule un joint pendant l'trajet La fumée dans l'habitacle colorait l'cur de l'appui-tête Woop, woop, deux secondes avant l'outrage, monsieur l'agent J'veux être blindé comme la Brink's uh J'veux qu'on parle de moi autant que la crise Aller-retour sous la pluie ah J'aimerais remonter le temps pour éviter toutes les bananes qu'on a pris Me diront que c'est la vie quand j'leur demanderai de l'aide Mais quand ils battront d'l'aile, moi, j's'rai le premier de la liste Fais gaffe à pas trop manquer d'air, c'est des rapaces, il faut être vif Ils auront tous le regard vide quand nos salles seront pleines 'vie de brûler brûler En wheeling, tous les samedis sous la pluie sous la pluie Vitres embuées 'buées quand je claque ton tatouage sur la cuisse Y a plus d'batterie sur le portable, faut encore gratter des textes ouais, ouais J'me sens comme Statham quand il braquait des caisses Crash test, ma génération à fond dans un platane J'avoue, j'ai pu rougir avec un fond d'eau écarlate Nah, j'baisse pas l'son, j'baise ton groupe de garage Répercussion j'ai un groove de cadavre J'bouge que sur des percussions, n'l'ouvre que pour en faire du bon Contre la tentation, j'ai perdu moult bagarres olup Pourquoi qu'ils l'ouvrent, ces bâtards ? Chez nous, on t'nique Ta mère la pute avec un accent grave, eh La rime est pure mais j'te la vendrai pas au gramme tut, tut On crie des sku en bas des baobabs Trop d'putes, trop d'follow, j'en devient mégalomane J'ai des groupies, j'ai du flow au bout du tuyau d'arrosage Croco sur l'polo, quand même, on n'est pas au bagne Alien.VSO, j'ai laissé mon arobase Cha J'suis dans concessionnaire automobile skula, skula, skula Olup, olup, olup vroum, vroum, haha, eh Que des fils de chht au bout du fil sku Olup, olup, olup, olala Première vitesse, deuxième vitesse, troisième vitesse, quatrième baw C'est kung-fu PX, microphone check it, VSO, ceinture noire, quatrième dan, woh Je pollue la jeunesse comme le plastique des flashballs, t'es has-been comme la file de droite et les flash mob Bouteille de Ciroc, numéro d'SIRET, entrepreneur et intermittent du spectacle J'mets tellement l'pied au plancher qu'j'finis l'genou dans la cave À l'époque, j'allais pointer en Clio 2 rouge à la CAF Maintenant, Nîmes city, ça brûle, j'suis en zone inhabitable J'peux pas sauver l'Amazonie, j'peux enfumer l'habitacle C'est PEX, bro, j'ai découpé l'ordinateur, j'ai des bouts d'verre sous la peau J'ai des couplets formidables, le pommeau d'vitesse sous la paume J'fonce sur tous les rageux, VSO, Lord Esperanza, y a pas d'erreur d'arbitrage Les industriels gèrent les gouvernements, les gouvernements gèrent les populations L'Homme est destiné à se reproduire donc à chaque nouveau feat', j'suis en copulation J'entends quand même des Mec, en fait, tas mis des femmes, mais ten fais qu'à ta gueule J'suis bloqué dans l'cauchemar d'un Télétubbies sous méthamphétamine Les médias taisent qu'un tel est tué, la prise de pouvoir est bien trop factuelle Multiplie par trois le BPM pour avoir mon quotient intellectuel yeah Prince de la trap, j'ai plus l'temps d'jouer, j'serre la main à des gens plus importants que des gens très importants dans un jean troué, yeah À quoi bon refaire nos villes vu qu'la jeunesse veut se perdre nowhere ? J'dérange comme un potager dans Tchernobyl, comme un Camerounais en Père Noël, olup olup J'ai aucun mal à dire adieu, vous pleurez quand vous dites au revoir L.O.R.D pour le cri radieux, Esperanza pour le guitare-voix La couronne est partout, la plupart d'mes anciens professeurs adhèrent au motif Programmé à m'envoler comme processeur aéronautique, wow L.O, VSO yeah, l'argent pousse leurs zygomatiques, fume le cigare sur un lit pneumatique Mon équipe au Vatican roule en plaque diplomatique</t>
+          <t>Ouais, j'ai la haine comme Rick Démarrer, démarrer, démarrer hé Dé